--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="251">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -704,15 +704,9 @@
     <t>PT00161</t>
   </si>
   <si>
-    <t>Chị Huệ Điện Biên thanh toán tiền hàng</t>
-  </si>
-  <si>
     <t>Vận chuyển hàng chị Huệ</t>
   </si>
   <si>
-    <t>Chị ngọc Anh thái Bình thanh toán tiền hàng</t>
-  </si>
-  <si>
     <t>PT00162</t>
   </si>
   <si>
@@ -759,6 +753,33 @@
   </si>
   <si>
     <t>PC00208</t>
+  </si>
+  <si>
+    <t>Đi đường</t>
+  </si>
+  <si>
+    <t>Cước đường bộ</t>
+  </si>
+  <si>
+    <t>Tiếp khách,công tác</t>
+  </si>
+  <si>
+    <t>Café Hồng Nhung</t>
+  </si>
+  <si>
+    <t>PT00164</t>
+  </si>
+  <si>
+    <t>Bán xe ô tô (Ngày nhận HĐ 09/09/2020)</t>
+  </si>
+  <si>
+    <t>Cước đường bộ (Ngày nhận HĐ 09/09/2020)</t>
+  </si>
+  <si>
+    <t>Chị Huệ Điện Biên thanh toán tiền hàng HĐ số 785</t>
+  </si>
+  <si>
+    <t>Chị ngọc Anh thái Bình thanh toán tiền hàng HĐ số 787</t>
   </si>
 </sst>
 </file>
@@ -2482,6 +2503,162 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2512,6 +2689,12 @@
     <xf numFmtId="168" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2530,16 +2713,16 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2590,9 +2773,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2656,29 +2836,56 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2758,6 +2965,24 @@
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2818,6 +3043,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2964,213 +3192,6 @@
     </xf>
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3482,12 +3503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,16 +3562,16 @@
       <c r="I3" s="376"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="410" t="s">
+      <c r="A4" s="462" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="410"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
+      <c r="D4" s="462"/>
+      <c r="E4" s="462"/>
+      <c r="F4" s="462"/>
+      <c r="G4" s="462"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="376"/>
     </row>
     <row r="5" spans="1:9" s="374" customFormat="1" x14ac:dyDescent="0.25">
@@ -3564,32 +3584,32 @@
       <c r="H5" s="373"/>
     </row>
     <row r="6" spans="1:9" s="374" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="411" t="s">
+      <c r="A6" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="568" t="s">
+      <c r="B6" s="468" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="411" t="s">
+      <c r="C6" s="463" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="413" t="s">
+      <c r="D6" s="465" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="415" t="s">
+      <c r="E6" s="467" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="415"/>
-      <c r="G6" s="415" t="s">
+      <c r="F6" s="467"/>
+      <c r="G6" s="467" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="415"/>
+      <c r="H6" s="467"/>
     </row>
     <row r="7" spans="1:9" s="374" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
-      <c r="B7" s="569"/>
-      <c r="C7" s="412"/>
-      <c r="D7" s="414"/>
+      <c r="A7" s="464"/>
+      <c r="B7" s="469"/>
+      <c r="C7" s="464"/>
+      <c r="D7" s="466"/>
       <c r="E7" s="378" t="s">
         <v>79</v>
       </c>
@@ -3603,7 +3623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="379">
         <v>44075</v>
       </c>
@@ -3628,7 +3648,7 @@
         <v>44075</v>
       </c>
       <c r="B9" s="379" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="380" t="s">
         <v>129</v>
@@ -3648,7 +3668,7 @@
         <v>44075</v>
       </c>
       <c r="B10" s="379" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="380" t="s">
         <v>132</v>
@@ -3668,7 +3688,7 @@
         <v>44075</v>
       </c>
       <c r="B11" s="379" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="380" t="s">
         <v>132</v>
@@ -3688,7 +3708,7 @@
         <v>44075</v>
       </c>
       <c r="B12" s="379" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C12" s="380" t="s">
         <v>129</v>
@@ -3708,7 +3728,7 @@
         <v>44075</v>
       </c>
       <c r="B13" s="379" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C13" s="380" t="s">
         <v>132</v>
@@ -3728,7 +3748,7 @@
         <v>44075</v>
       </c>
       <c r="B14" s="379" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" s="380" t="s">
         <v>132</v>
@@ -3743,7 +3763,7 @@
         <v>1289000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="379">
         <v>44075</v>
       </c>
@@ -3769,7 +3789,7 @@
         <v>44075</v>
       </c>
       <c r="B16" s="379" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="380" t="s">
         <v>128</v>
@@ -3789,7 +3809,7 @@
         <v>44075</v>
       </c>
       <c r="B17" s="379" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="380" t="s">
         <v>130</v>
@@ -3809,13 +3829,13 @@
         <v>44077</v>
       </c>
       <c r="B18" s="379" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" s="380" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="381" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" s="382"/>
       <c r="F18" s="383"/>
@@ -3824,7 +3844,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="379">
         <v>44077</v>
       </c>
@@ -3835,7 +3855,7 @@
         <v>206</v>
       </c>
       <c r="D19" s="381" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E19" s="382">
         <v>13098000</v>
@@ -3849,7 +3869,7 @@
         <v>44077</v>
       </c>
       <c r="B20" s="379" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="380" t="s">
         <v>132</v>
@@ -3869,7 +3889,7 @@
         <v>44077</v>
       </c>
       <c r="B21" s="379" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="380" t="s">
         <v>128</v>
@@ -3889,7 +3909,7 @@
         <v>44077</v>
       </c>
       <c r="B22" s="379" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C22" s="380" t="s">
         <v>206</v>
@@ -3904,12 +3924,12 @@
         <v>6960000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="379">
         <v>44077</v>
       </c>
       <c r="B23" s="379" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C23" s="380" t="s">
         <v>206</v>
@@ -3924,18 +3944,18 @@
       <c r="G23" s="382"/>
       <c r="H23" s="383"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="379">
         <v>44080</v>
       </c>
       <c r="B24" s="379" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="380" t="s">
         <v>206</v>
       </c>
       <c r="D24" s="381" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="E24" s="382">
         <v>3221400</v>
@@ -3944,12 +3964,12 @@
       <c r="G24" s="382"/>
       <c r="H24" s="383"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="379">
         <v>44082</v>
       </c>
       <c r="B25" s="379" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C25" s="380" t="s">
         <v>131</v>
@@ -3969,7 +3989,7 @@
         <v>44083</v>
       </c>
       <c r="B26" s="379" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" s="380" t="s">
         <v>128</v>
@@ -3985,42 +4005,76 @@
       <c r="H26" s="383"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="379"/>
+      <c r="A27" s="379">
+        <v>44083</v>
+      </c>
       <c r="B27" s="379"/>
-      <c r="C27" s="380"/>
-      <c r="D27" s="381"/>
+      <c r="C27" s="380" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="381" t="s">
+        <v>243</v>
+      </c>
       <c r="E27" s="382"/>
       <c r="F27" s="383"/>
       <c r="G27" s="382"/>
-      <c r="H27" s="383"/>
+      <c r="H27" s="383">
+        <v>15000</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="379"/>
+      <c r="A28" s="379">
+        <v>44070</v>
+      </c>
       <c r="B28" s="379"/>
-      <c r="C28" s="380"/>
-      <c r="D28" s="381"/>
+      <c r="C28" s="380" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="381" t="s">
+        <v>248</v>
+      </c>
       <c r="E28" s="382"/>
       <c r="F28" s="383"/>
       <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
+      <c r="H28" s="383">
+        <v>40000</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="379"/>
+      <c r="A29" s="379">
+        <v>44083</v>
+      </c>
       <c r="B29" s="379"/>
-      <c r="C29" s="380"/>
-      <c r="D29" s="381"/>
+      <c r="C29" s="380" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="381" t="s">
+        <v>245</v>
+      </c>
       <c r="E29" s="382"/>
       <c r="F29" s="383"/>
       <c r="G29" s="382"/>
-      <c r="H29" s="383"/>
+      <c r="H29" s="383">
+        <v>315000</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="379"/>
-      <c r="B30" s="379"/>
-      <c r="C30" s="380"/>
-      <c r="D30" s="381"/>
+      <c r="A30" s="379">
+        <v>44014</v>
+      </c>
+      <c r="B30" s="379" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="380" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="381" t="s">
+        <v>247</v>
+      </c>
       <c r="E30" s="382"/>
-      <c r="F30" s="383"/>
+      <c r="F30" s="383">
+        <v>535000000</v>
+      </c>
       <c r="G30" s="382"/>
       <c r="H30" s="383"/>
     </row>
@@ -4865,19 +4919,19 @@
       <c r="H114" s="385"/>
     </row>
     <row r="115" spans="1:9" s="388" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="407" t="s">
+      <c r="A115" s="459" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="408"/>
-      <c r="C115" s="408"/>
-      <c r="D115" s="409"/>
+      <c r="B115" s="460"/>
+      <c r="C115" s="460"/>
+      <c r="D115" s="461"/>
       <c r="E115" s="387">
         <f>SUM(E8:E114)</f>
         <v>116319400</v>
       </c>
       <c r="F115" s="387">
         <f t="shared" ref="F115:H115" si="0">SUM(F8:F114)</f>
-        <v>9658385</v>
+        <v>544658385</v>
       </c>
       <c r="G115" s="387">
         <f t="shared" si="0"/>
@@ -4885,7 +4939,7 @@
       </c>
       <c r="H115" s="387">
         <f t="shared" si="0"/>
-        <v>14818385</v>
+        <v>15188385</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="388" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -4899,11 +4953,11 @@
       <c r="H116" s="391"/>
     </row>
     <row r="117" spans="1:9" s="388" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="406" t="s">
+      <c r="A117" s="458" t="s">
         <v>80</v>
       </c>
-      <c r="B117" s="406"/>
-      <c r="C117" s="406"/>
+      <c r="B117" s="458"/>
+      <c r="C117" s="458"/>
       <c r="D117" s="390"/>
       <c r="E117" s="391"/>
       <c r="F117" s="391"/>
@@ -4987,20 +5041,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H115">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="PC00195"/>
-        <filter val="PC00196"/>
-        <filter val="PC00197"/>
-        <filter val="PC00198"/>
-        <filter val="PC00199"/>
-        <filter val="PC00200"/>
-        <filter val="PC00201"/>
-        <filter val="PC00202"/>
-        <filter val="PC00203"/>
-        <filter val="PC00204"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -5038,31 +5078,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="557" t="s">
+      <c r="A1" s="626" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="557"/>
-      <c r="C1" s="557"/>
+      <c r="B1" s="626"/>
+      <c r="C1" s="626"/>
       <c r="I1" s="151"/>
       <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="558" t="s">
+      <c r="A2" s="627" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="558"/>
-      <c r="C2" s="558"/>
+      <c r="B2" s="627"/>
+      <c r="C2" s="627"/>
       <c r="I2" s="151"/>
       <c r="J2" s="152"/>
     </row>
     <row r="3" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="471" t="s">
+      <c r="A3" s="586" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="471"/>
+      <c r="B3" s="586"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="586"/>
+      <c r="E3" s="586"/>
       <c r="F3" s="149"/>
       <c r="G3" s="149"/>
       <c r="H3" s="149"/>
@@ -5090,24 +5130,24 @@
       <c r="N4" s="149"/>
     </row>
     <row r="5" spans="1:14" s="150" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="563" t="s">
+      <c r="A5" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="565" t="s">
+      <c r="B5" s="634" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="563" t="s">
+      <c r="C5" s="632" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="562" t="s">
+      <c r="D5" s="631" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="562"/>
+      <c r="E5" s="631"/>
     </row>
     <row r="6" spans="1:14" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="564"/>
-      <c r="B6" s="566"/>
-      <c r="C6" s="564"/>
+      <c r="A6" s="633"/>
+      <c r="B6" s="635"/>
+      <c r="C6" s="633"/>
       <c r="D6" s="160" t="s">
         <v>123</v>
       </c>
@@ -5380,11 +5420,11 @@
       <c r="E31" s="159"/>
     </row>
     <row r="32" spans="1:5" s="162" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="559" t="s">
+      <c r="A32" s="628" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="560"/>
-      <c r="C32" s="561"/>
+      <c r="B32" s="629"/>
+      <c r="C32" s="630"/>
       <c r="D32" s="161">
         <f t="shared" ref="D32:E32" si="0">SUM(D7:D31)</f>
         <v>80000</v>
@@ -5441,13 +5481,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="443" t="s">
+      <c r="A1" s="496" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
+      <c r="B1" s="496"/>
+      <c r="C1" s="496"/>
+      <c r="D1" s="496"/>
+      <c r="E1" s="496"/>
       <c r="N1" s="185"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5461,163 +5501,163 @@
       <c r="N2" s="189"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="444" t="s">
+      <c r="A3" s="497" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="444"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
-      <c r="G3" s="444"/>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="444"/>
-      <c r="M3" s="444"/>
-      <c r="N3" s="444"/>
-      <c r="O3" s="444"/>
-      <c r="P3" s="444"/>
+      <c r="B3" s="497"/>
+      <c r="C3" s="497"/>
+      <c r="D3" s="497"/>
+      <c r="E3" s="497"/>
+      <c r="F3" s="497"/>
+      <c r="G3" s="497"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="497"/>
+      <c r="J3" s="497"/>
+      <c r="K3" s="497"/>
+      <c r="L3" s="497"/>
+      <c r="M3" s="497"/>
+      <c r="N3" s="497"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="497"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="444" t="s">
+      <c r="A4" s="497" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="444"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="444"/>
-      <c r="F4" s="444"/>
-      <c r="G4" s="444"/>
-      <c r="H4" s="444"/>
-      <c r="I4" s="444"/>
-      <c r="J4" s="444"/>
-      <c r="K4" s="444"/>
-      <c r="L4" s="444"/>
-      <c r="M4" s="444"/>
-      <c r="N4" s="444"/>
-      <c r="O4" s="444"/>
-      <c r="P4" s="444"/>
+      <c r="B4" s="497"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
+      <c r="E4" s="497"/>
+      <c r="F4" s="497"/>
+      <c r="G4" s="497"/>
+      <c r="H4" s="497"/>
+      <c r="I4" s="497"/>
+      <c r="J4" s="497"/>
+      <c r="K4" s="497"/>
+      <c r="L4" s="497"/>
+      <c r="M4" s="497"/>
+      <c r="N4" s="497"/>
+      <c r="O4" s="497"/>
+      <c r="P4" s="497"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="444"/>
-      <c r="B5" s="444"/>
-      <c r="C5" s="444"/>
-      <c r="D5" s="444"/>
-      <c r="E5" s="444"/>
-      <c r="F5" s="444"/>
-      <c r="G5" s="444"/>
-      <c r="H5" s="444"/>
-      <c r="I5" s="444"/>
-      <c r="J5" s="444"/>
-      <c r="K5" s="445"/>
-      <c r="L5" s="445"/>
+      <c r="A5" s="497"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="497"/>
+      <c r="I5" s="497"/>
+      <c r="J5" s="497"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="498"/>
     </row>
     <row r="6" spans="1:17" s="190" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="446" t="s">
+      <c r="A6" s="499" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="501" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="446" t="s">
+      <c r="C6" s="499" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="452" t="s">
+      <c r="D6" s="505" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="452"/>
-      <c r="F6" s="453" t="s">
+      <c r="E6" s="505"/>
+      <c r="F6" s="506" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="453"/>
-      <c r="H6" s="453"/>
-      <c r="I6" s="453"/>
-      <c r="J6" s="453"/>
-      <c r="K6" s="453"/>
-      <c r="L6" s="453"/>
-      <c r="M6" s="454"/>
-      <c r="N6" s="454"/>
-      <c r="O6" s="454"/>
-      <c r="P6" s="455" t="s">
+      <c r="G6" s="506"/>
+      <c r="H6" s="506"/>
+      <c r="I6" s="506"/>
+      <c r="J6" s="506"/>
+      <c r="K6" s="506"/>
+      <c r="L6" s="506"/>
+      <c r="M6" s="507"/>
+      <c r="N6" s="507"/>
+      <c r="O6" s="507"/>
+      <c r="P6" s="508" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="190" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="447"/>
-      <c r="B7" s="449"/>
-      <c r="C7" s="447"/>
-      <c r="D7" s="446" t="s">
+      <c r="A7" s="500"/>
+      <c r="B7" s="502"/>
+      <c r="C7" s="500"/>
+      <c r="D7" s="499" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="446" t="s">
+      <c r="E7" s="499" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="446" t="s">
+      <c r="F7" s="499" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="446" t="s">
+      <c r="G7" s="499" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="450" t="s">
+      <c r="H7" s="503" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="450" t="s">
+      <c r="I7" s="503" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="457" t="s">
+      <c r="J7" s="510" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="457"/>
-      <c r="L7" s="450" t="s">
+      <c r="K7" s="510"/>
+      <c r="L7" s="503" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="450" t="s">
+      <c r="M7" s="503" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="450" t="s">
+      <c r="N7" s="503" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="450" t="s">
+      <c r="O7" s="503" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="456"/>
+      <c r="P7" s="509"/>
     </row>
     <row r="8" spans="1:17" s="190" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="447"/>
-      <c r="B8" s="449"/>
-      <c r="C8" s="447"/>
-      <c r="D8" s="447"/>
-      <c r="E8" s="447"/>
-      <c r="F8" s="447"/>
-      <c r="G8" s="447"/>
-      <c r="H8" s="451"/>
-      <c r="I8" s="451"/>
+      <c r="A8" s="500"/>
+      <c r="B8" s="502"/>
+      <c r="C8" s="500"/>
+      <c r="D8" s="500"/>
+      <c r="E8" s="500"/>
+      <c r="F8" s="500"/>
+      <c r="G8" s="500"/>
+      <c r="H8" s="504"/>
+      <c r="I8" s="504"/>
       <c r="J8" s="283" t="s">
         <v>82</v>
       </c>
       <c r="K8" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="451"/>
-      <c r="M8" s="451"/>
-      <c r="N8" s="451"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="456"/>
+      <c r="L8" s="504"/>
+      <c r="M8" s="504"/>
+      <c r="N8" s="504"/>
+      <c r="O8" s="504"/>
+      <c r="P8" s="509"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="422">
+      <c r="A9" s="478">
         <v>785</v>
       </c>
-      <c r="B9" s="436">
+      <c r="B9" s="490">
         <v>44077</v>
       </c>
-      <c r="C9" s="416"/>
-      <c r="D9" s="416" t="s">
+      <c r="C9" s="470"/>
+      <c r="D9" s="470" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="416" t="s">
+      <c r="E9" s="470" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="354" t="s">
@@ -5652,11 +5692,11 @@
       <c r="P9" s="354"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="432"/>
-      <c r="B10" s="437"/>
-      <c r="C10" s="417"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="417"/>
+      <c r="A10" s="486"/>
+      <c r="B10" s="491"/>
+      <c r="C10" s="471"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="471"/>
       <c r="F10" s="356" t="s">
         <v>138</v>
       </c>
@@ -5687,19 +5727,19 @@
       <c r="P10" s="279"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="416">
+      <c r="A11" s="470">
         <v>662</v>
       </c>
-      <c r="B11" s="424">
+      <c r="B11" s="476">
         <v>44077</v>
       </c>
-      <c r="C11" s="416" t="s">
+      <c r="C11" s="470" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="416" t="s">
+      <c r="D11" s="470" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="416" t="s">
+      <c r="E11" s="470" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="354" t="s">
@@ -5733,11 +5773,11 @@
       <c r="Q11" s="297"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="420"/>
-      <c r="B12" s="428"/>
-      <c r="C12" s="420"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="420"/>
+      <c r="A12" s="474"/>
+      <c r="B12" s="482"/>
+      <c r="C12" s="474"/>
+      <c r="D12" s="474"/>
+      <c r="E12" s="474"/>
       <c r="F12" s="355" t="s">
         <v>137</v>
       </c>
@@ -5762,17 +5802,17 @@
       <c r="M12" s="295"/>
       <c r="N12" s="295"/>
       <c r="O12" s="295">
-        <f t="shared" ref="O12:O15" si="2">L12</f>
+        <f t="shared" ref="O12:O14" si="2">L12</f>
         <v>2790000</v>
       </c>
       <c r="P12" s="277"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="420"/>
-      <c r="B13" s="428"/>
-      <c r="C13" s="420"/>
-      <c r="D13" s="420"/>
-      <c r="E13" s="420"/>
+      <c r="A13" s="474"/>
+      <c r="B13" s="482"/>
+      <c r="C13" s="474"/>
+      <c r="D13" s="474"/>
+      <c r="E13" s="474"/>
       <c r="F13" s="355" t="s">
         <v>152</v>
       </c>
@@ -5803,11 +5843,11 @@
       <c r="P13" s="355"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="417"/>
-      <c r="B14" s="425"/>
-      <c r="C14" s="417"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="417"/>
+      <c r="A14" s="471"/>
+      <c r="B14" s="477"/>
+      <c r="C14" s="471"/>
+      <c r="D14" s="471"/>
+      <c r="E14" s="471"/>
       <c r="F14" s="356" t="s">
         <v>134</v>
       </c>
@@ -5841,7 +5881,7 @@
       <c r="A15" s="358">
         <v>787</v>
       </c>
-      <c r="B15" s="635">
+      <c r="B15" s="457">
         <v>44080</v>
       </c>
       <c r="C15" s="350" t="s">
@@ -5931,7 +5971,7 @@
       <c r="A17" s="358">
         <v>790</v>
       </c>
-      <c r="B17" s="635">
+      <c r="B17" s="457">
         <v>44081</v>
       </c>
       <c r="C17" s="358" t="s">
@@ -5989,11 +6029,11 @@
       <c r="P18" s="360"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="416"/>
-      <c r="B19" s="424"/>
-      <c r="C19" s="416"/>
-      <c r="D19" s="438"/>
-      <c r="E19" s="438"/>
+      <c r="A19" s="470"/>
+      <c r="B19" s="476"/>
+      <c r="C19" s="470"/>
+      <c r="D19" s="492"/>
+      <c r="E19" s="492"/>
       <c r="F19" s="284"/>
       <c r="G19" s="284"/>
       <c r="H19" s="311"/>
@@ -6007,11 +6047,11 @@
       <c r="P19" s="312"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="420"/>
-      <c r="B20" s="428"/>
-      <c r="C20" s="420"/>
-      <c r="D20" s="439"/>
-      <c r="E20" s="439"/>
+      <c r="A20" s="474"/>
+      <c r="B20" s="482"/>
+      <c r="C20" s="474"/>
+      <c r="D20" s="493"/>
+      <c r="E20" s="493"/>
       <c r="F20" s="289"/>
       <c r="G20" s="289"/>
       <c r="H20" s="314"/>
@@ -6025,11 +6065,11 @@
       <c r="P20" s="315"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="420"/>
-      <c r="B21" s="428"/>
-      <c r="C21" s="420"/>
-      <c r="D21" s="439"/>
-      <c r="E21" s="439"/>
+      <c r="A21" s="474"/>
+      <c r="B21" s="482"/>
+      <c r="C21" s="474"/>
+      <c r="D21" s="493"/>
+      <c r="E21" s="493"/>
       <c r="F21" s="289"/>
       <c r="G21" s="289"/>
       <c r="H21" s="314"/>
@@ -6043,11 +6083,11 @@
       <c r="P21" s="315"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="420"/>
-      <c r="B22" s="428"/>
-      <c r="C22" s="420"/>
-      <c r="D22" s="439"/>
-      <c r="E22" s="439"/>
+      <c r="A22" s="474"/>
+      <c r="B22" s="482"/>
+      <c r="C22" s="474"/>
+      <c r="D22" s="493"/>
+      <c r="E22" s="493"/>
       <c r="F22" s="289"/>
       <c r="G22" s="289"/>
       <c r="H22" s="295"/>
@@ -6061,11 +6101,11 @@
       <c r="P22" s="315"/>
     </row>
     <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="420"/>
-      <c r="B23" s="428"/>
-      <c r="C23" s="420"/>
-      <c r="D23" s="439"/>
-      <c r="E23" s="439"/>
+      <c r="A23" s="474"/>
+      <c r="B23" s="482"/>
+      <c r="C23" s="474"/>
+      <c r="D23" s="493"/>
+      <c r="E23" s="493"/>
       <c r="F23" s="289"/>
       <c r="G23" s="289"/>
       <c r="H23" s="295"/>
@@ -6080,11 +6120,11 @@
       <c r="R23" s="297"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="420"/>
-      <c r="B24" s="428"/>
-      <c r="C24" s="420"/>
-      <c r="D24" s="439"/>
-      <c r="E24" s="439"/>
+      <c r="A24" s="474"/>
+      <c r="B24" s="482"/>
+      <c r="C24" s="474"/>
+      <c r="D24" s="493"/>
+      <c r="E24" s="493"/>
       <c r="F24" s="289"/>
       <c r="G24" s="289"/>
       <c r="H24" s="295"/>
@@ -6098,11 +6138,11 @@
       <c r="P24" s="289"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="420"/>
-      <c r="B25" s="428"/>
-      <c r="C25" s="420"/>
-      <c r="D25" s="439"/>
-      <c r="E25" s="439"/>
+      <c r="A25" s="474"/>
+      <c r="B25" s="482"/>
+      <c r="C25" s="474"/>
+      <c r="D25" s="493"/>
+      <c r="E25" s="493"/>
       <c r="F25" s="289"/>
       <c r="G25" s="289"/>
       <c r="H25" s="295"/>
@@ -6116,11 +6156,11 @@
       <c r="P25" s="289"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="417"/>
-      <c r="B26" s="425"/>
-      <c r="C26" s="417"/>
-      <c r="D26" s="440"/>
-      <c r="E26" s="440"/>
+      <c r="A26" s="471"/>
+      <c r="B26" s="477"/>
+      <c r="C26" s="471"/>
+      <c r="D26" s="494"/>
+      <c r="E26" s="494"/>
       <c r="F26" s="285"/>
       <c r="G26" s="285"/>
       <c r="H26" s="298"/>
@@ -6134,11 +6174,11 @@
       <c r="P26" s="285"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="416"/>
-      <c r="B27" s="424"/>
-      <c r="C27" s="416"/>
-      <c r="D27" s="416"/>
-      <c r="E27" s="416"/>
+      <c r="A27" s="470"/>
+      <c r="B27" s="476"/>
+      <c r="C27" s="470"/>
+      <c r="D27" s="470"/>
+      <c r="E27" s="470"/>
       <c r="F27" s="284"/>
       <c r="G27" s="284"/>
       <c r="H27" s="293"/>
@@ -6152,11 +6192,11 @@
       <c r="P27" s="284"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="420"/>
-      <c r="B28" s="428"/>
-      <c r="C28" s="420"/>
-      <c r="D28" s="420"/>
-      <c r="E28" s="420"/>
+      <c r="A28" s="474"/>
+      <c r="B28" s="482"/>
+      <c r="C28" s="474"/>
+      <c r="D28" s="474"/>
+      <c r="E28" s="474"/>
       <c r="F28" s="289"/>
       <c r="G28" s="289"/>
       <c r="H28" s="295"/>
@@ -6170,11 +6210,11 @@
       <c r="P28" s="289"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="420"/>
-      <c r="B29" s="428"/>
-      <c r="C29" s="420"/>
-      <c r="D29" s="420"/>
-      <c r="E29" s="420"/>
+      <c r="A29" s="474"/>
+      <c r="B29" s="482"/>
+      <c r="C29" s="474"/>
+      <c r="D29" s="474"/>
+      <c r="E29" s="474"/>
       <c r="F29" s="289"/>
       <c r="G29" s="289"/>
       <c r="H29" s="295"/>
@@ -6188,11 +6228,11 @@
       <c r="P29" s="315"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="420"/>
-      <c r="B30" s="428"/>
-      <c r="C30" s="420"/>
-      <c r="D30" s="420"/>
-      <c r="E30" s="420"/>
+      <c r="A30" s="474"/>
+      <c r="B30" s="482"/>
+      <c r="C30" s="474"/>
+      <c r="D30" s="474"/>
+      <c r="E30" s="474"/>
       <c r="F30" s="289"/>
       <c r="G30" s="289"/>
       <c r="H30" s="295"/>
@@ -6206,11 +6246,11 @@
       <c r="P30" s="289"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="420"/>
-      <c r="B31" s="428"/>
-      <c r="C31" s="420"/>
-      <c r="D31" s="420"/>
-      <c r="E31" s="420"/>
+      <c r="A31" s="474"/>
+      <c r="B31" s="482"/>
+      <c r="C31" s="474"/>
+      <c r="D31" s="474"/>
+      <c r="E31" s="474"/>
       <c r="F31" s="289"/>
       <c r="G31" s="289"/>
       <c r="H31" s="295"/>
@@ -6224,11 +6264,11 @@
       <c r="P31" s="289"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="420"/>
-      <c r="B32" s="428"/>
-      <c r="C32" s="420"/>
-      <c r="D32" s="420"/>
-      <c r="E32" s="420"/>
+      <c r="A32" s="474"/>
+      <c r="B32" s="482"/>
+      <c r="C32" s="474"/>
+      <c r="D32" s="474"/>
+      <c r="E32" s="474"/>
       <c r="F32" s="289"/>
       <c r="G32" s="289"/>
       <c r="H32" s="295"/>
@@ -6242,11 +6282,11 @@
       <c r="P32" s="289"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="417"/>
-      <c r="B33" s="425"/>
-      <c r="C33" s="417"/>
-      <c r="D33" s="417"/>
-      <c r="E33" s="417"/>
+      <c r="A33" s="471"/>
+      <c r="B33" s="477"/>
+      <c r="C33" s="471"/>
+      <c r="D33" s="471"/>
+      <c r="E33" s="471"/>
       <c r="F33" s="285"/>
       <c r="G33" s="285"/>
       <c r="H33" s="298"/>
@@ -6260,11 +6300,11 @@
       <c r="P33" s="322"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="416"/>
-      <c r="B34" s="424"/>
-      <c r="C34" s="416"/>
-      <c r="D34" s="416"/>
-      <c r="E34" s="416"/>
+      <c r="A34" s="470"/>
+      <c r="B34" s="476"/>
+      <c r="C34" s="470"/>
+      <c r="D34" s="470"/>
+      <c r="E34" s="470"/>
       <c r="F34" s="284"/>
       <c r="G34" s="284"/>
       <c r="H34" s="293"/>
@@ -6278,11 +6318,11 @@
       <c r="P34" s="323"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="417"/>
-      <c r="B35" s="425"/>
-      <c r="C35" s="417"/>
-      <c r="D35" s="417"/>
-      <c r="E35" s="417"/>
+      <c r="A35" s="471"/>
+      <c r="B35" s="477"/>
+      <c r="C35" s="471"/>
+      <c r="D35" s="471"/>
+      <c r="E35" s="471"/>
       <c r="F35" s="285"/>
       <c r="G35" s="285"/>
       <c r="H35" s="298"/>
@@ -6296,11 +6336,11 @@
       <c r="P35" s="322"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="422"/>
-      <c r="B36" s="436"/>
-      <c r="C36" s="422"/>
-      <c r="D36" s="434"/>
-      <c r="E36" s="422"/>
+      <c r="A36" s="478"/>
+      <c r="B36" s="490"/>
+      <c r="C36" s="478"/>
+      <c r="D36" s="488"/>
+      <c r="E36" s="478"/>
       <c r="H36" s="324"/>
       <c r="I36" s="324"/>
       <c r="J36" s="324"/>
@@ -6313,11 +6353,11 @@
       <c r="Q36" s="297"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="432"/>
-      <c r="B37" s="437"/>
-      <c r="C37" s="432"/>
-      <c r="D37" s="435"/>
-      <c r="E37" s="432"/>
+      <c r="A37" s="486"/>
+      <c r="B37" s="491"/>
+      <c r="C37" s="486"/>
+      <c r="D37" s="489"/>
+      <c r="E37" s="486"/>
       <c r="F37" s="287"/>
       <c r="G37" s="287"/>
       <c r="H37" s="326"/>
@@ -6332,11 +6372,11 @@
       <c r="Q37" s="297"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="416"/>
-      <c r="B38" s="424"/>
-      <c r="C38" s="424"/>
-      <c r="D38" s="429"/>
-      <c r="E38" s="424"/>
+      <c r="A38" s="470"/>
+      <c r="B38" s="476"/>
+      <c r="C38" s="476"/>
+      <c r="D38" s="483"/>
+      <c r="E38" s="476"/>
       <c r="F38" s="284"/>
       <c r="G38" s="284"/>
       <c r="H38" s="293"/>
@@ -6351,11 +6391,11 @@
       <c r="Q38" s="297"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="420"/>
-      <c r="B39" s="428"/>
-      <c r="C39" s="428"/>
-      <c r="D39" s="430"/>
-      <c r="E39" s="428"/>
+      <c r="A39" s="474"/>
+      <c r="B39" s="482"/>
+      <c r="C39" s="482"/>
+      <c r="D39" s="484"/>
+      <c r="E39" s="482"/>
       <c r="F39" s="289"/>
       <c r="G39" s="289"/>
       <c r="H39" s="295"/>
@@ -6370,11 +6410,11 @@
       <c r="Q39" s="297"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="420"/>
-      <c r="B40" s="428"/>
-      <c r="C40" s="428"/>
-      <c r="D40" s="430"/>
-      <c r="E40" s="428"/>
+      <c r="A40" s="474"/>
+      <c r="B40" s="482"/>
+      <c r="C40" s="482"/>
+      <c r="D40" s="484"/>
+      <c r="E40" s="482"/>
       <c r="F40" s="289"/>
       <c r="G40" s="289"/>
       <c r="H40" s="295"/>
@@ -6389,11 +6429,11 @@
       <c r="Q40" s="297"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="420"/>
-      <c r="B41" s="428"/>
-      <c r="C41" s="428"/>
-      <c r="D41" s="430"/>
-      <c r="E41" s="428"/>
+      <c r="A41" s="474"/>
+      <c r="B41" s="482"/>
+      <c r="C41" s="482"/>
+      <c r="D41" s="484"/>
+      <c r="E41" s="482"/>
       <c r="F41" s="289"/>
       <c r="G41" s="289"/>
       <c r="H41" s="295"/>
@@ -6408,11 +6448,11 @@
       <c r="Q41" s="297"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="420"/>
-      <c r="B42" s="428"/>
-      <c r="C42" s="428"/>
-      <c r="D42" s="430"/>
-      <c r="E42" s="428"/>
+      <c r="A42" s="474"/>
+      <c r="B42" s="482"/>
+      <c r="C42" s="482"/>
+      <c r="D42" s="484"/>
+      <c r="E42" s="482"/>
       <c r="F42" s="289"/>
       <c r="G42" s="289"/>
       <c r="H42" s="295"/>
@@ -6427,11 +6467,11 @@
       <c r="Q42" s="297"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="420"/>
-      <c r="B43" s="428"/>
-      <c r="C43" s="428"/>
-      <c r="D43" s="430"/>
-      <c r="E43" s="428"/>
+      <c r="A43" s="474"/>
+      <c r="B43" s="482"/>
+      <c r="C43" s="482"/>
+      <c r="D43" s="484"/>
+      <c r="E43" s="482"/>
       <c r="F43" s="289"/>
       <c r="G43" s="289"/>
       <c r="H43" s="295"/>
@@ -6446,11 +6486,11 @@
       <c r="Q43" s="297"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="420"/>
-      <c r="B44" s="428"/>
-      <c r="C44" s="428"/>
-      <c r="D44" s="430"/>
-      <c r="E44" s="428"/>
+      <c r="A44" s="474"/>
+      <c r="B44" s="482"/>
+      <c r="C44" s="482"/>
+      <c r="D44" s="484"/>
+      <c r="E44" s="482"/>
       <c r="F44" s="289"/>
       <c r="G44" s="289"/>
       <c r="H44" s="295"/>
@@ -6465,11 +6505,11 @@
       <c r="Q44" s="297"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="417"/>
-      <c r="B45" s="425"/>
-      <c r="C45" s="425"/>
-      <c r="D45" s="431"/>
-      <c r="E45" s="425"/>
+      <c r="A45" s="471"/>
+      <c r="B45" s="477"/>
+      <c r="C45" s="477"/>
+      <c r="D45" s="485"/>
+      <c r="E45" s="477"/>
       <c r="F45" s="285"/>
       <c r="G45" s="285"/>
       <c r="H45" s="298"/>
@@ -6503,11 +6543,11 @@
       <c r="Q46" s="297"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="432"/>
-      <c r="B47" s="437"/>
-      <c r="C47" s="432"/>
-      <c r="D47" s="435"/>
-      <c r="E47" s="432"/>
+      <c r="A47" s="486"/>
+      <c r="B47" s="491"/>
+      <c r="C47" s="486"/>
+      <c r="D47" s="489"/>
+      <c r="E47" s="486"/>
       <c r="F47" s="288"/>
       <c r="G47" s="288"/>
       <c r="H47" s="324"/>
@@ -6521,11 +6561,11 @@
       <c r="P47" s="328"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="423"/>
-      <c r="B48" s="442"/>
-      <c r="C48" s="423"/>
-      <c r="D48" s="441"/>
-      <c r="E48" s="423"/>
+      <c r="A48" s="479"/>
+      <c r="B48" s="517"/>
+      <c r="C48" s="479"/>
+      <c r="D48" s="495"/>
+      <c r="E48" s="479"/>
       <c r="F48" s="285"/>
       <c r="G48" s="285"/>
       <c r="H48" s="298"/>
@@ -6539,11 +6579,11 @@
       <c r="P48" s="322"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="422"/>
-      <c r="B49" s="436"/>
-      <c r="C49" s="422"/>
-      <c r="D49" s="434"/>
-      <c r="E49" s="422"/>
+      <c r="A49" s="478"/>
+      <c r="B49" s="490"/>
+      <c r="C49" s="478"/>
+      <c r="D49" s="488"/>
+      <c r="E49" s="478"/>
       <c r="F49" s="284"/>
       <c r="G49" s="284"/>
       <c r="H49" s="293"/>
@@ -6557,11 +6597,11 @@
       <c r="P49" s="284"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="432"/>
-      <c r="B50" s="437"/>
-      <c r="C50" s="432"/>
-      <c r="D50" s="435"/>
-      <c r="E50" s="432"/>
+      <c r="A50" s="486"/>
+      <c r="B50" s="491"/>
+      <c r="C50" s="486"/>
+      <c r="D50" s="489"/>
+      <c r="E50" s="486"/>
       <c r="F50" s="287"/>
       <c r="G50" s="287"/>
       <c r="H50" s="326"/>
@@ -6575,11 +6615,11 @@
       <c r="P50" s="287"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="416"/>
-      <c r="B51" s="424"/>
-      <c r="C51" s="416"/>
-      <c r="D51" s="438"/>
-      <c r="E51" s="416"/>
+      <c r="A51" s="470"/>
+      <c r="B51" s="476"/>
+      <c r="C51" s="470"/>
+      <c r="D51" s="492"/>
+      <c r="E51" s="470"/>
       <c r="F51" s="284"/>
       <c r="G51" s="284"/>
       <c r="H51" s="293"/>
@@ -6593,11 +6633,11 @@
       <c r="P51" s="284"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="420"/>
-      <c r="B52" s="428"/>
-      <c r="C52" s="420"/>
-      <c r="D52" s="439"/>
-      <c r="E52" s="420"/>
+      <c r="A52" s="474"/>
+      <c r="B52" s="482"/>
+      <c r="C52" s="474"/>
+      <c r="D52" s="493"/>
+      <c r="E52" s="474"/>
       <c r="F52" s="289"/>
       <c r="G52" s="289"/>
       <c r="H52" s="295"/>
@@ -6611,11 +6651,11 @@
       <c r="P52" s="289"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="420"/>
-      <c r="B53" s="428"/>
-      <c r="C53" s="420"/>
-      <c r="D53" s="439"/>
-      <c r="E53" s="420"/>
+      <c r="A53" s="474"/>
+      <c r="B53" s="482"/>
+      <c r="C53" s="474"/>
+      <c r="D53" s="493"/>
+      <c r="E53" s="474"/>
       <c r="F53" s="289"/>
       <c r="G53" s="289"/>
       <c r="H53" s="295"/>
@@ -6629,11 +6669,11 @@
       <c r="P53" s="289"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="420"/>
-      <c r="B54" s="428"/>
-      <c r="C54" s="420"/>
-      <c r="D54" s="439"/>
-      <c r="E54" s="420"/>
+      <c r="A54" s="474"/>
+      <c r="B54" s="482"/>
+      <c r="C54" s="474"/>
+      <c r="D54" s="493"/>
+      <c r="E54" s="474"/>
       <c r="F54" s="289"/>
       <c r="G54" s="289"/>
       <c r="H54" s="295"/>
@@ -6647,11 +6687,11 @@
       <c r="P54" s="289"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="420"/>
-      <c r="B55" s="428"/>
-      <c r="C55" s="420"/>
-      <c r="D55" s="439"/>
-      <c r="E55" s="420"/>
+      <c r="A55" s="474"/>
+      <c r="B55" s="482"/>
+      <c r="C55" s="474"/>
+      <c r="D55" s="493"/>
+      <c r="E55" s="474"/>
       <c r="F55" s="289"/>
       <c r="G55" s="289"/>
       <c r="H55" s="295"/>
@@ -6665,11 +6705,11 @@
       <c r="P55" s="289"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="420"/>
-      <c r="B56" s="428"/>
-      <c r="C56" s="420"/>
-      <c r="D56" s="439"/>
-      <c r="E56" s="420"/>
+      <c r="A56" s="474"/>
+      <c r="B56" s="482"/>
+      <c r="C56" s="474"/>
+      <c r="D56" s="493"/>
+      <c r="E56" s="474"/>
       <c r="F56" s="289"/>
       <c r="G56" s="289"/>
       <c r="H56" s="295"/>
@@ -6683,11 +6723,11 @@
       <c r="P56" s="289"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="420"/>
-      <c r="B57" s="428"/>
-      <c r="C57" s="420"/>
-      <c r="D57" s="439"/>
-      <c r="E57" s="420"/>
+      <c r="A57" s="474"/>
+      <c r="B57" s="482"/>
+      <c r="C57" s="474"/>
+      <c r="D57" s="493"/>
+      <c r="E57" s="474"/>
       <c r="F57" s="289"/>
       <c r="G57" s="289"/>
       <c r="H57" s="295"/>
@@ -6701,11 +6741,11 @@
       <c r="P57" s="289"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="420"/>
-      <c r="B58" s="428"/>
-      <c r="C58" s="420"/>
-      <c r="D58" s="439"/>
-      <c r="E58" s="420"/>
+      <c r="A58" s="474"/>
+      <c r="B58" s="482"/>
+      <c r="C58" s="474"/>
+      <c r="D58" s="493"/>
+      <c r="E58" s="474"/>
       <c r="F58" s="289"/>
       <c r="G58" s="289"/>
       <c r="H58" s="295"/>
@@ -6719,11 +6759,11 @@
       <c r="P58" s="289"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="417"/>
-      <c r="B59" s="425"/>
-      <c r="C59" s="417"/>
-      <c r="D59" s="440"/>
-      <c r="E59" s="417"/>
+      <c r="A59" s="471"/>
+      <c r="B59" s="477"/>
+      <c r="C59" s="471"/>
+      <c r="D59" s="494"/>
+      <c r="E59" s="471"/>
       <c r="F59" s="285"/>
       <c r="G59" s="285"/>
       <c r="H59" s="298"/>
@@ -6755,11 +6795,11 @@
       <c r="P60" s="286"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="416"/>
-      <c r="B61" s="424"/>
-      <c r="C61" s="416"/>
-      <c r="D61" s="438"/>
-      <c r="E61" s="416"/>
+      <c r="A61" s="470"/>
+      <c r="B61" s="476"/>
+      <c r="C61" s="470"/>
+      <c r="D61" s="492"/>
+      <c r="E61" s="470"/>
       <c r="F61" s="284"/>
       <c r="G61" s="284"/>
       <c r="H61" s="293"/>
@@ -6774,11 +6814,11 @@
       <c r="Q61" s="297"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="420"/>
-      <c r="B62" s="428"/>
-      <c r="C62" s="420"/>
-      <c r="D62" s="439"/>
-      <c r="E62" s="420"/>
+      <c r="A62" s="474"/>
+      <c r="B62" s="482"/>
+      <c r="C62" s="474"/>
+      <c r="D62" s="493"/>
+      <c r="E62" s="474"/>
       <c r="F62" s="289"/>
       <c r="G62" s="289"/>
       <c r="H62" s="295"/>
@@ -6793,11 +6833,11 @@
       <c r="Q62" s="297"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="420"/>
-      <c r="B63" s="428"/>
-      <c r="C63" s="420"/>
-      <c r="D63" s="439"/>
-      <c r="E63" s="420"/>
+      <c r="A63" s="474"/>
+      <c r="B63" s="482"/>
+      <c r="C63" s="474"/>
+      <c r="D63" s="493"/>
+      <c r="E63" s="474"/>
       <c r="F63" s="289"/>
       <c r="G63" s="289"/>
       <c r="H63" s="295"/>
@@ -6812,11 +6852,11 @@
       <c r="Q63" s="297"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="420"/>
-      <c r="B64" s="428"/>
-      <c r="C64" s="420"/>
-      <c r="D64" s="439"/>
-      <c r="E64" s="420"/>
+      <c r="A64" s="474"/>
+      <c r="B64" s="482"/>
+      <c r="C64" s="474"/>
+      <c r="D64" s="493"/>
+      <c r="E64" s="474"/>
       <c r="F64" s="289"/>
       <c r="G64" s="289"/>
       <c r="H64" s="295"/>
@@ -6831,11 +6871,11 @@
       <c r="Q64" s="297"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="420"/>
-      <c r="B65" s="428"/>
-      <c r="C65" s="420"/>
-      <c r="D65" s="439"/>
-      <c r="E65" s="420"/>
+      <c r="A65" s="474"/>
+      <c r="B65" s="482"/>
+      <c r="C65" s="474"/>
+      <c r="D65" s="493"/>
+      <c r="E65" s="474"/>
       <c r="F65" s="289"/>
       <c r="G65" s="289"/>
       <c r="H65" s="295"/>
@@ -6850,11 +6890,11 @@
       <c r="Q65" s="297"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="420"/>
-      <c r="B66" s="428"/>
-      <c r="C66" s="420"/>
-      <c r="D66" s="439"/>
-      <c r="E66" s="420"/>
+      <c r="A66" s="474"/>
+      <c r="B66" s="482"/>
+      <c r="C66" s="474"/>
+      <c r="D66" s="493"/>
+      <c r="E66" s="474"/>
       <c r="F66" s="289"/>
       <c r="G66" s="289"/>
       <c r="H66" s="295"/>
@@ -6869,11 +6909,11 @@
       <c r="Q66" s="297"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="417"/>
-      <c r="B67" s="425"/>
-      <c r="C67" s="417"/>
-      <c r="D67" s="440"/>
-      <c r="E67" s="417"/>
+      <c r="A67" s="471"/>
+      <c r="B67" s="477"/>
+      <c r="C67" s="471"/>
+      <c r="D67" s="494"/>
+      <c r="E67" s="471"/>
       <c r="F67" s="285"/>
       <c r="G67" s="285"/>
       <c r="H67" s="298"/>
@@ -6888,11 +6928,11 @@
       <c r="Q67" s="297"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="416"/>
-      <c r="B68" s="424"/>
-      <c r="C68" s="416"/>
-      <c r="D68" s="438"/>
-      <c r="E68" s="416"/>
+      <c r="A68" s="470"/>
+      <c r="B68" s="476"/>
+      <c r="C68" s="470"/>
+      <c r="D68" s="492"/>
+      <c r="E68" s="470"/>
       <c r="F68" s="284"/>
       <c r="G68" s="284"/>
       <c r="H68" s="293"/>
@@ -6903,15 +6943,15 @@
       <c r="M68" s="293"/>
       <c r="N68" s="293"/>
       <c r="O68" s="293"/>
-      <c r="P68" s="438"/>
+      <c r="P68" s="492"/>
       <c r="Q68" s="297"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="417"/>
-      <c r="B69" s="425"/>
-      <c r="C69" s="417"/>
-      <c r="D69" s="440"/>
-      <c r="E69" s="417"/>
+      <c r="A69" s="471"/>
+      <c r="B69" s="477"/>
+      <c r="C69" s="471"/>
+      <c r="D69" s="494"/>
+      <c r="E69" s="471"/>
       <c r="F69" s="285"/>
       <c r="G69" s="285"/>
       <c r="H69" s="298"/>
@@ -6922,7 +6962,7 @@
       <c r="M69" s="298"/>
       <c r="N69" s="298"/>
       <c r="O69" s="298"/>
-      <c r="P69" s="440"/>
+      <c r="P69" s="494"/>
       <c r="Q69" s="297"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6945,11 +6985,11 @@
       <c r="Q70" s="297"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="416"/>
-      <c r="B71" s="424"/>
-      <c r="C71" s="416"/>
-      <c r="D71" s="438"/>
-      <c r="E71" s="416"/>
+      <c r="A71" s="470"/>
+      <c r="B71" s="476"/>
+      <c r="C71" s="470"/>
+      <c r="D71" s="492"/>
+      <c r="E71" s="470"/>
       <c r="F71" s="284"/>
       <c r="G71" s="284"/>
       <c r="H71" s="293"/>
@@ -6964,11 +7004,11 @@
       <c r="Q71" s="297"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="420"/>
-      <c r="B72" s="428"/>
-      <c r="C72" s="420"/>
-      <c r="D72" s="439"/>
-      <c r="E72" s="420"/>
+      <c r="A72" s="474"/>
+      <c r="B72" s="482"/>
+      <c r="C72" s="474"/>
+      <c r="D72" s="493"/>
+      <c r="E72" s="474"/>
       <c r="F72" s="289"/>
       <c r="G72" s="289"/>
       <c r="H72" s="295"/>
@@ -6983,11 +7023,11 @@
       <c r="Q72" s="297"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="420"/>
-      <c r="B73" s="428"/>
-      <c r="C73" s="420"/>
-      <c r="D73" s="439"/>
-      <c r="E73" s="420"/>
+      <c r="A73" s="474"/>
+      <c r="B73" s="482"/>
+      <c r="C73" s="474"/>
+      <c r="D73" s="493"/>
+      <c r="E73" s="474"/>
       <c r="F73" s="289"/>
       <c r="G73" s="289"/>
       <c r="H73" s="295"/>
@@ -7002,11 +7042,11 @@
       <c r="Q73" s="297"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="420"/>
-      <c r="B74" s="428"/>
-      <c r="C74" s="420"/>
-      <c r="D74" s="439"/>
-      <c r="E74" s="420"/>
+      <c r="A74" s="474"/>
+      <c r="B74" s="482"/>
+      <c r="C74" s="474"/>
+      <c r="D74" s="493"/>
+      <c r="E74" s="474"/>
       <c r="F74" s="289"/>
       <c r="G74" s="289"/>
       <c r="H74" s="295"/>
@@ -7021,11 +7061,11 @@
       <c r="Q74" s="297"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="420"/>
-      <c r="B75" s="428"/>
-      <c r="C75" s="420"/>
-      <c r="D75" s="439"/>
-      <c r="E75" s="420"/>
+      <c r="A75" s="474"/>
+      <c r="B75" s="482"/>
+      <c r="C75" s="474"/>
+      <c r="D75" s="493"/>
+      <c r="E75" s="474"/>
       <c r="F75" s="289"/>
       <c r="G75" s="289"/>
       <c r="H75" s="295"/>
@@ -7040,11 +7080,11 @@
       <c r="Q75" s="297"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="417"/>
-      <c r="B76" s="425"/>
-      <c r="C76" s="417"/>
-      <c r="D76" s="440"/>
-      <c r="E76" s="417"/>
+      <c r="A76" s="471"/>
+      <c r="B76" s="477"/>
+      <c r="C76" s="471"/>
+      <c r="D76" s="494"/>
+      <c r="E76" s="471"/>
       <c r="F76" s="285"/>
       <c r="G76" s="285"/>
       <c r="H76" s="298"/>
@@ -7059,11 +7099,11 @@
       <c r="Q76" s="297"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="416"/>
-      <c r="B77" s="424"/>
-      <c r="C77" s="416"/>
-      <c r="D77" s="438"/>
-      <c r="E77" s="416"/>
+      <c r="A77" s="470"/>
+      <c r="B77" s="476"/>
+      <c r="C77" s="470"/>
+      <c r="D77" s="492"/>
+      <c r="E77" s="470"/>
       <c r="F77" s="284"/>
       <c r="G77" s="284"/>
       <c r="H77" s="293"/>
@@ -7078,11 +7118,11 @@
       <c r="Q77" s="297"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="420"/>
-      <c r="B78" s="428"/>
-      <c r="C78" s="420"/>
-      <c r="D78" s="439"/>
-      <c r="E78" s="420"/>
+      <c r="A78" s="474"/>
+      <c r="B78" s="482"/>
+      <c r="C78" s="474"/>
+      <c r="D78" s="493"/>
+      <c r="E78" s="474"/>
       <c r="F78" s="289"/>
       <c r="G78" s="289"/>
       <c r="H78" s="295"/>
@@ -7096,11 +7136,11 @@
       <c r="P78" s="333"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="420"/>
-      <c r="B79" s="428"/>
-      <c r="C79" s="420"/>
-      <c r="D79" s="439"/>
-      <c r="E79" s="420"/>
+      <c r="A79" s="474"/>
+      <c r="B79" s="482"/>
+      <c r="C79" s="474"/>
+      <c r="D79" s="493"/>
+      <c r="E79" s="474"/>
       <c r="F79" s="289"/>
       <c r="G79" s="289"/>
       <c r="H79" s="295"/>
@@ -7114,11 +7154,11 @@
       <c r="P79" s="333"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="417"/>
-      <c r="B80" s="425"/>
-      <c r="C80" s="417"/>
-      <c r="D80" s="440"/>
-      <c r="E80" s="417"/>
+      <c r="A80" s="471"/>
+      <c r="B80" s="477"/>
+      <c r="C80" s="471"/>
+      <c r="D80" s="494"/>
+      <c r="E80" s="471"/>
       <c r="F80" s="285"/>
       <c r="G80" s="285"/>
       <c r="H80" s="298"/>
@@ -7168,11 +7208,11 @@
       <c r="P82" s="336"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="416"/>
-      <c r="B83" s="418"/>
-      <c r="C83" s="416"/>
-      <c r="D83" s="416"/>
-      <c r="E83" s="416"/>
+      <c r="A83" s="470"/>
+      <c r="B83" s="472"/>
+      <c r="C83" s="470"/>
+      <c r="D83" s="470"/>
+      <c r="E83" s="470"/>
       <c r="F83" s="284"/>
       <c r="G83" s="284"/>
       <c r="H83" s="293"/>
@@ -7186,11 +7226,11 @@
       <c r="P83" s="323"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="420"/>
-      <c r="B84" s="421"/>
-      <c r="C84" s="420"/>
-      <c r="D84" s="420"/>
-      <c r="E84" s="420"/>
+      <c r="A84" s="474"/>
+      <c r="B84" s="475"/>
+      <c r="C84" s="474"/>
+      <c r="D84" s="474"/>
+      <c r="E84" s="474"/>
       <c r="F84" s="289"/>
       <c r="G84" s="289"/>
       <c r="H84" s="295"/>
@@ -7204,11 +7244,11 @@
       <c r="P84" s="333"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="420"/>
-      <c r="B85" s="421"/>
-      <c r="C85" s="420"/>
-      <c r="D85" s="420"/>
-      <c r="E85" s="420"/>
+      <c r="A85" s="474"/>
+      <c r="B85" s="475"/>
+      <c r="C85" s="474"/>
+      <c r="D85" s="474"/>
+      <c r="E85" s="474"/>
       <c r="F85" s="289"/>
       <c r="G85" s="289"/>
       <c r="H85" s="295"/>
@@ -7222,11 +7262,11 @@
       <c r="P85" s="333"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="420"/>
-      <c r="B86" s="421"/>
-      <c r="C86" s="420"/>
-      <c r="D86" s="420"/>
-      <c r="E86" s="420"/>
+      <c r="A86" s="474"/>
+      <c r="B86" s="475"/>
+      <c r="C86" s="474"/>
+      <c r="D86" s="474"/>
+      <c r="E86" s="474"/>
       <c r="F86" s="289"/>
       <c r="G86" s="289"/>
       <c r="H86" s="295"/>
@@ -7240,11 +7280,11 @@
       <c r="P86" s="333"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="420"/>
-      <c r="B87" s="421"/>
-      <c r="C87" s="420"/>
-      <c r="D87" s="420"/>
-      <c r="E87" s="420"/>
+      <c r="A87" s="474"/>
+      <c r="B87" s="475"/>
+      <c r="C87" s="474"/>
+      <c r="D87" s="474"/>
+      <c r="E87" s="474"/>
       <c r="F87" s="289"/>
       <c r="G87" s="289"/>
       <c r="H87" s="295"/>
@@ -7258,11 +7298,11 @@
       <c r="P87" s="289"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="417"/>
-      <c r="B88" s="419"/>
-      <c r="C88" s="417"/>
-      <c r="D88" s="417"/>
-      <c r="E88" s="417"/>
+      <c r="A88" s="471"/>
+      <c r="B88" s="473"/>
+      <c r="C88" s="471"/>
+      <c r="D88" s="471"/>
+      <c r="E88" s="471"/>
       <c r="F88" s="285"/>
       <c r="G88" s="285"/>
       <c r="H88" s="298"/>
@@ -7276,11 +7316,11 @@
       <c r="P88" s="285"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="422"/>
-      <c r="B89" s="426"/>
-      <c r="C89" s="422"/>
-      <c r="D89" s="422"/>
-      <c r="E89" s="422"/>
+      <c r="A89" s="478"/>
+      <c r="B89" s="480"/>
+      <c r="C89" s="478"/>
+      <c r="D89" s="478"/>
+      <c r="E89" s="478"/>
       <c r="F89" s="284"/>
       <c r="G89" s="284"/>
       <c r="H89" s="293"/>
@@ -7294,11 +7334,11 @@
       <c r="P89" s="280"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="432"/>
-      <c r="B90" s="433"/>
-      <c r="C90" s="432"/>
-      <c r="D90" s="432"/>
-      <c r="E90" s="432"/>
+      <c r="A90" s="486"/>
+      <c r="B90" s="487"/>
+      <c r="C90" s="486"/>
+      <c r="D90" s="486"/>
+      <c r="E90" s="486"/>
       <c r="F90" s="287"/>
       <c r="G90" s="287"/>
       <c r="H90" s="326"/>
@@ -7312,11 +7352,11 @@
       <c r="P90" s="337"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="416"/>
-      <c r="B91" s="418"/>
-      <c r="C91" s="416"/>
-      <c r="D91" s="416"/>
-      <c r="E91" s="416"/>
+      <c r="A91" s="470"/>
+      <c r="B91" s="472"/>
+      <c r="C91" s="470"/>
+      <c r="D91" s="470"/>
+      <c r="E91" s="470"/>
       <c r="F91" s="284"/>
       <c r="G91" s="284"/>
       <c r="H91" s="293"/>
@@ -7330,11 +7370,11 @@
       <c r="P91" s="280"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="420"/>
-      <c r="B92" s="421"/>
-      <c r="C92" s="420"/>
-      <c r="D92" s="420"/>
-      <c r="E92" s="420"/>
+      <c r="A92" s="474"/>
+      <c r="B92" s="475"/>
+      <c r="C92" s="474"/>
+      <c r="D92" s="474"/>
+      <c r="E92" s="474"/>
       <c r="F92" s="289"/>
       <c r="G92" s="289"/>
       <c r="H92" s="295"/>
@@ -7348,11 +7388,11 @@
       <c r="P92" s="289"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="420"/>
-      <c r="B93" s="421"/>
-      <c r="C93" s="420"/>
-      <c r="D93" s="420"/>
-      <c r="E93" s="420"/>
+      <c r="A93" s="474"/>
+      <c r="B93" s="475"/>
+      <c r="C93" s="474"/>
+      <c r="D93" s="474"/>
+      <c r="E93" s="474"/>
       <c r="F93" s="289"/>
       <c r="G93" s="289"/>
       <c r="H93" s="295"/>
@@ -7366,11 +7406,11 @@
       <c r="P93" s="277"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="417"/>
-      <c r="B94" s="419"/>
-      <c r="C94" s="417"/>
-      <c r="D94" s="417"/>
-      <c r="E94" s="417"/>
+      <c r="A94" s="471"/>
+      <c r="B94" s="473"/>
+      <c r="C94" s="471"/>
+      <c r="D94" s="471"/>
+      <c r="E94" s="471"/>
       <c r="F94" s="285"/>
       <c r="G94" s="285"/>
       <c r="H94" s="298"/>
@@ -7384,11 +7424,11 @@
       <c r="P94" s="279"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="416"/>
-      <c r="B95" s="418"/>
-      <c r="C95" s="416"/>
-      <c r="D95" s="416"/>
-      <c r="E95" s="416"/>
+      <c r="A95" s="470"/>
+      <c r="B95" s="472"/>
+      <c r="C95" s="470"/>
+      <c r="D95" s="470"/>
+      <c r="E95" s="470"/>
       <c r="F95" s="284"/>
       <c r="G95" s="284"/>
       <c r="H95" s="293"/>
@@ -7402,11 +7442,11 @@
       <c r="P95" s="280"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="420"/>
-      <c r="B96" s="421"/>
-      <c r="C96" s="420"/>
-      <c r="D96" s="420"/>
-      <c r="E96" s="420"/>
+      <c r="A96" s="474"/>
+      <c r="B96" s="475"/>
+      <c r="C96" s="474"/>
+      <c r="D96" s="474"/>
+      <c r="E96" s="474"/>
       <c r="F96" s="289"/>
       <c r="G96" s="289"/>
       <c r="H96" s="295"/>
@@ -7420,11 +7460,11 @@
       <c r="P96" s="277"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="417"/>
-      <c r="B97" s="419"/>
-      <c r="C97" s="417"/>
-      <c r="D97" s="417"/>
-      <c r="E97" s="417"/>
+      <c r="A97" s="471"/>
+      <c r="B97" s="473"/>
+      <c r="C97" s="471"/>
+      <c r="D97" s="471"/>
+      <c r="E97" s="471"/>
       <c r="F97" s="285"/>
       <c r="G97" s="285"/>
       <c r="H97" s="298"/>
@@ -7438,11 +7478,11 @@
       <c r="P97" s="279"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="422"/>
-      <c r="B98" s="426"/>
-      <c r="C98" s="422"/>
-      <c r="D98" s="422"/>
-      <c r="E98" s="422"/>
+      <c r="A98" s="478"/>
+      <c r="B98" s="480"/>
+      <c r="C98" s="478"/>
+      <c r="D98" s="478"/>
+      <c r="E98" s="478"/>
       <c r="F98" s="288"/>
       <c r="G98" s="288"/>
       <c r="H98" s="324"/>
@@ -7456,11 +7496,11 @@
       <c r="P98" s="292"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="432"/>
-      <c r="B99" s="433"/>
-      <c r="C99" s="432"/>
-      <c r="D99" s="432"/>
-      <c r="E99" s="432"/>
+      <c r="A99" s="486"/>
+      <c r="B99" s="487"/>
+      <c r="C99" s="486"/>
+      <c r="D99" s="486"/>
+      <c r="E99" s="486"/>
       <c r="F99" s="289"/>
       <c r="G99" s="289"/>
       <c r="H99" s="295"/>
@@ -7474,11 +7514,11 @@
       <c r="P99" s="292"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="432"/>
-      <c r="B100" s="433"/>
-      <c r="C100" s="432"/>
-      <c r="D100" s="432"/>
-      <c r="E100" s="432"/>
+      <c r="A100" s="486"/>
+      <c r="B100" s="487"/>
+      <c r="C100" s="486"/>
+      <c r="D100" s="486"/>
+      <c r="E100" s="486"/>
       <c r="F100" s="289"/>
       <c r="G100" s="289"/>
       <c r="H100" s="295"/>
@@ -7492,11 +7532,11 @@
       <c r="P100" s="292"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="423"/>
-      <c r="B101" s="427"/>
-      <c r="C101" s="423"/>
-      <c r="D101" s="423"/>
-      <c r="E101" s="423"/>
+      <c r="A101" s="479"/>
+      <c r="B101" s="481"/>
+      <c r="C101" s="479"/>
+      <c r="D101" s="479"/>
+      <c r="E101" s="479"/>
       <c r="F101" s="285"/>
       <c r="G101" s="285"/>
       <c r="H101" s="298"/>
@@ -7510,11 +7550,11 @@
       <c r="P101" s="306"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="422"/>
-      <c r="B102" s="426"/>
-      <c r="C102" s="422"/>
-      <c r="D102" s="422"/>
-      <c r="E102" s="422"/>
+      <c r="A102" s="478"/>
+      <c r="B102" s="480"/>
+      <c r="C102" s="478"/>
+      <c r="D102" s="478"/>
+      <c r="E102" s="478"/>
       <c r="F102" s="284"/>
       <c r="G102" s="284"/>
       <c r="H102" s="293"/>
@@ -7528,11 +7568,11 @@
       <c r="P102" s="276"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="432"/>
-      <c r="B103" s="433"/>
-      <c r="C103" s="432"/>
-      <c r="D103" s="432"/>
-      <c r="E103" s="432"/>
+      <c r="A103" s="486"/>
+      <c r="B103" s="487"/>
+      <c r="C103" s="486"/>
+      <c r="D103" s="486"/>
+      <c r="E103" s="486"/>
       <c r="F103" s="289"/>
       <c r="G103" s="289"/>
       <c r="H103" s="295"/>
@@ -7546,11 +7586,11 @@
       <c r="P103" s="292"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="432"/>
-      <c r="B104" s="433"/>
-      <c r="C104" s="432"/>
-      <c r="D104" s="432"/>
-      <c r="E104" s="432"/>
+      <c r="A104" s="486"/>
+      <c r="B104" s="487"/>
+      <c r="C104" s="486"/>
+      <c r="D104" s="486"/>
+      <c r="E104" s="486"/>
       <c r="F104" s="287"/>
       <c r="G104" s="287"/>
       <c r="H104" s="326"/>
@@ -7564,11 +7604,11 @@
       <c r="P104" s="292"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="422"/>
-      <c r="B105" s="426"/>
-      <c r="C105" s="422"/>
-      <c r="D105" s="422"/>
-      <c r="E105" s="422"/>
+      <c r="A105" s="478"/>
+      <c r="B105" s="480"/>
+      <c r="C105" s="478"/>
+      <c r="D105" s="478"/>
+      <c r="E105" s="478"/>
       <c r="F105" s="284"/>
       <c r="G105" s="284"/>
       <c r="H105" s="293"/>
@@ -7582,11 +7622,11 @@
       <c r="P105" s="280"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="423"/>
-      <c r="B106" s="427"/>
-      <c r="C106" s="423"/>
-      <c r="D106" s="423"/>
-      <c r="E106" s="423"/>
+      <c r="A106" s="479"/>
+      <c r="B106" s="481"/>
+      <c r="C106" s="479"/>
+      <c r="D106" s="479"/>
+      <c r="E106" s="479"/>
       <c r="F106" s="285"/>
       <c r="G106" s="285"/>
       <c r="H106" s="298"/>
@@ -7600,11 +7640,11 @@
       <c r="P106" s="279"/>
     </row>
     <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="462"/>
-      <c r="B107" s="463"/>
-      <c r="C107" s="462"/>
-      <c r="D107" s="462"/>
-      <c r="E107" s="462"/>
+      <c r="A107" s="515"/>
+      <c r="B107" s="516"/>
+      <c r="C107" s="515"/>
+      <c r="D107" s="515"/>
+      <c r="E107" s="515"/>
       <c r="F107" s="278"/>
       <c r="G107" s="278"/>
       <c r="H107" s="300"/>
@@ -7618,11 +7658,11 @@
       <c r="P107" s="350"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="462"/>
-      <c r="B108" s="463"/>
-      <c r="C108" s="462"/>
-      <c r="D108" s="462"/>
-      <c r="E108" s="462"/>
+      <c r="A108" s="515"/>
+      <c r="B108" s="516"/>
+      <c r="C108" s="515"/>
+      <c r="D108" s="515"/>
+      <c r="E108" s="515"/>
       <c r="F108" s="278"/>
       <c r="G108" s="278"/>
       <c r="H108" s="300"/>
@@ -7636,11 +7676,11 @@
       <c r="P108" s="350"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="462"/>
-      <c r="B109" s="463"/>
-      <c r="C109" s="462"/>
-      <c r="D109" s="462"/>
-      <c r="E109" s="462"/>
+      <c r="A109" s="515"/>
+      <c r="B109" s="516"/>
+      <c r="C109" s="515"/>
+      <c r="D109" s="515"/>
+      <c r="E109" s="515"/>
       <c r="F109" s="278"/>
       <c r="G109" s="278"/>
       <c r="H109" s="300"/>
@@ -7654,11 +7694,11 @@
       <c r="P109" s="350"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="462"/>
-      <c r="B110" s="463"/>
-      <c r="C110" s="462"/>
-      <c r="D110" s="462"/>
-      <c r="E110" s="462"/>
+      <c r="A110" s="515"/>
+      <c r="B110" s="516"/>
+      <c r="C110" s="515"/>
+      <c r="D110" s="515"/>
+      <c r="E110" s="515"/>
       <c r="F110" s="278"/>
       <c r="G110" s="278"/>
       <c r="H110" s="300"/>
@@ -7672,11 +7712,11 @@
       <c r="P110" s="350"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="462"/>
-      <c r="B111" s="463"/>
-      <c r="C111" s="462"/>
-      <c r="D111" s="462"/>
-      <c r="E111" s="462"/>
+      <c r="A111" s="515"/>
+      <c r="B111" s="516"/>
+      <c r="C111" s="515"/>
+      <c r="D111" s="515"/>
+      <c r="E111" s="515"/>
       <c r="F111" s="278"/>
       <c r="G111" s="278"/>
       <c r="H111" s="300"/>
@@ -7690,11 +7730,11 @@
       <c r="P111" s="278"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="462"/>
-      <c r="B112" s="463"/>
-      <c r="C112" s="462"/>
-      <c r="D112" s="462"/>
-      <c r="E112" s="462"/>
+      <c r="A112" s="515"/>
+      <c r="B112" s="516"/>
+      <c r="C112" s="515"/>
+      <c r="D112" s="515"/>
+      <c r="E112" s="515"/>
       <c r="F112" s="278"/>
       <c r="G112" s="278"/>
       <c r="H112" s="300"/>
@@ -7726,11 +7766,11 @@
       <c r="P113" s="278"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="416"/>
-      <c r="B114" s="418"/>
-      <c r="C114" s="416"/>
-      <c r="D114" s="416"/>
-      <c r="E114" s="416"/>
+      <c r="A114" s="470"/>
+      <c r="B114" s="472"/>
+      <c r="C114" s="470"/>
+      <c r="D114" s="470"/>
+      <c r="E114" s="470"/>
       <c r="F114" s="284"/>
       <c r="G114" s="284"/>
       <c r="H114" s="293"/>
@@ -7744,11 +7784,11 @@
       <c r="P114" s="284"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="417"/>
-      <c r="B115" s="419"/>
-      <c r="C115" s="417"/>
-      <c r="D115" s="417"/>
-      <c r="E115" s="417"/>
+      <c r="A115" s="471"/>
+      <c r="B115" s="473"/>
+      <c r="C115" s="471"/>
+      <c r="D115" s="471"/>
+      <c r="E115" s="471"/>
       <c r="F115" s="285"/>
       <c r="G115" s="285"/>
       <c r="H115" s="298"/>
@@ -7798,11 +7838,11 @@
       <c r="P117" s="278"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="416"/>
-      <c r="B118" s="418"/>
-      <c r="C118" s="416"/>
-      <c r="D118" s="416"/>
-      <c r="E118" s="416"/>
+      <c r="A118" s="470"/>
+      <c r="B118" s="472"/>
+      <c r="C118" s="470"/>
+      <c r="D118" s="470"/>
+      <c r="E118" s="470"/>
       <c r="F118" s="284"/>
       <c r="G118" s="284"/>
       <c r="H118" s="293"/>
@@ -7816,11 +7856,11 @@
       <c r="P118" s="284"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="420"/>
-      <c r="B119" s="421"/>
-      <c r="C119" s="420"/>
-      <c r="D119" s="420"/>
-      <c r="E119" s="420"/>
+      <c r="A119" s="474"/>
+      <c r="B119" s="475"/>
+      <c r="C119" s="474"/>
+      <c r="D119" s="474"/>
+      <c r="E119" s="474"/>
       <c r="F119" s="289"/>
       <c r="G119" s="289"/>
       <c r="H119" s="295"/>
@@ -7834,11 +7874,11 @@
       <c r="P119" s="289"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="420"/>
-      <c r="B120" s="421"/>
-      <c r="C120" s="420"/>
-      <c r="D120" s="420"/>
-      <c r="E120" s="420"/>
+      <c r="A120" s="474"/>
+      <c r="B120" s="475"/>
+      <c r="C120" s="474"/>
+      <c r="D120" s="474"/>
+      <c r="E120" s="474"/>
       <c r="F120" s="289"/>
       <c r="G120" s="289"/>
       <c r="H120" s="295"/>
@@ -7852,11 +7892,11 @@
       <c r="P120" s="289"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="417"/>
-      <c r="B121" s="419"/>
-      <c r="C121" s="417"/>
-      <c r="D121" s="417"/>
-      <c r="E121" s="417"/>
+      <c r="A121" s="471"/>
+      <c r="B121" s="473"/>
+      <c r="C121" s="471"/>
+      <c r="D121" s="471"/>
+      <c r="E121" s="471"/>
       <c r="F121" s="285"/>
       <c r="G121" s="285"/>
       <c r="H121" s="298"/>
@@ -7888,14 +7928,14 @@
       <c r="P122" s="330"/>
     </row>
     <row r="123" spans="1:17" s="202" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="459" t="s">
+      <c r="A123" s="512" t="s">
         <v>75</v>
       </c>
-      <c r="B123" s="459"/>
-      <c r="C123" s="459"/>
-      <c r="D123" s="459"/>
-      <c r="E123" s="459"/>
-      <c r="F123" s="459"/>
+      <c r="B123" s="512"/>
+      <c r="C123" s="512"/>
+      <c r="D123" s="512"/>
+      <c r="E123" s="512"/>
+      <c r="F123" s="512"/>
       <c r="G123" s="220">
         <f>SUM(G13:G122)</f>
         <v>61</v>
@@ -7914,18 +7954,18 @@
       <c r="M123" s="226"/>
       <c r="N123" s="226"/>
       <c r="O123" s="226"/>
-      <c r="P123" s="460"/>
-      <c r="Q123" s="461"/>
+      <c r="P123" s="513"/>
+      <c r="Q123" s="514"/>
     </row>
     <row r="124" spans="1:17" s="202" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="458" t="s">
+      <c r="A124" s="511" t="s">
         <v>194</v>
       </c>
-      <c r="B124" s="458"/>
-      <c r="C124" s="458"/>
-      <c r="D124" s="458"/>
-      <c r="E124" s="458"/>
-      <c r="F124" s="458"/>
+      <c r="B124" s="511"/>
+      <c r="C124" s="511"/>
+      <c r="D124" s="511"/>
+      <c r="E124" s="511"/>
+      <c r="F124" s="511"/>
       <c r="G124" s="196">
         <f>G123</f>
         <v>61</v>
@@ -7941,18 +7981,18 @@
       <c r="M124" s="199"/>
       <c r="N124" s="199"/>
       <c r="O124" s="199"/>
-      <c r="P124" s="460"/>
-      <c r="Q124" s="461"/>
+      <c r="P124" s="513"/>
+      <c r="Q124" s="514"/>
     </row>
     <row r="125" spans="1:17" s="202" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="458" t="s">
+      <c r="A125" s="511" t="s">
         <v>76</v>
       </c>
-      <c r="B125" s="458"/>
-      <c r="C125" s="458"/>
-      <c r="D125" s="458"/>
-      <c r="E125" s="458"/>
-      <c r="F125" s="458"/>
+      <c r="B125" s="511"/>
+      <c r="C125" s="511"/>
+      <c r="D125" s="511"/>
+      <c r="E125" s="511"/>
+      <c r="F125" s="511"/>
       <c r="G125" s="203" t="s">
         <v>49</v>
       </c>
@@ -7969,14 +8009,14 @@
       <c r="O125" s="199"/>
     </row>
     <row r="126" spans="1:17" s="202" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="458" t="s">
+      <c r="A126" s="511" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="458"/>
-      <c r="C126" s="458"/>
-      <c r="D126" s="458"/>
-      <c r="E126" s="458"/>
-      <c r="F126" s="458"/>
+      <c r="B126" s="511"/>
+      <c r="C126" s="511"/>
+      <c r="D126" s="511"/>
+      <c r="E126" s="511"/>
+      <c r="F126" s="511"/>
       <c r="G126" s="203"/>
       <c r="H126" s="215"/>
       <c r="I126" s="197"/>
@@ -7991,14 +8031,14 @@
       <c r="O126" s="199"/>
     </row>
     <row r="127" spans="1:17" s="202" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="458" t="s">
+      <c r="A127" s="511" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="458"/>
-      <c r="C127" s="458"/>
-      <c r="D127" s="458"/>
-      <c r="E127" s="458"/>
-      <c r="F127" s="458"/>
+      <c r="B127" s="511"/>
+      <c r="C127" s="511"/>
+      <c r="D127" s="511"/>
+      <c r="E127" s="511"/>
+      <c r="F127" s="511"/>
       <c r="G127" s="203"/>
       <c r="H127" s="215"/>
       <c r="I127" s="197"/>
@@ -8084,19 +8124,6 @@
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="C77:C80"/>
@@ -8123,6 +8150,15 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
     <mergeCell ref="A126:F126"/>
     <mergeCell ref="A127:F127"/>
     <mergeCell ref="A123:F123"/>
@@ -8169,6 +8205,7 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="E27:E33"/>
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="C27:C33"/>
@@ -8179,7 +8216,10 @@
     <mergeCell ref="C19:C26"/>
     <mergeCell ref="D19:D26"/>
     <mergeCell ref="E19:E26"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="C49:C50"/>
@@ -8190,7 +8230,6 @@
     <mergeCell ref="C51:C59"/>
     <mergeCell ref="B51:B59"/>
     <mergeCell ref="A51:A59"/>
-    <mergeCell ref="D47:D48"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
@@ -8214,6 +8253,7 @@
     <mergeCell ref="D102:D104"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="D114:D115"/>
     <mergeCell ref="C114:C115"/>
@@ -8240,144 +8280,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="628"/>
-    <col min="2" max="2" width="12" style="571" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="571"/>
-    <col min="4" max="4" width="20.140625" style="571" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="571"/>
-    <col min="6" max="6" width="9.28515625" style="571" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14" style="571" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="572"/>
-    <col min="10" max="10" width="17" style="573" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="571" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="571"/>
-    <col min="13" max="13" width="13.140625" style="571" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="571"/>
+    <col min="1" max="1" width="9.140625" style="450"/>
+    <col min="2" max="2" width="12" style="407" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="407"/>
+    <col min="4" max="4" width="20.140625" style="407" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="407"/>
+    <col min="6" max="6" width="9.28515625" style="407" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" style="407" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="408"/>
+    <col min="10" max="10" width="17" style="409" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="407" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="407"/>
+    <col min="13" max="13" width="13.140625" style="407" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="407"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="570" t="s">
+      <c r="A1" s="528" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="570"/>
-      <c r="C1" s="570"/>
-      <c r="D1" s="570"/>
+      <c r="B1" s="528"/>
+      <c r="C1" s="528"/>
+      <c r="D1" s="528"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="574" t="s">
+      <c r="A2" s="529" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="574"/>
-      <c r="C2" s="574"/>
-      <c r="D2" s="574"/>
+      <c r="B2" s="529"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="575" t="s">
+      <c r="A3" s="530" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="575"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="575"/>
-      <c r="E3" s="575"/>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="575"/>
-      <c r="L3" s="575"/>
-      <c r="M3" s="575"/>
-      <c r="N3" s="575"/>
+      <c r="B3" s="530"/>
+      <c r="C3" s="530"/>
+      <c r="D3" s="530"/>
+      <c r="E3" s="530"/>
+      <c r="F3" s="530"/>
+      <c r="G3" s="530"/>
+      <c r="H3" s="530"/>
+      <c r="I3" s="530"/>
+      <c r="J3" s="530"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="530"/>
+      <c r="M3" s="530"/>
+      <c r="N3" s="530"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="576" t="s">
+      <c r="A4" s="531" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="576"/>
-      <c r="C4" s="576"/>
-      <c r="D4" s="576"/>
-      <c r="E4" s="576"/>
-      <c r="F4" s="576"/>
-      <c r="G4" s="576"/>
-      <c r="H4" s="576"/>
-      <c r="I4" s="577"/>
-      <c r="J4" s="576"/>
-      <c r="K4" s="576"/>
-      <c r="L4" s="576"/>
-      <c r="M4" s="576"/>
-      <c r="N4" s="576"/>
+      <c r="B4" s="531"/>
+      <c r="C4" s="531"/>
+      <c r="D4" s="531"/>
+      <c r="E4" s="531"/>
+      <c r="F4" s="531"/>
+      <c r="G4" s="531"/>
+      <c r="H4" s="531"/>
+      <c r="I4" s="532"/>
+      <c r="J4" s="531"/>
+      <c r="K4" s="531"/>
+      <c r="L4" s="531"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="531"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="578" t="s">
+      <c r="A5" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="470" t="s">
+      <c r="B5" s="524" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="579" t="s">
+      <c r="C5" s="519" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="580" t="s">
+      <c r="D5" s="410" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="581" t="s">
+      <c r="E5" s="525" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="581"/>
-      <c r="G5" s="581"/>
-      <c r="H5" s="581"/>
-      <c r="I5" s="582"/>
-      <c r="J5" s="583" t="s">
+      <c r="F5" s="525"/>
+      <c r="G5" s="525"/>
+      <c r="H5" s="525"/>
+      <c r="I5" s="526"/>
+      <c r="J5" s="527" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="581" t="s">
+      <c r="K5" s="525" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="581"/>
-      <c r="M5" s="581"/>
-      <c r="N5" s="579" t="s">
+      <c r="L5" s="525"/>
+      <c r="M5" s="525"/>
+      <c r="N5" s="519" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="578"/>
-      <c r="B6" s="470"/>
-      <c r="C6" s="579"/>
-      <c r="D6" s="580" t="s">
+      <c r="A6" s="533"/>
+      <c r="B6" s="524"/>
+      <c r="C6" s="519"/>
+      <c r="D6" s="410" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="580" t="s">
+      <c r="E6" s="410" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="580" t="s">
+      <c r="F6" s="410" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="584" t="s">
+      <c r="G6" s="411" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="585" t="s">
+      <c r="H6" s="412" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="586" t="s">
+      <c r="I6" s="413" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="583"/>
-      <c r="K6" s="580" t="s">
+      <c r="J6" s="527"/>
+      <c r="K6" s="410" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="580" t="s">
+      <c r="L6" s="410" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="580" t="s">
+      <c r="M6" s="410" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="579"/>
+      <c r="N6" s="519"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="276">
         <v>786</v>
       </c>
-      <c r="B7" s="587">
+      <c r="B7" s="414">
         <v>44077</v>
       </c>
       <c r="C7" s="276" t="s">
@@ -8392,33 +8432,33 @@
       <c r="F7" s="276">
         <v>4</v>
       </c>
-      <c r="G7" s="588">
+      <c r="G7" s="415">
         <v>485000</v>
       </c>
-      <c r="H7" s="588">
+      <c r="H7" s="415">
         <f>F7*G7</f>
         <v>1940000</v>
       </c>
-      <c r="I7" s="589">
+      <c r="I7" s="416">
         <v>0.5</v>
       </c>
-      <c r="J7" s="590">
+      <c r="J7" s="417">
         <f>H7*(1-I7)</f>
         <v>970000</v>
       </c>
-      <c r="K7" s="591"/>
+      <c r="K7" s="418"/>
       <c r="L7" s="276"/>
-      <c r="M7" s="591">
+      <c r="M7" s="418">
         <f>J7</f>
         <v>970000</v>
       </c>
-      <c r="N7" s="592"/>
+      <c r="N7" s="419"/>
     </row>
     <row r="8" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="416"/>
-      <c r="B8" s="424"/>
-      <c r="C8" s="429"/>
-      <c r="D8" s="429"/>
+      <c r="A8" s="470"/>
+      <c r="B8" s="476"/>
+      <c r="C8" s="483"/>
+      <c r="D8" s="483"/>
       <c r="E8" s="354"/>
       <c r="F8" s="354"/>
       <c r="G8" s="293"/>
@@ -8432,10 +8472,10 @@
       <c r="Q8" s="297"/>
     </row>
     <row r="9" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="420"/>
-      <c r="B9" s="428"/>
-      <c r="C9" s="430"/>
-      <c r="D9" s="430"/>
+      <c r="A9" s="474"/>
+      <c r="B9" s="482"/>
+      <c r="C9" s="484"/>
+      <c r="D9" s="484"/>
       <c r="E9" s="355"/>
       <c r="F9" s="355"/>
       <c r="G9" s="295"/>
@@ -8449,10 +8489,10 @@
       <c r="Q9" s="297"/>
     </row>
     <row r="10" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="428"/>
-      <c r="C10" s="430"/>
-      <c r="D10" s="430"/>
+      <c r="A10" s="474"/>
+      <c r="B10" s="482"/>
+      <c r="C10" s="484"/>
+      <c r="D10" s="484"/>
       <c r="E10" s="355"/>
       <c r="F10" s="355"/>
       <c r="G10" s="295"/>
@@ -8466,10 +8506,10 @@
       <c r="Q10" s="297"/>
     </row>
     <row r="11" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="420"/>
-      <c r="B11" s="428"/>
-      <c r="C11" s="430"/>
-      <c r="D11" s="430"/>
+      <c r="A11" s="474"/>
+      <c r="B11" s="482"/>
+      <c r="C11" s="484"/>
+      <c r="D11" s="484"/>
       <c r="E11" s="355"/>
       <c r="F11" s="355"/>
       <c r="G11" s="295"/>
@@ -8483,10 +8523,10 @@
       <c r="Q11" s="297"/>
     </row>
     <row r="12" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="420"/>
-      <c r="B12" s="428"/>
-      <c r="C12" s="430"/>
-      <c r="D12" s="430"/>
+      <c r="A12" s="474"/>
+      <c r="B12" s="482"/>
+      <c r="C12" s="484"/>
+      <c r="D12" s="484"/>
       <c r="E12" s="355"/>
       <c r="F12" s="355"/>
       <c r="G12" s="295"/>
@@ -8500,10 +8540,10 @@
       <c r="Q12" s="297"/>
     </row>
     <row r="13" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="420"/>
-      <c r="B13" s="428"/>
-      <c r="C13" s="430"/>
-      <c r="D13" s="430"/>
+      <c r="A13" s="474"/>
+      <c r="B13" s="482"/>
+      <c r="C13" s="484"/>
+      <c r="D13" s="484"/>
       <c r="E13" s="355"/>
       <c r="F13" s="355"/>
       <c r="G13" s="295"/>
@@ -8517,10 +8557,10 @@
       <c r="Q13" s="297"/>
     </row>
     <row r="14" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="420"/>
-      <c r="B14" s="428"/>
-      <c r="C14" s="430"/>
-      <c r="D14" s="430"/>
+      <c r="A14" s="474"/>
+      <c r="B14" s="482"/>
+      <c r="C14" s="484"/>
+      <c r="D14" s="484"/>
       <c r="E14" s="355"/>
       <c r="F14" s="355"/>
       <c r="G14" s="295"/>
@@ -8534,10 +8574,10 @@
       <c r="Q14" s="297"/>
     </row>
     <row r="15" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="417"/>
-      <c r="B15" s="425"/>
-      <c r="C15" s="431"/>
-      <c r="D15" s="431"/>
+      <c r="A15" s="471"/>
+      <c r="B15" s="477"/>
+      <c r="C15" s="485"/>
+      <c r="D15" s="485"/>
       <c r="E15" s="356"/>
       <c r="F15" s="356"/>
       <c r="G15" s="298"/>
@@ -8553,8 +8593,8 @@
     <row r="16" spans="1:17" s="182" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="352"/>
       <c r="B16" s="353"/>
-      <c r="C16" s="593"/>
-      <c r="D16" s="593"/>
+      <c r="C16" s="420"/>
+      <c r="D16" s="420"/>
       <c r="E16" s="352"/>
       <c r="F16" s="352"/>
       <c r="G16" s="290"/>
@@ -8568,15 +8608,15 @@
       <c r="Q16" s="297"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="416"/>
-      <c r="B17" s="424"/>
-      <c r="C17" s="416"/>
-      <c r="D17" s="416"/>
+      <c r="A17" s="470"/>
+      <c r="B17" s="476"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="470"/>
       <c r="E17" s="280"/>
       <c r="F17" s="280"/>
-      <c r="G17" s="594"/>
-      <c r="H17" s="594"/>
-      <c r="I17" s="595"/>
+      <c r="G17" s="421"/>
+      <c r="H17" s="421"/>
+      <c r="I17" s="422"/>
       <c r="J17" s="319"/>
       <c r="K17" s="280"/>
       <c r="L17" s="280"/>
@@ -8584,15 +8624,15 @@
       <c r="N17" s="323"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="417"/>
-      <c r="B18" s="425"/>
-      <c r="C18" s="417"/>
-      <c r="D18" s="417"/>
+      <c r="A18" s="471"/>
+      <c r="B18" s="477"/>
+      <c r="C18" s="471"/>
+      <c r="D18" s="471"/>
       <c r="E18" s="279"/>
       <c r="F18" s="279"/>
-      <c r="G18" s="596"/>
-      <c r="H18" s="596"/>
-      <c r="I18" s="597"/>
+      <c r="G18" s="423"/>
+      <c r="H18" s="423"/>
+      <c r="I18" s="424"/>
       <c r="J18" s="338"/>
       <c r="K18" s="279"/>
       <c r="L18" s="279"/>
@@ -8600,227 +8640,227 @@
       <c r="N18" s="322"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="598"/>
-      <c r="B19" s="599"/>
-      <c r="C19" s="598"/>
-      <c r="D19" s="598"/>
-      <c r="E19" s="598"/>
-      <c r="F19" s="598"/>
-      <c r="G19" s="600"/>
-      <c r="H19" s="600"/>
-      <c r="I19" s="601"/>
+      <c r="A19" s="425"/>
+      <c r="B19" s="426"/>
+      <c r="C19" s="425"/>
+      <c r="D19" s="425"/>
+      <c r="E19" s="425"/>
+      <c r="F19" s="425"/>
+      <c r="G19" s="427"/>
+      <c r="H19" s="427"/>
+      <c r="I19" s="428"/>
       <c r="J19" s="340"/>
-      <c r="K19" s="602"/>
-      <c r="L19" s="598"/>
-      <c r="M19" s="602"/>
+      <c r="K19" s="429"/>
+      <c r="L19" s="425"/>
+      <c r="M19" s="429"/>
       <c r="N19" s="328"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="277"/>
-      <c r="B20" s="603"/>
+      <c r="B20" s="430"/>
       <c r="C20" s="277"/>
       <c r="D20" s="277"/>
       <c r="E20" s="277"/>
       <c r="F20" s="277"/>
-      <c r="G20" s="604"/>
-      <c r="H20" s="604"/>
-      <c r="I20" s="605"/>
+      <c r="G20" s="431"/>
+      <c r="H20" s="431"/>
+      <c r="I20" s="432"/>
       <c r="J20" s="321"/>
       <c r="K20" s="277"/>
       <c r="L20" s="277"/>
-      <c r="M20" s="606"/>
+      <c r="M20" s="433"/>
       <c r="N20" s="277"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="607"/>
-      <c r="B21" s="608"/>
-      <c r="C21" s="607"/>
-      <c r="D21" s="607"/>
+      <c r="A21" s="520"/>
+      <c r="B21" s="522"/>
+      <c r="C21" s="520"/>
+      <c r="D21" s="520"/>
       <c r="E21" s="277"/>
       <c r="F21" s="277"/>
-      <c r="G21" s="604"/>
-      <c r="H21" s="604"/>
-      <c r="I21" s="605"/>
+      <c r="G21" s="431"/>
+      <c r="H21" s="431"/>
+      <c r="I21" s="432"/>
       <c r="J21" s="321"/>
       <c r="K21" s="277"/>
       <c r="L21" s="277"/>
-      <c r="M21" s="606"/>
+      <c r="M21" s="433"/>
       <c r="N21" s="277"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="609"/>
-      <c r="B22" s="610"/>
-      <c r="C22" s="609"/>
-      <c r="D22" s="609"/>
+      <c r="A22" s="521"/>
+      <c r="B22" s="523"/>
+      <c r="C22" s="521"/>
+      <c r="D22" s="521"/>
       <c r="E22" s="277"/>
       <c r="F22" s="277"/>
-      <c r="G22" s="604"/>
-      <c r="H22" s="604"/>
-      <c r="I22" s="605"/>
+      <c r="G22" s="431"/>
+      <c r="H22" s="431"/>
+      <c r="I22" s="432"/>
       <c r="J22" s="321"/>
       <c r="K22" s="277"/>
       <c r="L22" s="277"/>
-      <c r="M22" s="606"/>
+      <c r="M22" s="433"/>
       <c r="N22" s="277"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="277"/>
-      <c r="B23" s="603"/>
+      <c r="B23" s="430"/>
       <c r="C23" s="277"/>
       <c r="D23" s="277"/>
       <c r="E23" s="277"/>
       <c r="F23" s="277"/>
-      <c r="G23" s="604"/>
-      <c r="H23" s="604"/>
-      <c r="I23" s="605"/>
+      <c r="G23" s="431"/>
+      <c r="H23" s="431"/>
+      <c r="I23" s="432"/>
       <c r="J23" s="321"/>
       <c r="K23" s="277"/>
       <c r="L23" s="277"/>
-      <c r="M23" s="606"/>
+      <c r="M23" s="433"/>
       <c r="N23" s="333"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="337"/>
-      <c r="B24" s="611"/>
+      <c r="B24" s="434"/>
       <c r="C24" s="337"/>
       <c r="D24" s="337"/>
       <c r="E24" s="337"/>
       <c r="F24" s="337"/>
-      <c r="G24" s="612"/>
-      <c r="H24" s="612"/>
-      <c r="I24" s="613"/>
-      <c r="J24" s="614"/>
+      <c r="G24" s="435"/>
+      <c r="H24" s="435"/>
+      <c r="I24" s="436"/>
+      <c r="J24" s="437"/>
       <c r="K24" s="337"/>
       <c r="L24" s="337"/>
-      <c r="M24" s="606"/>
-      <c r="N24" s="615"/>
+      <c r="M24" s="433"/>
+      <c r="N24" s="438"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="279"/>
-      <c r="B25" s="616"/>
+      <c r="B25" s="439"/>
       <c r="C25" s="279"/>
       <c r="D25" s="279"/>
       <c r="E25" s="279"/>
       <c r="F25" s="279"/>
-      <c r="G25" s="596"/>
-      <c r="H25" s="596"/>
-      <c r="I25" s="597"/>
+      <c r="G25" s="423"/>
+      <c r="H25" s="423"/>
+      <c r="I25" s="424"/>
       <c r="J25" s="338"/>
       <c r="K25" s="279"/>
       <c r="L25" s="279"/>
-      <c r="M25" s="606"/>
+      <c r="M25" s="433"/>
       <c r="N25" s="322"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="416"/>
-      <c r="B26" s="424"/>
-      <c r="C26" s="416"/>
-      <c r="D26" s="416"/>
+      <c r="A26" s="470"/>
+      <c r="B26" s="476"/>
+      <c r="C26" s="470"/>
+      <c r="D26" s="470"/>
       <c r="E26" s="280"/>
       <c r="F26" s="280"/>
-      <c r="G26" s="594"/>
-      <c r="H26" s="594"/>
-      <c r="I26" s="595"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="421"/>
+      <c r="I26" s="422"/>
       <c r="J26" s="319"/>
       <c r="K26" s="280"/>
       <c r="L26" s="280"/>
-      <c r="M26" s="606"/>
+      <c r="M26" s="433"/>
       <c r="N26" s="323"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="420"/>
-      <c r="B27" s="428"/>
-      <c r="C27" s="420"/>
-      <c r="D27" s="420"/>
+      <c r="A27" s="474"/>
+      <c r="B27" s="482"/>
+      <c r="C27" s="474"/>
+      <c r="D27" s="474"/>
       <c r="E27" s="277"/>
       <c r="F27" s="277"/>
-      <c r="G27" s="604"/>
-      <c r="H27" s="604"/>
-      <c r="I27" s="605"/>
+      <c r="G27" s="431"/>
+      <c r="H27" s="431"/>
+      <c r="I27" s="432"/>
       <c r="J27" s="321"/>
       <c r="K27" s="277"/>
       <c r="L27" s="277"/>
-      <c r="M27" s="617"/>
+      <c r="M27" s="440"/>
       <c r="N27" s="333"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="417"/>
-      <c r="B28" s="425"/>
-      <c r="C28" s="417"/>
-      <c r="D28" s="417"/>
+      <c r="A28" s="471"/>
+      <c r="B28" s="477"/>
+      <c r="C28" s="471"/>
+      <c r="D28" s="471"/>
       <c r="E28" s="279"/>
       <c r="F28" s="279"/>
-      <c r="G28" s="596"/>
-      <c r="H28" s="596"/>
-      <c r="I28" s="597"/>
+      <c r="G28" s="423"/>
+      <c r="H28" s="423"/>
+      <c r="I28" s="424"/>
       <c r="J28" s="338"/>
       <c r="K28" s="279"/>
       <c r="L28" s="279"/>
-      <c r="M28" s="618"/>
+      <c r="M28" s="441"/>
       <c r="N28" s="322"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="416"/>
-      <c r="B29" s="424"/>
-      <c r="C29" s="416"/>
-      <c r="D29" s="416"/>
+      <c r="A29" s="470"/>
+      <c r="B29" s="476"/>
+      <c r="C29" s="470"/>
+      <c r="D29" s="470"/>
       <c r="E29" s="280"/>
       <c r="F29" s="280"/>
-      <c r="G29" s="594"/>
-      <c r="H29" s="594"/>
-      <c r="I29" s="595"/>
+      <c r="G29" s="421"/>
+      <c r="H29" s="421"/>
+      <c r="I29" s="422"/>
       <c r="J29" s="319"/>
       <c r="K29" s="280"/>
       <c r="L29" s="280"/>
-      <c r="M29" s="606"/>
+      <c r="M29" s="433"/>
       <c r="N29" s="323"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="420"/>
-      <c r="B30" s="428"/>
-      <c r="C30" s="420"/>
-      <c r="D30" s="420"/>
+      <c r="A30" s="474"/>
+      <c r="B30" s="482"/>
+      <c r="C30" s="474"/>
+      <c r="D30" s="474"/>
       <c r="E30" s="277"/>
       <c r="F30" s="277"/>
-      <c r="G30" s="604"/>
-      <c r="H30" s="604"/>
-      <c r="I30" s="605"/>
+      <c r="G30" s="431"/>
+      <c r="H30" s="431"/>
+      <c r="I30" s="432"/>
       <c r="J30" s="321"/>
       <c r="K30" s="277"/>
       <c r="L30" s="277"/>
-      <c r="M30" s="617"/>
+      <c r="M30" s="440"/>
       <c r="N30" s="333"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="420"/>
-      <c r="B31" s="428"/>
-      <c r="C31" s="420"/>
-      <c r="D31" s="420"/>
+      <c r="A31" s="474"/>
+      <c r="B31" s="482"/>
+      <c r="C31" s="474"/>
+      <c r="D31" s="474"/>
       <c r="E31" s="277"/>
       <c r="F31" s="277"/>
-      <c r="G31" s="604"/>
-      <c r="H31" s="604"/>
-      <c r="I31" s="605"/>
+      <c r="G31" s="431"/>
+      <c r="H31" s="431"/>
+      <c r="I31" s="432"/>
       <c r="J31" s="321"/>
       <c r="K31" s="277"/>
       <c r="L31" s="277"/>
-      <c r="M31" s="617"/>
+      <c r="M31" s="440"/>
       <c r="N31" s="333"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="417"/>
-      <c r="B32" s="425"/>
-      <c r="C32" s="417"/>
-      <c r="D32" s="417"/>
+      <c r="A32" s="471"/>
+      <c r="B32" s="477"/>
+      <c r="C32" s="471"/>
+      <c r="D32" s="471"/>
       <c r="E32" s="279"/>
       <c r="F32" s="279"/>
-      <c r="G32" s="596"/>
-      <c r="H32" s="596"/>
-      <c r="I32" s="597"/>
+      <c r="G32" s="423"/>
+      <c r="H32" s="423"/>
+      <c r="I32" s="424"/>
       <c r="J32" s="338"/>
       <c r="K32" s="279"/>
       <c r="L32" s="279"/>
-      <c r="M32" s="618"/>
+      <c r="M32" s="441"/>
       <c r="N32" s="322"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -8830,13 +8870,13 @@
       <c r="D33" s="358"/>
       <c r="E33" s="350"/>
       <c r="F33" s="350"/>
-      <c r="G33" s="619"/>
-      <c r="H33" s="619"/>
-      <c r="I33" s="620"/>
+      <c r="G33" s="442"/>
+      <c r="H33" s="442"/>
+      <c r="I33" s="443"/>
       <c r="J33" s="339"/>
       <c r="K33" s="350"/>
       <c r="L33" s="350"/>
-      <c r="M33" s="621"/>
+      <c r="M33" s="444"/>
       <c r="N33" s="336"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -8846,13 +8886,13 @@
       <c r="D34" s="358"/>
       <c r="E34" s="350"/>
       <c r="F34" s="350"/>
-      <c r="G34" s="619"/>
-      <c r="H34" s="619"/>
-      <c r="I34" s="620"/>
+      <c r="G34" s="442"/>
+      <c r="H34" s="442"/>
+      <c r="I34" s="443"/>
       <c r="J34" s="339"/>
       <c r="K34" s="350"/>
       <c r="L34" s="350"/>
-      <c r="M34" s="621"/>
+      <c r="M34" s="444"/>
       <c r="N34" s="336"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -8862,13 +8902,13 @@
       <c r="D35" s="358"/>
       <c r="E35" s="350"/>
       <c r="F35" s="350"/>
-      <c r="G35" s="619"/>
-      <c r="H35" s="619"/>
-      <c r="I35" s="620"/>
+      <c r="G35" s="442"/>
+      <c r="H35" s="442"/>
+      <c r="I35" s="443"/>
       <c r="J35" s="339"/>
       <c r="K35" s="350"/>
       <c r="L35" s="350"/>
-      <c r="M35" s="621"/>
+      <c r="M35" s="444"/>
       <c r="N35" s="336"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8878,45 +8918,45 @@
       <c r="D36" s="358"/>
       <c r="E36" s="350"/>
       <c r="F36" s="350"/>
-      <c r="G36" s="619"/>
-      <c r="H36" s="619"/>
-      <c r="I36" s="620"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="442"/>
+      <c r="I36" s="443"/>
       <c r="J36" s="339"/>
       <c r="K36" s="350"/>
       <c r="L36" s="350"/>
-      <c r="M36" s="621"/>
+      <c r="M36" s="444"/>
       <c r="N36" s="336"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="416"/>
-      <c r="B37" s="424"/>
-      <c r="C37" s="416"/>
-      <c r="D37" s="416"/>
+      <c r="A37" s="470"/>
+      <c r="B37" s="476"/>
+      <c r="C37" s="470"/>
+      <c r="D37" s="470"/>
       <c r="E37" s="280"/>
       <c r="F37" s="280"/>
-      <c r="G37" s="594"/>
-      <c r="H37" s="594"/>
-      <c r="I37" s="595"/>
+      <c r="G37" s="421"/>
+      <c r="H37" s="421"/>
+      <c r="I37" s="422"/>
       <c r="J37" s="319"/>
       <c r="K37" s="280"/>
       <c r="L37" s="280"/>
-      <c r="M37" s="606"/>
+      <c r="M37" s="433"/>
       <c r="N37" s="323"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="417"/>
-      <c r="B38" s="425"/>
-      <c r="C38" s="417"/>
-      <c r="D38" s="417"/>
+      <c r="A38" s="471"/>
+      <c r="B38" s="477"/>
+      <c r="C38" s="471"/>
+      <c r="D38" s="471"/>
       <c r="E38" s="279"/>
       <c r="F38" s="279"/>
-      <c r="G38" s="596"/>
-      <c r="H38" s="596"/>
-      <c r="I38" s="597"/>
+      <c r="G38" s="423"/>
+      <c r="H38" s="423"/>
+      <c r="I38" s="424"/>
       <c r="J38" s="338"/>
       <c r="K38" s="279"/>
       <c r="L38" s="279"/>
-      <c r="M38" s="618"/>
+      <c r="M38" s="441"/>
       <c r="N38" s="322"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8926,13 +8966,13 @@
       <c r="D39" s="358"/>
       <c r="E39" s="350"/>
       <c r="F39" s="350"/>
-      <c r="G39" s="619"/>
-      <c r="H39" s="619"/>
-      <c r="I39" s="620"/>
+      <c r="G39" s="442"/>
+      <c r="H39" s="442"/>
+      <c r="I39" s="443"/>
       <c r="J39" s="339"/>
       <c r="K39" s="350"/>
       <c r="L39" s="350"/>
-      <c r="M39" s="621"/>
+      <c r="M39" s="444"/>
       <c r="N39" s="336"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8942,68 +8982,68 @@
       <c r="D40" s="358"/>
       <c r="E40" s="350"/>
       <c r="F40" s="350"/>
-      <c r="G40" s="619"/>
-      <c r="H40" s="619"/>
-      <c r="I40" s="620"/>
+      <c r="G40" s="442"/>
+      <c r="H40" s="442"/>
+      <c r="I40" s="443"/>
       <c r="J40" s="339"/>
       <c r="K40" s="350"/>
       <c r="L40" s="350"/>
-      <c r="M40" s="621"/>
+      <c r="M40" s="444"/>
       <c r="N40" s="336"/>
     </row>
-    <row r="41" spans="1:14" s="627" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="622" t="s">
+    <row r="41" spans="1:14" s="449" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="518" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="622"/>
-      <c r="C41" s="622"/>
-      <c r="D41" s="622"/>
-      <c r="E41" s="623"/>
-      <c r="F41" s="623">
+      <c r="B41" s="518"/>
+      <c r="C41" s="518"/>
+      <c r="D41" s="518"/>
+      <c r="E41" s="445"/>
+      <c r="F41" s="445">
         <f>SUM(F7:F40)</f>
         <v>4</v>
       </c>
-      <c r="G41" s="624">
+      <c r="G41" s="446">
         <f>SUM(G7:G40)</f>
         <v>485000</v>
       </c>
-      <c r="H41" s="624">
+      <c r="H41" s="446">
         <f>SUM(H7:H40)</f>
         <v>1940000</v>
       </c>
-      <c r="I41" s="625"/>
-      <c r="J41" s="626">
+      <c r="I41" s="447"/>
+      <c r="J41" s="448">
         <f>SUM(J7:J40)</f>
         <v>970000</v>
       </c>
-      <c r="K41" s="623"/>
-      <c r="L41" s="623"/>
-      <c r="M41" s="623"/>
-      <c r="N41" s="623"/>
+      <c r="K41" s="445"/>
+      <c r="L41" s="445"/>
+      <c r="M41" s="445"/>
+      <c r="N41" s="445"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F42" s="629"/>
-      <c r="G42" s="629"/>
+      <c r="F42" s="451"/>
+      <c r="G42" s="451"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F43" s="629"/>
-      <c r="G43" s="629"/>
-    </row>
-    <row r="44" spans="1:14" s="631" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="630"/>
-      <c r="C44" s="632"/>
+      <c r="F43" s="451"/>
+      <c r="G43" s="451"/>
+    </row>
+    <row r="44" spans="1:14" s="453" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="452"/>
+      <c r="C44" s="454"/>
       <c r="D44" s="359" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="632"/>
-      <c r="F44" s="632"/>
-      <c r="G44" s="632"/>
+      <c r="E44" s="454"/>
+      <c r="F44" s="454"/>
+      <c r="G44" s="454"/>
       <c r="J44" s="344" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="631" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="630"/>
+    <row r="45" spans="1:14" s="453" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="452"/>
       <c r="C45" s="12"/>
       <c r="D45" s="186" t="s">
         <v>15</v>
@@ -9016,32 +9056,32 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F46" s="629"/>
-      <c r="G46" s="629"/>
-      <c r="J46" s="633"/>
+      <c r="F46" s="451"/>
+      <c r="G46" s="451"/>
+      <c r="J46" s="455"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F47" s="629"/>
-      <c r="G47" s="629"/>
-      <c r="J47" s="633"/>
+      <c r="F47" s="451"/>
+      <c r="G47" s="451"/>
+      <c r="J47" s="455"/>
     </row>
     <row r="48" spans="1:14" s="374" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="376"/>
-      <c r="C48" s="632"/>
+      <c r="C48" s="454"/>
       <c r="E48" s="373"/>
-      <c r="J48" s="634"/>
+      <c r="J48" s="456"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="629"/>
-      <c r="G49" s="629"/>
+      <c r="F49" s="451"/>
+      <c r="G49" s="451"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="629"/>
-      <c r="G50" s="629"/>
+      <c r="F50" s="451"/>
+      <c r="G50" s="451"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="629"/>
-      <c r="G51" s="629"/>
+      <c r="F51" s="451"/>
+      <c r="G51" s="451"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -9169,14 +9209,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="472" t="s">
+      <c r="A4" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
+      <c r="B4" s="534"/>
+      <c r="C4" s="534"/>
+      <c r="D4" s="534"/>
+      <c r="E4" s="534"/>
+      <c r="F4" s="534"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -9190,14 +9230,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="473" t="s">
+      <c r="A5" s="535" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="473"/>
-      <c r="C5" s="473"/>
-      <c r="D5" s="473"/>
-      <c r="E5" s="473"/>
-      <c r="F5" s="473"/>
+      <c r="B5" s="535"/>
+      <c r="C5" s="535"/>
+      <c r="D5" s="535"/>
+      <c r="E5" s="535"/>
+      <c r="F5" s="535"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -9544,10 +9584,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="474" t="s">
+      <c r="A25" s="536" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="474"/>
+      <c r="B25" s="536"/>
       <c r="C25" s="31"/>
       <c r="D25" s="143">
         <f>C24-D24</f>
@@ -9626,13 +9666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="553" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="553"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9652,99 +9692,99 @@
       <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="492" t="s">
+      <c r="A3" s="554" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="492"/>
-      <c r="C3" s="492"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="492"/>
-      <c r="F3" s="492"/>
-      <c r="G3" s="492"/>
-      <c r="H3" s="492"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="492"/>
-      <c r="K3" s="492"/>
-      <c r="L3" s="492"/>
+      <c r="B3" s="554"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
     </row>
     <row r="4" spans="1:12" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="493" t="s">
+      <c r="A4" s="555" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="497" t="s">
+      <c r="B4" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="493" t="s">
+      <c r="C4" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="493" t="s">
+      <c r="D4" s="555" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="493"/>
-      <c r="F4" s="496" t="s">
+      <c r="E4" s="555"/>
+      <c r="F4" s="558" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="496"/>
-      <c r="H4" s="496"/>
-      <c r="I4" s="496"/>
-      <c r="J4" s="496"/>
-      <c r="K4" s="496"/>
-      <c r="L4" s="496"/>
+      <c r="G4" s="558"/>
+      <c r="H4" s="558"/>
+      <c r="I4" s="558"/>
+      <c r="J4" s="558"/>
+      <c r="K4" s="558"/>
+      <c r="L4" s="558"/>
     </row>
     <row r="5" spans="1:12" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="493"/>
-      <c r="B5" s="497"/>
-      <c r="C5" s="493"/>
-      <c r="D5" s="493" t="s">
+      <c r="A5" s="555"/>
+      <c r="B5" s="559"/>
+      <c r="C5" s="555"/>
+      <c r="D5" s="555" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="493" t="s">
+      <c r="E5" s="555" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="493" t="s">
+      <c r="F5" s="555" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="493" t="s">
+      <c r="G5" s="555" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="494" t="s">
+      <c r="H5" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="494" t="s">
+      <c r="I5" s="556" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="495" t="s">
+      <c r="J5" s="557" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="495"/>
-      <c r="L5" s="494" t="s">
+      <c r="K5" s="557"/>
+      <c r="L5" s="556" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="493"/>
-      <c r="B6" s="497"/>
-      <c r="C6" s="493"/>
-      <c r="D6" s="493"/>
-      <c r="E6" s="493"/>
-      <c r="F6" s="493"/>
-      <c r="G6" s="493"/>
-      <c r="H6" s="494"/>
-      <c r="I6" s="494"/>
+      <c r="A6" s="555"/>
+      <c r="B6" s="559"/>
+      <c r="C6" s="555"/>
+      <c r="D6" s="555"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="556"/>
       <c r="J6" s="93" t="s">
         <v>82</v>
       </c>
       <c r="K6" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="494"/>
+      <c r="L6" s="556"/>
     </row>
     <row r="7" spans="1:12" s="194" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="464"/>
-      <c r="B7" s="467"/>
-      <c r="C7" s="464"/>
-      <c r="D7" s="464"/>
-      <c r="E7" s="464"/>
+      <c r="A7" s="560"/>
+      <c r="B7" s="563"/>
+      <c r="C7" s="560"/>
+      <c r="D7" s="560"/>
+      <c r="E7" s="560"/>
       <c r="F7" s="227"/>
       <c r="G7" s="227"/>
       <c r="H7" s="206"/>
@@ -9754,11 +9794,11 @@
       <c r="L7" s="206"/>
     </row>
     <row r="8" spans="1:12" s="194" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="465"/>
-      <c r="B8" s="469"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
+      <c r="A8" s="561"/>
+      <c r="B8" s="564"/>
+      <c r="C8" s="561"/>
+      <c r="D8" s="561"/>
+      <c r="E8" s="561"/>
       <c r="F8" s="228"/>
       <c r="G8" s="228"/>
       <c r="H8" s="208"/>
@@ -9768,11 +9808,11 @@
       <c r="L8" s="208"/>
     </row>
     <row r="9" spans="1:12" s="194" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="465"/>
-      <c r="B9" s="469"/>
-      <c r="C9" s="465"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
+      <c r="A9" s="561"/>
+      <c r="B9" s="564"/>
+      <c r="C9" s="561"/>
+      <c r="D9" s="561"/>
+      <c r="E9" s="561"/>
       <c r="F9" s="228"/>
       <c r="G9" s="228"/>
       <c r="H9" s="208"/>
@@ -9782,11 +9822,11 @@
       <c r="L9" s="208"/>
     </row>
     <row r="10" spans="1:12" s="194" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="466"/>
-      <c r="B10" s="468"/>
-      <c r="C10" s="466"/>
-      <c r="D10" s="466"/>
-      <c r="E10" s="466"/>
+      <c r="A10" s="562"/>
+      <c r="B10" s="565"/>
+      <c r="C10" s="562"/>
+      <c r="D10" s="562"/>
+      <c r="E10" s="562"/>
       <c r="F10" s="229"/>
       <c r="G10" s="229"/>
       <c r="H10" s="210"/>
@@ -9810,11 +9850,11 @@
       <c r="L11" s="213"/>
     </row>
     <row r="12" spans="1:12" s="194" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="498"/>
-      <c r="B12" s="500"/>
-      <c r="C12" s="498"/>
-      <c r="D12" s="502"/>
-      <c r="E12" s="498"/>
+      <c r="A12" s="566"/>
+      <c r="B12" s="568"/>
+      <c r="C12" s="566"/>
+      <c r="D12" s="570"/>
+      <c r="E12" s="566"/>
       <c r="H12" s="216"/>
       <c r="I12" s="216"/>
       <c r="J12" s="216"/>
@@ -9822,11 +9862,11 @@
       <c r="L12" s="216"/>
     </row>
     <row r="13" spans="1:12" s="194" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="499"/>
-      <c r="B13" s="501"/>
-      <c r="C13" s="499"/>
-      <c r="D13" s="503"/>
-      <c r="E13" s="499"/>
+      <c r="A13" s="567"/>
+      <c r="B13" s="569"/>
+      <c r="C13" s="567"/>
+      <c r="D13" s="571"/>
+      <c r="E13" s="567"/>
       <c r="F13" s="231"/>
       <c r="G13" s="231"/>
       <c r="H13" s="218"/>
@@ -9836,14 +9876,14 @@
       <c r="L13" s="218"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="482" t="s">
+      <c r="A14" s="544" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="483"/>
-      <c r="C14" s="483"/>
-      <c r="D14" s="483"/>
-      <c r="E14" s="483"/>
-      <c r="F14" s="484"/>
+      <c r="B14" s="545"/>
+      <c r="C14" s="545"/>
+      <c r="D14" s="545"/>
+      <c r="E14" s="545"/>
+      <c r="F14" s="546"/>
       <c r="G14" s="237">
         <f>SUM(G7:G13)</f>
         <v>0</v>
@@ -9889,99 +9929,99 @@
       <c r="L16" s="259"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="492" t="s">
+      <c r="A17" s="554" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="492"/>
-      <c r="C17" s="492"/>
-      <c r="D17" s="492"/>
-      <c r="E17" s="492"/>
-      <c r="F17" s="492"/>
-      <c r="G17" s="492"/>
-      <c r="H17" s="492"/>
-      <c r="I17" s="492"/>
-      <c r="J17" s="492"/>
-      <c r="K17" s="492"/>
-      <c r="L17" s="492"/>
+      <c r="B17" s="554"/>
+      <c r="C17" s="554"/>
+      <c r="D17" s="554"/>
+      <c r="E17" s="554"/>
+      <c r="F17" s="554"/>
+      <c r="G17" s="554"/>
+      <c r="H17" s="554"/>
+      <c r="I17" s="554"/>
+      <c r="J17" s="554"/>
+      <c r="K17" s="554"/>
+      <c r="L17" s="554"/>
     </row>
     <row r="18" spans="1:13" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="493" t="s">
+      <c r="A18" s="555" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="497" t="s">
+      <c r="B18" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="493" t="s">
+      <c r="C18" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="493" t="s">
+      <c r="D18" s="555" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="493"/>
-      <c r="F18" s="496" t="s">
+      <c r="E18" s="555"/>
+      <c r="F18" s="558" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="496"/>
-      <c r="H18" s="496"/>
-      <c r="I18" s="496"/>
-      <c r="J18" s="496"/>
-      <c r="K18" s="496"/>
-      <c r="L18" s="496"/>
+      <c r="G18" s="558"/>
+      <c r="H18" s="558"/>
+      <c r="I18" s="558"/>
+      <c r="J18" s="558"/>
+      <c r="K18" s="558"/>
+      <c r="L18" s="558"/>
     </row>
     <row r="19" spans="1:13" s="90" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="493"/>
-      <c r="B19" s="497"/>
-      <c r="C19" s="493"/>
-      <c r="D19" s="493" t="s">
+      <c r="A19" s="555"/>
+      <c r="B19" s="559"/>
+      <c r="C19" s="555"/>
+      <c r="D19" s="555" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="493" t="s">
+      <c r="E19" s="555" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="493" t="s">
+      <c r="F19" s="555" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="493" t="s">
+      <c r="G19" s="555" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="494" t="s">
+      <c r="H19" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="494" t="s">
+      <c r="I19" s="556" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="495" t="s">
+      <c r="J19" s="557" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="495"/>
-      <c r="L19" s="494" t="s">
+      <c r="K19" s="557"/>
+      <c r="L19" s="556" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="493"/>
-      <c r="B20" s="497"/>
-      <c r="C20" s="493"/>
-      <c r="D20" s="493"/>
-      <c r="E20" s="493"/>
-      <c r="F20" s="493"/>
-      <c r="G20" s="493"/>
-      <c r="H20" s="494"/>
-      <c r="I20" s="494"/>
+      <c r="A20" s="555"/>
+      <c r="B20" s="559"/>
+      <c r="C20" s="555"/>
+      <c r="D20" s="555"/>
+      <c r="E20" s="555"/>
+      <c r="F20" s="555"/>
+      <c r="G20" s="555"/>
+      <c r="H20" s="556"/>
+      <c r="I20" s="556"/>
       <c r="J20" s="233" t="s">
         <v>82</v>
       </c>
       <c r="K20" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="494"/>
+      <c r="L20" s="556"/>
     </row>
     <row r="21" spans="1:13" s="194" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="464"/>
-      <c r="B21" s="467"/>
-      <c r="C21" s="464"/>
-      <c r="D21" s="504"/>
-      <c r="E21" s="464"/>
+      <c r="A21" s="560"/>
+      <c r="B21" s="563"/>
+      <c r="C21" s="560"/>
+      <c r="D21" s="572"/>
+      <c r="E21" s="560"/>
       <c r="F21" s="227"/>
       <c r="G21" s="227"/>
       <c r="H21" s="206"/>
@@ -9992,11 +10032,11 @@
       <c r="M21" s="195"/>
     </row>
     <row r="22" spans="1:13" s="194" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="466"/>
-      <c r="B22" s="468"/>
-      <c r="C22" s="466"/>
-      <c r="D22" s="505"/>
-      <c r="E22" s="466"/>
+      <c r="A22" s="562"/>
+      <c r="B22" s="565"/>
+      <c r="C22" s="562"/>
+      <c r="D22" s="573"/>
+      <c r="E22" s="562"/>
       <c r="F22" s="229"/>
       <c r="G22" s="229"/>
       <c r="H22" s="210"/>
@@ -10015,19 +10055,19 @@
       <c r="F23" s="239"/>
       <c r="G23" s="239"/>
       <c r="H23" s="239"/>
-      <c r="I23" s="506"/>
-      <c r="J23" s="506"/>
-      <c r="K23" s="506"/>
-      <c r="L23" s="567"/>
+      <c r="I23" s="574"/>
+      <c r="J23" s="574"/>
+      <c r="K23" s="574"/>
+      <c r="L23" s="406"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="482" t="s">
+      <c r="A24" s="544" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="483"/>
-      <c r="C24" s="483"/>
-      <c r="D24" s="483"/>
-      <c r="E24" s="484"/>
+      <c r="B24" s="545"/>
+      <c r="C24" s="545"/>
+      <c r="D24" s="545"/>
+      <c r="E24" s="546"/>
       <c r="F24" s="242"/>
       <c r="G24" s="242">
         <f>SUM(G21:G23)</f>
@@ -10060,92 +10100,92 @@
       <c r="L25" s="258"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="492" t="s">
+      <c r="A26" s="554" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="492"/>
-      <c r="C26" s="492"/>
-      <c r="D26" s="492"/>
-      <c r="E26" s="492"/>
-      <c r="F26" s="492"/>
-      <c r="G26" s="492"/>
-      <c r="H26" s="492"/>
-      <c r="I26" s="492"/>
-      <c r="J26" s="492"/>
-      <c r="K26" s="492"/>
-      <c r="L26" s="492"/>
+      <c r="B26" s="554"/>
+      <c r="C26" s="554"/>
+      <c r="D26" s="554"/>
+      <c r="E26" s="554"/>
+      <c r="F26" s="554"/>
+      <c r="G26" s="554"/>
+      <c r="H26" s="554"/>
+      <c r="I26" s="554"/>
+      <c r="J26" s="554"/>
+      <c r="K26" s="554"/>
+      <c r="L26" s="554"/>
     </row>
     <row r="27" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="493" t="s">
+      <c r="A27" s="555" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="512" t="s">
+      <c r="B27" s="580" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="493" t="s">
+      <c r="C27" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="493" t="s">
+      <c r="D27" s="555" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="493"/>
-      <c r="F27" s="496" t="s">
+      <c r="E27" s="555"/>
+      <c r="F27" s="558" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="496"/>
-      <c r="H27" s="496"/>
-      <c r="I27" s="496"/>
-      <c r="J27" s="496"/>
-      <c r="K27" s="496"/>
-      <c r="L27" s="496"/>
+      <c r="G27" s="558"/>
+      <c r="H27" s="558"/>
+      <c r="I27" s="558"/>
+      <c r="J27" s="558"/>
+      <c r="K27" s="558"/>
+      <c r="L27" s="558"/>
     </row>
     <row r="28" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="493"/>
-      <c r="B28" s="512"/>
-      <c r="C28" s="493"/>
-      <c r="D28" s="493" t="s">
+      <c r="A28" s="555"/>
+      <c r="B28" s="580"/>
+      <c r="C28" s="555"/>
+      <c r="D28" s="555" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="493" t="s">
+      <c r="E28" s="555" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="493" t="s">
+      <c r="F28" s="555" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="493" t="s">
+      <c r="G28" s="555" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="494" t="s">
+      <c r="H28" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="494" t="s">
+      <c r="I28" s="556" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="495" t="s">
+      <c r="J28" s="557" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="495"/>
-      <c r="L28" s="494" t="s">
+      <c r="K28" s="557"/>
+      <c r="L28" s="556" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="493"/>
-      <c r="B29" s="512"/>
-      <c r="C29" s="493"/>
-      <c r="D29" s="493"/>
-      <c r="E29" s="493"/>
-      <c r="F29" s="493"/>
-      <c r="G29" s="493"/>
-      <c r="H29" s="494"/>
-      <c r="I29" s="494"/>
+      <c r="A29" s="555"/>
+      <c r="B29" s="580"/>
+      <c r="C29" s="555"/>
+      <c r="D29" s="555"/>
+      <c r="E29" s="555"/>
+      <c r="F29" s="555"/>
+      <c r="G29" s="555"/>
+      <c r="H29" s="556"/>
+      <c r="I29" s="556"/>
       <c r="J29" s="267" t="s">
         <v>82</v>
       </c>
       <c r="K29" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="494"/>
+      <c r="L29" s="556"/>
     </row>
     <row r="30" spans="1:13" s="194" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="136"/>
@@ -10179,11 +10219,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="245" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="492" t="s">
+      <c r="A32" s="554" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="492"/>
-      <c r="C32" s="492"/>
+      <c r="B32" s="554"/>
+      <c r="C32" s="554"/>
       <c r="D32" s="255"/>
       <c r="E32" s="255"/>
       <c r="F32" s="255"/>
@@ -10196,225 +10236,225 @@
       <c r="A33" s="232"/>
       <c r="B33" s="232"/>
       <c r="C33" s="232"/>
-      <c r="D33" s="509" t="s">
+      <c r="D33" s="577" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="510"/>
-      <c r="F33" s="510"/>
-      <c r="G33" s="510"/>
-      <c r="H33" s="510"/>
-      <c r="I33" s="511"/>
-      <c r="J33" s="507" t="s">
+      <c r="E33" s="578"/>
+      <c r="F33" s="578"/>
+      <c r="G33" s="578"/>
+      <c r="H33" s="578"/>
+      <c r="I33" s="579"/>
+      <c r="J33" s="575" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="508"/>
+      <c r="K33" s="576"/>
       <c r="L33" s="244"/>
     </row>
     <row r="34" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="232"/>
       <c r="B34" s="232"/>
       <c r="C34" s="232"/>
-      <c r="D34" s="479" t="s">
+      <c r="D34" s="541" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="480"/>
-      <c r="F34" s="480"/>
-      <c r="G34" s="480"/>
-      <c r="H34" s="480"/>
-      <c r="I34" s="481"/>
-      <c r="J34" s="487">
+      <c r="E34" s="542"/>
+      <c r="F34" s="542"/>
+      <c r="G34" s="542"/>
+      <c r="H34" s="542"/>
+      <c r="I34" s="543"/>
+      <c r="J34" s="549">
         <v>550415</v>
       </c>
-      <c r="K34" s="488"/>
+      <c r="K34" s="550"/>
       <c r="L34" s="244"/>
     </row>
     <row r="35" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="232"/>
       <c r="B35" s="232"/>
       <c r="C35" s="232"/>
-      <c r="D35" s="479" t="s">
+      <c r="D35" s="541" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="480"/>
-      <c r="F35" s="480"/>
-      <c r="G35" s="480"/>
-      <c r="H35" s="480"/>
-      <c r="I35" s="481"/>
-      <c r="J35" s="487">
+      <c r="E35" s="542"/>
+      <c r="F35" s="542"/>
+      <c r="G35" s="542"/>
+      <c r="H35" s="542"/>
+      <c r="I35" s="543"/>
+      <c r="J35" s="549">
         <f>L14</f>
         <v>0</v>
       </c>
-      <c r="K35" s="488"/>
+      <c r="K35" s="550"/>
       <c r="L35" s="244"/>
     </row>
     <row r="36" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="232"/>
       <c r="B36" s="232"/>
       <c r="C36" s="232"/>
-      <c r="D36" s="479" t="s">
+      <c r="D36" s="541" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="480"/>
-      <c r="F36" s="480"/>
-      <c r="G36" s="480"/>
-      <c r="H36" s="480"/>
-      <c r="I36" s="481"/>
-      <c r="J36" s="487">
+      <c r="E36" s="542"/>
+      <c r="F36" s="542"/>
+      <c r="G36" s="542"/>
+      <c r="H36" s="542"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="549">
         <f>L24</f>
         <v>0</v>
       </c>
-      <c r="K36" s="488"/>
+      <c r="K36" s="550"/>
       <c r="N36" s="246"/>
     </row>
     <row r="37" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="266"/>
       <c r="B37" s="266"/>
       <c r="C37" s="266"/>
-      <c r="D37" s="479" t="s">
+      <c r="D37" s="541" t="s">
         <v>189</v>
       </c>
-      <c r="E37" s="480"/>
-      <c r="F37" s="480"/>
-      <c r="G37" s="480"/>
-      <c r="H37" s="480"/>
-      <c r="I37" s="481"/>
-      <c r="J37" s="487">
+      <c r="E37" s="542"/>
+      <c r="F37" s="542"/>
+      <c r="G37" s="542"/>
+      <c r="H37" s="542"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="549">
         <f>L31</f>
         <v>0</v>
       </c>
-      <c r="K37" s="488"/>
+      <c r="K37" s="550"/>
       <c r="N37" s="246"/>
     </row>
     <row r="38" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="265"/>
       <c r="B38" s="265"/>
       <c r="C38" s="265"/>
-      <c r="D38" s="479" t="s">
+      <c r="D38" s="541" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="480"/>
-      <c r="F38" s="480"/>
-      <c r="G38" s="480"/>
-      <c r="H38" s="480"/>
-      <c r="I38" s="481"/>
-      <c r="J38" s="487">
+      <c r="E38" s="542"/>
+      <c r="F38" s="542"/>
+      <c r="G38" s="542"/>
+      <c r="H38" s="542"/>
+      <c r="I38" s="543"/>
+      <c r="J38" s="549">
         <v>5000000</v>
       </c>
-      <c r="K38" s="488"/>
+      <c r="K38" s="550"/>
       <c r="N38" s="246"/>
     </row>
     <row r="39" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="265"/>
       <c r="B39" s="265"/>
       <c r="C39" s="265"/>
-      <c r="D39" s="482" t="s">
+      <c r="D39" s="544" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="483"/>
-      <c r="F39" s="483"/>
-      <c r="G39" s="483"/>
-      <c r="H39" s="483"/>
-      <c r="I39" s="484"/>
-      <c r="J39" s="489">
+      <c r="E39" s="545"/>
+      <c r="F39" s="545"/>
+      <c r="G39" s="545"/>
+      <c r="H39" s="545"/>
+      <c r="I39" s="546"/>
+      <c r="J39" s="551">
         <f>SUM(J34:K38)</f>
         <v>5550415</v>
       </c>
-      <c r="K39" s="490"/>
+      <c r="K39" s="552"/>
       <c r="N39" s="246"/>
     </row>
     <row r="40" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="232"/>
       <c r="B40" s="232"/>
       <c r="C40" s="232"/>
-      <c r="D40" s="479" t="s">
+      <c r="D40" s="541" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="480"/>
-      <c r="F40" s="480"/>
-      <c r="G40" s="480"/>
-      <c r="H40" s="480"/>
-      <c r="I40" s="481"/>
-      <c r="J40" s="487" t="e">
+      <c r="E40" s="542"/>
+      <c r="F40" s="542"/>
+      <c r="G40" s="542"/>
+      <c r="H40" s="542"/>
+      <c r="I40" s="543"/>
+      <c r="J40" s="549" t="e">
         <f>'Bảng lương'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="488"/>
+      <c r="K40" s="550"/>
       <c r="L40" s="244"/>
     </row>
     <row r="41" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="265"/>
       <c r="B41" s="265"/>
       <c r="C41" s="265"/>
-      <c r="D41" s="479" t="s">
+      <c r="D41" s="541" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="480"/>
-      <c r="F41" s="480"/>
-      <c r="G41" s="480"/>
-      <c r="H41" s="480"/>
-      <c r="I41" s="481"/>
-      <c r="J41" s="487">
+      <c r="E41" s="542"/>
+      <c r="F41" s="542"/>
+      <c r="G41" s="542"/>
+      <c r="H41" s="542"/>
+      <c r="I41" s="543"/>
+      <c r="J41" s="549">
         <f>'Chi phí văn phòng'!D9</f>
         <v>0</v>
       </c>
-      <c r="K41" s="488"/>
+      <c r="K41" s="550"/>
       <c r="L41" s="244"/>
     </row>
     <row r="42" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="265"/>
       <c r="B42" s="265"/>
       <c r="C42" s="265"/>
-      <c r="D42" s="479" t="s">
+      <c r="D42" s="541" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="480"/>
-      <c r="F42" s="480"/>
-      <c r="G42" s="480"/>
-      <c r="H42" s="480"/>
-      <c r="I42" s="481"/>
-      <c r="J42" s="487">
+      <c r="E42" s="542"/>
+      <c r="F42" s="542"/>
+      <c r="G42" s="542"/>
+      <c r="H42" s="542"/>
+      <c r="I42" s="543"/>
+      <c r="J42" s="549">
         <f>'Chi phí văn phòng'!D21</f>
         <v>0</v>
       </c>
-      <c r="K42" s="488"/>
+      <c r="K42" s="550"/>
       <c r="L42" s="244"/>
     </row>
     <row r="43" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="265"/>
       <c r="B43" s="265"/>
       <c r="C43" s="265"/>
-      <c r="D43" s="482" t="s">
+      <c r="D43" s="544" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="483"/>
-      <c r="F43" s="483"/>
-      <c r="G43" s="483"/>
-      <c r="H43" s="483"/>
-      <c r="I43" s="484"/>
-      <c r="J43" s="489" t="e">
+      <c r="E43" s="545"/>
+      <c r="F43" s="545"/>
+      <c r="G43" s="545"/>
+      <c r="H43" s="545"/>
+      <c r="I43" s="546"/>
+      <c r="J43" s="551" t="e">
         <f>SUM(J40:K42)</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="490"/>
+      <c r="K43" s="552"/>
       <c r="L43" s="244"/>
     </row>
     <row r="44" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="232"/>
       <c r="B44" s="232"/>
       <c r="C44" s="232"/>
-      <c r="D44" s="485" t="s">
+      <c r="D44" s="547" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="485"/>
-      <c r="F44" s="485"/>
-      <c r="G44" s="485"/>
-      <c r="H44" s="485"/>
-      <c r="I44" s="485"/>
-      <c r="J44" s="486" t="e">
+      <c r="E44" s="547"/>
+      <c r="F44" s="547"/>
+      <c r="G44" s="547"/>
+      <c r="H44" s="547"/>
+      <c r="I44" s="547"/>
+      <c r="J44" s="548" t="e">
         <f>J39-J43</f>
         <v>#REF!</v>
       </c>
-      <c r="K44" s="486"/>
+      <c r="K44" s="548"/>
     </row>
     <row r="45" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="265"/>
@@ -10424,14 +10464,14 @@
       <c r="E45" s="247"/>
       <c r="F45" s="247"/>
       <c r="G45" s="247"/>
-      <c r="H45" s="475" t="s">
+      <c r="H45" s="537" t="s">
         <v>178</v>
       </c>
-      <c r="I45" s="475"/>
-      <c r="J45" s="476">
+      <c r="I45" s="537"/>
+      <c r="J45" s="538">
         <v>2500000</v>
       </c>
-      <c r="K45" s="476"/>
+      <c r="K45" s="538"/>
     </row>
     <row r="46" spans="1:14" s="245" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="261"/>
@@ -10441,31 +10481,31 @@
       <c r="E46" s="247"/>
       <c r="F46" s="247"/>
       <c r="G46" s="247"/>
-      <c r="H46" s="478" t="s">
+      <c r="H46" s="540" t="s">
         <v>179</v>
       </c>
-      <c r="I46" s="478"/>
-      <c r="J46" s="477" t="e">
+      <c r="I46" s="540"/>
+      <c r="J46" s="539" t="e">
         <f>J44+J45</f>
         <v>#REF!</v>
       </c>
-      <c r="K46" s="477"/>
+      <c r="K46" s="539"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="492" t="s">
+      <c r="B47" s="554" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="492"/>
-      <c r="D47" s="492"/>
+      <c r="C47" s="554"/>
+      <c r="D47" s="554"/>
       <c r="E47" s="82"/>
       <c r="F47" s="82"/>
       <c r="G47" s="82"/>
       <c r="H47" s="82"/>
-      <c r="I47" s="492" t="s">
+      <c r="I47" s="554" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="492"/>
+      <c r="J47" s="554"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -10584,13 +10624,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="491" t="s">
+      <c r="B1" s="553" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
@@ -10610,11 +10650,11 @@
       <c r="J2" s="63"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="471" t="s">
+      <c r="B4" s="586" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="471"/>
-      <c r="D4" s="471"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="149"/>
       <c r="F4" s="149"/>
     </row>
@@ -10628,11 +10668,11 @@
       <c r="F5" s="248"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="515" t="s">
+      <c r="B6" s="583" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="516"/>
-      <c r="D6" s="517"/>
+      <c r="C6" s="584"/>
+      <c r="D6" s="585"/>
       <c r="E6" s="248"/>
       <c r="F6" s="248"/>
     </row>
@@ -10640,8 +10680,8 @@
       <c r="B7" s="252" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="518"/>
-      <c r="D7" s="519"/>
+      <c r="C7" s="587"/>
+      <c r="D7" s="588"/>
       <c r="E7" s="248"/>
       <c r="F7" s="248"/>
     </row>
@@ -10732,11 +10772,11 @@
       <c r="F17" s="248"/>
     </row>
     <row r="18" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="515" t="s">
+      <c r="B18" s="583" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="516"/>
-      <c r="D18" s="517"/>
+      <c r="C18" s="584"/>
+      <c r="D18" s="585"/>
       <c r="E18" s="248"/>
       <c r="F18" s="248"/>
     </row>
@@ -10744,11 +10784,11 @@
       <c r="B19" s="252" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="518">
+      <c r="C19" s="587">
         <f>D23+D24+D25+D26+D27+D28</f>
         <v>0</v>
       </c>
-      <c r="D19" s="519"/>
+      <c r="D19" s="588"/>
       <c r="E19" s="248"/>
       <c r="F19" s="248"/>
     </row>
@@ -10843,10 +10883,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="262"/>
-      <c r="B32" s="514" t="s">
+      <c r="B32" s="582" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="514"/>
+      <c r="C32" s="582"/>
       <c r="D32" s="263">
         <f>C7+C19</f>
         <v>0</v>
@@ -10854,7 +10894,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="262"/>
-      <c r="B33" s="513" t="s">
+      <c r="B33" s="581" t="s">
         <v>173</v>
       </c>
       <c r="C33" s="264" t="s">
@@ -10867,7 +10907,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="262"/>
-      <c r="B34" s="513"/>
+      <c r="B34" s="581"/>
       <c r="C34" s="264" t="s">
         <v>135</v>
       </c>
@@ -10903,13 +10943,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="553" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="553"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -10929,81 +10969,81 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="522" t="s">
+      <c r="A4" s="591" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="522"/>
-      <c r="C4" s="522"/>
-      <c r="D4" s="522"/>
-      <c r="E4" s="522"/>
-      <c r="F4" s="522"/>
-      <c r="G4" s="522"/>
-      <c r="H4" s="522"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="591"/>
+      <c r="E4" s="591"/>
+      <c r="F4" s="591"/>
+      <c r="G4" s="591"/>
+      <c r="H4" s="591"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="523" t="s">
+      <c r="A6" s="592" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="523"/>
-      <c r="C6" s="523"/>
-      <c r="D6" s="523"/>
-      <c r="E6" s="523"/>
-      <c r="F6" s="523"/>
-      <c r="G6" s="524" t="s">
+      <c r="B6" s="592"/>
+      <c r="C6" s="592"/>
+      <c r="D6" s="592"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="593" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="524"/>
+      <c r="H6" s="593"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="520" t="s">
+      <c r="A7" s="589" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="520"/>
-      <c r="C7" s="520"/>
-      <c r="D7" s="520"/>
-      <c r="E7" s="520"/>
-      <c r="F7" s="520"/>
-      <c r="G7" s="521"/>
-      <c r="H7" s="521"/>
+      <c r="B7" s="589"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="589"/>
+      <c r="E7" s="589"/>
+      <c r="F7" s="589"/>
+      <c r="G7" s="590"/>
+      <c r="H7" s="590"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="520" t="s">
+      <c r="A8" s="589" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="520"/>
-      <c r="C8" s="520"/>
-      <c r="D8" s="520"/>
-      <c r="E8" s="520"/>
-      <c r="F8" s="520"/>
-      <c r="G8" s="521"/>
-      <c r="H8" s="521"/>
+      <c r="B8" s="589"/>
+      <c r="C8" s="589"/>
+      <c r="D8" s="589"/>
+      <c r="E8" s="589"/>
+      <c r="F8" s="589"/>
+      <c r="G8" s="590"/>
+      <c r="H8" s="590"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="479" t="s">
+      <c r="A9" s="541" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="480"/>
-      <c r="C9" s="480"/>
-      <c r="D9" s="480"/>
-      <c r="E9" s="480"/>
-      <c r="F9" s="481"/>
-      <c r="G9" s="487"/>
-      <c r="H9" s="488"/>
+      <c r="B9" s="542"/>
+      <c r="C9" s="542"/>
+      <c r="D9" s="542"/>
+      <c r="E9" s="542"/>
+      <c r="F9" s="543"/>
+      <c r="G9" s="549"/>
+      <c r="H9" s="550"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="485" t="s">
+      <c r="A10" s="547" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="485"/>
-      <c r="C10" s="485"/>
-      <c r="D10" s="485"/>
-      <c r="E10" s="485"/>
-      <c r="F10" s="485"/>
-      <c r="G10" s="486">
+      <c r="B10" s="547"/>
+      <c r="C10" s="547"/>
+      <c r="D10" s="547"/>
+      <c r="E10" s="547"/>
+      <c r="F10" s="547"/>
+      <c r="G10" s="548">
         <f>SUM(G7:H9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="486"/>
+      <c r="H10" s="548"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11559,16 +11599,16 @@
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
-      <c r="Z1" s="543" t="s">
+      <c r="Z1" s="612" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="544"/>
-      <c r="AB1" s="544"/>
-      <c r="AC1" s="544"/>
-      <c r="AD1" s="544"/>
-      <c r="AE1" s="544"/>
-      <c r="AF1" s="544"/>
-      <c r="AG1" s="545"/>
+      <c r="AA1" s="613"/>
+      <c r="AB1" s="613"/>
+      <c r="AC1" s="613"/>
+      <c r="AD1" s="613"/>
+      <c r="AE1" s="613"/>
+      <c r="AF1" s="613"/>
+      <c r="AG1" s="614"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
@@ -11578,18 +11618,18 @@
       <c r="C2" s="99"/>
       <c r="D2" s="99"/>
       <c r="E2" s="99"/>
-      <c r="Z2" s="526" t="s">
+      <c r="Z2" s="595" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="527"/>
-      <c r="AB2" s="527"/>
-      <c r="AC2" s="527"/>
-      <c r="AD2" s="527"/>
-      <c r="AE2" s="528"/>
-      <c r="AF2" s="529" t="s">
+      <c r="AA2" s="596"/>
+      <c r="AB2" s="596"/>
+      <c r="AC2" s="596"/>
+      <c r="AD2" s="596"/>
+      <c r="AE2" s="597"/>
+      <c r="AF2" s="598" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="530"/>
+      <c r="AG2" s="599"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
@@ -11599,18 +11639,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="526" t="s">
+      <c r="Z3" s="595" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="527"/>
-      <c r="AB3" s="527"/>
-      <c r="AC3" s="527"/>
-      <c r="AD3" s="527"/>
-      <c r="AE3" s="528"/>
-      <c r="AF3" s="529" t="s">
+      <c r="AA3" s="596"/>
+      <c r="AB3" s="596"/>
+      <c r="AC3" s="596"/>
+      <c r="AD3" s="596"/>
+      <c r="AE3" s="597"/>
+      <c r="AF3" s="598" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="530"/>
+      <c r="AG3" s="599"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
@@ -11623,18 +11663,18 @@
       <c r="T4" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="526" t="s">
+      <c r="Z4" s="595" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="527"/>
-      <c r="AB4" s="527"/>
-      <c r="AC4" s="527"/>
-      <c r="AD4" s="527"/>
-      <c r="AE4" s="528"/>
-      <c r="AF4" s="529" t="s">
+      <c r="AA4" s="596"/>
+      <c r="AB4" s="596"/>
+      <c r="AC4" s="596"/>
+      <c r="AD4" s="596"/>
+      <c r="AE4" s="597"/>
+      <c r="AF4" s="598" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="530"/>
+      <c r="AG4" s="599"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
@@ -11644,18 +11684,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="526" t="s">
+      <c r="Z5" s="595" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="527"/>
-      <c r="AB5" s="527"/>
-      <c r="AC5" s="527"/>
-      <c r="AD5" s="527"/>
-      <c r="AE5" s="528"/>
-      <c r="AF5" s="529" t="s">
+      <c r="AA5" s="596"/>
+      <c r="AB5" s="596"/>
+      <c r="AC5" s="596"/>
+      <c r="AD5" s="596"/>
+      <c r="AE5" s="597"/>
+      <c r="AF5" s="598" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="530"/>
+      <c r="AG5" s="599"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
@@ -11665,93 +11705,93 @@
       <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:40" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="531" t="s">
+      <c r="A7" s="600" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="531"/>
-      <c r="C7" s="531"/>
-      <c r="D7" s="531"/>
-      <c r="E7" s="531"/>
-      <c r="F7" s="531"/>
-      <c r="G7" s="531"/>
-      <c r="H7" s="531"/>
-      <c r="I7" s="531"/>
-      <c r="J7" s="531"/>
-      <c r="K7" s="531"/>
-      <c r="L7" s="531"/>
-      <c r="M7" s="531"/>
-      <c r="N7" s="531"/>
-      <c r="O7" s="531"/>
-      <c r="P7" s="531"/>
-      <c r="Q7" s="531"/>
-      <c r="R7" s="531"/>
-      <c r="S7" s="531"/>
-      <c r="T7" s="531"/>
-      <c r="U7" s="531"/>
-      <c r="V7" s="531"/>
-      <c r="W7" s="531"/>
-      <c r="X7" s="531"/>
-      <c r="Y7" s="531"/>
-      <c r="Z7" s="531"/>
-      <c r="AA7" s="531"/>
-      <c r="AB7" s="531"/>
-      <c r="AC7" s="531"/>
-      <c r="AD7" s="531"/>
-      <c r="AE7" s="531"/>
-      <c r="AF7" s="531"/>
-      <c r="AG7" s="531"/>
-      <c r="AH7" s="531"/>
-      <c r="AI7" s="531"/>
-      <c r="AJ7" s="531"/>
-      <c r="AK7" s="531"/>
-      <c r="AL7" s="531"/>
-      <c r="AM7" s="531"/>
+      <c r="B7" s="600"/>
+      <c r="C7" s="600"/>
+      <c r="D7" s="600"/>
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="600"/>
+      <c r="J7" s="600"/>
+      <c r="K7" s="600"/>
+      <c r="L7" s="600"/>
+      <c r="M7" s="600"/>
+      <c r="N7" s="600"/>
+      <c r="O7" s="600"/>
+      <c r="P7" s="600"/>
+      <c r="Q7" s="600"/>
+      <c r="R7" s="600"/>
+      <c r="S7" s="600"/>
+      <c r="T7" s="600"/>
+      <c r="U7" s="600"/>
+      <c r="V7" s="600"/>
+      <c r="W7" s="600"/>
+      <c r="X7" s="600"/>
+      <c r="Y7" s="600"/>
+      <c r="Z7" s="600"/>
+      <c r="AA7" s="600"/>
+      <c r="AB7" s="600"/>
+      <c r="AC7" s="600"/>
+      <c r="AD7" s="600"/>
+      <c r="AE7" s="600"/>
+      <c r="AF7" s="600"/>
+      <c r="AG7" s="600"/>
+      <c r="AH7" s="600"/>
+      <c r="AI7" s="600"/>
+      <c r="AJ7" s="600"/>
+      <c r="AK7" s="600"/>
+      <c r="AL7" s="600"/>
+      <c r="AM7" s="600"/>
       <c r="AN7" s="102"/>
     </row>
     <row r="9" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="532" t="s">
+      <c r="A9" s="601" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="532" t="s">
+      <c r="B9" s="601" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="532" t="s">
+      <c r="C9" s="601" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="535" t="s">
+      <c r="D9" s="604" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="536"/>
-      <c r="F9" s="536"/>
-      <c r="G9" s="536"/>
-      <c r="H9" s="536"/>
-      <c r="I9" s="536"/>
-      <c r="J9" s="536"/>
-      <c r="K9" s="536"/>
-      <c r="L9" s="536"/>
-      <c r="M9" s="536"/>
-      <c r="N9" s="536"/>
-      <c r="O9" s="536"/>
-      <c r="P9" s="536"/>
-      <c r="Q9" s="536"/>
-      <c r="R9" s="536"/>
-      <c r="S9" s="536"/>
-      <c r="T9" s="536"/>
-      <c r="U9" s="536"/>
-      <c r="V9" s="536"/>
-      <c r="W9" s="536"/>
-      <c r="X9" s="536"/>
-      <c r="Y9" s="536"/>
-      <c r="Z9" s="536"/>
-      <c r="AA9" s="536"/>
-      <c r="AB9" s="536"/>
-      <c r="AC9" s="536"/>
-      <c r="AD9" s="536"/>
-      <c r="AE9" s="536"/>
-      <c r="AF9" s="536"/>
-      <c r="AG9" s="536"/>
-      <c r="AH9" s="537"/>
-      <c r="AI9" s="538" t="s">
+      <c r="E9" s="605"/>
+      <c r="F9" s="605"/>
+      <c r="G9" s="605"/>
+      <c r="H9" s="605"/>
+      <c r="I9" s="605"/>
+      <c r="J9" s="605"/>
+      <c r="K9" s="605"/>
+      <c r="L9" s="605"/>
+      <c r="M9" s="605"/>
+      <c r="N9" s="605"/>
+      <c r="O9" s="605"/>
+      <c r="P9" s="605"/>
+      <c r="Q9" s="605"/>
+      <c r="R9" s="605"/>
+      <c r="S9" s="605"/>
+      <c r="T9" s="605"/>
+      <c r="U9" s="605"/>
+      <c r="V9" s="605"/>
+      <c r="W9" s="605"/>
+      <c r="X9" s="605"/>
+      <c r="Y9" s="605"/>
+      <c r="Z9" s="605"/>
+      <c r="AA9" s="605"/>
+      <c r="AB9" s="605"/>
+      <c r="AC9" s="605"/>
+      <c r="AD9" s="605"/>
+      <c r="AE9" s="605"/>
+      <c r="AF9" s="605"/>
+      <c r="AG9" s="605"/>
+      <c r="AH9" s="606"/>
+      <c r="AI9" s="607" t="s">
         <v>99</v>
       </c>
       <c r="AJ9" s="104"/>
@@ -11761,9 +11801,9 @@
       <c r="AN9" s="107"/>
     </row>
     <row r="10" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="533"/>
-      <c r="B10" s="533"/>
-      <c r="C10" s="533"/>
+      <c r="A10" s="602"/>
+      <c r="B10" s="602"/>
+      <c r="C10" s="602"/>
       <c r="D10" s="109">
         <v>1</v>
       </c>
@@ -11857,7 +11897,7 @@
       <c r="AH10" s="109">
         <v>31</v>
       </c>
-      <c r="AI10" s="538"/>
+      <c r="AI10" s="607"/>
       <c r="AJ10" s="110"/>
       <c r="AK10" s="106"/>
       <c r="AL10" s="106"/>
@@ -11865,9 +11905,9 @@
       <c r="AN10" s="107"/>
     </row>
     <row r="11" spans="1:40" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="534"/>
-      <c r="B11" s="534"/>
-      <c r="C11" s="534"/>
+      <c r="A11" s="603"/>
+      <c r="B11" s="603"/>
+      <c r="C11" s="603"/>
       <c r="D11" s="109" t="s">
         <v>100</v>
       </c>
@@ -11961,7 +12001,7 @@
       <c r="AH11" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="AI11" s="538"/>
+      <c r="AI11" s="607"/>
       <c r="AJ11" s="114"/>
       <c r="AN11" s="116"/>
     </row>
@@ -12266,10 +12306,10 @@
       <c r="AN14" s="116"/>
     </row>
     <row r="15" spans="1:40" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="539" t="s">
+      <c r="A15" s="608" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="540"/>
+      <c r="B15" s="609"/>
       <c r="C15" s="118"/>
       <c r="D15" s="118"/>
       <c r="E15" s="119"/>
@@ -12312,49 +12352,49 @@
       <c r="AN15" s="116"/>
     </row>
     <row r="17" spans="1:40" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="541" t="s">
+      <c r="A17" s="610" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="541"/>
-      <c r="C17" s="541"/>
-      <c r="D17" s="541"/>
-      <c r="E17" s="541"/>
-      <c r="F17" s="541"/>
-      <c r="G17" s="541"/>
+      <c r="B17" s="610"/>
+      <c r="C17" s="610"/>
+      <c r="D17" s="610"/>
+      <c r="E17" s="610"/>
+      <c r="F17" s="610"/>
+      <c r="G17" s="610"/>
       <c r="H17" s="123"/>
-      <c r="I17" s="542"/>
-      <c r="J17" s="542"/>
-      <c r="K17" s="542"/>
-      <c r="L17" s="542"/>
-      <c r="M17" s="542"/>
+      <c r="I17" s="611"/>
+      <c r="J17" s="611"/>
+      <c r="K17" s="611"/>
+      <c r="L17" s="611"/>
+      <c r="M17" s="611"/>
       <c r="N17" s="124"/>
-      <c r="O17" s="542" t="s">
+      <c r="O17" s="611" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="542"/>
-      <c r="Q17" s="542"/>
-      <c r="R17" s="542"/>
-      <c r="S17" s="542"/>
-      <c r="T17" s="542"/>
-      <c r="U17" s="542"/>
-      <c r="V17" s="542"/>
-      <c r="W17" s="542"/>
-      <c r="X17" s="542"/>
-      <c r="Y17" s="542"/>
+      <c r="P17" s="611"/>
+      <c r="Q17" s="611"/>
+      <c r="R17" s="611"/>
+      <c r="S17" s="611"/>
+      <c r="T17" s="611"/>
+      <c r="U17" s="611"/>
+      <c r="V17" s="611"/>
+      <c r="W17" s="611"/>
+      <c r="X17" s="611"/>
+      <c r="Y17" s="611"/>
       <c r="Z17" s="125"/>
       <c r="AA17" s="125"/>
       <c r="AB17" s="126"/>
-      <c r="AC17" s="542"/>
-      <c r="AD17" s="542"/>
-      <c r="AE17" s="542"/>
-      <c r="AF17" s="542"/>
-      <c r="AG17" s="542"/>
-      <c r="AH17" s="542"/>
-      <c r="AI17" s="542"/>
-      <c r="AJ17" s="542"/>
-      <c r="AK17" s="542"/>
-      <c r="AL17" s="542"/>
-      <c r="AM17" s="542"/>
+      <c r="AC17" s="611"/>
+      <c r="AD17" s="611"/>
+      <c r="AE17" s="611"/>
+      <c r="AF17" s="611"/>
+      <c r="AG17" s="611"/>
+      <c r="AH17" s="611"/>
+      <c r="AI17" s="611"/>
+      <c r="AJ17" s="611"/>
+      <c r="AK17" s="611"/>
+      <c r="AL17" s="611"/>
+      <c r="AM17" s="611"/>
       <c r="AN17" s="127"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12388,131 +12428,131 @@
       <c r="AN32" s="132"/>
     </row>
     <row r="33" spans="3:40" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="525"/>
-      <c r="H33" s="525"/>
-      <c r="I33" s="525"/>
-      <c r="J33" s="525"/>
-      <c r="K33" s="525"/>
-      <c r="L33" s="525"/>
-      <c r="M33" s="525"/>
-      <c r="N33" s="525"/>
-      <c r="O33" s="525"/>
-      <c r="P33" s="525"/>
-      <c r="Q33" s="525"/>
-      <c r="R33" s="525"/>
-      <c r="S33" s="525"/>
-      <c r="T33" s="525"/>
-      <c r="U33" s="525"/>
-      <c r="V33" s="525"/>
-      <c r="W33" s="525"/>
-      <c r="X33" s="525"/>
+      <c r="G33" s="594"/>
+      <c r="H33" s="594"/>
+      <c r="I33" s="594"/>
+      <c r="J33" s="594"/>
+      <c r="K33" s="594"/>
+      <c r="L33" s="594"/>
+      <c r="M33" s="594"/>
+      <c r="N33" s="594"/>
+      <c r="O33" s="594"/>
+      <c r="P33" s="594"/>
+      <c r="Q33" s="594"/>
+      <c r="R33" s="594"/>
+      <c r="S33" s="594"/>
+      <c r="T33" s="594"/>
+      <c r="U33" s="594"/>
+      <c r="V33" s="594"/>
+      <c r="W33" s="594"/>
+      <c r="X33" s="594"/>
       <c r="AN33" s="132"/>
     </row>
     <row r="34" spans="3:40" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="525"/>
-      <c r="H34" s="525"/>
-      <c r="I34" s="525"/>
-      <c r="J34" s="525"/>
-      <c r="K34" s="525"/>
-      <c r="L34" s="525"/>
-      <c r="M34" s="525"/>
-      <c r="N34" s="525"/>
-      <c r="O34" s="525"/>
-      <c r="P34" s="525"/>
-      <c r="Q34" s="525"/>
-      <c r="R34" s="525"/>
-      <c r="S34" s="525"/>
-      <c r="T34" s="525"/>
-      <c r="U34" s="525"/>
-      <c r="V34" s="525"/>
-      <c r="W34" s="525"/>
-      <c r="X34" s="525"/>
+      <c r="G34" s="594"/>
+      <c r="H34" s="594"/>
+      <c r="I34" s="594"/>
+      <c r="J34" s="594"/>
+      <c r="K34" s="594"/>
+      <c r="L34" s="594"/>
+      <c r="M34" s="594"/>
+      <c r="N34" s="594"/>
+      <c r="O34" s="594"/>
+      <c r="P34" s="594"/>
+      <c r="Q34" s="594"/>
+      <c r="R34" s="594"/>
+      <c r="S34" s="594"/>
+      <c r="T34" s="594"/>
+      <c r="U34" s="594"/>
+      <c r="V34" s="594"/>
+      <c r="W34" s="594"/>
+      <c r="X34" s="594"/>
       <c r="AN34" s="132"/>
     </row>
     <row r="35" spans="3:40" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="525"/>
-      <c r="H35" s="525"/>
-      <c r="I35" s="525"/>
-      <c r="J35" s="525"/>
-      <c r="K35" s="525"/>
-      <c r="L35" s="525"/>
-      <c r="M35" s="525"/>
-      <c r="N35" s="525"/>
-      <c r="O35" s="525"/>
-      <c r="P35" s="525"/>
-      <c r="Q35" s="525"/>
-      <c r="R35" s="525"/>
-      <c r="S35" s="525"/>
-      <c r="T35" s="525"/>
-      <c r="U35" s="525"/>
-      <c r="V35" s="525"/>
-      <c r="W35" s="525"/>
-      <c r="X35" s="525"/>
+      <c r="G35" s="594"/>
+      <c r="H35" s="594"/>
+      <c r="I35" s="594"/>
+      <c r="J35" s="594"/>
+      <c r="K35" s="594"/>
+      <c r="L35" s="594"/>
+      <c r="M35" s="594"/>
+      <c r="N35" s="594"/>
+      <c r="O35" s="594"/>
+      <c r="P35" s="594"/>
+      <c r="Q35" s="594"/>
+      <c r="R35" s="594"/>
+      <c r="S35" s="594"/>
+      <c r="T35" s="594"/>
+      <c r="U35" s="594"/>
+      <c r="V35" s="594"/>
+      <c r="W35" s="594"/>
+      <c r="X35" s="594"/>
       <c r="AN35" s="132"/>
     </row>
     <row r="36" spans="3:40" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="525"/>
-      <c r="H36" s="525"/>
-      <c r="I36" s="525"/>
-      <c r="J36" s="525"/>
-      <c r="K36" s="525"/>
-      <c r="L36" s="525"/>
-      <c r="M36" s="525"/>
-      <c r="N36" s="525"/>
-      <c r="O36" s="525"/>
-      <c r="P36" s="525"/>
-      <c r="Q36" s="525"/>
-      <c r="R36" s="525"/>
-      <c r="S36" s="525"/>
-      <c r="T36" s="525"/>
-      <c r="U36" s="525"/>
-      <c r="V36" s="525"/>
-      <c r="W36" s="525"/>
-      <c r="X36" s="525"/>
+      <c r="G36" s="594"/>
+      <c r="H36" s="594"/>
+      <c r="I36" s="594"/>
+      <c r="J36" s="594"/>
+      <c r="K36" s="594"/>
+      <c r="L36" s="594"/>
+      <c r="M36" s="594"/>
+      <c r="N36" s="594"/>
+      <c r="O36" s="594"/>
+      <c r="P36" s="594"/>
+      <c r="Q36" s="594"/>
+      <c r="R36" s="594"/>
+      <c r="S36" s="594"/>
+      <c r="T36" s="594"/>
+      <c r="U36" s="594"/>
+      <c r="V36" s="594"/>
+      <c r="W36" s="594"/>
+      <c r="X36" s="594"/>
       <c r="AN36" s="132"/>
     </row>
     <row r="37" spans="3:40" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="525"/>
-      <c r="H37" s="525"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="525"/>
-      <c r="K37" s="525"/>
-      <c r="L37" s="525"/>
-      <c r="M37" s="525"/>
-      <c r="N37" s="525"/>
-      <c r="O37" s="525"/>
-      <c r="P37" s="525"/>
-      <c r="Q37" s="525"/>
-      <c r="R37" s="525"/>
-      <c r="S37" s="525"/>
-      <c r="T37" s="525"/>
-      <c r="U37" s="525"/>
-      <c r="V37" s="525"/>
-      <c r="W37" s="525"/>
-      <c r="X37" s="525"/>
+      <c r="G37" s="594"/>
+      <c r="H37" s="594"/>
+      <c r="I37" s="594"/>
+      <c r="J37" s="594"/>
+      <c r="K37" s="594"/>
+      <c r="L37" s="594"/>
+      <c r="M37" s="594"/>
+      <c r="N37" s="594"/>
+      <c r="O37" s="594"/>
+      <c r="P37" s="594"/>
+      <c r="Q37" s="594"/>
+      <c r="R37" s="594"/>
+      <c r="S37" s="594"/>
+      <c r="T37" s="594"/>
+      <c r="U37" s="594"/>
+      <c r="V37" s="594"/>
+      <c r="W37" s="594"/>
+      <c r="X37" s="594"/>
       <c r="AN37" s="132"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
-      <c r="G38" s="525"/>
-      <c r="H38" s="525"/>
-      <c r="I38" s="525"/>
-      <c r="J38" s="525"/>
-      <c r="K38" s="525"/>
-      <c r="L38" s="525"/>
-      <c r="M38" s="525"/>
-      <c r="N38" s="525"/>
-      <c r="O38" s="525"/>
-      <c r="P38" s="525"/>
-      <c r="Q38" s="525"/>
-      <c r="R38" s="525"/>
-      <c r="S38" s="525"/>
-      <c r="T38" s="525"/>
-      <c r="U38" s="525"/>
-      <c r="V38" s="525"/>
-      <c r="W38" s="525"/>
-      <c r="X38" s="525"/>
+      <c r="G38" s="594"/>
+      <c r="H38" s="594"/>
+      <c r="I38" s="594"/>
+      <c r="J38" s="594"/>
+      <c r="K38" s="594"/>
+      <c r="L38" s="594"/>
+      <c r="M38" s="594"/>
+      <c r="N38" s="594"/>
+      <c r="O38" s="594"/>
+      <c r="P38" s="594"/>
+      <c r="Q38" s="594"/>
+      <c r="R38" s="594"/>
+      <c r="S38" s="594"/>
+      <c r="T38" s="594"/>
+      <c r="U38" s="594"/>
+      <c r="V38" s="594"/>
+      <c r="W38" s="594"/>
+      <c r="X38" s="594"/>
       <c r="AN38" s="96"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -13397,40 +13437,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="164" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="553" t="s">
+      <c r="A1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
+      <c r="B1" s="622"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
       <c r="E1" s="163"/>
-      <c r="F1" s="554" t="s">
+      <c r="F1" s="623" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="554"/>
-      <c r="H1" s="554"/>
-      <c r="I1" s="554"/>
-      <c r="J1" s="554"/>
-      <c r="K1" s="554"/>
-      <c r="L1" s="554"/>
+      <c r="G1" s="623"/>
+      <c r="H1" s="623"/>
+      <c r="I1" s="623"/>
+      <c r="J1" s="623"/>
+      <c r="K1" s="623"/>
+      <c r="L1" s="623"/>
     </row>
     <row r="2" spans="1:16" s="164" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="555" t="s">
+      <c r="A2" s="624" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
+      <c r="B2" s="624"/>
+      <c r="C2" s="624"/>
+      <c r="D2" s="624"/>
       <c r="E2" s="163"/>
-      <c r="F2" s="556" t="s">
+      <c r="F2" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="556"/>
-      <c r="H2" s="556"/>
-      <c r="I2" s="556"/>
-      <c r="J2" s="556"/>
-      <c r="K2" s="556"/>
-      <c r="L2" s="556"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="625"/>
+      <c r="I2" s="625"/>
+      <c r="J2" s="625"/>
+      <c r="K2" s="625"/>
+      <c r="L2" s="625"/>
     </row>
     <row r="3" spans="1:16" s="164" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="165"/>
@@ -13444,45 +13484,45 @@
       <c r="J3" s="166"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="546" t="s">
+      <c r="A4" s="615" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="546"/>
-      <c r="C4" s="546"/>
-      <c r="D4" s="546"/>
-      <c r="E4" s="546"/>
-      <c r="F4" s="546"/>
-      <c r="G4" s="546"/>
-      <c r="H4" s="546"/>
-      <c r="I4" s="546"/>
-      <c r="J4" s="546"/>
-      <c r="K4" s="546"/>
-      <c r="L4" s="546"/>
-      <c r="M4" s="546"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="615"/>
+      <c r="E4" s="615"/>
+      <c r="F4" s="615"/>
+      <c r="G4" s="615"/>
+      <c r="H4" s="615"/>
+      <c r="I4" s="615"/>
+      <c r="J4" s="615"/>
+      <c r="K4" s="615"/>
+      <c r="L4" s="615"/>
+      <c r="M4" s="615"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="546" t="s">
+      <c r="A5" s="615" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="546"/>
-      <c r="C5" s="546"/>
-      <c r="D5" s="546"/>
-      <c r="E5" s="546"/>
-      <c r="F5" s="546"/>
-      <c r="G5" s="546"/>
-      <c r="H5" s="546"/>
-      <c r="I5" s="546"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="546"/>
-      <c r="L5" s="546"/>
-      <c r="M5" s="546"/>
+      <c r="B5" s="615"/>
+      <c r="C5" s="615"/>
+      <c r="D5" s="615"/>
+      <c r="E5" s="615"/>
+      <c r="F5" s="615"/>
+      <c r="G5" s="615"/>
+      <c r="H5" s="615"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="615"/>
+      <c r="M5" s="615"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="547" t="s">
+      <c r="K6" s="616" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="547"/>
-      <c r="M6" s="547"/>
+      <c r="L6" s="616"/>
+      <c r="M6" s="616"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -13553,10 +13593,10 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="548" t="s">
+      <c r="A9" s="617" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="549"/>
+      <c r="B9" s="618"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="49"/>
@@ -13675,11 +13715,11 @@
       <c r="P12" s="91"/>
     </row>
     <row r="13" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="550" t="s">
+      <c r="A13" s="619" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="551"/>
-      <c r="C13" s="552"/>
+      <c r="B13" s="620"/>
+      <c r="C13" s="621"/>
       <c r="D13" s="144">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13704,14 +13744,14 @@
       <c r="M13" s="169"/>
     </row>
     <row r="15" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="546"/>
-      <c r="C15" s="546"/>
-      <c r="D15" s="546"/>
+      <c r="B15" s="615"/>
+      <c r="C15" s="615"/>
+      <c r="D15" s="615"/>
       <c r="E15" s="145"/>
-      <c r="I15" s="546"/>
-      <c r="J15" s="546"/>
-      <c r="K15" s="546"/>
-      <c r="L15" s="546"/>
+      <c r="I15" s="615"/>
+      <c r="J15" s="615"/>
+      <c r="K15" s="615"/>
+      <c r="L15" s="615"/>
     </row>
     <row r="16" spans="1:16" s="164" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="170" t="s">

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$H$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$H$116</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="258">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -795,6 +795,12 @@
   </si>
   <si>
     <t>PC00209</t>
+  </si>
+  <si>
+    <t>Chị Mến thanh toán tiền hàng đơn 791</t>
+  </si>
+  <si>
+    <t>Hằng kế toán ứng lương tháng 9</t>
   </si>
 </sst>
 </file>
@@ -2668,6 +2674,12 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2704,149 +2716,179 @@
     <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2866,36 +2908,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2905,6 +2917,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2914,129 +2938,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3076,33 +3088,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3139,6 +3142,36 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3151,27 +3184,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3200,12 +3212,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3518,11 +3524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,16 +3583,16 @@
       <c r="I3" s="369"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
-      <c r="D4" s="460"/>
-      <c r="E4" s="460"/>
-      <c r="F4" s="460"/>
-      <c r="G4" s="460"/>
-      <c r="H4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
+      <c r="D4" s="462"/>
+      <c r="E4" s="462"/>
+      <c r="F4" s="462"/>
+      <c r="G4" s="462"/>
+      <c r="H4" s="462"/>
       <c r="I4" s="369"/>
     </row>
     <row r="5" spans="1:9" s="367" customFormat="1" x14ac:dyDescent="0.25">
@@ -3599,32 +3605,32 @@
       <c r="H5" s="366"/>
     </row>
     <row r="6" spans="1:9" s="367" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="461" t="s">
+      <c r="A6" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="466" t="s">
+      <c r="B6" s="468" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="461" t="s">
+      <c r="C6" s="463" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="463" t="s">
+      <c r="D6" s="465" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="465" t="s">
+      <c r="E6" s="467" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465" t="s">
+      <c r="F6" s="467"/>
+      <c r="G6" s="467" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="465"/>
+      <c r="H6" s="467"/>
     </row>
     <row r="7" spans="1:9" s="367" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="462"/>
-      <c r="B7" s="467"/>
-      <c r="C7" s="462"/>
-      <c r="D7" s="464"/>
+      <c r="A7" s="464"/>
+      <c r="B7" s="469"/>
+      <c r="C7" s="464"/>
+      <c r="D7" s="466"/>
       <c r="E7" s="371" t="s">
         <v>79</v>
       </c>
@@ -4095,89 +4101,113 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="372">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B31" s="372"/>
       <c r="C31" s="373" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="D31" s="374" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="E31" s="375"/>
-      <c r="F31" s="376"/>
+      <c r="F31" s="376">
+        <v>3000000</v>
+      </c>
       <c r="G31" s="375"/>
-      <c r="H31" s="376">
-        <v>1185000</v>
-      </c>
+      <c r="H31" s="376"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="372">
         <v>44087</v>
       </c>
-      <c r="B32" s="372" t="s">
-        <v>255</v>
-      </c>
+      <c r="B32" s="372"/>
       <c r="C32" s="373" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D32" s="374" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E32" s="375"/>
       <c r="F32" s="376"/>
       <c r="G32" s="375"/>
       <c r="H32" s="376">
-        <v>1380000</v>
+        <v>1185000</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="372">
         <v>44087</v>
       </c>
-      <c r="B33" s="372"/>
+      <c r="B33" s="372" t="s">
+        <v>255</v>
+      </c>
       <c r="C33" s="373" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="D33" s="374" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E33" s="375"/>
       <c r="F33" s="376"/>
       <c r="G33" s="375"/>
       <c r="H33" s="376">
-        <v>90000</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="372"/>
+      <c r="A34" s="372">
+        <v>44087</v>
+      </c>
       <c r="B34" s="372"/>
-      <c r="C34" s="373"/>
-      <c r="D34" s="374"/>
+      <c r="C34" s="373" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="374" t="s">
+        <v>253</v>
+      </c>
       <c r="E34" s="375"/>
       <c r="F34" s="376"/>
       <c r="G34" s="375"/>
-      <c r="H34" s="376"/>
+      <c r="H34" s="376">
+        <v>90000</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="372"/>
+      <c r="A35" s="372">
+        <v>44089</v>
+      </c>
       <c r="B35" s="372"/>
-      <c r="C35" s="373"/>
-      <c r="D35" s="374"/>
+      <c r="C35" s="373" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="374" t="s">
+        <v>256</v>
+      </c>
       <c r="E35" s="375"/>
-      <c r="F35" s="376"/>
+      <c r="F35" s="376">
+        <v>1717000</v>
+      </c>
       <c r="G35" s="375"/>
       <c r="H35" s="376"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="372"/>
+      <c r="A36" s="372">
+        <v>44089</v>
+      </c>
       <c r="B36" s="372"/>
-      <c r="C36" s="373"/>
-      <c r="D36" s="374"/>
+      <c r="C36" s="373" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="374" t="s">
+        <v>257</v>
+      </c>
       <c r="E36" s="375"/>
       <c r="F36" s="376"/>
       <c r="G36" s="375"/>
-      <c r="H36" s="376"/>
+      <c r="H36" s="376">
+        <v>1717000</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="372"/>
@@ -4673,7 +4703,7 @@
       <c r="A86" s="372"/>
       <c r="B86" s="372"/>
       <c r="C86" s="373"/>
-      <c r="D86" s="377"/>
+      <c r="D86" s="374"/>
       <c r="E86" s="375"/>
       <c r="F86" s="376"/>
       <c r="G86" s="375"/>
@@ -4709,15 +4739,15 @@
       <c r="G89" s="375"/>
       <c r="H89" s="376"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="372"/>
       <c r="B90" s="372"/>
       <c r="C90" s="373"/>
-      <c r="D90" s="374"/>
+      <c r="D90" s="377"/>
       <c r="E90" s="375"/>
       <c r="F90" s="376"/>
       <c r="G90" s="375"/>
-      <c r="H90" s="378"/>
+      <c r="H90" s="376"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="372"/>
@@ -4739,7 +4769,7 @@
       <c r="G92" s="375"/>
       <c r="H92" s="378"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="372"/>
       <c r="B93" s="372"/>
       <c r="C93" s="373"/>
@@ -4843,7 +4873,7 @@
       <c r="A103" s="372"/>
       <c r="B103" s="372"/>
       <c r="C103" s="373"/>
-      <c r="D103" s="379"/>
+      <c r="D103" s="374"/>
       <c r="E103" s="375"/>
       <c r="F103" s="376"/>
       <c r="G103" s="375"/>
@@ -4873,7 +4903,7 @@
       <c r="A106" s="372"/>
       <c r="B106" s="372"/>
       <c r="C106" s="373"/>
-      <c r="D106" s="377"/>
+      <c r="D106" s="379"/>
       <c r="E106" s="375"/>
       <c r="F106" s="376"/>
       <c r="G106" s="375"/>
@@ -4883,7 +4913,7 @@
       <c r="A107" s="372"/>
       <c r="B107" s="372"/>
       <c r="C107" s="373"/>
-      <c r="D107" s="374"/>
+      <c r="D107" s="377"/>
       <c r="E107" s="375"/>
       <c r="F107" s="376"/>
       <c r="G107" s="375"/>
@@ -4959,71 +4989,71 @@
       <c r="G114" s="375"/>
       <c r="H114" s="378"/>
     </row>
-    <row r="115" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="457" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="372"/>
+      <c r="B115" s="372"/>
+      <c r="C115" s="373"/>
+      <c r="D115" s="374"/>
+      <c r="E115" s="375"/>
+      <c r="F115" s="376"/>
+      <c r="G115" s="375"/>
+      <c r="H115" s="378"/>
+    </row>
+    <row r="116" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="459" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="458"/>
-      <c r="C115" s="458"/>
-      <c r="D115" s="459"/>
-      <c r="E115" s="380">
-        <f>SUM(E8:E114)</f>
+      <c r="B116" s="460"/>
+      <c r="C116" s="460"/>
+      <c r="D116" s="461"/>
+      <c r="E116" s="380">
+        <f>SUM(E8:E115)</f>
         <v>116319400</v>
       </c>
-      <c r="F115" s="380">
-        <f t="shared" ref="F115:H115" si="0">SUM(F8:F114)</f>
-        <v>544658385</v>
-      </c>
-      <c r="G115" s="380">
+      <c r="F116" s="380">
+        <f t="shared" ref="F116:H116" si="0">SUM(F8:F115)</f>
+        <v>549375385</v>
+      </c>
+      <c r="G116" s="380">
         <f t="shared" si="0"/>
         <v>42510000</v>
       </c>
-      <c r="H115" s="380">
+      <c r="H116" s="380">
         <f t="shared" si="0"/>
-        <v>17843385</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="382"/>
-      <c r="B116" s="382"/>
-      <c r="C116" s="383"/>
-      <c r="D116" s="383"/>
-      <c r="E116" s="384"/>
-      <c r="F116" s="384"/>
-      <c r="G116" s="384"/>
-      <c r="H116" s="384"/>
-    </row>
-    <row r="117" spans="1:9" s="381" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="456" t="s">
-        <v>80</v>
-      </c>
-      <c r="B117" s="456"/>
-      <c r="C117" s="456"/>
+        <v>19560385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="382"/>
+      <c r="B117" s="382"/>
+      <c r="C117" s="383"/>
       <c r="D117" s="383"/>
       <c r="E117" s="384"/>
       <c r="F117" s="384"/>
       <c r="G117" s="384"/>
       <c r="H117" s="384"/>
     </row>
-    <row r="118" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="382"/>
-      <c r="B118" s="382"/>
-      <c r="C118" s="383"/>
+    <row r="118" spans="1:9" s="381" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="458" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118" s="458"/>
+      <c r="C118" s="458"/>
       <c r="D118" s="383"/>
       <c r="E118" s="384"/>
       <c r="F118" s="384"/>
       <c r="G118" s="384"/>
       <c r="H118" s="384"/>
     </row>
-    <row r="119" spans="1:9" s="381" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="385"/>
-      <c r="B119" s="385"/>
-      <c r="C119" s="386"/>
-      <c r="D119" s="387"/>
-      <c r="E119" s="388"/>
-      <c r="F119" s="389"/>
-      <c r="G119" s="388"/>
-      <c r="H119" s="390"/>
+    <row r="119" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="382"/>
+      <c r="B119" s="382"/>
+      <c r="C119" s="383"/>
+      <c r="D119" s="383"/>
+      <c r="E119" s="384"/>
+      <c r="F119" s="384"/>
+      <c r="G119" s="384"/>
+      <c r="H119" s="384"/>
     </row>
     <row r="120" spans="1:9" s="381" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="385"/>
@@ -5035,59 +5065,69 @@
       <c r="G120" s="388"/>
       <c r="H120" s="390"/>
     </row>
-    <row r="121" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="382"/>
-      <c r="B121" s="382"/>
-      <c r="C121" s="383"/>
-      <c r="D121" s="383"/>
-      <c r="E121" s="384"/>
-      <c r="F121" s="384"/>
-      <c r="G121" s="384"/>
-      <c r="H121" s="384"/>
-    </row>
-    <row r="122" spans="1:9" s="394" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="391"/>
-      <c r="B122" s="391"/>
-      <c r="C122" s="392" t="s">
-        <v>107</v>
-      </c>
-      <c r="D122" s="393"/>
-      <c r="E122" s="392" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="393"/>
-      <c r="G122" s="393"/>
-      <c r="H122" s="393"/>
-      <c r="I122" s="393"/>
+    <row r="121" spans="1:9" s="381" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="385"/>
+      <c r="B121" s="385"/>
+      <c r="C121" s="386"/>
+      <c r="D121" s="387"/>
+      <c r="E121" s="388"/>
+      <c r="F121" s="389"/>
+      <c r="G121" s="388"/>
+      <c r="H121" s="390"/>
+    </row>
+    <row r="122" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="382"/>
+      <c r="B122" s="382"/>
+      <c r="C122" s="383"/>
+      <c r="D122" s="383"/>
+      <c r="E122" s="384"/>
+      <c r="F122" s="384"/>
+      <c r="G122" s="384"/>
+      <c r="H122" s="384"/>
     </row>
     <row r="123" spans="1:9" s="394" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="391"/>
       <c r="B123" s="391"/>
-      <c r="C123" s="395" t="s">
+      <c r="C123" s="392" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="393"/>
+      <c r="E123" s="392" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="393"/>
+      <c r="G123" s="393"/>
+      <c r="H123" s="393"/>
+      <c r="I123" s="393"/>
+    </row>
+    <row r="124" spans="1:9" s="394" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="391"/>
+      <c r="B124" s="391"/>
+      <c r="C124" s="395" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="396"/>
-      <c r="E123" s="395" t="s">
+      <c r="D124" s="396"/>
+      <c r="E124" s="395" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="396"/>
-      <c r="G123" s="396"/>
-      <c r="H123" s="396"/>
-      <c r="I123" s="396"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="392"/>
-      <c r="D126" s="392"/>
-      <c r="E126" s="398"/>
+      <c r="F124" s="396"/>
+      <c r="G124" s="396"/>
+      <c r="H124" s="396"/>
+      <c r="I124" s="396"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="392"/>
+      <c r="D127" s="392"/>
+      <c r="E127" s="398"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:H115">
+  <autoFilter ref="A6:H116">
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A116:D116"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
@@ -5119,31 +5159,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="624" t="s">
+      <c r="A1" s="626" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="624"/>
-      <c r="C1" s="624"/>
+      <c r="B1" s="626"/>
+      <c r="C1" s="626"/>
       <c r="I1" s="149"/>
       <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="625" t="s">
+      <c r="A2" s="627" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="625"/>
-      <c r="C2" s="625"/>
+      <c r="B2" s="627"/>
+      <c r="C2" s="627"/>
       <c r="I2" s="149"/>
       <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="584" t="s">
+      <c r="A3" s="586" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="584"/>
-      <c r="C3" s="584"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="584"/>
+      <c r="B3" s="586"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="586"/>
+      <c r="E3" s="586"/>
       <c r="F3" s="147"/>
       <c r="G3" s="147"/>
       <c r="H3" s="147"/>
@@ -5171,24 +5211,24 @@
       <c r="N4" s="147"/>
     </row>
     <row r="5" spans="1:14" s="148" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="630" t="s">
+      <c r="A5" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="632" t="s">
+      <c r="B5" s="634" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="630" t="s">
+      <c r="C5" s="632" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="629" t="s">
+      <c r="D5" s="631" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="629"/>
+      <c r="E5" s="631"/>
     </row>
     <row r="6" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="631"/>
-      <c r="B6" s="633"/>
-      <c r="C6" s="631"/>
+      <c r="A6" s="633"/>
+      <c r="B6" s="635"/>
+      <c r="C6" s="633"/>
       <c r="D6" s="158" t="s">
         <v>123</v>
       </c>
@@ -5461,11 +5501,11 @@
       <c r="E31" s="157"/>
     </row>
     <row r="32" spans="1:5" s="160" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="626" t="s">
+      <c r="A32" s="628" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="627"/>
-      <c r="C32" s="628"/>
+      <c r="B32" s="629"/>
+      <c r="C32" s="630"/>
       <c r="D32" s="159">
         <f t="shared" ref="D32:E32" si="0">SUM(D7:D31)</f>
         <v>80000</v>
@@ -5522,13 +5562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="492" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
+      <c r="B1" s="492"/>
+      <c r="C1" s="492"/>
+      <c r="D1" s="492"/>
+      <c r="E1" s="492"/>
       <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5542,163 +5582,163 @@
       <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="496" t="s">
+      <c r="A3" s="493" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="496"/>
-      <c r="C3" s="496"/>
-      <c r="D3" s="496"/>
-      <c r="E3" s="496"/>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
-      <c r="J3" s="496"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="496"/>
-      <c r="M3" s="496"/>
-      <c r="N3" s="496"/>
-      <c r="O3" s="496"/>
-      <c r="P3" s="496"/>
+      <c r="B3" s="493"/>
+      <c r="C3" s="493"/>
+      <c r="D3" s="493"/>
+      <c r="E3" s="493"/>
+      <c r="F3" s="493"/>
+      <c r="G3" s="493"/>
+      <c r="H3" s="493"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="493"/>
+      <c r="O3" s="493"/>
+      <c r="P3" s="493"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="496" t="s">
+      <c r="A4" s="493" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="496"/>
-      <c r="C4" s="496"/>
-      <c r="D4" s="496"/>
-      <c r="E4" s="496"/>
-      <c r="F4" s="496"/>
-      <c r="G4" s="496"/>
-      <c r="H4" s="496"/>
-      <c r="I4" s="496"/>
-      <c r="J4" s="496"/>
-      <c r="K4" s="496"/>
-      <c r="L4" s="496"/>
-      <c r="M4" s="496"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
+      <c r="B4" s="493"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="493"/>
+      <c r="G4" s="493"/>
+      <c r="H4" s="493"/>
+      <c r="I4" s="493"/>
+      <c r="J4" s="493"/>
+      <c r="K4" s="493"/>
+      <c r="L4" s="493"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="493"/>
+      <c r="O4" s="493"/>
+      <c r="P4" s="493"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="496"/>
-      <c r="B5" s="496"/>
-      <c r="C5" s="496"/>
-      <c r="D5" s="496"/>
-      <c r="E5" s="496"/>
-      <c r="F5" s="496"/>
-      <c r="G5" s="496"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="496"/>
-      <c r="J5" s="496"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="497"/>
+      <c r="A5" s="493"/>
+      <c r="B5" s="493"/>
+      <c r="C5" s="493"/>
+      <c r="D5" s="493"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="493"/>
+      <c r="J5" s="493"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="494"/>
     </row>
     <row r="6" spans="1:17" s="188" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="498" t="s">
+      <c r="A6" s="495" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="500" t="s">
+      <c r="B6" s="497" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="498" t="s">
+      <c r="C6" s="495" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="504" t="s">
+      <c r="D6" s="501" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="504"/>
-      <c r="F6" s="505" t="s">
+      <c r="E6" s="501"/>
+      <c r="F6" s="502" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="505"/>
-      <c r="H6" s="505"/>
-      <c r="I6" s="505"/>
-      <c r="J6" s="505"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="505"/>
-      <c r="M6" s="506"/>
-      <c r="N6" s="506"/>
-      <c r="O6" s="506"/>
-      <c r="P6" s="507" t="s">
+      <c r="G6" s="502"/>
+      <c r="H6" s="502"/>
+      <c r="I6" s="502"/>
+      <c r="J6" s="502"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="502"/>
+      <c r="M6" s="503"/>
+      <c r="N6" s="503"/>
+      <c r="O6" s="503"/>
+      <c r="P6" s="504" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="188" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="499"/>
-      <c r="B7" s="501"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="498" t="s">
+      <c r="A7" s="496"/>
+      <c r="B7" s="498"/>
+      <c r="C7" s="496"/>
+      <c r="D7" s="495" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="498" t="s">
+      <c r="E7" s="495" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="498" t="s">
+      <c r="F7" s="495" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="498" t="s">
+      <c r="G7" s="495" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="502" t="s">
+      <c r="H7" s="499" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="502" t="s">
+      <c r="I7" s="499" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="509" t="s">
+      <c r="J7" s="506" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="509"/>
-      <c r="L7" s="502" t="s">
+      <c r="K7" s="506"/>
+      <c r="L7" s="499" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="502" t="s">
+      <c r="M7" s="499" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="502" t="s">
+      <c r="N7" s="499" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="502" t="s">
+      <c r="O7" s="499" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="508"/>
+      <c r="P7" s="505"/>
     </row>
     <row r="8" spans="1:17" s="188" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="499"/>
-      <c r="B8" s="501"/>
-      <c r="C8" s="499"/>
-      <c r="D8" s="499"/>
-      <c r="E8" s="499"/>
-      <c r="F8" s="499"/>
-      <c r="G8" s="499"/>
-      <c r="H8" s="503"/>
-      <c r="I8" s="503"/>
+      <c r="A8" s="496"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="496"/>
+      <c r="D8" s="496"/>
+      <c r="E8" s="496"/>
+      <c r="F8" s="496"/>
+      <c r="G8" s="496"/>
+      <c r="H8" s="500"/>
+      <c r="I8" s="500"/>
       <c r="J8" s="280" t="s">
         <v>82</v>
       </c>
       <c r="K8" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="503"/>
-      <c r="M8" s="503"/>
-      <c r="N8" s="503"/>
-      <c r="O8" s="503"/>
-      <c r="P8" s="508"/>
+      <c r="L8" s="500"/>
+      <c r="M8" s="500"/>
+      <c r="N8" s="500"/>
+      <c r="O8" s="500"/>
+      <c r="P8" s="505"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="472">
+      <c r="A9" s="483">
         <v>785</v>
       </c>
-      <c r="B9" s="470">
+      <c r="B9" s="517">
         <v>44077</v>
       </c>
-      <c r="C9" s="468"/>
-      <c r="D9" s="468" t="s">
+      <c r="C9" s="474"/>
+      <c r="D9" s="474" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="468" t="s">
+      <c r="E9" s="474" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="349" t="s">
@@ -5733,11 +5773,11 @@
       <c r="P9" s="349"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="473"/>
-      <c r="B10" s="471"/>
-      <c r="C10" s="469"/>
-      <c r="D10" s="469"/>
-      <c r="E10" s="469"/>
+      <c r="A10" s="472"/>
+      <c r="B10" s="514"/>
+      <c r="C10" s="475"/>
+      <c r="D10" s="475"/>
+      <c r="E10" s="475"/>
       <c r="F10" s="351" t="s">
         <v>138</v>
       </c>
@@ -5768,19 +5808,19 @@
       <c r="P10" s="276"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="468">
+      <c r="A11" s="474">
         <v>662</v>
       </c>
-      <c r="B11" s="474">
+      <c r="B11" s="480">
         <v>44077</v>
       </c>
-      <c r="C11" s="468" t="s">
+      <c r="C11" s="474" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="468" t="s">
+      <c r="D11" s="474" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="468" t="s">
+      <c r="E11" s="474" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="349" t="s">
@@ -5814,11 +5854,11 @@
       <c r="Q11" s="294"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="477"/>
-      <c r="B12" s="475"/>
-      <c r="C12" s="477"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="477"/>
+      <c r="A12" s="478"/>
+      <c r="B12" s="481"/>
+      <c r="C12" s="478"/>
+      <c r="D12" s="478"/>
+      <c r="E12" s="478"/>
       <c r="F12" s="350" t="s">
         <v>137</v>
       </c>
@@ -5849,11 +5889,11 @@
       <c r="P12" s="274"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="477"/>
-      <c r="B13" s="475"/>
-      <c r="C13" s="477"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="477"/>
+      <c r="A13" s="478"/>
+      <c r="B13" s="481"/>
+      <c r="C13" s="478"/>
+      <c r="D13" s="478"/>
+      <c r="E13" s="478"/>
       <c r="F13" s="350" t="s">
         <v>152</v>
       </c>
@@ -5884,11 +5924,11 @@
       <c r="P13" s="350"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="469"/>
-      <c r="B14" s="476"/>
-      <c r="C14" s="469"/>
-      <c r="D14" s="469"/>
-      <c r="E14" s="469"/>
+      <c r="A14" s="475"/>
+      <c r="B14" s="482"/>
+      <c r="C14" s="475"/>
+      <c r="D14" s="475"/>
+      <c r="E14" s="475"/>
       <c r="F14" s="351" t="s">
         <v>134</v>
       </c>
@@ -6052,15 +6092,15 @@
       <c r="P17" s="305"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="468"/>
-      <c r="B18" s="474">
+      <c r="A18" s="474"/>
+      <c r="B18" s="480">
         <v>44088</v>
       </c>
-      <c r="C18" s="468"/>
-      <c r="D18" s="478" t="s">
+      <c r="C18" s="474"/>
+      <c r="D18" s="488" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="512"/>
+      <c r="E18" s="490"/>
       <c r="F18" s="451" t="s">
         <v>136</v>
       </c>
@@ -6091,11 +6131,11 @@
       <c r="P18" s="453"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="469"/>
-      <c r="B19" s="476"/>
-      <c r="C19" s="469"/>
-      <c r="D19" s="480"/>
-      <c r="E19" s="511"/>
+      <c r="A19" s="475"/>
+      <c r="B19" s="482"/>
+      <c r="C19" s="475"/>
+      <c r="D19" s="489"/>
+      <c r="E19" s="491"/>
       <c r="F19" s="452" t="s">
         <v>137</v>
       </c>
@@ -6133,7 +6173,7 @@
       <c r="E20" s="323"/>
       <c r="F20" s="455"/>
       <c r="G20" s="455"/>
-      <c r="H20" s="634"/>
+      <c r="H20" s="456"/>
       <c r="I20" s="319"/>
       <c r="J20" s="319"/>
       <c r="K20" s="320"/>
@@ -6141,7 +6181,7 @@
       <c r="M20" s="319"/>
       <c r="N20" s="319"/>
       <c r="O20" s="319"/>
-      <c r="P20" s="635"/>
+      <c r="P20" s="457"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="274"/>
@@ -6253,11 +6293,11 @@
       <c r="P26" s="282"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="468"/>
-      <c r="B27" s="474"/>
-      <c r="C27" s="468"/>
-      <c r="D27" s="468"/>
-      <c r="E27" s="468"/>
+      <c r="A27" s="474"/>
+      <c r="B27" s="480"/>
+      <c r="C27" s="474"/>
+      <c r="D27" s="474"/>
+      <c r="E27" s="474"/>
       <c r="F27" s="281"/>
       <c r="G27" s="281"/>
       <c r="H27" s="290"/>
@@ -6271,11 +6311,11 @@
       <c r="P27" s="281"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="477"/>
-      <c r="B28" s="475"/>
-      <c r="C28" s="477"/>
-      <c r="D28" s="477"/>
-      <c r="E28" s="477"/>
+      <c r="A28" s="478"/>
+      <c r="B28" s="481"/>
+      <c r="C28" s="478"/>
+      <c r="D28" s="478"/>
+      <c r="E28" s="478"/>
       <c r="F28" s="286"/>
       <c r="G28" s="286"/>
       <c r="H28" s="292"/>
@@ -6289,11 +6329,11 @@
       <c r="P28" s="286"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="477"/>
-      <c r="B29" s="475"/>
-      <c r="C29" s="477"/>
-      <c r="D29" s="477"/>
-      <c r="E29" s="477"/>
+      <c r="A29" s="478"/>
+      <c r="B29" s="481"/>
+      <c r="C29" s="478"/>
+      <c r="D29" s="478"/>
+      <c r="E29" s="478"/>
       <c r="F29" s="286"/>
       <c r="G29" s="286"/>
       <c r="H29" s="292"/>
@@ -6307,11 +6347,11 @@
       <c r="P29" s="310"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="477"/>
-      <c r="B30" s="475"/>
-      <c r="C30" s="477"/>
-      <c r="D30" s="477"/>
-      <c r="E30" s="477"/>
+      <c r="A30" s="478"/>
+      <c r="B30" s="481"/>
+      <c r="C30" s="478"/>
+      <c r="D30" s="478"/>
+      <c r="E30" s="478"/>
       <c r="F30" s="286"/>
       <c r="G30" s="286"/>
       <c r="H30" s="292"/>
@@ -6325,11 +6365,11 @@
       <c r="P30" s="286"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="477"/>
-      <c r="B31" s="475"/>
-      <c r="C31" s="477"/>
-      <c r="D31" s="477"/>
-      <c r="E31" s="477"/>
+      <c r="A31" s="478"/>
+      <c r="B31" s="481"/>
+      <c r="C31" s="478"/>
+      <c r="D31" s="478"/>
+      <c r="E31" s="478"/>
       <c r="F31" s="286"/>
       <c r="G31" s="286"/>
       <c r="H31" s="292"/>
@@ -6343,11 +6383,11 @@
       <c r="P31" s="286"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="477"/>
-      <c r="B32" s="475"/>
-      <c r="C32" s="477"/>
-      <c r="D32" s="477"/>
-      <c r="E32" s="477"/>
+      <c r="A32" s="478"/>
+      <c r="B32" s="481"/>
+      <c r="C32" s="478"/>
+      <c r="D32" s="478"/>
+      <c r="E32" s="478"/>
       <c r="F32" s="286"/>
       <c r="G32" s="286"/>
       <c r="H32" s="292"/>
@@ -6361,11 +6401,11 @@
       <c r="P32" s="286"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="469"/>
-      <c r="B33" s="476"/>
-      <c r="C33" s="469"/>
-      <c r="D33" s="469"/>
-      <c r="E33" s="469"/>
+      <c r="A33" s="475"/>
+      <c r="B33" s="482"/>
+      <c r="C33" s="475"/>
+      <c r="D33" s="475"/>
+      <c r="E33" s="475"/>
       <c r="F33" s="282"/>
       <c r="G33" s="282"/>
       <c r="H33" s="295"/>
@@ -6379,11 +6419,11 @@
       <c r="P33" s="317"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="468"/>
-      <c r="B34" s="474"/>
-      <c r="C34" s="468"/>
-      <c r="D34" s="468"/>
-      <c r="E34" s="468"/>
+      <c r="A34" s="474"/>
+      <c r="B34" s="480"/>
+      <c r="C34" s="474"/>
+      <c r="D34" s="474"/>
+      <c r="E34" s="474"/>
       <c r="F34" s="281"/>
       <c r="G34" s="281"/>
       <c r="H34" s="290"/>
@@ -6397,11 +6437,11 @@
       <c r="P34" s="318"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="469"/>
-      <c r="B35" s="476"/>
-      <c r="C35" s="469"/>
-      <c r="D35" s="469"/>
-      <c r="E35" s="469"/>
+      <c r="A35" s="475"/>
+      <c r="B35" s="482"/>
+      <c r="C35" s="475"/>
+      <c r="D35" s="475"/>
+      <c r="E35" s="475"/>
       <c r="F35" s="282"/>
       <c r="G35" s="282"/>
       <c r="H35" s="295"/>
@@ -6415,11 +6455,11 @@
       <c r="P35" s="317"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="472"/>
-      <c r="B36" s="470"/>
-      <c r="C36" s="472"/>
-      <c r="D36" s="512"/>
-      <c r="E36" s="472"/>
+      <c r="A36" s="483"/>
+      <c r="B36" s="517"/>
+      <c r="C36" s="483"/>
+      <c r="D36" s="490"/>
+      <c r="E36" s="483"/>
       <c r="H36" s="319"/>
       <c r="I36" s="319"/>
       <c r="J36" s="319"/>
@@ -6432,11 +6472,11 @@
       <c r="Q36" s="294"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="473"/>
-      <c r="B37" s="471"/>
-      <c r="C37" s="473"/>
-      <c r="D37" s="510"/>
-      <c r="E37" s="473"/>
+      <c r="A37" s="472"/>
+      <c r="B37" s="514"/>
+      <c r="C37" s="472"/>
+      <c r="D37" s="516"/>
+      <c r="E37" s="472"/>
       <c r="F37" s="284"/>
       <c r="G37" s="284"/>
       <c r="H37" s="321"/>
@@ -6451,11 +6491,11 @@
       <c r="Q37" s="294"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="468"/>
-      <c r="B38" s="474"/>
-      <c r="C38" s="474"/>
-      <c r="D38" s="513"/>
-      <c r="E38" s="474"/>
+      <c r="A38" s="474"/>
+      <c r="B38" s="480"/>
+      <c r="C38" s="480"/>
+      <c r="D38" s="485"/>
+      <c r="E38" s="480"/>
       <c r="F38" s="281"/>
       <c r="G38" s="281"/>
       <c r="H38" s="290"/>
@@ -6470,11 +6510,11 @@
       <c r="Q38" s="294"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="477"/>
-      <c r="B39" s="475"/>
-      <c r="C39" s="475"/>
-      <c r="D39" s="514"/>
-      <c r="E39" s="475"/>
+      <c r="A39" s="478"/>
+      <c r="B39" s="481"/>
+      <c r="C39" s="481"/>
+      <c r="D39" s="486"/>
+      <c r="E39" s="481"/>
       <c r="F39" s="286"/>
       <c r="G39" s="286"/>
       <c r="H39" s="292"/>
@@ -6489,11 +6529,11 @@
       <c r="Q39" s="294"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="477"/>
-      <c r="B40" s="475"/>
-      <c r="C40" s="475"/>
-      <c r="D40" s="514"/>
-      <c r="E40" s="475"/>
+      <c r="A40" s="478"/>
+      <c r="B40" s="481"/>
+      <c r="C40" s="481"/>
+      <c r="D40" s="486"/>
+      <c r="E40" s="481"/>
       <c r="F40" s="286"/>
       <c r="G40" s="286"/>
       <c r="H40" s="292"/>
@@ -6508,11 +6548,11 @@
       <c r="Q40" s="294"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="477"/>
-      <c r="B41" s="475"/>
-      <c r="C41" s="475"/>
-      <c r="D41" s="514"/>
-      <c r="E41" s="475"/>
+      <c r="A41" s="478"/>
+      <c r="B41" s="481"/>
+      <c r="C41" s="481"/>
+      <c r="D41" s="486"/>
+      <c r="E41" s="481"/>
       <c r="F41" s="286"/>
       <c r="G41" s="286"/>
       <c r="H41" s="292"/>
@@ -6527,11 +6567,11 @@
       <c r="Q41" s="294"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="477"/>
-      <c r="B42" s="475"/>
-      <c r="C42" s="475"/>
-      <c r="D42" s="514"/>
-      <c r="E42" s="475"/>
+      <c r="A42" s="478"/>
+      <c r="B42" s="481"/>
+      <c r="C42" s="481"/>
+      <c r="D42" s="486"/>
+      <c r="E42" s="481"/>
       <c r="F42" s="286"/>
       <c r="G42" s="286"/>
       <c r="H42" s="292"/>
@@ -6546,11 +6586,11 @@
       <c r="Q42" s="294"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="477"/>
-      <c r="B43" s="475"/>
-      <c r="C43" s="475"/>
-      <c r="D43" s="514"/>
-      <c r="E43" s="475"/>
+      <c r="A43" s="478"/>
+      <c r="B43" s="481"/>
+      <c r="C43" s="481"/>
+      <c r="D43" s="486"/>
+      <c r="E43" s="481"/>
       <c r="F43" s="286"/>
       <c r="G43" s="286"/>
       <c r="H43" s="292"/>
@@ -6565,11 +6605,11 @@
       <c r="Q43" s="294"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="477"/>
-      <c r="B44" s="475"/>
-      <c r="C44" s="475"/>
-      <c r="D44" s="514"/>
-      <c r="E44" s="475"/>
+      <c r="A44" s="478"/>
+      <c r="B44" s="481"/>
+      <c r="C44" s="481"/>
+      <c r="D44" s="486"/>
+      <c r="E44" s="481"/>
       <c r="F44" s="286"/>
       <c r="G44" s="286"/>
       <c r="H44" s="292"/>
@@ -6584,11 +6624,11 @@
       <c r="Q44" s="294"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="469"/>
-      <c r="B45" s="476"/>
-      <c r="C45" s="476"/>
-      <c r="D45" s="515"/>
-      <c r="E45" s="476"/>
+      <c r="A45" s="475"/>
+      <c r="B45" s="482"/>
+      <c r="C45" s="482"/>
+      <c r="D45" s="487"/>
+      <c r="E45" s="482"/>
       <c r="F45" s="282"/>
       <c r="G45" s="282"/>
       <c r="H45" s="295"/>
@@ -6622,11 +6662,11 @@
       <c r="Q46" s="294"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="473"/>
-      <c r="B47" s="471"/>
-      <c r="C47" s="473"/>
-      <c r="D47" s="510"/>
-      <c r="E47" s="473"/>
+      <c r="A47" s="472"/>
+      <c r="B47" s="514"/>
+      <c r="C47" s="472"/>
+      <c r="D47" s="516"/>
+      <c r="E47" s="472"/>
       <c r="F47" s="285"/>
       <c r="G47" s="285"/>
       <c r="H47" s="319"/>
@@ -6640,11 +6680,11 @@
       <c r="P47" s="323"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="481"/>
-      <c r="B48" s="482"/>
-      <c r="C48" s="481"/>
-      <c r="D48" s="511"/>
-      <c r="E48" s="481"/>
+      <c r="A48" s="473"/>
+      <c r="B48" s="515"/>
+      <c r="C48" s="473"/>
+      <c r="D48" s="491"/>
+      <c r="E48" s="473"/>
       <c r="F48" s="282"/>
       <c r="G48" s="282"/>
       <c r="H48" s="295"/>
@@ -6658,11 +6698,11 @@
       <c r="P48" s="317"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="472"/>
-      <c r="B49" s="470"/>
-      <c r="C49" s="472"/>
-      <c r="D49" s="512"/>
-      <c r="E49" s="472"/>
+      <c r="A49" s="483"/>
+      <c r="B49" s="517"/>
+      <c r="C49" s="483"/>
+      <c r="D49" s="490"/>
+      <c r="E49" s="483"/>
       <c r="F49" s="281"/>
       <c r="G49" s="281"/>
       <c r="H49" s="290"/>
@@ -6676,11 +6716,11 @@
       <c r="P49" s="281"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="473"/>
-      <c r="B50" s="471"/>
-      <c r="C50" s="473"/>
-      <c r="D50" s="510"/>
-      <c r="E50" s="473"/>
+      <c r="A50" s="472"/>
+      <c r="B50" s="514"/>
+      <c r="C50" s="472"/>
+      <c r="D50" s="516"/>
+      <c r="E50" s="472"/>
       <c r="F50" s="284"/>
       <c r="G50" s="284"/>
       <c r="H50" s="321"/>
@@ -6694,11 +6734,11 @@
       <c r="P50" s="284"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="468"/>
-      <c r="B51" s="474"/>
-      <c r="C51" s="468"/>
-      <c r="D51" s="478"/>
-      <c r="E51" s="468"/>
+      <c r="A51" s="474"/>
+      <c r="B51" s="480"/>
+      <c r="C51" s="474"/>
+      <c r="D51" s="488"/>
+      <c r="E51" s="474"/>
       <c r="F51" s="281"/>
       <c r="G51" s="281"/>
       <c r="H51" s="290"/>
@@ -6712,11 +6752,11 @@
       <c r="P51" s="281"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="477"/>
-      <c r="B52" s="475"/>
-      <c r="C52" s="477"/>
-      <c r="D52" s="479"/>
-      <c r="E52" s="477"/>
+      <c r="A52" s="478"/>
+      <c r="B52" s="481"/>
+      <c r="C52" s="478"/>
+      <c r="D52" s="513"/>
+      <c r="E52" s="478"/>
       <c r="F52" s="286"/>
       <c r="G52" s="286"/>
       <c r="H52" s="292"/>
@@ -6730,11 +6770,11 @@
       <c r="P52" s="286"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="477"/>
-      <c r="B53" s="475"/>
-      <c r="C53" s="477"/>
-      <c r="D53" s="479"/>
-      <c r="E53" s="477"/>
+      <c r="A53" s="478"/>
+      <c r="B53" s="481"/>
+      <c r="C53" s="478"/>
+      <c r="D53" s="513"/>
+      <c r="E53" s="478"/>
       <c r="F53" s="286"/>
       <c r="G53" s="286"/>
       <c r="H53" s="292"/>
@@ -6748,11 +6788,11 @@
       <c r="P53" s="286"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="477"/>
-      <c r="B54" s="475"/>
-      <c r="C54" s="477"/>
-      <c r="D54" s="479"/>
-      <c r="E54" s="477"/>
+      <c r="A54" s="478"/>
+      <c r="B54" s="481"/>
+      <c r="C54" s="478"/>
+      <c r="D54" s="513"/>
+      <c r="E54" s="478"/>
       <c r="F54" s="286"/>
       <c r="G54" s="286"/>
       <c r="H54" s="292"/>
@@ -6766,11 +6806,11 @@
       <c r="P54" s="286"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="477"/>
-      <c r="B55" s="475"/>
-      <c r="C55" s="477"/>
-      <c r="D55" s="479"/>
-      <c r="E55" s="477"/>
+      <c r="A55" s="478"/>
+      <c r="B55" s="481"/>
+      <c r="C55" s="478"/>
+      <c r="D55" s="513"/>
+      <c r="E55" s="478"/>
       <c r="F55" s="286"/>
       <c r="G55" s="286"/>
       <c r="H55" s="292"/>
@@ -6784,11 +6824,11 @@
       <c r="P55" s="286"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="477"/>
-      <c r="B56" s="475"/>
-      <c r="C56" s="477"/>
-      <c r="D56" s="479"/>
-      <c r="E56" s="477"/>
+      <c r="A56" s="478"/>
+      <c r="B56" s="481"/>
+      <c r="C56" s="478"/>
+      <c r="D56" s="513"/>
+      <c r="E56" s="478"/>
       <c r="F56" s="286"/>
       <c r="G56" s="286"/>
       <c r="H56" s="292"/>
@@ -6802,11 +6842,11 @@
       <c r="P56" s="286"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="477"/>
-      <c r="B57" s="475"/>
-      <c r="C57" s="477"/>
-      <c r="D57" s="479"/>
-      <c r="E57" s="477"/>
+      <c r="A57" s="478"/>
+      <c r="B57" s="481"/>
+      <c r="C57" s="478"/>
+      <c r="D57" s="513"/>
+      <c r="E57" s="478"/>
       <c r="F57" s="286"/>
       <c r="G57" s="286"/>
       <c r="H57" s="292"/>
@@ -6820,11 +6860,11 @@
       <c r="P57" s="286"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="477"/>
-      <c r="B58" s="475"/>
-      <c r="C58" s="477"/>
-      <c r="D58" s="479"/>
-      <c r="E58" s="477"/>
+      <c r="A58" s="478"/>
+      <c r="B58" s="481"/>
+      <c r="C58" s="478"/>
+      <c r="D58" s="513"/>
+      <c r="E58" s="478"/>
       <c r="F58" s="286"/>
       <c r="G58" s="286"/>
       <c r="H58" s="292"/>
@@ -6838,11 +6878,11 @@
       <c r="P58" s="286"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="469"/>
-      <c r="B59" s="476"/>
-      <c r="C59" s="469"/>
-      <c r="D59" s="480"/>
-      <c r="E59" s="469"/>
+      <c r="A59" s="475"/>
+      <c r="B59" s="482"/>
+      <c r="C59" s="475"/>
+      <c r="D59" s="489"/>
+      <c r="E59" s="475"/>
       <c r="F59" s="282"/>
       <c r="G59" s="282"/>
       <c r="H59" s="295"/>
@@ -6874,11 +6914,11 @@
       <c r="P60" s="283"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="468"/>
-      <c r="B61" s="474"/>
-      <c r="C61" s="468"/>
-      <c r="D61" s="478"/>
-      <c r="E61" s="468"/>
+      <c r="A61" s="474"/>
+      <c r="B61" s="480"/>
+      <c r="C61" s="474"/>
+      <c r="D61" s="488"/>
+      <c r="E61" s="474"/>
       <c r="F61" s="281"/>
       <c r="G61" s="281"/>
       <c r="H61" s="290"/>
@@ -6893,11 +6933,11 @@
       <c r="Q61" s="294"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="477"/>
-      <c r="B62" s="475"/>
-      <c r="C62" s="477"/>
-      <c r="D62" s="479"/>
-      <c r="E62" s="477"/>
+      <c r="A62" s="478"/>
+      <c r="B62" s="481"/>
+      <c r="C62" s="478"/>
+      <c r="D62" s="513"/>
+      <c r="E62" s="478"/>
       <c r="F62" s="286"/>
       <c r="G62" s="286"/>
       <c r="H62" s="292"/>
@@ -6912,11 +6952,11 @@
       <c r="Q62" s="294"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="477"/>
-      <c r="B63" s="475"/>
-      <c r="C63" s="477"/>
-      <c r="D63" s="479"/>
-      <c r="E63" s="477"/>
+      <c r="A63" s="478"/>
+      <c r="B63" s="481"/>
+      <c r="C63" s="478"/>
+      <c r="D63" s="513"/>
+      <c r="E63" s="478"/>
       <c r="F63" s="286"/>
       <c r="G63" s="286"/>
       <c r="H63" s="292"/>
@@ -6931,11 +6971,11 @@
       <c r="Q63" s="294"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="477"/>
-      <c r="B64" s="475"/>
-      <c r="C64" s="477"/>
-      <c r="D64" s="479"/>
-      <c r="E64" s="477"/>
+      <c r="A64" s="478"/>
+      <c r="B64" s="481"/>
+      <c r="C64" s="478"/>
+      <c r="D64" s="513"/>
+      <c r="E64" s="478"/>
       <c r="F64" s="286"/>
       <c r="G64" s="286"/>
       <c r="H64" s="292"/>
@@ -6950,11 +6990,11 @@
       <c r="Q64" s="294"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="477"/>
-      <c r="B65" s="475"/>
-      <c r="C65" s="477"/>
-      <c r="D65" s="479"/>
-      <c r="E65" s="477"/>
+      <c r="A65" s="478"/>
+      <c r="B65" s="481"/>
+      <c r="C65" s="478"/>
+      <c r="D65" s="513"/>
+      <c r="E65" s="478"/>
       <c r="F65" s="286"/>
       <c r="G65" s="286"/>
       <c r="H65" s="292"/>
@@ -6969,11 +7009,11 @@
       <c r="Q65" s="294"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="477"/>
-      <c r="B66" s="475"/>
-      <c r="C66" s="477"/>
-      <c r="D66" s="479"/>
-      <c r="E66" s="477"/>
+      <c r="A66" s="478"/>
+      <c r="B66" s="481"/>
+      <c r="C66" s="478"/>
+      <c r="D66" s="513"/>
+      <c r="E66" s="478"/>
       <c r="F66" s="286"/>
       <c r="G66" s="286"/>
       <c r="H66" s="292"/>
@@ -6988,11 +7028,11 @@
       <c r="Q66" s="294"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="469"/>
-      <c r="B67" s="476"/>
-      <c r="C67" s="469"/>
-      <c r="D67" s="480"/>
-      <c r="E67" s="469"/>
+      <c r="A67" s="475"/>
+      <c r="B67" s="482"/>
+      <c r="C67" s="475"/>
+      <c r="D67" s="489"/>
+      <c r="E67" s="475"/>
       <c r="F67" s="282"/>
       <c r="G67" s="282"/>
       <c r="H67" s="295"/>
@@ -7007,11 +7047,11 @@
       <c r="Q67" s="294"/>
     </row>
     <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="468"/>
-      <c r="B68" s="474"/>
-      <c r="C68" s="468"/>
-      <c r="D68" s="478"/>
-      <c r="E68" s="468"/>
+      <c r="A68" s="474"/>
+      <c r="B68" s="480"/>
+      <c r="C68" s="474"/>
+      <c r="D68" s="488"/>
+      <c r="E68" s="474"/>
       <c r="F68" s="281"/>
       <c r="G68" s="281"/>
       <c r="H68" s="290"/>
@@ -7022,15 +7062,15 @@
       <c r="M68" s="290"/>
       <c r="N68" s="290"/>
       <c r="O68" s="290"/>
-      <c r="P68" s="478"/>
+      <c r="P68" s="488"/>
       <c r="Q68" s="294"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="469"/>
-      <c r="B69" s="476"/>
-      <c r="C69" s="469"/>
-      <c r="D69" s="480"/>
-      <c r="E69" s="469"/>
+      <c r="A69" s="475"/>
+      <c r="B69" s="482"/>
+      <c r="C69" s="475"/>
+      <c r="D69" s="489"/>
+      <c r="E69" s="475"/>
       <c r="F69" s="282"/>
       <c r="G69" s="282"/>
       <c r="H69" s="295"/>
@@ -7041,7 +7081,7 @@
       <c r="M69" s="295"/>
       <c r="N69" s="295"/>
       <c r="O69" s="295"/>
-      <c r="P69" s="480"/>
+      <c r="P69" s="489"/>
       <c r="Q69" s="294"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7064,11 +7104,11 @@
       <c r="Q70" s="294"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="468"/>
-      <c r="B71" s="474"/>
-      <c r="C71" s="468"/>
-      <c r="D71" s="478"/>
-      <c r="E71" s="468"/>
+      <c r="A71" s="474"/>
+      <c r="B71" s="480"/>
+      <c r="C71" s="474"/>
+      <c r="D71" s="488"/>
+      <c r="E71" s="474"/>
       <c r="F71" s="281"/>
       <c r="G71" s="281"/>
       <c r="H71" s="290"/>
@@ -7083,11 +7123,11 @@
       <c r="Q71" s="294"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="477"/>
-      <c r="B72" s="475"/>
-      <c r="C72" s="477"/>
-      <c r="D72" s="479"/>
-      <c r="E72" s="477"/>
+      <c r="A72" s="478"/>
+      <c r="B72" s="481"/>
+      <c r="C72" s="478"/>
+      <c r="D72" s="513"/>
+      <c r="E72" s="478"/>
       <c r="F72" s="286"/>
       <c r="G72" s="286"/>
       <c r="H72" s="292"/>
@@ -7102,11 +7142,11 @@
       <c r="Q72" s="294"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="477"/>
-      <c r="B73" s="475"/>
-      <c r="C73" s="477"/>
-      <c r="D73" s="479"/>
-      <c r="E73" s="477"/>
+      <c r="A73" s="478"/>
+      <c r="B73" s="481"/>
+      <c r="C73" s="478"/>
+      <c r="D73" s="513"/>
+      <c r="E73" s="478"/>
       <c r="F73" s="286"/>
       <c r="G73" s="286"/>
       <c r="H73" s="292"/>
@@ -7121,11 +7161,11 @@
       <c r="Q73" s="294"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="477"/>
-      <c r="B74" s="475"/>
-      <c r="C74" s="477"/>
-      <c r="D74" s="479"/>
-      <c r="E74" s="477"/>
+      <c r="A74" s="478"/>
+      <c r="B74" s="481"/>
+      <c r="C74" s="478"/>
+      <c r="D74" s="513"/>
+      <c r="E74" s="478"/>
       <c r="F74" s="286"/>
       <c r="G74" s="286"/>
       <c r="H74" s="292"/>
@@ -7140,11 +7180,11 @@
       <c r="Q74" s="294"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="477"/>
-      <c r="B75" s="475"/>
-      <c r="C75" s="477"/>
-      <c r="D75" s="479"/>
-      <c r="E75" s="477"/>
+      <c r="A75" s="478"/>
+      <c r="B75" s="481"/>
+      <c r="C75" s="478"/>
+      <c r="D75" s="513"/>
+      <c r="E75" s="478"/>
       <c r="F75" s="286"/>
       <c r="G75" s="286"/>
       <c r="H75" s="292"/>
@@ -7159,11 +7199,11 @@
       <c r="Q75" s="294"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="469"/>
-      <c r="B76" s="476"/>
-      <c r="C76" s="469"/>
-      <c r="D76" s="480"/>
-      <c r="E76" s="469"/>
+      <c r="A76" s="475"/>
+      <c r="B76" s="482"/>
+      <c r="C76" s="475"/>
+      <c r="D76" s="489"/>
+      <c r="E76" s="475"/>
       <c r="F76" s="282"/>
       <c r="G76" s="282"/>
       <c r="H76" s="295"/>
@@ -7178,11 +7218,11 @@
       <c r="Q76" s="294"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="468"/>
-      <c r="B77" s="474"/>
-      <c r="C77" s="468"/>
-      <c r="D77" s="478"/>
-      <c r="E77" s="468"/>
+      <c r="A77" s="474"/>
+      <c r="B77" s="480"/>
+      <c r="C77" s="474"/>
+      <c r="D77" s="488"/>
+      <c r="E77" s="474"/>
       <c r="F77" s="281"/>
       <c r="G77" s="281"/>
       <c r="H77" s="290"/>
@@ -7197,11 +7237,11 @@
       <c r="Q77" s="294"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="477"/>
-      <c r="B78" s="475"/>
-      <c r="C78" s="477"/>
-      <c r="D78" s="479"/>
-      <c r="E78" s="477"/>
+      <c r="A78" s="478"/>
+      <c r="B78" s="481"/>
+      <c r="C78" s="478"/>
+      <c r="D78" s="513"/>
+      <c r="E78" s="478"/>
       <c r="F78" s="286"/>
       <c r="G78" s="286"/>
       <c r="H78" s="292"/>
@@ -7215,11 +7255,11 @@
       <c r="P78" s="328"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="477"/>
-      <c r="B79" s="475"/>
-      <c r="C79" s="477"/>
-      <c r="D79" s="479"/>
-      <c r="E79" s="477"/>
+      <c r="A79" s="478"/>
+      <c r="B79" s="481"/>
+      <c r="C79" s="478"/>
+      <c r="D79" s="513"/>
+      <c r="E79" s="478"/>
       <c r="F79" s="286"/>
       <c r="G79" s="286"/>
       <c r="H79" s="292"/>
@@ -7233,11 +7273,11 @@
       <c r="P79" s="328"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="469"/>
-      <c r="B80" s="476"/>
-      <c r="C80" s="469"/>
-      <c r="D80" s="480"/>
-      <c r="E80" s="469"/>
+      <c r="A80" s="475"/>
+      <c r="B80" s="482"/>
+      <c r="C80" s="475"/>
+      <c r="D80" s="489"/>
+      <c r="E80" s="475"/>
       <c r="F80" s="282"/>
       <c r="G80" s="282"/>
       <c r="H80" s="295"/>
@@ -7287,11 +7327,11 @@
       <c r="P82" s="331"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="468"/>
-      <c r="B83" s="484"/>
-      <c r="C83" s="468"/>
-      <c r="D83" s="468"/>
-      <c r="E83" s="468"/>
+      <c r="A83" s="474"/>
+      <c r="B83" s="476"/>
+      <c r="C83" s="474"/>
+      <c r="D83" s="474"/>
+      <c r="E83" s="474"/>
       <c r="F83" s="281"/>
       <c r="G83" s="281"/>
       <c r="H83" s="290"/>
@@ -7305,11 +7345,11 @@
       <c r="P83" s="318"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="477"/>
-      <c r="B84" s="485"/>
-      <c r="C84" s="477"/>
-      <c r="D84" s="477"/>
-      <c r="E84" s="477"/>
+      <c r="A84" s="478"/>
+      <c r="B84" s="479"/>
+      <c r="C84" s="478"/>
+      <c r="D84" s="478"/>
+      <c r="E84" s="478"/>
       <c r="F84" s="286"/>
       <c r="G84" s="286"/>
       <c r="H84" s="292"/>
@@ -7323,11 +7363,11 @@
       <c r="P84" s="328"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="477"/>
-      <c r="B85" s="485"/>
-      <c r="C85" s="477"/>
-      <c r="D85" s="477"/>
-      <c r="E85" s="477"/>
+      <c r="A85" s="478"/>
+      <c r="B85" s="479"/>
+      <c r="C85" s="478"/>
+      <c r="D85" s="478"/>
+      <c r="E85" s="478"/>
       <c r="F85" s="286"/>
       <c r="G85" s="286"/>
       <c r="H85" s="292"/>
@@ -7341,11 +7381,11 @@
       <c r="P85" s="328"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="477"/>
-      <c r="B86" s="485"/>
-      <c r="C86" s="477"/>
-      <c r="D86" s="477"/>
-      <c r="E86" s="477"/>
+      <c r="A86" s="478"/>
+      <c r="B86" s="479"/>
+      <c r="C86" s="478"/>
+      <c r="D86" s="478"/>
+      <c r="E86" s="478"/>
       <c r="F86" s="286"/>
       <c r="G86" s="286"/>
       <c r="H86" s="292"/>
@@ -7359,11 +7399,11 @@
       <c r="P86" s="328"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="477"/>
-      <c r="B87" s="485"/>
-      <c r="C87" s="477"/>
-      <c r="D87" s="477"/>
-      <c r="E87" s="477"/>
+      <c r="A87" s="478"/>
+      <c r="B87" s="479"/>
+      <c r="C87" s="478"/>
+      <c r="D87" s="478"/>
+      <c r="E87" s="478"/>
       <c r="F87" s="286"/>
       <c r="G87" s="286"/>
       <c r="H87" s="292"/>
@@ -7377,11 +7417,11 @@
       <c r="P87" s="286"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="469"/>
-      <c r="B88" s="486"/>
-      <c r="C88" s="469"/>
-      <c r="D88" s="469"/>
-      <c r="E88" s="469"/>
+      <c r="A88" s="475"/>
+      <c r="B88" s="477"/>
+      <c r="C88" s="475"/>
+      <c r="D88" s="475"/>
+      <c r="E88" s="475"/>
       <c r="F88" s="282"/>
       <c r="G88" s="282"/>
       <c r="H88" s="295"/>
@@ -7395,11 +7435,11 @@
       <c r="P88" s="282"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="472"/>
-      <c r="B89" s="491"/>
-      <c r="C89" s="472"/>
-      <c r="D89" s="472"/>
-      <c r="E89" s="472"/>
+      <c r="A89" s="483"/>
+      <c r="B89" s="470"/>
+      <c r="C89" s="483"/>
+      <c r="D89" s="483"/>
+      <c r="E89" s="483"/>
       <c r="F89" s="281"/>
       <c r="G89" s="281"/>
       <c r="H89" s="290"/>
@@ -7413,11 +7453,11 @@
       <c r="P89" s="277"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="473"/>
-      <c r="B90" s="492"/>
-      <c r="C90" s="473"/>
-      <c r="D90" s="473"/>
-      <c r="E90" s="473"/>
+      <c r="A90" s="472"/>
+      <c r="B90" s="471"/>
+      <c r="C90" s="472"/>
+      <c r="D90" s="472"/>
+      <c r="E90" s="472"/>
       <c r="F90" s="284"/>
       <c r="G90" s="284"/>
       <c r="H90" s="321"/>
@@ -7431,11 +7471,11 @@
       <c r="P90" s="332"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="468"/>
-      <c r="B91" s="484"/>
-      <c r="C91" s="468"/>
-      <c r="D91" s="468"/>
-      <c r="E91" s="468"/>
+      <c r="A91" s="474"/>
+      <c r="B91" s="476"/>
+      <c r="C91" s="474"/>
+      <c r="D91" s="474"/>
+      <c r="E91" s="474"/>
       <c r="F91" s="281"/>
       <c r="G91" s="281"/>
       <c r="H91" s="290"/>
@@ -7449,11 +7489,11 @@
       <c r="P91" s="277"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="477"/>
-      <c r="B92" s="485"/>
-      <c r="C92" s="477"/>
-      <c r="D92" s="477"/>
-      <c r="E92" s="477"/>
+      <c r="A92" s="478"/>
+      <c r="B92" s="479"/>
+      <c r="C92" s="478"/>
+      <c r="D92" s="478"/>
+      <c r="E92" s="478"/>
       <c r="F92" s="286"/>
       <c r="G92" s="286"/>
       <c r="H92" s="292"/>
@@ -7467,11 +7507,11 @@
       <c r="P92" s="286"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="477"/>
-      <c r="B93" s="485"/>
-      <c r="C93" s="477"/>
-      <c r="D93" s="477"/>
-      <c r="E93" s="477"/>
+      <c r="A93" s="478"/>
+      <c r="B93" s="479"/>
+      <c r="C93" s="478"/>
+      <c r="D93" s="478"/>
+      <c r="E93" s="478"/>
       <c r="F93" s="286"/>
       <c r="G93" s="286"/>
       <c r="H93" s="292"/>
@@ -7485,11 +7525,11 @@
       <c r="P93" s="274"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="469"/>
-      <c r="B94" s="486"/>
-      <c r="C94" s="469"/>
-      <c r="D94" s="469"/>
-      <c r="E94" s="469"/>
+      <c r="A94" s="475"/>
+      <c r="B94" s="477"/>
+      <c r="C94" s="475"/>
+      <c r="D94" s="475"/>
+      <c r="E94" s="475"/>
       <c r="F94" s="282"/>
       <c r="G94" s="282"/>
       <c r="H94" s="295"/>
@@ -7503,11 +7543,11 @@
       <c r="P94" s="276"/>
     </row>
     <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="468"/>
-      <c r="B95" s="484"/>
-      <c r="C95" s="468"/>
-      <c r="D95" s="468"/>
-      <c r="E95" s="468"/>
+      <c r="A95" s="474"/>
+      <c r="B95" s="476"/>
+      <c r="C95" s="474"/>
+      <c r="D95" s="474"/>
+      <c r="E95" s="474"/>
       <c r="F95" s="281"/>
       <c r="G95" s="281"/>
       <c r="H95" s="290"/>
@@ -7521,11 +7561,11 @@
       <c r="P95" s="277"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="477"/>
-      <c r="B96" s="485"/>
-      <c r="C96" s="477"/>
-      <c r="D96" s="477"/>
-      <c r="E96" s="477"/>
+      <c r="A96" s="478"/>
+      <c r="B96" s="479"/>
+      <c r="C96" s="478"/>
+      <c r="D96" s="478"/>
+      <c r="E96" s="478"/>
       <c r="F96" s="286"/>
       <c r="G96" s="286"/>
       <c r="H96" s="292"/>
@@ -7539,11 +7579,11 @@
       <c r="P96" s="274"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="469"/>
-      <c r="B97" s="486"/>
-      <c r="C97" s="469"/>
-      <c r="D97" s="469"/>
-      <c r="E97" s="469"/>
+      <c r="A97" s="475"/>
+      <c r="B97" s="477"/>
+      <c r="C97" s="475"/>
+      <c r="D97" s="475"/>
+      <c r="E97" s="475"/>
       <c r="F97" s="282"/>
       <c r="G97" s="282"/>
       <c r="H97" s="295"/>
@@ -7557,11 +7597,11 @@
       <c r="P97" s="276"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="472"/>
-      <c r="B98" s="491"/>
-      <c r="C98" s="472"/>
-      <c r="D98" s="472"/>
-      <c r="E98" s="472"/>
+      <c r="A98" s="483"/>
+      <c r="B98" s="470"/>
+      <c r="C98" s="483"/>
+      <c r="D98" s="483"/>
+      <c r="E98" s="483"/>
       <c r="F98" s="285"/>
       <c r="G98" s="285"/>
       <c r="H98" s="319"/>
@@ -7575,11 +7615,11 @@
       <c r="P98" s="289"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="473"/>
-      <c r="B99" s="492"/>
-      <c r="C99" s="473"/>
-      <c r="D99" s="473"/>
-      <c r="E99" s="473"/>
+      <c r="A99" s="472"/>
+      <c r="B99" s="471"/>
+      <c r="C99" s="472"/>
+      <c r="D99" s="472"/>
+      <c r="E99" s="472"/>
       <c r="F99" s="286"/>
       <c r="G99" s="286"/>
       <c r="H99" s="292"/>
@@ -7593,11 +7633,11 @@
       <c r="P99" s="289"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="473"/>
-      <c r="B100" s="492"/>
-      <c r="C100" s="473"/>
-      <c r="D100" s="473"/>
-      <c r="E100" s="473"/>
+      <c r="A100" s="472"/>
+      <c r="B100" s="471"/>
+      <c r="C100" s="472"/>
+      <c r="D100" s="472"/>
+      <c r="E100" s="472"/>
       <c r="F100" s="286"/>
       <c r="G100" s="286"/>
       <c r="H100" s="292"/>
@@ -7611,11 +7651,11 @@
       <c r="P100" s="289"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="481"/>
-      <c r="B101" s="493"/>
-      <c r="C101" s="481"/>
-      <c r="D101" s="481"/>
-      <c r="E101" s="481"/>
+      <c r="A101" s="473"/>
+      <c r="B101" s="484"/>
+      <c r="C101" s="473"/>
+      <c r="D101" s="473"/>
+      <c r="E101" s="473"/>
       <c r="F101" s="282"/>
       <c r="G101" s="282"/>
       <c r="H101" s="295"/>
@@ -7629,11 +7669,11 @@
       <c r="P101" s="303"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="472"/>
-      <c r="B102" s="491"/>
-      <c r="C102" s="472"/>
-      <c r="D102" s="472"/>
-      <c r="E102" s="472"/>
+      <c r="A102" s="483"/>
+      <c r="B102" s="470"/>
+      <c r="C102" s="483"/>
+      <c r="D102" s="483"/>
+      <c r="E102" s="483"/>
       <c r="F102" s="281"/>
       <c r="G102" s="281"/>
       <c r="H102" s="290"/>
@@ -7647,11 +7687,11 @@
       <c r="P102" s="273"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="473"/>
-      <c r="B103" s="492"/>
-      <c r="C103" s="473"/>
-      <c r="D103" s="473"/>
-      <c r="E103" s="473"/>
+      <c r="A103" s="472"/>
+      <c r="B103" s="471"/>
+      <c r="C103" s="472"/>
+      <c r="D103" s="472"/>
+      <c r="E103" s="472"/>
       <c r="F103" s="286"/>
       <c r="G103" s="286"/>
       <c r="H103" s="292"/>
@@ -7665,11 +7705,11 @@
       <c r="P103" s="289"/>
     </row>
     <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="473"/>
-      <c r="B104" s="492"/>
-      <c r="C104" s="473"/>
-      <c r="D104" s="473"/>
-      <c r="E104" s="473"/>
+      <c r="A104" s="472"/>
+      <c r="B104" s="471"/>
+      <c r="C104" s="472"/>
+      <c r="D104" s="472"/>
+      <c r="E104" s="472"/>
       <c r="F104" s="284"/>
       <c r="G104" s="284"/>
       <c r="H104" s="321"/>
@@ -7683,11 +7723,11 @@
       <c r="P104" s="289"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="472"/>
-      <c r="B105" s="491"/>
-      <c r="C105" s="472"/>
-      <c r="D105" s="472"/>
-      <c r="E105" s="472"/>
+      <c r="A105" s="483"/>
+      <c r="B105" s="470"/>
+      <c r="C105" s="483"/>
+      <c r="D105" s="483"/>
+      <c r="E105" s="483"/>
       <c r="F105" s="281"/>
       <c r="G105" s="281"/>
       <c r="H105" s="290"/>
@@ -7701,11 +7741,11 @@
       <c r="P105" s="277"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="481"/>
-      <c r="B106" s="493"/>
-      <c r="C106" s="481"/>
-      <c r="D106" s="481"/>
-      <c r="E106" s="481"/>
+      <c r="A106" s="473"/>
+      <c r="B106" s="484"/>
+      <c r="C106" s="473"/>
+      <c r="D106" s="473"/>
+      <c r="E106" s="473"/>
       <c r="F106" s="282"/>
       <c r="G106" s="282"/>
       <c r="H106" s="295"/>
@@ -7719,11 +7759,11 @@
       <c r="P106" s="276"/>
     </row>
     <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="483"/>
-      <c r="B107" s="494"/>
-      <c r="C107" s="483"/>
-      <c r="D107" s="483"/>
-      <c r="E107" s="483"/>
+      <c r="A107" s="511"/>
+      <c r="B107" s="512"/>
+      <c r="C107" s="511"/>
+      <c r="D107" s="511"/>
+      <c r="E107" s="511"/>
       <c r="F107" s="275"/>
       <c r="G107" s="275"/>
       <c r="H107" s="297"/>
@@ -7737,11 +7777,11 @@
       <c r="P107" s="345"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="483"/>
-      <c r="B108" s="494"/>
-      <c r="C108" s="483"/>
-      <c r="D108" s="483"/>
-      <c r="E108" s="483"/>
+      <c r="A108" s="511"/>
+      <c r="B108" s="512"/>
+      <c r="C108" s="511"/>
+      <c r="D108" s="511"/>
+      <c r="E108" s="511"/>
       <c r="F108" s="275"/>
       <c r="G108" s="275"/>
       <c r="H108" s="297"/>
@@ -7755,11 +7795,11 @@
       <c r="P108" s="345"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="483"/>
-      <c r="B109" s="494"/>
-      <c r="C109" s="483"/>
-      <c r="D109" s="483"/>
-      <c r="E109" s="483"/>
+      <c r="A109" s="511"/>
+      <c r="B109" s="512"/>
+      <c r="C109" s="511"/>
+      <c r="D109" s="511"/>
+      <c r="E109" s="511"/>
       <c r="F109" s="275"/>
       <c r="G109" s="275"/>
       <c r="H109" s="297"/>
@@ -7773,11 +7813,11 @@
       <c r="P109" s="345"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="483"/>
-      <c r="B110" s="494"/>
-      <c r="C110" s="483"/>
-      <c r="D110" s="483"/>
-      <c r="E110" s="483"/>
+      <c r="A110" s="511"/>
+      <c r="B110" s="512"/>
+      <c r="C110" s="511"/>
+      <c r="D110" s="511"/>
+      <c r="E110" s="511"/>
       <c r="F110" s="275"/>
       <c r="G110" s="275"/>
       <c r="H110" s="297"/>
@@ -7791,11 +7831,11 @@
       <c r="P110" s="345"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="483"/>
-      <c r="B111" s="494"/>
-      <c r="C111" s="483"/>
-      <c r="D111" s="483"/>
-      <c r="E111" s="483"/>
+      <c r="A111" s="511"/>
+      <c r="B111" s="512"/>
+      <c r="C111" s="511"/>
+      <c r="D111" s="511"/>
+      <c r="E111" s="511"/>
       <c r="F111" s="275"/>
       <c r="G111" s="275"/>
       <c r="H111" s="297"/>
@@ -7809,11 +7849,11 @@
       <c r="P111" s="275"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="483"/>
-      <c r="B112" s="494"/>
-      <c r="C112" s="483"/>
-      <c r="D112" s="483"/>
-      <c r="E112" s="483"/>
+      <c r="A112" s="511"/>
+      <c r="B112" s="512"/>
+      <c r="C112" s="511"/>
+      <c r="D112" s="511"/>
+      <c r="E112" s="511"/>
       <c r="F112" s="275"/>
       <c r="G112" s="275"/>
       <c r="H112" s="297"/>
@@ -7845,11 +7885,11 @@
       <c r="P113" s="275"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="468"/>
-      <c r="B114" s="484"/>
-      <c r="C114" s="468"/>
-      <c r="D114" s="468"/>
-      <c r="E114" s="468"/>
+      <c r="A114" s="474"/>
+      <c r="B114" s="476"/>
+      <c r="C114" s="474"/>
+      <c r="D114" s="474"/>
+      <c r="E114" s="474"/>
       <c r="F114" s="281"/>
       <c r="G114" s="281"/>
       <c r="H114" s="290"/>
@@ -7863,11 +7903,11 @@
       <c r="P114" s="281"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="469"/>
-      <c r="B115" s="486"/>
-      <c r="C115" s="469"/>
-      <c r="D115" s="469"/>
-      <c r="E115" s="469"/>
+      <c r="A115" s="475"/>
+      <c r="B115" s="477"/>
+      <c r="C115" s="475"/>
+      <c r="D115" s="475"/>
+      <c r="E115" s="475"/>
       <c r="F115" s="282"/>
       <c r="G115" s="282"/>
       <c r="H115" s="295"/>
@@ -7917,11 +7957,11 @@
       <c r="P117" s="275"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="468"/>
-      <c r="B118" s="484"/>
-      <c r="C118" s="468"/>
-      <c r="D118" s="468"/>
-      <c r="E118" s="468"/>
+      <c r="A118" s="474"/>
+      <c r="B118" s="476"/>
+      <c r="C118" s="474"/>
+      <c r="D118" s="474"/>
+      <c r="E118" s="474"/>
       <c r="F118" s="281"/>
       <c r="G118" s="281"/>
       <c r="H118" s="290"/>
@@ -7935,11 +7975,11 @@
       <c r="P118" s="281"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="477"/>
-      <c r="B119" s="485"/>
-      <c r="C119" s="477"/>
-      <c r="D119" s="477"/>
-      <c r="E119" s="477"/>
+      <c r="A119" s="478"/>
+      <c r="B119" s="479"/>
+      <c r="C119" s="478"/>
+      <c r="D119" s="478"/>
+      <c r="E119" s="478"/>
       <c r="F119" s="286"/>
       <c r="G119" s="286"/>
       <c r="H119" s="292"/>
@@ -7953,11 +7993,11 @@
       <c r="P119" s="286"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="477"/>
-      <c r="B120" s="485"/>
-      <c r="C120" s="477"/>
-      <c r="D120" s="477"/>
-      <c r="E120" s="477"/>
+      <c r="A120" s="478"/>
+      <c r="B120" s="479"/>
+      <c r="C120" s="478"/>
+      <c r="D120" s="478"/>
+      <c r="E120" s="478"/>
       <c r="F120" s="286"/>
       <c r="G120" s="286"/>
       <c r="H120" s="292"/>
@@ -7971,11 +8011,11 @@
       <c r="P120" s="286"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="469"/>
-      <c r="B121" s="486"/>
-      <c r="C121" s="469"/>
-      <c r="D121" s="469"/>
-      <c r="E121" s="469"/>
+      <c r="A121" s="475"/>
+      <c r="B121" s="477"/>
+      <c r="C121" s="475"/>
+      <c r="D121" s="475"/>
+      <c r="E121" s="475"/>
       <c r="F121" s="282"/>
       <c r="G121" s="282"/>
       <c r="H121" s="295"/>
@@ -8007,14 +8047,14 @@
       <c r="P122" s="325"/>
     </row>
     <row r="123" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="488" t="s">
+      <c r="A123" s="508" t="s">
         <v>75</v>
       </c>
-      <c r="B123" s="488"/>
-      <c r="C123" s="488"/>
-      <c r="D123" s="488"/>
-      <c r="E123" s="488"/>
-      <c r="F123" s="488"/>
+      <c r="B123" s="508"/>
+      <c r="C123" s="508"/>
+      <c r="D123" s="508"/>
+      <c r="E123" s="508"/>
+      <c r="F123" s="508"/>
       <c r="G123" s="217">
         <f>SUM(G13:G122)</f>
         <v>109</v>
@@ -8033,18 +8073,18 @@
       <c r="M123" s="223"/>
       <c r="N123" s="223"/>
       <c r="O123" s="223"/>
-      <c r="P123" s="489"/>
-      <c r="Q123" s="490"/>
+      <c r="P123" s="509"/>
+      <c r="Q123" s="510"/>
     </row>
     <row r="124" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="487" t="s">
+      <c r="A124" s="507" t="s">
         <v>194</v>
       </c>
-      <c r="B124" s="487"/>
-      <c r="C124" s="487"/>
-      <c r="D124" s="487"/>
-      <c r="E124" s="487"/>
-      <c r="F124" s="487"/>
+      <c r="B124" s="507"/>
+      <c r="C124" s="507"/>
+      <c r="D124" s="507"/>
+      <c r="E124" s="507"/>
+      <c r="F124" s="507"/>
       <c r="G124" s="194">
         <f>G123</f>
         <v>109</v>
@@ -8060,18 +8100,18 @@
       <c r="M124" s="197"/>
       <c r="N124" s="197"/>
       <c r="O124" s="197"/>
-      <c r="P124" s="489"/>
-      <c r="Q124" s="490"/>
+      <c r="P124" s="509"/>
+      <c r="Q124" s="510"/>
     </row>
     <row r="125" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="487" t="s">
+      <c r="A125" s="507" t="s">
         <v>76</v>
       </c>
-      <c r="B125" s="487"/>
-      <c r="C125" s="487"/>
-      <c r="D125" s="487"/>
-      <c r="E125" s="487"/>
-      <c r="F125" s="487"/>
+      <c r="B125" s="507"/>
+      <c r="C125" s="507"/>
+      <c r="D125" s="507"/>
+      <c r="E125" s="507"/>
+      <c r="F125" s="507"/>
       <c r="G125" s="201" t="s">
         <v>49</v>
       </c>
@@ -8088,14 +8128,14 @@
       <c r="O125" s="197"/>
     </row>
     <row r="126" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="487" t="s">
+      <c r="A126" s="507" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="487"/>
-      <c r="C126" s="487"/>
-      <c r="D126" s="487"/>
-      <c r="E126" s="487"/>
-      <c r="F126" s="487"/>
+      <c r="B126" s="507"/>
+      <c r="C126" s="507"/>
+      <c r="D126" s="507"/>
+      <c r="E126" s="507"/>
+      <c r="F126" s="507"/>
       <c r="G126" s="201"/>
       <c r="H126" s="212"/>
       <c r="I126" s="195"/>
@@ -8110,14 +8150,14 @@
       <c r="O126" s="197"/>
     </row>
     <row r="127" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="487" t="s">
+      <c r="A127" s="507" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="487"/>
-      <c r="C127" s="487"/>
-      <c r="D127" s="487"/>
-      <c r="E127" s="487"/>
-      <c r="F127" s="487"/>
+      <c r="B127" s="507"/>
+      <c r="C127" s="507"/>
+      <c r="D127" s="507"/>
+      <c r="E127" s="507"/>
+      <c r="F127" s="507"/>
       <c r="G127" s="201"/>
       <c r="H127" s="212"/>
       <c r="I127" s="195"/>
@@ -8193,74 +8233,52 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="150">
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="D83:D88"/>
     <mergeCell ref="A126:F126"/>
     <mergeCell ref="A127:F127"/>
     <mergeCell ref="A123:F123"/>
@@ -8285,9 +8303,77 @@
     <mergeCell ref="D98:D101"/>
     <mergeCell ref="E98:E101"/>
     <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="C102:C104"/>
     <mergeCell ref="C61:C67"/>
     <mergeCell ref="D61:D67"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="A107:A112"/>
     <mergeCell ref="E61:E67"/>
     <mergeCell ref="E91:E94"/>
     <mergeCell ref="C83:C88"/>
@@ -8297,52 +8383,6 @@
     <mergeCell ref="B61:B67"/>
     <mergeCell ref="A61:A67"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8375,93 +8415,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="516" t="s">
+      <c r="A1" s="528" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
+      <c r="B1" s="528"/>
+      <c r="C1" s="528"/>
+      <c r="D1" s="528"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="517" t="s">
+      <c r="A2" s="529" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="517"/>
-      <c r="C2" s="517"/>
-      <c r="D2" s="517"/>
+      <c r="B2" s="529"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="529"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="518" t="s">
+      <c r="A3" s="530" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="518"/>
-      <c r="C3" s="518"/>
-      <c r="D3" s="518"/>
-      <c r="E3" s="518"/>
-      <c r="F3" s="518"/>
-      <c r="G3" s="518"/>
-      <c r="H3" s="518"/>
-      <c r="I3" s="518"/>
-      <c r="J3" s="518"/>
-      <c r="K3" s="518"/>
-      <c r="L3" s="518"/>
-      <c r="M3" s="518"/>
-      <c r="N3" s="518"/>
+      <c r="B3" s="530"/>
+      <c r="C3" s="530"/>
+      <c r="D3" s="530"/>
+      <c r="E3" s="530"/>
+      <c r="F3" s="530"/>
+      <c r="G3" s="530"/>
+      <c r="H3" s="530"/>
+      <c r="I3" s="530"/>
+      <c r="J3" s="530"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="530"/>
+      <c r="M3" s="530"/>
+      <c r="N3" s="530"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="519" t="s">
+      <c r="A4" s="531" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="519"/>
-      <c r="C4" s="519"/>
-      <c r="D4" s="519"/>
-      <c r="E4" s="519"/>
-      <c r="F4" s="519"/>
-      <c r="G4" s="519"/>
-      <c r="H4" s="519"/>
-      <c r="I4" s="520"/>
-      <c r="J4" s="519"/>
-      <c r="K4" s="519"/>
-      <c r="L4" s="519"/>
-      <c r="M4" s="519"/>
-      <c r="N4" s="519"/>
+      <c r="B4" s="531"/>
+      <c r="C4" s="531"/>
+      <c r="D4" s="531"/>
+      <c r="E4" s="531"/>
+      <c r="F4" s="531"/>
+      <c r="G4" s="531"/>
+      <c r="H4" s="531"/>
+      <c r="I4" s="532"/>
+      <c r="J4" s="531"/>
+      <c r="K4" s="531"/>
+      <c r="L4" s="531"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="531"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="521" t="s">
+      <c r="A5" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="527" t="s">
+      <c r="B5" s="524" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="522" t="s">
+      <c r="C5" s="519" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="403" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="528" t="s">
+      <c r="E5" s="525" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="528"/>
-      <c r="G5" s="528"/>
-      <c r="H5" s="528"/>
-      <c r="I5" s="529"/>
-      <c r="J5" s="530" t="s">
+      <c r="F5" s="525"/>
+      <c r="G5" s="525"/>
+      <c r="H5" s="525"/>
+      <c r="I5" s="526"/>
+      <c r="J5" s="527" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="528" t="s">
+      <c r="K5" s="525" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="528"/>
-      <c r="M5" s="528"/>
-      <c r="N5" s="522" t="s">
+      <c r="L5" s="525"/>
+      <c r="M5" s="525"/>
+      <c r="N5" s="519" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="521"/>
-      <c r="B6" s="527"/>
-      <c r="C6" s="522"/>
+      <c r="A6" s="533"/>
+      <c r="B6" s="524"/>
+      <c r="C6" s="519"/>
       <c r="D6" s="403" t="s">
         <v>41</v>
       </c>
@@ -8480,7 +8520,7 @@
       <c r="I6" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="530"/>
+      <c r="J6" s="527"/>
       <c r="K6" s="403" t="s">
         <v>45</v>
       </c>
@@ -8490,7 +8530,7 @@
       <c r="M6" s="403" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="522"/>
+      <c r="N6" s="519"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="273">
@@ -8534,10 +8574,10 @@
       <c r="N7" s="412"/>
     </row>
     <row r="8" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="468"/>
-      <c r="B8" s="474"/>
-      <c r="C8" s="513"/>
-      <c r="D8" s="513"/>
+      <c r="A8" s="474"/>
+      <c r="B8" s="480"/>
+      <c r="C8" s="485"/>
+      <c r="D8" s="485"/>
       <c r="E8" s="349"/>
       <c r="F8" s="349"/>
       <c r="G8" s="290"/>
@@ -8551,10 +8591,10 @@
       <c r="Q8" s="294"/>
     </row>
     <row r="9" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="477"/>
-      <c r="B9" s="475"/>
-      <c r="C9" s="514"/>
-      <c r="D9" s="514"/>
+      <c r="A9" s="478"/>
+      <c r="B9" s="481"/>
+      <c r="C9" s="486"/>
+      <c r="D9" s="486"/>
       <c r="E9" s="350"/>
       <c r="F9" s="350"/>
       <c r="G9" s="292"/>
@@ -8568,10 +8608,10 @@
       <c r="Q9" s="294"/>
     </row>
     <row r="10" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="477"/>
-      <c r="B10" s="475"/>
-      <c r="C10" s="514"/>
-      <c r="D10" s="514"/>
+      <c r="A10" s="478"/>
+      <c r="B10" s="481"/>
+      <c r="C10" s="486"/>
+      <c r="D10" s="486"/>
       <c r="E10" s="350"/>
       <c r="F10" s="350"/>
       <c r="G10" s="292"/>
@@ -8585,10 +8625,10 @@
       <c r="Q10" s="294"/>
     </row>
     <row r="11" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="477"/>
-      <c r="B11" s="475"/>
-      <c r="C11" s="514"/>
-      <c r="D11" s="514"/>
+      <c r="A11" s="478"/>
+      <c r="B11" s="481"/>
+      <c r="C11" s="486"/>
+      <c r="D11" s="486"/>
       <c r="E11" s="350"/>
       <c r="F11" s="350"/>
       <c r="G11" s="292"/>
@@ -8602,10 +8642,10 @@
       <c r="Q11" s="294"/>
     </row>
     <row r="12" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="477"/>
-      <c r="B12" s="475"/>
-      <c r="C12" s="514"/>
-      <c r="D12" s="514"/>
+      <c r="A12" s="478"/>
+      <c r="B12" s="481"/>
+      <c r="C12" s="486"/>
+      <c r="D12" s="486"/>
       <c r="E12" s="350"/>
       <c r="F12" s="350"/>
       <c r="G12" s="292"/>
@@ -8619,10 +8659,10 @@
       <c r="Q12" s="294"/>
     </row>
     <row r="13" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="477"/>
-      <c r="B13" s="475"/>
-      <c r="C13" s="514"/>
-      <c r="D13" s="514"/>
+      <c r="A13" s="478"/>
+      <c r="B13" s="481"/>
+      <c r="C13" s="486"/>
+      <c r="D13" s="486"/>
       <c r="E13" s="350"/>
       <c r="F13" s="350"/>
       <c r="G13" s="292"/>
@@ -8636,10 +8676,10 @@
       <c r="Q13" s="294"/>
     </row>
     <row r="14" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="477"/>
-      <c r="B14" s="475"/>
-      <c r="C14" s="514"/>
-      <c r="D14" s="514"/>
+      <c r="A14" s="478"/>
+      <c r="B14" s="481"/>
+      <c r="C14" s="486"/>
+      <c r="D14" s="486"/>
       <c r="E14" s="350"/>
       <c r="F14" s="350"/>
       <c r="G14" s="292"/>
@@ -8653,10 +8693,10 @@
       <c r="Q14" s="294"/>
     </row>
     <row r="15" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="469"/>
-      <c r="B15" s="476"/>
-      <c r="C15" s="515"/>
-      <c r="D15" s="515"/>
+      <c r="A15" s="475"/>
+      <c r="B15" s="482"/>
+      <c r="C15" s="487"/>
+      <c r="D15" s="487"/>
       <c r="E15" s="351"/>
       <c r="F15" s="351"/>
       <c r="G15" s="295"/>
@@ -8687,10 +8727,10 @@
       <c r="Q16" s="294"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="468"/>
-      <c r="B17" s="474"/>
-      <c r="C17" s="468"/>
-      <c r="D17" s="468"/>
+      <c r="A17" s="474"/>
+      <c r="B17" s="480"/>
+      <c r="C17" s="474"/>
+      <c r="D17" s="474"/>
       <c r="E17" s="277"/>
       <c r="F17" s="277"/>
       <c r="G17" s="414"/>
@@ -8703,10 +8743,10 @@
       <c r="N17" s="318"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="469"/>
-      <c r="B18" s="476"/>
-      <c r="C18" s="469"/>
-      <c r="D18" s="469"/>
+      <c r="A18" s="475"/>
+      <c r="B18" s="482"/>
+      <c r="C18" s="475"/>
+      <c r="D18" s="475"/>
       <c r="E18" s="276"/>
       <c r="F18" s="276"/>
       <c r="G18" s="416"/>
@@ -8751,10 +8791,10 @@
       <c r="N20" s="274"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="523"/>
-      <c r="B21" s="525"/>
-      <c r="C21" s="523"/>
-      <c r="D21" s="523"/>
+      <c r="A21" s="520"/>
+      <c r="B21" s="522"/>
+      <c r="C21" s="520"/>
+      <c r="D21" s="520"/>
       <c r="E21" s="274"/>
       <c r="F21" s="274"/>
       <c r="G21" s="424"/>
@@ -8767,10 +8807,10 @@
       <c r="N21" s="274"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="524"/>
-      <c r="B22" s="526"/>
-      <c r="C22" s="524"/>
-      <c r="D22" s="524"/>
+      <c r="A22" s="521"/>
+      <c r="B22" s="523"/>
+      <c r="C22" s="521"/>
+      <c r="D22" s="521"/>
       <c r="E22" s="274"/>
       <c r="F22" s="274"/>
       <c r="G22" s="424"/>
@@ -8831,10 +8871,10 @@
       <c r="N25" s="317"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="468"/>
-      <c r="B26" s="474"/>
-      <c r="C26" s="468"/>
-      <c r="D26" s="468"/>
+      <c r="A26" s="474"/>
+      <c r="B26" s="480"/>
+      <c r="C26" s="474"/>
+      <c r="D26" s="474"/>
       <c r="E26" s="277"/>
       <c r="F26" s="277"/>
       <c r="G26" s="414"/>
@@ -8847,10 +8887,10 @@
       <c r="N26" s="318"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="477"/>
-      <c r="B27" s="475"/>
-      <c r="C27" s="477"/>
-      <c r="D27" s="477"/>
+      <c r="A27" s="478"/>
+      <c r="B27" s="481"/>
+      <c r="C27" s="478"/>
+      <c r="D27" s="478"/>
       <c r="E27" s="274"/>
       <c r="F27" s="274"/>
       <c r="G27" s="424"/>
@@ -8863,10 +8903,10 @@
       <c r="N27" s="328"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="469"/>
-      <c r="B28" s="476"/>
-      <c r="C28" s="469"/>
-      <c r="D28" s="469"/>
+      <c r="A28" s="475"/>
+      <c r="B28" s="482"/>
+      <c r="C28" s="475"/>
+      <c r="D28" s="475"/>
       <c r="E28" s="276"/>
       <c r="F28" s="276"/>
       <c r="G28" s="416"/>
@@ -8879,10 +8919,10 @@
       <c r="N28" s="317"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="468"/>
-      <c r="B29" s="474"/>
-      <c r="C29" s="468"/>
-      <c r="D29" s="468"/>
+      <c r="A29" s="474"/>
+      <c r="B29" s="480"/>
+      <c r="C29" s="474"/>
+      <c r="D29" s="474"/>
       <c r="E29" s="277"/>
       <c r="F29" s="277"/>
       <c r="G29" s="414"/>
@@ -8895,10 +8935,10 @@
       <c r="N29" s="318"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="477"/>
-      <c r="B30" s="475"/>
-      <c r="C30" s="477"/>
-      <c r="D30" s="477"/>
+      <c r="A30" s="478"/>
+      <c r="B30" s="481"/>
+      <c r="C30" s="478"/>
+      <c r="D30" s="478"/>
       <c r="E30" s="274"/>
       <c r="F30" s="274"/>
       <c r="G30" s="424"/>
@@ -8911,10 +8951,10 @@
       <c r="N30" s="328"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="477"/>
-      <c r="B31" s="475"/>
-      <c r="C31" s="477"/>
-      <c r="D31" s="477"/>
+      <c r="A31" s="478"/>
+      <c r="B31" s="481"/>
+      <c r="C31" s="478"/>
+      <c r="D31" s="478"/>
       <c r="E31" s="274"/>
       <c r="F31" s="274"/>
       <c r="G31" s="424"/>
@@ -8927,10 +8967,10 @@
       <c r="N31" s="328"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="469"/>
-      <c r="B32" s="476"/>
-      <c r="C32" s="469"/>
-      <c r="D32" s="469"/>
+      <c r="A32" s="475"/>
+      <c r="B32" s="482"/>
+      <c r="C32" s="475"/>
+      <c r="D32" s="475"/>
       <c r="E32" s="276"/>
       <c r="F32" s="276"/>
       <c r="G32" s="416"/>
@@ -9007,10 +9047,10 @@
       <c r="N36" s="331"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="468"/>
-      <c r="B37" s="474"/>
-      <c r="C37" s="468"/>
-      <c r="D37" s="468"/>
+      <c r="A37" s="474"/>
+      <c r="B37" s="480"/>
+      <c r="C37" s="474"/>
+      <c r="D37" s="474"/>
       <c r="E37" s="277"/>
       <c r="F37" s="277"/>
       <c r="G37" s="414"/>
@@ -9023,10 +9063,10 @@
       <c r="N37" s="318"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="469"/>
-      <c r="B38" s="476"/>
-      <c r="C38" s="469"/>
-      <c r="D38" s="469"/>
+      <c r="A38" s="475"/>
+      <c r="B38" s="482"/>
+      <c r="C38" s="475"/>
+      <c r="D38" s="475"/>
       <c r="E38" s="276"/>
       <c r="F38" s="276"/>
       <c r="G38" s="416"/>
@@ -9071,12 +9111,12 @@
       <c r="N40" s="331"/>
     </row>
     <row r="41" spans="1:14" s="442" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="531" t="s">
+      <c r="A41" s="518" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="531"/>
-      <c r="C41" s="531"/>
-      <c r="D41" s="531"/>
+      <c r="B41" s="518"/>
+      <c r="C41" s="518"/>
+      <c r="D41" s="518"/>
       <c r="E41" s="438"/>
       <c r="F41" s="438">
         <f>SUM(F7:F40)</f>
@@ -9164,26 +9204,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B26:B28"/>
@@ -9200,6 +9220,26 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9288,14 +9328,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="532" t="s">
+      <c r="A4" s="534" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="532"/>
-      <c r="C4" s="532"/>
-      <c r="D4" s="532"/>
-      <c r="E4" s="532"/>
-      <c r="F4" s="532"/>
+      <c r="B4" s="534"/>
+      <c r="C4" s="534"/>
+      <c r="D4" s="534"/>
+      <c r="E4" s="534"/>
+      <c r="F4" s="534"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -9309,14 +9349,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="533" t="s">
+      <c r="A5" s="535" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="533"/>
-      <c r="C5" s="533"/>
-      <c r="D5" s="533"/>
-      <c r="E5" s="533"/>
-      <c r="F5" s="533"/>
+      <c r="B5" s="535"/>
+      <c r="C5" s="535"/>
+      <c r="D5" s="535"/>
+      <c r="E5" s="535"/>
+      <c r="F5" s="535"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -9663,10 +9703,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="534" t="s">
+      <c r="A25" s="536" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="534"/>
+      <c r="B25" s="536"/>
       <c r="C25" s="31"/>
       <c r="D25" s="142">
         <f>C24-D24</f>
@@ -9745,13 +9785,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="553" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="572"/>
-      <c r="C1" s="572"/>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
+      <c r="B1" s="553"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9771,99 +9811,99 @@
       <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="542" t="s">
+      <c r="A3" s="554" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="542"/>
-      <c r="C3" s="542"/>
-      <c r="D3" s="542"/>
-      <c r="E3" s="542"/>
-      <c r="F3" s="542"/>
-      <c r="G3" s="542"/>
-      <c r="H3" s="542"/>
-      <c r="I3" s="542"/>
-      <c r="J3" s="542"/>
-      <c r="K3" s="542"/>
-      <c r="L3" s="542"/>
+      <c r="B3" s="554"/>
+      <c r="C3" s="554"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="554"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="554"/>
+      <c r="I3" s="554"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="554"/>
+      <c r="L3" s="554"/>
     </row>
     <row r="4" spans="1:12" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="541" t="s">
+      <c r="A4" s="555" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="565" t="s">
+      <c r="B4" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="541" t="s">
+      <c r="C4" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="541" t="s">
+      <c r="D4" s="555" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="541"/>
-      <c r="F4" s="540" t="s">
+      <c r="E4" s="555"/>
+      <c r="F4" s="558" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="540"/>
-      <c r="H4" s="540"/>
-      <c r="I4" s="540"/>
-      <c r="J4" s="540"/>
-      <c r="K4" s="540"/>
-      <c r="L4" s="540"/>
+      <c r="G4" s="558"/>
+      <c r="H4" s="558"/>
+      <c r="I4" s="558"/>
+      <c r="J4" s="558"/>
+      <c r="K4" s="558"/>
+      <c r="L4" s="558"/>
     </row>
     <row r="5" spans="1:12" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="541"/>
-      <c r="B5" s="565"/>
-      <c r="C5" s="541"/>
-      <c r="D5" s="541" t="s">
+      <c r="A5" s="555"/>
+      <c r="B5" s="559"/>
+      <c r="C5" s="555"/>
+      <c r="D5" s="555" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="541" t="s">
+      <c r="E5" s="555" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="541" t="s">
+      <c r="F5" s="555" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="541" t="s">
+      <c r="G5" s="555" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="544" t="s">
+      <c r="H5" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="544" t="s">
+      <c r="I5" s="556" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="543" t="s">
+      <c r="J5" s="557" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="543"/>
-      <c r="L5" s="544" t="s">
+      <c r="K5" s="557"/>
+      <c r="L5" s="556" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="541"/>
-      <c r="B6" s="565"/>
-      <c r="C6" s="541"/>
-      <c r="D6" s="541"/>
-      <c r="E6" s="541"/>
-      <c r="F6" s="541"/>
-      <c r="G6" s="541"/>
-      <c r="H6" s="544"/>
-      <c r="I6" s="544"/>
+      <c r="A6" s="555"/>
+      <c r="B6" s="559"/>
+      <c r="C6" s="555"/>
+      <c r="D6" s="555"/>
+      <c r="E6" s="555"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="555"/>
+      <c r="H6" s="556"/>
+      <c r="I6" s="556"/>
       <c r="J6" s="93" t="s">
         <v>82</v>
       </c>
       <c r="K6" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="544"/>
+      <c r="L6" s="556"/>
     </row>
     <row r="7" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="557"/>
-      <c r="B7" s="559"/>
-      <c r="C7" s="557"/>
-      <c r="D7" s="557"/>
-      <c r="E7" s="557"/>
+      <c r="A7" s="560"/>
+      <c r="B7" s="563"/>
+      <c r="C7" s="560"/>
+      <c r="D7" s="560"/>
+      <c r="E7" s="560"/>
       <c r="F7" s="224"/>
       <c r="G7" s="224"/>
       <c r="H7" s="204"/>
@@ -9873,11 +9913,11 @@
       <c r="L7" s="204"/>
     </row>
     <row r="8" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="566"/>
-      <c r="B8" s="567"/>
-      <c r="C8" s="566"/>
-      <c r="D8" s="566"/>
-      <c r="E8" s="566"/>
+      <c r="A8" s="561"/>
+      <c r="B8" s="564"/>
+      <c r="C8" s="561"/>
+      <c r="D8" s="561"/>
+      <c r="E8" s="561"/>
       <c r="F8" s="225"/>
       <c r="G8" s="225"/>
       <c r="H8" s="206"/>
@@ -9887,11 +9927,11 @@
       <c r="L8" s="206"/>
     </row>
     <row r="9" spans="1:12" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="566"/>
-      <c r="B9" s="567"/>
-      <c r="C9" s="566"/>
-      <c r="D9" s="566"/>
-      <c r="E9" s="566"/>
+      <c r="A9" s="561"/>
+      <c r="B9" s="564"/>
+      <c r="C9" s="561"/>
+      <c r="D9" s="561"/>
+      <c r="E9" s="561"/>
       <c r="F9" s="225"/>
       <c r="G9" s="225"/>
       <c r="H9" s="206"/>
@@ -9901,11 +9941,11 @@
       <c r="L9" s="206"/>
     </row>
     <row r="10" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="558"/>
-      <c r="B10" s="560"/>
-      <c r="C10" s="558"/>
-      <c r="D10" s="558"/>
-      <c r="E10" s="558"/>
+      <c r="A10" s="562"/>
+      <c r="B10" s="565"/>
+      <c r="C10" s="562"/>
+      <c r="D10" s="562"/>
+      <c r="E10" s="562"/>
       <c r="F10" s="226"/>
       <c r="G10" s="226"/>
       <c r="H10" s="208"/>
@@ -9929,11 +9969,11 @@
       <c r="L11" s="210"/>
     </row>
     <row r="12" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="563"/>
+      <c r="A12" s="566"/>
       <c r="B12" s="568"/>
-      <c r="C12" s="563"/>
+      <c r="C12" s="566"/>
       <c r="D12" s="570"/>
-      <c r="E12" s="563"/>
+      <c r="E12" s="566"/>
       <c r="H12" s="213"/>
       <c r="I12" s="213"/>
       <c r="J12" s="213"/>
@@ -9941,11 +9981,11 @@
       <c r="L12" s="213"/>
     </row>
     <row r="13" spans="1:12" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="564"/>
+      <c r="A13" s="567"/>
       <c r="B13" s="569"/>
-      <c r="C13" s="564"/>
+      <c r="C13" s="567"/>
       <c r="D13" s="571"/>
-      <c r="E13" s="564"/>
+      <c r="E13" s="567"/>
       <c r="F13" s="228"/>
       <c r="G13" s="228"/>
       <c r="H13" s="215"/>
@@ -9955,14 +9995,14 @@
       <c r="L13" s="215"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="547" t="s">
+      <c r="A14" s="544" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="548"/>
-      <c r="C14" s="548"/>
-      <c r="D14" s="548"/>
-      <c r="E14" s="548"/>
-      <c r="F14" s="549"/>
+      <c r="B14" s="545"/>
+      <c r="C14" s="545"/>
+      <c r="D14" s="545"/>
+      <c r="E14" s="545"/>
+      <c r="F14" s="546"/>
       <c r="G14" s="234">
         <f>SUM(G7:G13)</f>
         <v>0</v>
@@ -10008,99 +10048,99 @@
       <c r="L16" s="256"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="542" t="s">
+      <c r="A17" s="554" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="542"/>
-      <c r="C17" s="542"/>
-      <c r="D17" s="542"/>
-      <c r="E17" s="542"/>
-      <c r="F17" s="542"/>
-      <c r="G17" s="542"/>
-      <c r="H17" s="542"/>
-      <c r="I17" s="542"/>
-      <c r="J17" s="542"/>
-      <c r="K17" s="542"/>
-      <c r="L17" s="542"/>
+      <c r="B17" s="554"/>
+      <c r="C17" s="554"/>
+      <c r="D17" s="554"/>
+      <c r="E17" s="554"/>
+      <c r="F17" s="554"/>
+      <c r="G17" s="554"/>
+      <c r="H17" s="554"/>
+      <c r="I17" s="554"/>
+      <c r="J17" s="554"/>
+      <c r="K17" s="554"/>
+      <c r="L17" s="554"/>
     </row>
     <row r="18" spans="1:13" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="541" t="s">
+      <c r="A18" s="555" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="565" t="s">
+      <c r="B18" s="559" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="541" t="s">
+      <c r="C18" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="541" t="s">
+      <c r="D18" s="555" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="541"/>
-      <c r="F18" s="540" t="s">
+      <c r="E18" s="555"/>
+      <c r="F18" s="558" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="540"/>
-      <c r="H18" s="540"/>
-      <c r="I18" s="540"/>
-      <c r="J18" s="540"/>
-      <c r="K18" s="540"/>
-      <c r="L18" s="540"/>
+      <c r="G18" s="558"/>
+      <c r="H18" s="558"/>
+      <c r="I18" s="558"/>
+      <c r="J18" s="558"/>
+      <c r="K18" s="558"/>
+      <c r="L18" s="558"/>
     </row>
     <row r="19" spans="1:13" s="90" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="541"/>
-      <c r="B19" s="565"/>
-      <c r="C19" s="541"/>
-      <c r="D19" s="541" t="s">
+      <c r="A19" s="555"/>
+      <c r="B19" s="559"/>
+      <c r="C19" s="555"/>
+      <c r="D19" s="555" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="541" t="s">
+      <c r="E19" s="555" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="541" t="s">
+      <c r="F19" s="555" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="541" t="s">
+      <c r="G19" s="555" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="544" t="s">
+      <c r="H19" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="544" t="s">
+      <c r="I19" s="556" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="543" t="s">
+      <c r="J19" s="557" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="543"/>
-      <c r="L19" s="544" t="s">
+      <c r="K19" s="557"/>
+      <c r="L19" s="556" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="541"/>
-      <c r="B20" s="565"/>
-      <c r="C20" s="541"/>
-      <c r="D20" s="541"/>
-      <c r="E20" s="541"/>
-      <c r="F20" s="541"/>
-      <c r="G20" s="541"/>
-      <c r="H20" s="544"/>
-      <c r="I20" s="544"/>
+      <c r="A20" s="555"/>
+      <c r="B20" s="559"/>
+      <c r="C20" s="555"/>
+      <c r="D20" s="555"/>
+      <c r="E20" s="555"/>
+      <c r="F20" s="555"/>
+      <c r="G20" s="555"/>
+      <c r="H20" s="556"/>
+      <c r="I20" s="556"/>
       <c r="J20" s="230" t="s">
         <v>82</v>
       </c>
       <c r="K20" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="544"/>
+      <c r="L20" s="556"/>
     </row>
     <row r="21" spans="1:13" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="557"/>
-      <c r="B21" s="559"/>
-      <c r="C21" s="557"/>
-      <c r="D21" s="561"/>
-      <c r="E21" s="557"/>
+      <c r="A21" s="560"/>
+      <c r="B21" s="563"/>
+      <c r="C21" s="560"/>
+      <c r="D21" s="572"/>
+      <c r="E21" s="560"/>
       <c r="F21" s="224"/>
       <c r="G21" s="224"/>
       <c r="H21" s="204"/>
@@ -10111,11 +10151,11 @@
       <c r="M21" s="193"/>
     </row>
     <row r="22" spans="1:13" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="558"/>
-      <c r="B22" s="560"/>
-      <c r="C22" s="558"/>
-      <c r="D22" s="562"/>
-      <c r="E22" s="558"/>
+      <c r="A22" s="562"/>
+      <c r="B22" s="565"/>
+      <c r="C22" s="562"/>
+      <c r="D22" s="573"/>
+      <c r="E22" s="562"/>
       <c r="F22" s="226"/>
       <c r="G22" s="226"/>
       <c r="H22" s="208"/>
@@ -10134,19 +10174,19 @@
       <c r="F23" s="236"/>
       <c r="G23" s="236"/>
       <c r="H23" s="236"/>
-      <c r="I23" s="546"/>
-      <c r="J23" s="546"/>
-      <c r="K23" s="546"/>
+      <c r="I23" s="574"/>
+      <c r="J23" s="574"/>
+      <c r="K23" s="574"/>
       <c r="L23" s="399"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="547" t="s">
+      <c r="A24" s="544" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="548"/>
-      <c r="C24" s="548"/>
-      <c r="D24" s="548"/>
-      <c r="E24" s="549"/>
+      <c r="B24" s="545"/>
+      <c r="C24" s="545"/>
+      <c r="D24" s="545"/>
+      <c r="E24" s="546"/>
       <c r="F24" s="239"/>
       <c r="G24" s="239">
         <f>SUM(G21:G23)</f>
@@ -10179,92 +10219,92 @@
       <c r="L25" s="255"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="542" t="s">
+      <c r="A26" s="554" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="542"/>
-      <c r="C26" s="542"/>
-      <c r="D26" s="542"/>
-      <c r="E26" s="542"/>
-      <c r="F26" s="542"/>
-      <c r="G26" s="542"/>
-      <c r="H26" s="542"/>
-      <c r="I26" s="542"/>
-      <c r="J26" s="542"/>
-      <c r="K26" s="542"/>
-      <c r="L26" s="542"/>
+      <c r="B26" s="554"/>
+      <c r="C26" s="554"/>
+      <c r="D26" s="554"/>
+      <c r="E26" s="554"/>
+      <c r="F26" s="554"/>
+      <c r="G26" s="554"/>
+      <c r="H26" s="554"/>
+      <c r="I26" s="554"/>
+      <c r="J26" s="554"/>
+      <c r="K26" s="554"/>
+      <c r="L26" s="554"/>
     </row>
     <row r="27" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="541" t="s">
+      <c r="A27" s="555" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="545" t="s">
+      <c r="B27" s="580" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="541" t="s">
+      <c r="C27" s="555" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="541" t="s">
+      <c r="D27" s="555" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="541"/>
-      <c r="F27" s="540" t="s">
+      <c r="E27" s="555"/>
+      <c r="F27" s="558" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="540"/>
-      <c r="H27" s="540"/>
-      <c r="I27" s="540"/>
-      <c r="J27" s="540"/>
-      <c r="K27" s="540"/>
-      <c r="L27" s="540"/>
+      <c r="G27" s="558"/>
+      <c r="H27" s="558"/>
+      <c r="I27" s="558"/>
+      <c r="J27" s="558"/>
+      <c r="K27" s="558"/>
+      <c r="L27" s="558"/>
     </row>
     <row r="28" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="541"/>
-      <c r="B28" s="545"/>
-      <c r="C28" s="541"/>
-      <c r="D28" s="541" t="s">
+      <c r="A28" s="555"/>
+      <c r="B28" s="580"/>
+      <c r="C28" s="555"/>
+      <c r="D28" s="555" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="541" t="s">
+      <c r="E28" s="555" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="541" t="s">
+      <c r="F28" s="555" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="541" t="s">
+      <c r="G28" s="555" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="544" t="s">
+      <c r="H28" s="556" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="544" t="s">
+      <c r="I28" s="556" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="543" t="s">
+      <c r="J28" s="557" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="543"/>
-      <c r="L28" s="544" t="s">
+      <c r="K28" s="557"/>
+      <c r="L28" s="556" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="541"/>
-      <c r="B29" s="545"/>
-      <c r="C29" s="541"/>
-      <c r="D29" s="541"/>
-      <c r="E29" s="541"/>
-      <c r="F29" s="541"/>
-      <c r="G29" s="541"/>
-      <c r="H29" s="544"/>
-      <c r="I29" s="544"/>
+      <c r="A29" s="555"/>
+      <c r="B29" s="580"/>
+      <c r="C29" s="555"/>
+      <c r="D29" s="555"/>
+      <c r="E29" s="555"/>
+      <c r="F29" s="555"/>
+      <c r="G29" s="555"/>
+      <c r="H29" s="556"/>
+      <c r="I29" s="556"/>
       <c r="J29" s="264" t="s">
         <v>82</v>
       </c>
       <c r="K29" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="544"/>
+      <c r="L29" s="556"/>
     </row>
     <row r="30" spans="1:13" s="192" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="135"/>
@@ -10298,11 +10338,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="242" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="542" t="s">
+      <c r="A32" s="554" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="542"/>
-      <c r="C32" s="542"/>
+      <c r="B32" s="554"/>
+      <c r="C32" s="554"/>
       <c r="D32" s="252"/>
       <c r="E32" s="252"/>
       <c r="F32" s="252"/>
@@ -10315,225 +10355,225 @@
       <c r="A33" s="229"/>
       <c r="B33" s="229"/>
       <c r="C33" s="229"/>
-      <c r="D33" s="554" t="s">
+      <c r="D33" s="577" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="555"/>
-      <c r="F33" s="555"/>
-      <c r="G33" s="555"/>
-      <c r="H33" s="555"/>
-      <c r="I33" s="556"/>
-      <c r="J33" s="552" t="s">
+      <c r="E33" s="578"/>
+      <c r="F33" s="578"/>
+      <c r="G33" s="578"/>
+      <c r="H33" s="578"/>
+      <c r="I33" s="579"/>
+      <c r="J33" s="575" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="553"/>
+      <c r="K33" s="576"/>
       <c r="L33" s="241"/>
     </row>
     <row r="34" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="229"/>
       <c r="B34" s="229"/>
       <c r="C34" s="229"/>
-      <c r="D34" s="535" t="s">
+      <c r="D34" s="541" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="536"/>
-      <c r="F34" s="536"/>
-      <c r="G34" s="536"/>
-      <c r="H34" s="536"/>
-      <c r="I34" s="537"/>
-      <c r="J34" s="538">
+      <c r="E34" s="542"/>
+      <c r="F34" s="542"/>
+      <c r="G34" s="542"/>
+      <c r="H34" s="542"/>
+      <c r="I34" s="543"/>
+      <c r="J34" s="549">
         <v>550415</v>
       </c>
-      <c r="K34" s="539"/>
+      <c r="K34" s="550"/>
       <c r="L34" s="241"/>
     </row>
     <row r="35" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="229"/>
       <c r="B35" s="229"/>
       <c r="C35" s="229"/>
-      <c r="D35" s="535" t="s">
+      <c r="D35" s="541" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="536"/>
-      <c r="F35" s="536"/>
-      <c r="G35" s="536"/>
-      <c r="H35" s="536"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="538">
+      <c r="E35" s="542"/>
+      <c r="F35" s="542"/>
+      <c r="G35" s="542"/>
+      <c r="H35" s="542"/>
+      <c r="I35" s="543"/>
+      <c r="J35" s="549">
         <f>L14</f>
         <v>0</v>
       </c>
-      <c r="K35" s="539"/>
+      <c r="K35" s="550"/>
       <c r="L35" s="241"/>
     </row>
     <row r="36" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="229"/>
       <c r="B36" s="229"/>
       <c r="C36" s="229"/>
-      <c r="D36" s="535" t="s">
+      <c r="D36" s="541" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="536"/>
-      <c r="F36" s="536"/>
-      <c r="G36" s="536"/>
-      <c r="H36" s="536"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538">
+      <c r="E36" s="542"/>
+      <c r="F36" s="542"/>
+      <c r="G36" s="542"/>
+      <c r="H36" s="542"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="549">
         <f>L24</f>
         <v>0</v>
       </c>
-      <c r="K36" s="539"/>
+      <c r="K36" s="550"/>
       <c r="N36" s="243"/>
     </row>
     <row r="37" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="263"/>
       <c r="B37" s="263"/>
       <c r="C37" s="263"/>
-      <c r="D37" s="535" t="s">
+      <c r="D37" s="541" t="s">
         <v>189</v>
       </c>
-      <c r="E37" s="536"/>
-      <c r="F37" s="536"/>
-      <c r="G37" s="536"/>
-      <c r="H37" s="536"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="538">
+      <c r="E37" s="542"/>
+      <c r="F37" s="542"/>
+      <c r="G37" s="542"/>
+      <c r="H37" s="542"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="549">
         <f>L31</f>
         <v>0</v>
       </c>
-      <c r="K37" s="539"/>
+      <c r="K37" s="550"/>
       <c r="N37" s="243"/>
     </row>
     <row r="38" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="262"/>
       <c r="B38" s="262"/>
       <c r="C38" s="262"/>
-      <c r="D38" s="535" t="s">
+      <c r="D38" s="541" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="536"/>
-      <c r="F38" s="536"/>
-      <c r="G38" s="536"/>
-      <c r="H38" s="536"/>
-      <c r="I38" s="537"/>
-      <c r="J38" s="538">
+      <c r="E38" s="542"/>
+      <c r="F38" s="542"/>
+      <c r="G38" s="542"/>
+      <c r="H38" s="542"/>
+      <c r="I38" s="543"/>
+      <c r="J38" s="549">
         <v>5000000</v>
       </c>
-      <c r="K38" s="539"/>
+      <c r="K38" s="550"/>
       <c r="N38" s="243"/>
     </row>
     <row r="39" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="262"/>
       <c r="B39" s="262"/>
       <c r="C39" s="262"/>
-      <c r="D39" s="547" t="s">
+      <c r="D39" s="544" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="548"/>
-      <c r="F39" s="548"/>
-      <c r="G39" s="548"/>
-      <c r="H39" s="548"/>
-      <c r="I39" s="549"/>
-      <c r="J39" s="550">
+      <c r="E39" s="545"/>
+      <c r="F39" s="545"/>
+      <c r="G39" s="545"/>
+      <c r="H39" s="545"/>
+      <c r="I39" s="546"/>
+      <c r="J39" s="551">
         <f>SUM(J34:K38)</f>
         <v>5550415</v>
       </c>
-      <c r="K39" s="551"/>
+      <c r="K39" s="552"/>
       <c r="N39" s="243"/>
     </row>
     <row r="40" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="229"/>
       <c r="B40" s="229"/>
       <c r="C40" s="229"/>
-      <c r="D40" s="535" t="s">
+      <c r="D40" s="541" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="536"/>
-      <c r="F40" s="536"/>
-      <c r="G40" s="536"/>
-      <c r="H40" s="536"/>
-      <c r="I40" s="537"/>
-      <c r="J40" s="538" t="e">
+      <c r="E40" s="542"/>
+      <c r="F40" s="542"/>
+      <c r="G40" s="542"/>
+      <c r="H40" s="542"/>
+      <c r="I40" s="543"/>
+      <c r="J40" s="549" t="e">
         <f>'Bảng lương'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="539"/>
+      <c r="K40" s="550"/>
       <c r="L40" s="241"/>
     </row>
     <row r="41" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="262"/>
       <c r="B41" s="262"/>
       <c r="C41" s="262"/>
-      <c r="D41" s="535" t="s">
+      <c r="D41" s="541" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="536"/>
-      <c r="F41" s="536"/>
-      <c r="G41" s="536"/>
-      <c r="H41" s="536"/>
-      <c r="I41" s="537"/>
-      <c r="J41" s="538">
+      <c r="E41" s="542"/>
+      <c r="F41" s="542"/>
+      <c r="G41" s="542"/>
+      <c r="H41" s="542"/>
+      <c r="I41" s="543"/>
+      <c r="J41" s="549">
         <f>'Chi phí văn phòng'!D9</f>
         <v>0</v>
       </c>
-      <c r="K41" s="539"/>
+      <c r="K41" s="550"/>
       <c r="L41" s="241"/>
     </row>
     <row r="42" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="262"/>
       <c r="B42" s="262"/>
       <c r="C42" s="262"/>
-      <c r="D42" s="535" t="s">
+      <c r="D42" s="541" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="536"/>
-      <c r="F42" s="536"/>
-      <c r="G42" s="536"/>
-      <c r="H42" s="536"/>
-      <c r="I42" s="537"/>
-      <c r="J42" s="538">
+      <c r="E42" s="542"/>
+      <c r="F42" s="542"/>
+      <c r="G42" s="542"/>
+      <c r="H42" s="542"/>
+      <c r="I42" s="543"/>
+      <c r="J42" s="549">
         <f>'Chi phí văn phòng'!D21</f>
         <v>0</v>
       </c>
-      <c r="K42" s="539"/>
+      <c r="K42" s="550"/>
       <c r="L42" s="241"/>
     </row>
     <row r="43" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="262"/>
       <c r="B43" s="262"/>
       <c r="C43" s="262"/>
-      <c r="D43" s="547" t="s">
+      <c r="D43" s="544" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="548"/>
-      <c r="F43" s="548"/>
-      <c r="G43" s="548"/>
-      <c r="H43" s="548"/>
-      <c r="I43" s="549"/>
-      <c r="J43" s="550" t="e">
+      <c r="E43" s="545"/>
+      <c r="F43" s="545"/>
+      <c r="G43" s="545"/>
+      <c r="H43" s="545"/>
+      <c r="I43" s="546"/>
+      <c r="J43" s="551" t="e">
         <f>SUM(J40:K42)</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="551"/>
+      <c r="K43" s="552"/>
       <c r="L43" s="241"/>
     </row>
     <row r="44" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="229"/>
       <c r="B44" s="229"/>
       <c r="C44" s="229"/>
-      <c r="D44" s="577" t="s">
+      <c r="D44" s="547" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="577"/>
-      <c r="F44" s="577"/>
-      <c r="G44" s="577"/>
-      <c r="H44" s="577"/>
-      <c r="I44" s="577"/>
-      <c r="J44" s="578" t="e">
+      <c r="E44" s="547"/>
+      <c r="F44" s="547"/>
+      <c r="G44" s="547"/>
+      <c r="H44" s="547"/>
+      <c r="I44" s="547"/>
+      <c r="J44" s="548" t="e">
         <f>J39-J43</f>
         <v>#REF!</v>
       </c>
-      <c r="K44" s="578"/>
+      <c r="K44" s="548"/>
     </row>
     <row r="45" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="262"/>
@@ -10543,14 +10583,14 @@
       <c r="E45" s="244"/>
       <c r="F45" s="244"/>
       <c r="G45" s="244"/>
-      <c r="H45" s="573" t="s">
+      <c r="H45" s="537" t="s">
         <v>178</v>
       </c>
-      <c r="I45" s="573"/>
-      <c r="J45" s="574">
+      <c r="I45" s="537"/>
+      <c r="J45" s="538">
         <v>2500000</v>
       </c>
-      <c r="K45" s="574"/>
+      <c r="K45" s="538"/>
     </row>
     <row r="46" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="258"/>
@@ -10560,58 +10600,86 @@
       <c r="E46" s="244"/>
       <c r="F46" s="244"/>
       <c r="G46" s="244"/>
-      <c r="H46" s="576" t="s">
+      <c r="H46" s="540" t="s">
         <v>179</v>
       </c>
-      <c r="I46" s="576"/>
-      <c r="J46" s="575" t="e">
+      <c r="I46" s="540"/>
+      <c r="J46" s="539" t="e">
         <f>J44+J45</f>
         <v>#REF!</v>
       </c>
-      <c r="K46" s="575"/>
+      <c r="K46" s="539"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="542" t="s">
+      <c r="B47" s="554" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="542"/>
-      <c r="D47" s="542"/>
+      <c r="C47" s="554"/>
+      <c r="D47" s="554"/>
       <c r="E47" s="82"/>
       <c r="F47" s="82"/>
       <c r="G47" s="82"/>
       <c r="H47" s="82"/>
-      <c r="I47" s="542" t="s">
+      <c r="I47" s="554" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="542"/>
+      <c r="J47" s="554"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="D4:E4"/>
@@ -10628,58 +10696,30 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10703,13 +10743,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="572" t="s">
+      <c r="B1" s="553" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="572"/>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
-      <c r="F1" s="572"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
+      <c r="F1" s="553"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
@@ -10729,11 +10769,11 @@
       <c r="J2" s="63"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="584" t="s">
+      <c r="B4" s="586" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="584"/>
-      <c r="D4" s="584"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="586"/>
       <c r="E4" s="147"/>
       <c r="F4" s="147"/>
     </row>
@@ -10747,11 +10787,11 @@
       <c r="F5" s="245"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="583" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="583"/>
+      <c r="C6" s="584"/>
+      <c r="D6" s="585"/>
       <c r="E6" s="245"/>
       <c r="F6" s="245"/>
     </row>
@@ -10759,8 +10799,8 @@
       <c r="B7" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="585"/>
-      <c r="D7" s="586"/>
+      <c r="C7" s="587"/>
+      <c r="D7" s="588"/>
       <c r="E7" s="245"/>
       <c r="F7" s="245"/>
     </row>
@@ -10851,11 +10891,11 @@
       <c r="F17" s="245"/>
     </row>
     <row r="18" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="581" t="s">
+      <c r="B18" s="583" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="582"/>
-      <c r="D18" s="583"/>
+      <c r="C18" s="584"/>
+      <c r="D18" s="585"/>
       <c r="E18" s="245"/>
       <c r="F18" s="245"/>
     </row>
@@ -10863,11 +10903,11 @@
       <c r="B19" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="585">
+      <c r="C19" s="587">
         <f>D23+D24+D25+D26+D27+D28</f>
         <v>0</v>
       </c>
-      <c r="D19" s="586"/>
+      <c r="D19" s="588"/>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
     </row>
@@ -10962,10 +11002,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="259"/>
-      <c r="B32" s="580" t="s">
+      <c r="B32" s="582" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="580"/>
+      <c r="C32" s="582"/>
       <c r="D32" s="260">
         <f>C7+C19</f>
         <v>0</v>
@@ -10973,7 +11013,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="259"/>
-      <c r="B33" s="579" t="s">
+      <c r="B33" s="581" t="s">
         <v>173</v>
       </c>
       <c r="C33" s="261" t="s">
@@ -10986,7 +11026,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="259"/>
-      <c r="B34" s="579"/>
+      <c r="B34" s="581"/>
       <c r="C34" s="261" t="s">
         <v>135</v>
       </c>
@@ -11022,13 +11062,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="553" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="572"/>
-      <c r="C1" s="572"/>
-      <c r="D1" s="572"/>
-      <c r="E1" s="572"/>
+      <c r="B1" s="553"/>
+      <c r="C1" s="553"/>
+      <c r="D1" s="553"/>
+      <c r="E1" s="553"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -11048,81 +11088,81 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="589" t="s">
+      <c r="A4" s="591" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="589"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="589"/>
-      <c r="E4" s="589"/>
-      <c r="F4" s="589"/>
-      <c r="G4" s="589"/>
-      <c r="H4" s="589"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="591"/>
+      <c r="E4" s="591"/>
+      <c r="F4" s="591"/>
+      <c r="G4" s="591"/>
+      <c r="H4" s="591"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="590" t="s">
+      <c r="A6" s="592" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="590"/>
-      <c r="C6" s="590"/>
-      <c r="D6" s="590"/>
-      <c r="E6" s="590"/>
-      <c r="F6" s="590"/>
-      <c r="G6" s="591" t="s">
+      <c r="B6" s="592"/>
+      <c r="C6" s="592"/>
+      <c r="D6" s="592"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="593" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="591"/>
+      <c r="H6" s="593"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="587" t="s">
+      <c r="A7" s="589" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="587"/>
-      <c r="C7" s="587"/>
-      <c r="D7" s="587"/>
-      <c r="E7" s="587"/>
-      <c r="F7" s="587"/>
-      <c r="G7" s="588"/>
-      <c r="H7" s="588"/>
+      <c r="B7" s="589"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="589"/>
+      <c r="E7" s="589"/>
+      <c r="F7" s="589"/>
+      <c r="G7" s="590"/>
+      <c r="H7" s="590"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="587" t="s">
+      <c r="A8" s="589" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="587"/>
-      <c r="C8" s="587"/>
-      <c r="D8" s="587"/>
-      <c r="E8" s="587"/>
-      <c r="F8" s="587"/>
-      <c r="G8" s="588"/>
-      <c r="H8" s="588"/>
+      <c r="B8" s="589"/>
+      <c r="C8" s="589"/>
+      <c r="D8" s="589"/>
+      <c r="E8" s="589"/>
+      <c r="F8" s="589"/>
+      <c r="G8" s="590"/>
+      <c r="H8" s="590"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="535" t="s">
+      <c r="A9" s="541" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="536"/>
-      <c r="C9" s="536"/>
-      <c r="D9" s="536"/>
-      <c r="E9" s="536"/>
-      <c r="F9" s="537"/>
-      <c r="G9" s="538"/>
-      <c r="H9" s="539"/>
+      <c r="B9" s="542"/>
+      <c r="C9" s="542"/>
+      <c r="D9" s="542"/>
+      <c r="E9" s="542"/>
+      <c r="F9" s="543"/>
+      <c r="G9" s="549"/>
+      <c r="H9" s="550"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="577" t="s">
+      <c r="A10" s="547" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="577"/>
-      <c r="C10" s="577"/>
-      <c r="D10" s="577"/>
-      <c r="E10" s="577"/>
-      <c r="F10" s="577"/>
-      <c r="G10" s="578">
+      <c r="B10" s="547"/>
+      <c r="C10" s="547"/>
+      <c r="D10" s="547"/>
+      <c r="E10" s="547"/>
+      <c r="F10" s="547"/>
+      <c r="G10" s="548">
         <f>SUM(G7:H9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="578"/>
+      <c r="H10" s="548"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11678,16 +11718,16 @@
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
-      <c r="Z1" s="597" t="s">
+      <c r="Z1" s="612" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="598"/>
-      <c r="AB1" s="598"/>
-      <c r="AC1" s="598"/>
-      <c r="AD1" s="598"/>
-      <c r="AE1" s="598"/>
-      <c r="AF1" s="598"/>
-      <c r="AG1" s="599"/>
+      <c r="AA1" s="613"/>
+      <c r="AB1" s="613"/>
+      <c r="AC1" s="613"/>
+      <c r="AD1" s="613"/>
+      <c r="AE1" s="613"/>
+      <c r="AF1" s="613"/>
+      <c r="AG1" s="614"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
@@ -11697,18 +11737,18 @@
       <c r="C2" s="99"/>
       <c r="D2" s="99"/>
       <c r="E2" s="99"/>
-      <c r="Z2" s="592" t="s">
+      <c r="Z2" s="595" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="593"/>
-      <c r="AB2" s="593"/>
-      <c r="AC2" s="593"/>
-      <c r="AD2" s="593"/>
-      <c r="AE2" s="594"/>
-      <c r="AF2" s="595" t="s">
+      <c r="AA2" s="596"/>
+      <c r="AB2" s="596"/>
+      <c r="AC2" s="596"/>
+      <c r="AD2" s="596"/>
+      <c r="AE2" s="597"/>
+      <c r="AF2" s="598" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="596"/>
+      <c r="AG2" s="599"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
@@ -11718,18 +11758,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="592" t="s">
+      <c r="Z3" s="595" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="593"/>
-      <c r="AB3" s="593"/>
-      <c r="AC3" s="593"/>
-      <c r="AD3" s="593"/>
-      <c r="AE3" s="594"/>
-      <c r="AF3" s="595" t="s">
+      <c r="AA3" s="596"/>
+      <c r="AB3" s="596"/>
+      <c r="AC3" s="596"/>
+      <c r="AD3" s="596"/>
+      <c r="AE3" s="597"/>
+      <c r="AF3" s="598" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="596"/>
+      <c r="AG3" s="599"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
@@ -11742,18 +11782,18 @@
       <c r="T4" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="592" t="s">
+      <c r="Z4" s="595" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="593"/>
-      <c r="AB4" s="593"/>
-      <c r="AC4" s="593"/>
-      <c r="AD4" s="593"/>
-      <c r="AE4" s="594"/>
-      <c r="AF4" s="595" t="s">
+      <c r="AA4" s="596"/>
+      <c r="AB4" s="596"/>
+      <c r="AC4" s="596"/>
+      <c r="AD4" s="596"/>
+      <c r="AE4" s="597"/>
+      <c r="AF4" s="598" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="596"/>
+      <c r="AG4" s="599"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
@@ -11763,18 +11803,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="592" t="s">
+      <c r="Z5" s="595" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="593"/>
-      <c r="AB5" s="593"/>
-      <c r="AC5" s="593"/>
-      <c r="AD5" s="593"/>
-      <c r="AE5" s="594"/>
-      <c r="AF5" s="595" t="s">
+      <c r="AA5" s="596"/>
+      <c r="AB5" s="596"/>
+      <c r="AC5" s="596"/>
+      <c r="AD5" s="596"/>
+      <c r="AE5" s="597"/>
+      <c r="AF5" s="598" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="596"/>
+      <c r="AG5" s="599"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
@@ -11784,93 +11824,93 @@
       <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:40" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="601" t="s">
+      <c r="A7" s="600" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="601"/>
-      <c r="C7" s="601"/>
-      <c r="D7" s="601"/>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="601"/>
-      <c r="J7" s="601"/>
-      <c r="K7" s="601"/>
-      <c r="L7" s="601"/>
-      <c r="M7" s="601"/>
-      <c r="N7" s="601"/>
-      <c r="O7" s="601"/>
-      <c r="P7" s="601"/>
-      <c r="Q7" s="601"/>
-      <c r="R7" s="601"/>
-      <c r="S7" s="601"/>
-      <c r="T7" s="601"/>
-      <c r="U7" s="601"/>
-      <c r="V7" s="601"/>
-      <c r="W7" s="601"/>
-      <c r="X7" s="601"/>
-      <c r="Y7" s="601"/>
-      <c r="Z7" s="601"/>
-      <c r="AA7" s="601"/>
-      <c r="AB7" s="601"/>
-      <c r="AC7" s="601"/>
-      <c r="AD7" s="601"/>
-      <c r="AE7" s="601"/>
-      <c r="AF7" s="601"/>
-      <c r="AG7" s="601"/>
-      <c r="AH7" s="601"/>
-      <c r="AI7" s="601"/>
-      <c r="AJ7" s="601"/>
-      <c r="AK7" s="601"/>
-      <c r="AL7" s="601"/>
-      <c r="AM7" s="601"/>
+      <c r="B7" s="600"/>
+      <c r="C7" s="600"/>
+      <c r="D7" s="600"/>
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="600"/>
+      <c r="J7" s="600"/>
+      <c r="K7" s="600"/>
+      <c r="L7" s="600"/>
+      <c r="M7" s="600"/>
+      <c r="N7" s="600"/>
+      <c r="O7" s="600"/>
+      <c r="P7" s="600"/>
+      <c r="Q7" s="600"/>
+      <c r="R7" s="600"/>
+      <c r="S7" s="600"/>
+      <c r="T7" s="600"/>
+      <c r="U7" s="600"/>
+      <c r="V7" s="600"/>
+      <c r="W7" s="600"/>
+      <c r="X7" s="600"/>
+      <c r="Y7" s="600"/>
+      <c r="Z7" s="600"/>
+      <c r="AA7" s="600"/>
+      <c r="AB7" s="600"/>
+      <c r="AC7" s="600"/>
+      <c r="AD7" s="600"/>
+      <c r="AE7" s="600"/>
+      <c r="AF7" s="600"/>
+      <c r="AG7" s="600"/>
+      <c r="AH7" s="600"/>
+      <c r="AI7" s="600"/>
+      <c r="AJ7" s="600"/>
+      <c r="AK7" s="600"/>
+      <c r="AL7" s="600"/>
+      <c r="AM7" s="600"/>
       <c r="AN7" s="102"/>
     </row>
     <row r="9" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="602" t="s">
+      <c r="A9" s="601" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="602" t="s">
+      <c r="B9" s="601" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="602" t="s">
+      <c r="C9" s="601" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="605" t="s">
+      <c r="D9" s="604" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="606"/>
-      <c r="F9" s="606"/>
-      <c r="G9" s="606"/>
-      <c r="H9" s="606"/>
-      <c r="I9" s="606"/>
-      <c r="J9" s="606"/>
-      <c r="K9" s="606"/>
-      <c r="L9" s="606"/>
-      <c r="M9" s="606"/>
-      <c r="N9" s="606"/>
-      <c r="O9" s="606"/>
-      <c r="P9" s="606"/>
-      <c r="Q9" s="606"/>
-      <c r="R9" s="606"/>
-      <c r="S9" s="606"/>
-      <c r="T9" s="606"/>
-      <c r="U9" s="606"/>
-      <c r="V9" s="606"/>
-      <c r="W9" s="606"/>
-      <c r="X9" s="606"/>
-      <c r="Y9" s="606"/>
-      <c r="Z9" s="606"/>
-      <c r="AA9" s="606"/>
-      <c r="AB9" s="606"/>
-      <c r="AC9" s="606"/>
-      <c r="AD9" s="606"/>
-      <c r="AE9" s="606"/>
-      <c r="AF9" s="606"/>
-      <c r="AG9" s="606"/>
-      <c r="AH9" s="607"/>
-      <c r="AI9" s="608" t="s">
+      <c r="E9" s="605"/>
+      <c r="F9" s="605"/>
+      <c r="G9" s="605"/>
+      <c r="H9" s="605"/>
+      <c r="I9" s="605"/>
+      <c r="J9" s="605"/>
+      <c r="K9" s="605"/>
+      <c r="L9" s="605"/>
+      <c r="M9" s="605"/>
+      <c r="N9" s="605"/>
+      <c r="O9" s="605"/>
+      <c r="P9" s="605"/>
+      <c r="Q9" s="605"/>
+      <c r="R9" s="605"/>
+      <c r="S9" s="605"/>
+      <c r="T9" s="605"/>
+      <c r="U9" s="605"/>
+      <c r="V9" s="605"/>
+      <c r="W9" s="605"/>
+      <c r="X9" s="605"/>
+      <c r="Y9" s="605"/>
+      <c r="Z9" s="605"/>
+      <c r="AA9" s="605"/>
+      <c r="AB9" s="605"/>
+      <c r="AC9" s="605"/>
+      <c r="AD9" s="605"/>
+      <c r="AE9" s="605"/>
+      <c r="AF9" s="605"/>
+      <c r="AG9" s="605"/>
+      <c r="AH9" s="606"/>
+      <c r="AI9" s="607" t="s">
         <v>99</v>
       </c>
       <c r="AJ9" s="104"/>
@@ -11880,9 +11920,9 @@
       <c r="AN9" s="107"/>
     </row>
     <row r="10" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="603"/>
-      <c r="B10" s="603"/>
-      <c r="C10" s="603"/>
+      <c r="A10" s="602"/>
+      <c r="B10" s="602"/>
+      <c r="C10" s="602"/>
       <c r="D10" s="109">
         <v>1</v>
       </c>
@@ -11976,7 +12016,7 @@
       <c r="AH10" s="109">
         <v>31</v>
       </c>
-      <c r="AI10" s="608"/>
+      <c r="AI10" s="607"/>
       <c r="AJ10" s="110"/>
       <c r="AK10" s="106"/>
       <c r="AL10" s="106"/>
@@ -11984,9 +12024,9 @@
       <c r="AN10" s="107"/>
     </row>
     <row r="11" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="604"/>
-      <c r="B11" s="604"/>
-      <c r="C11" s="604"/>
+      <c r="A11" s="603"/>
+      <c r="B11" s="603"/>
+      <c r="C11" s="603"/>
       <c r="D11" s="109" t="s">
         <v>105</v>
       </c>
@@ -12080,7 +12120,7 @@
       <c r="AH11" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="AI11" s="608"/>
+      <c r="AI11" s="607"/>
       <c r="AJ11" s="113"/>
       <c r="AN11" s="115"/>
     </row>
@@ -12401,10 +12441,10 @@
       <c r="AN14" s="115"/>
     </row>
     <row r="15" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="609" t="s">
+      <c r="A15" s="608" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="610"/>
+      <c r="B15" s="609"/>
       <c r="C15" s="117"/>
       <c r="D15" s="117"/>
       <c r="E15" s="118"/>
@@ -12447,49 +12487,49 @@
       <c r="AN15" s="115"/>
     </row>
     <row r="17" spans="1:40" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="611" t="s">
+      <c r="A17" s="610" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="611"/>
-      <c r="C17" s="611"/>
-      <c r="D17" s="611"/>
-      <c r="E17" s="611"/>
-      <c r="F17" s="611"/>
-      <c r="G17" s="611"/>
+      <c r="B17" s="610"/>
+      <c r="C17" s="610"/>
+      <c r="D17" s="610"/>
+      <c r="E17" s="610"/>
+      <c r="F17" s="610"/>
+      <c r="G17" s="610"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="612"/>
-      <c r="J17" s="612"/>
-      <c r="K17" s="612"/>
-      <c r="L17" s="612"/>
-      <c r="M17" s="612"/>
+      <c r="I17" s="611"/>
+      <c r="J17" s="611"/>
+      <c r="K17" s="611"/>
+      <c r="L17" s="611"/>
+      <c r="M17" s="611"/>
       <c r="N17" s="123"/>
-      <c r="O17" s="612" t="s">
+      <c r="O17" s="611" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="612"/>
-      <c r="Q17" s="612"/>
-      <c r="R17" s="612"/>
-      <c r="S17" s="612"/>
-      <c r="T17" s="612"/>
-      <c r="U17" s="612"/>
-      <c r="V17" s="612"/>
-      <c r="W17" s="612"/>
-      <c r="X17" s="612"/>
-      <c r="Y17" s="612"/>
+      <c r="P17" s="611"/>
+      <c r="Q17" s="611"/>
+      <c r="R17" s="611"/>
+      <c r="S17" s="611"/>
+      <c r="T17" s="611"/>
+      <c r="U17" s="611"/>
+      <c r="V17" s="611"/>
+      <c r="W17" s="611"/>
+      <c r="X17" s="611"/>
+      <c r="Y17" s="611"/>
       <c r="Z17" s="124"/>
       <c r="AA17" s="124"/>
       <c r="AB17" s="125"/>
-      <c r="AC17" s="612"/>
-      <c r="AD17" s="612"/>
-      <c r="AE17" s="612"/>
-      <c r="AF17" s="612"/>
-      <c r="AG17" s="612"/>
-      <c r="AH17" s="612"/>
-      <c r="AI17" s="612"/>
-      <c r="AJ17" s="612"/>
-      <c r="AK17" s="612"/>
-      <c r="AL17" s="612"/>
-      <c r="AM17" s="612"/>
+      <c r="AC17" s="611"/>
+      <c r="AD17" s="611"/>
+      <c r="AE17" s="611"/>
+      <c r="AF17" s="611"/>
+      <c r="AG17" s="611"/>
+      <c r="AH17" s="611"/>
+      <c r="AI17" s="611"/>
+      <c r="AJ17" s="611"/>
+      <c r="AK17" s="611"/>
+      <c r="AL17" s="611"/>
+      <c r="AM17" s="611"/>
       <c r="AN17" s="126"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12523,131 +12563,131 @@
       <c r="AN32" s="131"/>
     </row>
     <row r="33" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="600"/>
-      <c r="H33" s="600"/>
-      <c r="I33" s="600"/>
-      <c r="J33" s="600"/>
-      <c r="K33" s="600"/>
-      <c r="L33" s="600"/>
-      <c r="M33" s="600"/>
-      <c r="N33" s="600"/>
-      <c r="O33" s="600"/>
-      <c r="P33" s="600"/>
-      <c r="Q33" s="600"/>
-      <c r="R33" s="600"/>
-      <c r="S33" s="600"/>
-      <c r="T33" s="600"/>
-      <c r="U33" s="600"/>
-      <c r="V33" s="600"/>
-      <c r="W33" s="600"/>
-      <c r="X33" s="600"/>
+      <c r="G33" s="594"/>
+      <c r="H33" s="594"/>
+      <c r="I33" s="594"/>
+      <c r="J33" s="594"/>
+      <c r="K33" s="594"/>
+      <c r="L33" s="594"/>
+      <c r="M33" s="594"/>
+      <c r="N33" s="594"/>
+      <c r="O33" s="594"/>
+      <c r="P33" s="594"/>
+      <c r="Q33" s="594"/>
+      <c r="R33" s="594"/>
+      <c r="S33" s="594"/>
+      <c r="T33" s="594"/>
+      <c r="U33" s="594"/>
+      <c r="V33" s="594"/>
+      <c r="W33" s="594"/>
+      <c r="X33" s="594"/>
       <c r="AN33" s="131"/>
     </row>
     <row r="34" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="600"/>
-      <c r="H34" s="600"/>
-      <c r="I34" s="600"/>
-      <c r="J34" s="600"/>
-      <c r="K34" s="600"/>
-      <c r="L34" s="600"/>
-      <c r="M34" s="600"/>
-      <c r="N34" s="600"/>
-      <c r="O34" s="600"/>
-      <c r="P34" s="600"/>
-      <c r="Q34" s="600"/>
-      <c r="R34" s="600"/>
-      <c r="S34" s="600"/>
-      <c r="T34" s="600"/>
-      <c r="U34" s="600"/>
-      <c r="V34" s="600"/>
-      <c r="W34" s="600"/>
-      <c r="X34" s="600"/>
+      <c r="G34" s="594"/>
+      <c r="H34" s="594"/>
+      <c r="I34" s="594"/>
+      <c r="J34" s="594"/>
+      <c r="K34" s="594"/>
+      <c r="L34" s="594"/>
+      <c r="M34" s="594"/>
+      <c r="N34" s="594"/>
+      <c r="O34" s="594"/>
+      <c r="P34" s="594"/>
+      <c r="Q34" s="594"/>
+      <c r="R34" s="594"/>
+      <c r="S34" s="594"/>
+      <c r="T34" s="594"/>
+      <c r="U34" s="594"/>
+      <c r="V34" s="594"/>
+      <c r="W34" s="594"/>
+      <c r="X34" s="594"/>
       <c r="AN34" s="131"/>
     </row>
     <row r="35" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="600"/>
-      <c r="H35" s="600"/>
-      <c r="I35" s="600"/>
-      <c r="J35" s="600"/>
-      <c r="K35" s="600"/>
-      <c r="L35" s="600"/>
-      <c r="M35" s="600"/>
-      <c r="N35" s="600"/>
-      <c r="O35" s="600"/>
-      <c r="P35" s="600"/>
-      <c r="Q35" s="600"/>
-      <c r="R35" s="600"/>
-      <c r="S35" s="600"/>
-      <c r="T35" s="600"/>
-      <c r="U35" s="600"/>
-      <c r="V35" s="600"/>
-      <c r="W35" s="600"/>
-      <c r="X35" s="600"/>
+      <c r="G35" s="594"/>
+      <c r="H35" s="594"/>
+      <c r="I35" s="594"/>
+      <c r="J35" s="594"/>
+      <c r="K35" s="594"/>
+      <c r="L35" s="594"/>
+      <c r="M35" s="594"/>
+      <c r="N35" s="594"/>
+      <c r="O35" s="594"/>
+      <c r="P35" s="594"/>
+      <c r="Q35" s="594"/>
+      <c r="R35" s="594"/>
+      <c r="S35" s="594"/>
+      <c r="T35" s="594"/>
+      <c r="U35" s="594"/>
+      <c r="V35" s="594"/>
+      <c r="W35" s="594"/>
+      <c r="X35" s="594"/>
       <c r="AN35" s="131"/>
     </row>
     <row r="36" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="600"/>
-      <c r="H36" s="600"/>
-      <c r="I36" s="600"/>
-      <c r="J36" s="600"/>
-      <c r="K36" s="600"/>
-      <c r="L36" s="600"/>
-      <c r="M36" s="600"/>
-      <c r="N36" s="600"/>
-      <c r="O36" s="600"/>
-      <c r="P36" s="600"/>
-      <c r="Q36" s="600"/>
-      <c r="R36" s="600"/>
-      <c r="S36" s="600"/>
-      <c r="T36" s="600"/>
-      <c r="U36" s="600"/>
-      <c r="V36" s="600"/>
-      <c r="W36" s="600"/>
-      <c r="X36" s="600"/>
+      <c r="G36" s="594"/>
+      <c r="H36" s="594"/>
+      <c r="I36" s="594"/>
+      <c r="J36" s="594"/>
+      <c r="K36" s="594"/>
+      <c r="L36" s="594"/>
+      <c r="M36" s="594"/>
+      <c r="N36" s="594"/>
+      <c r="O36" s="594"/>
+      <c r="P36" s="594"/>
+      <c r="Q36" s="594"/>
+      <c r="R36" s="594"/>
+      <c r="S36" s="594"/>
+      <c r="T36" s="594"/>
+      <c r="U36" s="594"/>
+      <c r="V36" s="594"/>
+      <c r="W36" s="594"/>
+      <c r="X36" s="594"/>
       <c r="AN36" s="131"/>
     </row>
     <row r="37" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="600"/>
-      <c r="H37" s="600"/>
-      <c r="I37" s="600"/>
-      <c r="J37" s="600"/>
-      <c r="K37" s="600"/>
-      <c r="L37" s="600"/>
-      <c r="M37" s="600"/>
-      <c r="N37" s="600"/>
-      <c r="O37" s="600"/>
-      <c r="P37" s="600"/>
-      <c r="Q37" s="600"/>
-      <c r="R37" s="600"/>
-      <c r="S37" s="600"/>
-      <c r="T37" s="600"/>
-      <c r="U37" s="600"/>
-      <c r="V37" s="600"/>
-      <c r="W37" s="600"/>
-      <c r="X37" s="600"/>
+      <c r="G37" s="594"/>
+      <c r="H37" s="594"/>
+      <c r="I37" s="594"/>
+      <c r="J37" s="594"/>
+      <c r="K37" s="594"/>
+      <c r="L37" s="594"/>
+      <c r="M37" s="594"/>
+      <c r="N37" s="594"/>
+      <c r="O37" s="594"/>
+      <c r="P37" s="594"/>
+      <c r="Q37" s="594"/>
+      <c r="R37" s="594"/>
+      <c r="S37" s="594"/>
+      <c r="T37" s="594"/>
+      <c r="U37" s="594"/>
+      <c r="V37" s="594"/>
+      <c r="W37" s="594"/>
+      <c r="X37" s="594"/>
       <c r="AN37" s="131"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
-      <c r="G38" s="600"/>
-      <c r="H38" s="600"/>
-      <c r="I38" s="600"/>
-      <c r="J38" s="600"/>
-      <c r="K38" s="600"/>
-      <c r="L38" s="600"/>
-      <c r="M38" s="600"/>
-      <c r="N38" s="600"/>
-      <c r="O38" s="600"/>
-      <c r="P38" s="600"/>
-      <c r="Q38" s="600"/>
-      <c r="R38" s="600"/>
-      <c r="S38" s="600"/>
-      <c r="T38" s="600"/>
-      <c r="U38" s="600"/>
-      <c r="V38" s="600"/>
-      <c r="W38" s="600"/>
-      <c r="X38" s="600"/>
+      <c r="G38" s="594"/>
+      <c r="H38" s="594"/>
+      <c r="I38" s="594"/>
+      <c r="J38" s="594"/>
+      <c r="K38" s="594"/>
+      <c r="L38" s="594"/>
+      <c r="M38" s="594"/>
+      <c r="N38" s="594"/>
+      <c r="O38" s="594"/>
+      <c r="P38" s="594"/>
+      <c r="Q38" s="594"/>
+      <c r="R38" s="594"/>
+      <c r="S38" s="594"/>
+      <c r="T38" s="594"/>
+      <c r="U38" s="594"/>
+      <c r="V38" s="594"/>
+      <c r="W38" s="594"/>
+      <c r="X38" s="594"/>
       <c r="AN38" s="96"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12657,6 +12697,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12671,13 +12718,6 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -13537,40 +13577,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="613" t="s">
+      <c r="A1" s="622" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="613"/>
-      <c r="C1" s="613"/>
-      <c r="D1" s="613"/>
+      <c r="B1" s="622"/>
+      <c r="C1" s="622"/>
+      <c r="D1" s="622"/>
       <c r="E1" s="161"/>
-      <c r="F1" s="614" t="s">
+      <c r="F1" s="623" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="614"/>
-      <c r="H1" s="614"/>
-      <c r="I1" s="614"/>
-      <c r="J1" s="614"/>
-      <c r="K1" s="614"/>
-      <c r="L1" s="614"/>
+      <c r="G1" s="623"/>
+      <c r="H1" s="623"/>
+      <c r="I1" s="623"/>
+      <c r="J1" s="623"/>
+      <c r="K1" s="623"/>
+      <c r="L1" s="623"/>
     </row>
     <row r="2" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="615" t="s">
+      <c r="A2" s="624" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="615"/>
-      <c r="C2" s="615"/>
-      <c r="D2" s="615"/>
+      <c r="B2" s="624"/>
+      <c r="C2" s="624"/>
+      <c r="D2" s="624"/>
       <c r="E2" s="161"/>
-      <c r="F2" s="616" t="s">
+      <c r="F2" s="625" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="616"/>
-      <c r="H2" s="616"/>
-      <c r="I2" s="616"/>
-      <c r="J2" s="616"/>
-      <c r="K2" s="616"/>
-      <c r="L2" s="616"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="625"/>
+      <c r="I2" s="625"/>
+      <c r="J2" s="625"/>
+      <c r="K2" s="625"/>
+      <c r="L2" s="625"/>
     </row>
     <row r="3" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="163"/>
@@ -13584,45 +13624,45 @@
       <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="617" t="s">
+      <c r="A4" s="615" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="617"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="617"/>
-      <c r="E4" s="617"/>
-      <c r="F4" s="617"/>
-      <c r="G4" s="617"/>
-      <c r="H4" s="617"/>
-      <c r="I4" s="617"/>
-      <c r="J4" s="617"/>
-      <c r="K4" s="617"/>
-      <c r="L4" s="617"/>
-      <c r="M4" s="617"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="615"/>
+      <c r="E4" s="615"/>
+      <c r="F4" s="615"/>
+      <c r="G4" s="615"/>
+      <c r="H4" s="615"/>
+      <c r="I4" s="615"/>
+      <c r="J4" s="615"/>
+      <c r="K4" s="615"/>
+      <c r="L4" s="615"/>
+      <c r="M4" s="615"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="617" t="s">
+      <c r="A5" s="615" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="617"/>
-      <c r="C5" s="617"/>
-      <c r="D5" s="617"/>
-      <c r="E5" s="617"/>
-      <c r="F5" s="617"/>
-      <c r="G5" s="617"/>
-      <c r="H5" s="617"/>
-      <c r="I5" s="617"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="617"/>
-      <c r="L5" s="617"/>
-      <c r="M5" s="617"/>
+      <c r="B5" s="615"/>
+      <c r="C5" s="615"/>
+      <c r="D5" s="615"/>
+      <c r="E5" s="615"/>
+      <c r="F5" s="615"/>
+      <c r="G5" s="615"/>
+      <c r="H5" s="615"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="615"/>
+      <c r="M5" s="615"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="618" t="s">
+      <c r="K6" s="616" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="618"/>
-      <c r="M6" s="618"/>
+      <c r="L6" s="616"/>
+      <c r="M6" s="616"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -13693,10 +13733,10 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="619" t="s">
+      <c r="A9" s="617" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="620"/>
+      <c r="B9" s="618"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="49"/>
@@ -13815,11 +13855,11 @@
       <c r="P12" s="91"/>
     </row>
     <row r="13" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="621" t="s">
+      <c r="A13" s="619" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="622"/>
-      <c r="C13" s="623"/>
+      <c r="B13" s="620"/>
+      <c r="C13" s="621"/>
       <c r="D13" s="143">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13844,14 +13884,14 @@
       <c r="M13" s="167"/>
     </row>
     <row r="15" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="617"/>
-      <c r="C15" s="617"/>
-      <c r="D15" s="617"/>
+      <c r="B15" s="615"/>
+      <c r="C15" s="615"/>
+      <c r="D15" s="615"/>
       <c r="E15" s="144"/>
-      <c r="I15" s="617"/>
-      <c r="J15" s="617"/>
-      <c r="K15" s="617"/>
-      <c r="L15" s="617"/>
+      <c r="I15" s="615"/>
+      <c r="J15" s="615"/>
+      <c r="K15" s="615"/>
+      <c r="L15" s="615"/>
     </row>
     <row r="16" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="168" t="s">
@@ -13897,17 +13937,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Hỗ trợ vận chuyển" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$H$116</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="269">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -801,6 +801,39 @@
   </si>
   <si>
     <t>Hằng kế toán ứng lương tháng 9</t>
+  </si>
+  <si>
+    <t>1CX45</t>
+  </si>
+  <si>
+    <t>Thanh Hà</t>
+  </si>
+  <si>
+    <t>3CX90</t>
+  </si>
+  <si>
+    <t>Chị Mến</t>
+  </si>
+  <si>
+    <t>Thạch thất</t>
+  </si>
+  <si>
+    <t>Chị Phương</t>
+  </si>
+  <si>
+    <t>Yên Châu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Quý </t>
+  </si>
+  <si>
+    <t>chị tâm thanh toán tiền hàng 1 hộp số 3</t>
+  </si>
+  <si>
+    <t>chị tâm thanh toán tiền hàng chị quý</t>
+  </si>
+  <si>
+    <t>chị huệ điện biên thanh toán tiền hàng</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1482,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="647">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2680,6 +2713,12 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2716,50 +2755,140 @@
     <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2770,144 +2899,54 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2917,18 +2956,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2938,6 +2965,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2945,6 +2999,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2953,102 +3088,6 @@
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,24 +3127,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3142,13 +3190,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3172,18 +3223,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3212,6 +3251,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3528,7 +3594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,16 +3649,16 @@
       <c r="I3" s="369"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="464" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="462"/>
-      <c r="E4" s="462"/>
-      <c r="F4" s="462"/>
-      <c r="G4" s="462"/>
-      <c r="H4" s="462"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="464"/>
+      <c r="E4" s="464"/>
+      <c r="F4" s="464"/>
+      <c r="G4" s="464"/>
+      <c r="H4" s="464"/>
       <c r="I4" s="369"/>
     </row>
     <row r="5" spans="1:9" s="367" customFormat="1" x14ac:dyDescent="0.25">
@@ -3605,32 +3671,32 @@
       <c r="H5" s="366"/>
     </row>
     <row r="6" spans="1:9" s="367" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="463" t="s">
+      <c r="A6" s="465" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="468" t="s">
+      <c r="B6" s="470" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="463" t="s">
+      <c r="C6" s="465" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="465" t="s">
+      <c r="D6" s="467" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="467" t="s">
+      <c r="E6" s="469" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="467"/>
-      <c r="G6" s="467" t="s">
+      <c r="F6" s="469"/>
+      <c r="G6" s="469" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="467"/>
+      <c r="H6" s="469"/>
     </row>
     <row r="7" spans="1:9" s="367" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="464"/>
-      <c r="B7" s="469"/>
-      <c r="C7" s="464"/>
-      <c r="D7" s="466"/>
+      <c r="A7" s="466"/>
+      <c r="B7" s="471"/>
+      <c r="C7" s="466"/>
+      <c r="D7" s="468"/>
       <c r="E7" s="371" t="s">
         <v>79</v>
       </c>
@@ -4213,7 +4279,9 @@
       <c r="A37" s="372"/>
       <c r="B37" s="372"/>
       <c r="C37" s="373"/>
-      <c r="D37" s="374"/>
+      <c r="D37" s="374" t="s">
+        <v>266</v>
+      </c>
       <c r="E37" s="375"/>
       <c r="F37" s="376"/>
       <c r="G37" s="375"/>
@@ -4223,7 +4291,9 @@
       <c r="A38" s="372"/>
       <c r="B38" s="372"/>
       <c r="C38" s="373"/>
-      <c r="D38" s="374"/>
+      <c r="D38" s="374" t="s">
+        <v>267</v>
+      </c>
       <c r="E38" s="375"/>
       <c r="F38" s="376"/>
       <c r="G38" s="375"/>
@@ -4233,7 +4303,9 @@
       <c r="A39" s="372"/>
       <c r="B39" s="372"/>
       <c r="C39" s="373"/>
-      <c r="D39" s="374"/>
+      <c r="D39" s="374" t="s">
+        <v>268</v>
+      </c>
       <c r="E39" s="375"/>
       <c r="F39" s="376"/>
       <c r="G39" s="375"/>
@@ -5000,12 +5072,12 @@
       <c r="H115" s="378"/>
     </row>
     <row r="116" spans="1:9" s="381" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="459" t="s">
+      <c r="A116" s="461" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="460"/>
-      <c r="C116" s="460"/>
-      <c r="D116" s="461"/>
+      <c r="B116" s="462"/>
+      <c r="C116" s="462"/>
+      <c r="D116" s="463"/>
       <c r="E116" s="380">
         <f>SUM(E8:E115)</f>
         <v>116319400</v>
@@ -5034,11 +5106,11 @@
       <c r="H117" s="384"/>
     </row>
     <row r="118" spans="1:9" s="381" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="458" t="s">
+      <c r="A118" s="460" t="s">
         <v>80</v>
       </c>
-      <c r="B118" s="458"/>
-      <c r="C118" s="458"/>
+      <c r="B118" s="460"/>
+      <c r="C118" s="460"/>
       <c r="D118" s="383"/>
       <c r="E118" s="384"/>
       <c r="F118" s="384"/>
@@ -5159,31 +5231,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="626" t="s">
+      <c r="A1" s="628" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="626"/>
-      <c r="C1" s="626"/>
+      <c r="B1" s="628"/>
+      <c r="C1" s="628"/>
       <c r="I1" s="149"/>
       <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="627" t="s">
+      <c r="A2" s="629" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="627"/>
-      <c r="C2" s="627"/>
+      <c r="B2" s="629"/>
+      <c r="C2" s="629"/>
       <c r="I2" s="149"/>
       <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="586" t="s">
+      <c r="A3" s="588" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="586"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="586"/>
-      <c r="E3" s="586"/>
+      <c r="B3" s="588"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="588"/>
+      <c r="E3" s="588"/>
       <c r="F3" s="147"/>
       <c r="G3" s="147"/>
       <c r="H3" s="147"/>
@@ -5211,24 +5283,24 @@
       <c r="N4" s="147"/>
     </row>
     <row r="5" spans="1:14" s="148" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="632" t="s">
+      <c r="A5" s="634" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="634" t="s">
+      <c r="B5" s="636" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="632" t="s">
+      <c r="C5" s="634" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="631" t="s">
+      <c r="D5" s="633" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="631"/>
+      <c r="E5" s="633"/>
     </row>
     <row r="6" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="633"/>
-      <c r="B6" s="635"/>
-      <c r="C6" s="633"/>
+      <c r="A6" s="635"/>
+      <c r="B6" s="637"/>
+      <c r="C6" s="635"/>
       <c r="D6" s="158" t="s">
         <v>123</v>
       </c>
@@ -5501,11 +5573,11 @@
       <c r="E31" s="157"/>
     </row>
     <row r="32" spans="1:5" s="160" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="628" t="s">
+      <c r="A32" s="630" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="629"/>
-      <c r="C32" s="630"/>
+      <c r="B32" s="631"/>
+      <c r="C32" s="632"/>
       <c r="D32" s="159">
         <f t="shared" ref="D32:E32" si="0">SUM(D7:D31)</f>
         <v>80000</v>
@@ -5533,11 +5605,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R134"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18:E19"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5562,13 +5634,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="492" t="s">
+      <c r="A1" s="502" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="492"/>
-      <c r="E1" s="492"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
       <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5582,163 +5654,163 @@
       <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="493" t="s">
+      <c r="A3" s="503" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="493"/>
-      <c r="C3" s="493"/>
-      <c r="D3" s="493"/>
-      <c r="E3" s="493"/>
-      <c r="F3" s="493"/>
-      <c r="G3" s="493"/>
-      <c r="H3" s="493"/>
-      <c r="I3" s="493"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="493"/>
-      <c r="L3" s="493"/>
-      <c r="M3" s="493"/>
-      <c r="N3" s="493"/>
-      <c r="O3" s="493"/>
-      <c r="P3" s="493"/>
+      <c r="B3" s="503"/>
+      <c r="C3" s="503"/>
+      <c r="D3" s="503"/>
+      <c r="E3" s="503"/>
+      <c r="F3" s="503"/>
+      <c r="G3" s="503"/>
+      <c r="H3" s="503"/>
+      <c r="I3" s="503"/>
+      <c r="J3" s="503"/>
+      <c r="K3" s="503"/>
+      <c r="L3" s="503"/>
+      <c r="M3" s="503"/>
+      <c r="N3" s="503"/>
+      <c r="O3" s="503"/>
+      <c r="P3" s="503"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="493" t="s">
+      <c r="A4" s="503" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
-      <c r="F4" s="493"/>
-      <c r="G4" s="493"/>
-      <c r="H4" s="493"/>
-      <c r="I4" s="493"/>
-      <c r="J4" s="493"/>
-      <c r="K4" s="493"/>
-      <c r="L4" s="493"/>
-      <c r="M4" s="493"/>
-      <c r="N4" s="493"/>
-      <c r="O4" s="493"/>
-      <c r="P4" s="493"/>
+      <c r="B4" s="503"/>
+      <c r="C4" s="503"/>
+      <c r="D4" s="503"/>
+      <c r="E4" s="503"/>
+      <c r="F4" s="503"/>
+      <c r="G4" s="503"/>
+      <c r="H4" s="503"/>
+      <c r="I4" s="503"/>
+      <c r="J4" s="503"/>
+      <c r="K4" s="503"/>
+      <c r="L4" s="503"/>
+      <c r="M4" s="503"/>
+      <c r="N4" s="503"/>
+      <c r="O4" s="503"/>
+      <c r="P4" s="503"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="493"/>
-      <c r="B5" s="493"/>
-      <c r="C5" s="493"/>
-      <c r="D5" s="493"/>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="493"/>
-      <c r="J5" s="493"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="494"/>
+      <c r="A5" s="503"/>
+      <c r="B5" s="503"/>
+      <c r="C5" s="503"/>
+      <c r="D5" s="503"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="503"/>
+      <c r="J5" s="503"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="504"/>
     </row>
     <row r="6" spans="1:17" s="188" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="495" t="s">
+      <c r="A6" s="505" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="497" t="s">
+      <c r="B6" s="507" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="495" t="s">
+      <c r="C6" s="505" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="501" t="s">
+      <c r="D6" s="511" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="501"/>
-      <c r="F6" s="502" t="s">
+      <c r="E6" s="511"/>
+      <c r="F6" s="512" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="502"/>
-      <c r="H6" s="502"/>
-      <c r="I6" s="502"/>
-      <c r="J6" s="502"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="502"/>
-      <c r="M6" s="503"/>
-      <c r="N6" s="503"/>
-      <c r="O6" s="503"/>
-      <c r="P6" s="504" t="s">
+      <c r="G6" s="512"/>
+      <c r="H6" s="512"/>
+      <c r="I6" s="512"/>
+      <c r="J6" s="512"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="512"/>
+      <c r="M6" s="513"/>
+      <c r="N6" s="513"/>
+      <c r="O6" s="513"/>
+      <c r="P6" s="514" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="188" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="496"/>
-      <c r="B7" s="498"/>
-      <c r="C7" s="496"/>
-      <c r="D7" s="495" t="s">
+      <c r="A7" s="506"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="506"/>
+      <c r="D7" s="505" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="495" t="s">
+      <c r="E7" s="505" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="495" t="s">
+      <c r="F7" s="505" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="495" t="s">
+      <c r="G7" s="505" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="499" t="s">
+      <c r="H7" s="509" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="499" t="s">
+      <c r="I7" s="509" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="506" t="s">
+      <c r="J7" s="516" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="506"/>
-      <c r="L7" s="499" t="s">
+      <c r="K7" s="516"/>
+      <c r="L7" s="509" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="499" t="s">
+      <c r="M7" s="509" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="499" t="s">
+      <c r="N7" s="509" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="499" t="s">
+      <c r="O7" s="509" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="505"/>
+      <c r="P7" s="515"/>
     </row>
     <row r="8" spans="1:17" s="188" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="496"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="496"/>
-      <c r="D8" s="496"/>
-      <c r="E8" s="496"/>
-      <c r="F8" s="496"/>
-      <c r="G8" s="496"/>
-      <c r="H8" s="500"/>
-      <c r="I8" s="500"/>
+      <c r="A8" s="506"/>
+      <c r="B8" s="508"/>
+      <c r="C8" s="506"/>
+      <c r="D8" s="506"/>
+      <c r="E8" s="506"/>
+      <c r="F8" s="506"/>
+      <c r="G8" s="506"/>
+      <c r="H8" s="510"/>
+      <c r="I8" s="510"/>
       <c r="J8" s="280" t="s">
         <v>82</v>
       </c>
       <c r="K8" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="500"/>
-      <c r="M8" s="500"/>
-      <c r="N8" s="500"/>
-      <c r="O8" s="500"/>
-      <c r="P8" s="505"/>
+      <c r="L8" s="510"/>
+      <c r="M8" s="510"/>
+      <c r="N8" s="510"/>
+      <c r="O8" s="510"/>
+      <c r="P8" s="515"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="483">
+      <c r="A9" s="472">
         <v>785</v>
       </c>
-      <c r="B9" s="517">
+      <c r="B9" s="476">
         <v>44077</v>
       </c>
-      <c r="C9" s="474"/>
-      <c r="D9" s="474" t="s">
+      <c r="C9" s="478"/>
+      <c r="D9" s="478" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="474" t="s">
+      <c r="E9" s="478" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="349" t="s">
@@ -5773,11 +5845,11 @@
       <c r="P9" s="349"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="472"/>
-      <c r="B10" s="514"/>
-      <c r="C10" s="475"/>
-      <c r="D10" s="475"/>
-      <c r="E10" s="475"/>
+      <c r="A10" s="473"/>
+      <c r="B10" s="477"/>
+      <c r="C10" s="480"/>
+      <c r="D10" s="480"/>
+      <c r="E10" s="480"/>
       <c r="F10" s="351" t="s">
         <v>138</v>
       </c>
@@ -5808,19 +5880,19 @@
       <c r="P10" s="276"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="474">
+      <c r="A11" s="478">
         <v>662</v>
       </c>
-      <c r="B11" s="480">
+      <c r="B11" s="484">
         <v>44077</v>
       </c>
-      <c r="C11" s="474" t="s">
+      <c r="C11" s="478" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="474" t="s">
+      <c r="D11" s="478" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="474" t="s">
+      <c r="E11" s="478" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="349" t="s">
@@ -5833,7 +5905,7 @@
         <v>455000</v>
       </c>
       <c r="I11" s="290">
-        <f t="shared" ref="I11:I19" si="0">G11*H11</f>
+        <f t="shared" ref="I11:I34" si="0">G11*H11</f>
         <v>10920000</v>
       </c>
       <c r="J11" s="290"/>
@@ -5841,7 +5913,7 @@
         <v>0.5</v>
       </c>
       <c r="L11" s="290">
-        <f t="shared" ref="L11:L19" si="1">I11*(1-K11)</f>
+        <f t="shared" ref="L11:L34" si="1">I11*(1-K11)</f>
         <v>5460000</v>
       </c>
       <c r="M11" s="290"/>
@@ -5854,11 +5926,11 @@
       <c r="Q11" s="294"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="478"/>
-      <c r="B12" s="481"/>
-      <c r="C12" s="478"/>
-      <c r="D12" s="478"/>
-      <c r="E12" s="478"/>
+      <c r="A12" s="479"/>
+      <c r="B12" s="485"/>
+      <c r="C12" s="479"/>
+      <c r="D12" s="479"/>
+      <c r="E12" s="479"/>
       <c r="F12" s="350" t="s">
         <v>137</v>
       </c>
@@ -5889,11 +5961,11 @@
       <c r="P12" s="274"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="478"/>
-      <c r="B13" s="481"/>
-      <c r="C13" s="478"/>
-      <c r="D13" s="478"/>
-      <c r="E13" s="478"/>
+      <c r="A13" s="479"/>
+      <c r="B13" s="485"/>
+      <c r="C13" s="479"/>
+      <c r="D13" s="479"/>
+      <c r="E13" s="479"/>
       <c r="F13" s="350" t="s">
         <v>152</v>
       </c>
@@ -5924,11 +5996,11 @@
       <c r="P13" s="350"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="475"/>
-      <c r="B14" s="482"/>
-      <c r="C14" s="475"/>
-      <c r="D14" s="475"/>
-      <c r="E14" s="475"/>
+      <c r="A14" s="480"/>
+      <c r="B14" s="486"/>
+      <c r="C14" s="480"/>
+      <c r="D14" s="480"/>
+      <c r="E14" s="480"/>
       <c r="F14" s="351" t="s">
         <v>134</v>
       </c>
@@ -6092,356 +6164,683 @@
       <c r="P17" s="305"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="474"/>
-      <c r="B18" s="480">
+      <c r="A18" s="472">
+        <v>792</v>
+      </c>
+      <c r="B18" s="476">
+        <v>44085</v>
+      </c>
+      <c r="C18" s="472" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="474" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="474" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="458" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="458">
+        <v>9</v>
+      </c>
+      <c r="H18" s="638">
+        <v>225000</v>
+      </c>
+      <c r="I18" s="639">
+        <f t="shared" si="0"/>
+        <v>2025000</v>
+      </c>
+      <c r="J18" s="639"/>
+      <c r="K18" s="640">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="639">
+        <f t="shared" si="1"/>
+        <v>1012500</v>
+      </c>
+      <c r="M18" s="639"/>
+      <c r="N18" s="639"/>
+      <c r="O18" s="639">
+        <f>L18</f>
+        <v>1012500</v>
+      </c>
+      <c r="P18" s="459"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="487"/>
+      <c r="B19" s="488"/>
+      <c r="C19" s="487"/>
+      <c r="D19" s="489"/>
+      <c r="E19" s="489"/>
+      <c r="F19" s="458" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="458">
+        <v>36</v>
+      </c>
+      <c r="H19" s="638">
+        <v>455000</v>
+      </c>
+      <c r="I19" s="639">
+        <f t="shared" si="0"/>
+        <v>16380000</v>
+      </c>
+      <c r="J19" s="639"/>
+      <c r="K19" s="640">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="639">
+        <f t="shared" si="1"/>
+        <v>8190000</v>
+      </c>
+      <c r="M19" s="639"/>
+      <c r="N19" s="639"/>
+      <c r="O19" s="639">
+        <f>L19</f>
+        <v>8190000</v>
+      </c>
+      <c r="P19" s="459"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="478">
+        <v>665</v>
+      </c>
+      <c r="B20" s="484">
         <v>44088</v>
       </c>
-      <c r="C18" s="474"/>
-      <c r="D18" s="488" t="s">
+      <c r="C20" s="478"/>
+      <c r="D20" s="481" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="490"/>
-      <c r="F18" s="451" t="s">
+      <c r="E20" s="474"/>
+      <c r="F20" s="451" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="451">
+      <c r="G20" s="451">
         <v>24</v>
       </c>
-      <c r="H18" s="307">
+      <c r="H20" s="307">
         <v>455000</v>
       </c>
-      <c r="I18" s="290">
+      <c r="I20" s="290">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J18" s="290"/>
-      <c r="K18" s="291">
+      <c r="J20" s="290"/>
+      <c r="K20" s="291">
         <v>0.5</v>
       </c>
-      <c r="L18" s="290">
+      <c r="L20" s="290">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="M18" s="290"/>
-      <c r="N18" s="290"/>
-      <c r="O18" s="290">
-        <f>L18</f>
+      <c r="M20" s="290"/>
+      <c r="N20" s="290"/>
+      <c r="O20" s="290">
+        <f>L20</f>
         <v>5460000</v>
       </c>
-      <c r="P18" s="453"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="475"/>
-      <c r="B19" s="482"/>
-      <c r="C19" s="475"/>
-      <c r="D19" s="489"/>
-      <c r="E19" s="491"/>
-      <c r="F19" s="452" t="s">
+      <c r="P20" s="453"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="480"/>
+      <c r="B21" s="486"/>
+      <c r="C21" s="480"/>
+      <c r="D21" s="483"/>
+      <c r="E21" s="489"/>
+      <c r="F21" s="452" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="452">
+      <c r="G21" s="452">
         <v>24</v>
       </c>
-      <c r="H19" s="308">
+      <c r="H21" s="308">
         <v>465000</v>
       </c>
-      <c r="I19" s="295">
+      <c r="I21" s="295">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
-      <c r="J19" s="295"/>
-      <c r="K19" s="296">
+      <c r="J21" s="295"/>
+      <c r="K21" s="296">
         <v>0.5</v>
       </c>
-      <c r="L19" s="295">
+      <c r="L21" s="295">
         <f t="shared" si="1"/>
         <v>5580000</v>
       </c>
-      <c r="M19" s="295"/>
-      <c r="N19" s="295"/>
-      <c r="O19" s="295">
-        <f>L19</f>
+      <c r="M21" s="295"/>
+      <c r="N21" s="295"/>
+      <c r="O21" s="295">
+        <f>L21</f>
         <v>5580000</v>
       </c>
-      <c r="P19" s="454"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="418"/>
-      <c r="B20" s="419"/>
-      <c r="C20" s="418"/>
-      <c r="D20" s="323"/>
-      <c r="E20" s="323"/>
-      <c r="F20" s="455"/>
-      <c r="G20" s="455"/>
-      <c r="H20" s="456"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="319"/>
-      <c r="K20" s="320"/>
-      <c r="L20" s="319"/>
-      <c r="M20" s="319"/>
-      <c r="N20" s="319"/>
-      <c r="O20" s="319"/>
-      <c r="P20" s="457"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="274"/>
-      <c r="B21" s="423"/>
-      <c r="C21" s="274"/>
-      <c r="D21" s="328"/>
-      <c r="E21" s="328"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="292"/>
-      <c r="J21" s="292"/>
-      <c r="K21" s="293"/>
-      <c r="L21" s="292"/>
-      <c r="M21" s="292"/>
-      <c r="N21" s="292"/>
-      <c r="O21" s="292"/>
-      <c r="P21" s="310"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="274"/>
-      <c r="B22" s="423"/>
-      <c r="C22" s="274"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
-      <c r="F22" s="286"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="292"/>
-      <c r="I22" s="292"/>
-      <c r="J22" s="311"/>
-      <c r="K22" s="293"/>
-      <c r="L22" s="292"/>
-      <c r="M22" s="292"/>
-      <c r="N22" s="292"/>
-      <c r="O22" s="292"/>
-      <c r="P22" s="310"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="274"/>
-      <c r="B23" s="423"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="328"/>
-      <c r="E23" s="328"/>
-      <c r="F23" s="286"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="292"/>
-      <c r="I23" s="292"/>
-      <c r="J23" s="311"/>
-      <c r="K23" s="293"/>
-      <c r="L23" s="292"/>
-      <c r="M23" s="292"/>
+      <c r="P21" s="454"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="418">
+        <v>791</v>
+      </c>
+      <c r="B22" s="419">
+        <v>44089</v>
+      </c>
+      <c r="C22" s="418" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="323" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="323" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="455" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="455">
+        <v>6</v>
+      </c>
+      <c r="H22" s="456">
+        <v>485000</v>
+      </c>
+      <c r="I22" s="319">
+        <f t="shared" si="0"/>
+        <v>2910000</v>
+      </c>
+      <c r="J22" s="319"/>
+      <c r="K22" s="320">
+        <v>0.41</v>
+      </c>
+      <c r="L22" s="319">
+        <f t="shared" si="1"/>
+        <v>1716900.0000000002</v>
+      </c>
+      <c r="M22" s="319"/>
+      <c r="N22" s="319">
+        <f>L22</f>
+        <v>1716900.0000000002</v>
+      </c>
+      <c r="O22" s="319"/>
+      <c r="P22" s="457"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="527">
+        <v>788</v>
+      </c>
+      <c r="B23" s="529">
+        <v>44090</v>
+      </c>
+      <c r="C23" s="527" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="645" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="645"/>
+      <c r="F23" s="286" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="286">
+        <v>8</v>
+      </c>
+      <c r="H23" s="309">
+        <v>455000</v>
+      </c>
+      <c r="I23" s="292">
+        <f t="shared" si="0"/>
+        <v>3640000</v>
+      </c>
+      <c r="J23" s="292"/>
+      <c r="K23" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="292">
+        <f t="shared" si="1"/>
+        <v>1820000</v>
+      </c>
+      <c r="M23" s="292">
+        <f>L23</f>
+        <v>1820000</v>
+      </c>
       <c r="N23" s="292"/>
       <c r="O23" s="292"/>
-      <c r="P23" s="286"/>
-      <c r="R23" s="294"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="274"/>
-      <c r="B24" s="423"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="292"/>
-      <c r="I24" s="292"/>
+      <c r="P23" s="310"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="473"/>
+      <c r="B24" s="477"/>
+      <c r="C24" s="473"/>
+      <c r="D24" s="475"/>
+      <c r="E24" s="475"/>
+      <c r="F24" s="286" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="286">
+        <v>5</v>
+      </c>
+      <c r="H24" s="292">
+        <v>465000</v>
+      </c>
+      <c r="I24" s="292">
+        <f t="shared" si="0"/>
+        <v>2325000</v>
+      </c>
       <c r="J24" s="311"/>
-      <c r="K24" s="293"/>
-      <c r="L24" s="292"/>
-      <c r="M24" s="292"/>
+      <c r="K24" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="292">
+        <f t="shared" si="1"/>
+        <v>1162500</v>
+      </c>
+      <c r="M24" s="292">
+        <f t="shared" ref="M24:M29" si="3">L24</f>
+        <v>1162500</v>
+      </c>
       <c r="N24" s="292"/>
       <c r="O24" s="292"/>
-      <c r="P24" s="286"/>
+      <c r="P24" s="310"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="274"/>
-      <c r="B25" s="423"/>
-      <c r="C25" s="274"/>
-      <c r="D25" s="328"/>
-      <c r="E25" s="328"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
+      <c r="A25" s="473"/>
+      <c r="B25" s="477"/>
+      <c r="C25" s="473"/>
+      <c r="D25" s="475"/>
+      <c r="E25" s="475"/>
+      <c r="F25" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="286">
+        <v>4</v>
+      </c>
+      <c r="H25" s="292">
+        <v>255000</v>
+      </c>
+      <c r="I25" s="292">
+        <f t="shared" si="0"/>
+        <v>1020000</v>
+      </c>
       <c r="J25" s="311"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="292"/>
+      <c r="K25" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="292">
+        <f t="shared" si="1"/>
+        <v>510000</v>
+      </c>
+      <c r="M25" s="292">
+        <f t="shared" si="3"/>
+        <v>510000</v>
+      </c>
       <c r="N25" s="292"/>
       <c r="O25" s="292"/>
       <c r="P25" s="286"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="276"/>
-      <c r="B26" s="432"/>
-      <c r="C26" s="276"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="282"/>
-      <c r="G26" s="282"/>
-      <c r="H26" s="295"/>
-      <c r="I26" s="295"/>
-      <c r="J26" s="312"/>
-      <c r="K26" s="296"/>
-      <c r="L26" s="295"/>
-      <c r="M26" s="295"/>
-      <c r="N26" s="295"/>
-      <c r="O26" s="295"/>
-      <c r="P26" s="282"/>
+      <c r="R25" s="294"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="528"/>
+      <c r="B26" s="530"/>
+      <c r="C26" s="528"/>
+      <c r="D26" s="646"/>
+      <c r="E26" s="646"/>
+      <c r="F26" s="286" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="286">
+        <v>5</v>
+      </c>
+      <c r="H26" s="292">
+        <v>485000</v>
+      </c>
+      <c r="I26" s="292">
+        <f t="shared" si="0"/>
+        <v>2425000</v>
+      </c>
+      <c r="J26" s="311"/>
+      <c r="K26" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="292">
+        <f t="shared" si="1"/>
+        <v>1212500</v>
+      </c>
+      <c r="M26" s="292">
+        <f t="shared" si="3"/>
+        <v>1212500</v>
+      </c>
+      <c r="N26" s="292"/>
+      <c r="O26" s="292"/>
+      <c r="P26" s="286"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="474"/>
-      <c r="B27" s="480"/>
-      <c r="C27" s="474"/>
-      <c r="D27" s="474"/>
-      <c r="E27" s="474"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="313"/>
-      <c r="K27" s="291"/>
-      <c r="L27" s="314"/>
-      <c r="M27" s="290"/>
-      <c r="N27" s="290"/>
-      <c r="O27" s="290"/>
-      <c r="P27" s="281"/>
+      <c r="A27" s="527">
+        <v>794</v>
+      </c>
+      <c r="B27" s="529">
+        <v>44090</v>
+      </c>
+      <c r="C27" s="527"/>
+      <c r="D27" s="645" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="645"/>
+      <c r="F27" s="286" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="286">
+        <v>48</v>
+      </c>
+      <c r="H27" s="292">
+        <v>455000</v>
+      </c>
+      <c r="I27" s="292">
+        <f t="shared" si="0"/>
+        <v>21840000</v>
+      </c>
+      <c r="J27" s="311"/>
+      <c r="K27" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="292">
+        <f t="shared" si="1"/>
+        <v>10920000</v>
+      </c>
+      <c r="M27" s="292"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292">
+        <f>L27</f>
+        <v>10920000</v>
+      </c>
+      <c r="P27" s="286"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="478"/>
-      <c r="B28" s="481"/>
-      <c r="C28" s="478"/>
-      <c r="D28" s="478"/>
-      <c r="E28" s="478"/>
-      <c r="F28" s="286"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="292"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="293"/>
-      <c r="L28" s="316"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="292"/>
-      <c r="O28" s="292"/>
-      <c r="P28" s="286"/>
+      <c r="A28" s="473"/>
+      <c r="B28" s="477"/>
+      <c r="C28" s="473"/>
+      <c r="D28" s="475"/>
+      <c r="E28" s="475"/>
+      <c r="F28" s="282" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="282">
+        <v>24</v>
+      </c>
+      <c r="H28" s="295">
+        <v>465000</v>
+      </c>
+      <c r="I28" s="295">
+        <f t="shared" si="0"/>
+        <v>11160000</v>
+      </c>
+      <c r="J28" s="312"/>
+      <c r="K28" s="296">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="295">
+        <f t="shared" si="1"/>
+        <v>5580000</v>
+      </c>
+      <c r="M28" s="295"/>
+      <c r="N28" s="295"/>
+      <c r="O28" s="292">
+        <f t="shared" ref="O28:O29" si="4">L28</f>
+        <v>5580000</v>
+      </c>
+      <c r="P28" s="282"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="478"/>
-      <c r="B29" s="481"/>
-      <c r="C29" s="478"/>
-      <c r="D29" s="478"/>
-      <c r="E29" s="478"/>
-      <c r="F29" s="286"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="292"/>
-      <c r="I29" s="292"/>
-      <c r="J29" s="292"/>
-      <c r="K29" s="293"/>
-      <c r="L29" s="316"/>
-      <c r="M29" s="292"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="292"/>
-      <c r="P29" s="310"/>
+      <c r="A29" s="528"/>
+      <c r="B29" s="530"/>
+      <c r="C29" s="528"/>
+      <c r="D29" s="646"/>
+      <c r="E29" s="646"/>
+      <c r="F29" s="281" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="281">
+        <v>24</v>
+      </c>
+      <c r="H29" s="290">
+        <v>485000</v>
+      </c>
+      <c r="I29" s="290">
+        <f t="shared" si="0"/>
+        <v>11640000</v>
+      </c>
+      <c r="J29" s="313"/>
+      <c r="K29" s="291">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="314">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
+      <c r="M29" s="290"/>
+      <c r="N29" s="290"/>
+      <c r="O29" s="292">
+        <f t="shared" si="4"/>
+        <v>5820000</v>
+      </c>
+      <c r="P29" s="281"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="478"/>
-      <c r="B30" s="481"/>
-      <c r="C30" s="478"/>
-      <c r="D30" s="478"/>
-      <c r="E30" s="478"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="286"/>
-      <c r="H30" s="292"/>
-      <c r="I30" s="292"/>
-      <c r="J30" s="292"/>
-      <c r="K30" s="293"/>
-      <c r="L30" s="316"/>
+      <c r="A30" s="274">
+        <v>667</v>
+      </c>
+      <c r="B30" s="423">
+        <v>44091</v>
+      </c>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="274" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="286" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="286">
+        <v>36</v>
+      </c>
+      <c r="H30" s="292">
+        <v>455000</v>
+      </c>
+      <c r="I30" s="292">
+        <f t="shared" si="0"/>
+        <v>16380000</v>
+      </c>
+      <c r="J30" s="315">
+        <v>150000</v>
+      </c>
+      <c r="K30" s="293">
+        <v>0.41</v>
+      </c>
+      <c r="L30" s="316">
+        <f t="shared" si="1"/>
+        <v>9664200.0000000019</v>
+      </c>
       <c r="M30" s="292"/>
-      <c r="N30" s="292"/>
+      <c r="N30" s="292">
+        <f>L30</f>
+        <v>9664200.0000000019</v>
+      </c>
       <c r="O30" s="292"/>
       <c r="P30" s="286"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="478"/>
-      <c r="B31" s="481"/>
-      <c r="C31" s="478"/>
-      <c r="D31" s="478"/>
-      <c r="E31" s="478"/>
-      <c r="F31" s="286"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="292"/>
-      <c r="I31" s="292"/>
+    <row r="31" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="274">
+        <v>668</v>
+      </c>
+      <c r="B31" s="423">
+        <v>44091</v>
+      </c>
+      <c r="C31" s="274" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="274" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="274" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="286" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="286">
+        <v>6</v>
+      </c>
+      <c r="H31" s="292">
+        <v>455000</v>
+      </c>
+      <c r="I31" s="292">
+        <f t="shared" si="0"/>
+        <v>2730000</v>
+      </c>
       <c r="J31" s="292"/>
-      <c r="K31" s="293"/>
-      <c r="L31" s="292"/>
+      <c r="K31" s="293">
+        <v>0.41</v>
+      </c>
+      <c r="L31" s="316">
+        <f t="shared" si="1"/>
+        <v>1610700.0000000002</v>
+      </c>
       <c r="M31" s="292"/>
-      <c r="N31" s="292"/>
+      <c r="N31" s="292">
+        <f>L31</f>
+        <v>1610700.0000000002</v>
+      </c>
       <c r="O31" s="292"/>
-      <c r="P31" s="286"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="478"/>
-      <c r="B32" s="481"/>
-      <c r="C32" s="478"/>
-      <c r="D32" s="478"/>
-      <c r="E32" s="478"/>
-      <c r="F32" s="286"/>
-      <c r="G32" s="286"/>
-      <c r="H32" s="292"/>
-      <c r="I32" s="292"/>
+      <c r="P31" s="310"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="527">
+        <v>799</v>
+      </c>
+      <c r="B32" s="529">
+        <v>44092</v>
+      </c>
+      <c r="C32" s="527" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="527" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="527" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="286" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="286">
+        <v>5</v>
+      </c>
+      <c r="H32" s="292">
+        <v>455000</v>
+      </c>
+      <c r="I32" s="292">
+        <f t="shared" si="0"/>
+        <v>2275000</v>
+      </c>
       <c r="J32" s="292"/>
-      <c r="K32" s="293"/>
-      <c r="L32" s="292"/>
+      <c r="K32" s="293">
+        <v>0.41</v>
+      </c>
+      <c r="L32" s="316">
+        <f t="shared" si="1"/>
+        <v>1342250.0000000002</v>
+      </c>
       <c r="M32" s="292"/>
-      <c r="N32" s="292"/>
+      <c r="N32" s="292">
+        <f>L32</f>
+        <v>1342250.0000000002</v>
+      </c>
       <c r="O32" s="292"/>
       <c r="P32" s="286"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="475"/>
-      <c r="B33" s="482"/>
-      <c r="C33" s="475"/>
-      <c r="D33" s="475"/>
-      <c r="E33" s="475"/>
-      <c r="F33" s="282"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="295"/>
-      <c r="I33" s="295"/>
-      <c r="J33" s="295"/>
-      <c r="K33" s="296"/>
-      <c r="L33" s="295"/>
-      <c r="M33" s="295"/>
-      <c r="N33" s="295"/>
-      <c r="O33" s="295"/>
-      <c r="P33" s="317"/>
+      <c r="A33" s="528"/>
+      <c r="B33" s="530"/>
+      <c r="C33" s="528"/>
+      <c r="D33" s="528"/>
+      <c r="E33" s="528"/>
+      <c r="F33" s="286" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="286">
+        <v>10</v>
+      </c>
+      <c r="H33" s="292">
+        <v>465000</v>
+      </c>
+      <c r="I33" s="292">
+        <f t="shared" si="0"/>
+        <v>4650000</v>
+      </c>
+      <c r="J33" s="292"/>
+      <c r="K33" s="293">
+        <v>0.41</v>
+      </c>
+      <c r="L33" s="292">
+        <f t="shared" si="1"/>
+        <v>2743500.0000000005</v>
+      </c>
+      <c r="M33" s="292"/>
+      <c r="N33" s="292">
+        <f>L33</f>
+        <v>2743500.0000000005</v>
+      </c>
+      <c r="O33" s="292"/>
+      <c r="P33" s="286"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="474"/>
-      <c r="B34" s="480"/>
-      <c r="C34" s="474"/>
-      <c r="D34" s="474"/>
-      <c r="E34" s="474"/>
-      <c r="F34" s="281"/>
-      <c r="G34" s="281"/>
-      <c r="H34" s="290"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="290"/>
-      <c r="K34" s="291"/>
-      <c r="L34" s="290"/>
-      <c r="M34" s="290"/>
-      <c r="N34" s="290"/>
-      <c r="O34" s="290"/>
-      <c r="P34" s="318"/>
+      <c r="A34" s="274">
+        <v>670</v>
+      </c>
+      <c r="B34" s="423">
+        <v>44092</v>
+      </c>
+      <c r="C34" s="274"/>
+      <c r="D34" s="274" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="274"/>
+      <c r="F34" s="286" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="286">
+        <v>24</v>
+      </c>
+      <c r="H34" s="292">
+        <v>225000</v>
+      </c>
+      <c r="I34" s="292">
+        <f t="shared" si="0"/>
+        <v>5400000</v>
+      </c>
+      <c r="J34" s="292"/>
+      <c r="K34" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="292">
+        <f t="shared" si="1"/>
+        <v>2700000</v>
+      </c>
+      <c r="M34" s="292"/>
+      <c r="N34" s="292"/>
+      <c r="O34" s="292">
+        <f>L34</f>
+        <v>2700000</v>
+      </c>
+      <c r="P34" s="286"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="475"/>
-      <c r="B35" s="482"/>
-      <c r="C35" s="475"/>
-      <c r="D35" s="475"/>
-      <c r="E35" s="475"/>
+      <c r="A35" s="276"/>
+      <c r="B35" s="432"/>
+      <c r="C35" s="276"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="276"/>
       <c r="F35" s="282"/>
       <c r="G35" s="282"/>
       <c r="H35" s="295"/>
@@ -6455,104 +6854,102 @@
       <c r="P35" s="317"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="483"/>
-      <c r="B36" s="517"/>
-      <c r="C36" s="483"/>
-      <c r="D36" s="490"/>
-      <c r="E36" s="483"/>
-      <c r="H36" s="319"/>
-      <c r="I36" s="319"/>
-      <c r="J36" s="319"/>
-      <c r="K36" s="320"/>
-      <c r="L36" s="319"/>
-      <c r="M36" s="319"/>
-      <c r="N36" s="319"/>
-      <c r="O36" s="319"/>
-      <c r="P36" s="285"/>
-      <c r="Q36" s="294"/>
-    </row>
-    <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="472"/>
-      <c r="B37" s="514"/>
-      <c r="C37" s="472"/>
-      <c r="D37" s="516"/>
-      <c r="E37" s="472"/>
-      <c r="F37" s="284"/>
-      <c r="G37" s="284"/>
-      <c r="H37" s="321"/>
-      <c r="I37" s="321"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="322"/>
-      <c r="L37" s="321"/>
-      <c r="M37" s="321"/>
-      <c r="N37" s="321"/>
-      <c r="O37" s="321"/>
-      <c r="P37" s="284"/>
-      <c r="Q37" s="294"/>
-    </row>
-    <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="474"/>
-      <c r="B38" s="480"/>
-      <c r="C38" s="480"/>
-      <c r="D38" s="485"/>
-      <c r="E38" s="480"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="281"/>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
-      <c r="K38" s="291"/>
-      <c r="L38" s="290"/>
-      <c r="M38" s="290"/>
-      <c r="N38" s="290"/>
-      <c r="O38" s="290"/>
-      <c r="P38" s="281"/>
+      <c r="A36" s="478"/>
+      <c r="B36" s="484"/>
+      <c r="C36" s="478"/>
+      <c r="D36" s="478"/>
+      <c r="E36" s="478"/>
+      <c r="F36" s="281"/>
+      <c r="G36" s="281"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="290"/>
+      <c r="K36" s="291"/>
+      <c r="L36" s="290"/>
+      <c r="M36" s="290"/>
+      <c r="N36" s="290"/>
+      <c r="O36" s="290"/>
+      <c r="P36" s="318"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="480"/>
+      <c r="B37" s="486"/>
+      <c r="C37" s="480"/>
+      <c r="D37" s="480"/>
+      <c r="E37" s="480"/>
+      <c r="F37" s="282"/>
+      <c r="G37" s="282"/>
+      <c r="H37" s="295"/>
+      <c r="I37" s="295"/>
+      <c r="J37" s="295"/>
+      <c r="K37" s="296"/>
+      <c r="L37" s="295"/>
+      <c r="M37" s="295"/>
+      <c r="N37" s="295"/>
+      <c r="O37" s="295"/>
+      <c r="P37" s="317"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="472"/>
+      <c r="B38" s="476"/>
+      <c r="C38" s="472"/>
+      <c r="D38" s="474"/>
+      <c r="E38" s="472"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="319"/>
+      <c r="K38" s="320"/>
+      <c r="L38" s="319"/>
+      <c r="M38" s="319"/>
+      <c r="N38" s="319"/>
+      <c r="O38" s="319"/>
+      <c r="P38" s="285"/>
       <c r="Q38" s="294"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="478"/>
-      <c r="B39" s="481"/>
-      <c r="C39" s="481"/>
-      <c r="D39" s="486"/>
-      <c r="E39" s="481"/>
-      <c r="F39" s="286"/>
-      <c r="G39" s="286"/>
-      <c r="H39" s="292"/>
-      <c r="I39" s="292"/>
-      <c r="J39" s="292"/>
-      <c r="K39" s="293"/>
-      <c r="L39" s="292"/>
-      <c r="M39" s="292"/>
-      <c r="N39" s="292"/>
-      <c r="O39" s="292"/>
-      <c r="P39" s="286"/>
+      <c r="A39" s="473"/>
+      <c r="B39" s="477"/>
+      <c r="C39" s="473"/>
+      <c r="D39" s="475"/>
+      <c r="E39" s="473"/>
+      <c r="F39" s="284"/>
+      <c r="G39" s="284"/>
+      <c r="H39" s="321"/>
+      <c r="I39" s="321"/>
+      <c r="J39" s="321"/>
+      <c r="K39" s="322"/>
+      <c r="L39" s="321"/>
+      <c r="M39" s="321"/>
+      <c r="N39" s="321"/>
+      <c r="O39" s="321"/>
+      <c r="P39" s="284"/>
       <c r="Q39" s="294"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="478"/>
-      <c r="B40" s="481"/>
-      <c r="C40" s="481"/>
-      <c r="D40" s="486"/>
-      <c r="E40" s="481"/>
-      <c r="F40" s="286"/>
-      <c r="G40" s="286"/>
-      <c r="H40" s="292"/>
-      <c r="I40" s="292"/>
-      <c r="J40" s="292"/>
-      <c r="K40" s="293"/>
-      <c r="L40" s="292"/>
-      <c r="M40" s="292"/>
-      <c r="N40" s="292"/>
-      <c r="O40" s="292"/>
-      <c r="P40" s="286"/>
+      <c r="B40" s="484"/>
+      <c r="C40" s="484"/>
+      <c r="D40" s="517"/>
+      <c r="E40" s="484"/>
+      <c r="F40" s="281"/>
+      <c r="G40" s="281"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="290"/>
+      <c r="K40" s="291"/>
+      <c r="L40" s="290"/>
+      <c r="M40" s="290"/>
+      <c r="N40" s="290"/>
+      <c r="O40" s="290"/>
+      <c r="P40" s="281"/>
       <c r="Q40" s="294"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="478"/>
-      <c r="B41" s="481"/>
-      <c r="C41" s="481"/>
-      <c r="D41" s="486"/>
-      <c r="E41" s="481"/>
+      <c r="A41" s="479"/>
+      <c r="B41" s="485"/>
+      <c r="C41" s="485"/>
+      <c r="D41" s="518"/>
+      <c r="E41" s="485"/>
       <c r="F41" s="286"/>
       <c r="G41" s="286"/>
       <c r="H41" s="292"/>
@@ -6567,11 +6964,11 @@
       <c r="Q41" s="294"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="478"/>
-      <c r="B42" s="481"/>
-      <c r="C42" s="481"/>
-      <c r="D42" s="486"/>
-      <c r="E42" s="481"/>
+      <c r="A42" s="479"/>
+      <c r="B42" s="485"/>
+      <c r="C42" s="485"/>
+      <c r="D42" s="518"/>
+      <c r="E42" s="485"/>
       <c r="F42" s="286"/>
       <c r="G42" s="286"/>
       <c r="H42" s="292"/>
@@ -6586,11 +6983,11 @@
       <c r="Q42" s="294"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="478"/>
-      <c r="B43" s="481"/>
-      <c r="C43" s="481"/>
-      <c r="D43" s="486"/>
-      <c r="E43" s="481"/>
+      <c r="A43" s="479"/>
+      <c r="B43" s="485"/>
+      <c r="C43" s="485"/>
+      <c r="D43" s="518"/>
+      <c r="E43" s="485"/>
       <c r="F43" s="286"/>
       <c r="G43" s="286"/>
       <c r="H43" s="292"/>
@@ -6605,11 +7002,11 @@
       <c r="Q43" s="294"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="478"/>
-      <c r="B44" s="481"/>
-      <c r="C44" s="481"/>
-      <c r="D44" s="486"/>
-      <c r="E44" s="481"/>
+      <c r="A44" s="479"/>
+      <c r="B44" s="485"/>
+      <c r="C44" s="485"/>
+      <c r="D44" s="518"/>
+      <c r="E44" s="485"/>
       <c r="F44" s="286"/>
       <c r="G44" s="286"/>
       <c r="H44" s="292"/>
@@ -6624,121 +7021,123 @@
       <c r="Q44" s="294"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="475"/>
-      <c r="B45" s="482"/>
-      <c r="C45" s="482"/>
-      <c r="D45" s="487"/>
-      <c r="E45" s="482"/>
-      <c r="F45" s="282"/>
-      <c r="G45" s="282"/>
-      <c r="H45" s="295"/>
-      <c r="I45" s="295"/>
-      <c r="J45" s="295"/>
-      <c r="K45" s="296"/>
-      <c r="L45" s="295"/>
-      <c r="M45" s="295"/>
-      <c r="N45" s="295"/>
-      <c r="O45" s="295"/>
-      <c r="P45" s="282"/>
+      <c r="A45" s="479"/>
+      <c r="B45" s="485"/>
+      <c r="C45" s="485"/>
+      <c r="D45" s="518"/>
+      <c r="E45" s="485"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="286"/>
+      <c r="H45" s="292"/>
+      <c r="I45" s="292"/>
+      <c r="J45" s="292"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="292"/>
+      <c r="M45" s="292"/>
+      <c r="N45" s="292"/>
+      <c r="O45" s="292"/>
+      <c r="P45" s="286"/>
       <c r="Q45" s="294"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="275"/>
-      <c r="B46" s="304"/>
-      <c r="C46" s="275"/>
-      <c r="D46" s="305"/>
-      <c r="E46" s="275"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="275"/>
-      <c r="H46" s="297"/>
-      <c r="I46" s="297"/>
-      <c r="J46" s="297"/>
-      <c r="K46" s="298"/>
-      <c r="L46" s="297"/>
-      <c r="M46" s="297"/>
-      <c r="N46" s="297"/>
-      <c r="O46" s="297"/>
-      <c r="P46" s="275"/>
+      <c r="A46" s="479"/>
+      <c r="B46" s="485"/>
+      <c r="C46" s="485"/>
+      <c r="D46" s="518"/>
+      <c r="E46" s="485"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="286"/>
+      <c r="H46" s="292"/>
+      <c r="I46" s="292"/>
+      <c r="J46" s="292"/>
+      <c r="K46" s="293"/>
+      <c r="L46" s="292"/>
+      <c r="M46" s="292"/>
+      <c r="N46" s="292"/>
+      <c r="O46" s="292"/>
+      <c r="P46" s="286"/>
       <c r="Q46" s="294"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="472"/>
-      <c r="B47" s="514"/>
-      <c r="C47" s="472"/>
-      <c r="D47" s="516"/>
-      <c r="E47" s="472"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="285"/>
-      <c r="H47" s="319"/>
-      <c r="I47" s="319"/>
-      <c r="J47" s="319"/>
-      <c r="K47" s="320"/>
-      <c r="L47" s="319"/>
-      <c r="M47" s="319"/>
-      <c r="N47" s="319"/>
-      <c r="O47" s="319"/>
-      <c r="P47" s="323"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="473"/>
-      <c r="B48" s="515"/>
-      <c r="C48" s="473"/>
-      <c r="D48" s="491"/>
-      <c r="E48" s="473"/>
-      <c r="F48" s="282"/>
-      <c r="G48" s="282"/>
-      <c r="H48" s="295"/>
-      <c r="I48" s="295"/>
-      <c r="J48" s="295"/>
-      <c r="K48" s="296"/>
-      <c r="L48" s="295"/>
-      <c r="M48" s="295"/>
-      <c r="N48" s="295"/>
-      <c r="O48" s="295"/>
-      <c r="P48" s="317"/>
+    <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="480"/>
+      <c r="B47" s="486"/>
+      <c r="C47" s="486"/>
+      <c r="D47" s="519"/>
+      <c r="E47" s="486"/>
+      <c r="F47" s="282"/>
+      <c r="G47" s="282"/>
+      <c r="H47" s="295"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="295"/>
+      <c r="K47" s="296"/>
+      <c r="L47" s="295"/>
+      <c r="M47" s="295"/>
+      <c r="N47" s="295"/>
+      <c r="O47" s="295"/>
+      <c r="P47" s="282"/>
+      <c r="Q47" s="294"/>
+    </row>
+    <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="275"/>
+      <c r="B48" s="304"/>
+      <c r="C48" s="275"/>
+      <c r="D48" s="305"/>
+      <c r="E48" s="275"/>
+      <c r="F48" s="275"/>
+      <c r="G48" s="275"/>
+      <c r="H48" s="297"/>
+      <c r="I48" s="297"/>
+      <c r="J48" s="297"/>
+      <c r="K48" s="298"/>
+      <c r="L48" s="297"/>
+      <c r="M48" s="297"/>
+      <c r="N48" s="297"/>
+      <c r="O48" s="297"/>
+      <c r="P48" s="275"/>
+      <c r="Q48" s="294"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="483"/>
-      <c r="B49" s="517"/>
-      <c r="C49" s="483"/>
-      <c r="D49" s="490"/>
-      <c r="E49" s="483"/>
-      <c r="F49" s="281"/>
-      <c r="G49" s="281"/>
-      <c r="H49" s="290"/>
-      <c r="I49" s="290"/>
-      <c r="J49" s="290"/>
-      <c r="K49" s="291"/>
-      <c r="L49" s="290"/>
-      <c r="M49" s="290"/>
-      <c r="N49" s="290"/>
-      <c r="O49" s="290"/>
-      <c r="P49" s="281"/>
-    </row>
-    <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="472"/>
-      <c r="B50" s="514"/>
-      <c r="C50" s="472"/>
-      <c r="D50" s="516"/>
-      <c r="E50" s="472"/>
-      <c r="F50" s="284"/>
-      <c r="G50" s="284"/>
-      <c r="H50" s="321"/>
-      <c r="I50" s="321"/>
-      <c r="J50" s="321"/>
-      <c r="K50" s="322"/>
-      <c r="L50" s="321"/>
-      <c r="M50" s="321"/>
-      <c r="N50" s="321"/>
-      <c r="O50" s="321"/>
-      <c r="P50" s="284"/>
-    </row>
-    <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="474"/>
-      <c r="B51" s="480"/>
-      <c r="C51" s="474"/>
-      <c r="D51" s="488"/>
-      <c r="E51" s="474"/>
+      <c r="A49" s="473"/>
+      <c r="B49" s="477"/>
+      <c r="C49" s="473"/>
+      <c r="D49" s="475"/>
+      <c r="E49" s="473"/>
+      <c r="F49" s="285"/>
+      <c r="G49" s="285"/>
+      <c r="H49" s="319"/>
+      <c r="I49" s="319"/>
+      <c r="J49" s="319"/>
+      <c r="K49" s="320"/>
+      <c r="L49" s="319"/>
+      <c r="M49" s="319"/>
+      <c r="N49" s="319"/>
+      <c r="O49" s="319"/>
+      <c r="P49" s="323"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="487"/>
+      <c r="B50" s="488"/>
+      <c r="C50" s="487"/>
+      <c r="D50" s="489"/>
+      <c r="E50" s="487"/>
+      <c r="F50" s="282"/>
+      <c r="G50" s="282"/>
+      <c r="H50" s="295"/>
+      <c r="I50" s="295"/>
+      <c r="J50" s="295"/>
+      <c r="K50" s="296"/>
+      <c r="L50" s="295"/>
+      <c r="M50" s="295"/>
+      <c r="N50" s="295"/>
+      <c r="O50" s="295"/>
+      <c r="P50" s="317"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="472"/>
+      <c r="B51" s="476"/>
+      <c r="C51" s="472"/>
+      <c r="D51" s="474"/>
+      <c r="E51" s="472"/>
       <c r="F51" s="281"/>
       <c r="G51" s="281"/>
       <c r="H51" s="290"/>
@@ -6752,47 +7151,47 @@
       <c r="P51" s="281"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="478"/>
-      <c r="B52" s="481"/>
-      <c r="C52" s="478"/>
-      <c r="D52" s="513"/>
-      <c r="E52" s="478"/>
-      <c r="F52" s="286"/>
-      <c r="G52" s="286"/>
-      <c r="H52" s="292"/>
-      <c r="I52" s="292"/>
-      <c r="J52" s="292"/>
-      <c r="K52" s="293"/>
-      <c r="L52" s="292"/>
-      <c r="M52" s="292"/>
-      <c r="N52" s="292"/>
-      <c r="O52" s="292"/>
-      <c r="P52" s="286"/>
+      <c r="A52" s="473"/>
+      <c r="B52" s="477"/>
+      <c r="C52" s="473"/>
+      <c r="D52" s="475"/>
+      <c r="E52" s="473"/>
+      <c r="F52" s="284"/>
+      <c r="G52" s="284"/>
+      <c r="H52" s="321"/>
+      <c r="I52" s="321"/>
+      <c r="J52" s="321"/>
+      <c r="K52" s="322"/>
+      <c r="L52" s="321"/>
+      <c r="M52" s="321"/>
+      <c r="N52" s="321"/>
+      <c r="O52" s="321"/>
+      <c r="P52" s="284"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="478"/>
-      <c r="B53" s="481"/>
+      <c r="B53" s="484"/>
       <c r="C53" s="478"/>
-      <c r="D53" s="513"/>
+      <c r="D53" s="481"/>
       <c r="E53" s="478"/>
-      <c r="F53" s="286"/>
-      <c r="G53" s="286"/>
-      <c r="H53" s="292"/>
-      <c r="I53" s="292"/>
-      <c r="J53" s="292"/>
-      <c r="K53" s="293"/>
-      <c r="L53" s="292"/>
-      <c r="M53" s="292"/>
-      <c r="N53" s="292"/>
-      <c r="O53" s="292"/>
-      <c r="P53" s="286"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="478"/>
-      <c r="B54" s="481"/>
-      <c r="C54" s="478"/>
-      <c r="D54" s="513"/>
-      <c r="E54" s="478"/>
+      <c r="F53" s="281"/>
+      <c r="G53" s="281"/>
+      <c r="H53" s="290"/>
+      <c r="I53" s="290"/>
+      <c r="J53" s="290"/>
+      <c r="K53" s="291"/>
+      <c r="L53" s="290"/>
+      <c r="M53" s="290"/>
+      <c r="N53" s="290"/>
+      <c r="O53" s="290"/>
+      <c r="P53" s="281"/>
+    </row>
+    <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="479"/>
+      <c r="B54" s="485"/>
+      <c r="C54" s="479"/>
+      <c r="D54" s="482"/>
+      <c r="E54" s="479"/>
       <c r="F54" s="286"/>
       <c r="G54" s="286"/>
       <c r="H54" s="292"/>
@@ -6805,12 +7204,12 @@
       <c r="O54" s="292"/>
       <c r="P54" s="286"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="478"/>
-      <c r="B55" s="481"/>
-      <c r="C55" s="478"/>
-      <c r="D55" s="513"/>
-      <c r="E55" s="478"/>
+    <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="479"/>
+      <c r="B55" s="485"/>
+      <c r="C55" s="479"/>
+      <c r="D55" s="482"/>
+      <c r="E55" s="479"/>
       <c r="F55" s="286"/>
       <c r="G55" s="286"/>
       <c r="H55" s="292"/>
@@ -6824,11 +7223,11 @@
       <c r="P55" s="286"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="478"/>
-      <c r="B56" s="481"/>
-      <c r="C56" s="478"/>
-      <c r="D56" s="513"/>
-      <c r="E56" s="478"/>
+      <c r="A56" s="479"/>
+      <c r="B56" s="485"/>
+      <c r="C56" s="479"/>
+      <c r="D56" s="482"/>
+      <c r="E56" s="479"/>
       <c r="F56" s="286"/>
       <c r="G56" s="286"/>
       <c r="H56" s="292"/>
@@ -6842,11 +7241,11 @@
       <c r="P56" s="286"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="478"/>
-      <c r="B57" s="481"/>
-      <c r="C57" s="478"/>
-      <c r="D57" s="513"/>
-      <c r="E57" s="478"/>
+      <c r="A57" s="479"/>
+      <c r="B57" s="485"/>
+      <c r="C57" s="479"/>
+      <c r="D57" s="482"/>
+      <c r="E57" s="479"/>
       <c r="F57" s="286"/>
       <c r="G57" s="286"/>
       <c r="H57" s="292"/>
@@ -6859,12 +7258,12 @@
       <c r="O57" s="292"/>
       <c r="P57" s="286"/>
     </row>
-    <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="478"/>
-      <c r="B58" s="481"/>
-      <c r="C58" s="478"/>
-      <c r="D58" s="513"/>
-      <c r="E58" s="478"/>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="479"/>
+      <c r="B58" s="485"/>
+      <c r="C58" s="479"/>
+      <c r="D58" s="482"/>
+      <c r="E58" s="479"/>
       <c r="F58" s="286"/>
       <c r="G58" s="286"/>
       <c r="H58" s="292"/>
@@ -6877,105 +7276,103 @@
       <c r="O58" s="292"/>
       <c r="P58" s="286"/>
     </row>
-    <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="475"/>
-      <c r="B59" s="482"/>
-      <c r="C59" s="475"/>
-      <c r="D59" s="489"/>
-      <c r="E59" s="475"/>
-      <c r="F59" s="282"/>
-      <c r="G59" s="282"/>
-      <c r="H59" s="295"/>
-      <c r="I59" s="295"/>
-      <c r="J59" s="295"/>
-      <c r="K59" s="296"/>
-      <c r="L59" s="295"/>
-      <c r="M59" s="295"/>
-      <c r="N59" s="295"/>
-      <c r="O59" s="295"/>
-      <c r="P59" s="282"/>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="479"/>
+      <c r="B59" s="485"/>
+      <c r="C59" s="479"/>
+      <c r="D59" s="482"/>
+      <c r="E59" s="479"/>
+      <c r="F59" s="286"/>
+      <c r="G59" s="286"/>
+      <c r="H59" s="292"/>
+      <c r="I59" s="292"/>
+      <c r="J59" s="292"/>
+      <c r="K59" s="293"/>
+      <c r="L59" s="292"/>
+      <c r="M59" s="292"/>
+      <c r="N59" s="292"/>
+      <c r="O59" s="292"/>
+      <c r="P59" s="286"/>
     </row>
     <row r="60" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="289"/>
-      <c r="B60" s="324"/>
-      <c r="C60" s="289"/>
-      <c r="D60" s="325"/>
-      <c r="E60" s="289"/>
-      <c r="F60" s="283"/>
-      <c r="G60" s="283"/>
-      <c r="H60" s="287"/>
-      <c r="I60" s="287"/>
-      <c r="J60" s="287"/>
-      <c r="K60" s="288"/>
-      <c r="L60" s="287"/>
-      <c r="M60" s="287"/>
-      <c r="N60" s="287"/>
-      <c r="O60" s="287"/>
-      <c r="P60" s="283"/>
+      <c r="A60" s="479"/>
+      <c r="B60" s="485"/>
+      <c r="C60" s="479"/>
+      <c r="D60" s="482"/>
+      <c r="E60" s="479"/>
+      <c r="F60" s="286"/>
+      <c r="G60" s="286"/>
+      <c r="H60" s="292"/>
+      <c r="I60" s="292"/>
+      <c r="J60" s="292"/>
+      <c r="K60" s="293"/>
+      <c r="L60" s="292"/>
+      <c r="M60" s="292"/>
+      <c r="N60" s="292"/>
+      <c r="O60" s="292"/>
+      <c r="P60" s="286"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="474"/>
-      <c r="B61" s="480"/>
-      <c r="C61" s="474"/>
-      <c r="D61" s="488"/>
-      <c r="E61" s="474"/>
-      <c r="F61" s="281"/>
-      <c r="G61" s="281"/>
-      <c r="H61" s="290"/>
-      <c r="I61" s="290"/>
-      <c r="J61" s="290"/>
-      <c r="K61" s="291"/>
-      <c r="L61" s="290"/>
-      <c r="M61" s="290"/>
-      <c r="N61" s="290"/>
-      <c r="O61" s="290"/>
-      <c r="P61" s="281"/>
-      <c r="Q61" s="294"/>
+      <c r="A61" s="480"/>
+      <c r="B61" s="486"/>
+      <c r="C61" s="480"/>
+      <c r="D61" s="483"/>
+      <c r="E61" s="480"/>
+      <c r="F61" s="282"/>
+      <c r="G61" s="282"/>
+      <c r="H61" s="295"/>
+      <c r="I61" s="295"/>
+      <c r="J61" s="295"/>
+      <c r="K61" s="296"/>
+      <c r="L61" s="295"/>
+      <c r="M61" s="295"/>
+      <c r="N61" s="295"/>
+      <c r="O61" s="295"/>
+      <c r="P61" s="282"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="478"/>
-      <c r="B62" s="481"/>
-      <c r="C62" s="478"/>
-      <c r="D62" s="513"/>
-      <c r="E62" s="478"/>
-      <c r="F62" s="286"/>
-      <c r="G62" s="286"/>
-      <c r="H62" s="292"/>
-      <c r="I62" s="292"/>
-      <c r="J62" s="292"/>
-      <c r="K62" s="293"/>
-      <c r="L62" s="292"/>
-      <c r="M62" s="292"/>
-      <c r="N62" s="292"/>
-      <c r="O62" s="292"/>
-      <c r="P62" s="286"/>
-      <c r="Q62" s="294"/>
+      <c r="A62" s="289"/>
+      <c r="B62" s="324"/>
+      <c r="C62" s="289"/>
+      <c r="D62" s="325"/>
+      <c r="E62" s="289"/>
+      <c r="F62" s="283"/>
+      <c r="G62" s="283"/>
+      <c r="H62" s="287"/>
+      <c r="I62" s="287"/>
+      <c r="J62" s="287"/>
+      <c r="K62" s="288"/>
+      <c r="L62" s="287"/>
+      <c r="M62" s="287"/>
+      <c r="N62" s="287"/>
+      <c r="O62" s="287"/>
+      <c r="P62" s="283"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="478"/>
-      <c r="B63" s="481"/>
+      <c r="B63" s="484"/>
       <c r="C63" s="478"/>
-      <c r="D63" s="513"/>
+      <c r="D63" s="481"/>
       <c r="E63" s="478"/>
-      <c r="F63" s="286"/>
-      <c r="G63" s="286"/>
-      <c r="H63" s="292"/>
-      <c r="I63" s="292"/>
-      <c r="J63" s="292"/>
-      <c r="K63" s="293"/>
-      <c r="L63" s="292"/>
-      <c r="M63" s="292"/>
-      <c r="N63" s="292"/>
-      <c r="O63" s="292"/>
-      <c r="P63" s="286"/>
+      <c r="F63" s="281"/>
+      <c r="G63" s="281"/>
+      <c r="H63" s="290"/>
+      <c r="I63" s="290"/>
+      <c r="J63" s="290"/>
+      <c r="K63" s="291"/>
+      <c r="L63" s="290"/>
+      <c r="M63" s="290"/>
+      <c r="N63" s="290"/>
+      <c r="O63" s="290"/>
+      <c r="P63" s="281"/>
       <c r="Q63" s="294"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="478"/>
-      <c r="B64" s="481"/>
-      <c r="C64" s="478"/>
-      <c r="D64" s="513"/>
-      <c r="E64" s="478"/>
+    <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="479"/>
+      <c r="B64" s="485"/>
+      <c r="C64" s="479"/>
+      <c r="D64" s="482"/>
+      <c r="E64" s="479"/>
       <c r="F64" s="286"/>
       <c r="G64" s="286"/>
       <c r="H64" s="292"/>
@@ -6989,12 +7386,12 @@
       <c r="P64" s="286"/>
       <c r="Q64" s="294"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="478"/>
-      <c r="B65" s="481"/>
-      <c r="C65" s="478"/>
-      <c r="D65" s="513"/>
-      <c r="E65" s="478"/>
+    <row r="65" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="479"/>
+      <c r="B65" s="485"/>
+      <c r="C65" s="479"/>
+      <c r="D65" s="482"/>
+      <c r="E65" s="479"/>
       <c r="F65" s="286"/>
       <c r="G65" s="286"/>
       <c r="H65" s="292"/>
@@ -7009,11 +7406,11 @@
       <c r="Q65" s="294"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="478"/>
-      <c r="B66" s="481"/>
-      <c r="C66" s="478"/>
-      <c r="D66" s="513"/>
-      <c r="E66" s="478"/>
+      <c r="A66" s="479"/>
+      <c r="B66" s="485"/>
+      <c r="C66" s="479"/>
+      <c r="D66" s="482"/>
+      <c r="E66" s="479"/>
       <c r="F66" s="286"/>
       <c r="G66" s="286"/>
       <c r="H66" s="292"/>
@@ -7028,49 +7425,49 @@
       <c r="Q66" s="294"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="475"/>
-      <c r="B67" s="482"/>
-      <c r="C67" s="475"/>
-      <c r="D67" s="489"/>
-      <c r="E67" s="475"/>
-      <c r="F67" s="282"/>
-      <c r="G67" s="282"/>
-      <c r="H67" s="295"/>
-      <c r="I67" s="295"/>
-      <c r="J67" s="295"/>
-      <c r="K67" s="296"/>
-      <c r="L67" s="295"/>
-      <c r="M67" s="295"/>
-      <c r="N67" s="295"/>
-      <c r="O67" s="295"/>
-      <c r="P67" s="282"/>
+      <c r="A67" s="479"/>
+      <c r="B67" s="485"/>
+      <c r="C67" s="479"/>
+      <c r="D67" s="482"/>
+      <c r="E67" s="479"/>
+      <c r="F67" s="286"/>
+      <c r="G67" s="286"/>
+      <c r="H67" s="292"/>
+      <c r="I67" s="292"/>
+      <c r="J67" s="292"/>
+      <c r="K67" s="293"/>
+      <c r="L67" s="292"/>
+      <c r="M67" s="292"/>
+      <c r="N67" s="292"/>
+      <c r="O67" s="292"/>
+      <c r="P67" s="286"/>
       <c r="Q67" s="294"/>
     </row>
-    <row r="68" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="474"/>
-      <c r="B68" s="480"/>
-      <c r="C68" s="474"/>
-      <c r="D68" s="488"/>
-      <c r="E68" s="474"/>
-      <c r="F68" s="281"/>
-      <c r="G68" s="281"/>
-      <c r="H68" s="290"/>
-      <c r="I68" s="290"/>
-      <c r="J68" s="290"/>
-      <c r="K68" s="291"/>
-      <c r="L68" s="290"/>
-      <c r="M68" s="290"/>
-      <c r="N68" s="290"/>
-      <c r="O68" s="290"/>
-      <c r="P68" s="488"/>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="479"/>
+      <c r="B68" s="485"/>
+      <c r="C68" s="479"/>
+      <c r="D68" s="482"/>
+      <c r="E68" s="479"/>
+      <c r="F68" s="286"/>
+      <c r="G68" s="286"/>
+      <c r="H68" s="292"/>
+      <c r="I68" s="292"/>
+      <c r="J68" s="292"/>
+      <c r="K68" s="293"/>
+      <c r="L68" s="292"/>
+      <c r="M68" s="292"/>
+      <c r="N68" s="292"/>
+      <c r="O68" s="292"/>
+      <c r="P68" s="286"/>
       <c r="Q68" s="294"/>
     </row>
-    <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="475"/>
-      <c r="B69" s="482"/>
-      <c r="C69" s="475"/>
-      <c r="D69" s="489"/>
-      <c r="E69" s="475"/>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="480"/>
+      <c r="B69" s="486"/>
+      <c r="C69" s="480"/>
+      <c r="D69" s="483"/>
+      <c r="E69" s="480"/>
       <c r="F69" s="282"/>
       <c r="G69" s="282"/>
       <c r="H69" s="295"/>
@@ -7081,91 +7478,91 @@
       <c r="M69" s="295"/>
       <c r="N69" s="295"/>
       <c r="O69" s="295"/>
-      <c r="P69" s="489"/>
+      <c r="P69" s="282"/>
       <c r="Q69" s="294"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="283"/>
-      <c r="B70" s="326"/>
-      <c r="C70" s="283"/>
-      <c r="D70" s="327"/>
-      <c r="E70" s="283"/>
-      <c r="F70" s="283"/>
-      <c r="G70" s="283"/>
-      <c r="H70" s="287"/>
-      <c r="I70" s="287"/>
-      <c r="J70" s="287"/>
-      <c r="K70" s="288"/>
-      <c r="L70" s="287"/>
-      <c r="M70" s="287"/>
-      <c r="N70" s="287"/>
-      <c r="O70" s="287"/>
-      <c r="P70" s="327"/>
+      <c r="A70" s="478"/>
+      <c r="B70" s="484"/>
+      <c r="C70" s="478"/>
+      <c r="D70" s="481"/>
+      <c r="E70" s="478"/>
+      <c r="F70" s="281"/>
+      <c r="G70" s="281"/>
+      <c r="H70" s="290"/>
+      <c r="I70" s="290"/>
+      <c r="J70" s="290"/>
+      <c r="K70" s="291"/>
+      <c r="L70" s="290"/>
+      <c r="M70" s="290"/>
+      <c r="N70" s="290"/>
+      <c r="O70" s="290"/>
+      <c r="P70" s="481"/>
       <c r="Q70" s="294"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="474"/>
-      <c r="B71" s="480"/>
-      <c r="C71" s="474"/>
-      <c r="D71" s="488"/>
-      <c r="E71" s="474"/>
-      <c r="F71" s="281"/>
-      <c r="G71" s="281"/>
-      <c r="H71" s="290"/>
-      <c r="I71" s="290"/>
-      <c r="J71" s="290"/>
-      <c r="K71" s="291"/>
-      <c r="L71" s="290"/>
-      <c r="M71" s="290"/>
-      <c r="N71" s="290"/>
-      <c r="O71" s="290"/>
-      <c r="P71" s="281"/>
+      <c r="A71" s="480"/>
+      <c r="B71" s="486"/>
+      <c r="C71" s="480"/>
+      <c r="D71" s="483"/>
+      <c r="E71" s="480"/>
+      <c r="F71" s="282"/>
+      <c r="G71" s="282"/>
+      <c r="H71" s="295"/>
+      <c r="I71" s="295"/>
+      <c r="J71" s="295"/>
+      <c r="K71" s="296"/>
+      <c r="L71" s="295"/>
+      <c r="M71" s="295"/>
+      <c r="N71" s="295"/>
+      <c r="O71" s="295"/>
+      <c r="P71" s="483"/>
       <c r="Q71" s="294"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="478"/>
-      <c r="B72" s="481"/>
-      <c r="C72" s="478"/>
-      <c r="D72" s="513"/>
-      <c r="E72" s="478"/>
-      <c r="F72" s="286"/>
-      <c r="G72" s="286"/>
-      <c r="H72" s="292"/>
-      <c r="I72" s="292"/>
-      <c r="J72" s="292"/>
-      <c r="K72" s="293"/>
-      <c r="L72" s="292"/>
-      <c r="M72" s="292"/>
-      <c r="N72" s="292"/>
-      <c r="O72" s="292"/>
-      <c r="P72" s="286"/>
+      <c r="A72" s="283"/>
+      <c r="B72" s="326"/>
+      <c r="C72" s="283"/>
+      <c r="D72" s="327"/>
+      <c r="E72" s="283"/>
+      <c r="F72" s="283"/>
+      <c r="G72" s="283"/>
+      <c r="H72" s="287"/>
+      <c r="I72" s="287"/>
+      <c r="J72" s="287"/>
+      <c r="K72" s="288"/>
+      <c r="L72" s="287"/>
+      <c r="M72" s="287"/>
+      <c r="N72" s="287"/>
+      <c r="O72" s="287"/>
+      <c r="P72" s="327"/>
       <c r="Q72" s="294"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="478"/>
-      <c r="B73" s="481"/>
+      <c r="B73" s="484"/>
       <c r="C73" s="478"/>
-      <c r="D73" s="513"/>
+      <c r="D73" s="481"/>
       <c r="E73" s="478"/>
-      <c r="F73" s="286"/>
-      <c r="G73" s="286"/>
-      <c r="H73" s="292"/>
-      <c r="I73" s="292"/>
-      <c r="J73" s="292"/>
-      <c r="K73" s="293"/>
-      <c r="L73" s="292"/>
-      <c r="M73" s="292"/>
-      <c r="N73" s="292"/>
-      <c r="O73" s="292"/>
-      <c r="P73" s="286"/>
+      <c r="F73" s="281"/>
+      <c r="G73" s="281"/>
+      <c r="H73" s="290"/>
+      <c r="I73" s="290"/>
+      <c r="J73" s="290"/>
+      <c r="K73" s="291"/>
+      <c r="L73" s="290"/>
+      <c r="M73" s="290"/>
+      <c r="N73" s="290"/>
+      <c r="O73" s="290"/>
+      <c r="P73" s="281"/>
       <c r="Q73" s="294"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="478"/>
-      <c r="B74" s="481"/>
-      <c r="C74" s="478"/>
-      <c r="D74" s="513"/>
-      <c r="E74" s="478"/>
+    <row r="74" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="479"/>
+      <c r="B74" s="485"/>
+      <c r="C74" s="479"/>
+      <c r="D74" s="482"/>
+      <c r="E74" s="479"/>
       <c r="F74" s="286"/>
       <c r="G74" s="286"/>
       <c r="H74" s="292"/>
@@ -7180,11 +7577,11 @@
       <c r="Q74" s="294"/>
     </row>
     <row r="75" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="478"/>
-      <c r="B75" s="481"/>
-      <c r="C75" s="478"/>
-      <c r="D75" s="513"/>
-      <c r="E75" s="478"/>
+      <c r="A75" s="479"/>
+      <c r="B75" s="485"/>
+      <c r="C75" s="479"/>
+      <c r="D75" s="482"/>
+      <c r="E75" s="479"/>
       <c r="F75" s="286"/>
       <c r="G75" s="286"/>
       <c r="H75" s="292"/>
@@ -7198,194 +7595,196 @@
       <c r="P75" s="286"/>
       <c r="Q75" s="294"/>
     </row>
-    <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="475"/>
-      <c r="B76" s="482"/>
-      <c r="C76" s="475"/>
-      <c r="D76" s="489"/>
-      <c r="E76" s="475"/>
-      <c r="F76" s="282"/>
-      <c r="G76" s="282"/>
-      <c r="H76" s="295"/>
-      <c r="I76" s="295"/>
-      <c r="J76" s="295"/>
-      <c r="K76" s="296"/>
-      <c r="L76" s="295"/>
-      <c r="M76" s="295"/>
-      <c r="N76" s="295"/>
-      <c r="O76" s="295"/>
-      <c r="P76" s="282"/>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="479"/>
+      <c r="B76" s="485"/>
+      <c r="C76" s="479"/>
+      <c r="D76" s="482"/>
+      <c r="E76" s="479"/>
+      <c r="F76" s="286"/>
+      <c r="G76" s="286"/>
+      <c r="H76" s="292"/>
+      <c r="I76" s="292"/>
+      <c r="J76" s="292"/>
+      <c r="K76" s="293"/>
+      <c r="L76" s="292"/>
+      <c r="M76" s="292"/>
+      <c r="N76" s="292"/>
+      <c r="O76" s="292"/>
+      <c r="P76" s="286"/>
       <c r="Q76" s="294"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="474"/>
-      <c r="B77" s="480"/>
-      <c r="C77" s="474"/>
-      <c r="D77" s="488"/>
-      <c r="E77" s="474"/>
-      <c r="F77" s="281"/>
-      <c r="G77" s="281"/>
-      <c r="H77" s="290"/>
-      <c r="I77" s="290"/>
-      <c r="J77" s="290"/>
-      <c r="K77" s="291"/>
-      <c r="L77" s="290"/>
-      <c r="M77" s="290"/>
-      <c r="N77" s="290"/>
-      <c r="O77" s="290"/>
-      <c r="P77" s="281"/>
+      <c r="A77" s="479"/>
+      <c r="B77" s="485"/>
+      <c r="C77" s="479"/>
+      <c r="D77" s="482"/>
+      <c r="E77" s="479"/>
+      <c r="F77" s="286"/>
+      <c r="G77" s="286"/>
+      <c r="H77" s="292"/>
+      <c r="I77" s="292"/>
+      <c r="J77" s="292"/>
+      <c r="K77" s="293"/>
+      <c r="L77" s="292"/>
+      <c r="M77" s="292"/>
+      <c r="N77" s="292"/>
+      <c r="O77" s="292"/>
+      <c r="P77" s="286"/>
       <c r="Q77" s="294"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="478"/>
-      <c r="B78" s="481"/>
-      <c r="C78" s="478"/>
-      <c r="D78" s="513"/>
-      <c r="E78" s="478"/>
-      <c r="F78" s="286"/>
-      <c r="G78" s="286"/>
-      <c r="H78" s="292"/>
-      <c r="I78" s="292"/>
-      <c r="J78" s="292"/>
-      <c r="K78" s="293"/>
-      <c r="L78" s="292"/>
-      <c r="M78" s="292"/>
-      <c r="N78" s="292"/>
-      <c r="O78" s="292"/>
-      <c r="P78" s="328"/>
+      <c r="A78" s="480"/>
+      <c r="B78" s="486"/>
+      <c r="C78" s="480"/>
+      <c r="D78" s="483"/>
+      <c r="E78" s="480"/>
+      <c r="F78" s="282"/>
+      <c r="G78" s="282"/>
+      <c r="H78" s="295"/>
+      <c r="I78" s="295"/>
+      <c r="J78" s="295"/>
+      <c r="K78" s="296"/>
+      <c r="L78" s="295"/>
+      <c r="M78" s="295"/>
+      <c r="N78" s="295"/>
+      <c r="O78" s="295"/>
+      <c r="P78" s="282"/>
+      <c r="Q78" s="294"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="478"/>
-      <c r="B79" s="481"/>
+      <c r="B79" s="484"/>
       <c r="C79" s="478"/>
-      <c r="D79" s="513"/>
+      <c r="D79" s="481"/>
       <c r="E79" s="478"/>
-      <c r="F79" s="286"/>
-      <c r="G79" s="286"/>
-      <c r="H79" s="292"/>
-      <c r="I79" s="292"/>
-      <c r="J79" s="292"/>
-      <c r="K79" s="293"/>
-      <c r="L79" s="292"/>
-      <c r="M79" s="292"/>
-      <c r="N79" s="292"/>
-      <c r="O79" s="292"/>
-      <c r="P79" s="328"/>
+      <c r="F79" s="281"/>
+      <c r="G79" s="281"/>
+      <c r="H79" s="290"/>
+      <c r="I79" s="290"/>
+      <c r="J79" s="290"/>
+      <c r="K79" s="291"/>
+      <c r="L79" s="290"/>
+      <c r="M79" s="290"/>
+      <c r="N79" s="290"/>
+      <c r="O79" s="290"/>
+      <c r="P79" s="281"/>
+      <c r="Q79" s="294"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="475"/>
-      <c r="B80" s="482"/>
-      <c r="C80" s="475"/>
-      <c r="D80" s="489"/>
-      <c r="E80" s="475"/>
-      <c r="F80" s="282"/>
-      <c r="G80" s="282"/>
-      <c r="H80" s="295"/>
-      <c r="I80" s="295"/>
-      <c r="J80" s="295"/>
-      <c r="K80" s="296"/>
-      <c r="L80" s="295"/>
-      <c r="M80" s="295"/>
-      <c r="N80" s="295"/>
-      <c r="O80" s="295"/>
-      <c r="P80" s="317"/>
+      <c r="A80" s="479"/>
+      <c r="B80" s="485"/>
+      <c r="C80" s="479"/>
+      <c r="D80" s="482"/>
+      <c r="E80" s="479"/>
+      <c r="F80" s="286"/>
+      <c r="G80" s="286"/>
+      <c r="H80" s="292"/>
+      <c r="I80" s="292"/>
+      <c r="J80" s="292"/>
+      <c r="K80" s="293"/>
+      <c r="L80" s="292"/>
+      <c r="M80" s="292"/>
+      <c r="N80" s="292"/>
+      <c r="O80" s="292"/>
+      <c r="P80" s="328"/>
     </row>
     <row r="81" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="303"/>
-      <c r="B81" s="302"/>
-      <c r="C81" s="303"/>
-      <c r="D81" s="329"/>
-      <c r="E81" s="303"/>
-      <c r="F81" s="299"/>
-      <c r="G81" s="299"/>
-      <c r="H81" s="300"/>
-      <c r="I81" s="300"/>
-      <c r="J81" s="300"/>
-      <c r="K81" s="301"/>
-      <c r="L81" s="300"/>
-      <c r="M81" s="300"/>
-      <c r="N81" s="300"/>
-      <c r="O81" s="300"/>
-      <c r="P81" s="329"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="275"/>
-      <c r="B82" s="330"/>
-      <c r="C82" s="275"/>
-      <c r="D82" s="275"/>
-      <c r="E82" s="275"/>
-      <c r="F82" s="275"/>
-      <c r="G82" s="275"/>
-      <c r="H82" s="297"/>
-      <c r="I82" s="297"/>
-      <c r="J82" s="297"/>
-      <c r="K82" s="298"/>
-      <c r="L82" s="297"/>
-      <c r="M82" s="297"/>
-      <c r="N82" s="297"/>
-      <c r="O82" s="297"/>
-      <c r="P82" s="331"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="474"/>
-      <c r="B83" s="476"/>
-      <c r="C83" s="474"/>
-      <c r="D83" s="474"/>
-      <c r="E83" s="474"/>
-      <c r="F83" s="281"/>
-      <c r="G83" s="281"/>
-      <c r="H83" s="290"/>
-      <c r="I83" s="290"/>
-      <c r="J83" s="290"/>
-      <c r="K83" s="291"/>
-      <c r="L83" s="290"/>
-      <c r="M83" s="290"/>
-      <c r="N83" s="290"/>
-      <c r="O83" s="290"/>
-      <c r="P83" s="318"/>
+      <c r="A81" s="479"/>
+      <c r="B81" s="485"/>
+      <c r="C81" s="479"/>
+      <c r="D81" s="482"/>
+      <c r="E81" s="479"/>
+      <c r="F81" s="286"/>
+      <c r="G81" s="286"/>
+      <c r="H81" s="292"/>
+      <c r="I81" s="292"/>
+      <c r="J81" s="292"/>
+      <c r="K81" s="293"/>
+      <c r="L81" s="292"/>
+      <c r="M81" s="292"/>
+      <c r="N81" s="292"/>
+      <c r="O81" s="292"/>
+      <c r="P81" s="328"/>
+    </row>
+    <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="480"/>
+      <c r="B82" s="486"/>
+      <c r="C82" s="480"/>
+      <c r="D82" s="483"/>
+      <c r="E82" s="480"/>
+      <c r="F82" s="282"/>
+      <c r="G82" s="282"/>
+      <c r="H82" s="295"/>
+      <c r="I82" s="295"/>
+      <c r="J82" s="295"/>
+      <c r="K82" s="296"/>
+      <c r="L82" s="295"/>
+      <c r="M82" s="295"/>
+      <c r="N82" s="295"/>
+      <c r="O82" s="295"/>
+      <c r="P82" s="317"/>
+    </row>
+    <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="303"/>
+      <c r="B83" s="302"/>
+      <c r="C83" s="303"/>
+      <c r="D83" s="329"/>
+      <c r="E83" s="303"/>
+      <c r="F83" s="299"/>
+      <c r="G83" s="299"/>
+      <c r="H83" s="300"/>
+      <c r="I83" s="300"/>
+      <c r="J83" s="300"/>
+      <c r="K83" s="301"/>
+      <c r="L83" s="300"/>
+      <c r="M83" s="300"/>
+      <c r="N83" s="300"/>
+      <c r="O83" s="300"/>
+      <c r="P83" s="329"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="478"/>
-      <c r="B84" s="479"/>
-      <c r="C84" s="478"/>
-      <c r="D84" s="478"/>
-      <c r="E84" s="478"/>
-      <c r="F84" s="286"/>
-      <c r="G84" s="286"/>
-      <c r="H84" s="292"/>
-      <c r="I84" s="292"/>
-      <c r="J84" s="292"/>
-      <c r="K84" s="293"/>
-      <c r="L84" s="292"/>
-      <c r="M84" s="292"/>
-      <c r="N84" s="292"/>
-      <c r="O84" s="292"/>
-      <c r="P84" s="328"/>
-    </row>
-    <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="275"/>
+      <c r="B84" s="330"/>
+      <c r="C84" s="275"/>
+      <c r="D84" s="275"/>
+      <c r="E84" s="275"/>
+      <c r="F84" s="275"/>
+      <c r="G84" s="275"/>
+      <c r="H84" s="297"/>
+      <c r="I84" s="297"/>
+      <c r="J84" s="297"/>
+      <c r="K84" s="298"/>
+      <c r="L84" s="297"/>
+      <c r="M84" s="297"/>
+      <c r="N84" s="297"/>
+      <c r="O84" s="297"/>
+      <c r="P84" s="331"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="478"/>
-      <c r="B85" s="479"/>
+      <c r="B85" s="490"/>
       <c r="C85" s="478"/>
       <c r="D85" s="478"/>
       <c r="E85" s="478"/>
-      <c r="F85" s="286"/>
-      <c r="G85" s="286"/>
-      <c r="H85" s="292"/>
-      <c r="I85" s="292"/>
-      <c r="J85" s="292"/>
-      <c r="K85" s="293"/>
-      <c r="L85" s="292"/>
-      <c r="M85" s="292"/>
-      <c r="N85" s="292"/>
-      <c r="O85" s="292"/>
-      <c r="P85" s="328"/>
+      <c r="F85" s="281"/>
+      <c r="G85" s="281"/>
+      <c r="H85" s="290"/>
+      <c r="I85" s="290"/>
+      <c r="J85" s="290"/>
+      <c r="K85" s="291"/>
+      <c r="L85" s="290"/>
+      <c r="M85" s="290"/>
+      <c r="N85" s="290"/>
+      <c r="O85" s="290"/>
+      <c r="P85" s="318"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="478"/>
-      <c r="B86" s="479"/>
-      <c r="C86" s="478"/>
-      <c r="D86" s="478"/>
-      <c r="E86" s="478"/>
+      <c r="A86" s="479"/>
+      <c r="B86" s="491"/>
+      <c r="C86" s="479"/>
+      <c r="D86" s="479"/>
+      <c r="E86" s="479"/>
       <c r="F86" s="286"/>
       <c r="G86" s="286"/>
       <c r="H86" s="292"/>
@@ -7399,11 +7798,11 @@
       <c r="P86" s="328"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="478"/>
-      <c r="B87" s="479"/>
-      <c r="C87" s="478"/>
-      <c r="D87" s="478"/>
-      <c r="E87" s="478"/>
+      <c r="A87" s="479"/>
+      <c r="B87" s="491"/>
+      <c r="C87" s="479"/>
+      <c r="D87" s="479"/>
+      <c r="E87" s="479"/>
       <c r="F87" s="286"/>
       <c r="G87" s="286"/>
       <c r="H87" s="292"/>
@@ -7414,68 +7813,68 @@
       <c r="M87" s="292"/>
       <c r="N87" s="292"/>
       <c r="O87" s="292"/>
-      <c r="P87" s="286"/>
-    </row>
-    <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="475"/>
-      <c r="B88" s="477"/>
-      <c r="C88" s="475"/>
-      <c r="D88" s="475"/>
-      <c r="E88" s="475"/>
-      <c r="F88" s="282"/>
-      <c r="G88" s="282"/>
-      <c r="H88" s="295"/>
-      <c r="I88" s="295"/>
-      <c r="J88" s="295"/>
-      <c r="K88" s="296"/>
-      <c r="L88" s="295"/>
-      <c r="M88" s="295"/>
-      <c r="N88" s="295"/>
-      <c r="O88" s="295"/>
-      <c r="P88" s="282"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="483"/>
-      <c r="B89" s="470"/>
-      <c r="C89" s="483"/>
-      <c r="D89" s="483"/>
-      <c r="E89" s="483"/>
-      <c r="F89" s="281"/>
-      <c r="G89" s="281"/>
-      <c r="H89" s="290"/>
-      <c r="I89" s="290"/>
-      <c r="J89" s="290"/>
-      <c r="K89" s="291"/>
-      <c r="L89" s="290"/>
-      <c r="M89" s="290"/>
-      <c r="N89" s="290"/>
-      <c r="O89" s="290"/>
-      <c r="P89" s="277"/>
+      <c r="P87" s="328"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="479"/>
+      <c r="B88" s="491"/>
+      <c r="C88" s="479"/>
+      <c r="D88" s="479"/>
+      <c r="E88" s="479"/>
+      <c r="F88" s="286"/>
+      <c r="G88" s="286"/>
+      <c r="H88" s="292"/>
+      <c r="I88" s="292"/>
+      <c r="J88" s="292"/>
+      <c r="K88" s="293"/>
+      <c r="L88" s="292"/>
+      <c r="M88" s="292"/>
+      <c r="N88" s="292"/>
+      <c r="O88" s="292"/>
+      <c r="P88" s="328"/>
+    </row>
+    <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="479"/>
+      <c r="B89" s="491"/>
+      <c r="C89" s="479"/>
+      <c r="D89" s="479"/>
+      <c r="E89" s="479"/>
+      <c r="F89" s="286"/>
+      <c r="G89" s="286"/>
+      <c r="H89" s="292"/>
+      <c r="I89" s="292"/>
+      <c r="J89" s="292"/>
+      <c r="K89" s="293"/>
+      <c r="L89" s="292"/>
+      <c r="M89" s="292"/>
+      <c r="N89" s="292"/>
+      <c r="O89" s="292"/>
+      <c r="P89" s="286"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="472"/>
-      <c r="B90" s="471"/>
-      <c r="C90" s="472"/>
-      <c r="D90" s="472"/>
-      <c r="E90" s="472"/>
-      <c r="F90" s="284"/>
-      <c r="G90" s="284"/>
-      <c r="H90" s="321"/>
-      <c r="I90" s="321"/>
-      <c r="J90" s="321"/>
-      <c r="K90" s="322"/>
-      <c r="L90" s="321"/>
-      <c r="M90" s="321"/>
-      <c r="N90" s="321"/>
-      <c r="O90" s="321"/>
-      <c r="P90" s="332"/>
-    </row>
-    <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="474"/>
-      <c r="B91" s="476"/>
-      <c r="C91" s="474"/>
-      <c r="D91" s="474"/>
-      <c r="E91" s="474"/>
+      <c r="A90" s="480"/>
+      <c r="B90" s="492"/>
+      <c r="C90" s="480"/>
+      <c r="D90" s="480"/>
+      <c r="E90" s="480"/>
+      <c r="F90" s="282"/>
+      <c r="G90" s="282"/>
+      <c r="H90" s="295"/>
+      <c r="I90" s="295"/>
+      <c r="J90" s="295"/>
+      <c r="K90" s="296"/>
+      <c r="L90" s="295"/>
+      <c r="M90" s="295"/>
+      <c r="N90" s="295"/>
+      <c r="O90" s="295"/>
+      <c r="P90" s="282"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="472"/>
+      <c r="B91" s="498"/>
+      <c r="C91" s="472"/>
+      <c r="D91" s="472"/>
+      <c r="E91" s="472"/>
       <c r="F91" s="281"/>
       <c r="G91" s="281"/>
       <c r="H91" s="290"/>
@@ -7488,318 +7887,318 @@
       <c r="O91" s="290"/>
       <c r="P91" s="277"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="478"/>
-      <c r="B92" s="479"/>
-      <c r="C92" s="478"/>
-      <c r="D92" s="478"/>
-      <c r="E92" s="478"/>
-      <c r="F92" s="286"/>
-      <c r="G92" s="286"/>
-      <c r="H92" s="292"/>
-      <c r="I92" s="292"/>
-      <c r="J92" s="292"/>
-      <c r="K92" s="293"/>
-      <c r="L92" s="292"/>
-      <c r="M92" s="292"/>
-      <c r="N92" s="292"/>
-      <c r="O92" s="292"/>
-      <c r="P92" s="286"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="473"/>
+      <c r="B92" s="499"/>
+      <c r="C92" s="473"/>
+      <c r="D92" s="473"/>
+      <c r="E92" s="473"/>
+      <c r="F92" s="284"/>
+      <c r="G92" s="284"/>
+      <c r="H92" s="321"/>
+      <c r="I92" s="321"/>
+      <c r="J92" s="321"/>
+      <c r="K92" s="322"/>
+      <c r="L92" s="321"/>
+      <c r="M92" s="321"/>
+      <c r="N92" s="321"/>
+      <c r="O92" s="321"/>
+      <c r="P92" s="332"/>
+    </row>
+    <row r="93" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="478"/>
-      <c r="B93" s="479"/>
+      <c r="B93" s="490"/>
       <c r="C93" s="478"/>
       <c r="D93" s="478"/>
       <c r="E93" s="478"/>
-      <c r="F93" s="286"/>
-      <c r="G93" s="286"/>
-      <c r="H93" s="292"/>
-      <c r="I93" s="292"/>
-      <c r="J93" s="292"/>
-      <c r="K93" s="293"/>
-      <c r="L93" s="292"/>
-      <c r="M93" s="292"/>
-      <c r="N93" s="292"/>
-      <c r="O93" s="292"/>
-      <c r="P93" s="274"/>
+      <c r="F93" s="281"/>
+      <c r="G93" s="281"/>
+      <c r="H93" s="290"/>
+      <c r="I93" s="290"/>
+      <c r="J93" s="290"/>
+      <c r="K93" s="291"/>
+      <c r="L93" s="290"/>
+      <c r="M93" s="290"/>
+      <c r="N93" s="290"/>
+      <c r="O93" s="290"/>
+      <c r="P93" s="277"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="475"/>
-      <c r="B94" s="477"/>
-      <c r="C94" s="475"/>
-      <c r="D94" s="475"/>
-      <c r="E94" s="475"/>
-      <c r="F94" s="282"/>
-      <c r="G94" s="282"/>
-      <c r="H94" s="295"/>
-      <c r="I94" s="295"/>
-      <c r="J94" s="295"/>
-      <c r="K94" s="296"/>
-      <c r="L94" s="295"/>
-      <c r="M94" s="295"/>
-      <c r="N94" s="295"/>
-      <c r="O94" s="295"/>
-      <c r="P94" s="276"/>
-    </row>
-    <row r="95" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="474"/>
-      <c r="B95" s="476"/>
-      <c r="C95" s="474"/>
-      <c r="D95" s="474"/>
-      <c r="E95" s="474"/>
-      <c r="F95" s="281"/>
-      <c r="G95" s="281"/>
-      <c r="H95" s="290"/>
-      <c r="I95" s="290"/>
-      <c r="J95" s="290"/>
-      <c r="K95" s="291"/>
-      <c r="L95" s="290"/>
-      <c r="M95" s="290"/>
-      <c r="N95" s="290"/>
-      <c r="O95" s="290"/>
-      <c r="P95" s="277"/>
-    </row>
-    <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="478"/>
-      <c r="B96" s="479"/>
-      <c r="C96" s="478"/>
-      <c r="D96" s="478"/>
-      <c r="E96" s="478"/>
-      <c r="F96" s="286"/>
-      <c r="G96" s="286"/>
-      <c r="H96" s="292"/>
-      <c r="I96" s="292"/>
-      <c r="J96" s="292"/>
-      <c r="K96" s="293"/>
-      <c r="L96" s="292"/>
-      <c r="M96" s="292"/>
-      <c r="N96" s="292"/>
-      <c r="O96" s="292"/>
-      <c r="P96" s="274"/>
+      <c r="A94" s="479"/>
+      <c r="B94" s="491"/>
+      <c r="C94" s="479"/>
+      <c r="D94" s="479"/>
+      <c r="E94" s="479"/>
+      <c r="F94" s="286"/>
+      <c r="G94" s="286"/>
+      <c r="H94" s="292"/>
+      <c r="I94" s="292"/>
+      <c r="J94" s="292"/>
+      <c r="K94" s="293"/>
+      <c r="L94" s="292"/>
+      <c r="M94" s="292"/>
+      <c r="N94" s="292"/>
+      <c r="O94" s="292"/>
+      <c r="P94" s="286"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="479"/>
+      <c r="B95" s="491"/>
+      <c r="C95" s="479"/>
+      <c r="D95" s="479"/>
+      <c r="E95" s="479"/>
+      <c r="F95" s="286"/>
+      <c r="G95" s="286"/>
+      <c r="H95" s="292"/>
+      <c r="I95" s="292"/>
+      <c r="J95" s="292"/>
+      <c r="K95" s="293"/>
+      <c r="L95" s="292"/>
+      <c r="M95" s="292"/>
+      <c r="N95" s="292"/>
+      <c r="O95" s="292"/>
+      <c r="P95" s="274"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="480"/>
+      <c r="B96" s="492"/>
+      <c r="C96" s="480"/>
+      <c r="D96" s="480"/>
+      <c r="E96" s="480"/>
+      <c r="F96" s="282"/>
+      <c r="G96" s="282"/>
+      <c r="H96" s="295"/>
+      <c r="I96" s="295"/>
+      <c r="J96" s="295"/>
+      <c r="K96" s="296"/>
+      <c r="L96" s="295"/>
+      <c r="M96" s="295"/>
+      <c r="N96" s="295"/>
+      <c r="O96" s="295"/>
+      <c r="P96" s="276"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="475"/>
-      <c r="B97" s="477"/>
-      <c r="C97" s="475"/>
-      <c r="D97" s="475"/>
-      <c r="E97" s="475"/>
-      <c r="F97" s="282"/>
-      <c r="G97" s="282"/>
-      <c r="H97" s="295"/>
-      <c r="I97" s="295"/>
-      <c r="J97" s="295"/>
-      <c r="K97" s="296"/>
-      <c r="L97" s="295"/>
-      <c r="M97" s="295"/>
-      <c r="N97" s="295"/>
-      <c r="O97" s="295"/>
-      <c r="P97" s="276"/>
+      <c r="A97" s="478"/>
+      <c r="B97" s="490"/>
+      <c r="C97" s="478"/>
+      <c r="D97" s="478"/>
+      <c r="E97" s="478"/>
+      <c r="F97" s="281"/>
+      <c r="G97" s="281"/>
+      <c r="H97" s="290"/>
+      <c r="I97" s="290"/>
+      <c r="J97" s="290"/>
+      <c r="K97" s="291"/>
+      <c r="L97" s="290"/>
+      <c r="M97" s="290"/>
+      <c r="N97" s="290"/>
+      <c r="O97" s="290"/>
+      <c r="P97" s="277"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="483"/>
-      <c r="B98" s="470"/>
-      <c r="C98" s="483"/>
-      <c r="D98" s="483"/>
-      <c r="E98" s="483"/>
-      <c r="F98" s="285"/>
-      <c r="G98" s="285"/>
-      <c r="H98" s="319"/>
-      <c r="I98" s="319"/>
-      <c r="J98" s="319"/>
-      <c r="K98" s="320"/>
-      <c r="L98" s="319"/>
-      <c r="M98" s="319"/>
-      <c r="N98" s="319"/>
-      <c r="O98" s="319"/>
-      <c r="P98" s="289"/>
+      <c r="A98" s="479"/>
+      <c r="B98" s="491"/>
+      <c r="C98" s="479"/>
+      <c r="D98" s="479"/>
+      <c r="E98" s="479"/>
+      <c r="F98" s="286"/>
+      <c r="G98" s="286"/>
+      <c r="H98" s="292"/>
+      <c r="I98" s="292"/>
+      <c r="J98" s="292"/>
+      <c r="K98" s="293"/>
+      <c r="L98" s="292"/>
+      <c r="M98" s="292"/>
+      <c r="N98" s="292"/>
+      <c r="O98" s="292"/>
+      <c r="P98" s="274"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="472"/>
-      <c r="B99" s="471"/>
-      <c r="C99" s="472"/>
-      <c r="D99" s="472"/>
-      <c r="E99" s="472"/>
-      <c r="F99" s="286"/>
-      <c r="G99" s="286"/>
-      <c r="H99" s="292"/>
-      <c r="I99" s="292"/>
-      <c r="J99" s="292"/>
-      <c r="K99" s="293"/>
-      <c r="L99" s="292"/>
-      <c r="M99" s="292"/>
-      <c r="N99" s="292"/>
-      <c r="O99" s="292"/>
-      <c r="P99" s="289"/>
+      <c r="A99" s="480"/>
+      <c r="B99" s="492"/>
+      <c r="C99" s="480"/>
+      <c r="D99" s="480"/>
+      <c r="E99" s="480"/>
+      <c r="F99" s="282"/>
+      <c r="G99" s="282"/>
+      <c r="H99" s="295"/>
+      <c r="I99" s="295"/>
+      <c r="J99" s="295"/>
+      <c r="K99" s="296"/>
+      <c r="L99" s="295"/>
+      <c r="M99" s="295"/>
+      <c r="N99" s="295"/>
+      <c r="O99" s="295"/>
+      <c r="P99" s="276"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="472"/>
-      <c r="B100" s="471"/>
+      <c r="B100" s="498"/>
       <c r="C100" s="472"/>
       <c r="D100" s="472"/>
       <c r="E100" s="472"/>
-      <c r="F100" s="286"/>
-      <c r="G100" s="286"/>
-      <c r="H100" s="292"/>
-      <c r="I100" s="292"/>
-      <c r="J100" s="292"/>
-      <c r="K100" s="293"/>
-      <c r="L100" s="292"/>
-      <c r="M100" s="292"/>
-      <c r="N100" s="292"/>
-      <c r="O100" s="292"/>
+      <c r="F100" s="285"/>
+      <c r="G100" s="285"/>
+      <c r="H100" s="319"/>
+      <c r="I100" s="319"/>
+      <c r="J100" s="319"/>
+      <c r="K100" s="320"/>
+      <c r="L100" s="319"/>
+      <c r="M100" s="319"/>
+      <c r="N100" s="319"/>
+      <c r="O100" s="319"/>
       <c r="P100" s="289"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="473"/>
-      <c r="B101" s="484"/>
+      <c r="B101" s="499"/>
       <c r="C101" s="473"/>
       <c r="D101" s="473"/>
       <c r="E101" s="473"/>
-      <c r="F101" s="282"/>
-      <c r="G101" s="282"/>
-      <c r="H101" s="295"/>
-      <c r="I101" s="295"/>
-      <c r="J101" s="295"/>
-      <c r="K101" s="296"/>
-      <c r="L101" s="295"/>
-      <c r="M101" s="295"/>
-      <c r="N101" s="295"/>
-      <c r="O101" s="295"/>
-      <c r="P101" s="303"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="483"/>
-      <c r="B102" s="470"/>
-      <c r="C102" s="483"/>
-      <c r="D102" s="483"/>
-      <c r="E102" s="483"/>
-      <c r="F102" s="281"/>
-      <c r="G102" s="281"/>
-      <c r="H102" s="290"/>
-      <c r="I102" s="290"/>
-      <c r="J102" s="290"/>
-      <c r="K102" s="291"/>
-      <c r="L102" s="295"/>
-      <c r="M102" s="290"/>
-      <c r="N102" s="290"/>
-      <c r="O102" s="295"/>
-      <c r="P102" s="273"/>
+      <c r="F101" s="286"/>
+      <c r="G101" s="286"/>
+      <c r="H101" s="292"/>
+      <c r="I101" s="292"/>
+      <c r="J101" s="292"/>
+      <c r="K101" s="293"/>
+      <c r="L101" s="292"/>
+      <c r="M101" s="292"/>
+      <c r="N101" s="292"/>
+      <c r="O101" s="292"/>
+      <c r="P101" s="289"/>
+    </row>
+    <row r="102" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="473"/>
+      <c r="B102" s="499"/>
+      <c r="C102" s="473"/>
+      <c r="D102" s="473"/>
+      <c r="E102" s="473"/>
+      <c r="F102" s="286"/>
+      <c r="G102" s="286"/>
+      <c r="H102" s="292"/>
+      <c r="I102" s="292"/>
+      <c r="J102" s="292"/>
+      <c r="K102" s="293"/>
+      <c r="L102" s="292"/>
+      <c r="M102" s="292"/>
+      <c r="N102" s="292"/>
+      <c r="O102" s="292"/>
+      <c r="P102" s="289"/>
     </row>
     <row r="103" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="472"/>
-      <c r="B103" s="471"/>
-      <c r="C103" s="472"/>
-      <c r="D103" s="472"/>
-      <c r="E103" s="472"/>
-      <c r="F103" s="286"/>
-      <c r="G103" s="286"/>
-      <c r="H103" s="292"/>
-      <c r="I103" s="292"/>
-      <c r="J103" s="292"/>
-      <c r="K103" s="293"/>
+      <c r="A103" s="487"/>
+      <c r="B103" s="500"/>
+      <c r="C103" s="487"/>
+      <c r="D103" s="487"/>
+      <c r="E103" s="487"/>
+      <c r="F103" s="282"/>
+      <c r="G103" s="282"/>
+      <c r="H103" s="295"/>
+      <c r="I103" s="295"/>
+      <c r="J103" s="295"/>
+      <c r="K103" s="296"/>
       <c r="L103" s="295"/>
-      <c r="M103" s="292"/>
-      <c r="N103" s="292"/>
+      <c r="M103" s="295"/>
+      <c r="N103" s="295"/>
       <c r="O103" s="295"/>
-      <c r="P103" s="289"/>
-    </row>
-    <row r="104" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P103" s="303"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="472"/>
-      <c r="B104" s="471"/>
+      <c r="B104" s="498"/>
       <c r="C104" s="472"/>
       <c r="D104" s="472"/>
       <c r="E104" s="472"/>
-      <c r="F104" s="284"/>
-      <c r="G104" s="284"/>
-      <c r="H104" s="321"/>
-      <c r="I104" s="321"/>
-      <c r="J104" s="321"/>
-      <c r="K104" s="322"/>
-      <c r="L104" s="321"/>
-      <c r="M104" s="321"/>
-      <c r="N104" s="321"/>
-      <c r="O104" s="321"/>
-      <c r="P104" s="289"/>
-    </row>
-    <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="483"/>
-      <c r="B105" s="470"/>
-      <c r="C105" s="483"/>
-      <c r="D105" s="483"/>
-      <c r="E105" s="483"/>
-      <c r="F105" s="281"/>
-      <c r="G105" s="281"/>
-      <c r="H105" s="290"/>
-      <c r="I105" s="290"/>
-      <c r="J105" s="290"/>
-      <c r="K105" s="291"/>
-      <c r="L105" s="290"/>
-      <c r="M105" s="290"/>
-      <c r="N105" s="290"/>
-      <c r="O105" s="290"/>
-      <c r="P105" s="277"/>
+      <c r="F104" s="281"/>
+      <c r="G104" s="281"/>
+      <c r="H104" s="290"/>
+      <c r="I104" s="290"/>
+      <c r="J104" s="290"/>
+      <c r="K104" s="291"/>
+      <c r="L104" s="295"/>
+      <c r="M104" s="290"/>
+      <c r="N104" s="290"/>
+      <c r="O104" s="295"/>
+      <c r="P104" s="273"/>
+    </row>
+    <row r="105" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="473"/>
+      <c r="B105" s="499"/>
+      <c r="C105" s="473"/>
+      <c r="D105" s="473"/>
+      <c r="E105" s="473"/>
+      <c r="F105" s="286"/>
+      <c r="G105" s="286"/>
+      <c r="H105" s="292"/>
+      <c r="I105" s="292"/>
+      <c r="J105" s="292"/>
+      <c r="K105" s="293"/>
+      <c r="L105" s="295"/>
+      <c r="M105" s="292"/>
+      <c r="N105" s="292"/>
+      <c r="O105" s="295"/>
+      <c r="P105" s="289"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="473"/>
-      <c r="B106" s="484"/>
+      <c r="B106" s="499"/>
       <c r="C106" s="473"/>
       <c r="D106" s="473"/>
       <c r="E106" s="473"/>
-      <c r="F106" s="282"/>
-      <c r="G106" s="282"/>
-      <c r="H106" s="295"/>
-      <c r="I106" s="295"/>
-      <c r="J106" s="295"/>
-      <c r="K106" s="296"/>
-      <c r="L106" s="295"/>
-      <c r="M106" s="295"/>
-      <c r="N106" s="295"/>
-      <c r="O106" s="295"/>
-      <c r="P106" s="276"/>
-    </row>
-    <row r="107" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="511"/>
-      <c r="B107" s="512"/>
-      <c r="C107" s="511"/>
-      <c r="D107" s="511"/>
-      <c r="E107" s="511"/>
-      <c r="F107" s="275"/>
-      <c r="G107" s="275"/>
-      <c r="H107" s="297"/>
-      <c r="I107" s="297"/>
-      <c r="J107" s="297"/>
-      <c r="K107" s="298"/>
-      <c r="L107" s="297"/>
-      <c r="M107" s="297"/>
-      <c r="N107" s="297"/>
-      <c r="O107" s="297"/>
-      <c r="P107" s="345"/>
-    </row>
-    <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="511"/>
-      <c r="B108" s="512"/>
-      <c r="C108" s="511"/>
-      <c r="D108" s="511"/>
-      <c r="E108" s="511"/>
-      <c r="F108" s="275"/>
-      <c r="G108" s="275"/>
-      <c r="H108" s="297"/>
-      <c r="I108" s="297"/>
-      <c r="J108" s="297"/>
-      <c r="K108" s="298"/>
-      <c r="L108" s="297"/>
-      <c r="M108" s="297"/>
-      <c r="N108" s="297"/>
-      <c r="O108" s="297"/>
-      <c r="P108" s="345"/>
+      <c r="F106" s="284"/>
+      <c r="G106" s="284"/>
+      <c r="H106" s="321"/>
+      <c r="I106" s="321"/>
+      <c r="J106" s="321"/>
+      <c r="K106" s="322"/>
+      <c r="L106" s="321"/>
+      <c r="M106" s="321"/>
+      <c r="N106" s="321"/>
+      <c r="O106" s="321"/>
+      <c r="P106" s="289"/>
+    </row>
+    <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="472"/>
+      <c r="B107" s="498"/>
+      <c r="C107" s="472"/>
+      <c r="D107" s="472"/>
+      <c r="E107" s="472"/>
+      <c r="F107" s="281"/>
+      <c r="G107" s="281"/>
+      <c r="H107" s="290"/>
+      <c r="I107" s="290"/>
+      <c r="J107" s="290"/>
+      <c r="K107" s="291"/>
+      <c r="L107" s="290"/>
+      <c r="M107" s="290"/>
+      <c r="N107" s="290"/>
+      <c r="O107" s="290"/>
+      <c r="P107" s="277"/>
+    </row>
+    <row r="108" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="487"/>
+      <c r="B108" s="500"/>
+      <c r="C108" s="487"/>
+      <c r="D108" s="487"/>
+      <c r="E108" s="487"/>
+      <c r="F108" s="282"/>
+      <c r="G108" s="282"/>
+      <c r="H108" s="295"/>
+      <c r="I108" s="295"/>
+      <c r="J108" s="295"/>
+      <c r="K108" s="296"/>
+      <c r="L108" s="295"/>
+      <c r="M108" s="295"/>
+      <c r="N108" s="295"/>
+      <c r="O108" s="295"/>
+      <c r="P108" s="276"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="511"/>
-      <c r="B109" s="512"/>
-      <c r="C109" s="511"/>
-      <c r="D109" s="511"/>
-      <c r="E109" s="511"/>
+      <c r="A109" s="497"/>
+      <c r="B109" s="501"/>
+      <c r="C109" s="497"/>
+      <c r="D109" s="497"/>
+      <c r="E109" s="497"/>
       <c r="F109" s="275"/>
       <c r="G109" s="275"/>
       <c r="H109" s="297"/>
@@ -7813,11 +8212,11 @@
       <c r="P109" s="345"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="511"/>
-      <c r="B110" s="512"/>
-      <c r="C110" s="511"/>
-      <c r="D110" s="511"/>
-      <c r="E110" s="511"/>
+      <c r="A110" s="497"/>
+      <c r="B110" s="501"/>
+      <c r="C110" s="497"/>
+      <c r="D110" s="497"/>
+      <c r="E110" s="497"/>
       <c r="F110" s="275"/>
       <c r="G110" s="275"/>
       <c r="H110" s="297"/>
@@ -7830,12 +8229,12 @@
       <c r="O110" s="297"/>
       <c r="P110" s="345"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="511"/>
-      <c r="B111" s="512"/>
-      <c r="C111" s="511"/>
-      <c r="D111" s="511"/>
-      <c r="E111" s="511"/>
+    <row r="111" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="497"/>
+      <c r="B111" s="501"/>
+      <c r="C111" s="497"/>
+      <c r="D111" s="497"/>
+      <c r="E111" s="497"/>
       <c r="F111" s="275"/>
       <c r="G111" s="275"/>
       <c r="H111" s="297"/>
@@ -7846,14 +8245,14 @@
       <c r="M111" s="297"/>
       <c r="N111" s="297"/>
       <c r="O111" s="297"/>
-      <c r="P111" s="275"/>
+      <c r="P111" s="345"/>
     </row>
     <row r="112" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="511"/>
-      <c r="B112" s="512"/>
-      <c r="C112" s="511"/>
-      <c r="D112" s="511"/>
-      <c r="E112" s="511"/>
+      <c r="A112" s="497"/>
+      <c r="B112" s="501"/>
+      <c r="C112" s="497"/>
+      <c r="D112" s="497"/>
+      <c r="E112" s="497"/>
       <c r="F112" s="275"/>
       <c r="G112" s="275"/>
       <c r="H112" s="297"/>
@@ -7864,14 +8263,14 @@
       <c r="M112" s="297"/>
       <c r="N112" s="297"/>
       <c r="O112" s="297"/>
-      <c r="P112" s="275"/>
-    </row>
-    <row r="113" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="345"/>
-      <c r="B113" s="346"/>
-      <c r="C113" s="345"/>
-      <c r="D113" s="345"/>
-      <c r="E113" s="345"/>
+      <c r="P112" s="345"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="497"/>
+      <c r="B113" s="501"/>
+      <c r="C113" s="497"/>
+      <c r="D113" s="497"/>
+      <c r="E113" s="497"/>
       <c r="F113" s="275"/>
       <c r="G113" s="275"/>
       <c r="H113" s="297"/>
@@ -7885,343 +8284,379 @@
       <c r="P113" s="275"/>
     </row>
     <row r="114" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="474"/>
-      <c r="B114" s="476"/>
-      <c r="C114" s="474"/>
-      <c r="D114" s="474"/>
-      <c r="E114" s="474"/>
-      <c r="F114" s="281"/>
-      <c r="G114" s="281"/>
-      <c r="H114" s="290"/>
-      <c r="I114" s="290"/>
-      <c r="J114" s="314"/>
-      <c r="K114" s="291"/>
-      <c r="L114" s="290"/>
-      <c r="M114" s="290"/>
-      <c r="N114" s="290"/>
-      <c r="O114" s="290"/>
-      <c r="P114" s="281"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="475"/>
-      <c r="B115" s="477"/>
-      <c r="C115" s="475"/>
-      <c r="D115" s="475"/>
-      <c r="E115" s="475"/>
-      <c r="F115" s="282"/>
-      <c r="G115" s="282"/>
-      <c r="H115" s="295"/>
-      <c r="I115" s="295"/>
-      <c r="J115" s="333"/>
-      <c r="K115" s="296"/>
-      <c r="L115" s="295"/>
-      <c r="M115" s="295"/>
-      <c r="N115" s="295"/>
-      <c r="O115" s="295"/>
-      <c r="P115" s="282"/>
+      <c r="A114" s="497"/>
+      <c r="B114" s="501"/>
+      <c r="C114" s="497"/>
+      <c r="D114" s="497"/>
+      <c r="E114" s="497"/>
+      <c r="F114" s="275"/>
+      <c r="G114" s="275"/>
+      <c r="H114" s="297"/>
+      <c r="I114" s="297"/>
+      <c r="J114" s="297"/>
+      <c r="K114" s="298"/>
+      <c r="L114" s="297"/>
+      <c r="M114" s="297"/>
+      <c r="N114" s="297"/>
+      <c r="O114" s="297"/>
+      <c r="P114" s="275"/>
+    </row>
+    <row r="115" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="345"/>
+      <c r="B115" s="346"/>
+      <c r="C115" s="345"/>
+      <c r="D115" s="345"/>
+      <c r="E115" s="345"/>
+      <c r="F115" s="275"/>
+      <c r="G115" s="275"/>
+      <c r="H115" s="297"/>
+      <c r="I115" s="297"/>
+      <c r="J115" s="297"/>
+      <c r="K115" s="298"/>
+      <c r="L115" s="297"/>
+      <c r="M115" s="297"/>
+      <c r="N115" s="297"/>
+      <c r="O115" s="297"/>
+      <c r="P115" s="275"/>
     </row>
     <row r="116" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="303"/>
-      <c r="B116" s="343"/>
-      <c r="C116" s="303"/>
-      <c r="D116" s="303"/>
-      <c r="E116" s="303"/>
-      <c r="F116" s="299"/>
-      <c r="G116" s="299"/>
-      <c r="H116" s="300"/>
-      <c r="I116" s="300"/>
-      <c r="J116" s="344"/>
-      <c r="K116" s="301"/>
-      <c r="L116" s="300"/>
-      <c r="M116" s="300"/>
-      <c r="N116" s="300"/>
-      <c r="O116" s="300"/>
-      <c r="P116" s="299"/>
+      <c r="A116" s="478"/>
+      <c r="B116" s="490"/>
+      <c r="C116" s="478"/>
+      <c r="D116" s="478"/>
+      <c r="E116" s="478"/>
+      <c r="F116" s="281"/>
+      <c r="G116" s="281"/>
+      <c r="H116" s="290"/>
+      <c r="I116" s="290"/>
+      <c r="J116" s="314"/>
+      <c r="K116" s="291"/>
+      <c r="L116" s="290"/>
+      <c r="M116" s="290"/>
+      <c r="N116" s="290"/>
+      <c r="O116" s="290"/>
+      <c r="P116" s="281"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="345"/>
-      <c r="B117" s="346"/>
-      <c r="C117" s="345"/>
-      <c r="D117" s="345"/>
-      <c r="E117" s="345"/>
-      <c r="F117" s="275"/>
-      <c r="G117" s="275"/>
-      <c r="H117" s="297"/>
-      <c r="I117" s="297"/>
-      <c r="J117" s="334"/>
-      <c r="K117" s="298"/>
-      <c r="L117" s="297"/>
-      <c r="M117" s="297"/>
-      <c r="N117" s="297"/>
-      <c r="O117" s="180"/>
-      <c r="P117" s="275"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="474"/>
-      <c r="B118" s="476"/>
-      <c r="C118" s="474"/>
-      <c r="D118" s="474"/>
-      <c r="E118" s="474"/>
-      <c r="F118" s="281"/>
-      <c r="G118" s="281"/>
-      <c r="H118" s="290"/>
-      <c r="I118" s="290"/>
-      <c r="J118" s="314"/>
-      <c r="K118" s="291"/>
-      <c r="L118" s="290"/>
-      <c r="M118" s="290"/>
-      <c r="N118" s="290"/>
-      <c r="O118" s="290"/>
-      <c r="P118" s="281"/>
+      <c r="A117" s="480"/>
+      <c r="B117" s="492"/>
+      <c r="C117" s="480"/>
+      <c r="D117" s="480"/>
+      <c r="E117" s="480"/>
+      <c r="F117" s="282"/>
+      <c r="G117" s="282"/>
+      <c r="H117" s="295"/>
+      <c r="I117" s="295"/>
+      <c r="J117" s="333"/>
+      <c r="K117" s="296"/>
+      <c r="L117" s="295"/>
+      <c r="M117" s="295"/>
+      <c r="N117" s="295"/>
+      <c r="O117" s="295"/>
+      <c r="P117" s="282"/>
+    </row>
+    <row r="118" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="303"/>
+      <c r="B118" s="343"/>
+      <c r="C118" s="303"/>
+      <c r="D118" s="303"/>
+      <c r="E118" s="303"/>
+      <c r="F118" s="299"/>
+      <c r="G118" s="299"/>
+      <c r="H118" s="300"/>
+      <c r="I118" s="300"/>
+      <c r="J118" s="344"/>
+      <c r="K118" s="301"/>
+      <c r="L118" s="300"/>
+      <c r="M118" s="300"/>
+      <c r="N118" s="300"/>
+      <c r="O118" s="300"/>
+      <c r="P118" s="299"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="478"/>
-      <c r="B119" s="479"/>
-      <c r="C119" s="478"/>
-      <c r="D119" s="478"/>
-      <c r="E119" s="478"/>
-      <c r="F119" s="286"/>
-      <c r="G119" s="286"/>
-      <c r="H119" s="292"/>
-      <c r="I119" s="292"/>
-      <c r="J119" s="316"/>
-      <c r="K119" s="293"/>
-      <c r="L119" s="292"/>
-      <c r="M119" s="292"/>
-      <c r="N119" s="292"/>
-      <c r="O119" s="292"/>
-      <c r="P119" s="286"/>
+      <c r="A119" s="345"/>
+      <c r="B119" s="346"/>
+      <c r="C119" s="345"/>
+      <c r="D119" s="345"/>
+      <c r="E119" s="345"/>
+      <c r="F119" s="275"/>
+      <c r="G119" s="275"/>
+      <c r="H119" s="297"/>
+      <c r="I119" s="297"/>
+      <c r="J119" s="334"/>
+      <c r="K119" s="298"/>
+      <c r="L119" s="297"/>
+      <c r="M119" s="297"/>
+      <c r="N119" s="297"/>
+      <c r="O119" s="180"/>
+      <c r="P119" s="275"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="478"/>
-      <c r="B120" s="479"/>
+      <c r="B120" s="490"/>
       <c r="C120" s="478"/>
       <c r="D120" s="478"/>
       <c r="E120" s="478"/>
-      <c r="F120" s="286"/>
-      <c r="G120" s="286"/>
-      <c r="H120" s="292"/>
-      <c r="I120" s="292"/>
-      <c r="J120" s="316"/>
-      <c r="K120" s="293"/>
-      <c r="L120" s="292"/>
-      <c r="M120" s="292"/>
-      <c r="N120" s="292"/>
-      <c r="O120" s="292"/>
-      <c r="P120" s="286"/>
+      <c r="F120" s="281"/>
+      <c r="G120" s="281"/>
+      <c r="H120" s="290"/>
+      <c r="I120" s="290"/>
+      <c r="J120" s="314"/>
+      <c r="K120" s="291"/>
+      <c r="L120" s="290"/>
+      <c r="M120" s="290"/>
+      <c r="N120" s="290"/>
+      <c r="O120" s="290"/>
+      <c r="P120" s="281"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="475"/>
-      <c r="B121" s="477"/>
-      <c r="C121" s="475"/>
-      <c r="D121" s="475"/>
-      <c r="E121" s="475"/>
-      <c r="F121" s="282"/>
-      <c r="G121" s="282"/>
-      <c r="H121" s="295"/>
-      <c r="I121" s="295"/>
-      <c r="J121" s="308"/>
-      <c r="K121" s="296"/>
-      <c r="L121" s="295"/>
-      <c r="M121" s="295"/>
-      <c r="N121" s="295"/>
-      <c r="O121" s="295"/>
-      <c r="P121" s="282"/>
+      <c r="A121" s="479"/>
+      <c r="B121" s="491"/>
+      <c r="C121" s="479"/>
+      <c r="D121" s="479"/>
+      <c r="E121" s="479"/>
+      <c r="F121" s="286"/>
+      <c r="G121" s="286"/>
+      <c r="H121" s="292"/>
+      <c r="I121" s="292"/>
+      <c r="J121" s="316"/>
+      <c r="K121" s="293"/>
+      <c r="L121" s="292"/>
+      <c r="M121" s="292"/>
+      <c r="N121" s="292"/>
+      <c r="O121" s="292"/>
+      <c r="P121" s="286"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="303"/>
-      <c r="B122" s="343"/>
-      <c r="C122" s="303"/>
-      <c r="D122" s="303"/>
-      <c r="E122" s="303"/>
-      <c r="F122" s="285"/>
-      <c r="G122" s="285"/>
-      <c r="H122" s="319"/>
-      <c r="I122" s="319"/>
-      <c r="J122" s="335"/>
-      <c r="K122" s="320"/>
-      <c r="L122" s="319"/>
-      <c r="M122" s="319"/>
-      <c r="N122" s="319"/>
-      <c r="O122" s="319"/>
-      <c r="P122" s="325"/>
-    </row>
-    <row r="123" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A123" s="508" t="s">
+      <c r="A122" s="479"/>
+      <c r="B122" s="491"/>
+      <c r="C122" s="479"/>
+      <c r="D122" s="479"/>
+      <c r="E122" s="479"/>
+      <c r="F122" s="286"/>
+      <c r="G122" s="286"/>
+      <c r="H122" s="292"/>
+      <c r="I122" s="292"/>
+      <c r="J122" s="316"/>
+      <c r="K122" s="293"/>
+      <c r="L122" s="292"/>
+      <c r="M122" s="292"/>
+      <c r="N122" s="292"/>
+      <c r="O122" s="292"/>
+      <c r="P122" s="286"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="480"/>
+      <c r="B123" s="492"/>
+      <c r="C123" s="480"/>
+      <c r="D123" s="480"/>
+      <c r="E123" s="480"/>
+      <c r="F123" s="282"/>
+      <c r="G123" s="282"/>
+      <c r="H123" s="295"/>
+      <c r="I123" s="295"/>
+      <c r="J123" s="308"/>
+      <c r="K123" s="296"/>
+      <c r="L123" s="295"/>
+      <c r="M123" s="295"/>
+      <c r="N123" s="295"/>
+      <c r="O123" s="295"/>
+      <c r="P123" s="282"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="303"/>
+      <c r="B124" s="343"/>
+      <c r="C124" s="303"/>
+      <c r="D124" s="303"/>
+      <c r="E124" s="303"/>
+      <c r="F124" s="285"/>
+      <c r="G124" s="285"/>
+      <c r="H124" s="319"/>
+      <c r="I124" s="319"/>
+      <c r="J124" s="335"/>
+      <c r="K124" s="320"/>
+      <c r="L124" s="319"/>
+      <c r="M124" s="319"/>
+      <c r="N124" s="319"/>
+      <c r="O124" s="319"/>
+      <c r="P124" s="325"/>
+    </row>
+    <row r="125" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A125" s="494" t="s">
         <v>75</v>
       </c>
-      <c r="B123" s="508"/>
-      <c r="C123" s="508"/>
-      <c r="D123" s="508"/>
-      <c r="E123" s="508"/>
-      <c r="F123" s="508"/>
-      <c r="G123" s="217">
-        <f>SUM(G13:G122)</f>
-        <v>109</v>
-      </c>
-      <c r="H123" s="218"/>
-      <c r="I123" s="219">
-        <f>SUM(I13:I122)</f>
-        <v>45785000</v>
-      </c>
-      <c r="J123" s="220"/>
-      <c r="K123" s="221"/>
-      <c r="L123" s="222">
-        <f>SUM(L13:L122)</f>
-        <v>23859200</v>
-      </c>
-      <c r="M123" s="223"/>
-      <c r="N123" s="223"/>
-      <c r="O123" s="223"/>
-      <c r="P123" s="509"/>
-      <c r="Q123" s="510"/>
-    </row>
-    <row r="124" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="507" t="s">
+      <c r="B125" s="494"/>
+      <c r="C125" s="494"/>
+      <c r="D125" s="494"/>
+      <c r="E125" s="494"/>
+      <c r="F125" s="494"/>
+      <c r="G125" s="217">
+        <f>SUM(G13:G124)</f>
+        <v>359</v>
+      </c>
+      <c r="H125" s="218"/>
+      <c r="I125" s="219">
+        <f>SUM(I13:I124)</f>
+        <v>152585000</v>
+      </c>
+      <c r="J125" s="220"/>
+      <c r="K125" s="221"/>
+      <c r="L125" s="222">
+        <f>SUM(L13:L124)</f>
+        <v>79864250</v>
+      </c>
+      <c r="M125" s="223"/>
+      <c r="N125" s="223"/>
+      <c r="O125" s="223"/>
+      <c r="P125" s="495"/>
+      <c r="Q125" s="496"/>
+    </row>
+    <row r="126" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A126" s="493" t="s">
         <v>194</v>
       </c>
-      <c r="B124" s="507"/>
-      <c r="C124" s="507"/>
-      <c r="D124" s="507"/>
-      <c r="E124" s="507"/>
-      <c r="F124" s="507"/>
-      <c r="G124" s="194">
-        <f>G123</f>
-        <v>109</v>
-      </c>
-      <c r="H124" s="212"/>
-      <c r="I124" s="196"/>
-      <c r="J124" s="197"/>
-      <c r="K124" s="198"/>
-      <c r="L124" s="199">
-        <f>L123</f>
-        <v>23859200</v>
-      </c>
-      <c r="M124" s="197"/>
-      <c r="N124" s="197"/>
-      <c r="O124" s="197"/>
-      <c r="P124" s="509"/>
-      <c r="Q124" s="510"/>
-    </row>
-    <row r="125" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="507" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="507"/>
-      <c r="C125" s="507"/>
-      <c r="D125" s="507"/>
-      <c r="E125" s="507"/>
-      <c r="F125" s="507"/>
-      <c r="G125" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="H125" s="212"/>
-      <c r="I125" s="197"/>
-      <c r="J125" s="197"/>
-      <c r="K125" s="201"/>
-      <c r="L125" s="199">
-        <f>SUM(M13:M122)</f>
-        <v>0</v>
-      </c>
-      <c r="M125" s="197"/>
-      <c r="N125" s="197"/>
-      <c r="O125" s="197"/>
-    </row>
-    <row r="126" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="507" t="s">
-        <v>77</v>
-      </c>
-      <c r="B126" s="507"/>
-      <c r="C126" s="507"/>
-      <c r="D126" s="507"/>
-      <c r="E126" s="507"/>
-      <c r="F126" s="507"/>
-      <c r="G126" s="201"/>
+      <c r="B126" s="493"/>
+      <c r="C126" s="493"/>
+      <c r="D126" s="493"/>
+      <c r="E126" s="493"/>
+      <c r="F126" s="493"/>
+      <c r="G126" s="194">
+        <f>G125</f>
+        <v>359</v>
+      </c>
       <c r="H126" s="212"/>
-      <c r="I126" s="195"/>
+      <c r="I126" s="196"/>
       <c r="J126" s="197"/>
       <c r="K126" s="198"/>
       <c r="L126" s="199">
-        <f>SUM(N13:N122)</f>
-        <v>3221400.0000000005</v>
+        <f>L125</f>
+        <v>79864250</v>
       </c>
       <c r="M126" s="197"/>
       <c r="N126" s="197"/>
       <c r="O126" s="197"/>
+      <c r="P126" s="495"/>
+      <c r="Q126" s="496"/>
     </row>
     <row r="127" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="507" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127" s="507"/>
-      <c r="C127" s="507"/>
-      <c r="D127" s="507"/>
-      <c r="E127" s="507"/>
-      <c r="F127" s="507"/>
-      <c r="G127" s="201"/>
+      <c r="A127" s="493" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="493"/>
+      <c r="C127" s="493"/>
+      <c r="D127" s="493"/>
+      <c r="E127" s="493"/>
+      <c r="F127" s="493"/>
+      <c r="G127" s="201" t="s">
+        <v>49</v>
+      </c>
       <c r="H127" s="212"/>
-      <c r="I127" s="195"/>
+      <c r="I127" s="197"/>
       <c r="J127" s="197"/>
-      <c r="K127" s="198"/>
+      <c r="K127" s="201"/>
       <c r="L127" s="199">
-        <f>SUM(O13:O122)</f>
-        <v>20637800</v>
+        <f>SUM(M13:M124)</f>
+        <v>4705000</v>
       </c>
       <c r="M127" s="197"/>
       <c r="N127" s="197"/>
       <c r="O127" s="197"/>
     </row>
-    <row r="130" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C130" s="279"/>
-      <c r="E130" s="279" t="s">
+    <row r="128" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A128" s="493" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" s="493"/>
+      <c r="C128" s="493"/>
+      <c r="D128" s="493"/>
+      <c r="E128" s="493"/>
+      <c r="F128" s="493"/>
+      <c r="G128" s="201"/>
+      <c r="H128" s="212"/>
+      <c r="I128" s="195"/>
+      <c r="J128" s="197"/>
+      <c r="K128" s="198"/>
+      <c r="L128" s="199">
+        <f>SUM(N13:N124)</f>
+        <v>20298950.000000004</v>
+      </c>
+      <c r="M128" s="197"/>
+      <c r="N128" s="197"/>
+      <c r="O128" s="197"/>
+    </row>
+    <row r="129" spans="1:15" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A129" s="493" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="493"/>
+      <c r="C129" s="493"/>
+      <c r="D129" s="493"/>
+      <c r="E129" s="493"/>
+      <c r="F129" s="493"/>
+      <c r="G129" s="201"/>
+      <c r="H129" s="212"/>
+      <c r="I129" s="195"/>
+      <c r="J129" s="197"/>
+      <c r="K129" s="198"/>
+      <c r="L129" s="199">
+        <f>SUM(O13:O124)</f>
+        <v>54860300</v>
+      </c>
+      <c r="M129" s="197"/>
+      <c r="N129" s="197"/>
+      <c r="O129" s="197"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C132" s="279"/>
+      <c r="E132" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="F130" s="279"/>
-      <c r="G130" s="279"/>
-      <c r="H130" s="183"/>
-      <c r="I130" s="337"/>
-      <c r="J130" s="338"/>
-      <c r="K130" s="180"/>
-      <c r="L130" s="339" t="s">
+      <c r="F132" s="279"/>
+      <c r="G132" s="279"/>
+      <c r="H132" s="183"/>
+      <c r="I132" s="337"/>
+      <c r="J132" s="338"/>
+      <c r="K132" s="180"/>
+      <c r="L132" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="M130" s="338"/>
-      <c r="N130" s="338"/>
-      <c r="O130" s="338"/>
-    </row>
-    <row r="131" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C131" s="184"/>
-      <c r="E131" s="184" t="s">
+      <c r="M132" s="338"/>
+      <c r="N132" s="338"/>
+      <c r="O132" s="338"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C133" s="184"/>
+      <c r="E133" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="F131" s="184"/>
-      <c r="G131" s="184"/>
-      <c r="H131" s="187"/>
-      <c r="I131" s="340"/>
-      <c r="J131" s="338"/>
-      <c r="K131" s="180"/>
-      <c r="L131" s="341" t="s">
+      <c r="F133" s="184"/>
+      <c r="G133" s="184"/>
+      <c r="H133" s="187"/>
+      <c r="I133" s="340"/>
+      <c r="J133" s="338"/>
+      <c r="K133" s="180"/>
+      <c r="L133" s="341" t="s">
         <v>16</v>
       </c>
-      <c r="M131" s="338"/>
-      <c r="N131" s="338"/>
-      <c r="O131" s="338"/>
-    </row>
-    <row r="134" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C134" s="279"/>
-      <c r="E134" s="279"/>
-      <c r="F134" s="342"/>
-      <c r="G134" s="342"/>
-      <c r="I134" s="338"/>
-      <c r="J134" s="338"/>
-      <c r="K134" s="180"/>
-      <c r="L134" s="338"/>
-      <c r="M134" s="338"/>
-      <c r="N134" s="338"/>
-      <c r="O134" s="338"/>
+      <c r="M133" s="338"/>
+      <c r="N133" s="338"/>
+      <c r="O133" s="338"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C136" s="279"/>
+      <c r="E136" s="279"/>
+      <c r="F136" s="342"/>
+      <c r="G136" s="342"/>
+      <c r="I136" s="338"/>
+      <c r="J136" s="338"/>
+      <c r="K136" s="180"/>
+      <c r="L136" s="338"/>
+      <c r="M136" s="338"/>
+      <c r="N136" s="338"/>
+      <c r="O136" s="338"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:P127">
+  <autoFilter ref="A6:P129">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8232,77 +8667,80 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="150">
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
+  <mergeCells count="165">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B104:B106"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P123:P124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E40:E47"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
@@ -8325,64 +8763,76 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D61:D67"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P125:P126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="Q125:Q126"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="D109:D114"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="E109:E114"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E73:E78"/>
+    <mergeCell ref="D73:D78"/>
+    <mergeCell ref="C73:C78"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E85:E90"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="D53:D61"/>
+    <mergeCell ref="C53:C61"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8393,8 +8843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8415,93 +8865,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="528" t="s">
+      <c r="A1" s="520" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="528"/>
-      <c r="C1" s="528"/>
-      <c r="D1" s="528"/>
+      <c r="B1" s="520"/>
+      <c r="C1" s="520"/>
+      <c r="D1" s="520"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="529" t="s">
+      <c r="A2" s="521" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="529"/>
-      <c r="C2" s="529"/>
-      <c r="D2" s="529"/>
+      <c r="B2" s="521"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="521"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="530" t="s">
+      <c r="A3" s="522" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="530"/>
-      <c r="C3" s="530"/>
-      <c r="D3" s="530"/>
-      <c r="E3" s="530"/>
-      <c r="F3" s="530"/>
-      <c r="G3" s="530"/>
-      <c r="H3" s="530"/>
-      <c r="I3" s="530"/>
-      <c r="J3" s="530"/>
-      <c r="K3" s="530"/>
-      <c r="L3" s="530"/>
-      <c r="M3" s="530"/>
-      <c r="N3" s="530"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
+      <c r="J3" s="522"/>
+      <c r="K3" s="522"/>
+      <c r="L3" s="522"/>
+      <c r="M3" s="522"/>
+      <c r="N3" s="522"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="531" t="s">
+      <c r="A4" s="523" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="531"/>
-      <c r="C4" s="531"/>
-      <c r="D4" s="531"/>
-      <c r="E4" s="531"/>
-      <c r="F4" s="531"/>
-      <c r="G4" s="531"/>
-      <c r="H4" s="531"/>
-      <c r="I4" s="532"/>
-      <c r="J4" s="531"/>
-      <c r="K4" s="531"/>
-      <c r="L4" s="531"/>
-      <c r="M4" s="531"/>
-      <c r="N4" s="531"/>
+      <c r="B4" s="523"/>
+      <c r="C4" s="523"/>
+      <c r="D4" s="523"/>
+      <c r="E4" s="523"/>
+      <c r="F4" s="523"/>
+      <c r="G4" s="523"/>
+      <c r="H4" s="523"/>
+      <c r="I4" s="524"/>
+      <c r="J4" s="523"/>
+      <c r="K4" s="523"/>
+      <c r="L4" s="523"/>
+      <c r="M4" s="523"/>
+      <c r="N4" s="523"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="533" t="s">
+      <c r="A5" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="524" t="s">
+      <c r="B5" s="531" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="519" t="s">
+      <c r="C5" s="526" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="403" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="525" t="s">
+      <c r="E5" s="532" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="525"/>
-      <c r="G5" s="525"/>
-      <c r="H5" s="525"/>
-      <c r="I5" s="526"/>
-      <c r="J5" s="527" t="s">
+      <c r="F5" s="532"/>
+      <c r="G5" s="532"/>
+      <c r="H5" s="532"/>
+      <c r="I5" s="533"/>
+      <c r="J5" s="534" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="525" t="s">
+      <c r="K5" s="532" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="525"/>
-      <c r="M5" s="525"/>
-      <c r="N5" s="519" t="s">
+      <c r="L5" s="532"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="526" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="533"/>
-      <c r="B6" s="524"/>
-      <c r="C6" s="519"/>
+      <c r="A6" s="525"/>
+      <c r="B6" s="531"/>
+      <c r="C6" s="526"/>
       <c r="D6" s="403" t="s">
         <v>41</v>
       </c>
@@ -8520,7 +8970,7 @@
       <c r="I6" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="527"/>
+      <c r="J6" s="534"/>
       <c r="K6" s="403" t="s">
         <v>45</v>
       </c>
@@ -8530,11 +8980,11 @@
       <c r="M6" s="403" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="519"/>
+      <c r="N6" s="526"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="273">
-        <v>786</v>
+        <v>663</v>
       </c>
       <c r="B7" s="407">
         <v>44077</v>
@@ -8574,78 +9024,164 @@
       <c r="N7" s="412"/>
     </row>
     <row r="8" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="474"/>
-      <c r="B8" s="480"/>
-      <c r="C8" s="485"/>
-      <c r="D8" s="485"/>
-      <c r="E8" s="349"/>
-      <c r="F8" s="349"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="290"/>
+      <c r="A8" s="472">
+        <v>664</v>
+      </c>
+      <c r="B8" s="476">
+        <v>44088</v>
+      </c>
+      <c r="C8" s="643"/>
+      <c r="D8" s="643" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="349" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="349">
+        <v>24</v>
+      </c>
+      <c r="G8" s="290">
+        <v>455000</v>
+      </c>
+      <c r="H8" s="408">
+        <f t="shared" ref="H8:H9" si="0">F8*G8</f>
+        <v>10920000</v>
+      </c>
+      <c r="I8" s="409">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="410">
+        <f t="shared" ref="J8:J11" si="1">H8*(1-I8)</f>
+        <v>5460000</v>
+      </c>
       <c r="K8" s="290"/>
       <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
+      <c r="M8" s="411">
+        <f t="shared" ref="M8:M11" si="2">J8</f>
+        <v>5460000</v>
+      </c>
       <c r="N8" s="349"/>
       <c r="Q8" s="294"/>
     </row>
     <row r="9" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="478"/>
-      <c r="B9" s="481"/>
-      <c r="C9" s="486"/>
-      <c r="D9" s="486"/>
-      <c r="E9" s="350"/>
-      <c r="F9" s="350"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="292"/>
+      <c r="A9" s="528"/>
+      <c r="B9" s="530"/>
+      <c r="C9" s="644"/>
+      <c r="D9" s="644"/>
+      <c r="E9" s="350" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="350">
+        <v>24</v>
+      </c>
+      <c r="G9" s="292">
+        <v>475000</v>
+      </c>
+      <c r="H9" s="408">
+        <f t="shared" si="0"/>
+        <v>11400000</v>
+      </c>
+      <c r="I9" s="409">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="410">
+        <f t="shared" si="1"/>
+        <v>5700000</v>
+      </c>
       <c r="K9" s="292"/>
       <c r="L9" s="292"/>
-      <c r="M9" s="290"/>
+      <c r="M9" s="411">
+        <f t="shared" si="2"/>
+        <v>5700000</v>
+      </c>
       <c r="N9" s="350"/>
       <c r="Q9" s="294"/>
     </row>
     <row r="10" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="478"/>
-      <c r="B10" s="481"/>
-      <c r="C10" s="486"/>
-      <c r="D10" s="486"/>
-      <c r="E10" s="350"/>
-      <c r="F10" s="350"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="292"/>
+      <c r="A10" s="274">
+        <v>666</v>
+      </c>
+      <c r="B10" s="423">
+        <v>44091</v>
+      </c>
+      <c r="C10" s="641"/>
+      <c r="D10" s="641" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="350" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="350">
+        <v>42</v>
+      </c>
+      <c r="G10" s="292">
+        <v>455000</v>
+      </c>
+      <c r="H10" s="292">
+        <f>F10*G10</f>
+        <v>19110000</v>
+      </c>
+      <c r="I10" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="410">
+        <f t="shared" si="1"/>
+        <v>9555000</v>
+      </c>
       <c r="K10" s="292"/>
       <c r="L10" s="292"/>
-      <c r="M10" s="290"/>
+      <c r="M10" s="411">
+        <f t="shared" si="2"/>
+        <v>9555000</v>
+      </c>
       <c r="N10" s="350"/>
       <c r="Q10" s="294"/>
     </row>
     <row r="11" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="478"/>
-      <c r="B11" s="481"/>
-      <c r="C11" s="486"/>
-      <c r="D11" s="486"/>
-      <c r="E11" s="350"/>
-      <c r="F11" s="350"/>
-      <c r="G11" s="292"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="292"/>
+      <c r="A11" s="274">
+        <v>669</v>
+      </c>
+      <c r="B11" s="423">
+        <v>44092</v>
+      </c>
+      <c r="C11" s="641"/>
+      <c r="D11" s="641" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="350" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="350">
+        <v>24</v>
+      </c>
+      <c r="G11" s="292">
+        <v>225000</v>
+      </c>
+      <c r="H11" s="292">
+        <f>F11*G11</f>
+        <v>5400000</v>
+      </c>
+      <c r="I11" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="292">
+        <f t="shared" si="1"/>
+        <v>2700000</v>
+      </c>
       <c r="K11" s="292"/>
       <c r="L11" s="292"/>
-      <c r="M11" s="290"/>
+      <c r="M11" s="290">
+        <f t="shared" si="2"/>
+        <v>2700000</v>
+      </c>
       <c r="N11" s="350"/>
       <c r="Q11" s="294"/>
     </row>
     <row r="12" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="478"/>
-      <c r="B12" s="481"/>
-      <c r="C12" s="486"/>
-      <c r="D12" s="486"/>
+      <c r="A12" s="274"/>
+      <c r="B12" s="423"/>
+      <c r="C12" s="641"/>
+      <c r="D12" s="641"/>
       <c r="E12" s="350"/>
       <c r="F12" s="350"/>
       <c r="G12" s="292"/>
@@ -8659,10 +9195,10 @@
       <c r="Q12" s="294"/>
     </row>
     <row r="13" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="478"/>
-      <c r="B13" s="481"/>
-      <c r="C13" s="486"/>
-      <c r="D13" s="486"/>
+      <c r="A13" s="274"/>
+      <c r="B13" s="423"/>
+      <c r="C13" s="641"/>
+      <c r="D13" s="641"/>
       <c r="E13" s="350"/>
       <c r="F13" s="350"/>
       <c r="G13" s="292"/>
@@ -8676,10 +9212,10 @@
       <c r="Q13" s="294"/>
     </row>
     <row r="14" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="478"/>
-      <c r="B14" s="481"/>
-      <c r="C14" s="486"/>
-      <c r="D14" s="486"/>
+      <c r="A14" s="274"/>
+      <c r="B14" s="423"/>
+      <c r="C14" s="641"/>
+      <c r="D14" s="641"/>
       <c r="E14" s="350"/>
       <c r="F14" s="350"/>
       <c r="G14" s="292"/>
@@ -8693,10 +9229,10 @@
       <c r="Q14" s="294"/>
     </row>
     <row r="15" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="475"/>
-      <c r="B15" s="482"/>
-      <c r="C15" s="487"/>
-      <c r="D15" s="487"/>
+      <c r="A15" s="276"/>
+      <c r="B15" s="432"/>
+      <c r="C15" s="642"/>
+      <c r="D15" s="642"/>
       <c r="E15" s="351"/>
       <c r="F15" s="351"/>
       <c r="G15" s="295"/>
@@ -8727,10 +9263,10 @@
       <c r="Q16" s="294"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="474"/>
-      <c r="B17" s="480"/>
-      <c r="C17" s="474"/>
-      <c r="D17" s="474"/>
+      <c r="A17" s="478"/>
+      <c r="B17" s="484"/>
+      <c r="C17" s="478"/>
+      <c r="D17" s="478"/>
       <c r="E17" s="277"/>
       <c r="F17" s="277"/>
       <c r="G17" s="414"/>
@@ -8743,10 +9279,10 @@
       <c r="N17" s="318"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="475"/>
-      <c r="B18" s="482"/>
-      <c r="C18" s="475"/>
-      <c r="D18" s="475"/>
+      <c r="A18" s="480"/>
+      <c r="B18" s="486"/>
+      <c r="C18" s="480"/>
+      <c r="D18" s="480"/>
       <c r="E18" s="276"/>
       <c r="F18" s="276"/>
       <c r="G18" s="416"/>
@@ -8791,10 +9327,10 @@
       <c r="N20" s="274"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="520"/>
-      <c r="B21" s="522"/>
-      <c r="C21" s="520"/>
-      <c r="D21" s="520"/>
+      <c r="A21" s="527"/>
+      <c r="B21" s="529"/>
+      <c r="C21" s="527"/>
+      <c r="D21" s="527"/>
       <c r="E21" s="274"/>
       <c r="F21" s="274"/>
       <c r="G21" s="424"/>
@@ -8807,10 +9343,10 @@
       <c r="N21" s="274"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="521"/>
-      <c r="B22" s="523"/>
-      <c r="C22" s="521"/>
-      <c r="D22" s="521"/>
+      <c r="A22" s="528"/>
+      <c r="B22" s="530"/>
+      <c r="C22" s="528"/>
+      <c r="D22" s="528"/>
       <c r="E22" s="274"/>
       <c r="F22" s="274"/>
       <c r="G22" s="424"/>
@@ -8871,10 +9407,10 @@
       <c r="N25" s="317"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="474"/>
-      <c r="B26" s="480"/>
-      <c r="C26" s="474"/>
-      <c r="D26" s="474"/>
+      <c r="A26" s="478"/>
+      <c r="B26" s="484"/>
+      <c r="C26" s="478"/>
+      <c r="D26" s="478"/>
       <c r="E26" s="277"/>
       <c r="F26" s="277"/>
       <c r="G26" s="414"/>
@@ -8887,10 +9423,10 @@
       <c r="N26" s="318"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="478"/>
-      <c r="B27" s="481"/>
-      <c r="C27" s="478"/>
-      <c r="D27" s="478"/>
+      <c r="A27" s="479"/>
+      <c r="B27" s="485"/>
+      <c r="C27" s="479"/>
+      <c r="D27" s="479"/>
       <c r="E27" s="274"/>
       <c r="F27" s="274"/>
       <c r="G27" s="424"/>
@@ -8903,10 +9439,10 @@
       <c r="N27" s="328"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="475"/>
-      <c r="B28" s="482"/>
-      <c r="C28" s="475"/>
-      <c r="D28" s="475"/>
+      <c r="A28" s="480"/>
+      <c r="B28" s="486"/>
+      <c r="C28" s="480"/>
+      <c r="D28" s="480"/>
       <c r="E28" s="276"/>
       <c r="F28" s="276"/>
       <c r="G28" s="416"/>
@@ -8919,10 +9455,10 @@
       <c r="N28" s="317"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="474"/>
-      <c r="B29" s="480"/>
-      <c r="C29" s="474"/>
-      <c r="D29" s="474"/>
+      <c r="A29" s="478"/>
+      <c r="B29" s="484"/>
+      <c r="C29" s="478"/>
+      <c r="D29" s="478"/>
       <c r="E29" s="277"/>
       <c r="F29" s="277"/>
       <c r="G29" s="414"/>
@@ -8935,10 +9471,10 @@
       <c r="N29" s="318"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="478"/>
-      <c r="B30" s="481"/>
-      <c r="C30" s="478"/>
-      <c r="D30" s="478"/>
+      <c r="A30" s="479"/>
+      <c r="B30" s="485"/>
+      <c r="C30" s="479"/>
+      <c r="D30" s="479"/>
       <c r="E30" s="274"/>
       <c r="F30" s="274"/>
       <c r="G30" s="424"/>
@@ -8951,10 +9487,10 @@
       <c r="N30" s="328"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="478"/>
-      <c r="B31" s="481"/>
-      <c r="C31" s="478"/>
-      <c r="D31" s="478"/>
+      <c r="A31" s="479"/>
+      <c r="B31" s="485"/>
+      <c r="C31" s="479"/>
+      <c r="D31" s="479"/>
       <c r="E31" s="274"/>
       <c r="F31" s="274"/>
       <c r="G31" s="424"/>
@@ -8967,10 +9503,10 @@
       <c r="N31" s="328"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="475"/>
-      <c r="B32" s="482"/>
-      <c r="C32" s="475"/>
-      <c r="D32" s="475"/>
+      <c r="A32" s="480"/>
+      <c r="B32" s="486"/>
+      <c r="C32" s="480"/>
+      <c r="D32" s="480"/>
       <c r="E32" s="276"/>
       <c r="F32" s="276"/>
       <c r="G32" s="416"/>
@@ -9047,10 +9583,10 @@
       <c r="N36" s="331"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="474"/>
-      <c r="B37" s="480"/>
-      <c r="C37" s="474"/>
-      <c r="D37" s="474"/>
+      <c r="A37" s="478"/>
+      <c r="B37" s="484"/>
+      <c r="C37" s="478"/>
+      <c r="D37" s="478"/>
       <c r="E37" s="277"/>
       <c r="F37" s="277"/>
       <c r="G37" s="414"/>
@@ -9063,10 +9599,10 @@
       <c r="N37" s="318"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="475"/>
-      <c r="B38" s="482"/>
-      <c r="C38" s="475"/>
-      <c r="D38" s="475"/>
+      <c r="A38" s="480"/>
+      <c r="B38" s="486"/>
+      <c r="C38" s="480"/>
+      <c r="D38" s="480"/>
       <c r="E38" s="276"/>
       <c r="F38" s="276"/>
       <c r="G38" s="416"/>
@@ -9111,29 +9647,29 @@
       <c r="N40" s="331"/>
     </row>
     <row r="41" spans="1:14" s="442" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="518" t="s">
+      <c r="A41" s="535" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="518"/>
-      <c r="C41" s="518"/>
-      <c r="D41" s="518"/>
+      <c r="B41" s="535"/>
+      <c r="C41" s="535"/>
+      <c r="D41" s="535"/>
       <c r="E41" s="438"/>
       <c r="F41" s="438">
         <f>SUM(F7:F40)</f>
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="G41" s="439">
         <f>SUM(G7:G40)</f>
-        <v>485000</v>
+        <v>2095000</v>
       </c>
       <c r="H41" s="439">
         <f>SUM(H7:H40)</f>
-        <v>1940000</v>
+        <v>48770000</v>
       </c>
       <c r="I41" s="440"/>
       <c r="J41" s="441">
         <f>SUM(J7:J40)</f>
-        <v>970000</v>
+        <v>24385000</v>
       </c>
       <c r="K41" s="438"/>
       <c r="L41" s="438"/>
@@ -9204,22 +9740,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="C21:C22"/>
@@ -9230,16 +9760,22 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9328,14 +9864,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="534" t="s">
+      <c r="A4" s="536" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="534"/>
-      <c r="C4" s="534"/>
-      <c r="D4" s="534"/>
-      <c r="E4" s="534"/>
-      <c r="F4" s="534"/>
+      <c r="B4" s="536"/>
+      <c r="C4" s="536"/>
+      <c r="D4" s="536"/>
+      <c r="E4" s="536"/>
+      <c r="F4" s="536"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -9349,14 +9885,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="535" t="s">
+      <c r="A5" s="537" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="535"/>
-      <c r="C5" s="535"/>
-      <c r="D5" s="535"/>
-      <c r="E5" s="535"/>
-      <c r="F5" s="535"/>
+      <c r="B5" s="537"/>
+      <c r="C5" s="537"/>
+      <c r="D5" s="537"/>
+      <c r="E5" s="537"/>
+      <c r="F5" s="537"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -9425,12 +9961,12 @@
         <v>52</v>
       </c>
       <c r="C8" s="60">
-        <f>'DOANH THU'!G124</f>
-        <v>109</v>
+        <f>'DOANH THU'!G126</f>
+        <v>359</v>
       </c>
       <c r="D8" s="70">
-        <f>'DOANH THU'!L124</f>
-        <v>23859200</v>
+        <f>'DOANH THU'!L126</f>
+        <v>79864250</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="61"/>
@@ -9455,8 +9991,8 @@
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="73">
-        <f>'DOANH THU'!L125</f>
-        <v>0</v>
+        <f>'DOANH THU'!L127</f>
+        <v>4705000</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="61"/>
@@ -9481,8 +10017,8 @@
       </c>
       <c r="C10" s="72"/>
       <c r="D10" s="73">
-        <f>'DOANH THU'!L126</f>
-        <v>3221400.0000000005</v>
+        <f>'DOANH THU'!L128</f>
+        <v>20298950.000000004</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="61"/>
@@ -9506,7 +10042,7 @@
       <c r="C11" s="88"/>
       <c r="D11" s="87">
         <f>'Hàng khách trả'!J41</f>
-        <v>970000</v>
+        <v>24385000</v>
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="61"/>
@@ -9530,7 +10066,7 @@
       <c r="C12" s="77"/>
       <c r="D12" s="78">
         <f>D8-D9-D10</f>
-        <v>20637800</v>
+        <v>54860300</v>
       </c>
       <c r="E12" s="75"/>
       <c r="F12" s="61"/>
@@ -9703,10 +10239,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="536" t="s">
+      <c r="A25" s="538" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="536"/>
+      <c r="B25" s="538"/>
       <c r="C25" s="31"/>
       <c r="D25" s="142">
         <f>C24-D24</f>
@@ -9785,13 +10321,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="553" t="s">
+      <c r="A1" s="576" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
+      <c r="B1" s="576"/>
+      <c r="C1" s="576"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9811,99 +10347,99 @@
       <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="554" t="s">
+      <c r="A3" s="546" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="554"/>
-      <c r="C3" s="554"/>
-      <c r="D3" s="554"/>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="554"/>
-      <c r="J3" s="554"/>
-      <c r="K3" s="554"/>
-      <c r="L3" s="554"/>
+      <c r="B3" s="546"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="546"/>
+      <c r="E3" s="546"/>
+      <c r="F3" s="546"/>
+      <c r="G3" s="546"/>
+      <c r="H3" s="546"/>
+      <c r="I3" s="546"/>
+      <c r="J3" s="546"/>
+      <c r="K3" s="546"/>
+      <c r="L3" s="546"/>
     </row>
     <row r="4" spans="1:12" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="555" t="s">
+      <c r="A4" s="545" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="559" t="s">
+      <c r="B4" s="569" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="555" t="s">
+      <c r="C4" s="545" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="555" t="s">
+      <c r="D4" s="545" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="555"/>
-      <c r="F4" s="558" t="s">
+      <c r="E4" s="545"/>
+      <c r="F4" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="558"/>
-      <c r="H4" s="558"/>
-      <c r="I4" s="558"/>
-      <c r="J4" s="558"/>
-      <c r="K4" s="558"/>
-      <c r="L4" s="558"/>
+      <c r="G4" s="544"/>
+      <c r="H4" s="544"/>
+      <c r="I4" s="544"/>
+      <c r="J4" s="544"/>
+      <c r="K4" s="544"/>
+      <c r="L4" s="544"/>
     </row>
     <row r="5" spans="1:12" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="555"/>
-      <c r="B5" s="559"/>
-      <c r="C5" s="555"/>
-      <c r="D5" s="555" t="s">
+      <c r="A5" s="545"/>
+      <c r="B5" s="569"/>
+      <c r="C5" s="545"/>
+      <c r="D5" s="545" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="555" t="s">
+      <c r="E5" s="545" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="555" t="s">
+      <c r="F5" s="545" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="555" t="s">
+      <c r="G5" s="545" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="556" t="s">
+      <c r="H5" s="548" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="556" t="s">
+      <c r="I5" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="557" t="s">
+      <c r="J5" s="547" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="557"/>
-      <c r="L5" s="556" t="s">
+      <c r="K5" s="547"/>
+      <c r="L5" s="548" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="555"/>
-      <c r="B6" s="559"/>
-      <c r="C6" s="555"/>
-      <c r="D6" s="555"/>
-      <c r="E6" s="555"/>
-      <c r="F6" s="555"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="I6" s="556"/>
+      <c r="A6" s="545"/>
+      <c r="B6" s="569"/>
+      <c r="C6" s="545"/>
+      <c r="D6" s="545"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="548"/>
+      <c r="I6" s="548"/>
       <c r="J6" s="93" t="s">
         <v>82</v>
       </c>
       <c r="K6" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="556"/>
+      <c r="L6" s="548"/>
     </row>
     <row r="7" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="560"/>
+      <c r="A7" s="561"/>
       <c r="B7" s="563"/>
-      <c r="C7" s="560"/>
-      <c r="D7" s="560"/>
-      <c r="E7" s="560"/>
+      <c r="C7" s="561"/>
+      <c r="D7" s="561"/>
+      <c r="E7" s="561"/>
       <c r="F7" s="224"/>
       <c r="G7" s="224"/>
       <c r="H7" s="204"/>
@@ -9913,11 +10449,11 @@
       <c r="L7" s="204"/>
     </row>
     <row r="8" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="561"/>
-      <c r="B8" s="564"/>
-      <c r="C8" s="561"/>
-      <c r="D8" s="561"/>
-      <c r="E8" s="561"/>
+      <c r="A8" s="570"/>
+      <c r="B8" s="571"/>
+      <c r="C8" s="570"/>
+      <c r="D8" s="570"/>
+      <c r="E8" s="570"/>
       <c r="F8" s="225"/>
       <c r="G8" s="225"/>
       <c r="H8" s="206"/>
@@ -9927,11 +10463,11 @@
       <c r="L8" s="206"/>
     </row>
     <row r="9" spans="1:12" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="561"/>
-      <c r="B9" s="564"/>
-      <c r="C9" s="561"/>
-      <c r="D9" s="561"/>
-      <c r="E9" s="561"/>
+      <c r="A9" s="570"/>
+      <c r="B9" s="571"/>
+      <c r="C9" s="570"/>
+      <c r="D9" s="570"/>
+      <c r="E9" s="570"/>
       <c r="F9" s="225"/>
       <c r="G9" s="225"/>
       <c r="H9" s="206"/>
@@ -9942,7 +10478,7 @@
     </row>
     <row r="10" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="562"/>
-      <c r="B10" s="565"/>
+      <c r="B10" s="564"/>
       <c r="C10" s="562"/>
       <c r="D10" s="562"/>
       <c r="E10" s="562"/>
@@ -9969,11 +10505,11 @@
       <c r="L11" s="210"/>
     </row>
     <row r="12" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="566"/>
-      <c r="B12" s="568"/>
-      <c r="C12" s="566"/>
-      <c r="D12" s="570"/>
-      <c r="E12" s="566"/>
+      <c r="A12" s="567"/>
+      <c r="B12" s="572"/>
+      <c r="C12" s="567"/>
+      <c r="D12" s="574"/>
+      <c r="E12" s="567"/>
       <c r="H12" s="213"/>
       <c r="I12" s="213"/>
       <c r="J12" s="213"/>
@@ -9981,11 +10517,11 @@
       <c r="L12" s="213"/>
     </row>
     <row r="13" spans="1:12" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="567"/>
-      <c r="B13" s="569"/>
-      <c r="C13" s="567"/>
-      <c r="D13" s="571"/>
-      <c r="E13" s="567"/>
+      <c r="A13" s="568"/>
+      <c r="B13" s="573"/>
+      <c r="C13" s="568"/>
+      <c r="D13" s="575"/>
+      <c r="E13" s="568"/>
       <c r="F13" s="228"/>
       <c r="G13" s="228"/>
       <c r="H13" s="215"/>
@@ -9995,14 +10531,14 @@
       <c r="L13" s="215"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="544" t="s">
+      <c r="A14" s="551" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="545"/>
-      <c r="C14" s="545"/>
-      <c r="D14" s="545"/>
-      <c r="E14" s="545"/>
-      <c r="F14" s="546"/>
+      <c r="B14" s="552"/>
+      <c r="C14" s="552"/>
+      <c r="D14" s="552"/>
+      <c r="E14" s="552"/>
+      <c r="F14" s="553"/>
       <c r="G14" s="234">
         <f>SUM(G7:G13)</f>
         <v>0</v>
@@ -10048,99 +10584,99 @@
       <c r="L16" s="256"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="554" t="s">
+      <c r="A17" s="546" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="554"/>
-      <c r="C17" s="554"/>
-      <c r="D17" s="554"/>
-      <c r="E17" s="554"/>
-      <c r="F17" s="554"/>
-      <c r="G17" s="554"/>
-      <c r="H17" s="554"/>
-      <c r="I17" s="554"/>
-      <c r="J17" s="554"/>
-      <c r="K17" s="554"/>
-      <c r="L17" s="554"/>
+      <c r="B17" s="546"/>
+      <c r="C17" s="546"/>
+      <c r="D17" s="546"/>
+      <c r="E17" s="546"/>
+      <c r="F17" s="546"/>
+      <c r="G17" s="546"/>
+      <c r="H17" s="546"/>
+      <c r="I17" s="546"/>
+      <c r="J17" s="546"/>
+      <c r="K17" s="546"/>
+      <c r="L17" s="546"/>
     </row>
     <row r="18" spans="1:13" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="555" t="s">
+      <c r="A18" s="545" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="559" t="s">
+      <c r="B18" s="569" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="555" t="s">
+      <c r="C18" s="545" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="555" t="s">
+      <c r="D18" s="545" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="555"/>
-      <c r="F18" s="558" t="s">
+      <c r="E18" s="545"/>
+      <c r="F18" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="558"/>
-      <c r="H18" s="558"/>
-      <c r="I18" s="558"/>
-      <c r="J18" s="558"/>
-      <c r="K18" s="558"/>
-      <c r="L18" s="558"/>
+      <c r="G18" s="544"/>
+      <c r="H18" s="544"/>
+      <c r="I18" s="544"/>
+      <c r="J18" s="544"/>
+      <c r="K18" s="544"/>
+      <c r="L18" s="544"/>
     </row>
     <row r="19" spans="1:13" s="90" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="555"/>
-      <c r="B19" s="559"/>
-      <c r="C19" s="555"/>
-      <c r="D19" s="555" t="s">
+      <c r="A19" s="545"/>
+      <c r="B19" s="569"/>
+      <c r="C19" s="545"/>
+      <c r="D19" s="545" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="555" t="s">
+      <c r="E19" s="545" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="555" t="s">
+      <c r="F19" s="545" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="555" t="s">
+      <c r="G19" s="545" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="556" t="s">
+      <c r="H19" s="548" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="556" t="s">
+      <c r="I19" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="557" t="s">
+      <c r="J19" s="547" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="557"/>
-      <c r="L19" s="556" t="s">
+      <c r="K19" s="547"/>
+      <c r="L19" s="548" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="555"/>
-      <c r="B20" s="559"/>
-      <c r="C20" s="555"/>
-      <c r="D20" s="555"/>
-      <c r="E20" s="555"/>
-      <c r="F20" s="555"/>
-      <c r="G20" s="555"/>
-      <c r="H20" s="556"/>
-      <c r="I20" s="556"/>
+      <c r="A20" s="545"/>
+      <c r="B20" s="569"/>
+      <c r="C20" s="545"/>
+      <c r="D20" s="545"/>
+      <c r="E20" s="545"/>
+      <c r="F20" s="545"/>
+      <c r="G20" s="545"/>
+      <c r="H20" s="548"/>
+      <c r="I20" s="548"/>
       <c r="J20" s="230" t="s">
         <v>82</v>
       </c>
       <c r="K20" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="556"/>
+      <c r="L20" s="548"/>
     </row>
     <row r="21" spans="1:13" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="560"/>
+      <c r="A21" s="561"/>
       <c r="B21" s="563"/>
-      <c r="C21" s="560"/>
-      <c r="D21" s="572"/>
-      <c r="E21" s="560"/>
+      <c r="C21" s="561"/>
+      <c r="D21" s="565"/>
+      <c r="E21" s="561"/>
       <c r="F21" s="224"/>
       <c r="G21" s="224"/>
       <c r="H21" s="204"/>
@@ -10152,9 +10688,9 @@
     </row>
     <row r="22" spans="1:13" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="562"/>
-      <c r="B22" s="565"/>
+      <c r="B22" s="564"/>
       <c r="C22" s="562"/>
-      <c r="D22" s="573"/>
+      <c r="D22" s="566"/>
       <c r="E22" s="562"/>
       <c r="F22" s="226"/>
       <c r="G22" s="226"/>
@@ -10174,19 +10710,19 @@
       <c r="F23" s="236"/>
       <c r="G23" s="236"/>
       <c r="H23" s="236"/>
-      <c r="I23" s="574"/>
-      <c r="J23" s="574"/>
-      <c r="K23" s="574"/>
+      <c r="I23" s="550"/>
+      <c r="J23" s="550"/>
+      <c r="K23" s="550"/>
       <c r="L23" s="399"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="544" t="s">
+      <c r="A24" s="551" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="545"/>
-      <c r="C24" s="545"/>
-      <c r="D24" s="545"/>
-      <c r="E24" s="546"/>
+      <c r="B24" s="552"/>
+      <c r="C24" s="552"/>
+      <c r="D24" s="552"/>
+      <c r="E24" s="553"/>
       <c r="F24" s="239"/>
       <c r="G24" s="239">
         <f>SUM(G21:G23)</f>
@@ -10219,92 +10755,92 @@
       <c r="L25" s="255"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="554" t="s">
+      <c r="A26" s="546" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="554"/>
-      <c r="C26" s="554"/>
-      <c r="D26" s="554"/>
-      <c r="E26" s="554"/>
-      <c r="F26" s="554"/>
-      <c r="G26" s="554"/>
-      <c r="H26" s="554"/>
-      <c r="I26" s="554"/>
-      <c r="J26" s="554"/>
-      <c r="K26" s="554"/>
-      <c r="L26" s="554"/>
+      <c r="B26" s="546"/>
+      <c r="C26" s="546"/>
+      <c r="D26" s="546"/>
+      <c r="E26" s="546"/>
+      <c r="F26" s="546"/>
+      <c r="G26" s="546"/>
+      <c r="H26" s="546"/>
+      <c r="I26" s="546"/>
+      <c r="J26" s="546"/>
+      <c r="K26" s="546"/>
+      <c r="L26" s="546"/>
     </row>
     <row r="27" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="555" t="s">
+      <c r="A27" s="545" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="580" t="s">
+      <c r="B27" s="549" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="555" t="s">
+      <c r="C27" s="545" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="555" t="s">
+      <c r="D27" s="545" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="555"/>
-      <c r="F27" s="558" t="s">
+      <c r="E27" s="545"/>
+      <c r="F27" s="544" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="558"/>
-      <c r="H27" s="558"/>
-      <c r="I27" s="558"/>
-      <c r="J27" s="558"/>
-      <c r="K27" s="558"/>
-      <c r="L27" s="558"/>
+      <c r="G27" s="544"/>
+      <c r="H27" s="544"/>
+      <c r="I27" s="544"/>
+      <c r="J27" s="544"/>
+      <c r="K27" s="544"/>
+      <c r="L27" s="544"/>
     </row>
     <row r="28" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="555"/>
-      <c r="B28" s="580"/>
-      <c r="C28" s="555"/>
-      <c r="D28" s="555" t="s">
+      <c r="A28" s="545"/>
+      <c r="B28" s="549"/>
+      <c r="C28" s="545"/>
+      <c r="D28" s="545" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="555" t="s">
+      <c r="E28" s="545" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="555" t="s">
+      <c r="F28" s="545" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="555" t="s">
+      <c r="G28" s="545" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="556" t="s">
+      <c r="H28" s="548" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="556" t="s">
+      <c r="I28" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="557" t="s">
+      <c r="J28" s="547" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="557"/>
-      <c r="L28" s="556" t="s">
+      <c r="K28" s="547"/>
+      <c r="L28" s="548" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="555"/>
-      <c r="B29" s="580"/>
-      <c r="C29" s="555"/>
-      <c r="D29" s="555"/>
-      <c r="E29" s="555"/>
-      <c r="F29" s="555"/>
-      <c r="G29" s="555"/>
-      <c r="H29" s="556"/>
-      <c r="I29" s="556"/>
+      <c r="A29" s="545"/>
+      <c r="B29" s="549"/>
+      <c r="C29" s="545"/>
+      <c r="D29" s="545"/>
+      <c r="E29" s="545"/>
+      <c r="F29" s="545"/>
+      <c r="G29" s="545"/>
+      <c r="H29" s="548"/>
+      <c r="I29" s="548"/>
       <c r="J29" s="264" t="s">
         <v>82</v>
       </c>
       <c r="K29" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="556"/>
+      <c r="L29" s="548"/>
     </row>
     <row r="30" spans="1:13" s="192" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="135"/>
@@ -10338,11 +10874,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="242" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="554" t="s">
+      <c r="A32" s="546" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="554"/>
-      <c r="C32" s="554"/>
+      <c r="B32" s="546"/>
+      <c r="C32" s="546"/>
       <c r="D32" s="252"/>
       <c r="E32" s="252"/>
       <c r="F32" s="252"/>
@@ -10355,225 +10891,225 @@
       <c r="A33" s="229"/>
       <c r="B33" s="229"/>
       <c r="C33" s="229"/>
-      <c r="D33" s="577" t="s">
+      <c r="D33" s="558" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="578"/>
-      <c r="F33" s="578"/>
-      <c r="G33" s="578"/>
-      <c r="H33" s="578"/>
-      <c r="I33" s="579"/>
-      <c r="J33" s="575" t="s">
+      <c r="E33" s="559"/>
+      <c r="F33" s="559"/>
+      <c r="G33" s="559"/>
+      <c r="H33" s="559"/>
+      <c r="I33" s="560"/>
+      <c r="J33" s="556" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="576"/>
+      <c r="K33" s="557"/>
       <c r="L33" s="241"/>
     </row>
     <row r="34" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="229"/>
       <c r="B34" s="229"/>
       <c r="C34" s="229"/>
-      <c r="D34" s="541" t="s">
+      <c r="D34" s="539" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="542"/>
-      <c r="F34" s="542"/>
-      <c r="G34" s="542"/>
-      <c r="H34" s="542"/>
-      <c r="I34" s="543"/>
-      <c r="J34" s="549">
+      <c r="E34" s="540"/>
+      <c r="F34" s="540"/>
+      <c r="G34" s="540"/>
+      <c r="H34" s="540"/>
+      <c r="I34" s="541"/>
+      <c r="J34" s="542">
         <v>550415</v>
       </c>
-      <c r="K34" s="550"/>
+      <c r="K34" s="543"/>
       <c r="L34" s="241"/>
     </row>
     <row r="35" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="229"/>
       <c r="B35" s="229"/>
       <c r="C35" s="229"/>
-      <c r="D35" s="541" t="s">
+      <c r="D35" s="539" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="542"/>
-      <c r="F35" s="542"/>
-      <c r="G35" s="542"/>
-      <c r="H35" s="542"/>
-      <c r="I35" s="543"/>
-      <c r="J35" s="549">
+      <c r="E35" s="540"/>
+      <c r="F35" s="540"/>
+      <c r="G35" s="540"/>
+      <c r="H35" s="540"/>
+      <c r="I35" s="541"/>
+      <c r="J35" s="542">
         <f>L14</f>
         <v>0</v>
       </c>
-      <c r="K35" s="550"/>
+      <c r="K35" s="543"/>
       <c r="L35" s="241"/>
     </row>
     <row r="36" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="229"/>
       <c r="B36" s="229"/>
       <c r="C36" s="229"/>
-      <c r="D36" s="541" t="s">
+      <c r="D36" s="539" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="542"/>
-      <c r="F36" s="542"/>
-      <c r="G36" s="542"/>
-      <c r="H36" s="542"/>
-      <c r="I36" s="543"/>
-      <c r="J36" s="549">
+      <c r="E36" s="540"/>
+      <c r="F36" s="540"/>
+      <c r="G36" s="540"/>
+      <c r="H36" s="540"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542">
         <f>L24</f>
         <v>0</v>
       </c>
-      <c r="K36" s="550"/>
+      <c r="K36" s="543"/>
       <c r="N36" s="243"/>
     </row>
     <row r="37" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="263"/>
       <c r="B37" s="263"/>
       <c r="C37" s="263"/>
-      <c r="D37" s="541" t="s">
+      <c r="D37" s="539" t="s">
         <v>189</v>
       </c>
-      <c r="E37" s="542"/>
-      <c r="F37" s="542"/>
-      <c r="G37" s="542"/>
-      <c r="H37" s="542"/>
-      <c r="I37" s="543"/>
-      <c r="J37" s="549">
+      <c r="E37" s="540"/>
+      <c r="F37" s="540"/>
+      <c r="G37" s="540"/>
+      <c r="H37" s="540"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542">
         <f>L31</f>
         <v>0</v>
       </c>
-      <c r="K37" s="550"/>
+      <c r="K37" s="543"/>
       <c r="N37" s="243"/>
     </row>
     <row r="38" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="262"/>
       <c r="B38" s="262"/>
       <c r="C38" s="262"/>
-      <c r="D38" s="541" t="s">
+      <c r="D38" s="539" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="542"/>
-      <c r="F38" s="542"/>
-      <c r="G38" s="542"/>
-      <c r="H38" s="542"/>
-      <c r="I38" s="543"/>
-      <c r="J38" s="549">
+      <c r="E38" s="540"/>
+      <c r="F38" s="540"/>
+      <c r="G38" s="540"/>
+      <c r="H38" s="540"/>
+      <c r="I38" s="541"/>
+      <c r="J38" s="542">
         <v>5000000</v>
       </c>
-      <c r="K38" s="550"/>
+      <c r="K38" s="543"/>
       <c r="N38" s="243"/>
     </row>
     <row r="39" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="262"/>
       <c r="B39" s="262"/>
       <c r="C39" s="262"/>
-      <c r="D39" s="544" t="s">
+      <c r="D39" s="551" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="545"/>
-      <c r="F39" s="545"/>
-      <c r="G39" s="545"/>
-      <c r="H39" s="545"/>
-      <c r="I39" s="546"/>
-      <c r="J39" s="551">
+      <c r="E39" s="552"/>
+      <c r="F39" s="552"/>
+      <c r="G39" s="552"/>
+      <c r="H39" s="552"/>
+      <c r="I39" s="553"/>
+      <c r="J39" s="554">
         <f>SUM(J34:K38)</f>
         <v>5550415</v>
       </c>
-      <c r="K39" s="552"/>
+      <c r="K39" s="555"/>
       <c r="N39" s="243"/>
     </row>
     <row r="40" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="229"/>
       <c r="B40" s="229"/>
       <c r="C40" s="229"/>
-      <c r="D40" s="541" t="s">
+      <c r="D40" s="539" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="542"/>
-      <c r="F40" s="542"/>
-      <c r="G40" s="542"/>
-      <c r="H40" s="542"/>
-      <c r="I40" s="543"/>
-      <c r="J40" s="549" t="e">
+      <c r="E40" s="540"/>
+      <c r="F40" s="540"/>
+      <c r="G40" s="540"/>
+      <c r="H40" s="540"/>
+      <c r="I40" s="541"/>
+      <c r="J40" s="542" t="e">
         <f>'Bảng lương'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="550"/>
+      <c r="K40" s="543"/>
       <c r="L40" s="241"/>
     </row>
     <row r="41" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="262"/>
       <c r="B41" s="262"/>
       <c r="C41" s="262"/>
-      <c r="D41" s="541" t="s">
+      <c r="D41" s="539" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="542"/>
-      <c r="F41" s="542"/>
-      <c r="G41" s="542"/>
-      <c r="H41" s="542"/>
-      <c r="I41" s="543"/>
-      <c r="J41" s="549">
+      <c r="E41" s="540"/>
+      <c r="F41" s="540"/>
+      <c r="G41" s="540"/>
+      <c r="H41" s="540"/>
+      <c r="I41" s="541"/>
+      <c r="J41" s="542">
         <f>'Chi phí văn phòng'!D9</f>
         <v>0</v>
       </c>
-      <c r="K41" s="550"/>
+      <c r="K41" s="543"/>
       <c r="L41" s="241"/>
     </row>
     <row r="42" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="262"/>
       <c r="B42" s="262"/>
       <c r="C42" s="262"/>
-      <c r="D42" s="541" t="s">
+      <c r="D42" s="539" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="542"/>
-      <c r="F42" s="542"/>
-      <c r="G42" s="542"/>
-      <c r="H42" s="542"/>
-      <c r="I42" s="543"/>
-      <c r="J42" s="549">
+      <c r="E42" s="540"/>
+      <c r="F42" s="540"/>
+      <c r="G42" s="540"/>
+      <c r="H42" s="540"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542">
         <f>'Chi phí văn phòng'!D21</f>
         <v>0</v>
       </c>
-      <c r="K42" s="550"/>
+      <c r="K42" s="543"/>
       <c r="L42" s="241"/>
     </row>
     <row r="43" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="262"/>
       <c r="B43" s="262"/>
       <c r="C43" s="262"/>
-      <c r="D43" s="544" t="s">
+      <c r="D43" s="551" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="545"/>
-      <c r="F43" s="545"/>
-      <c r="G43" s="545"/>
-      <c r="H43" s="545"/>
-      <c r="I43" s="546"/>
-      <c r="J43" s="551" t="e">
+      <c r="E43" s="552"/>
+      <c r="F43" s="552"/>
+      <c r="G43" s="552"/>
+      <c r="H43" s="552"/>
+      <c r="I43" s="553"/>
+      <c r="J43" s="554" t="e">
         <f>SUM(J40:K42)</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="552"/>
+      <c r="K43" s="555"/>
       <c r="L43" s="241"/>
     </row>
     <row r="44" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="229"/>
       <c r="B44" s="229"/>
       <c r="C44" s="229"/>
-      <c r="D44" s="547" t="s">
+      <c r="D44" s="581" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="547"/>
-      <c r="F44" s="547"/>
-      <c r="G44" s="547"/>
-      <c r="H44" s="547"/>
-      <c r="I44" s="547"/>
-      <c r="J44" s="548" t="e">
+      <c r="E44" s="581"/>
+      <c r="F44" s="581"/>
+      <c r="G44" s="581"/>
+      <c r="H44" s="581"/>
+      <c r="I44" s="581"/>
+      <c r="J44" s="582" t="e">
         <f>J39-J43</f>
         <v>#REF!</v>
       </c>
-      <c r="K44" s="548"/>
+      <c r="K44" s="582"/>
     </row>
     <row r="45" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="262"/>
@@ -10583,14 +11119,14 @@
       <c r="E45" s="244"/>
       <c r="F45" s="244"/>
       <c r="G45" s="244"/>
-      <c r="H45" s="537" t="s">
+      <c r="H45" s="577" t="s">
         <v>178</v>
       </c>
-      <c r="I45" s="537"/>
-      <c r="J45" s="538">
+      <c r="I45" s="577"/>
+      <c r="J45" s="578">
         <v>2500000</v>
       </c>
-      <c r="K45" s="538"/>
+      <c r="K45" s="578"/>
     </row>
     <row r="46" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="258"/>
@@ -10600,49 +11136,95 @@
       <c r="E46" s="244"/>
       <c r="F46" s="244"/>
       <c r="G46" s="244"/>
-      <c r="H46" s="540" t="s">
+      <c r="H46" s="580" t="s">
         <v>179</v>
       </c>
-      <c r="I46" s="540"/>
-      <c r="J46" s="539" t="e">
+      <c r="I46" s="580"/>
+      <c r="J46" s="579" t="e">
         <f>J44+J45</f>
         <v>#REF!</v>
       </c>
-      <c r="K46" s="539"/>
+      <c r="K46" s="579"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="554" t="s">
+      <c r="B47" s="546" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="554"/>
-      <c r="D47" s="554"/>
+      <c r="C47" s="546"/>
+      <c r="D47" s="546"/>
       <c r="E47" s="82"/>
       <c r="F47" s="82"/>
       <c r="G47" s="82"/>
       <c r="H47" s="82"/>
-      <c r="I47" s="554" t="s">
+      <c r="I47" s="546" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="554"/>
+      <c r="J47" s="546"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A32:C32"/>
@@ -10659,67 +11241,21 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10743,13 +11279,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="553" t="s">
+      <c r="B1" s="576" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
-      <c r="F1" s="553"/>
+      <c r="C1" s="576"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
+      <c r="F1" s="576"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
@@ -10769,11 +11305,11 @@
       <c r="J2" s="63"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="586" t="s">
+      <c r="B4" s="588" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="586"/>
-      <c r="D4" s="586"/>
+      <c r="C4" s="588"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="147"/>
       <c r="F4" s="147"/>
     </row>
@@ -10787,11 +11323,11 @@
       <c r="F5" s="245"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="585" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="585"/>
+      <c r="C6" s="586"/>
+      <c r="D6" s="587"/>
       <c r="E6" s="245"/>
       <c r="F6" s="245"/>
     </row>
@@ -10799,8 +11335,8 @@
       <c r="B7" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="587"/>
-      <c r="D7" s="588"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="590"/>
       <c r="E7" s="245"/>
       <c r="F7" s="245"/>
     </row>
@@ -10891,11 +11427,11 @@
       <c r="F17" s="245"/>
     </row>
     <row r="18" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="583" t="s">
+      <c r="B18" s="585" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="584"/>
-      <c r="D18" s="585"/>
+      <c r="C18" s="586"/>
+      <c r="D18" s="587"/>
       <c r="E18" s="245"/>
       <c r="F18" s="245"/>
     </row>
@@ -10903,11 +11439,11 @@
       <c r="B19" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="587">
+      <c r="C19" s="589">
         <f>D23+D24+D25+D26+D27+D28</f>
         <v>0</v>
       </c>
-      <c r="D19" s="588"/>
+      <c r="D19" s="590"/>
       <c r="E19" s="245"/>
       <c r="F19" s="245"/>
     </row>
@@ -11002,10 +11538,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="259"/>
-      <c r="B32" s="582" t="s">
+      <c r="B32" s="584" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="582"/>
+      <c r="C32" s="584"/>
       <c r="D32" s="260">
         <f>C7+C19</f>
         <v>0</v>
@@ -11013,7 +11549,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="259"/>
-      <c r="B33" s="581" t="s">
+      <c r="B33" s="583" t="s">
         <v>173</v>
       </c>
       <c r="C33" s="261" t="s">
@@ -11026,7 +11562,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="259"/>
-      <c r="B34" s="581"/>
+      <c r="B34" s="583"/>
       <c r="C34" s="261" t="s">
         <v>135</v>
       </c>
@@ -11062,13 +11598,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="553" t="s">
+      <c r="A1" s="576" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="553"/>
-      <c r="C1" s="553"/>
-      <c r="D1" s="553"/>
-      <c r="E1" s="553"/>
+      <c r="B1" s="576"/>
+      <c r="C1" s="576"/>
+      <c r="D1" s="576"/>
+      <c r="E1" s="576"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -11088,81 +11624,81 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="591" t="s">
+      <c r="A4" s="593" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="591"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="591"/>
-      <c r="E4" s="591"/>
-      <c r="F4" s="591"/>
-      <c r="G4" s="591"/>
-      <c r="H4" s="591"/>
+      <c r="B4" s="593"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="593"/>
+      <c r="E4" s="593"/>
+      <c r="F4" s="593"/>
+      <c r="G4" s="593"/>
+      <c r="H4" s="593"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="592" t="s">
+      <c r="A6" s="594" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="592"/>
-      <c r="C6" s="592"/>
-      <c r="D6" s="592"/>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="593" t="s">
+      <c r="B6" s="594"/>
+      <c r="C6" s="594"/>
+      <c r="D6" s="594"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="595" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="593"/>
+      <c r="H6" s="595"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="589" t="s">
+      <c r="A7" s="591" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="589"/>
-      <c r="C7" s="589"/>
-      <c r="D7" s="589"/>
-      <c r="E7" s="589"/>
-      <c r="F7" s="589"/>
-      <c r="G7" s="590"/>
-      <c r="H7" s="590"/>
+      <c r="B7" s="591"/>
+      <c r="C7" s="591"/>
+      <c r="D7" s="591"/>
+      <c r="E7" s="591"/>
+      <c r="F7" s="591"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="592"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="589" t="s">
+      <c r="A8" s="591" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="589"/>
-      <c r="C8" s="589"/>
-      <c r="D8" s="589"/>
-      <c r="E8" s="589"/>
-      <c r="F8" s="589"/>
-      <c r="G8" s="590"/>
-      <c r="H8" s="590"/>
+      <c r="B8" s="591"/>
+      <c r="C8" s="591"/>
+      <c r="D8" s="591"/>
+      <c r="E8" s="591"/>
+      <c r="F8" s="591"/>
+      <c r="G8" s="592"/>
+      <c r="H8" s="592"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="541" t="s">
+      <c r="A9" s="539" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="542"/>
-      <c r="C9" s="542"/>
-      <c r="D9" s="542"/>
-      <c r="E9" s="542"/>
-      <c r="F9" s="543"/>
-      <c r="G9" s="549"/>
-      <c r="H9" s="550"/>
+      <c r="B9" s="540"/>
+      <c r="C9" s="540"/>
+      <c r="D9" s="540"/>
+      <c r="E9" s="540"/>
+      <c r="F9" s="541"/>
+      <c r="G9" s="542"/>
+      <c r="H9" s="543"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="547" t="s">
+      <c r="A10" s="581" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="547"/>
-      <c r="C10" s="547"/>
-      <c r="D10" s="547"/>
-      <c r="E10" s="547"/>
-      <c r="F10" s="547"/>
-      <c r="G10" s="548">
+      <c r="B10" s="581"/>
+      <c r="C10" s="581"/>
+      <c r="D10" s="581"/>
+      <c r="E10" s="581"/>
+      <c r="F10" s="581"/>
+      <c r="G10" s="582">
         <f>SUM(G7:H9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="548"/>
+      <c r="H10" s="582"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11718,16 +12254,16 @@
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
-      <c r="Z1" s="612" t="s">
+      <c r="Z1" s="601" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="613"/>
-      <c r="AB1" s="613"/>
-      <c r="AC1" s="613"/>
-      <c r="AD1" s="613"/>
-      <c r="AE1" s="613"/>
-      <c r="AF1" s="613"/>
-      <c r="AG1" s="614"/>
+      <c r="AA1" s="602"/>
+      <c r="AB1" s="602"/>
+      <c r="AC1" s="602"/>
+      <c r="AD1" s="602"/>
+      <c r="AE1" s="602"/>
+      <c r="AF1" s="602"/>
+      <c r="AG1" s="603"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
@@ -11737,18 +12273,18 @@
       <c r="C2" s="99"/>
       <c r="D2" s="99"/>
       <c r="E2" s="99"/>
-      <c r="Z2" s="595" t="s">
+      <c r="Z2" s="596" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="596"/>
-      <c r="AB2" s="596"/>
-      <c r="AC2" s="596"/>
-      <c r="AD2" s="596"/>
-      <c r="AE2" s="597"/>
-      <c r="AF2" s="598" t="s">
+      <c r="AA2" s="597"/>
+      <c r="AB2" s="597"/>
+      <c r="AC2" s="597"/>
+      <c r="AD2" s="597"/>
+      <c r="AE2" s="598"/>
+      <c r="AF2" s="599" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="599"/>
+      <c r="AG2" s="600"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
@@ -11758,18 +12294,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="595" t="s">
+      <c r="Z3" s="596" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="596"/>
-      <c r="AB3" s="596"/>
-      <c r="AC3" s="596"/>
-      <c r="AD3" s="596"/>
-      <c r="AE3" s="597"/>
-      <c r="AF3" s="598" t="s">
+      <c r="AA3" s="597"/>
+      <c r="AB3" s="597"/>
+      <c r="AC3" s="597"/>
+      <c r="AD3" s="597"/>
+      <c r="AE3" s="598"/>
+      <c r="AF3" s="599" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="599"/>
+      <c r="AG3" s="600"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
@@ -11782,18 +12318,18 @@
       <c r="T4" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="595" t="s">
+      <c r="Z4" s="596" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="596"/>
-      <c r="AB4" s="596"/>
-      <c r="AC4" s="596"/>
-      <c r="AD4" s="596"/>
-      <c r="AE4" s="597"/>
-      <c r="AF4" s="598" t="s">
+      <c r="AA4" s="597"/>
+      <c r="AB4" s="597"/>
+      <c r="AC4" s="597"/>
+      <c r="AD4" s="597"/>
+      <c r="AE4" s="598"/>
+      <c r="AF4" s="599" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="599"/>
+      <c r="AG4" s="600"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
@@ -11803,18 +12339,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="595" t="s">
+      <c r="Z5" s="596" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="596"/>
-      <c r="AB5" s="596"/>
-      <c r="AC5" s="596"/>
-      <c r="AD5" s="596"/>
-      <c r="AE5" s="597"/>
-      <c r="AF5" s="598" t="s">
+      <c r="AA5" s="597"/>
+      <c r="AB5" s="597"/>
+      <c r="AC5" s="597"/>
+      <c r="AD5" s="597"/>
+      <c r="AE5" s="598"/>
+      <c r="AF5" s="599" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="599"/>
+      <c r="AG5" s="600"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
@@ -11824,93 +12360,93 @@
       <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:40" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="600" t="s">
+      <c r="A7" s="605" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="600"/>
-      <c r="C7" s="600"/>
-      <c r="D7" s="600"/>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="600"/>
-      <c r="J7" s="600"/>
-      <c r="K7" s="600"/>
-      <c r="L7" s="600"/>
-      <c r="M7" s="600"/>
-      <c r="N7" s="600"/>
-      <c r="O7" s="600"/>
-      <c r="P7" s="600"/>
-      <c r="Q7" s="600"/>
-      <c r="R7" s="600"/>
-      <c r="S7" s="600"/>
-      <c r="T7" s="600"/>
-      <c r="U7" s="600"/>
-      <c r="V7" s="600"/>
-      <c r="W7" s="600"/>
-      <c r="X7" s="600"/>
-      <c r="Y7" s="600"/>
-      <c r="Z7" s="600"/>
-      <c r="AA7" s="600"/>
-      <c r="AB7" s="600"/>
-      <c r="AC7" s="600"/>
-      <c r="AD7" s="600"/>
-      <c r="AE7" s="600"/>
-      <c r="AF7" s="600"/>
-      <c r="AG7" s="600"/>
-      <c r="AH7" s="600"/>
-      <c r="AI7" s="600"/>
-      <c r="AJ7" s="600"/>
-      <c r="AK7" s="600"/>
-      <c r="AL7" s="600"/>
-      <c r="AM7" s="600"/>
+      <c r="B7" s="605"/>
+      <c r="C7" s="605"/>
+      <c r="D7" s="605"/>
+      <c r="E7" s="605"/>
+      <c r="F7" s="605"/>
+      <c r="G7" s="605"/>
+      <c r="H7" s="605"/>
+      <c r="I7" s="605"/>
+      <c r="J7" s="605"/>
+      <c r="K7" s="605"/>
+      <c r="L7" s="605"/>
+      <c r="M7" s="605"/>
+      <c r="N7" s="605"/>
+      <c r="O7" s="605"/>
+      <c r="P7" s="605"/>
+      <c r="Q7" s="605"/>
+      <c r="R7" s="605"/>
+      <c r="S7" s="605"/>
+      <c r="T7" s="605"/>
+      <c r="U7" s="605"/>
+      <c r="V7" s="605"/>
+      <c r="W7" s="605"/>
+      <c r="X7" s="605"/>
+      <c r="Y7" s="605"/>
+      <c r="Z7" s="605"/>
+      <c r="AA7" s="605"/>
+      <c r="AB7" s="605"/>
+      <c r="AC7" s="605"/>
+      <c r="AD7" s="605"/>
+      <c r="AE7" s="605"/>
+      <c r="AF7" s="605"/>
+      <c r="AG7" s="605"/>
+      <c r="AH7" s="605"/>
+      <c r="AI7" s="605"/>
+      <c r="AJ7" s="605"/>
+      <c r="AK7" s="605"/>
+      <c r="AL7" s="605"/>
+      <c r="AM7" s="605"/>
       <c r="AN7" s="102"/>
     </row>
     <row r="9" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="601" t="s">
+      <c r="A9" s="606" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="601" t="s">
+      <c r="B9" s="606" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="601" t="s">
+      <c r="C9" s="606" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="604" t="s">
+      <c r="D9" s="609" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="605"/>
-      <c r="F9" s="605"/>
-      <c r="G9" s="605"/>
-      <c r="H9" s="605"/>
-      <c r="I9" s="605"/>
-      <c r="J9" s="605"/>
-      <c r="K9" s="605"/>
-      <c r="L9" s="605"/>
-      <c r="M9" s="605"/>
-      <c r="N9" s="605"/>
-      <c r="O9" s="605"/>
-      <c r="P9" s="605"/>
-      <c r="Q9" s="605"/>
-      <c r="R9" s="605"/>
-      <c r="S9" s="605"/>
-      <c r="T9" s="605"/>
-      <c r="U9" s="605"/>
-      <c r="V9" s="605"/>
-      <c r="W9" s="605"/>
-      <c r="X9" s="605"/>
-      <c r="Y9" s="605"/>
-      <c r="Z9" s="605"/>
-      <c r="AA9" s="605"/>
-      <c r="AB9" s="605"/>
-      <c r="AC9" s="605"/>
-      <c r="AD9" s="605"/>
-      <c r="AE9" s="605"/>
-      <c r="AF9" s="605"/>
-      <c r="AG9" s="605"/>
-      <c r="AH9" s="606"/>
-      <c r="AI9" s="607" t="s">
+      <c r="E9" s="610"/>
+      <c r="F9" s="610"/>
+      <c r="G9" s="610"/>
+      <c r="H9" s="610"/>
+      <c r="I9" s="610"/>
+      <c r="J9" s="610"/>
+      <c r="K9" s="610"/>
+      <c r="L9" s="610"/>
+      <c r="M9" s="610"/>
+      <c r="N9" s="610"/>
+      <c r="O9" s="610"/>
+      <c r="P9" s="610"/>
+      <c r="Q9" s="610"/>
+      <c r="R9" s="610"/>
+      <c r="S9" s="610"/>
+      <c r="T9" s="610"/>
+      <c r="U9" s="610"/>
+      <c r="V9" s="610"/>
+      <c r="W9" s="610"/>
+      <c r="X9" s="610"/>
+      <c r="Y9" s="610"/>
+      <c r="Z9" s="610"/>
+      <c r="AA9" s="610"/>
+      <c r="AB9" s="610"/>
+      <c r="AC9" s="610"/>
+      <c r="AD9" s="610"/>
+      <c r="AE9" s="610"/>
+      <c r="AF9" s="610"/>
+      <c r="AG9" s="610"/>
+      <c r="AH9" s="611"/>
+      <c r="AI9" s="612" t="s">
         <v>99</v>
       </c>
       <c r="AJ9" s="104"/>
@@ -11920,9 +12456,9 @@
       <c r="AN9" s="107"/>
     </row>
     <row r="10" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="602"/>
-      <c r="B10" s="602"/>
-      <c r="C10" s="602"/>
+      <c r="A10" s="607"/>
+      <c r="B10" s="607"/>
+      <c r="C10" s="607"/>
       <c r="D10" s="109">
         <v>1</v>
       </c>
@@ -12016,7 +12552,7 @@
       <c r="AH10" s="109">
         <v>31</v>
       </c>
-      <c r="AI10" s="607"/>
+      <c r="AI10" s="612"/>
       <c r="AJ10" s="110"/>
       <c r="AK10" s="106"/>
       <c r="AL10" s="106"/>
@@ -12024,9 +12560,9 @@
       <c r="AN10" s="107"/>
     </row>
     <row r="11" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="603"/>
-      <c r="B11" s="603"/>
-      <c r="C11" s="603"/>
+      <c r="A11" s="608"/>
+      <c r="B11" s="608"/>
+      <c r="C11" s="608"/>
       <c r="D11" s="109" t="s">
         <v>105</v>
       </c>
@@ -12120,7 +12656,7 @@
       <c r="AH11" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="AI11" s="607"/>
+      <c r="AI11" s="612"/>
       <c r="AJ11" s="113"/>
       <c r="AN11" s="115"/>
     </row>
@@ -12441,10 +12977,10 @@
       <c r="AN14" s="115"/>
     </row>
     <row r="15" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="608" t="s">
+      <c r="A15" s="613" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="609"/>
+      <c r="B15" s="614"/>
       <c r="C15" s="117"/>
       <c r="D15" s="117"/>
       <c r="E15" s="118"/>
@@ -12487,49 +13023,49 @@
       <c r="AN15" s="115"/>
     </row>
     <row r="17" spans="1:40" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="610" t="s">
+      <c r="A17" s="615" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="610"/>
-      <c r="C17" s="610"/>
-      <c r="D17" s="610"/>
-      <c r="E17" s="610"/>
-      <c r="F17" s="610"/>
-      <c r="G17" s="610"/>
+      <c r="B17" s="615"/>
+      <c r="C17" s="615"/>
+      <c r="D17" s="615"/>
+      <c r="E17" s="615"/>
+      <c r="F17" s="615"/>
+      <c r="G17" s="615"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="611"/>
-      <c r="J17" s="611"/>
-      <c r="K17" s="611"/>
-      <c r="L17" s="611"/>
-      <c r="M17" s="611"/>
+      <c r="I17" s="616"/>
+      <c r="J17" s="616"/>
+      <c r="K17" s="616"/>
+      <c r="L17" s="616"/>
+      <c r="M17" s="616"/>
       <c r="N17" s="123"/>
-      <c r="O17" s="611" t="s">
+      <c r="O17" s="616" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="611"/>
-      <c r="Q17" s="611"/>
-      <c r="R17" s="611"/>
-      <c r="S17" s="611"/>
-      <c r="T17" s="611"/>
-      <c r="U17" s="611"/>
-      <c r="V17" s="611"/>
-      <c r="W17" s="611"/>
-      <c r="X17" s="611"/>
-      <c r="Y17" s="611"/>
+      <c r="P17" s="616"/>
+      <c r="Q17" s="616"/>
+      <c r="R17" s="616"/>
+      <c r="S17" s="616"/>
+      <c r="T17" s="616"/>
+      <c r="U17" s="616"/>
+      <c r="V17" s="616"/>
+      <c r="W17" s="616"/>
+      <c r="X17" s="616"/>
+      <c r="Y17" s="616"/>
       <c r="Z17" s="124"/>
       <c r="AA17" s="124"/>
       <c r="AB17" s="125"/>
-      <c r="AC17" s="611"/>
-      <c r="AD17" s="611"/>
-      <c r="AE17" s="611"/>
-      <c r="AF17" s="611"/>
-      <c r="AG17" s="611"/>
-      <c r="AH17" s="611"/>
-      <c r="AI17" s="611"/>
-      <c r="AJ17" s="611"/>
-      <c r="AK17" s="611"/>
-      <c r="AL17" s="611"/>
-      <c r="AM17" s="611"/>
+      <c r="AC17" s="616"/>
+      <c r="AD17" s="616"/>
+      <c r="AE17" s="616"/>
+      <c r="AF17" s="616"/>
+      <c r="AG17" s="616"/>
+      <c r="AH17" s="616"/>
+      <c r="AI17" s="616"/>
+      <c r="AJ17" s="616"/>
+      <c r="AK17" s="616"/>
+      <c r="AL17" s="616"/>
+      <c r="AM17" s="616"/>
       <c r="AN17" s="126"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12563,131 +13099,131 @@
       <c r="AN32" s="131"/>
     </row>
     <row r="33" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="594"/>
-      <c r="H33" s="594"/>
-      <c r="I33" s="594"/>
-      <c r="J33" s="594"/>
-      <c r="K33" s="594"/>
-      <c r="L33" s="594"/>
-      <c r="M33" s="594"/>
-      <c r="N33" s="594"/>
-      <c r="O33" s="594"/>
-      <c r="P33" s="594"/>
-      <c r="Q33" s="594"/>
-      <c r="R33" s="594"/>
-      <c r="S33" s="594"/>
-      <c r="T33" s="594"/>
-      <c r="U33" s="594"/>
-      <c r="V33" s="594"/>
-      <c r="W33" s="594"/>
-      <c r="X33" s="594"/>
+      <c r="G33" s="604"/>
+      <c r="H33" s="604"/>
+      <c r="I33" s="604"/>
+      <c r="J33" s="604"/>
+      <c r="K33" s="604"/>
+      <c r="L33" s="604"/>
+      <c r="M33" s="604"/>
+      <c r="N33" s="604"/>
+      <c r="O33" s="604"/>
+      <c r="P33" s="604"/>
+      <c r="Q33" s="604"/>
+      <c r="R33" s="604"/>
+      <c r="S33" s="604"/>
+      <c r="T33" s="604"/>
+      <c r="U33" s="604"/>
+      <c r="V33" s="604"/>
+      <c r="W33" s="604"/>
+      <c r="X33" s="604"/>
       <c r="AN33" s="131"/>
     </row>
     <row r="34" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="594"/>
-      <c r="H34" s="594"/>
-      <c r="I34" s="594"/>
-      <c r="J34" s="594"/>
-      <c r="K34" s="594"/>
-      <c r="L34" s="594"/>
-      <c r="M34" s="594"/>
-      <c r="N34" s="594"/>
-      <c r="O34" s="594"/>
-      <c r="P34" s="594"/>
-      <c r="Q34" s="594"/>
-      <c r="R34" s="594"/>
-      <c r="S34" s="594"/>
-      <c r="T34" s="594"/>
-      <c r="U34" s="594"/>
-      <c r="V34" s="594"/>
-      <c r="W34" s="594"/>
-      <c r="X34" s="594"/>
+      <c r="G34" s="604"/>
+      <c r="H34" s="604"/>
+      <c r="I34" s="604"/>
+      <c r="J34" s="604"/>
+      <c r="K34" s="604"/>
+      <c r="L34" s="604"/>
+      <c r="M34" s="604"/>
+      <c r="N34" s="604"/>
+      <c r="O34" s="604"/>
+      <c r="P34" s="604"/>
+      <c r="Q34" s="604"/>
+      <c r="R34" s="604"/>
+      <c r="S34" s="604"/>
+      <c r="T34" s="604"/>
+      <c r="U34" s="604"/>
+      <c r="V34" s="604"/>
+      <c r="W34" s="604"/>
+      <c r="X34" s="604"/>
       <c r="AN34" s="131"/>
     </row>
     <row r="35" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="594"/>
-      <c r="H35" s="594"/>
-      <c r="I35" s="594"/>
-      <c r="J35" s="594"/>
-      <c r="K35" s="594"/>
-      <c r="L35" s="594"/>
-      <c r="M35" s="594"/>
-      <c r="N35" s="594"/>
-      <c r="O35" s="594"/>
-      <c r="P35" s="594"/>
-      <c r="Q35" s="594"/>
-      <c r="R35" s="594"/>
-      <c r="S35" s="594"/>
-      <c r="T35" s="594"/>
-      <c r="U35" s="594"/>
-      <c r="V35" s="594"/>
-      <c r="W35" s="594"/>
-      <c r="X35" s="594"/>
+      <c r="G35" s="604"/>
+      <c r="H35" s="604"/>
+      <c r="I35" s="604"/>
+      <c r="J35" s="604"/>
+      <c r="K35" s="604"/>
+      <c r="L35" s="604"/>
+      <c r="M35" s="604"/>
+      <c r="N35" s="604"/>
+      <c r="O35" s="604"/>
+      <c r="P35" s="604"/>
+      <c r="Q35" s="604"/>
+      <c r="R35" s="604"/>
+      <c r="S35" s="604"/>
+      <c r="T35" s="604"/>
+      <c r="U35" s="604"/>
+      <c r="V35" s="604"/>
+      <c r="W35" s="604"/>
+      <c r="X35" s="604"/>
       <c r="AN35" s="131"/>
     </row>
     <row r="36" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="594"/>
-      <c r="H36" s="594"/>
-      <c r="I36" s="594"/>
-      <c r="J36" s="594"/>
-      <c r="K36" s="594"/>
-      <c r="L36" s="594"/>
-      <c r="M36" s="594"/>
-      <c r="N36" s="594"/>
-      <c r="O36" s="594"/>
-      <c r="P36" s="594"/>
-      <c r="Q36" s="594"/>
-      <c r="R36" s="594"/>
-      <c r="S36" s="594"/>
-      <c r="T36" s="594"/>
-      <c r="U36" s="594"/>
-      <c r="V36" s="594"/>
-      <c r="W36" s="594"/>
-      <c r="X36" s="594"/>
+      <c r="G36" s="604"/>
+      <c r="H36" s="604"/>
+      <c r="I36" s="604"/>
+      <c r="J36" s="604"/>
+      <c r="K36" s="604"/>
+      <c r="L36" s="604"/>
+      <c r="M36" s="604"/>
+      <c r="N36" s="604"/>
+      <c r="O36" s="604"/>
+      <c r="P36" s="604"/>
+      <c r="Q36" s="604"/>
+      <c r="R36" s="604"/>
+      <c r="S36" s="604"/>
+      <c r="T36" s="604"/>
+      <c r="U36" s="604"/>
+      <c r="V36" s="604"/>
+      <c r="W36" s="604"/>
+      <c r="X36" s="604"/>
       <c r="AN36" s="131"/>
     </row>
     <row r="37" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="594"/>
-      <c r="H37" s="594"/>
-      <c r="I37" s="594"/>
-      <c r="J37" s="594"/>
-      <c r="K37" s="594"/>
-      <c r="L37" s="594"/>
-      <c r="M37" s="594"/>
-      <c r="N37" s="594"/>
-      <c r="O37" s="594"/>
-      <c r="P37" s="594"/>
-      <c r="Q37" s="594"/>
-      <c r="R37" s="594"/>
-      <c r="S37" s="594"/>
-      <c r="T37" s="594"/>
-      <c r="U37" s="594"/>
-      <c r="V37" s="594"/>
-      <c r="W37" s="594"/>
-      <c r="X37" s="594"/>
+      <c r="G37" s="604"/>
+      <c r="H37" s="604"/>
+      <c r="I37" s="604"/>
+      <c r="J37" s="604"/>
+      <c r="K37" s="604"/>
+      <c r="L37" s="604"/>
+      <c r="M37" s="604"/>
+      <c r="N37" s="604"/>
+      <c r="O37" s="604"/>
+      <c r="P37" s="604"/>
+      <c r="Q37" s="604"/>
+      <c r="R37" s="604"/>
+      <c r="S37" s="604"/>
+      <c r="T37" s="604"/>
+      <c r="U37" s="604"/>
+      <c r="V37" s="604"/>
+      <c r="W37" s="604"/>
+      <c r="X37" s="604"/>
       <c r="AN37" s="131"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
-      <c r="G38" s="594"/>
-      <c r="H38" s="594"/>
-      <c r="I38" s="594"/>
-      <c r="J38" s="594"/>
-      <c r="K38" s="594"/>
-      <c r="L38" s="594"/>
-      <c r="M38" s="594"/>
-      <c r="N38" s="594"/>
-      <c r="O38" s="594"/>
-      <c r="P38" s="594"/>
-      <c r="Q38" s="594"/>
-      <c r="R38" s="594"/>
-      <c r="S38" s="594"/>
-      <c r="T38" s="594"/>
-      <c r="U38" s="594"/>
-      <c r="V38" s="594"/>
-      <c r="W38" s="594"/>
-      <c r="X38" s="594"/>
+      <c r="G38" s="604"/>
+      <c r="H38" s="604"/>
+      <c r="I38" s="604"/>
+      <c r="J38" s="604"/>
+      <c r="K38" s="604"/>
+      <c r="L38" s="604"/>
+      <c r="M38" s="604"/>
+      <c r="N38" s="604"/>
+      <c r="O38" s="604"/>
+      <c r="P38" s="604"/>
+      <c r="Q38" s="604"/>
+      <c r="R38" s="604"/>
+      <c r="S38" s="604"/>
+      <c r="T38" s="604"/>
+      <c r="U38" s="604"/>
+      <c r="V38" s="604"/>
+      <c r="W38" s="604"/>
+      <c r="X38" s="604"/>
       <c r="AN38" s="96"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12697,13 +13233,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12718,6 +13247,13 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -13577,40 +14113,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="622" t="s">
+      <c r="A1" s="617" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="622"/>
-      <c r="C1" s="622"/>
-      <c r="D1" s="622"/>
+      <c r="B1" s="617"/>
+      <c r="C1" s="617"/>
+      <c r="D1" s="617"/>
       <c r="E1" s="161"/>
-      <c r="F1" s="623" t="s">
+      <c r="F1" s="618" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="623"/>
-      <c r="H1" s="623"/>
-      <c r="I1" s="623"/>
-      <c r="J1" s="623"/>
-      <c r="K1" s="623"/>
-      <c r="L1" s="623"/>
+      <c r="G1" s="618"/>
+      <c r="H1" s="618"/>
+      <c r="I1" s="618"/>
+      <c r="J1" s="618"/>
+      <c r="K1" s="618"/>
+      <c r="L1" s="618"/>
     </row>
     <row r="2" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="624" t="s">
+      <c r="A2" s="619" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="624"/>
-      <c r="C2" s="624"/>
-      <c r="D2" s="624"/>
+      <c r="B2" s="619"/>
+      <c r="C2" s="619"/>
+      <c r="D2" s="619"/>
       <c r="E2" s="161"/>
-      <c r="F2" s="625" t="s">
+      <c r="F2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="625"/>
-      <c r="H2" s="625"/>
-      <c r="I2" s="625"/>
-      <c r="J2" s="625"/>
-      <c r="K2" s="625"/>
-      <c r="L2" s="625"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="620"/>
+      <c r="J2" s="620"/>
+      <c r="K2" s="620"/>
+      <c r="L2" s="620"/>
     </row>
     <row r="3" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="163"/>
@@ -13624,45 +14160,45 @@
       <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="615" t="s">
+      <c r="A4" s="621" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="615"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="615"/>
-      <c r="E4" s="615"/>
-      <c r="F4" s="615"/>
-      <c r="G4" s="615"/>
-      <c r="H4" s="615"/>
-      <c r="I4" s="615"/>
-      <c r="J4" s="615"/>
-      <c r="K4" s="615"/>
-      <c r="L4" s="615"/>
-      <c r="M4" s="615"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="621"/>
+      <c r="D4" s="621"/>
+      <c r="E4" s="621"/>
+      <c r="F4" s="621"/>
+      <c r="G4" s="621"/>
+      <c r="H4" s="621"/>
+      <c r="I4" s="621"/>
+      <c r="J4" s="621"/>
+      <c r="K4" s="621"/>
+      <c r="L4" s="621"/>
+      <c r="M4" s="621"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="615" t="s">
+      <c r="A5" s="621" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="615"/>
-      <c r="C5" s="615"/>
-      <c r="D5" s="615"/>
-      <c r="E5" s="615"/>
-      <c r="F5" s="615"/>
-      <c r="G5" s="615"/>
-      <c r="H5" s="615"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="615"/>
-      <c r="M5" s="615"/>
+      <c r="B5" s="621"/>
+      <c r="C5" s="621"/>
+      <c r="D5" s="621"/>
+      <c r="E5" s="621"/>
+      <c r="F5" s="621"/>
+      <c r="G5" s="621"/>
+      <c r="H5" s="621"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="621"/>
+      <c r="K5" s="621"/>
+      <c r="L5" s="621"/>
+      <c r="M5" s="621"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="616" t="s">
+      <c r="K6" s="622" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="616"/>
-      <c r="M6" s="616"/>
+      <c r="L6" s="622"/>
+      <c r="M6" s="622"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -13733,10 +14269,10 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="617" t="s">
+      <c r="A9" s="623" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="618"/>
+      <c r="B9" s="624"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="49"/>
@@ -13855,11 +14391,11 @@
       <c r="P12" s="91"/>
     </row>
     <row r="13" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="619" t="s">
+      <c r="A13" s="625" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="620"/>
-      <c r="C13" s="621"/>
+      <c r="B13" s="626"/>
+      <c r="C13" s="627"/>
       <c r="D13" s="143">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13884,14 +14420,14 @@
       <c r="M13" s="167"/>
     </row>
     <row r="15" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="615"/>
-      <c r="C15" s="615"/>
-      <c r="D15" s="615"/>
+      <c r="B15" s="621"/>
+      <c r="C15" s="621"/>
+      <c r="D15" s="621"/>
       <c r="E15" s="144"/>
-      <c r="I15" s="615"/>
-      <c r="J15" s="615"/>
-      <c r="K15" s="615"/>
-      <c r="L15" s="615"/>
+      <c r="I15" s="621"/>
+      <c r="J15" s="621"/>
+      <c r="K15" s="621"/>
+      <c r="L15" s="621"/>
     </row>
     <row r="16" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="168" t="s">
@@ -13937,17 +14473,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="284">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -864,6 +864,21 @@
   </si>
   <si>
     <t>Nước</t>
+  </si>
+  <si>
+    <t>thanh toán tiền nhà 10tr</t>
+  </si>
+  <si>
+    <t>tâm thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>hằng thanh toán tiền hàng</t>
+  </si>
+  <si>
+    <t>anh sơn ứng 3tr</t>
+  </si>
+  <si>
+    <t>3s thanh toán 5 tr</t>
   </si>
 </sst>
 </file>
@@ -2713,531 +2728,12 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3250,15 +2746,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="20" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3267,9 +2754,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3292,6 +2776,537 @@
     <xf numFmtId="168" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3604,9 +3619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,16 +3676,16 @@
       <c r="I3" s="333"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="442" t="s">
+      <c r="A4" s="460" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="442"/>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
+      <c r="D4" s="460"/>
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460"/>
+      <c r="H4" s="460"/>
       <c r="I4" s="333"/>
     </row>
     <row r="5" spans="1:9" s="331" customFormat="1" x14ac:dyDescent="0.25">
@@ -3683,32 +3698,32 @@
       <c r="H5" s="330"/>
     </row>
     <row r="6" spans="1:9" s="331" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="443" t="s">
+      <c r="A6" s="461" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="448" t="s">
+      <c r="B6" s="466" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="443" t="s">
+      <c r="C6" s="461" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="445" t="s">
+      <c r="D6" s="463" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="447" t="s">
+      <c r="E6" s="465" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="447"/>
-      <c r="G6" s="447" t="s">
+      <c r="F6" s="465"/>
+      <c r="G6" s="465" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="447"/>
+      <c r="H6" s="465"/>
     </row>
     <row r="7" spans="1:9" s="331" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="444"/>
-      <c r="B7" s="449"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="446"/>
+      <c r="A7" s="462"/>
+      <c r="B7" s="467"/>
+      <c r="C7" s="462"/>
+      <c r="D7" s="464"/>
       <c r="E7" s="335" t="s">
         <v>79</v>
       </c>
@@ -4327,7 +4342,9 @@
       <c r="A40" s="336"/>
       <c r="B40" s="336"/>
       <c r="C40" s="337"/>
-      <c r="D40" s="338"/>
+      <c r="D40" s="338" t="s">
+        <v>283</v>
+      </c>
       <c r="E40" s="339"/>
       <c r="F40" s="340"/>
       <c r="G40" s="339"/>
@@ -4337,7 +4354,9 @@
       <c r="A41" s="336"/>
       <c r="B41" s="336"/>
       <c r="C41" s="337"/>
-      <c r="D41" s="338"/>
+      <c r="D41" s="338" t="s">
+        <v>279</v>
+      </c>
       <c r="E41" s="339"/>
       <c r="F41" s="340"/>
       <c r="G41" s="339"/>
@@ -4347,7 +4366,9 @@
       <c r="A42" s="336"/>
       <c r="B42" s="336"/>
       <c r="C42" s="337"/>
-      <c r="D42" s="338"/>
+      <c r="D42" s="338" t="s">
+        <v>280</v>
+      </c>
       <c r="E42" s="339"/>
       <c r="F42" s="340"/>
       <c r="G42" s="339"/>
@@ -4357,7 +4378,9 @@
       <c r="A43" s="336"/>
       <c r="B43" s="336"/>
       <c r="C43" s="337"/>
-      <c r="D43" s="338"/>
+      <c r="D43" s="338" t="s">
+        <v>281</v>
+      </c>
       <c r="E43" s="339"/>
       <c r="F43" s="340"/>
       <c r="G43" s="339"/>
@@ -4367,7 +4390,9 @@
       <c r="A44" s="336"/>
       <c r="B44" s="336"/>
       <c r="C44" s="337"/>
-      <c r="D44" s="338"/>
+      <c r="D44" s="338" t="s">
+        <v>282</v>
+      </c>
       <c r="E44" s="339"/>
       <c r="F44" s="340"/>
       <c r="G44" s="339"/>
@@ -5084,12 +5109,12 @@
       <c r="H115" s="342"/>
     </row>
     <row r="116" spans="1:9" s="345" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="439" t="s">
+      <c r="A116" s="457" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="440"/>
-      <c r="C116" s="440"/>
-      <c r="D116" s="441"/>
+      <c r="B116" s="458"/>
+      <c r="C116" s="458"/>
+      <c r="D116" s="459"/>
       <c r="E116" s="344">
         <f>SUM(E8:E115)</f>
         <v>116319400</v>
@@ -5118,11 +5143,11 @@
       <c r="H117" s="348"/>
     </row>
     <row r="118" spans="1:9" s="345" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="438" t="s">
+      <c r="A118" s="456" t="s">
         <v>80</v>
       </c>
-      <c r="B118" s="438"/>
-      <c r="C118" s="438"/>
+      <c r="B118" s="456"/>
+      <c r="C118" s="456"/>
       <c r="D118" s="347"/>
       <c r="E118" s="348"/>
       <c r="F118" s="348"/>
@@ -5243,31 +5268,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="592" t="s">
+      <c r="A1" s="623" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="592"/>
-      <c r="C1" s="592"/>
+      <c r="B1" s="623"/>
+      <c r="C1" s="623"/>
       <c r="I1" s="149"/>
       <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="593" t="s">
+      <c r="A2" s="624" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="593"/>
-      <c r="C2" s="593"/>
+      <c r="B2" s="624"/>
+      <c r="C2" s="624"/>
       <c r="I2" s="149"/>
       <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="552" t="s">
+      <c r="A3" s="580" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="552"/>
-      <c r="C3" s="552"/>
-      <c r="D3" s="552"/>
-      <c r="E3" s="552"/>
+      <c r="B3" s="580"/>
+      <c r="C3" s="580"/>
+      <c r="D3" s="580"/>
+      <c r="E3" s="580"/>
       <c r="F3" s="147"/>
       <c r="G3" s="147"/>
       <c r="H3" s="147"/>
@@ -5295,24 +5320,24 @@
       <c r="N4" s="147"/>
     </row>
     <row r="5" spans="1:14" s="148" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="598" t="s">
+      <c r="A5" s="629" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="600" t="s">
+      <c r="B5" s="631" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="598" t="s">
+      <c r="C5" s="629" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="597" t="s">
+      <c r="D5" s="628" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="597"/>
+      <c r="E5" s="628"/>
     </row>
     <row r="6" spans="1:14" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="599"/>
-      <c r="B6" s="601"/>
-      <c r="C6" s="599"/>
+      <c r="A6" s="630"/>
+      <c r="B6" s="632"/>
+      <c r="C6" s="630"/>
       <c r="D6" s="158" t="s">
         <v>123</v>
       </c>
@@ -5585,11 +5610,11 @@
       <c r="E31" s="157"/>
     </row>
     <row r="32" spans="1:5" s="160" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="594" t="s">
+      <c r="A32" s="625" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="595"/>
-      <c r="C32" s="596"/>
+      <c r="B32" s="626"/>
+      <c r="C32" s="627"/>
       <c r="D32" s="159">
         <f t="shared" ref="D32:E32" si="0">SUM(D7:D31)</f>
         <v>80000</v>
@@ -5620,7 +5645,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
@@ -5646,13 +5671,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="472" t="s">
+      <c r="A1" s="491" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="472"/>
-      <c r="C1" s="472"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="472"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
       <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5666,163 +5691,163 @@
       <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="473" t="s">
+      <c r="A3" s="492" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="473"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="473"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
-      <c r="N3" s="473"/>
-      <c r="O3" s="473"/>
-      <c r="P3" s="473"/>
+      <c r="B3" s="492"/>
+      <c r="C3" s="492"/>
+      <c r="D3" s="492"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="492"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="492"/>
+      <c r="I3" s="492"/>
+      <c r="J3" s="492"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="492"/>
+      <c r="M3" s="492"/>
+      <c r="N3" s="492"/>
+      <c r="O3" s="492"/>
+      <c r="P3" s="492"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="473" t="s">
+      <c r="A4" s="492" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="473"/>
-      <c r="C4" s="473"/>
-      <c r="D4" s="473"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="473"/>
-      <c r="G4" s="473"/>
-      <c r="H4" s="473"/>
-      <c r="I4" s="473"/>
-      <c r="J4" s="473"/>
-      <c r="K4" s="473"/>
-      <c r="L4" s="473"/>
-      <c r="M4" s="473"/>
-      <c r="N4" s="473"/>
-      <c r="O4" s="473"/>
-      <c r="P4" s="473"/>
+      <c r="B4" s="492"/>
+      <c r="C4" s="492"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="492"/>
+      <c r="F4" s="492"/>
+      <c r="G4" s="492"/>
+      <c r="H4" s="492"/>
+      <c r="I4" s="492"/>
+      <c r="J4" s="492"/>
+      <c r="K4" s="492"/>
+      <c r="L4" s="492"/>
+      <c r="M4" s="492"/>
+      <c r="N4" s="492"/>
+      <c r="O4" s="492"/>
+      <c r="P4" s="492"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="473"/>
-      <c r="B5" s="473"/>
-      <c r="C5" s="473"/>
-      <c r="D5" s="473"/>
-      <c r="E5" s="473"/>
-      <c r="F5" s="473"/>
-      <c r="G5" s="473"/>
-      <c r="H5" s="473"/>
-      <c r="I5" s="473"/>
-      <c r="J5" s="473"/>
-      <c r="K5" s="474"/>
-      <c r="L5" s="474"/>
+      <c r="A5" s="492"/>
+      <c r="B5" s="492"/>
+      <c r="C5" s="492"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="492"/>
+      <c r="G5" s="492"/>
+      <c r="H5" s="492"/>
+      <c r="I5" s="492"/>
+      <c r="J5" s="492"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="493"/>
     </row>
     <row r="6" spans="1:17" s="188" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="469" t="s">
+      <c r="A6" s="494" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="475" t="s">
+      <c r="B6" s="496" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="469" t="s">
+      <c r="C6" s="494" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="477" t="s">
+      <c r="D6" s="500" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="478" t="s">
+      <c r="E6" s="500"/>
+      <c r="F6" s="501" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="478"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="478"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="478"/>
-      <c r="L6" s="478"/>
-      <c r="M6" s="479"/>
-      <c r="N6" s="479"/>
-      <c r="O6" s="479"/>
-      <c r="P6" s="480" t="s">
+      <c r="G6" s="501"/>
+      <c r="H6" s="501"/>
+      <c r="I6" s="501"/>
+      <c r="J6" s="501"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="501"/>
+      <c r="M6" s="502"/>
+      <c r="N6" s="502"/>
+      <c r="O6" s="502"/>
+      <c r="P6" s="503" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="188" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="470"/>
-      <c r="B7" s="476"/>
-      <c r="C7" s="470"/>
-      <c r="D7" s="469" t="s">
+      <c r="A7" s="495"/>
+      <c r="B7" s="497"/>
+      <c r="C7" s="495"/>
+      <c r="D7" s="494" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="469" t="s">
+      <c r="E7" s="494" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="469" t="s">
+      <c r="F7" s="494" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="469" t="s">
+      <c r="G7" s="494" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="467" t="s">
+      <c r="H7" s="498" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="467" t="s">
+      <c r="I7" s="498" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="471" t="s">
+      <c r="J7" s="505" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="471"/>
-      <c r="L7" s="467" t="s">
+      <c r="K7" s="505"/>
+      <c r="L7" s="498" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="467" t="s">
+      <c r="M7" s="498" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="467" t="s">
+      <c r="N7" s="498" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="467" t="s">
+      <c r="O7" s="498" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="481"/>
+      <c r="P7" s="504"/>
     </row>
     <row r="8" spans="1:17" s="188" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="470"/>
-      <c r="B8" s="476"/>
-      <c r="C8" s="470"/>
-      <c r="D8" s="470"/>
-      <c r="E8" s="470"/>
-      <c r="F8" s="470"/>
-      <c r="G8" s="470"/>
-      <c r="H8" s="468"/>
-      <c r="I8" s="468"/>
+      <c r="A8" s="495"/>
+      <c r="B8" s="497"/>
+      <c r="C8" s="495"/>
+      <c r="D8" s="495"/>
+      <c r="E8" s="495"/>
+      <c r="F8" s="495"/>
+      <c r="G8" s="495"/>
+      <c r="H8" s="499"/>
+      <c r="I8" s="499"/>
       <c r="J8" s="275" t="s">
         <v>82</v>
       </c>
       <c r="K8" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="468"/>
-      <c r="M8" s="468"/>
-      <c r="N8" s="468"/>
-      <c r="O8" s="468"/>
-      <c r="P8" s="481"/>
+      <c r="L8" s="499"/>
+      <c r="M8" s="499"/>
+      <c r="N8" s="499"/>
+      <c r="O8" s="499"/>
+      <c r="P8" s="504"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="450">
+      <c r="A9" s="480">
         <v>785</v>
       </c>
-      <c r="B9" s="452">
+      <c r="B9" s="483">
         <v>44077</v>
       </c>
-      <c r="C9" s="457"/>
-      <c r="D9" s="457" t="s">
+      <c r="C9" s="468"/>
+      <c r="D9" s="468" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="457" t="s">
+      <c r="E9" s="468" t="s">
         <v>141</v>
       </c>
       <c r="F9" s="313" t="s">
@@ -5857,11 +5882,11 @@
       <c r="P9" s="313"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="451"/>
-      <c r="B10" s="453"/>
-      <c r="C10" s="458"/>
-      <c r="D10" s="458"/>
-      <c r="E10" s="458"/>
+      <c r="A10" s="481"/>
+      <c r="B10" s="484"/>
+      <c r="C10" s="470"/>
+      <c r="D10" s="470"/>
+      <c r="E10" s="470"/>
       <c r="F10" s="315" t="s">
         <v>137</v>
       </c>
@@ -5892,19 +5917,19 @@
       <c r="P10" s="271"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="457">
+      <c r="A11" s="468">
         <v>662</v>
       </c>
-      <c r="B11" s="459">
+      <c r="B11" s="471">
         <v>44077</v>
       </c>
-      <c r="C11" s="457" t="s">
+      <c r="C11" s="468" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="457" t="s">
+      <c r="D11" s="468" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="457" t="s">
+      <c r="E11" s="468" t="s">
         <v>191</v>
       </c>
       <c r="F11" s="313" t="s">
@@ -5938,11 +5963,11 @@
       <c r="Q11" s="280"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="486"/>
-      <c r="B12" s="485"/>
-      <c r="C12" s="486"/>
-      <c r="D12" s="486"/>
-      <c r="E12" s="486"/>
+      <c r="A12" s="469"/>
+      <c r="B12" s="472"/>
+      <c r="C12" s="469"/>
+      <c r="D12" s="469"/>
+      <c r="E12" s="469"/>
       <c r="F12" s="314" t="s">
         <v>136</v>
       </c>
@@ -5973,11 +5998,11 @@
       <c r="P12" s="270"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="486"/>
-      <c r="B13" s="485"/>
-      <c r="C13" s="486"/>
-      <c r="D13" s="486"/>
-      <c r="E13" s="486"/>
+      <c r="A13" s="469"/>
+      <c r="B13" s="472"/>
+      <c r="C13" s="469"/>
+      <c r="D13" s="469"/>
+      <c r="E13" s="469"/>
       <c r="F13" s="314" t="s">
         <v>151</v>
       </c>
@@ -6008,11 +6033,11 @@
       <c r="P13" s="314"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="458"/>
-      <c r="B14" s="460"/>
-      <c r="C14" s="458"/>
-      <c r="D14" s="458"/>
-      <c r="E14" s="458"/>
+      <c r="A14" s="470"/>
+      <c r="B14" s="473"/>
+      <c r="C14" s="470"/>
+      <c r="D14" s="470"/>
+      <c r="E14" s="470"/>
       <c r="F14" s="315" t="s">
         <v>134</v>
       </c>
@@ -6176,19 +6201,19 @@
       <c r="P17" s="286"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="457">
+      <c r="A18" s="468">
         <v>792</v>
       </c>
-      <c r="B18" s="459">
+      <c r="B18" s="471">
         <v>44085</v>
       </c>
-      <c r="C18" s="457" t="s">
+      <c r="C18" s="468" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="455" t="s">
+      <c r="D18" s="506" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="455" t="s">
+      <c r="E18" s="506" t="s">
         <v>191</v>
       </c>
       <c r="F18" s="429" t="s">
@@ -6221,11 +6246,11 @@
       <c r="P18" s="436"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="458"/>
-      <c r="B19" s="460"/>
-      <c r="C19" s="458"/>
-      <c r="D19" s="456"/>
-      <c r="E19" s="456"/>
+      <c r="A19" s="470"/>
+      <c r="B19" s="473"/>
+      <c r="C19" s="470"/>
+      <c r="D19" s="508"/>
+      <c r="E19" s="508"/>
       <c r="F19" s="430" t="s">
         <v>135</v>
       </c>
@@ -6256,17 +6281,17 @@
       <c r="P19" s="437"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="457">
+      <c r="A20" s="468">
         <v>665</v>
       </c>
-      <c r="B20" s="459">
+      <c r="B20" s="471">
         <v>44088</v>
       </c>
-      <c r="C20" s="457"/>
-      <c r="D20" s="455" t="s">
+      <c r="C20" s="468"/>
+      <c r="D20" s="506" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="454"/>
+      <c r="E20" s="509"/>
       <c r="F20" s="414" t="s">
         <v>135</v>
       </c>
@@ -6297,11 +6322,11 @@
       <c r="P20" s="416"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="458"/>
-      <c r="B21" s="460"/>
-      <c r="C21" s="458"/>
-      <c r="D21" s="456"/>
-      <c r="E21" s="461"/>
+      <c r="A21" s="470"/>
+      <c r="B21" s="473"/>
+      <c r="C21" s="470"/>
+      <c r="D21" s="508"/>
+      <c r="E21" s="510"/>
       <c r="F21" s="415" t="s">
         <v>136</v>
       </c>
@@ -6332,19 +6357,19 @@
       <c r="P21" s="417"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="626">
+      <c r="A22" s="449">
         <v>791</v>
       </c>
-      <c r="B22" s="627">
+      <c r="B22" s="450">
         <v>44089</v>
       </c>
-      <c r="C22" s="626" t="s">
+      <c r="C22" s="449" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="622" t="s">
+      <c r="D22" s="446" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="622" t="s">
+      <c r="E22" s="446" t="s">
         <v>253</v>
       </c>
       <c r="F22" s="432" t="s">
@@ -6353,43 +6378,43 @@
       <c r="G22" s="432">
         <v>6</v>
       </c>
-      <c r="H22" s="628">
+      <c r="H22" s="451">
         <v>485000</v>
       </c>
-      <c r="I22" s="620">
+      <c r="I22" s="444">
         <f t="shared" si="0"/>
         <v>2910000</v>
       </c>
-      <c r="J22" s="620"/>
-      <c r="K22" s="621">
+      <c r="J22" s="444"/>
+      <c r="K22" s="445">
         <v>0.41</v>
       </c>
-      <c r="L22" s="620">
+      <c r="L22" s="444">
         <f t="shared" si="1"/>
         <v>1716900.0000000002</v>
       </c>
-      <c r="M22" s="620"/>
-      <c r="N22" s="620">
+      <c r="M22" s="444"/>
+      <c r="N22" s="444">
         <f>L22</f>
         <v>1716900.0000000002</v>
       </c>
-      <c r="O22" s="620"/>
+      <c r="O22" s="444"/>
       <c r="P22" s="434"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="457">
+      <c r="A23" s="468">
         <v>788</v>
       </c>
-      <c r="B23" s="459">
+      <c r="B23" s="471">
         <v>44090</v>
       </c>
-      <c r="C23" s="457" t="s">
+      <c r="C23" s="468" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="455" t="s">
+      <c r="D23" s="506" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="455"/>
+      <c r="E23" s="506"/>
       <c r="F23" s="429" t="s">
         <v>135</v>
       </c>
@@ -6420,11 +6445,11 @@
       <c r="P23" s="436"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="486"/>
-      <c r="B24" s="485"/>
-      <c r="C24" s="486"/>
-      <c r="D24" s="623"/>
-      <c r="E24" s="623"/>
+      <c r="A24" s="469"/>
+      <c r="B24" s="472"/>
+      <c r="C24" s="469"/>
+      <c r="D24" s="507"/>
+      <c r="E24" s="507"/>
       <c r="F24" s="433" t="s">
         <v>136</v>
       </c>
@@ -6455,11 +6480,11 @@
       <c r="P24" s="424"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="486"/>
-      <c r="B25" s="485"/>
-      <c r="C25" s="486"/>
-      <c r="D25" s="623"/>
-      <c r="E25" s="623"/>
+      <c r="A25" s="469"/>
+      <c r="B25" s="472"/>
+      <c r="C25" s="469"/>
+      <c r="D25" s="507"/>
+      <c r="E25" s="507"/>
       <c r="F25" s="433" t="s">
         <v>151</v>
       </c>
@@ -6491,11 +6516,11 @@
       <c r="R25" s="280"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="458"/>
-      <c r="B26" s="460"/>
-      <c r="C26" s="458"/>
-      <c r="D26" s="456"/>
-      <c r="E26" s="456"/>
+      <c r="A26" s="470"/>
+      <c r="B26" s="473"/>
+      <c r="C26" s="470"/>
+      <c r="D26" s="508"/>
+      <c r="E26" s="508"/>
       <c r="F26" s="430" t="s">
         <v>134</v>
       </c>
@@ -6543,41 +6568,41 @@
       <c r="G27" s="432">
         <v>2</v>
       </c>
-      <c r="H27" s="620">
+      <c r="H27" s="444">
         <v>485000</v>
       </c>
-      <c r="I27" s="620">
+      <c r="I27" s="444">
         <f t="shared" si="0"/>
         <v>970000</v>
       </c>
-      <c r="J27" s="629"/>
-      <c r="K27" s="621">
+      <c r="J27" s="452"/>
+      <c r="K27" s="445">
         <v>0.41</v>
       </c>
-      <c r="L27" s="620">
+      <c r="L27" s="444">
         <f t="shared" si="1"/>
         <v>572300.00000000012</v>
       </c>
-      <c r="M27" s="620"/>
-      <c r="N27" s="620"/>
-      <c r="O27" s="620">
+      <c r="M27" s="444"/>
+      <c r="N27" s="444"/>
+      <c r="O27" s="444">
         <f>L27</f>
         <v>572300.00000000012</v>
       </c>
       <c r="P27" s="432"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="457">
+      <c r="A28" s="468">
         <v>794</v>
       </c>
-      <c r="B28" s="459">
+      <c r="B28" s="471">
         <v>44090</v>
       </c>
-      <c r="C28" s="457"/>
-      <c r="D28" s="455" t="s">
+      <c r="C28" s="468"/>
+      <c r="D28" s="506" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="455"/>
+      <c r="E28" s="506"/>
       <c r="F28" s="429" t="s">
         <v>135</v>
       </c>
@@ -6608,11 +6633,11 @@
       <c r="P28" s="429"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="486"/>
-      <c r="B29" s="485"/>
-      <c r="C29" s="486"/>
-      <c r="D29" s="623"/>
-      <c r="E29" s="623"/>
+      <c r="A29" s="469"/>
+      <c r="B29" s="472"/>
+      <c r="C29" s="469"/>
+      <c r="D29" s="507"/>
+      <c r="E29" s="507"/>
       <c r="F29" s="433" t="s">
         <v>136</v>
       </c>
@@ -6643,11 +6668,11 @@
       <c r="P29" s="433"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="458"/>
-      <c r="B30" s="460"/>
-      <c r="C30" s="458"/>
-      <c r="D30" s="456"/>
-      <c r="E30" s="456"/>
+      <c r="A30" s="470"/>
+      <c r="B30" s="473"/>
+      <c r="C30" s="470"/>
+      <c r="D30" s="508"/>
+      <c r="E30" s="508"/>
       <c r="F30" s="430" t="s">
         <v>134</v>
       </c>
@@ -6706,7 +6731,7 @@
         <f t="shared" si="0"/>
         <v>1860000</v>
       </c>
-      <c r="J31" s="624"/>
+      <c r="J31" s="447"/>
       <c r="K31" s="284">
         <v>0.41</v>
       </c>
@@ -6749,7 +6774,7 @@
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="J32" s="625">
+      <c r="J32" s="448">
         <v>150000</v>
       </c>
       <c r="K32" s="284">
@@ -6854,19 +6879,19 @@
       <c r="P34" s="286"/>
     </row>
     <row r="35" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="457">
+      <c r="A35" s="468">
         <v>799</v>
       </c>
-      <c r="B35" s="459">
+      <c r="B35" s="471">
         <v>44092</v>
       </c>
-      <c r="C35" s="457" t="s">
+      <c r="C35" s="468" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="457" t="s">
+      <c r="D35" s="468" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="457" t="s">
+      <c r="E35" s="468" t="s">
         <v>141</v>
       </c>
       <c r="F35" s="429" t="s">
@@ -6899,11 +6924,11 @@
       <c r="P35" s="429"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="458"/>
-      <c r="B36" s="460"/>
-      <c r="C36" s="458"/>
-      <c r="D36" s="458"/>
-      <c r="E36" s="458"/>
+      <c r="A36" s="470"/>
+      <c r="B36" s="473"/>
+      <c r="C36" s="470"/>
+      <c r="D36" s="470"/>
+      <c r="E36" s="470"/>
       <c r="F36" s="430" t="s">
         <v>136</v>
       </c>
@@ -7100,19 +7125,19 @@
       <c r="P40" s="300"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="457">
+      <c r="A41" s="468">
         <v>678</v>
       </c>
-      <c r="B41" s="459">
+      <c r="B41" s="471">
         <v>44096</v>
       </c>
-      <c r="C41" s="457" t="s">
+      <c r="C41" s="468" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="455" t="s">
+      <c r="D41" s="506" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="457"/>
+      <c r="E41" s="468"/>
       <c r="F41" s="429" t="s">
         <v>249</v>
       </c>
@@ -7141,11 +7166,11 @@
       <c r="Q41" s="280"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="486"/>
-      <c r="B42" s="485"/>
-      <c r="C42" s="486"/>
-      <c r="D42" s="623"/>
-      <c r="E42" s="486"/>
+      <c r="A42" s="469"/>
+      <c r="B42" s="472"/>
+      <c r="C42" s="469"/>
+      <c r="D42" s="507"/>
+      <c r="E42" s="469"/>
       <c r="F42" s="433" t="s">
         <v>135</v>
       </c>
@@ -7174,11 +7199,11 @@
       <c r="Q42" s="280"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="486"/>
-      <c r="B43" s="485"/>
-      <c r="C43" s="486"/>
-      <c r="D43" s="623"/>
-      <c r="E43" s="486"/>
+      <c r="A43" s="469"/>
+      <c r="B43" s="472"/>
+      <c r="C43" s="469"/>
+      <c r="D43" s="507"/>
+      <c r="E43" s="469"/>
       <c r="F43" s="433" t="s">
         <v>136</v>
       </c>
@@ -7207,11 +7232,11 @@
       <c r="Q43" s="280"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="486"/>
-      <c r="B44" s="485"/>
-      <c r="C44" s="486"/>
-      <c r="D44" s="623"/>
-      <c r="E44" s="486"/>
+      <c r="A44" s="469"/>
+      <c r="B44" s="472"/>
+      <c r="C44" s="469"/>
+      <c r="D44" s="507"/>
+      <c r="E44" s="469"/>
       <c r="F44" s="433" t="s">
         <v>251</v>
       </c>
@@ -7240,11 +7265,11 @@
       <c r="Q44" s="280"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="486"/>
-      <c r="B45" s="485"/>
-      <c r="C45" s="486"/>
-      <c r="D45" s="623"/>
-      <c r="E45" s="486"/>
+      <c r="A45" s="469"/>
+      <c r="B45" s="472"/>
+      <c r="C45" s="469"/>
+      <c r="D45" s="507"/>
+      <c r="E45" s="469"/>
       <c r="F45" s="433" t="s">
         <v>134</v>
       </c>
@@ -7273,11 +7298,11 @@
       <c r="Q45" s="280"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="486"/>
-      <c r="B46" s="485"/>
-      <c r="C46" s="486"/>
-      <c r="D46" s="623"/>
-      <c r="E46" s="486"/>
+      <c r="A46" s="469"/>
+      <c r="B46" s="472"/>
+      <c r="C46" s="469"/>
+      <c r="D46" s="507"/>
+      <c r="E46" s="469"/>
       <c r="F46" s="433" t="s">
         <v>137</v>
       </c>
@@ -7306,11 +7331,11 @@
       <c r="Q46" s="280"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="486"/>
-      <c r="B47" s="485"/>
-      <c r="C47" s="486"/>
-      <c r="D47" s="623"/>
-      <c r="E47" s="486"/>
+      <c r="A47" s="469"/>
+      <c r="B47" s="472"/>
+      <c r="C47" s="469"/>
+      <c r="D47" s="507"/>
+      <c r="E47" s="469"/>
       <c r="F47" s="433" t="s">
         <v>138</v>
       </c>
@@ -7339,11 +7364,11 @@
       <c r="Q47" s="280"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="463"/>
-      <c r="B48" s="464"/>
-      <c r="C48" s="463"/>
-      <c r="D48" s="462"/>
-      <c r="E48" s="463"/>
+      <c r="A48" s="511"/>
+      <c r="B48" s="512"/>
+      <c r="C48" s="511"/>
+      <c r="D48" s="513"/>
+      <c r="E48" s="511"/>
       <c r="F48" s="435" t="s">
         <v>263</v>
       </c>
@@ -7460,20 +7485,20 @@
       <c r="Q50" s="280"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="457">
+      <c r="A51" s="468">
         <v>805</v>
       </c>
-      <c r="B51" s="459">
+      <c r="B51" s="471">
         <v>44102</v>
       </c>
-      <c r="C51" s="490"/>
-      <c r="D51" s="606" t="s">
+      <c r="C51" s="474"/>
+      <c r="D51" s="477" t="s">
         <v>270</v>
       </c>
-      <c r="E51" s="450" t="s">
+      <c r="E51" s="480" t="s">
         <v>273</v>
       </c>
-      <c r="F51" s="614" t="s">
+      <c r="F51" s="441" t="s">
         <v>136</v>
       </c>
       <c r="G51" s="429">
@@ -7483,7 +7508,7 @@
         <v>465000</v>
       </c>
       <c r="I51" s="276">
-        <f>G51*H51</f>
+        <f t="shared" ref="I51:I56" si="7">G51*H51</f>
         <v>1395000</v>
       </c>
       <c r="J51" s="429"/>
@@ -7491,7 +7516,7 @@
         <v>0.35</v>
       </c>
       <c r="L51" s="276">
-        <f>I51*(1-K51)</f>
+        <f t="shared" ref="L51:L56" si="8">I51*(1-K51)</f>
         <v>906750</v>
       </c>
       <c r="M51" s="276">
@@ -7504,12 +7529,12 @@
       <c r="Q51" s="280"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="486"/>
-      <c r="B52" s="485"/>
-      <c r="C52" s="498"/>
-      <c r="D52" s="612"/>
-      <c r="E52" s="451"/>
-      <c r="F52" s="616" t="s">
+      <c r="A52" s="469"/>
+      <c r="B52" s="472"/>
+      <c r="C52" s="475"/>
+      <c r="D52" s="478"/>
+      <c r="E52" s="481"/>
+      <c r="F52" s="443" t="s">
         <v>251</v>
       </c>
       <c r="G52" s="433">
@@ -7519,7 +7544,7 @@
         <v>475000</v>
       </c>
       <c r="I52" s="278">
-        <f>G52*H52</f>
+        <f t="shared" si="7"/>
         <v>11875000</v>
       </c>
       <c r="J52" s="433"/>
@@ -7527,11 +7552,11 @@
         <v>0.35</v>
       </c>
       <c r="L52" s="278">
-        <f>I52*(1-K52)</f>
+        <f t="shared" si="8"/>
         <v>7718750</v>
       </c>
       <c r="M52" s="278">
-        <f t="shared" ref="M52:M55" si="7">L52</f>
+        <f t="shared" ref="M52:M55" si="9">L52</f>
         <v>7718750</v>
       </c>
       <c r="N52" s="278"/>
@@ -7540,12 +7565,12 @@
       <c r="Q52" s="280"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="486"/>
-      <c r="B53" s="485"/>
-      <c r="C53" s="498"/>
-      <c r="D53" s="612"/>
-      <c r="E53" s="451"/>
-      <c r="F53" s="616" t="s">
+      <c r="A53" s="469"/>
+      <c r="B53" s="472"/>
+      <c r="C53" s="475"/>
+      <c r="D53" s="478"/>
+      <c r="E53" s="481"/>
+      <c r="F53" s="443" t="s">
         <v>134</v>
       </c>
       <c r="G53" s="433">
@@ -7555,7 +7580,7 @@
         <v>485000</v>
       </c>
       <c r="I53" s="278">
-        <f>G53*H53</f>
+        <f t="shared" si="7"/>
         <v>13095000</v>
       </c>
       <c r="J53" s="433"/>
@@ -7563,11 +7588,11 @@
         <v>0.35</v>
       </c>
       <c r="L53" s="278">
-        <f>I53*(1-K53)</f>
+        <f t="shared" si="8"/>
         <v>8511750</v>
       </c>
       <c r="M53" s="278">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8511750</v>
       </c>
       <c r="N53" s="278"/>
@@ -7576,12 +7601,12 @@
       <c r="Q53" s="280"/>
     </row>
     <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="486"/>
-      <c r="B54" s="485"/>
-      <c r="C54" s="498"/>
-      <c r="D54" s="612"/>
-      <c r="E54" s="451"/>
-      <c r="F54" s="616" t="s">
+      <c r="A54" s="469"/>
+      <c r="B54" s="472"/>
+      <c r="C54" s="475"/>
+      <c r="D54" s="478"/>
+      <c r="E54" s="481"/>
+      <c r="F54" s="443" t="s">
         <v>137</v>
       </c>
       <c r="G54" s="433">
@@ -7591,7 +7616,7 @@
         <v>485000</v>
       </c>
       <c r="I54" s="278">
-        <f>G54*H54</f>
+        <f t="shared" si="7"/>
         <v>1455000</v>
       </c>
       <c r="J54" s="433"/>
@@ -7599,11 +7624,11 @@
         <v>0.35</v>
       </c>
       <c r="L54" s="278">
-        <f>I54*(1-K54)</f>
+        <f t="shared" si="8"/>
         <v>945750</v>
       </c>
       <c r="M54" s="278">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>945750</v>
       </c>
       <c r="N54" s="278"/>
@@ -7612,12 +7637,12 @@
       <c r="Q54" s="280"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="458"/>
-      <c r="B55" s="460"/>
-      <c r="C55" s="491"/>
-      <c r="D55" s="607"/>
-      <c r="E55" s="465"/>
-      <c r="F55" s="615" t="s">
+      <c r="A55" s="470"/>
+      <c r="B55" s="473"/>
+      <c r="C55" s="476"/>
+      <c r="D55" s="479"/>
+      <c r="E55" s="482"/>
+      <c r="F55" s="442" t="s">
         <v>138</v>
       </c>
       <c r="G55" s="430">
@@ -7627,7 +7652,7 @@
         <v>455000</v>
       </c>
       <c r="I55" s="281">
-        <f>G55*H55</f>
+        <f t="shared" si="7"/>
         <v>2730000</v>
       </c>
       <c r="J55" s="430"/>
@@ -7635,11 +7660,11 @@
         <v>0.35</v>
       </c>
       <c r="L55" s="281">
-        <f>I55*(1-K55)</f>
+        <f t="shared" si="8"/>
         <v>1774500</v>
       </c>
       <c r="M55" s="281">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1774500</v>
       </c>
       <c r="N55" s="281"/>
@@ -7673,7 +7698,7 @@
         <v>465000</v>
       </c>
       <c r="I56" s="283">
-        <f>G56*H56</f>
+        <f t="shared" si="7"/>
         <v>930000</v>
       </c>
       <c r="J56" s="283"/>
@@ -7681,27 +7706,27 @@
         <v>0.5</v>
       </c>
       <c r="L56" s="283">
-        <f>I56*(1-K56)</f>
+        <f t="shared" si="8"/>
         <v>465000</v>
       </c>
       <c r="M56" s="283"/>
       <c r="N56" s="283"/>
       <c r="O56" s="283">
-        <f t="shared" ref="O51:O56" si="8">L56</f>
+        <f t="shared" ref="O56" si="10">L56</f>
         <v>465000</v>
       </c>
       <c r="P56" s="425"/>
       <c r="Q56" s="280"/>
     </row>
     <row r="57" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="617" t="s">
+      <c r="A57" s="486" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="618"/>
-      <c r="C57" s="618"/>
-      <c r="D57" s="618"/>
-      <c r="E57" s="618"/>
-      <c r="F57" s="619"/>
+      <c r="B57" s="487"/>
+      <c r="C57" s="487"/>
+      <c r="D57" s="487"/>
+      <c r="E57" s="487"/>
+      <c r="F57" s="488"/>
       <c r="G57" s="217">
         <f>SUM(G13:G56)</f>
         <v>466</v>
@@ -7720,18 +7745,18 @@
       <c r="M57" s="223"/>
       <c r="N57" s="223"/>
       <c r="O57" s="223"/>
-      <c r="P57" s="483"/>
-      <c r="Q57" s="484"/>
+      <c r="P57" s="489"/>
+      <c r="Q57" s="490"/>
     </row>
     <row r="58" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="482" t="s">
+      <c r="A58" s="485" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="482"/>
-      <c r="C58" s="482"/>
-      <c r="D58" s="482"/>
-      <c r="E58" s="482"/>
-      <c r="F58" s="482"/>
+      <c r="B58" s="485"/>
+      <c r="C58" s="485"/>
+      <c r="D58" s="485"/>
+      <c r="E58" s="485"/>
+      <c r="F58" s="485"/>
       <c r="G58" s="194">
         <f>G57</f>
         <v>466</v>
@@ -7747,18 +7772,18 @@
       <c r="M58" s="197"/>
       <c r="N58" s="197"/>
       <c r="O58" s="197"/>
-      <c r="P58" s="483"/>
-      <c r="Q58" s="484"/>
+      <c r="P58" s="489"/>
+      <c r="Q58" s="490"/>
     </row>
     <row r="59" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="482" t="s">
+      <c r="A59" s="485" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="482"/>
-      <c r="C59" s="482"/>
-      <c r="D59" s="482"/>
-      <c r="E59" s="482"/>
-      <c r="F59" s="482"/>
+      <c r="B59" s="485"/>
+      <c r="C59" s="485"/>
+      <c r="D59" s="485"/>
+      <c r="E59" s="485"/>
+      <c r="F59" s="485"/>
       <c r="G59" s="201" t="s">
         <v>49</v>
       </c>
@@ -7775,14 +7800,14 @@
       <c r="O59" s="197"/>
     </row>
     <row r="60" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="482" t="s">
+      <c r="A60" s="485" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="482"/>
-      <c r="C60" s="482"/>
-      <c r="D60" s="482"/>
-      <c r="E60" s="482"/>
-      <c r="F60" s="482"/>
+      <c r="B60" s="485"/>
+      <c r="C60" s="485"/>
+      <c r="D60" s="485"/>
+      <c r="E60" s="485"/>
+      <c r="F60" s="485"/>
       <c r="G60" s="201"/>
       <c r="H60" s="212"/>
       <c r="I60" s="195"/>
@@ -7797,14 +7822,14 @@
       <c r="O60" s="197"/>
     </row>
     <row r="61" spans="1:17" s="200" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A61" s="482" t="s">
+      <c r="A61" s="485" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="482"/>
-      <c r="C61" s="482"/>
-      <c r="D61" s="482"/>
-      <c r="E61" s="482"/>
-      <c r="F61" s="482"/>
+      <c r="B61" s="485"/>
+      <c r="C61" s="485"/>
+      <c r="D61" s="485"/>
+      <c r="E61" s="485"/>
+      <c r="F61" s="485"/>
       <c r="G61" s="201"/>
       <c r="H61" s="212"/>
       <c r="I61" s="195"/>
@@ -7880,26 +7905,44 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="74">
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A1:E1"/>
@@ -7916,44 +7959,26 @@
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7964,7 +7989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E12" sqref="A12:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -7986,93 +8011,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="492" t="s">
+      <c r="A1" s="514" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="492"/>
+      <c r="B1" s="514"/>
+      <c r="C1" s="514"/>
+      <c r="D1" s="514"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="493" t="s">
+      <c r="A2" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="493"/>
-      <c r="C2" s="493"/>
-      <c r="D2" s="493"/>
+      <c r="B2" s="515"/>
+      <c r="C2" s="515"/>
+      <c r="D2" s="515"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="494" t="s">
+      <c r="A3" s="516" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="494"/>
-      <c r="C3" s="494"/>
-      <c r="D3" s="494"/>
-      <c r="E3" s="494"/>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="494"/>
-      <c r="I3" s="494"/>
-      <c r="J3" s="494"/>
-      <c r="K3" s="494"/>
-      <c r="L3" s="494"/>
-      <c r="M3" s="494"/>
-      <c r="N3" s="494"/>
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="516"/>
+      <c r="E3" s="516"/>
+      <c r="F3" s="516"/>
+      <c r="G3" s="516"/>
+      <c r="H3" s="516"/>
+      <c r="I3" s="516"/>
+      <c r="J3" s="516"/>
+      <c r="K3" s="516"/>
+      <c r="L3" s="516"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="495" t="s">
+      <c r="A4" s="517" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
-      <c r="F4" s="495"/>
-      <c r="G4" s="495"/>
-      <c r="H4" s="495"/>
-      <c r="I4" s="496"/>
-      <c r="J4" s="495"/>
-      <c r="K4" s="495"/>
-      <c r="L4" s="495"/>
-      <c r="M4" s="495"/>
-      <c r="N4" s="495"/>
+      <c r="B4" s="517"/>
+      <c r="C4" s="517"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="517"/>
+      <c r="F4" s="517"/>
+      <c r="G4" s="517"/>
+      <c r="H4" s="517"/>
+      <c r="I4" s="518"/>
+      <c r="J4" s="517"/>
+      <c r="K4" s="517"/>
+      <c r="L4" s="517"/>
+      <c r="M4" s="517"/>
+      <c r="N4" s="517"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="497" t="s">
+      <c r="A5" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="500" t="s">
+      <c r="B5" s="521" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="499" t="s">
+      <c r="C5" s="520" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="367" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="489" t="s">
+      <c r="E5" s="522" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="489"/>
-      <c r="G5" s="489"/>
-      <c r="H5" s="489"/>
-      <c r="I5" s="501"/>
-      <c r="J5" s="488" t="s">
+      <c r="F5" s="522"/>
+      <c r="G5" s="522"/>
+      <c r="H5" s="522"/>
+      <c r="I5" s="523"/>
+      <c r="J5" s="524" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="489" t="s">
+      <c r="K5" s="522" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="489"/>
-      <c r="M5" s="489"/>
-      <c r="N5" s="499" t="s">
+      <c r="L5" s="522"/>
+      <c r="M5" s="522"/>
+      <c r="N5" s="520" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="497"/>
-      <c r="B6" s="500"/>
-      <c r="C6" s="499"/>
+      <c r="A6" s="519"/>
+      <c r="B6" s="521"/>
+      <c r="C6" s="520"/>
       <c r="D6" s="367" t="s">
         <v>41</v>
       </c>
@@ -8091,7 +8116,7 @@
       <c r="I6" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="488"/>
+      <c r="J6" s="524"/>
       <c r="K6" s="367" t="s">
         <v>45</v>
       </c>
@@ -8101,7 +8126,7 @@
       <c r="M6" s="367" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="499"/>
+      <c r="N6" s="520"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="269">
@@ -8113,10 +8138,10 @@
       <c r="C7" s="269" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="605" t="s">
+      <c r="D7" s="438" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="605" t="s">
+      <c r="E7" s="438" t="s">
         <v>137</v>
       </c>
       <c r="F7" s="431">
@@ -8145,17 +8170,17 @@
       <c r="N7" s="376"/>
     </row>
     <row r="8" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="457">
+      <c r="A8" s="468">
         <v>664</v>
       </c>
-      <c r="B8" s="459">
+      <c r="B8" s="471">
         <v>44088</v>
       </c>
-      <c r="C8" s="490"/>
-      <c r="D8" s="606" t="s">
+      <c r="C8" s="474"/>
+      <c r="D8" s="477" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="614" t="s">
+      <c r="E8" s="441" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="429">
@@ -8185,11 +8210,11 @@
       <c r="Q8" s="280"/>
     </row>
     <row r="9" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="458"/>
-      <c r="B9" s="460"/>
-      <c r="C9" s="491"/>
-      <c r="D9" s="607"/>
-      <c r="E9" s="615" t="s">
+      <c r="A9" s="470"/>
+      <c r="B9" s="473"/>
+      <c r="C9" s="476"/>
+      <c r="D9" s="479"/>
+      <c r="E9" s="442" t="s">
         <v>251</v>
       </c>
       <c r="F9" s="430">
@@ -8226,10 +8251,10 @@
         <v>44091</v>
       </c>
       <c r="C10" s="428"/>
-      <c r="D10" s="608" t="s">
+      <c r="D10" s="439" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="613" t="s">
+      <c r="E10" s="440" t="s">
         <v>135</v>
       </c>
       <c r="F10" s="425">
@@ -8239,7 +8264,7 @@
         <v>455000</v>
       </c>
       <c r="H10" s="283">
-        <f>F10*G10</f>
+        <f t="shared" ref="H10:H16" si="3">F10*G10</f>
         <v>19110000</v>
       </c>
       <c r="I10" s="284">
@@ -8266,10 +8291,10 @@
         <v>44092</v>
       </c>
       <c r="C11" s="428"/>
-      <c r="D11" s="608" t="s">
+      <c r="D11" s="439" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="613" t="s">
+      <c r="E11" s="440" t="s">
         <v>249</v>
       </c>
       <c r="F11" s="425">
@@ -8279,7 +8304,7 @@
         <v>225000</v>
       </c>
       <c r="H11" s="283">
-        <f>F11*G11</f>
+        <f t="shared" si="3"/>
         <v>5400000</v>
       </c>
       <c r="I11" s="284">
@@ -8299,17 +8324,17 @@
       <c r="Q11" s="280"/>
     </row>
     <row r="12" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="450">
+      <c r="A12" s="480">
         <v>803</v>
       </c>
-      <c r="B12" s="452">
+      <c r="B12" s="483">
         <v>44095</v>
       </c>
-      <c r="C12" s="602"/>
-      <c r="D12" s="609" t="s">
+      <c r="C12" s="527"/>
+      <c r="D12" s="530" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="605" t="s">
+      <c r="E12" s="438" t="s">
         <v>136</v>
       </c>
       <c r="F12" s="431">
@@ -8319,7 +8344,7 @@
         <v>465000</v>
       </c>
       <c r="H12" s="426">
-        <f>F12*G12</f>
+        <f t="shared" si="3"/>
         <v>1395000</v>
       </c>
       <c r="I12" s="427">
@@ -8339,11 +8364,11 @@
       <c r="Q12" s="280"/>
     </row>
     <row r="13" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="451"/>
-      <c r="B13" s="453"/>
-      <c r="C13" s="603"/>
-      <c r="D13" s="610"/>
-      <c r="E13" s="605" t="s">
+      <c r="A13" s="481"/>
+      <c r="B13" s="484"/>
+      <c r="C13" s="528"/>
+      <c r="D13" s="531"/>
+      <c r="E13" s="438" t="s">
         <v>251</v>
       </c>
       <c r="F13" s="431">
@@ -8353,7 +8378,7 @@
         <v>475000</v>
       </c>
       <c r="H13" s="426">
-        <f>F13*G13</f>
+        <f t="shared" si="3"/>
         <v>11875000</v>
       </c>
       <c r="I13" s="427">
@@ -8373,11 +8398,11 @@
       <c r="Q13" s="280"/>
     </row>
     <row r="14" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="451"/>
-      <c r="B14" s="453"/>
-      <c r="C14" s="603"/>
-      <c r="D14" s="610"/>
-      <c r="E14" s="605" t="s">
+      <c r="A14" s="481"/>
+      <c r="B14" s="484"/>
+      <c r="C14" s="528"/>
+      <c r="D14" s="531"/>
+      <c r="E14" s="438" t="s">
         <v>134</v>
       </c>
       <c r="F14" s="431">
@@ -8387,7 +8412,7 @@
         <v>485000</v>
       </c>
       <c r="H14" s="426">
-        <f>F14*G14</f>
+        <f t="shared" si="3"/>
         <v>13095000</v>
       </c>
       <c r="I14" s="427">
@@ -8407,11 +8432,11 @@
       <c r="Q14" s="280"/>
     </row>
     <row r="15" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="451"/>
-      <c r="B15" s="453"/>
-      <c r="C15" s="603"/>
-      <c r="D15" s="610"/>
-      <c r="E15" s="605" t="s">
+      <c r="A15" s="481"/>
+      <c r="B15" s="484"/>
+      <c r="C15" s="528"/>
+      <c r="D15" s="531"/>
+      <c r="E15" s="438" t="s">
         <v>137</v>
       </c>
       <c r="F15" s="431">
@@ -8421,7 +8446,7 @@
         <v>485000</v>
       </c>
       <c r="H15" s="426">
-        <f>F15*G15</f>
+        <f t="shared" si="3"/>
         <v>1455000</v>
       </c>
       <c r="I15" s="427">
@@ -8441,11 +8466,11 @@
       <c r="Q15" s="280"/>
     </row>
     <row r="16" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="465"/>
-      <c r="B16" s="466"/>
-      <c r="C16" s="604"/>
-      <c r="D16" s="611"/>
-      <c r="E16" s="605" t="s">
+      <c r="A16" s="482"/>
+      <c r="B16" s="526"/>
+      <c r="C16" s="529"/>
+      <c r="D16" s="532"/>
+      <c r="E16" s="438" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="431">
@@ -8455,7 +8480,7 @@
         <v>455000</v>
       </c>
       <c r="H16" s="426">
-        <f>F16*G16</f>
+        <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
       <c r="I16" s="427">
@@ -8475,17 +8500,17 @@
       <c r="Q16" s="280"/>
     </row>
     <row r="17" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="457">
+      <c r="A17" s="468">
         <v>677</v>
       </c>
-      <c r="B17" s="459">
+      <c r="B17" s="471">
         <v>44096</v>
       </c>
-      <c r="C17" s="490"/>
-      <c r="D17" s="606" t="s">
+      <c r="C17" s="474"/>
+      <c r="D17" s="477" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="614" t="s">
+      <c r="E17" s="441" t="s">
         <v>249</v>
       </c>
       <c r="F17" s="429">
@@ -8495,7 +8520,7 @@
         <v>225000</v>
       </c>
       <c r="H17" s="276">
-        <f t="shared" ref="H17:H26" si="3">F17*G17</f>
+        <f t="shared" ref="H17:H26" si="4">F17*G17</f>
         <v>225000</v>
       </c>
       <c r="I17" s="277">
@@ -8515,11 +8540,11 @@
       <c r="Q17" s="280"/>
     </row>
     <row r="18" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="486"/>
-      <c r="B18" s="485"/>
-      <c r="C18" s="498"/>
-      <c r="D18" s="612"/>
-      <c r="E18" s="616" t="s">
+      <c r="A18" s="469"/>
+      <c r="B18" s="472"/>
+      <c r="C18" s="475"/>
+      <c r="D18" s="478"/>
+      <c r="E18" s="443" t="s">
         <v>135</v>
       </c>
       <c r="F18" s="433">
@@ -8529,7 +8554,7 @@
         <v>455000</v>
       </c>
       <c r="H18" s="278">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>455000</v>
       </c>
       <c r="I18" s="279">
@@ -8549,11 +8574,11 @@
       <c r="Q18" s="280"/>
     </row>
     <row r="19" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="486"/>
-      <c r="B19" s="485"/>
-      <c r="C19" s="498"/>
-      <c r="D19" s="612"/>
-      <c r="E19" s="616" t="s">
+      <c r="A19" s="469"/>
+      <c r="B19" s="472"/>
+      <c r="C19" s="475"/>
+      <c r="D19" s="478"/>
+      <c r="E19" s="443" t="s">
         <v>136</v>
       </c>
       <c r="F19" s="433">
@@ -8563,7 +8588,7 @@
         <v>465000</v>
       </c>
       <c r="H19" s="278">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465000</v>
       </c>
       <c r="I19" s="279">
@@ -8583,11 +8608,11 @@
       <c r="Q19" s="280"/>
     </row>
     <row r="20" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="486"/>
-      <c r="B20" s="485"/>
-      <c r="C20" s="498"/>
-      <c r="D20" s="612"/>
-      <c r="E20" s="616" t="s">
+      <c r="A20" s="469"/>
+      <c r="B20" s="472"/>
+      <c r="C20" s="475"/>
+      <c r="D20" s="478"/>
+      <c r="E20" s="443" t="s">
         <v>251</v>
       </c>
       <c r="F20" s="433">
@@ -8597,7 +8622,7 @@
         <v>475000</v>
       </c>
       <c r="H20" s="278">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>475000</v>
       </c>
       <c r="I20" s="279">
@@ -8617,11 +8642,11 @@
       <c r="Q20" s="280"/>
     </row>
     <row r="21" spans="1:17" s="180" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="486"/>
-      <c r="B21" s="485"/>
-      <c r="C21" s="498"/>
-      <c r="D21" s="612"/>
-      <c r="E21" s="616" t="s">
+      <c r="A21" s="469"/>
+      <c r="B21" s="472"/>
+      <c r="C21" s="475"/>
+      <c r="D21" s="478"/>
+      <c r="E21" s="443" t="s">
         <v>134</v>
       </c>
       <c r="F21" s="433">
@@ -8631,7 +8656,7 @@
         <v>485000</v>
       </c>
       <c r="H21" s="278">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>485000</v>
       </c>
       <c r="I21" s="279">
@@ -8651,11 +8676,11 @@
       <c r="Q21" s="280"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="486"/>
-      <c r="B22" s="485"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="612"/>
-      <c r="E22" s="616" t="s">
+      <c r="A22" s="469"/>
+      <c r="B22" s="472"/>
+      <c r="C22" s="475"/>
+      <c r="D22" s="478"/>
+      <c r="E22" s="443" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="433">
@@ -8665,7 +8690,7 @@
         <v>485000</v>
       </c>
       <c r="H22" s="278">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>485000</v>
       </c>
       <c r="I22" s="279">
@@ -8684,11 +8709,11 @@
       <c r="N22" s="299"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="486"/>
-      <c r="B23" s="485"/>
-      <c r="C23" s="498"/>
-      <c r="D23" s="612"/>
-      <c r="E23" s="616" t="s">
+      <c r="A23" s="469"/>
+      <c r="B23" s="472"/>
+      <c r="C23" s="475"/>
+      <c r="D23" s="478"/>
+      <c r="E23" s="443" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="433">
@@ -8698,7 +8723,7 @@
         <v>455000</v>
       </c>
       <c r="H23" s="278">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>455000</v>
       </c>
       <c r="I23" s="279">
@@ -8717,11 +8742,11 @@
       <c r="N23" s="299"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="458"/>
-      <c r="B24" s="460"/>
-      <c r="C24" s="491"/>
-      <c r="D24" s="607"/>
-      <c r="E24" s="615" t="s">
+      <c r="A24" s="470"/>
+      <c r="B24" s="473"/>
+      <c r="C24" s="476"/>
+      <c r="D24" s="479"/>
+      <c r="E24" s="442" t="s">
         <v>263</v>
       </c>
       <c r="F24" s="430">
@@ -8731,7 +8756,7 @@
         <v>455000</v>
       </c>
       <c r="H24" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>455000</v>
       </c>
       <c r="I24" s="282">
@@ -8759,10 +8784,10 @@
       <c r="C25" s="312" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="613" t="s">
+      <c r="D25" s="440" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="613" t="s">
+      <c r="E25" s="440" t="s">
         <v>267</v>
       </c>
       <c r="F25" s="425">
@@ -8772,7 +8797,7 @@
         <v>550000</v>
       </c>
       <c r="H25" s="398">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>550000</v>
       </c>
       <c r="I25" s="399">
@@ -8800,10 +8825,10 @@
       <c r="C26" s="312" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="613" t="s">
+      <c r="D26" s="440" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="613" t="s">
+      <c r="E26" s="440" t="s">
         <v>267</v>
       </c>
       <c r="F26" s="425">
@@ -8813,7 +8838,7 @@
         <v>550000</v>
       </c>
       <c r="H26" s="398">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1650000</v>
       </c>
       <c r="I26" s="399">
@@ -8896,10 +8921,10 @@
       <c r="N30" s="295"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="457"/>
-      <c r="B31" s="459"/>
-      <c r="C31" s="457"/>
-      <c r="D31" s="457"/>
+      <c r="A31" s="468"/>
+      <c r="B31" s="471"/>
+      <c r="C31" s="468"/>
+      <c r="D31" s="468"/>
       <c r="E31" s="272"/>
       <c r="F31" s="272"/>
       <c r="G31" s="377"/>
@@ -8912,10 +8937,10 @@
       <c r="N31" s="296"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="486"/>
-      <c r="B32" s="485"/>
-      <c r="C32" s="486"/>
-      <c r="D32" s="486"/>
+      <c r="A32" s="469"/>
+      <c r="B32" s="472"/>
+      <c r="C32" s="469"/>
+      <c r="D32" s="469"/>
       <c r="E32" s="270"/>
       <c r="F32" s="270"/>
       <c r="G32" s="387"/>
@@ -8928,10 +8953,10 @@
       <c r="N32" s="299"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="458"/>
-      <c r="B33" s="460"/>
-      <c r="C33" s="458"/>
-      <c r="D33" s="458"/>
+      <c r="A33" s="470"/>
+      <c r="B33" s="473"/>
+      <c r="C33" s="470"/>
+      <c r="D33" s="470"/>
       <c r="E33" s="271"/>
       <c r="F33" s="271"/>
       <c r="G33" s="379"/>
@@ -8944,10 +8969,10 @@
       <c r="N33" s="295"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="457"/>
-      <c r="B34" s="459"/>
-      <c r="C34" s="457"/>
-      <c r="D34" s="457"/>
+      <c r="A34" s="468"/>
+      <c r="B34" s="471"/>
+      <c r="C34" s="468"/>
+      <c r="D34" s="468"/>
       <c r="E34" s="272"/>
       <c r="F34" s="272"/>
       <c r="G34" s="377"/>
@@ -8960,10 +8985,10 @@
       <c r="N34" s="296"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="486"/>
-      <c r="B35" s="485"/>
-      <c r="C35" s="486"/>
-      <c r="D35" s="486"/>
+      <c r="A35" s="469"/>
+      <c r="B35" s="472"/>
+      <c r="C35" s="469"/>
+      <c r="D35" s="469"/>
       <c r="E35" s="270"/>
       <c r="F35" s="270"/>
       <c r="G35" s="387"/>
@@ -8976,10 +9001,10 @@
       <c r="N35" s="299"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="486"/>
-      <c r="B36" s="485"/>
-      <c r="C36" s="486"/>
-      <c r="D36" s="486"/>
+      <c r="A36" s="469"/>
+      <c r="B36" s="472"/>
+      <c r="C36" s="469"/>
+      <c r="D36" s="469"/>
       <c r="E36" s="270"/>
       <c r="F36" s="270"/>
       <c r="G36" s="387"/>
@@ -8992,10 +9017,10 @@
       <c r="N36" s="299"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="458"/>
-      <c r="B37" s="460"/>
-      <c r="C37" s="458"/>
-      <c r="D37" s="458"/>
+      <c r="A37" s="470"/>
+      <c r="B37" s="473"/>
+      <c r="C37" s="470"/>
+      <c r="D37" s="470"/>
       <c r="E37" s="271"/>
       <c r="F37" s="271"/>
       <c r="G37" s="379"/>
@@ -9072,10 +9097,10 @@
       <c r="N41" s="300"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="457"/>
-      <c r="B42" s="459"/>
-      <c r="C42" s="457"/>
-      <c r="D42" s="457"/>
+      <c r="A42" s="468"/>
+      <c r="B42" s="471"/>
+      <c r="C42" s="468"/>
+      <c r="D42" s="468"/>
       <c r="E42" s="272"/>
       <c r="F42" s="272"/>
       <c r="G42" s="377"/>
@@ -9088,10 +9113,10 @@
       <c r="N42" s="296"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="458"/>
-      <c r="B43" s="460"/>
-      <c r="C43" s="458"/>
-      <c r="D43" s="458"/>
+      <c r="A43" s="470"/>
+      <c r="B43" s="473"/>
+      <c r="C43" s="470"/>
+      <c r="D43" s="470"/>
       <c r="E43" s="271"/>
       <c r="F43" s="271"/>
       <c r="G43" s="379"/>
@@ -9136,12 +9161,12 @@
       <c r="N45" s="300"/>
     </row>
     <row r="46" spans="1:14" s="405" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="487" t="s">
+      <c r="A46" s="525" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="487"/>
-      <c r="C46" s="487"/>
-      <c r="D46" s="487"/>
+      <c r="B46" s="525"/>
+      <c r="C46" s="525"/>
+      <c r="D46" s="525"/>
       <c r="E46" s="401"/>
       <c r="F46" s="401">
         <f>SUM(F7:F45)</f>
@@ -9229,6 +9254,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B31:B33"/>
@@ -9245,26 +9290,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9353,14 +9378,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="502" t="s">
+      <c r="A4" s="533" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="502"/>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
-      <c r="F4" s="502"/>
+      <c r="B4" s="533"/>
+      <c r="C4" s="533"/>
+      <c r="D4" s="533"/>
+      <c r="E4" s="533"/>
+      <c r="F4" s="533"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -9374,14 +9399,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="503" t="s">
+      <c r="A5" s="534" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="503"/>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
+      <c r="B5" s="534"/>
+      <c r="C5" s="534"/>
+      <c r="D5" s="534"/>
+      <c r="E5" s="534"/>
+      <c r="F5" s="534"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -9728,10 +9753,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="504" t="s">
+      <c r="A25" s="535" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="504"/>
+      <c r="B25" s="535"/>
       <c r="C25" s="31"/>
       <c r="D25" s="142">
         <f>C24-D24</f>
@@ -9810,13 +9835,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="521" t="s">
+      <c r="A1" s="573" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="521"/>
-      <c r="C1" s="521"/>
-      <c r="D1" s="521"/>
-      <c r="E1" s="521"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -9836,99 +9861,99 @@
       <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="522" t="s">
+      <c r="A3" s="543" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="522"/>
-      <c r="H3" s="522"/>
-      <c r="I3" s="522"/>
-      <c r="J3" s="522"/>
-      <c r="K3" s="522"/>
-      <c r="L3" s="522"/>
+      <c r="B3" s="543"/>
+      <c r="C3" s="543"/>
+      <c r="D3" s="543"/>
+      <c r="E3" s="543"/>
+      <c r="F3" s="543"/>
+      <c r="G3" s="543"/>
+      <c r="H3" s="543"/>
+      <c r="I3" s="543"/>
+      <c r="J3" s="543"/>
+      <c r="K3" s="543"/>
+      <c r="L3" s="543"/>
     </row>
     <row r="4" spans="1:12" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="523" t="s">
+      <c r="A4" s="542" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="527" t="s">
+      <c r="B4" s="566" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="523" t="s">
+      <c r="C4" s="542" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="523" t="s">
+      <c r="D4" s="542" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="523"/>
-      <c r="F4" s="526" t="s">
+      <c r="E4" s="542"/>
+      <c r="F4" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="526"/>
-      <c r="H4" s="526"/>
-      <c r="I4" s="526"/>
-      <c r="J4" s="526"/>
-      <c r="K4" s="526"/>
-      <c r="L4" s="526"/>
+      <c r="G4" s="541"/>
+      <c r="H4" s="541"/>
+      <c r="I4" s="541"/>
+      <c r="J4" s="541"/>
+      <c r="K4" s="541"/>
+      <c r="L4" s="541"/>
     </row>
     <row r="5" spans="1:12" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="523"/>
-      <c r="B5" s="527"/>
-      <c r="C5" s="523"/>
-      <c r="D5" s="523" t="s">
+      <c r="A5" s="542"/>
+      <c r="B5" s="566"/>
+      <c r="C5" s="542"/>
+      <c r="D5" s="542" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="523" t="s">
+      <c r="E5" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="523" t="s">
+      <c r="F5" s="542" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="523" t="s">
+      <c r="G5" s="542" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="524" t="s">
+      <c r="H5" s="545" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="524" t="s">
+      <c r="I5" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="525" t="s">
+      <c r="J5" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="525"/>
-      <c r="L5" s="524" t="s">
+      <c r="K5" s="544"/>
+      <c r="L5" s="545" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="523"/>
-      <c r="B6" s="527"/>
-      <c r="C6" s="523"/>
-      <c r="D6" s="523"/>
-      <c r="E6" s="523"/>
-      <c r="F6" s="523"/>
-      <c r="G6" s="523"/>
-      <c r="H6" s="524"/>
-      <c r="I6" s="524"/>
+      <c r="A6" s="542"/>
+      <c r="B6" s="566"/>
+      <c r="C6" s="542"/>
+      <c r="D6" s="542"/>
+      <c r="E6" s="542"/>
+      <c r="F6" s="542"/>
+      <c r="G6" s="542"/>
+      <c r="H6" s="545"/>
+      <c r="I6" s="545"/>
       <c r="J6" s="93" t="s">
         <v>82</v>
       </c>
       <c r="K6" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="524"/>
+      <c r="L6" s="545"/>
     </row>
     <row r="7" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="528"/>
-      <c r="B7" s="531"/>
-      <c r="C7" s="528"/>
-      <c r="D7" s="528"/>
-      <c r="E7" s="528"/>
+      <c r="A7" s="558"/>
+      <c r="B7" s="560"/>
+      <c r="C7" s="558"/>
+      <c r="D7" s="558"/>
+      <c r="E7" s="558"/>
       <c r="F7" s="224"/>
       <c r="G7" s="224"/>
       <c r="H7" s="204"/>
@@ -9938,11 +9963,11 @@
       <c r="L7" s="204"/>
     </row>
     <row r="8" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="529"/>
-      <c r="B8" s="532"/>
-      <c r="C8" s="529"/>
-      <c r="D8" s="529"/>
-      <c r="E8" s="529"/>
+      <c r="A8" s="567"/>
+      <c r="B8" s="568"/>
+      <c r="C8" s="567"/>
+      <c r="D8" s="567"/>
+      <c r="E8" s="567"/>
       <c r="F8" s="225"/>
       <c r="G8" s="225"/>
       <c r="H8" s="206"/>
@@ -9952,11 +9977,11 @@
       <c r="L8" s="206"/>
     </row>
     <row r="9" spans="1:12" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="529"/>
-      <c r="B9" s="532"/>
-      <c r="C9" s="529"/>
-      <c r="D9" s="529"/>
-      <c r="E9" s="529"/>
+      <c r="A9" s="567"/>
+      <c r="B9" s="568"/>
+      <c r="C9" s="567"/>
+      <c r="D9" s="567"/>
+      <c r="E9" s="567"/>
       <c r="F9" s="225"/>
       <c r="G9" s="225"/>
       <c r="H9" s="206"/>
@@ -9966,11 +9991,11 @@
       <c r="L9" s="206"/>
     </row>
     <row r="10" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="530"/>
-      <c r="B10" s="533"/>
-      <c r="C10" s="530"/>
-      <c r="D10" s="530"/>
-      <c r="E10" s="530"/>
+      <c r="A10" s="559"/>
+      <c r="B10" s="561"/>
+      <c r="C10" s="559"/>
+      <c r="D10" s="559"/>
+      <c r="E10" s="559"/>
       <c r="F10" s="226"/>
       <c r="G10" s="226"/>
       <c r="H10" s="208"/>
@@ -9994,11 +10019,11 @@
       <c r="L11" s="210"/>
     </row>
     <row r="12" spans="1:12" s="192" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="534"/>
-      <c r="B12" s="536"/>
-      <c r="C12" s="534"/>
-      <c r="D12" s="538"/>
-      <c r="E12" s="534"/>
+      <c r="A12" s="564"/>
+      <c r="B12" s="569"/>
+      <c r="C12" s="564"/>
+      <c r="D12" s="571"/>
+      <c r="E12" s="564"/>
       <c r="H12" s="213"/>
       <c r="I12" s="213"/>
       <c r="J12" s="213"/>
@@ -10006,11 +10031,11 @@
       <c r="L12" s="213"/>
     </row>
     <row r="13" spans="1:12" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="535"/>
-      <c r="B13" s="537"/>
-      <c r="C13" s="535"/>
-      <c r="D13" s="539"/>
-      <c r="E13" s="535"/>
+      <c r="A13" s="565"/>
+      <c r="B13" s="570"/>
+      <c r="C13" s="565"/>
+      <c r="D13" s="572"/>
+      <c r="E13" s="565"/>
       <c r="F13" s="228"/>
       <c r="G13" s="228"/>
       <c r="H13" s="215"/>
@@ -10020,14 +10045,14 @@
       <c r="L13" s="215"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="512" t="s">
+      <c r="A14" s="548" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="513"/>
-      <c r="C14" s="513"/>
-      <c r="D14" s="513"/>
-      <c r="E14" s="513"/>
-      <c r="F14" s="514"/>
+      <c r="B14" s="549"/>
+      <c r="C14" s="549"/>
+      <c r="D14" s="549"/>
+      <c r="E14" s="549"/>
+      <c r="F14" s="550"/>
       <c r="G14" s="234">
         <f>SUM(G7:G13)</f>
         <v>0</v>
@@ -10073,99 +10098,99 @@
       <c r="L16" s="255"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="522" t="s">
+      <c r="A17" s="543" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="522"/>
-      <c r="C17" s="522"/>
-      <c r="D17" s="522"/>
-      <c r="E17" s="522"/>
-      <c r="F17" s="522"/>
-      <c r="G17" s="522"/>
-      <c r="H17" s="522"/>
-      <c r="I17" s="522"/>
-      <c r="J17" s="522"/>
-      <c r="K17" s="522"/>
-      <c r="L17" s="522"/>
+      <c r="B17" s="543"/>
+      <c r="C17" s="543"/>
+      <c r="D17" s="543"/>
+      <c r="E17" s="543"/>
+      <c r="F17" s="543"/>
+      <c r="G17" s="543"/>
+      <c r="H17" s="543"/>
+      <c r="I17" s="543"/>
+      <c r="J17" s="543"/>
+      <c r="K17" s="543"/>
+      <c r="L17" s="543"/>
     </row>
     <row r="18" spans="1:13" s="90" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="523" t="s">
+      <c r="A18" s="542" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="527" t="s">
+      <c r="B18" s="566" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="523" t="s">
+      <c r="C18" s="542" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="523" t="s">
+      <c r="D18" s="542" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="523"/>
-      <c r="F18" s="526" t="s">
+      <c r="E18" s="542"/>
+      <c r="F18" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="526"/>
-      <c r="H18" s="526"/>
-      <c r="I18" s="526"/>
-      <c r="J18" s="526"/>
-      <c r="K18" s="526"/>
-      <c r="L18" s="526"/>
+      <c r="G18" s="541"/>
+      <c r="H18" s="541"/>
+      <c r="I18" s="541"/>
+      <c r="J18" s="541"/>
+      <c r="K18" s="541"/>
+      <c r="L18" s="541"/>
     </row>
     <row r="19" spans="1:13" s="90" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="523"/>
-      <c r="B19" s="527"/>
-      <c r="C19" s="523"/>
-      <c r="D19" s="523" t="s">
+      <c r="A19" s="542"/>
+      <c r="B19" s="566"/>
+      <c r="C19" s="542"/>
+      <c r="D19" s="542" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="523" t="s">
+      <c r="E19" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="523" t="s">
+      <c r="F19" s="542" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="523" t="s">
+      <c r="G19" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="524" t="s">
+      <c r="H19" s="545" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="524" t="s">
+      <c r="I19" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="525" t="s">
+      <c r="J19" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="525"/>
-      <c r="L19" s="524" t="s">
+      <c r="K19" s="544"/>
+      <c r="L19" s="545" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="90" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="523"/>
-      <c r="B20" s="527"/>
-      <c r="C20" s="523"/>
-      <c r="D20" s="523"/>
-      <c r="E20" s="523"/>
-      <c r="F20" s="523"/>
-      <c r="G20" s="523"/>
-      <c r="H20" s="524"/>
-      <c r="I20" s="524"/>
+      <c r="A20" s="542"/>
+      <c r="B20" s="566"/>
+      <c r="C20" s="542"/>
+      <c r="D20" s="542"/>
+      <c r="E20" s="542"/>
+      <c r="F20" s="542"/>
+      <c r="G20" s="542"/>
+      <c r="H20" s="545"/>
+      <c r="I20" s="545"/>
       <c r="J20" s="230" t="s">
         <v>82</v>
       </c>
       <c r="K20" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="524"/>
+      <c r="L20" s="545"/>
     </row>
     <row r="21" spans="1:13" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="528"/>
-      <c r="B21" s="531"/>
-      <c r="C21" s="528"/>
-      <c r="D21" s="540"/>
-      <c r="E21" s="528"/>
+      <c r="A21" s="558"/>
+      <c r="B21" s="560"/>
+      <c r="C21" s="558"/>
+      <c r="D21" s="562"/>
+      <c r="E21" s="558"/>
       <c r="F21" s="224"/>
       <c r="G21" s="224"/>
       <c r="H21" s="204"/>
@@ -10176,11 +10201,11 @@
       <c r="M21" s="193"/>
     </row>
     <row r="22" spans="1:13" s="192" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="530"/>
-      <c r="B22" s="533"/>
-      <c r="C22" s="530"/>
-      <c r="D22" s="541"/>
-      <c r="E22" s="530"/>
+      <c r="A22" s="559"/>
+      <c r="B22" s="561"/>
+      <c r="C22" s="559"/>
+      <c r="D22" s="563"/>
+      <c r="E22" s="559"/>
       <c r="F22" s="226"/>
       <c r="G22" s="226"/>
       <c r="H22" s="208"/>
@@ -10199,19 +10224,19 @@
       <c r="F23" s="236"/>
       <c r="G23" s="236"/>
       <c r="H23" s="236"/>
-      <c r="I23" s="542"/>
-      <c r="J23" s="542"/>
-      <c r="K23" s="542"/>
+      <c r="I23" s="547"/>
+      <c r="J23" s="547"/>
+      <c r="K23" s="547"/>
       <c r="L23" s="363"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="512" t="s">
+      <c r="A24" s="548" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="513"/>
-      <c r="C24" s="513"/>
-      <c r="D24" s="513"/>
-      <c r="E24" s="514"/>
+      <c r="B24" s="549"/>
+      <c r="C24" s="549"/>
+      <c r="D24" s="549"/>
+      <c r="E24" s="550"/>
       <c r="F24" s="239"/>
       <c r="G24" s="239">
         <f>SUM(G21:G23)</f>
@@ -10244,92 +10269,92 @@
       <c r="L25" s="254"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="522" t="s">
+      <c r="A26" s="543" t="s">
         <v>179</v>
       </c>
-      <c r="B26" s="522"/>
-      <c r="C26" s="522"/>
-      <c r="D26" s="522"/>
-      <c r="E26" s="522"/>
-      <c r="F26" s="522"/>
-      <c r="G26" s="522"/>
-      <c r="H26" s="522"/>
-      <c r="I26" s="522"/>
-      <c r="J26" s="522"/>
-      <c r="K26" s="522"/>
-      <c r="L26" s="522"/>
+      <c r="B26" s="543"/>
+      <c r="C26" s="543"/>
+      <c r="D26" s="543"/>
+      <c r="E26" s="543"/>
+      <c r="F26" s="543"/>
+      <c r="G26" s="543"/>
+      <c r="H26" s="543"/>
+      <c r="I26" s="543"/>
+      <c r="J26" s="543"/>
+      <c r="K26" s="543"/>
+      <c r="L26" s="543"/>
     </row>
     <row r="27" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="523" t="s">
+      <c r="A27" s="542" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="548" t="s">
+      <c r="B27" s="546" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="523" t="s">
+      <c r="C27" s="542" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="523" t="s">
+      <c r="D27" s="542" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="523"/>
-      <c r="F27" s="526" t="s">
+      <c r="E27" s="542"/>
+      <c r="F27" s="541" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="526"/>
-      <c r="H27" s="526"/>
-      <c r="I27" s="526"/>
-      <c r="J27" s="526"/>
-      <c r="K27" s="526"/>
-      <c r="L27" s="526"/>
+      <c r="G27" s="541"/>
+      <c r="H27" s="541"/>
+      <c r="I27" s="541"/>
+      <c r="J27" s="541"/>
+      <c r="K27" s="541"/>
+      <c r="L27" s="541"/>
     </row>
     <row r="28" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="523"/>
-      <c r="B28" s="548"/>
-      <c r="C28" s="523"/>
-      <c r="D28" s="523" t="s">
+      <c r="A28" s="542"/>
+      <c r="B28" s="546"/>
+      <c r="C28" s="542"/>
+      <c r="D28" s="542" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="523" t="s">
+      <c r="E28" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="523" t="s">
+      <c r="F28" s="542" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="523" t="s">
+      <c r="G28" s="542" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="524" t="s">
+      <c r="H28" s="545" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="524" t="s">
+      <c r="I28" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="525" t="s">
+      <c r="J28" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="525"/>
-      <c r="L28" s="524" t="s">
+      <c r="K28" s="544"/>
+      <c r="L28" s="545" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="523"/>
-      <c r="B29" s="548"/>
-      <c r="C29" s="523"/>
-      <c r="D29" s="523"/>
-      <c r="E29" s="523"/>
-      <c r="F29" s="523"/>
-      <c r="G29" s="523"/>
-      <c r="H29" s="524"/>
-      <c r="I29" s="524"/>
+      <c r="A29" s="542"/>
+      <c r="B29" s="546"/>
+      <c r="C29" s="542"/>
+      <c r="D29" s="542"/>
+      <c r="E29" s="542"/>
+      <c r="F29" s="542"/>
+      <c r="G29" s="542"/>
+      <c r="H29" s="545"/>
+      <c r="I29" s="545"/>
       <c r="J29" s="260" t="s">
         <v>82</v>
       </c>
       <c r="K29" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="524"/>
+      <c r="L29" s="545"/>
     </row>
     <row r="30" spans="1:13" s="192" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="135"/>
@@ -10363,11 +10388,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="242" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="522" t="s">
+      <c r="A32" s="543" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="522"/>
-      <c r="C32" s="522"/>
+      <c r="B32" s="543"/>
+      <c r="C32" s="543"/>
       <c r="D32" s="251"/>
       <c r="E32" s="251"/>
       <c r="F32" s="251"/>
@@ -10380,225 +10405,225 @@
       <c r="A33" s="229"/>
       <c r="B33" s="229"/>
       <c r="C33" s="229"/>
-      <c r="D33" s="545" t="s">
+      <c r="D33" s="555" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="546"/>
-      <c r="F33" s="546"/>
-      <c r="G33" s="546"/>
-      <c r="H33" s="546"/>
-      <c r="I33" s="547"/>
-      <c r="J33" s="543" t="s">
+      <c r="E33" s="556"/>
+      <c r="F33" s="556"/>
+      <c r="G33" s="556"/>
+      <c r="H33" s="556"/>
+      <c r="I33" s="557"/>
+      <c r="J33" s="553" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="544"/>
+      <c r="K33" s="554"/>
       <c r="L33" s="241"/>
     </row>
     <row r="34" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="229"/>
       <c r="B34" s="229"/>
       <c r="C34" s="229"/>
-      <c r="D34" s="509" t="s">
+      <c r="D34" s="536" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="510"/>
-      <c r="F34" s="510"/>
-      <c r="G34" s="510"/>
-      <c r="H34" s="510"/>
-      <c r="I34" s="511"/>
-      <c r="J34" s="517">
+      <c r="E34" s="537"/>
+      <c r="F34" s="537"/>
+      <c r="G34" s="537"/>
+      <c r="H34" s="537"/>
+      <c r="I34" s="538"/>
+      <c r="J34" s="539">
         <v>550415</v>
       </c>
-      <c r="K34" s="518"/>
+      <c r="K34" s="540"/>
       <c r="L34" s="241"/>
     </row>
     <row r="35" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="229"/>
       <c r="B35" s="229"/>
       <c r="C35" s="229"/>
-      <c r="D35" s="509" t="s">
+      <c r="D35" s="536" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="510"/>
-      <c r="F35" s="510"/>
-      <c r="G35" s="510"/>
-      <c r="H35" s="510"/>
-      <c r="I35" s="511"/>
-      <c r="J35" s="517">
+      <c r="E35" s="537"/>
+      <c r="F35" s="537"/>
+      <c r="G35" s="537"/>
+      <c r="H35" s="537"/>
+      <c r="I35" s="538"/>
+      <c r="J35" s="539">
         <f>L14</f>
         <v>0</v>
       </c>
-      <c r="K35" s="518"/>
+      <c r="K35" s="540"/>
       <c r="L35" s="241"/>
     </row>
     <row r="36" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="229"/>
       <c r="B36" s="229"/>
       <c r="C36" s="229"/>
-      <c r="D36" s="509" t="s">
+      <c r="D36" s="536" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="510"/>
-      <c r="F36" s="510"/>
-      <c r="G36" s="510"/>
-      <c r="H36" s="510"/>
-      <c r="I36" s="511"/>
-      <c r="J36" s="517">
+      <c r="E36" s="537"/>
+      <c r="F36" s="537"/>
+      <c r="G36" s="537"/>
+      <c r="H36" s="537"/>
+      <c r="I36" s="538"/>
+      <c r="J36" s="539">
         <f>L24</f>
         <v>0</v>
       </c>
-      <c r="K36" s="518"/>
+      <c r="K36" s="540"/>
       <c r="N36" s="243"/>
     </row>
     <row r="37" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="259"/>
       <c r="B37" s="259"/>
       <c r="C37" s="259"/>
-      <c r="D37" s="509" t="s">
+      <c r="D37" s="536" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="510"/>
-      <c r="F37" s="510"/>
-      <c r="G37" s="510"/>
-      <c r="H37" s="510"/>
-      <c r="I37" s="511"/>
-      <c r="J37" s="517">
+      <c r="E37" s="537"/>
+      <c r="F37" s="537"/>
+      <c r="G37" s="537"/>
+      <c r="H37" s="537"/>
+      <c r="I37" s="538"/>
+      <c r="J37" s="539">
         <f>L31</f>
         <v>0</v>
       </c>
-      <c r="K37" s="518"/>
+      <c r="K37" s="540"/>
       <c r="N37" s="243"/>
     </row>
     <row r="38" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="258"/>
       <c r="B38" s="258"/>
       <c r="C38" s="258"/>
-      <c r="D38" s="509" t="s">
+      <c r="D38" s="536" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="510"/>
-      <c r="F38" s="510"/>
-      <c r="G38" s="510"/>
-      <c r="H38" s="510"/>
-      <c r="I38" s="511"/>
-      <c r="J38" s="517">
+      <c r="E38" s="537"/>
+      <c r="F38" s="537"/>
+      <c r="G38" s="537"/>
+      <c r="H38" s="537"/>
+      <c r="I38" s="538"/>
+      <c r="J38" s="539">
         <v>5000000</v>
       </c>
-      <c r="K38" s="518"/>
+      <c r="K38" s="540"/>
       <c r="N38" s="243"/>
     </row>
     <row r="39" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="258"/>
       <c r="B39" s="258"/>
       <c r="C39" s="258"/>
-      <c r="D39" s="512" t="s">
+      <c r="D39" s="548" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="513"/>
-      <c r="F39" s="513"/>
-      <c r="G39" s="513"/>
-      <c r="H39" s="513"/>
-      <c r="I39" s="514"/>
-      <c r="J39" s="519">
+      <c r="E39" s="549"/>
+      <c r="F39" s="549"/>
+      <c r="G39" s="549"/>
+      <c r="H39" s="549"/>
+      <c r="I39" s="550"/>
+      <c r="J39" s="551">
         <f>SUM(J34:K38)</f>
         <v>5550415</v>
       </c>
-      <c r="K39" s="520"/>
+      <c r="K39" s="552"/>
       <c r="N39" s="243"/>
     </row>
     <row r="40" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="229"/>
       <c r="B40" s="229"/>
       <c r="C40" s="229"/>
-      <c r="D40" s="509" t="s">
+      <c r="D40" s="536" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="510"/>
-      <c r="F40" s="510"/>
-      <c r="G40" s="510"/>
-      <c r="H40" s="510"/>
-      <c r="I40" s="511"/>
-      <c r="J40" s="517" t="e">
+      <c r="E40" s="537"/>
+      <c r="F40" s="537"/>
+      <c r="G40" s="537"/>
+      <c r="H40" s="537"/>
+      <c r="I40" s="538"/>
+      <c r="J40" s="539" t="e">
         <f>'Bảng lương'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="518"/>
+      <c r="K40" s="540"/>
       <c r="L40" s="241"/>
     </row>
     <row r="41" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="258"/>
       <c r="B41" s="258"/>
       <c r="C41" s="258"/>
-      <c r="D41" s="509" t="s">
+      <c r="D41" s="536" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="510"/>
-      <c r="F41" s="510"/>
-      <c r="G41" s="510"/>
-      <c r="H41" s="510"/>
-      <c r="I41" s="511"/>
-      <c r="J41" s="517" t="e">
+      <c r="E41" s="537"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="537"/>
+      <c r="I41" s="538"/>
+      <c r="J41" s="539" t="e">
         <f>'Chi phí văn phòng'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K41" s="518"/>
+      <c r="K41" s="540"/>
       <c r="L41" s="241"/>
     </row>
     <row r="42" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="258"/>
       <c r="B42" s="258"/>
       <c r="C42" s="258"/>
-      <c r="D42" s="509" t="s">
+      <c r="D42" s="536" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="510"/>
-      <c r="F42" s="510"/>
-      <c r="G42" s="510"/>
-      <c r="H42" s="510"/>
-      <c r="I42" s="511"/>
-      <c r="J42" s="517" t="e">
+      <c r="E42" s="537"/>
+      <c r="F42" s="537"/>
+      <c r="G42" s="537"/>
+      <c r="H42" s="537"/>
+      <c r="I42" s="538"/>
+      <c r="J42" s="539" t="e">
         <f>'Chi phí văn phòng'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K42" s="518"/>
+      <c r="K42" s="540"/>
       <c r="L42" s="241"/>
     </row>
     <row r="43" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="258"/>
       <c r="B43" s="258"/>
       <c r="C43" s="258"/>
-      <c r="D43" s="512" t="s">
+      <c r="D43" s="548" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="513"/>
-      <c r="F43" s="513"/>
-      <c r="G43" s="513"/>
-      <c r="H43" s="513"/>
-      <c r="I43" s="514"/>
-      <c r="J43" s="519" t="e">
+      <c r="E43" s="549"/>
+      <c r="F43" s="549"/>
+      <c r="G43" s="549"/>
+      <c r="H43" s="549"/>
+      <c r="I43" s="550"/>
+      <c r="J43" s="551" t="e">
         <f>SUM(J40:K42)</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="520"/>
+      <c r="K43" s="552"/>
       <c r="L43" s="241"/>
     </row>
     <row r="44" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="229"/>
       <c r="B44" s="229"/>
       <c r="C44" s="229"/>
-      <c r="D44" s="515" t="s">
+      <c r="D44" s="578" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="515"/>
-      <c r="F44" s="515"/>
-      <c r="G44" s="515"/>
-      <c r="H44" s="515"/>
-      <c r="I44" s="515"/>
-      <c r="J44" s="516" t="e">
+      <c r="E44" s="578"/>
+      <c r="F44" s="578"/>
+      <c r="G44" s="578"/>
+      <c r="H44" s="578"/>
+      <c r="I44" s="578"/>
+      <c r="J44" s="579" t="e">
         <f>J39-J43</f>
         <v>#REF!</v>
       </c>
-      <c r="K44" s="516"/>
+      <c r="K44" s="579"/>
     </row>
     <row r="45" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="258"/>
@@ -10608,14 +10633,14 @@
       <c r="E45" s="244"/>
       <c r="F45" s="244"/>
       <c r="G45" s="244"/>
-      <c r="H45" s="505" t="s">
+      <c r="H45" s="574" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="505"/>
-      <c r="J45" s="506">
+      <c r="I45" s="574"/>
+      <c r="J45" s="575">
         <v>2500000</v>
       </c>
-      <c r="K45" s="506"/>
+      <c r="K45" s="575"/>
     </row>
     <row r="46" spans="1:14" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="257"/>
@@ -10625,49 +10650,95 @@
       <c r="E46" s="244"/>
       <c r="F46" s="244"/>
       <c r="G46" s="244"/>
-      <c r="H46" s="508" t="s">
+      <c r="H46" s="577" t="s">
         <v>170</v>
       </c>
-      <c r="I46" s="508"/>
-      <c r="J46" s="507" t="e">
+      <c r="I46" s="577"/>
+      <c r="J46" s="576" t="e">
         <f>J44+J45</f>
         <v>#REF!</v>
       </c>
-      <c r="K46" s="507"/>
+      <c r="K46" s="576"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
-      <c r="B47" s="522" t="s">
+      <c r="B47" s="543" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="522"/>
-      <c r="D47" s="522"/>
+      <c r="C47" s="543"/>
+      <c r="D47" s="543"/>
       <c r="E47" s="82"/>
       <c r="F47" s="82"/>
       <c r="G47" s="82"/>
       <c r="H47" s="82"/>
-      <c r="I47" s="522" t="s">
+      <c r="I47" s="543" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="522"/>
+      <c r="J47" s="543"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A32:C32"/>
@@ -10684,67 +10755,21 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -10755,7 +10780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -10768,13 +10793,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="521" t="s">
+      <c r="B1" s="573" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="521"/>
-      <c r="D1" s="521"/>
-      <c r="E1" s="521"/>
-      <c r="F1" s="521"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
+      <c r="F1" s="573"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
@@ -10794,11 +10819,11 @@
       <c r="J2" s="63"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="552" t="s">
+      <c r="B4" s="580" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="552"/>
-      <c r="D4" s="552"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="580"/>
       <c r="E4" s="147"/>
       <c r="F4" s="147"/>
     </row>
@@ -10826,11 +10851,11 @@
       <c r="F7" s="245"/>
     </row>
     <row r="8" spans="2:10" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="549" t="s">
+      <c r="B8" s="583" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="550"/>
-      <c r="D8" s="551"/>
+      <c r="C8" s="584"/>
+      <c r="D8" s="585"/>
       <c r="E8" s="245"/>
       <c r="F8" s="245"/>
     </row>
@@ -10838,10 +10863,10 @@
       <c r="B9" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="553">
+      <c r="C9" s="581">
         <v>6510000</v>
       </c>
-      <c r="D9" s="554"/>
+      <c r="D9" s="582"/>
       <c r="E9" s="245"/>
       <c r="F9" s="245"/>
     </row>
@@ -10909,12 +10934,12 @@
       <c r="F16" s="245"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="630" t="s">
+      <c r="C17" s="453" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="631" t="s">
+      <c r="C18" s="454" t="s">
         <v>275</v>
       </c>
       <c r="D18">
@@ -10922,7 +10947,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="632" t="s">
+      <c r="C19" s="455" t="s">
         <v>276</v>
       </c>
       <c r="D19">
@@ -10930,7 +10955,7 @@
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="632" t="s">
+      <c r="C20" s="455" t="s">
         <v>277</v>
       </c>
       <c r="D20">
@@ -10938,7 +10963,7 @@
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="632" t="s">
+      <c r="C21" s="455" t="s">
         <v>278</v>
       </c>
       <c r="D21">
@@ -10968,13 +10993,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="521" t="s">
+      <c r="A1" s="573" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="521"/>
-      <c r="C1" s="521"/>
-      <c r="D1" s="521"/>
-      <c r="E1" s="521"/>
+      <c r="B1" s="573"/>
+      <c r="C1" s="573"/>
+      <c r="D1" s="573"/>
+      <c r="E1" s="573"/>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -10994,81 +11019,81 @@
       <c r="I2" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="557" t="s">
+      <c r="A4" s="588" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="557"/>
-      <c r="C4" s="557"/>
-      <c r="D4" s="557"/>
-      <c r="E4" s="557"/>
-      <c r="F4" s="557"/>
-      <c r="G4" s="557"/>
-      <c r="H4" s="557"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="588"/>
+      <c r="D4" s="588"/>
+      <c r="E4" s="588"/>
+      <c r="F4" s="588"/>
+      <c r="G4" s="588"/>
+      <c r="H4" s="588"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="558" t="s">
+      <c r="A6" s="589" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="558"/>
-      <c r="C6" s="558"/>
-      <c r="D6" s="558"/>
-      <c r="E6" s="558"/>
-      <c r="F6" s="558"/>
-      <c r="G6" s="559" t="s">
+      <c r="B6" s="589"/>
+      <c r="C6" s="589"/>
+      <c r="D6" s="589"/>
+      <c r="E6" s="589"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="590" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="559"/>
+      <c r="H6" s="590"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="555" t="s">
+      <c r="A7" s="586" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="555"/>
-      <c r="C7" s="555"/>
-      <c r="D7" s="555"/>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="556"/>
+      <c r="B7" s="586"/>
+      <c r="C7" s="586"/>
+      <c r="D7" s="586"/>
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="587"/>
+      <c r="H7" s="587"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="555" t="s">
+      <c r="A8" s="586" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="555"/>
-      <c r="C8" s="555"/>
-      <c r="D8" s="555"/>
-      <c r="E8" s="555"/>
-      <c r="F8" s="555"/>
-      <c r="G8" s="556"/>
-      <c r="H8" s="556"/>
+      <c r="B8" s="586"/>
+      <c r="C8" s="586"/>
+      <c r="D8" s="586"/>
+      <c r="E8" s="586"/>
+      <c r="F8" s="586"/>
+      <c r="G8" s="587"/>
+      <c r="H8" s="587"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="509" t="s">
+      <c r="A9" s="536" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="510"/>
-      <c r="C9" s="510"/>
-      <c r="D9" s="510"/>
-      <c r="E9" s="510"/>
-      <c r="F9" s="511"/>
-      <c r="G9" s="517"/>
-      <c r="H9" s="518"/>
+      <c r="B9" s="537"/>
+      <c r="C9" s="537"/>
+      <c r="D9" s="537"/>
+      <c r="E9" s="537"/>
+      <c r="F9" s="538"/>
+      <c r="G9" s="539"/>
+      <c r="H9" s="540"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="515" t="s">
+      <c r="A10" s="578" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="515"/>
-      <c r="C10" s="515"/>
-      <c r="D10" s="515"/>
-      <c r="E10" s="515"/>
-      <c r="F10" s="515"/>
-      <c r="G10" s="516">
+      <c r="B10" s="578"/>
+      <c r="C10" s="578"/>
+      <c r="D10" s="578"/>
+      <c r="E10" s="578"/>
+      <c r="F10" s="578"/>
+      <c r="G10" s="579">
         <f>SUM(G7:H9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="516"/>
+      <c r="H10" s="579"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11624,16 +11649,16 @@
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
-      <c r="Z1" s="578" t="s">
+      <c r="Z1" s="596" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="579"/>
-      <c r="AB1" s="579"/>
-      <c r="AC1" s="579"/>
-      <c r="AD1" s="579"/>
-      <c r="AE1" s="579"/>
-      <c r="AF1" s="579"/>
-      <c r="AG1" s="580"/>
+      <c r="AA1" s="597"/>
+      <c r="AB1" s="597"/>
+      <c r="AC1" s="597"/>
+      <c r="AD1" s="597"/>
+      <c r="AE1" s="597"/>
+      <c r="AF1" s="597"/>
+      <c r="AG1" s="598"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
@@ -11643,18 +11668,18 @@
       <c r="C2" s="99"/>
       <c r="D2" s="99"/>
       <c r="E2" s="99"/>
-      <c r="Z2" s="561" t="s">
+      <c r="Z2" s="591" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="562"/>
-      <c r="AB2" s="562"/>
-      <c r="AC2" s="562"/>
-      <c r="AD2" s="562"/>
-      <c r="AE2" s="563"/>
-      <c r="AF2" s="564" t="s">
+      <c r="AA2" s="592"/>
+      <c r="AB2" s="592"/>
+      <c r="AC2" s="592"/>
+      <c r="AD2" s="592"/>
+      <c r="AE2" s="593"/>
+      <c r="AF2" s="594" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="565"/>
+      <c r="AG2" s="595"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
@@ -11664,18 +11689,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="561" t="s">
+      <c r="Z3" s="591" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="562"/>
-      <c r="AB3" s="562"/>
-      <c r="AC3" s="562"/>
-      <c r="AD3" s="562"/>
-      <c r="AE3" s="563"/>
-      <c r="AF3" s="564" t="s">
+      <c r="AA3" s="592"/>
+      <c r="AB3" s="592"/>
+      <c r="AC3" s="592"/>
+      <c r="AD3" s="592"/>
+      <c r="AE3" s="593"/>
+      <c r="AF3" s="594" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="565"/>
+      <c r="AG3" s="595"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
@@ -11688,18 +11713,18 @@
       <c r="T4" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="561" t="s">
+      <c r="Z4" s="591" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="562"/>
-      <c r="AB4" s="562"/>
-      <c r="AC4" s="562"/>
-      <c r="AD4" s="562"/>
-      <c r="AE4" s="563"/>
-      <c r="AF4" s="564" t="s">
+      <c r="AA4" s="592"/>
+      <c r="AB4" s="592"/>
+      <c r="AC4" s="592"/>
+      <c r="AD4" s="592"/>
+      <c r="AE4" s="593"/>
+      <c r="AF4" s="594" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="565"/>
+      <c r="AG4" s="595"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
@@ -11709,18 +11734,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="561" t="s">
+      <c r="Z5" s="591" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="562"/>
-      <c r="AB5" s="562"/>
-      <c r="AC5" s="562"/>
-      <c r="AD5" s="562"/>
-      <c r="AE5" s="563"/>
-      <c r="AF5" s="564" t="s">
+      <c r="AA5" s="592"/>
+      <c r="AB5" s="592"/>
+      <c r="AC5" s="592"/>
+      <c r="AD5" s="592"/>
+      <c r="AE5" s="593"/>
+      <c r="AF5" s="594" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="565"/>
+      <c r="AG5" s="595"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
@@ -11730,93 +11755,93 @@
       <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:40" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="566" t="s">
+      <c r="A7" s="600" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="566"/>
-      <c r="C7" s="566"/>
-      <c r="D7" s="566"/>
-      <c r="E7" s="566"/>
-      <c r="F7" s="566"/>
-      <c r="G7" s="566"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="566"/>
-      <c r="J7" s="566"/>
-      <c r="K7" s="566"/>
-      <c r="L7" s="566"/>
-      <c r="M7" s="566"/>
-      <c r="N7" s="566"/>
-      <c r="O7" s="566"/>
-      <c r="P7" s="566"/>
-      <c r="Q7" s="566"/>
-      <c r="R7" s="566"/>
-      <c r="S7" s="566"/>
-      <c r="T7" s="566"/>
-      <c r="U7" s="566"/>
-      <c r="V7" s="566"/>
-      <c r="W7" s="566"/>
-      <c r="X7" s="566"/>
-      <c r="Y7" s="566"/>
-      <c r="Z7" s="566"/>
-      <c r="AA7" s="566"/>
-      <c r="AB7" s="566"/>
-      <c r="AC7" s="566"/>
-      <c r="AD7" s="566"/>
-      <c r="AE7" s="566"/>
-      <c r="AF7" s="566"/>
-      <c r="AG7" s="566"/>
-      <c r="AH7" s="566"/>
-      <c r="AI7" s="566"/>
-      <c r="AJ7" s="566"/>
-      <c r="AK7" s="566"/>
-      <c r="AL7" s="566"/>
-      <c r="AM7" s="566"/>
+      <c r="B7" s="600"/>
+      <c r="C7" s="600"/>
+      <c r="D7" s="600"/>
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="600"/>
+      <c r="J7" s="600"/>
+      <c r="K7" s="600"/>
+      <c r="L7" s="600"/>
+      <c r="M7" s="600"/>
+      <c r="N7" s="600"/>
+      <c r="O7" s="600"/>
+      <c r="P7" s="600"/>
+      <c r="Q7" s="600"/>
+      <c r="R7" s="600"/>
+      <c r="S7" s="600"/>
+      <c r="T7" s="600"/>
+      <c r="U7" s="600"/>
+      <c r="V7" s="600"/>
+      <c r="W7" s="600"/>
+      <c r="X7" s="600"/>
+      <c r="Y7" s="600"/>
+      <c r="Z7" s="600"/>
+      <c r="AA7" s="600"/>
+      <c r="AB7" s="600"/>
+      <c r="AC7" s="600"/>
+      <c r="AD7" s="600"/>
+      <c r="AE7" s="600"/>
+      <c r="AF7" s="600"/>
+      <c r="AG7" s="600"/>
+      <c r="AH7" s="600"/>
+      <c r="AI7" s="600"/>
+      <c r="AJ7" s="600"/>
+      <c r="AK7" s="600"/>
+      <c r="AL7" s="600"/>
+      <c r="AM7" s="600"/>
       <c r="AN7" s="102"/>
     </row>
     <row r="9" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="567" t="s">
+      <c r="A9" s="601" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="567" t="s">
+      <c r="B9" s="601" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="567" t="s">
+      <c r="C9" s="601" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="570" t="s">
+      <c r="D9" s="604" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="571"/>
-      <c r="F9" s="571"/>
-      <c r="G9" s="571"/>
-      <c r="H9" s="571"/>
-      <c r="I9" s="571"/>
-      <c r="J9" s="571"/>
-      <c r="K9" s="571"/>
-      <c r="L9" s="571"/>
-      <c r="M9" s="571"/>
-      <c r="N9" s="571"/>
-      <c r="O9" s="571"/>
-      <c r="P9" s="571"/>
-      <c r="Q9" s="571"/>
-      <c r="R9" s="571"/>
-      <c r="S9" s="571"/>
-      <c r="T9" s="571"/>
-      <c r="U9" s="571"/>
-      <c r="V9" s="571"/>
-      <c r="W9" s="571"/>
-      <c r="X9" s="571"/>
-      <c r="Y9" s="571"/>
-      <c r="Z9" s="571"/>
-      <c r="AA9" s="571"/>
-      <c r="AB9" s="571"/>
-      <c r="AC9" s="571"/>
-      <c r="AD9" s="571"/>
-      <c r="AE9" s="571"/>
-      <c r="AF9" s="571"/>
-      <c r="AG9" s="571"/>
-      <c r="AH9" s="572"/>
-      <c r="AI9" s="573" t="s">
+      <c r="E9" s="605"/>
+      <c r="F9" s="605"/>
+      <c r="G9" s="605"/>
+      <c r="H9" s="605"/>
+      <c r="I9" s="605"/>
+      <c r="J9" s="605"/>
+      <c r="K9" s="605"/>
+      <c r="L9" s="605"/>
+      <c r="M9" s="605"/>
+      <c r="N9" s="605"/>
+      <c r="O9" s="605"/>
+      <c r="P9" s="605"/>
+      <c r="Q9" s="605"/>
+      <c r="R9" s="605"/>
+      <c r="S9" s="605"/>
+      <c r="T9" s="605"/>
+      <c r="U9" s="605"/>
+      <c r="V9" s="605"/>
+      <c r="W9" s="605"/>
+      <c r="X9" s="605"/>
+      <c r="Y9" s="605"/>
+      <c r="Z9" s="605"/>
+      <c r="AA9" s="605"/>
+      <c r="AB9" s="605"/>
+      <c r="AC9" s="605"/>
+      <c r="AD9" s="605"/>
+      <c r="AE9" s="605"/>
+      <c r="AF9" s="605"/>
+      <c r="AG9" s="605"/>
+      <c r="AH9" s="606"/>
+      <c r="AI9" s="607" t="s">
         <v>99</v>
       </c>
       <c r="AJ9" s="104"/>
@@ -11826,9 +11851,9 @@
       <c r="AN9" s="107"/>
     </row>
     <row r="10" spans="1:40" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="568"/>
-      <c r="B10" s="568"/>
-      <c r="C10" s="568"/>
+      <c r="A10" s="602"/>
+      <c r="B10" s="602"/>
+      <c r="C10" s="602"/>
       <c r="D10" s="109">
         <v>1</v>
       </c>
@@ -11922,7 +11947,7 @@
       <c r="AH10" s="109">
         <v>31</v>
       </c>
-      <c r="AI10" s="573"/>
+      <c r="AI10" s="607"/>
       <c r="AJ10" s="110"/>
       <c r="AK10" s="106"/>
       <c r="AL10" s="106"/>
@@ -11930,9 +11955,9 @@
       <c r="AN10" s="107"/>
     </row>
     <row r="11" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="569"/>
-      <c r="B11" s="569"/>
-      <c r="C11" s="569"/>
+      <c r="A11" s="603"/>
+      <c r="B11" s="603"/>
+      <c r="C11" s="603"/>
       <c r="D11" s="109" t="s">
         <v>105</v>
       </c>
@@ -12026,7 +12051,7 @@
       <c r="AH11" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="AI11" s="573"/>
+      <c r="AI11" s="607"/>
       <c r="AJ11" s="113"/>
       <c r="AN11" s="115"/>
     </row>
@@ -12347,10 +12372,10 @@
       <c r="AN14" s="115"/>
     </row>
     <row r="15" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="574" t="s">
+      <c r="A15" s="608" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="575"/>
+      <c r="B15" s="609"/>
       <c r="C15" s="117"/>
       <c r="D15" s="117"/>
       <c r="E15" s="118"/>
@@ -12393,49 +12418,49 @@
       <c r="AN15" s="115"/>
     </row>
     <row r="17" spans="1:40" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="576" t="s">
+      <c r="A17" s="610" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="576"/>
-      <c r="C17" s="576"/>
-      <c r="D17" s="576"/>
-      <c r="E17" s="576"/>
-      <c r="F17" s="576"/>
-      <c r="G17" s="576"/>
+      <c r="B17" s="610"/>
+      <c r="C17" s="610"/>
+      <c r="D17" s="610"/>
+      <c r="E17" s="610"/>
+      <c r="F17" s="610"/>
+      <c r="G17" s="610"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="577"/>
-      <c r="J17" s="577"/>
-      <c r="K17" s="577"/>
-      <c r="L17" s="577"/>
-      <c r="M17" s="577"/>
+      <c r="I17" s="611"/>
+      <c r="J17" s="611"/>
+      <c r="K17" s="611"/>
+      <c r="L17" s="611"/>
+      <c r="M17" s="611"/>
       <c r="N17" s="123"/>
-      <c r="O17" s="577" t="s">
+      <c r="O17" s="611" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="577"/>
-      <c r="Q17" s="577"/>
-      <c r="R17" s="577"/>
-      <c r="S17" s="577"/>
-      <c r="T17" s="577"/>
-      <c r="U17" s="577"/>
-      <c r="V17" s="577"/>
-      <c r="W17" s="577"/>
-      <c r="X17" s="577"/>
-      <c r="Y17" s="577"/>
+      <c r="P17" s="611"/>
+      <c r="Q17" s="611"/>
+      <c r="R17" s="611"/>
+      <c r="S17" s="611"/>
+      <c r="T17" s="611"/>
+      <c r="U17" s="611"/>
+      <c r="V17" s="611"/>
+      <c r="W17" s="611"/>
+      <c r="X17" s="611"/>
+      <c r="Y17" s="611"/>
       <c r="Z17" s="124"/>
       <c r="AA17" s="124"/>
       <c r="AB17" s="125"/>
-      <c r="AC17" s="577"/>
-      <c r="AD17" s="577"/>
-      <c r="AE17" s="577"/>
-      <c r="AF17" s="577"/>
-      <c r="AG17" s="577"/>
-      <c r="AH17" s="577"/>
-      <c r="AI17" s="577"/>
-      <c r="AJ17" s="577"/>
-      <c r="AK17" s="577"/>
-      <c r="AL17" s="577"/>
-      <c r="AM17" s="577"/>
+      <c r="AC17" s="611"/>
+      <c r="AD17" s="611"/>
+      <c r="AE17" s="611"/>
+      <c r="AF17" s="611"/>
+      <c r="AG17" s="611"/>
+      <c r="AH17" s="611"/>
+      <c r="AI17" s="611"/>
+      <c r="AJ17" s="611"/>
+      <c r="AK17" s="611"/>
+      <c r="AL17" s="611"/>
+      <c r="AM17" s="611"/>
       <c r="AN17" s="126"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12469,131 +12494,131 @@
       <c r="AN32" s="131"/>
     </row>
     <row r="33" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="560"/>
-      <c r="H33" s="560"/>
-      <c r="I33" s="560"/>
-      <c r="J33" s="560"/>
-      <c r="K33" s="560"/>
-      <c r="L33" s="560"/>
-      <c r="M33" s="560"/>
-      <c r="N33" s="560"/>
-      <c r="O33" s="560"/>
-      <c r="P33" s="560"/>
-      <c r="Q33" s="560"/>
-      <c r="R33" s="560"/>
-      <c r="S33" s="560"/>
-      <c r="T33" s="560"/>
-      <c r="U33" s="560"/>
-      <c r="V33" s="560"/>
-      <c r="W33" s="560"/>
-      <c r="X33" s="560"/>
+      <c r="G33" s="599"/>
+      <c r="H33" s="599"/>
+      <c r="I33" s="599"/>
+      <c r="J33" s="599"/>
+      <c r="K33" s="599"/>
+      <c r="L33" s="599"/>
+      <c r="M33" s="599"/>
+      <c r="N33" s="599"/>
+      <c r="O33" s="599"/>
+      <c r="P33" s="599"/>
+      <c r="Q33" s="599"/>
+      <c r="R33" s="599"/>
+      <c r="S33" s="599"/>
+      <c r="T33" s="599"/>
+      <c r="U33" s="599"/>
+      <c r="V33" s="599"/>
+      <c r="W33" s="599"/>
+      <c r="X33" s="599"/>
       <c r="AN33" s="131"/>
     </row>
     <row r="34" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="560"/>
-      <c r="H34" s="560"/>
-      <c r="I34" s="560"/>
-      <c r="J34" s="560"/>
-      <c r="K34" s="560"/>
-      <c r="L34" s="560"/>
-      <c r="M34" s="560"/>
-      <c r="N34" s="560"/>
-      <c r="O34" s="560"/>
-      <c r="P34" s="560"/>
-      <c r="Q34" s="560"/>
-      <c r="R34" s="560"/>
-      <c r="S34" s="560"/>
-      <c r="T34" s="560"/>
-      <c r="U34" s="560"/>
-      <c r="V34" s="560"/>
-      <c r="W34" s="560"/>
-      <c r="X34" s="560"/>
+      <c r="G34" s="599"/>
+      <c r="H34" s="599"/>
+      <c r="I34" s="599"/>
+      <c r="J34" s="599"/>
+      <c r="K34" s="599"/>
+      <c r="L34" s="599"/>
+      <c r="M34" s="599"/>
+      <c r="N34" s="599"/>
+      <c r="O34" s="599"/>
+      <c r="P34" s="599"/>
+      <c r="Q34" s="599"/>
+      <c r="R34" s="599"/>
+      <c r="S34" s="599"/>
+      <c r="T34" s="599"/>
+      <c r="U34" s="599"/>
+      <c r="V34" s="599"/>
+      <c r="W34" s="599"/>
+      <c r="X34" s="599"/>
       <c r="AN34" s="131"/>
     </row>
     <row r="35" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="560"/>
-      <c r="H35" s="560"/>
-      <c r="I35" s="560"/>
-      <c r="J35" s="560"/>
-      <c r="K35" s="560"/>
-      <c r="L35" s="560"/>
-      <c r="M35" s="560"/>
-      <c r="N35" s="560"/>
-      <c r="O35" s="560"/>
-      <c r="P35" s="560"/>
-      <c r="Q35" s="560"/>
-      <c r="R35" s="560"/>
-      <c r="S35" s="560"/>
-      <c r="T35" s="560"/>
-      <c r="U35" s="560"/>
-      <c r="V35" s="560"/>
-      <c r="W35" s="560"/>
-      <c r="X35" s="560"/>
+      <c r="G35" s="599"/>
+      <c r="H35" s="599"/>
+      <c r="I35" s="599"/>
+      <c r="J35" s="599"/>
+      <c r="K35" s="599"/>
+      <c r="L35" s="599"/>
+      <c r="M35" s="599"/>
+      <c r="N35" s="599"/>
+      <c r="O35" s="599"/>
+      <c r="P35" s="599"/>
+      <c r="Q35" s="599"/>
+      <c r="R35" s="599"/>
+      <c r="S35" s="599"/>
+      <c r="T35" s="599"/>
+      <c r="U35" s="599"/>
+      <c r="V35" s="599"/>
+      <c r="W35" s="599"/>
+      <c r="X35" s="599"/>
       <c r="AN35" s="131"/>
     </row>
     <row r="36" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="560"/>
-      <c r="H36" s="560"/>
-      <c r="I36" s="560"/>
-      <c r="J36" s="560"/>
-      <c r="K36" s="560"/>
-      <c r="L36" s="560"/>
-      <c r="M36" s="560"/>
-      <c r="N36" s="560"/>
-      <c r="O36" s="560"/>
-      <c r="P36" s="560"/>
-      <c r="Q36" s="560"/>
-      <c r="R36" s="560"/>
-      <c r="S36" s="560"/>
-      <c r="T36" s="560"/>
-      <c r="U36" s="560"/>
-      <c r="V36" s="560"/>
-      <c r="W36" s="560"/>
-      <c r="X36" s="560"/>
+      <c r="G36" s="599"/>
+      <c r="H36" s="599"/>
+      <c r="I36" s="599"/>
+      <c r="J36" s="599"/>
+      <c r="K36" s="599"/>
+      <c r="L36" s="599"/>
+      <c r="M36" s="599"/>
+      <c r="N36" s="599"/>
+      <c r="O36" s="599"/>
+      <c r="P36" s="599"/>
+      <c r="Q36" s="599"/>
+      <c r="R36" s="599"/>
+      <c r="S36" s="599"/>
+      <c r="T36" s="599"/>
+      <c r="U36" s="599"/>
+      <c r="V36" s="599"/>
+      <c r="W36" s="599"/>
+      <c r="X36" s="599"/>
       <c r="AN36" s="131"/>
     </row>
     <row r="37" spans="3:40" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="560"/>
-      <c r="H37" s="560"/>
-      <c r="I37" s="560"/>
-      <c r="J37" s="560"/>
-      <c r="K37" s="560"/>
-      <c r="L37" s="560"/>
-      <c r="M37" s="560"/>
-      <c r="N37" s="560"/>
-      <c r="O37" s="560"/>
-      <c r="P37" s="560"/>
-      <c r="Q37" s="560"/>
-      <c r="R37" s="560"/>
-      <c r="S37" s="560"/>
-      <c r="T37" s="560"/>
-      <c r="U37" s="560"/>
-      <c r="V37" s="560"/>
-      <c r="W37" s="560"/>
-      <c r="X37" s="560"/>
+      <c r="G37" s="599"/>
+      <c r="H37" s="599"/>
+      <c r="I37" s="599"/>
+      <c r="J37" s="599"/>
+      <c r="K37" s="599"/>
+      <c r="L37" s="599"/>
+      <c r="M37" s="599"/>
+      <c r="N37" s="599"/>
+      <c r="O37" s="599"/>
+      <c r="P37" s="599"/>
+      <c r="Q37" s="599"/>
+      <c r="R37" s="599"/>
+      <c r="S37" s="599"/>
+      <c r="T37" s="599"/>
+      <c r="U37" s="599"/>
+      <c r="V37" s="599"/>
+      <c r="W37" s="599"/>
+      <c r="X37" s="599"/>
       <c r="AN37" s="131"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
-      <c r="G38" s="560"/>
-      <c r="H38" s="560"/>
-      <c r="I38" s="560"/>
-      <c r="J38" s="560"/>
-      <c r="K38" s="560"/>
-      <c r="L38" s="560"/>
-      <c r="M38" s="560"/>
-      <c r="N38" s="560"/>
-      <c r="O38" s="560"/>
-      <c r="P38" s="560"/>
-      <c r="Q38" s="560"/>
-      <c r="R38" s="560"/>
-      <c r="S38" s="560"/>
-      <c r="T38" s="560"/>
-      <c r="U38" s="560"/>
-      <c r="V38" s="560"/>
-      <c r="W38" s="560"/>
-      <c r="X38" s="560"/>
+      <c r="G38" s="599"/>
+      <c r="H38" s="599"/>
+      <c r="I38" s="599"/>
+      <c r="J38" s="599"/>
+      <c r="K38" s="599"/>
+      <c r="L38" s="599"/>
+      <c r="M38" s="599"/>
+      <c r="N38" s="599"/>
+      <c r="O38" s="599"/>
+      <c r="P38" s="599"/>
+      <c r="Q38" s="599"/>
+      <c r="R38" s="599"/>
+      <c r="S38" s="599"/>
+      <c r="T38" s="599"/>
+      <c r="U38" s="599"/>
+      <c r="V38" s="599"/>
+      <c r="W38" s="599"/>
+      <c r="X38" s="599"/>
       <c r="AN38" s="96"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12603,13 +12628,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12624,6 +12642,13 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -13483,40 +13508,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="588" t="s">
+      <c r="A1" s="612" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="588"/>
-      <c r="C1" s="588"/>
-      <c r="D1" s="588"/>
+      <c r="B1" s="612"/>
+      <c r="C1" s="612"/>
+      <c r="D1" s="612"/>
       <c r="E1" s="161"/>
-      <c r="F1" s="589" t="s">
+      <c r="F1" s="613" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="589"/>
-      <c r="H1" s="589"/>
-      <c r="I1" s="589"/>
-      <c r="J1" s="589"/>
-      <c r="K1" s="589"/>
-      <c r="L1" s="589"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
     </row>
     <row r="2" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="590" t="s">
+      <c r="A2" s="614" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="590"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="590"/>
+      <c r="B2" s="614"/>
+      <c r="C2" s="614"/>
+      <c r="D2" s="614"/>
       <c r="E2" s="161"/>
-      <c r="F2" s="591" t="s">
+      <c r="F2" s="615" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="591"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="591"/>
-      <c r="J2" s="591"/>
-      <c r="K2" s="591"/>
-      <c r="L2" s="591"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="615"/>
+      <c r="J2" s="615"/>
+      <c r="K2" s="615"/>
+      <c r="L2" s="615"/>
     </row>
     <row r="3" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="163"/>
@@ -13530,45 +13555,45 @@
       <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="581" t="s">
+      <c r="A4" s="616" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="581"/>
-      <c r="C4" s="581"/>
-      <c r="D4" s="581"/>
-      <c r="E4" s="581"/>
-      <c r="F4" s="581"/>
-      <c r="G4" s="581"/>
-      <c r="H4" s="581"/>
-      <c r="I4" s="581"/>
-      <c r="J4" s="581"/>
-      <c r="K4" s="581"/>
-      <c r="L4" s="581"/>
-      <c r="M4" s="581"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="616"/>
+      <c r="E4" s="616"/>
+      <c r="F4" s="616"/>
+      <c r="G4" s="616"/>
+      <c r="H4" s="616"/>
+      <c r="I4" s="616"/>
+      <c r="J4" s="616"/>
+      <c r="K4" s="616"/>
+      <c r="L4" s="616"/>
+      <c r="M4" s="616"/>
     </row>
     <row r="5" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="581" t="s">
+      <c r="A5" s="616" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="581"/>
-      <c r="C5" s="581"/>
-      <c r="D5" s="581"/>
-      <c r="E5" s="581"/>
-      <c r="F5" s="581"/>
-      <c r="G5" s="581"/>
-      <c r="H5" s="581"/>
-      <c r="I5" s="581"/>
-      <c r="J5" s="581"/>
-      <c r="K5" s="581"/>
-      <c r="L5" s="581"/>
-      <c r="M5" s="581"/>
+      <c r="B5" s="616"/>
+      <c r="C5" s="616"/>
+      <c r="D5" s="616"/>
+      <c r="E5" s="616"/>
+      <c r="F5" s="616"/>
+      <c r="G5" s="616"/>
+      <c r="H5" s="616"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="616"/>
+      <c r="K5" s="616"/>
+      <c r="L5" s="616"/>
+      <c r="M5" s="616"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="582" t="s">
+      <c r="K6" s="617" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="582"/>
-      <c r="M6" s="582"/>
+      <c r="L6" s="617"/>
+      <c r="M6" s="617"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -13639,10 +13664,10 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="583" t="s">
+      <c r="A9" s="618" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="584"/>
+      <c r="B9" s="619"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="49"/>
@@ -13761,11 +13786,11 @@
       <c r="P12" s="91"/>
     </row>
     <row r="13" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="585" t="s">
+      <c r="A13" s="620" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="586"/>
-      <c r="C13" s="587"/>
+      <c r="B13" s="621"/>
+      <c r="C13" s="622"/>
       <c r="D13" s="143">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13790,14 +13815,14 @@
       <c r="M13" s="167"/>
     </row>
     <row r="15" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="581"/>
-      <c r="C15" s="581"/>
-      <c r="D15" s="581"/>
+      <c r="B15" s="616"/>
+      <c r="C15" s="616"/>
+      <c r="D15" s="616"/>
       <c r="E15" s="144"/>
-      <c r="I15" s="581"/>
-      <c r="J15" s="581"/>
-      <c r="K15" s="581"/>
-      <c r="L15" s="581"/>
+      <c r="I15" s="616"/>
+      <c r="J15" s="616"/>
+      <c r="K15" s="616"/>
+      <c r="L15" s="616"/>
     </row>
     <row r="16" spans="1:16" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="168" t="s">
@@ -13843,17 +13868,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2579,16 +2579,115 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2609,107 +2708,38 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2735,39 +2765,9 @@
     <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2777,23 +2777,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2814,56 +2817,53 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2927,33 +2927,24 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2990,6 +2981,36 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2997,27 +3018,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4983,9 +4983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5010,13 +5010,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="431" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="433"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
       <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5030,156 +5030,156 @@
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="432" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="434"/>
-      <c r="C3" s="434"/>
-      <c r="D3" s="434"/>
-      <c r="E3" s="434"/>
-      <c r="F3" s="434"/>
-      <c r="G3" s="434"/>
-      <c r="H3" s="434"/>
-      <c r="I3" s="434"/>
-      <c r="J3" s="434"/>
-      <c r="K3" s="434"/>
-      <c r="L3" s="434"/>
-      <c r="M3" s="434"/>
-      <c r="N3" s="434"/>
-      <c r="O3" s="434"/>
-      <c r="P3" s="434"/>
+      <c r="B3" s="432"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="432"/>
+      <c r="G3" s="432"/>
+      <c r="H3" s="432"/>
+      <c r="I3" s="432"/>
+      <c r="J3" s="432"/>
+      <c r="K3" s="432"/>
+      <c r="L3" s="432"/>
+      <c r="M3" s="432"/>
+      <c r="N3" s="432"/>
+      <c r="O3" s="432"/>
+      <c r="P3" s="432"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="434" t="s">
+      <c r="A4" s="432" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="434"/>
-      <c r="C4" s="434"/>
-      <c r="D4" s="434"/>
-      <c r="E4" s="434"/>
-      <c r="F4" s="434"/>
-      <c r="G4" s="434"/>
-      <c r="H4" s="434"/>
-      <c r="I4" s="434"/>
-      <c r="J4" s="434"/>
-      <c r="K4" s="434"/>
-      <c r="L4" s="434"/>
-      <c r="M4" s="434"/>
-      <c r="N4" s="434"/>
-      <c r="O4" s="434"/>
-      <c r="P4" s="434"/>
+      <c r="B4" s="432"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="432"/>
+      <c r="F4" s="432"/>
+      <c r="G4" s="432"/>
+      <c r="H4" s="432"/>
+      <c r="I4" s="432"/>
+      <c r="J4" s="432"/>
+      <c r="K4" s="432"/>
+      <c r="L4" s="432"/>
+      <c r="M4" s="432"/>
+      <c r="N4" s="432"/>
+      <c r="O4" s="432"/>
+      <c r="P4" s="432"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="434"/>
-      <c r="B5" s="434"/>
-      <c r="C5" s="434"/>
-      <c r="D5" s="434"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="434"/>
-      <c r="H5" s="434"/>
-      <c r="I5" s="434"/>
-      <c r="J5" s="434"/>
-      <c r="K5" s="435"/>
-      <c r="L5" s="435"/>
+      <c r="A5" s="432"/>
+      <c r="B5" s="432"/>
+      <c r="C5" s="432"/>
+      <c r="D5" s="432"/>
+      <c r="E5" s="432"/>
+      <c r="F5" s="432"/>
+      <c r="G5" s="432"/>
+      <c r="H5" s="432"/>
+      <c r="I5" s="432"/>
+      <c r="J5" s="432"/>
+      <c r="K5" s="433"/>
+      <c r="L5" s="433"/>
     </row>
     <row r="6" spans="1:17" s="144" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="436" t="s">
+      <c r="A6" s="426" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="438" t="s">
+      <c r="B6" s="434" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="436" t="s">
+      <c r="C6" s="426" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="442" t="s">
+      <c r="D6" s="436" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="443" t="s">
+      <c r="E6" s="436"/>
+      <c r="F6" s="437" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="443"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="443"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="443"/>
-      <c r="L6" s="443"/>
-      <c r="M6" s="444"/>
-      <c r="N6" s="444"/>
-      <c r="O6" s="444"/>
-      <c r="P6" s="445" t="s">
+      <c r="G6" s="437"/>
+      <c r="H6" s="437"/>
+      <c r="I6" s="437"/>
+      <c r="J6" s="437"/>
+      <c r="K6" s="437"/>
+      <c r="L6" s="437"/>
+      <c r="M6" s="438"/>
+      <c r="N6" s="438"/>
+      <c r="O6" s="438"/>
+      <c r="P6" s="439" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="144" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="437"/>
-      <c r="B7" s="439"/>
-      <c r="C7" s="437"/>
-      <c r="D7" s="436" t="s">
+      <c r="A7" s="427"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="427"/>
+      <c r="D7" s="426" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="436" t="s">
+      <c r="E7" s="426" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="436" t="s">
+      <c r="F7" s="426" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="436" t="s">
+      <c r="G7" s="426" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="440" t="s">
+      <c r="H7" s="424" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="440" t="s">
+      <c r="I7" s="424" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="447" t="s">
+      <c r="J7" s="428" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="447"/>
-      <c r="L7" s="440" t="s">
+      <c r="K7" s="428"/>
+      <c r="L7" s="424" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="440" t="s">
+      <c r="M7" s="424" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="440" t="s">
+      <c r="N7" s="424" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="440" t="s">
+      <c r="O7" s="424" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="446"/>
+      <c r="P7" s="440"/>
     </row>
     <row r="8" spans="1:17" s="144" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="437"/>
-      <c r="B8" s="439"/>
-      <c r="C8" s="437"/>
-      <c r="D8" s="437"/>
-      <c r="E8" s="437"/>
-      <c r="F8" s="437"/>
-      <c r="G8" s="437"/>
-      <c r="H8" s="441"/>
-      <c r="I8" s="441"/>
+      <c r="A8" s="427"/>
+      <c r="B8" s="435"/>
+      <c r="C8" s="427"/>
+      <c r="D8" s="427"/>
+      <c r="E8" s="427"/>
+      <c r="F8" s="427"/>
+      <c r="G8" s="427"/>
+      <c r="H8" s="425"/>
+      <c r="I8" s="425"/>
       <c r="J8" s="179" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="441"/>
-      <c r="M8" s="441"/>
-      <c r="N8" s="441"/>
-      <c r="O8" s="441"/>
-      <c r="P8" s="446"/>
+      <c r="L8" s="425"/>
+      <c r="M8" s="425"/>
+      <c r="N8" s="425"/>
+      <c r="O8" s="425"/>
+      <c r="P8" s="440"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="422">
+      <c r="A9" s="447">
         <v>785</v>
       </c>
-      <c r="B9" s="425">
+      <c r="B9" s="445">
         <v>44077</v>
       </c>
       <c r="C9" s="410"/>
@@ -5221,11 +5221,11 @@
       <c r="P9" s="217"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="423"/>
-      <c r="B10" s="426"/>
-      <c r="C10" s="412"/>
-      <c r="D10" s="412"/>
-      <c r="E10" s="412"/>
+      <c r="A10" s="448"/>
+      <c r="B10" s="446"/>
+      <c r="C10" s="420"/>
+      <c r="D10" s="420"/>
+      <c r="E10" s="420"/>
       <c r="F10" s="219" t="s">
         <v>127</v>
       </c>
@@ -5286,17 +5286,17 @@
       </c>
       <c r="J11" s="180"/>
       <c r="K11" s="181">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L11" s="180">
         <f t="shared" ref="L11:L38" si="1">I11*(1-K11)</f>
-        <v>5460000</v>
+        <v>6770400</v>
       </c>
       <c r="M11" s="180"/>
       <c r="N11" s="180"/>
       <c r="O11" s="180">
         <f>L11</f>
-        <v>5460000</v>
+        <v>6770400</v>
       </c>
       <c r="P11" s="177"/>
       <c r="Q11" s="184"/>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="J12" s="182"/>
       <c r="K12" s="183">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L12" s="182">
         <f t="shared" si="1"/>
-        <v>2790000</v>
+        <v>3459600</v>
       </c>
       <c r="M12" s="182"/>
       <c r="N12" s="182"/>
       <c r="O12" s="182">
         <f t="shared" ref="O12:O14" si="2">L12</f>
-        <v>2790000</v>
+        <v>3459600</v>
       </c>
       <c r="P12" s="175"/>
     </row>
@@ -5357,26 +5357,26 @@
       </c>
       <c r="J13" s="182"/>
       <c r="K13" s="183">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L13" s="182">
         <f t="shared" si="1"/>
-        <v>3060000</v>
+        <v>3794400</v>
       </c>
       <c r="M13" s="182"/>
       <c r="N13" s="182"/>
       <c r="O13" s="182">
         <f t="shared" si="2"/>
-        <v>3060000</v>
+        <v>3794400</v>
       </c>
       <c r="P13" s="218"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="412"/>
-      <c r="B14" s="415"/>
-      <c r="C14" s="412"/>
-      <c r="D14" s="412"/>
-      <c r="E14" s="412"/>
+      <c r="A14" s="420"/>
+      <c r="B14" s="421"/>
+      <c r="C14" s="420"/>
+      <c r="D14" s="420"/>
+      <c r="E14" s="420"/>
       <c r="F14" s="219" t="s">
         <v>124</v>
       </c>
@@ -5392,17 +5392,17 @@
       </c>
       <c r="J14" s="185"/>
       <c r="K14" s="186">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L14" s="185">
         <f t="shared" si="1"/>
-        <v>2910000</v>
+        <v>3608400</v>
       </c>
       <c r="M14" s="185"/>
       <c r="N14" s="185"/>
       <c r="O14" s="185">
         <f t="shared" si="2"/>
-        <v>2910000</v>
+        <v>3608400</v>
       </c>
       <c r="P14" s="219"/>
     </row>
@@ -5549,10 +5549,10 @@
       <c r="C18" s="410" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="448" t="s">
+      <c r="D18" s="416" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="448" t="s">
+      <c r="E18" s="416" t="s">
         <v>148</v>
       </c>
       <c r="F18" s="332" t="s">
@@ -5570,26 +5570,26 @@
       </c>
       <c r="J18" s="180"/>
       <c r="K18" s="181">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L18" s="180">
         <f t="shared" si="1"/>
-        <v>1012500</v>
+        <v>1255500</v>
       </c>
       <c r="M18" s="180"/>
       <c r="N18" s="180"/>
       <c r="O18" s="180">
         <f t="shared" si="3"/>
-        <v>1012500</v>
+        <v>1255500</v>
       </c>
       <c r="P18" s="339"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
-      <c r="B19" s="415"/>
-      <c r="C19" s="412"/>
-      <c r="D19" s="450"/>
-      <c r="E19" s="450"/>
+      <c r="A19" s="420"/>
+      <c r="B19" s="421"/>
+      <c r="C19" s="420"/>
+      <c r="D19" s="419"/>
+      <c r="E19" s="419"/>
       <c r="F19" s="333" t="s">
         <v>125</v>
       </c>
@@ -5605,17 +5605,17 @@
       </c>
       <c r="J19" s="185"/>
       <c r="K19" s="186">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="L19" s="185">
         <f t="shared" si="1"/>
-        <v>8190000</v>
+        <v>10155600</v>
       </c>
       <c r="M19" s="185"/>
       <c r="N19" s="185"/>
       <c r="O19" s="185">
         <f t="shared" si="3"/>
-        <v>8190000</v>
+        <v>10155600</v>
       </c>
       <c r="P19" s="340"/>
     </row>
@@ -5627,10 +5627,10 @@
         <v>44088</v>
       </c>
       <c r="C20" s="410"/>
-      <c r="D20" s="448" t="s">
+      <c r="D20" s="416" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="451"/>
+      <c r="E20" s="422"/>
       <c r="F20" s="317" t="s">
         <v>125</v>
       </c>
@@ -5661,11 +5661,11 @@
       <c r="P20" s="319"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="412"/>
-      <c r="B21" s="415"/>
-      <c r="C21" s="412"/>
-      <c r="D21" s="450"/>
-      <c r="E21" s="452"/>
+      <c r="A21" s="420"/>
+      <c r="B21" s="421"/>
+      <c r="C21" s="420"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="423"/>
       <c r="F21" s="318" t="s">
         <v>126</v>
       </c>
@@ -5750,10 +5750,10 @@
       <c r="C23" s="410" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="448" t="s">
+      <c r="D23" s="416" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="448"/>
+      <c r="E23" s="416"/>
       <c r="F23" s="332" t="s">
         <v>125</v>
       </c>
@@ -5787,8 +5787,8 @@
       <c r="A24" s="411"/>
       <c r="B24" s="414"/>
       <c r="C24" s="411"/>
-      <c r="D24" s="449"/>
-      <c r="E24" s="449"/>
+      <c r="D24" s="417"/>
+      <c r="E24" s="417"/>
       <c r="F24" s="336" t="s">
         <v>126</v>
       </c>
@@ -5822,8 +5822,8 @@
       <c r="A25" s="411"/>
       <c r="B25" s="414"/>
       <c r="C25" s="411"/>
-      <c r="D25" s="449"/>
-      <c r="E25" s="449"/>
+      <c r="D25" s="417"/>
+      <c r="E25" s="417"/>
       <c r="F25" s="336" t="s">
         <v>133</v>
       </c>
@@ -5855,11 +5855,11 @@
       <c r="R25" s="184"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="412"/>
-      <c r="B26" s="415"/>
-      <c r="C26" s="412"/>
-      <c r="D26" s="450"/>
-      <c r="E26" s="450"/>
+      <c r="A26" s="420"/>
+      <c r="B26" s="421"/>
+      <c r="C26" s="420"/>
+      <c r="D26" s="419"/>
+      <c r="E26" s="419"/>
       <c r="F26" s="333" t="s">
         <v>124</v>
       </c>
@@ -5938,10 +5938,10 @@
         <v>44090</v>
       </c>
       <c r="C28" s="410"/>
-      <c r="D28" s="448" t="s">
+      <c r="D28" s="416" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="448"/>
+      <c r="E28" s="416"/>
       <c r="F28" s="332" t="s">
         <v>125</v>
       </c>
@@ -5975,8 +5975,8 @@
       <c r="A29" s="411"/>
       <c r="B29" s="414"/>
       <c r="C29" s="411"/>
-      <c r="D29" s="449"/>
-      <c r="E29" s="449"/>
+      <c r="D29" s="417"/>
+      <c r="E29" s="417"/>
       <c r="F29" s="336" t="s">
         <v>126</v>
       </c>
@@ -6007,11 +6007,11 @@
       <c r="P29" s="336"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="412"/>
-      <c r="B30" s="415"/>
-      <c r="C30" s="412"/>
-      <c r="D30" s="450"/>
-      <c r="E30" s="450"/>
+      <c r="A30" s="420"/>
+      <c r="B30" s="421"/>
+      <c r="C30" s="420"/>
+      <c r="D30" s="419"/>
+      <c r="E30" s="419"/>
       <c r="F30" s="333" t="s">
         <v>124</v>
       </c>
@@ -6263,11 +6263,11 @@
       <c r="P35" s="332"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="412"/>
-      <c r="B36" s="415"/>
-      <c r="C36" s="412"/>
-      <c r="D36" s="412"/>
-      <c r="E36" s="412"/>
+      <c r="A36" s="420"/>
+      <c r="B36" s="421"/>
+      <c r="C36" s="420"/>
+      <c r="D36" s="420"/>
+      <c r="E36" s="420"/>
       <c r="F36" s="333" t="s">
         <v>126</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="C41" s="410" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="448" t="s">
+      <c r="D41" s="416" t="s">
         <v>223</v>
       </c>
       <c r="E41" s="410"/>
@@ -6508,7 +6508,7 @@
       <c r="A42" s="411"/>
       <c r="B42" s="414"/>
       <c r="C42" s="411"/>
-      <c r="D42" s="449"/>
+      <c r="D42" s="417"/>
       <c r="E42" s="411"/>
       <c r="F42" s="336" t="s">
         <v>125</v>
@@ -6541,7 +6541,7 @@
       <c r="A43" s="411"/>
       <c r="B43" s="414"/>
       <c r="C43" s="411"/>
-      <c r="D43" s="449"/>
+      <c r="D43" s="417"/>
       <c r="E43" s="411"/>
       <c r="F43" s="336" t="s">
         <v>126</v>
@@ -6574,7 +6574,7 @@
       <c r="A44" s="411"/>
       <c r="B44" s="414"/>
       <c r="C44" s="411"/>
-      <c r="D44" s="449"/>
+      <c r="D44" s="417"/>
       <c r="E44" s="411"/>
       <c r="F44" s="336" t="s">
         <v>208</v>
@@ -6607,7 +6607,7 @@
       <c r="A45" s="411"/>
       <c r="B45" s="414"/>
       <c r="C45" s="411"/>
-      <c r="D45" s="449"/>
+      <c r="D45" s="417"/>
       <c r="E45" s="411"/>
       <c r="F45" s="336" t="s">
         <v>124</v>
@@ -6640,7 +6640,7 @@
       <c r="A46" s="411"/>
       <c r="B46" s="414"/>
       <c r="C46" s="411"/>
-      <c r="D46" s="449"/>
+      <c r="D46" s="417"/>
       <c r="E46" s="411"/>
       <c r="F46" s="336" t="s">
         <v>127</v>
@@ -6673,7 +6673,7 @@
       <c r="A47" s="411"/>
       <c r="B47" s="414"/>
       <c r="C47" s="411"/>
-      <c r="D47" s="449"/>
+      <c r="D47" s="417"/>
       <c r="E47" s="411"/>
       <c r="F47" s="336" t="s">
         <v>128</v>
@@ -6703,11 +6703,11 @@
       <c r="Q47" s="184"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="453"/>
-      <c r="B48" s="454"/>
-      <c r="C48" s="453"/>
-      <c r="D48" s="455"/>
-      <c r="E48" s="453"/>
+      <c r="A48" s="412"/>
+      <c r="B48" s="415"/>
+      <c r="C48" s="412"/>
+      <c r="D48" s="418"/>
+      <c r="E48" s="412"/>
       <c r="F48" s="338" t="s">
         <v>220</v>
       </c>
@@ -6830,11 +6830,11 @@
       <c r="B51" s="413">
         <v>44102</v>
       </c>
-      <c r="C51" s="416"/>
-      <c r="D51" s="419" t="s">
+      <c r="C51" s="449"/>
+      <c r="D51" s="452" t="s">
         <v>227</v>
       </c>
-      <c r="E51" s="422" t="s">
+      <c r="E51" s="447" t="s">
         <v>230</v>
       </c>
       <c r="F51" s="344" t="s">
@@ -6870,9 +6870,9 @@
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="411"/>
       <c r="B52" s="414"/>
-      <c r="C52" s="417"/>
-      <c r="D52" s="420"/>
-      <c r="E52" s="423"/>
+      <c r="C52" s="450"/>
+      <c r="D52" s="453"/>
+      <c r="E52" s="448"/>
       <c r="F52" s="346" t="s">
         <v>208</v>
       </c>
@@ -6906,9 +6906,9 @@
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="411"/>
       <c r="B53" s="414"/>
-      <c r="C53" s="417"/>
-      <c r="D53" s="420"/>
-      <c r="E53" s="423"/>
+      <c r="C53" s="450"/>
+      <c r="D53" s="453"/>
+      <c r="E53" s="448"/>
       <c r="F53" s="346" t="s">
         <v>124</v>
       </c>
@@ -6942,9 +6942,9 @@
     <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="411"/>
       <c r="B54" s="414"/>
-      <c r="C54" s="417"/>
-      <c r="D54" s="420"/>
-      <c r="E54" s="423"/>
+      <c r="C54" s="450"/>
+      <c r="D54" s="453"/>
+      <c r="E54" s="448"/>
       <c r="F54" s="346" t="s">
         <v>127</v>
       </c>
@@ -6976,11 +6976,11 @@
       <c r="Q54" s="184"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="412"/>
-      <c r="B55" s="415"/>
-      <c r="C55" s="418"/>
-      <c r="D55" s="421"/>
-      <c r="E55" s="424"/>
+      <c r="A55" s="420"/>
+      <c r="B55" s="421"/>
+      <c r="C55" s="451"/>
+      <c r="D55" s="454"/>
+      <c r="E55" s="455"/>
       <c r="F55" s="345" t="s">
         <v>128</v>
       </c>
@@ -7058,14 +7058,14 @@
       <c r="Q56" s="184"/>
     </row>
     <row r="57" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="428" t="s">
+      <c r="A57" s="441" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="429"/>
-      <c r="C57" s="429"/>
-      <c r="D57" s="429"/>
-      <c r="E57" s="429"/>
-      <c r="F57" s="430"/>
+      <c r="B57" s="442"/>
+      <c r="C57" s="442"/>
+      <c r="D57" s="442"/>
+      <c r="E57" s="442"/>
+      <c r="F57" s="443"/>
       <c r="G57" s="158">
         <f>SUM(G13:G56)</f>
         <v>466</v>
@@ -7079,23 +7079,23 @@
       <c r="K57" s="162"/>
       <c r="L57" s="163">
         <f>SUM(L13:L56)</f>
-        <v>107612650</v>
+        <v>111254050</v>
       </c>
       <c r="M57" s="164"/>
       <c r="N57" s="164"/>
       <c r="O57" s="164"/>
-      <c r="P57" s="431"/>
-      <c r="Q57" s="432"/>
+      <c r="P57" s="444"/>
+      <c r="Q57" s="429"/>
     </row>
     <row r="58" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="427" t="s">
+      <c r="A58" s="430" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="427"/>
-      <c r="C58" s="427"/>
-      <c r="D58" s="427"/>
-      <c r="E58" s="427"/>
-      <c r="F58" s="427"/>
+      <c r="B58" s="430"/>
+      <c r="C58" s="430"/>
+      <c r="D58" s="430"/>
+      <c r="E58" s="430"/>
+      <c r="F58" s="430"/>
       <c r="G58" s="146">
         <f>G57</f>
         <v>466</v>
@@ -7106,23 +7106,23 @@
       <c r="K58" s="150"/>
       <c r="L58" s="151">
         <f>L57</f>
-        <v>107612650</v>
+        <v>111254050</v>
       </c>
       <c r="M58" s="149"/>
       <c r="N58" s="149"/>
       <c r="O58" s="149"/>
-      <c r="P58" s="431"/>
-      <c r="Q58" s="432"/>
+      <c r="P58" s="444"/>
+      <c r="Q58" s="429"/>
     </row>
     <row r="59" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="427" t="s">
+      <c r="A59" s="430" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="427"/>
-      <c r="C59" s="427"/>
-      <c r="D59" s="427"/>
-      <c r="E59" s="427"/>
-      <c r="F59" s="427"/>
+      <c r="B59" s="430"/>
+      <c r="C59" s="430"/>
+      <c r="D59" s="430"/>
+      <c r="E59" s="430"/>
+      <c r="F59" s="430"/>
       <c r="G59" s="153" t="s">
         <v>49</v>
       </c>
@@ -7139,14 +7139,14 @@
       <c r="O59" s="149"/>
     </row>
     <row r="60" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="427" t="s">
+      <c r="A60" s="430" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="427"/>
-      <c r="C60" s="427"/>
-      <c r="D60" s="427"/>
-      <c r="E60" s="427"/>
-      <c r="F60" s="427"/>
+      <c r="B60" s="430"/>
+      <c r="C60" s="430"/>
+      <c r="D60" s="430"/>
+      <c r="E60" s="430"/>
+      <c r="F60" s="430"/>
       <c r="G60" s="153"/>
       <c r="H60" s="156"/>
       <c r="I60" s="147"/>
@@ -7161,14 +7161,14 @@
       <c r="O60" s="149"/>
     </row>
     <row r="61" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A61" s="427" t="s">
+      <c r="A61" s="430" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="427"/>
-      <c r="C61" s="427"/>
-      <c r="D61" s="427"/>
-      <c r="E61" s="427"/>
-      <c r="F61" s="427"/>
+      <c r="B61" s="430"/>
+      <c r="C61" s="430"/>
+      <c r="D61" s="430"/>
+      <c r="E61" s="430"/>
+      <c r="F61" s="430"/>
       <c r="G61" s="153"/>
       <c r="H61" s="156"/>
       <c r="I61" s="147"/>
@@ -7176,7 +7176,7 @@
       <c r="K61" s="150"/>
       <c r="L61" s="151">
         <f>SUM(O13:O56)</f>
-        <v>56202600</v>
+        <v>59844000</v>
       </c>
       <c r="M61" s="149"/>
       <c r="N61" s="149"/>
@@ -7244,44 +7244,26 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="74">
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A59:F59"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A1:E1"/>
@@ -7298,26 +7280,44 @@
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:P8"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="D41:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7328,8 +7328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7350,93 +7350,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="466" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
+      <c r="B1" s="466"/>
+      <c r="C1" s="466"/>
+      <c r="D1" s="466"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="457" t="s">
+      <c r="A2" s="467" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="457"/>
-      <c r="C2" s="457"/>
-      <c r="D2" s="457"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="458" t="s">
+      <c r="A3" s="468" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="458"/>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458"/>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="458"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
+      <c r="I3" s="468"/>
+      <c r="J3" s="468"/>
+      <c r="K3" s="468"/>
+      <c r="L3" s="468"/>
+      <c r="M3" s="468"/>
+      <c r="N3" s="468"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="459" t="s">
+      <c r="A4" s="469" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="459"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="459"/>
-      <c r="E4" s="459"/>
-      <c r="F4" s="459"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="459"/>
-      <c r="I4" s="460"/>
-      <c r="J4" s="459"/>
-      <c r="K4" s="459"/>
-      <c r="L4" s="459"/>
-      <c r="M4" s="459"/>
-      <c r="N4" s="459"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="469"/>
+      <c r="G4" s="469"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="470"/>
+      <c r="J4" s="469"/>
+      <c r="K4" s="469"/>
+      <c r="L4" s="469"/>
+      <c r="M4" s="469"/>
+      <c r="N4" s="469"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="461" t="s">
+      <c r="A5" s="471" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="463" t="s">
+      <c r="B5" s="473" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="462" t="s">
+      <c r="C5" s="472" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="464" t="s">
+      <c r="E5" s="465" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="464"/>
-      <c r="G5" s="464"/>
-      <c r="H5" s="464"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="466" t="s">
+      <c r="F5" s="465"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
+      <c r="I5" s="474"/>
+      <c r="J5" s="464" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="464" t="s">
+      <c r="K5" s="465" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="464"/>
-      <c r="M5" s="464"/>
-      <c r="N5" s="462" t="s">
+      <c r="L5" s="465"/>
+      <c r="M5" s="465"/>
+      <c r="N5" s="472" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="461"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="471"/>
+      <c r="B6" s="473"/>
+      <c r="C6" s="472"/>
       <c r="D6" s="270" t="s">
         <v>41</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="I6" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="466"/>
+      <c r="J6" s="464"/>
       <c r="K6" s="270" t="s">
         <v>45</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="M6" s="270" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="462"/>
+      <c r="N6" s="472"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="174">
@@ -7494,17 +7494,17 @@
         <v>1940000</v>
       </c>
       <c r="I7" s="276">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="J7" s="277">
         <f>H7*(1-I7)</f>
-        <v>970000</v>
+        <v>1202800</v>
       </c>
       <c r="K7" s="278"/>
       <c r="L7" s="174"/>
       <c r="M7" s="278">
         <f>J7</f>
-        <v>970000</v>
+        <v>1202800</v>
       </c>
       <c r="N7" s="279"/>
     </row>
@@ -7515,8 +7515,8 @@
       <c r="B8" s="413">
         <v>44088</v>
       </c>
-      <c r="C8" s="416"/>
-      <c r="D8" s="419" t="s">
+      <c r="C8" s="449"/>
+      <c r="D8" s="452" t="s">
         <v>207</v>
       </c>
       <c r="E8" s="344" t="s">
@@ -7549,10 +7549,10 @@
       <c r="Q8" s="184"/>
     </row>
     <row r="9" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="412"/>
-      <c r="B9" s="415"/>
-      <c r="C9" s="418"/>
-      <c r="D9" s="421"/>
+      <c r="A9" s="420"/>
+      <c r="B9" s="421"/>
+      <c r="C9" s="451"/>
+      <c r="D9" s="454"/>
       <c r="E9" s="345" t="s">
         <v>208</v>
       </c>
@@ -7663,14 +7663,14 @@
       <c r="Q11" s="184"/>
     </row>
     <row r="12" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="422">
+      <c r="A12" s="447">
         <v>803</v>
       </c>
-      <c r="B12" s="425">
+      <c r="B12" s="445">
         <v>44095</v>
       </c>
-      <c r="C12" s="469"/>
-      <c r="D12" s="472" t="s">
+      <c r="C12" s="458"/>
+      <c r="D12" s="461" t="s">
         <v>227</v>
       </c>
       <c r="E12" s="341" t="s">
@@ -7703,10 +7703,10 @@
       <c r="Q12" s="184"/>
     </row>
     <row r="13" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="423"/>
-      <c r="B13" s="426"/>
-      <c r="C13" s="470"/>
-      <c r="D13" s="473"/>
+      <c r="A13" s="448"/>
+      <c r="B13" s="446"/>
+      <c r="C13" s="459"/>
+      <c r="D13" s="462"/>
       <c r="E13" s="341" t="s">
         <v>208</v>
       </c>
@@ -7737,10 +7737,10 @@
       <c r="Q13" s="184"/>
     </row>
     <row r="14" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="423"/>
-      <c r="B14" s="426"/>
-      <c r="C14" s="470"/>
-      <c r="D14" s="473"/>
+      <c r="A14" s="448"/>
+      <c r="B14" s="446"/>
+      <c r="C14" s="459"/>
+      <c r="D14" s="462"/>
       <c r="E14" s="341" t="s">
         <v>124</v>
       </c>
@@ -7771,10 +7771,10 @@
       <c r="Q14" s="184"/>
     </row>
     <row r="15" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="423"/>
-      <c r="B15" s="426"/>
-      <c r="C15" s="470"/>
-      <c r="D15" s="473"/>
+      <c r="A15" s="448"/>
+      <c r="B15" s="446"/>
+      <c r="C15" s="459"/>
+      <c r="D15" s="462"/>
       <c r="E15" s="341" t="s">
         <v>127</v>
       </c>
@@ -7805,10 +7805,10 @@
       <c r="Q15" s="184"/>
     </row>
     <row r="16" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="424"/>
-      <c r="B16" s="468"/>
-      <c r="C16" s="471"/>
-      <c r="D16" s="474"/>
+      <c r="A16" s="455"/>
+      <c r="B16" s="457"/>
+      <c r="C16" s="460"/>
+      <c r="D16" s="463"/>
       <c r="E16" s="341" t="s">
         <v>128</v>
       </c>
@@ -7845,8 +7845,8 @@
       <c r="B17" s="413">
         <v>44096</v>
       </c>
-      <c r="C17" s="416"/>
-      <c r="D17" s="419" t="s">
+      <c r="C17" s="449"/>
+      <c r="D17" s="452" t="s">
         <v>207</v>
       </c>
       <c r="E17" s="344" t="s">
@@ -7881,8 +7881,8 @@
     <row r="18" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="411"/>
       <c r="B18" s="414"/>
-      <c r="C18" s="417"/>
-      <c r="D18" s="420"/>
+      <c r="C18" s="450"/>
+      <c r="D18" s="453"/>
       <c r="E18" s="346" t="s">
         <v>125</v>
       </c>
@@ -7915,8 +7915,8 @@
     <row r="19" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="411"/>
       <c r="B19" s="414"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="420"/>
+      <c r="C19" s="450"/>
+      <c r="D19" s="453"/>
       <c r="E19" s="346" t="s">
         <v>126</v>
       </c>
@@ -7949,8 +7949,8 @@
     <row r="20" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="411"/>
       <c r="B20" s="414"/>
-      <c r="C20" s="417"/>
-      <c r="D20" s="420"/>
+      <c r="C20" s="450"/>
+      <c r="D20" s="453"/>
       <c r="E20" s="346" t="s">
         <v>208</v>
       </c>
@@ -7983,8 +7983,8 @@
     <row r="21" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="411"/>
       <c r="B21" s="414"/>
-      <c r="C21" s="417"/>
-      <c r="D21" s="420"/>
+      <c r="C21" s="450"/>
+      <c r="D21" s="453"/>
       <c r="E21" s="346" t="s">
         <v>124</v>
       </c>
@@ -8017,8 +8017,8 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="411"/>
       <c r="B22" s="414"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="420"/>
+      <c r="C22" s="450"/>
+      <c r="D22" s="453"/>
       <c r="E22" s="346" t="s">
         <v>127</v>
       </c>
@@ -8050,8 +8050,8 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="411"/>
       <c r="B23" s="414"/>
-      <c r="C23" s="417"/>
-      <c r="D23" s="420"/>
+      <c r="C23" s="450"/>
+      <c r="D23" s="453"/>
       <c r="E23" s="346" t="s">
         <v>128</v>
       </c>
@@ -8081,10 +8081,10 @@
       <c r="N23" s="203"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="412"/>
-      <c r="B24" s="415"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="421"/>
+      <c r="A24" s="420"/>
+      <c r="B24" s="421"/>
+      <c r="C24" s="451"/>
+      <c r="D24" s="454"/>
       <c r="E24" s="345" t="s">
         <v>220</v>
       </c>
@@ -8292,10 +8292,10 @@
       <c r="N32" s="203"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="412"/>
-      <c r="B33" s="415"/>
-      <c r="C33" s="412"/>
-      <c r="D33" s="412"/>
+      <c r="A33" s="420"/>
+      <c r="B33" s="421"/>
+      <c r="C33" s="420"/>
+      <c r="D33" s="420"/>
       <c r="E33" s="176"/>
       <c r="F33" s="176"/>
       <c r="G33" s="282"/>
@@ -8356,10 +8356,10 @@
       <c r="N36" s="203"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="412"/>
-      <c r="B37" s="415"/>
-      <c r="C37" s="412"/>
-      <c r="D37" s="412"/>
+      <c r="A37" s="420"/>
+      <c r="B37" s="421"/>
+      <c r="C37" s="420"/>
+      <c r="D37" s="420"/>
       <c r="E37" s="176"/>
       <c r="F37" s="176"/>
       <c r="G37" s="282"/>
@@ -8452,10 +8452,10 @@
       <c r="N42" s="200"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="412"/>
-      <c r="B43" s="415"/>
-      <c r="C43" s="412"/>
-      <c r="D43" s="412"/>
+      <c r="A43" s="420"/>
+      <c r="B43" s="421"/>
+      <c r="C43" s="420"/>
+      <c r="D43" s="420"/>
       <c r="E43" s="176"/>
       <c r="F43" s="176"/>
       <c r="G43" s="282"/>
@@ -8500,12 +8500,12 @@
       <c r="N45" s="204"/>
     </row>
     <row r="46" spans="1:14" s="308" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="467" t="s">
+      <c r="A46" s="456" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="467"/>
-      <c r="C46" s="467"/>
-      <c r="D46" s="467"/>
+      <c r="B46" s="456"/>
+      <c r="C46" s="456"/>
+      <c r="D46" s="456"/>
       <c r="E46" s="304"/>
       <c r="F46" s="304">
         <f>SUM(F7:F45)</f>
@@ -8522,7 +8522,7 @@
       <c r="I46" s="306"/>
       <c r="J46" s="307">
         <f>SUM(J7:J45)</f>
-        <v>47290500</v>
+        <v>47523300</v>
       </c>
       <c r="K46" s="304"/>
       <c r="L46" s="304"/>
@@ -8593,26 +8593,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B31:B33"/>
@@ -8629,6 +8609,26 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D8" s="53">
         <f>'DOANH THU'!L58</f>
-        <v>107612650</v>
+        <v>111254050</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="44"/>
@@ -8895,7 +8895,7 @@
       <c r="C11" s="69"/>
       <c r="D11" s="68">
         <f>'Hàng khách trả'!J46</f>
-        <v>47290500</v>
+        <v>47523300</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="44"/>
@@ -8919,7 +8919,7 @@
       <c r="C12" s="60"/>
       <c r="D12" s="61">
         <f>D8-D9-D10</f>
-        <v>56202600</v>
+        <v>59844000</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="44"/>
@@ -9174,13 +9174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="481" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9200,34 +9200,34 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="494" t="s">
+      <c r="A3" s="482" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="494"/>
-      <c r="C3" s="494"/>
-      <c r="D3" s="494"/>
-      <c r="E3" s="494"/>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="494"/>
-      <c r="I3" s="494"/>
-      <c r="J3" s="494"/>
-      <c r="K3" s="494"/>
+      <c r="B3" s="482"/>
+      <c r="C3" s="482"/>
+      <c r="D3" s="482"/>
+      <c r="E3" s="482"/>
+      <c r="F3" s="482"/>
+      <c r="G3" s="482"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="482"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="482"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="483" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="492" t="s">
+      <c r="B4" s="498" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="490" t="s">
+      <c r="C4" s="483" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="490" t="s">
+      <c r="D4" s="483" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="490"/>
+      <c r="E4" s="483"/>
       <c r="F4" s="491" t="s">
         <v>29</v>
       </c>
@@ -9236,65 +9236,65 @@
       <c r="I4" s="491"/>
       <c r="J4" s="491"/>
       <c r="K4" s="491"/>
-      <c r="L4" s="481" t="s">
+      <c r="L4" s="495" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="482"/>
-      <c r="N4" s="483"/>
+      <c r="M4" s="496"/>
+      <c r="N4" s="497"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="490"/>
-      <c r="B5" s="492"/>
-      <c r="C5" s="490"/>
-      <c r="D5" s="490" t="s">
+      <c r="A5" s="483"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="483"/>
+      <c r="D5" s="483" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="490" t="s">
+      <c r="E5" s="483" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="490" t="s">
+      <c r="F5" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="490" t="s">
+      <c r="G5" s="483" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="495" t="s">
+      <c r="H5" s="484" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="495" t="s">
+      <c r="I5" s="484" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="362"/>
-      <c r="K5" s="495" t="s">
+      <c r="K5" s="484" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="440" t="s">
+      <c r="L5" s="424" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="440" t="s">
+      <c r="M5" s="424" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="440" t="s">
+      <c r="N5" s="424" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="490"/>
-      <c r="B6" s="492"/>
-      <c r="C6" s="490"/>
-      <c r="D6" s="490"/>
-      <c r="E6" s="490"/>
-      <c r="F6" s="490"/>
-      <c r="G6" s="490"/>
-      <c r="H6" s="495"/>
-      <c r="I6" s="495"/>
+      <c r="A6" s="483"/>
+      <c r="B6" s="498"/>
+      <c r="C6" s="483"/>
+      <c r="D6" s="483"/>
+      <c r="E6" s="483"/>
+      <c r="F6" s="483"/>
+      <c r="G6" s="483"/>
+      <c r="H6" s="484"/>
+      <c r="I6" s="484"/>
       <c r="J6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="495"/>
-      <c r="L6" s="441"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="441"/>
+      <c r="K6" s="484"/>
+      <c r="L6" s="425"/>
+      <c r="M6" s="425"/>
+      <c r="N6" s="425"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="328">
@@ -9487,11 +9487,11 @@
       <c r="N11" s="180"/>
     </row>
     <row r="12" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="412"/>
-      <c r="B12" s="415"/>
-      <c r="C12" s="412"/>
-      <c r="D12" s="412"/>
-      <c r="E12" s="412"/>
+      <c r="A12" s="420"/>
+      <c r="B12" s="421"/>
+      <c r="C12" s="420"/>
+      <c r="D12" s="420"/>
+      <c r="E12" s="420"/>
       <c r="F12" s="358" t="s">
         <v>126</v>
       </c>
@@ -9517,16 +9517,16 @@
       <c r="N12" s="185"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="478" t="s">
+      <c r="A13" s="492" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="479"/>
-      <c r="C13" s="479"/>
-      <c r="D13" s="479"/>
-      <c r="E13" s="479"/>
-      <c r="F13" s="479"/>
-      <c r="G13" s="479"/>
-      <c r="H13" s="480"/>
+      <c r="B13" s="493"/>
+      <c r="C13" s="493"/>
+      <c r="D13" s="493"/>
+      <c r="E13" s="493"/>
+      <c r="F13" s="493"/>
+      <c r="G13" s="493"/>
+      <c r="H13" s="494"/>
       <c r="I13" s="369">
         <f>SUM(I7:I12)</f>
         <v>14675000</v>
@@ -9566,14 +9566,14 @@
       <c r="A15" s="165"/>
       <c r="B15" s="165"/>
       <c r="C15" s="165"/>
-      <c r="D15" s="484" t="s">
+      <c r="D15" s="485" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="485"/>
-      <c r="F15" s="485"/>
-      <c r="G15" s="485"/>
-      <c r="H15" s="485"/>
-      <c r="I15" s="486"/>
+      <c r="E15" s="486"/>
+      <c r="F15" s="486"/>
+      <c r="G15" s="486"/>
+      <c r="H15" s="486"/>
+      <c r="I15" s="487"/>
       <c r="J15" s="364"/>
       <c r="K15" s="166"/>
     </row>
@@ -9581,14 +9581,14 @@
       <c r="A16" s="165"/>
       <c r="B16" s="165"/>
       <c r="C16" s="165"/>
-      <c r="D16" s="487" t="s">
+      <c r="D16" s="488" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="488"/>
-      <c r="F16" s="488"/>
-      <c r="G16" s="488"/>
-      <c r="H16" s="488"/>
-      <c r="I16" s="489"/>
+      <c r="E16" s="489"/>
+      <c r="F16" s="489"/>
+      <c r="G16" s="489"/>
+      <c r="H16" s="489"/>
+      <c r="I16" s="490"/>
       <c r="J16" s="368">
         <v>2309530</v>
       </c>
@@ -9597,14 +9597,14 @@
       <c r="A17" s="165"/>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
-      <c r="D17" s="487" t="s">
+      <c r="D17" s="488" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="488"/>
-      <c r="F17" s="488"/>
-      <c r="G17" s="488"/>
-      <c r="H17" s="488"/>
-      <c r="I17" s="489"/>
+      <c r="E17" s="489"/>
+      <c r="F17" s="489"/>
+      <c r="G17" s="489"/>
+      <c r="H17" s="489"/>
+      <c r="I17" s="490"/>
       <c r="J17" s="368">
         <f>N13</f>
         <v>4200100.0000000009</v>
@@ -9614,14 +9614,14 @@
       <c r="A18" s="165"/>
       <c r="B18" s="165"/>
       <c r="C18" s="165"/>
-      <c r="D18" s="498" t="s">
+      <c r="D18" s="480" t="s">
         <v>241</v>
       </c>
-      <c r="E18" s="498"/>
-      <c r="F18" s="498"/>
-      <c r="G18" s="498"/>
-      <c r="H18" s="498"/>
-      <c r="I18" s="498"/>
+      <c r="E18" s="480"/>
+      <c r="F18" s="480"/>
+      <c r="G18" s="480"/>
+      <c r="H18" s="480"/>
+      <c r="I18" s="480"/>
       <c r="J18" s="368">
         <f>SUM(J16:L17)</f>
         <v>6509630.0000000009</v>
@@ -9635,10 +9635,10 @@
       <c r="E19" s="168"/>
       <c r="F19" s="168"/>
       <c r="G19" s="168"/>
-      <c r="H19" s="496" t="s">
+      <c r="H19" s="478" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="496"/>
+      <c r="I19" s="478"/>
       <c r="J19" s="368">
         <v>2500000</v>
       </c>
@@ -9651,10 +9651,10 @@
       <c r="E20" s="168"/>
       <c r="F20" s="168"/>
       <c r="G20" s="168"/>
-      <c r="H20" s="497" t="s">
+      <c r="H20" s="479" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="497"/>
+      <c r="I20" s="479"/>
       <c r="J20" s="368">
         <f>J18+J19</f>
         <v>9009630</v>
@@ -9707,6 +9707,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D18:I18"/>
@@ -9723,20 +9737,6 @@
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.2" top="0.82" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9769,13 +9769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="481" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9795,35 +9795,35 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="494" t="s">
+      <c r="A3" s="482" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="494"/>
-      <c r="C3" s="494"/>
-      <c r="D3" s="494"/>
-      <c r="E3" s="494"/>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
-      <c r="H3" s="494"/>
-      <c r="I3" s="494"/>
-      <c r="J3" s="494"/>
-      <c r="K3" s="494"/>
-      <c r="L3" s="494"/>
+      <c r="B3" s="482"/>
+      <c r="C3" s="482"/>
+      <c r="D3" s="482"/>
+      <c r="E3" s="482"/>
+      <c r="F3" s="482"/>
+      <c r="G3" s="482"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="482"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="482"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="483" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="492" t="s">
+      <c r="B4" s="498" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="490" t="s">
+      <c r="C4" s="483" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="490" t="s">
+      <c r="D4" s="483" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="490"/>
+      <c r="E4" s="483"/>
       <c r="F4" s="491" t="s">
         <v>29</v>
       </c>
@@ -9835,52 +9835,52 @@
       <c r="L4" s="491"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="490"/>
-      <c r="B5" s="492"/>
-      <c r="C5" s="490"/>
-      <c r="D5" s="490" t="s">
+      <c r="A5" s="483"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="483"/>
+      <c r="D5" s="483" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="490" t="s">
+      <c r="E5" s="483" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="490" t="s">
+      <c r="F5" s="483" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="490" t="s">
+      <c r="G5" s="483" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="495" t="s">
+      <c r="H5" s="484" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="495" t="s">
+      <c r="I5" s="484" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="505" t="s">
+      <c r="J5" s="499" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="506"/>
-      <c r="L5" s="495" t="s">
+      <c r="K5" s="500"/>
+      <c r="L5" s="484" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="490"/>
-      <c r="B6" s="492"/>
-      <c r="C6" s="490"/>
-      <c r="D6" s="490"/>
-      <c r="E6" s="490"/>
-      <c r="F6" s="490"/>
-      <c r="G6" s="490"/>
-      <c r="H6" s="495"/>
-      <c r="I6" s="495"/>
+      <c r="A6" s="483"/>
+      <c r="B6" s="498"/>
+      <c r="C6" s="483"/>
+      <c r="D6" s="483"/>
+      <c r="E6" s="483"/>
+      <c r="F6" s="483"/>
+      <c r="G6" s="483"/>
+      <c r="H6" s="484"/>
+      <c r="I6" s="484"/>
       <c r="J6" s="363" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="495"/>
+      <c r="L6" s="484"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="410">
@@ -9892,10 +9892,10 @@
       <c r="C7" s="410" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="448" t="s">
+      <c r="D7" s="416" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="448"/>
+      <c r="E7" s="416"/>
       <c r="F7" s="356" t="s">
         <v>125</v>
       </c>
@@ -9920,8 +9920,8 @@
       <c r="A8" s="411"/>
       <c r="B8" s="414"/>
       <c r="C8" s="411"/>
-      <c r="D8" s="449"/>
-      <c r="E8" s="449"/>
+      <c r="D8" s="417"/>
+      <c r="E8" s="417"/>
       <c r="F8" s="357" t="s">
         <v>126</v>
       </c>
@@ -9946,8 +9946,8 @@
       <c r="A9" s="411"/>
       <c r="B9" s="414"/>
       <c r="C9" s="411"/>
-      <c r="D9" s="449"/>
-      <c r="E9" s="449"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="417"/>
       <c r="F9" s="357" t="s">
         <v>133</v>
       </c>
@@ -9970,11 +9970,11 @@
       <c r="N9" s="184"/>
     </row>
     <row r="10" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="412"/>
-      <c r="B10" s="415"/>
-      <c r="C10" s="412"/>
-      <c r="D10" s="450"/>
-      <c r="E10" s="450"/>
+      <c r="A10" s="420"/>
+      <c r="B10" s="421"/>
+      <c r="C10" s="420"/>
+      <c r="D10" s="419"/>
+      <c r="E10" s="419"/>
       <c r="F10" s="358" t="s">
         <v>124</v>
       </c>
@@ -10068,16 +10068,16 @@
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="478" t="s">
+      <c r="A13" s="492" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="479"/>
-      <c r="C13" s="479"/>
-      <c r="D13" s="479"/>
-      <c r="E13" s="479"/>
-      <c r="F13" s="479"/>
-      <c r="G13" s="479"/>
-      <c r="H13" s="480"/>
+      <c r="B13" s="493"/>
+      <c r="C13" s="493"/>
+      <c r="D13" s="493"/>
+      <c r="E13" s="493"/>
+      <c r="F13" s="493"/>
+      <c r="G13" s="493"/>
+      <c r="H13" s="494"/>
       <c r="I13" s="369">
         <f>SUM(I7:I12)</f>
         <v>10890000</v>
@@ -10107,130 +10107,130 @@
       <c r="A15" s="361"/>
       <c r="B15" s="361"/>
       <c r="C15" s="361"/>
-      <c r="D15" s="484" t="s">
+      <c r="D15" s="485" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="485"/>
-      <c r="F15" s="485"/>
-      <c r="G15" s="485"/>
-      <c r="H15" s="485"/>
-      <c r="I15" s="486"/>
-      <c r="J15" s="499" t="s">
+      <c r="E15" s="486"/>
+      <c r="F15" s="486"/>
+      <c r="G15" s="486"/>
+      <c r="H15" s="486"/>
+      <c r="I15" s="487"/>
+      <c r="J15" s="501" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="500"/>
+      <c r="K15" s="502"/>
       <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="361"/>
       <c r="B16" s="361"/>
       <c r="C16" s="361"/>
-      <c r="D16" s="487" t="s">
+      <c r="D16" s="488" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="488"/>
-      <c r="F16" s="488"/>
-      <c r="G16" s="488"/>
-      <c r="H16" s="488"/>
-      <c r="I16" s="489"/>
-      <c r="J16" s="501">
+      <c r="E16" s="489"/>
+      <c r="F16" s="489"/>
+      <c r="G16" s="489"/>
+      <c r="H16" s="489"/>
+      <c r="I16" s="490"/>
+      <c r="J16" s="503">
         <v>4782500</v>
       </c>
-      <c r="K16" s="502"/>
+      <c r="K16" s="504"/>
       <c r="L16" s="166"/>
     </row>
     <row r="17" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="361"/>
       <c r="B17" s="361"/>
       <c r="C17" s="361"/>
-      <c r="D17" s="487" t="s">
+      <c r="D17" s="488" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="488"/>
-      <c r="F17" s="488"/>
-      <c r="G17" s="488"/>
-      <c r="H17" s="488"/>
-      <c r="I17" s="489"/>
-      <c r="J17" s="501">
+      <c r="E17" s="489"/>
+      <c r="F17" s="489"/>
+      <c r="G17" s="489"/>
+      <c r="H17" s="489"/>
+      <c r="I17" s="490"/>
+      <c r="J17" s="503">
         <f>L13</f>
         <v>5445000</v>
       </c>
-      <c r="K17" s="502"/>
+      <c r="K17" s="504"/>
       <c r="L17" s="166"/>
     </row>
     <row r="18" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="361"/>
       <c r="B18" s="361"/>
       <c r="C18" s="361"/>
-      <c r="D18" s="484" t="s">
+      <c r="D18" s="485" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="485"/>
-      <c r="F18" s="485"/>
-      <c r="G18" s="485"/>
-      <c r="H18" s="485"/>
-      <c r="I18" s="486"/>
-      <c r="J18" s="501">
+      <c r="E18" s="486"/>
+      <c r="F18" s="486"/>
+      <c r="G18" s="486"/>
+      <c r="H18" s="486"/>
+      <c r="I18" s="487"/>
+      <c r="J18" s="503">
         <f>J17-J16</f>
         <v>662500</v>
       </c>
-      <c r="K18" s="502"/>
+      <c r="K18" s="504"/>
       <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="361"/>
       <c r="B19" s="361"/>
       <c r="C19" s="361"/>
-      <c r="D19" s="487" t="s">
+      <c r="D19" s="488" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="488"/>
-      <c r="F19" s="488"/>
-      <c r="G19" s="488"/>
-      <c r="H19" s="488"/>
-      <c r="I19" s="489"/>
-      <c r="J19" s="501">
+      <c r="E19" s="489"/>
+      <c r="F19" s="489"/>
+      <c r="G19" s="489"/>
+      <c r="H19" s="489"/>
+      <c r="I19" s="490"/>
+      <c r="J19" s="503">
         <v>3000000</v>
       </c>
-      <c r="K19" s="502"/>
+      <c r="K19" s="504"/>
       <c r="L19" s="166"/>
     </row>
     <row r="20" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="361"/>
       <c r="B20" s="361"/>
       <c r="C20" s="361"/>
-      <c r="D20" s="487" t="s">
+      <c r="D20" s="488" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="488"/>
-      <c r="F20" s="488"/>
-      <c r="G20" s="488"/>
-      <c r="H20" s="488"/>
-      <c r="I20" s="489"/>
-      <c r="J20" s="501">
+      <c r="E20" s="489"/>
+      <c r="F20" s="489"/>
+      <c r="G20" s="489"/>
+      <c r="H20" s="489"/>
+      <c r="I20" s="490"/>
+      <c r="J20" s="503">
         <f>12%*5000000</f>
         <v>600000</v>
       </c>
-      <c r="K20" s="502"/>
+      <c r="K20" s="504"/>
       <c r="L20" s="166"/>
     </row>
     <row r="21" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="361"/>
       <c r="B21" s="361"/>
       <c r="C21" s="361"/>
-      <c r="D21" s="498" t="s">
+      <c r="D21" s="480" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="498"/>
-      <c r="F21" s="498"/>
-      <c r="G21" s="498"/>
-      <c r="H21" s="498"/>
-      <c r="I21" s="498"/>
-      <c r="J21" s="503">
+      <c r="E21" s="480"/>
+      <c r="F21" s="480"/>
+      <c r="G21" s="480"/>
+      <c r="H21" s="480"/>
+      <c r="I21" s="480"/>
+      <c r="J21" s="505">
         <f>J18+J19-J20</f>
         <v>3062500</v>
       </c>
-      <c r="K21" s="504"/>
+      <c r="K21" s="506"/>
     </row>
     <row r="22" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="361"/>
@@ -10268,6 +10268,29 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A1:E1"/>
@@ -10280,29 +10303,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <pageMargins left="0.52" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10326,13 +10326,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="481" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10510,14 +10510,14 @@
       <c r="H15" s="509"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="498" t="s">
+      <c r="A16" s="480" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="498"/>
-      <c r="C16" s="498"/>
-      <c r="D16" s="498"/>
-      <c r="E16" s="498"/>
-      <c r="F16" s="498"/>
+      <c r="B16" s="480"/>
+      <c r="C16" s="480"/>
+      <c r="D16" s="480"/>
+      <c r="E16" s="480"/>
+      <c r="F16" s="480"/>
       <c r="G16" s="507">
         <f>G7+G15</f>
         <v>11457538.461538462</v>
@@ -11101,16 +11101,16 @@
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="Z1" s="533" t="s">
+      <c r="Z1" s="546" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="534"/>
-      <c r="AB1" s="534"/>
-      <c r="AC1" s="534"/>
-      <c r="AD1" s="534"/>
-      <c r="AE1" s="534"/>
-      <c r="AF1" s="534"/>
-      <c r="AG1" s="535"/>
+      <c r="AA1" s="547"/>
+      <c r="AB1" s="547"/>
+      <c r="AC1" s="547"/>
+      <c r="AD1" s="547"/>
+      <c r="AE1" s="547"/>
+      <c r="AF1" s="547"/>
+      <c r="AG1" s="548"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -11120,18 +11120,18 @@
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="Z2" s="528" t="s">
+      <c r="Z2" s="529" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="529"/>
-      <c r="AB2" s="529"/>
-      <c r="AC2" s="529"/>
-      <c r="AD2" s="529"/>
-      <c r="AE2" s="530"/>
-      <c r="AF2" s="531" t="s">
+      <c r="AA2" s="530"/>
+      <c r="AB2" s="530"/>
+      <c r="AC2" s="530"/>
+      <c r="AD2" s="530"/>
+      <c r="AE2" s="531"/>
+      <c r="AF2" s="532" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="532"/>
+      <c r="AG2" s="533"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -11141,18 +11141,18 @@
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
-      <c r="Z3" s="528" t="s">
+      <c r="Z3" s="529" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="529"/>
-      <c r="AB3" s="529"/>
-      <c r="AC3" s="529"/>
-      <c r="AD3" s="529"/>
-      <c r="AE3" s="530"/>
-      <c r="AF3" s="531" t="s">
+      <c r="AA3" s="530"/>
+      <c r="AB3" s="530"/>
+      <c r="AC3" s="530"/>
+      <c r="AD3" s="530"/>
+      <c r="AE3" s="531"/>
+      <c r="AF3" s="532" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" s="532"/>
+      <c r="AG3" s="533"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
@@ -11165,18 +11165,18 @@
       <c r="T4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="528" t="s">
+      <c r="Z4" s="529" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="529"/>
-      <c r="AB4" s="529"/>
-      <c r="AC4" s="529"/>
-      <c r="AD4" s="529"/>
-      <c r="AE4" s="530"/>
-      <c r="AF4" s="531" t="s">
+      <c r="AA4" s="530"/>
+      <c r="AB4" s="530"/>
+      <c r="AC4" s="530"/>
+      <c r="AD4" s="530"/>
+      <c r="AE4" s="531"/>
+      <c r="AF4" s="532" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="532"/>
+      <c r="AG4" s="533"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
@@ -11186,18 +11186,18 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
-      <c r="Z5" s="528" t="s">
+      <c r="Z5" s="529" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="529"/>
-      <c r="AB5" s="529"/>
-      <c r="AC5" s="529"/>
-      <c r="AD5" s="529"/>
-      <c r="AE5" s="530"/>
-      <c r="AF5" s="531" t="s">
+      <c r="AA5" s="530"/>
+      <c r="AB5" s="530"/>
+      <c r="AC5" s="530"/>
+      <c r="AD5" s="530"/>
+      <c r="AE5" s="531"/>
+      <c r="AF5" s="532" t="s">
         <v>92</v>
       </c>
-      <c r="AG5" s="532"/>
+      <c r="AG5" s="533"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -11207,93 +11207,93 @@
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:40" s="83" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="537" t="s">
+      <c r="A7" s="534" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="537"/>
-      <c r="C7" s="537"/>
-      <c r="D7" s="537"/>
-      <c r="E7" s="537"/>
-      <c r="F7" s="537"/>
-      <c r="G7" s="537"/>
-      <c r="H7" s="537"/>
-      <c r="I7" s="537"/>
-      <c r="J7" s="537"/>
-      <c r="K7" s="537"/>
-      <c r="L7" s="537"/>
-      <c r="M7" s="537"/>
-      <c r="N7" s="537"/>
-      <c r="O7" s="537"/>
-      <c r="P7" s="537"/>
-      <c r="Q7" s="537"/>
-      <c r="R7" s="537"/>
-      <c r="S7" s="537"/>
-      <c r="T7" s="537"/>
-      <c r="U7" s="537"/>
-      <c r="V7" s="537"/>
-      <c r="W7" s="537"/>
-      <c r="X7" s="537"/>
-      <c r="Y7" s="537"/>
-      <c r="Z7" s="537"/>
-      <c r="AA7" s="537"/>
-      <c r="AB7" s="537"/>
-      <c r="AC7" s="537"/>
-      <c r="AD7" s="537"/>
-      <c r="AE7" s="537"/>
-      <c r="AF7" s="537"/>
-      <c r="AG7" s="537"/>
-      <c r="AH7" s="537"/>
-      <c r="AI7" s="537"/>
-      <c r="AJ7" s="537"/>
-      <c r="AK7" s="537"/>
-      <c r="AL7" s="537"/>
-      <c r="AM7" s="537"/>
+      <c r="B7" s="534"/>
+      <c r="C7" s="534"/>
+      <c r="D7" s="534"/>
+      <c r="E7" s="534"/>
+      <c r="F7" s="534"/>
+      <c r="G7" s="534"/>
+      <c r="H7" s="534"/>
+      <c r="I7" s="534"/>
+      <c r="J7" s="534"/>
+      <c r="K7" s="534"/>
+      <c r="L7" s="534"/>
+      <c r="M7" s="534"/>
+      <c r="N7" s="534"/>
+      <c r="O7" s="534"/>
+      <c r="P7" s="534"/>
+      <c r="Q7" s="534"/>
+      <c r="R7" s="534"/>
+      <c r="S7" s="534"/>
+      <c r="T7" s="534"/>
+      <c r="U7" s="534"/>
+      <c r="V7" s="534"/>
+      <c r="W7" s="534"/>
+      <c r="X7" s="534"/>
+      <c r="Y7" s="534"/>
+      <c r="Z7" s="534"/>
+      <c r="AA7" s="534"/>
+      <c r="AB7" s="534"/>
+      <c r="AC7" s="534"/>
+      <c r="AD7" s="534"/>
+      <c r="AE7" s="534"/>
+      <c r="AF7" s="534"/>
+      <c r="AG7" s="534"/>
+      <c r="AH7" s="534"/>
+      <c r="AI7" s="534"/>
+      <c r="AJ7" s="534"/>
+      <c r="AK7" s="534"/>
+      <c r="AL7" s="534"/>
+      <c r="AM7" s="534"/>
       <c r="AN7" s="82"/>
     </row>
     <row r="9" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="538" t="s">
+      <c r="A9" s="535" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="538" t="s">
+      <c r="B9" s="535" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="538" t="s">
+      <c r="C9" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="541" t="s">
+      <c r="D9" s="538" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="542"/>
-      <c r="F9" s="542"/>
-      <c r="G9" s="542"/>
-      <c r="H9" s="542"/>
-      <c r="I9" s="542"/>
-      <c r="J9" s="542"/>
-      <c r="K9" s="542"/>
-      <c r="L9" s="542"/>
-      <c r="M9" s="542"/>
-      <c r="N9" s="542"/>
-      <c r="O9" s="542"/>
-      <c r="P9" s="542"/>
-      <c r="Q9" s="542"/>
-      <c r="R9" s="542"/>
-      <c r="S9" s="542"/>
-      <c r="T9" s="542"/>
-      <c r="U9" s="542"/>
-      <c r="V9" s="542"/>
-      <c r="W9" s="542"/>
-      <c r="X9" s="542"/>
-      <c r="Y9" s="542"/>
-      <c r="Z9" s="542"/>
-      <c r="AA9" s="542"/>
-      <c r="AB9" s="542"/>
-      <c r="AC9" s="542"/>
-      <c r="AD9" s="542"/>
-      <c r="AE9" s="542"/>
-      <c r="AF9" s="542"/>
-      <c r="AG9" s="542"/>
-      <c r="AH9" s="543"/>
-      <c r="AI9" s="544" t="s">
+      <c r="E9" s="539"/>
+      <c r="F9" s="539"/>
+      <c r="G9" s="539"/>
+      <c r="H9" s="539"/>
+      <c r="I9" s="539"/>
+      <c r="J9" s="539"/>
+      <c r="K9" s="539"/>
+      <c r="L9" s="539"/>
+      <c r="M9" s="539"/>
+      <c r="N9" s="539"/>
+      <c r="O9" s="539"/>
+      <c r="P9" s="539"/>
+      <c r="Q9" s="539"/>
+      <c r="R9" s="539"/>
+      <c r="S9" s="539"/>
+      <c r="T9" s="539"/>
+      <c r="U9" s="539"/>
+      <c r="V9" s="539"/>
+      <c r="W9" s="539"/>
+      <c r="X9" s="539"/>
+      <c r="Y9" s="539"/>
+      <c r="Z9" s="539"/>
+      <c r="AA9" s="539"/>
+      <c r="AB9" s="539"/>
+      <c r="AC9" s="539"/>
+      <c r="AD9" s="539"/>
+      <c r="AE9" s="539"/>
+      <c r="AF9" s="539"/>
+      <c r="AG9" s="539"/>
+      <c r="AH9" s="540"/>
+      <c r="AI9" s="541" t="s">
         <v>97</v>
       </c>
       <c r="AJ9" s="84"/>
@@ -11303,9 +11303,9 @@
       <c r="AN9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="539"/>
-      <c r="B10" s="539"/>
-      <c r="C10" s="539"/>
+      <c r="A10" s="536"/>
+      <c r="B10" s="536"/>
+      <c r="C10" s="536"/>
       <c r="D10" s="89">
         <v>1</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="AH10" s="89">
         <v>31</v>
       </c>
-      <c r="AI10" s="544"/>
+      <c r="AI10" s="541"/>
       <c r="AJ10" s="90"/>
       <c r="AK10" s="86"/>
       <c r="AL10" s="86"/>
@@ -11407,9 +11407,9 @@
       <c r="AN10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="540"/>
-      <c r="B11" s="540"/>
-      <c r="C11" s="540"/>
+      <c r="A11" s="537"/>
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
       <c r="D11" s="89" t="s">
         <v>103</v>
       </c>
@@ -11503,7 +11503,7 @@
       <c r="AH11" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="AI11" s="544"/>
+      <c r="AI11" s="541"/>
       <c r="AJ11" s="93"/>
       <c r="AN11" s="95"/>
     </row>
@@ -11824,10 +11824,10 @@
       <c r="AN14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="545" t="s">
+      <c r="A15" s="542" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="546"/>
+      <c r="B15" s="543"/>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="98"/>
@@ -11870,49 +11870,49 @@
       <c r="AN15" s="95"/>
     </row>
     <row r="17" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="547" t="s">
+      <c r="A17" s="544" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="547"/>
-      <c r="C17" s="547"/>
-      <c r="D17" s="547"/>
-      <c r="E17" s="547"/>
-      <c r="F17" s="547"/>
-      <c r="G17" s="547"/>
+      <c r="B17" s="544"/>
+      <c r="C17" s="544"/>
+      <c r="D17" s="544"/>
+      <c r="E17" s="544"/>
+      <c r="F17" s="544"/>
+      <c r="G17" s="544"/>
       <c r="H17" s="102"/>
-      <c r="I17" s="548"/>
-      <c r="J17" s="548"/>
-      <c r="K17" s="548"/>
-      <c r="L17" s="548"/>
-      <c r="M17" s="548"/>
+      <c r="I17" s="545"/>
+      <c r="J17" s="545"/>
+      <c r="K17" s="545"/>
+      <c r="L17" s="545"/>
+      <c r="M17" s="545"/>
       <c r="N17" s="103"/>
-      <c r="O17" s="548" t="s">
+      <c r="O17" s="545" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="548"/>
-      <c r="Q17" s="548"/>
-      <c r="R17" s="548"/>
-      <c r="S17" s="548"/>
-      <c r="T17" s="548"/>
-      <c r="U17" s="548"/>
-      <c r="V17" s="548"/>
-      <c r="W17" s="548"/>
-      <c r="X17" s="548"/>
-      <c r="Y17" s="548"/>
+      <c r="P17" s="545"/>
+      <c r="Q17" s="545"/>
+      <c r="R17" s="545"/>
+      <c r="S17" s="545"/>
+      <c r="T17" s="545"/>
+      <c r="U17" s="545"/>
+      <c r="V17" s="545"/>
+      <c r="W17" s="545"/>
+      <c r="X17" s="545"/>
+      <c r="Y17" s="545"/>
       <c r="Z17" s="104"/>
       <c r="AA17" s="104"/>
       <c r="AB17" s="105"/>
-      <c r="AC17" s="548"/>
-      <c r="AD17" s="548"/>
-      <c r="AE17" s="548"/>
-      <c r="AF17" s="548"/>
-      <c r="AG17" s="548"/>
-      <c r="AH17" s="548"/>
-      <c r="AI17" s="548"/>
-      <c r="AJ17" s="548"/>
-      <c r="AK17" s="548"/>
-      <c r="AL17" s="548"/>
-      <c r="AM17" s="548"/>
+      <c r="AC17" s="545"/>
+      <c r="AD17" s="545"/>
+      <c r="AE17" s="545"/>
+      <c r="AF17" s="545"/>
+      <c r="AG17" s="545"/>
+      <c r="AH17" s="545"/>
+      <c r="AI17" s="545"/>
+      <c r="AJ17" s="545"/>
+      <c r="AK17" s="545"/>
+      <c r="AL17" s="545"/>
+      <c r="AM17" s="545"/>
       <c r="AN17" s="106"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -11946,131 +11946,131 @@
       <c r="AN32" s="111"/>
     </row>
     <row r="33" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="536"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="536"/>
-      <c r="J33" s="536"/>
-      <c r="K33" s="536"/>
-      <c r="L33" s="536"/>
-      <c r="M33" s="536"/>
-      <c r="N33" s="536"/>
-      <c r="O33" s="536"/>
-      <c r="P33" s="536"/>
-      <c r="Q33" s="536"/>
-      <c r="R33" s="536"/>
-      <c r="S33" s="536"/>
-      <c r="T33" s="536"/>
-      <c r="U33" s="536"/>
-      <c r="V33" s="536"/>
-      <c r="W33" s="536"/>
-      <c r="X33" s="536"/>
+      <c r="G33" s="528"/>
+      <c r="H33" s="528"/>
+      <c r="I33" s="528"/>
+      <c r="J33" s="528"/>
+      <c r="K33" s="528"/>
+      <c r="L33" s="528"/>
+      <c r="M33" s="528"/>
+      <c r="N33" s="528"/>
+      <c r="O33" s="528"/>
+      <c r="P33" s="528"/>
+      <c r="Q33" s="528"/>
+      <c r="R33" s="528"/>
+      <c r="S33" s="528"/>
+      <c r="T33" s="528"/>
+      <c r="U33" s="528"/>
+      <c r="V33" s="528"/>
+      <c r="W33" s="528"/>
+      <c r="X33" s="528"/>
       <c r="AN33" s="111"/>
     </row>
     <row r="34" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="536"/>
-      <c r="H34" s="536"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="536"/>
-      <c r="K34" s="536"/>
-      <c r="L34" s="536"/>
-      <c r="M34" s="536"/>
-      <c r="N34" s="536"/>
-      <c r="O34" s="536"/>
-      <c r="P34" s="536"/>
-      <c r="Q34" s="536"/>
-      <c r="R34" s="536"/>
-      <c r="S34" s="536"/>
-      <c r="T34" s="536"/>
-      <c r="U34" s="536"/>
-      <c r="V34" s="536"/>
-      <c r="W34" s="536"/>
-      <c r="X34" s="536"/>
+      <c r="G34" s="528"/>
+      <c r="H34" s="528"/>
+      <c r="I34" s="528"/>
+      <c r="J34" s="528"/>
+      <c r="K34" s="528"/>
+      <c r="L34" s="528"/>
+      <c r="M34" s="528"/>
+      <c r="N34" s="528"/>
+      <c r="O34" s="528"/>
+      <c r="P34" s="528"/>
+      <c r="Q34" s="528"/>
+      <c r="R34" s="528"/>
+      <c r="S34" s="528"/>
+      <c r="T34" s="528"/>
+      <c r="U34" s="528"/>
+      <c r="V34" s="528"/>
+      <c r="W34" s="528"/>
+      <c r="X34" s="528"/>
       <c r="AN34" s="111"/>
     </row>
     <row r="35" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="536"/>
-      <c r="H35" s="536"/>
-      <c r="I35" s="536"/>
-      <c r="J35" s="536"/>
-      <c r="K35" s="536"/>
-      <c r="L35" s="536"/>
-      <c r="M35" s="536"/>
-      <c r="N35" s="536"/>
-      <c r="O35" s="536"/>
-      <c r="P35" s="536"/>
-      <c r="Q35" s="536"/>
-      <c r="R35" s="536"/>
-      <c r="S35" s="536"/>
-      <c r="T35" s="536"/>
-      <c r="U35" s="536"/>
-      <c r="V35" s="536"/>
-      <c r="W35" s="536"/>
-      <c r="X35" s="536"/>
+      <c r="G35" s="528"/>
+      <c r="H35" s="528"/>
+      <c r="I35" s="528"/>
+      <c r="J35" s="528"/>
+      <c r="K35" s="528"/>
+      <c r="L35" s="528"/>
+      <c r="M35" s="528"/>
+      <c r="N35" s="528"/>
+      <c r="O35" s="528"/>
+      <c r="P35" s="528"/>
+      <c r="Q35" s="528"/>
+      <c r="R35" s="528"/>
+      <c r="S35" s="528"/>
+      <c r="T35" s="528"/>
+      <c r="U35" s="528"/>
+      <c r="V35" s="528"/>
+      <c r="W35" s="528"/>
+      <c r="X35" s="528"/>
       <c r="AN35" s="111"/>
     </row>
     <row r="36" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="536"/>
-      <c r="H36" s="536"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="536"/>
-      <c r="K36" s="536"/>
-      <c r="L36" s="536"/>
-      <c r="M36" s="536"/>
-      <c r="N36" s="536"/>
-      <c r="O36" s="536"/>
-      <c r="P36" s="536"/>
-      <c r="Q36" s="536"/>
-      <c r="R36" s="536"/>
-      <c r="S36" s="536"/>
-      <c r="T36" s="536"/>
-      <c r="U36" s="536"/>
-      <c r="V36" s="536"/>
-      <c r="W36" s="536"/>
-      <c r="X36" s="536"/>
+      <c r="G36" s="528"/>
+      <c r="H36" s="528"/>
+      <c r="I36" s="528"/>
+      <c r="J36" s="528"/>
+      <c r="K36" s="528"/>
+      <c r="L36" s="528"/>
+      <c r="M36" s="528"/>
+      <c r="N36" s="528"/>
+      <c r="O36" s="528"/>
+      <c r="P36" s="528"/>
+      <c r="Q36" s="528"/>
+      <c r="R36" s="528"/>
+      <c r="S36" s="528"/>
+      <c r="T36" s="528"/>
+      <c r="U36" s="528"/>
+      <c r="V36" s="528"/>
+      <c r="W36" s="528"/>
+      <c r="X36" s="528"/>
       <c r="AN36" s="111"/>
     </row>
     <row r="37" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="536"/>
-      <c r="H37" s="536"/>
-      <c r="I37" s="536"/>
-      <c r="J37" s="536"/>
-      <c r="K37" s="536"/>
-      <c r="L37" s="536"/>
-      <c r="M37" s="536"/>
-      <c r="N37" s="536"/>
-      <c r="O37" s="536"/>
-      <c r="P37" s="536"/>
-      <c r="Q37" s="536"/>
-      <c r="R37" s="536"/>
-      <c r="S37" s="536"/>
-      <c r="T37" s="536"/>
-      <c r="U37" s="536"/>
-      <c r="V37" s="536"/>
-      <c r="W37" s="536"/>
-      <c r="X37" s="536"/>
+      <c r="G37" s="528"/>
+      <c r="H37" s="528"/>
+      <c r="I37" s="528"/>
+      <c r="J37" s="528"/>
+      <c r="K37" s="528"/>
+      <c r="L37" s="528"/>
+      <c r="M37" s="528"/>
+      <c r="N37" s="528"/>
+      <c r="O37" s="528"/>
+      <c r="P37" s="528"/>
+      <c r="Q37" s="528"/>
+      <c r="R37" s="528"/>
+      <c r="S37" s="528"/>
+      <c r="T37" s="528"/>
+      <c r="U37" s="528"/>
+      <c r="V37" s="528"/>
+      <c r="W37" s="528"/>
+      <c r="X37" s="528"/>
       <c r="AN37" s="111"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="G38" s="536"/>
-      <c r="H38" s="536"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="536"/>
-      <c r="K38" s="536"/>
-      <c r="L38" s="536"/>
-      <c r="M38" s="536"/>
-      <c r="N38" s="536"/>
-      <c r="O38" s="536"/>
-      <c r="P38" s="536"/>
-      <c r="Q38" s="536"/>
-      <c r="R38" s="536"/>
-      <c r="S38" s="536"/>
-      <c r="T38" s="536"/>
-      <c r="U38" s="536"/>
-      <c r="V38" s="536"/>
-      <c r="W38" s="536"/>
-      <c r="X38" s="536"/>
+      <c r="G38" s="528"/>
+      <c r="H38" s="528"/>
+      <c r="I38" s="528"/>
+      <c r="J38" s="528"/>
+      <c r="K38" s="528"/>
+      <c r="L38" s="528"/>
+      <c r="M38" s="528"/>
+      <c r="N38" s="528"/>
+      <c r="O38" s="528"/>
+      <c r="P38" s="528"/>
+      <c r="Q38" s="528"/>
+      <c r="R38" s="528"/>
+      <c r="S38" s="528"/>
+      <c r="T38" s="528"/>
+      <c r="U38" s="528"/>
+      <c r="V38" s="528"/>
+      <c r="W38" s="528"/>
+      <c r="X38" s="528"/>
       <c r="AN38" s="76"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12080,6 +12080,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12094,13 +12101,6 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -12964,29 +12964,29 @@
       <c r="C1" s="375"/>
       <c r="D1" s="375"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="549" t="s">
+      <c r="F1" s="556" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="549"/>
-      <c r="H1" s="549"/>
-      <c r="I1" s="549"/>
-      <c r="J1" s="549"/>
+      <c r="G1" s="556"/>
+      <c r="H1" s="556"/>
+      <c r="I1" s="556"/>
+      <c r="J1" s="556"/>
     </row>
     <row r="2" spans="1:14" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="557" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="550"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
+      <c r="B2" s="557"/>
+      <c r="C2" s="557"/>
+      <c r="D2" s="557"/>
       <c r="E2" s="124"/>
-      <c r="F2" s="551" t="s">
+      <c r="F2" s="558" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="551"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="551"/>
-      <c r="J2" s="551"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="558"/>
+      <c r="J2" s="558"/>
     </row>
     <row r="3" spans="1:14" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="126"/>
@@ -13028,11 +13028,11 @@
       <c r="K5" s="552"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="553" t="s">
+      <c r="I6" s="549" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="553"/>
-      <c r="K6" s="553"/>
+      <c r="J6" s="549"/>
+      <c r="K6" s="549"/>
     </row>
     <row r="7" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="376" t="s">
@@ -13091,10 +13091,10 @@
       <c r="K8" s="385"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="554" t="s">
+      <c r="A9" s="550" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="555"/>
+      <c r="B9" s="551"/>
       <c r="C9" s="382"/>
       <c r="D9" s="382"/>
       <c r="E9" s="383"/>
@@ -13208,11 +13208,11 @@
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="556" t="s">
+      <c r="A13" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="557"/>
-      <c r="C13" s="558"/>
+      <c r="B13" s="554"/>
+      <c r="C13" s="555"/>
       <c r="D13" s="394">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13275,16 +13275,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.62" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$H$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$H$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="305">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -616,24 +616,12 @@
     <t>Bán xe ô tô (Ngày nhận HĐ 09/09/2020)</t>
   </si>
   <si>
-    <t>Cước đường bộ (Ngày nhận HĐ 09/09/2020)</t>
-  </si>
-  <si>
     <t>Chị Huệ Điện Biên thanh toán tiền hàng HĐ số 785</t>
   </si>
   <si>
     <t>Chị ngọc Anh thái Bình thanh toán tiền hàng HĐ số 787</t>
   </si>
   <si>
-    <t>Ăn uống công tác thanh hóa hà linh</t>
-  </si>
-  <si>
-    <t>Nhận hộ Hà Linh 5 bộ nồi chảo chống dính</t>
-  </si>
-  <si>
-    <t>Uống nước công tác thanh hóa hà linh</t>
-  </si>
-  <si>
     <t>ĐL Nhất Nhất</t>
   </si>
   <si>
@@ -670,15 +658,6 @@
     <t xml:space="preserve">Chị Quý </t>
   </si>
   <si>
-    <t>chị tâm thanh toán tiền hàng 1 hộp số 3</t>
-  </si>
-  <si>
-    <t>chị tâm thanh toán tiền hàng chị quý</t>
-  </si>
-  <si>
-    <t>chị huệ điện biên thanh toán tiền hàng</t>
-  </si>
-  <si>
     <t>quỳnh anh</t>
   </si>
   <si>
@@ -805,7 +784,163 @@
     <t>anh sơn ứng hoa hồng</t>
   </si>
   <si>
-    <t>trường hiền trả tiền phí đổi hàng</t>
+    <t>PT00165</t>
+  </si>
+  <si>
+    <t>PT00166</t>
+  </si>
+  <si>
+    <t>PT00167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chị tâm thanh toán tiền hàng đơn </t>
+  </si>
+  <si>
+    <t>PT00168</t>
+  </si>
+  <si>
+    <t>chị tâm thanh toán tiền hàng chị quý đơn 799</t>
+  </si>
+  <si>
+    <t>PT00169</t>
+  </si>
+  <si>
+    <t>Chị Quỳnh Anh trần khát chân khách A Lâm đơn 797</t>
+  </si>
+  <si>
+    <t>PT00170</t>
+  </si>
+  <si>
+    <t>PT00171</t>
+  </si>
+  <si>
+    <t>chị huệ điện biên thanh toán tiền hàng 667</t>
+  </si>
+  <si>
+    <t>PT00172</t>
+  </si>
+  <si>
+    <t>PT00173</t>
+  </si>
+  <si>
+    <t>chị Phương Yên Châu thanh toán tiền hàng 668</t>
+  </si>
+  <si>
+    <t>PT00174</t>
+  </si>
+  <si>
+    <t>Anh Thông thanh toán tiền hàng Đơn 674</t>
+  </si>
+  <si>
+    <t>PT00175</t>
+  </si>
+  <si>
+    <t>Em hằng thanh toán tiền hag đơn 801</t>
+  </si>
+  <si>
+    <t>PC00210</t>
+  </si>
+  <si>
+    <t>Biển em Công TP Vĩnh Yên</t>
+  </si>
+  <si>
+    <t>PC00211</t>
+  </si>
+  <si>
+    <t>Bảo dưỡng xe</t>
+  </si>
+  <si>
+    <t>PC00212</t>
+  </si>
+  <si>
+    <t>PC00213</t>
+  </si>
+  <si>
+    <t>Tai nghe</t>
+  </si>
+  <si>
+    <t>PC00214</t>
+  </si>
+  <si>
+    <t>Café H+ Việt Trì</t>
+  </si>
+  <si>
+    <t>BIgC Vĩnh Phúc đồ dùng</t>
+  </si>
+  <si>
+    <t>Cước đường bộ (HĐ 27/04/2020)</t>
+  </si>
+  <si>
+    <t>Cước đường bộ (HĐ 25/8/2020)</t>
+  </si>
+  <si>
+    <t>Cước đường bộ (HĐ 17/8/2020)</t>
+  </si>
+  <si>
+    <t>Cước đường bộ (HĐ 24/8/2020)</t>
+  </si>
+  <si>
+    <t>Cước đường bộ (HĐ 15/8/2020)</t>
+  </si>
+  <si>
+    <t>Tiếp khách  (HĐ 17/8/2020)</t>
+  </si>
+  <si>
+    <t>Tếp khách</t>
+  </si>
+  <si>
+    <t>Tiếp khách</t>
+  </si>
+  <si>
+    <t>Tiếp khách  (HĐ 19/8/2020)</t>
+  </si>
+  <si>
+    <t>Công tác phú thọ</t>
+  </si>
+  <si>
+    <t>Tiếp khách  (HĐ 28/8/2020)</t>
+  </si>
+  <si>
+    <t>Xăng</t>
+  </si>
+  <si>
+    <t>Máy ép trái cây</t>
+  </si>
+  <si>
+    <t>Loa blutooth</t>
+  </si>
+  <si>
+    <t>Tiếp khách  (HĐ 27/8/2020)</t>
+  </si>
+  <si>
+    <t>Công tác ninh bình</t>
+  </si>
+  <si>
+    <t>trường hiền trả tiền phí đổi hàng đơn 803</t>
+  </si>
+  <si>
+    <t>Thuê xe anh thuận 1 năm</t>
+  </si>
+  <si>
+    <t>PC00215</t>
+  </si>
+  <si>
+    <t>PC00216</t>
+  </si>
+  <si>
+    <t>PC00217</t>
+  </si>
+  <si>
+    <t>PC00218</t>
+  </si>
+  <si>
+    <t>PC00219</t>
+  </si>
+  <si>
+    <t>PC00220</t>
+  </si>
+  <si>
+    <t>PT00176</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1573,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2097,15 +2232,6 @@
     <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="18" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3330,16 +3456,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="265" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="262" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="229" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" style="229" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="227" bestFit="1" customWidth="1"/>
@@ -3389,16 +3516,16 @@
       <c r="I3" s="237"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="402" t="s">
+      <c r="A4" s="399" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="402"/>
-      <c r="C4" s="402"/>
-      <c r="D4" s="402"/>
-      <c r="E4" s="402"/>
-      <c r="F4" s="402"/>
-      <c r="G4" s="402"/>
-      <c r="H4" s="402"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
       <c r="I4" s="237"/>
     </row>
     <row r="5" spans="1:9" s="235" customFormat="1" x14ac:dyDescent="0.25">
@@ -3411,32 +3538,32 @@
       <c r="H5" s="234"/>
     </row>
     <row r="6" spans="1:9" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="403" t="s">
+      <c r="A6" s="400" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="408" t="s">
+      <c r="B6" s="405" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="403" t="s">
+      <c r="C6" s="400" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="405" t="s">
+      <c r="D6" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="407" t="s">
+      <c r="E6" s="404" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="407"/>
-      <c r="G6" s="407" t="s">
+      <c r="F6" s="404"/>
+      <c r="G6" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="407"/>
+      <c r="H6" s="404"/>
     </row>
     <row r="7" spans="1:9" s="235" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="404"/>
-      <c r="B7" s="409"/>
-      <c r="C7" s="404"/>
-      <c r="D7" s="406"/>
+      <c r="A7" s="401"/>
+      <c r="B7" s="406"/>
+      <c r="C7" s="401"/>
+      <c r="D7" s="403"/>
       <c r="E7" s="239" t="s">
         <v>78</v>
       </c>
@@ -3653,22 +3780,20 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="240">
-        <v>44077</v>
-      </c>
-      <c r="B18" s="240" t="s">
-        <v>184</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="B18" s="240"/>
       <c r="C18" s="241" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D18" s="242" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="E18" s="243"/>
       <c r="F18" s="244"/>
       <c r="G18" s="243"/>
       <c r="H18" s="244">
-        <v>200000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3676,39 +3801,39 @@
         <v>44077</v>
       </c>
       <c r="B19" s="240" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C19" s="241" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D19" s="242" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="243">
-        <v>13098000</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E19" s="243"/>
       <c r="F19" s="244"/>
       <c r="G19" s="243"/>
-      <c r="H19" s="244"/>
+      <c r="H19" s="244">
+        <v>200000</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="240">
         <v>44077</v>
       </c>
       <c r="B20" s="240" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C20" s="241" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D20" s="242" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="243"/>
+        <v>196</v>
+      </c>
+      <c r="E20" s="243">
+        <v>13098000</v>
+      </c>
       <c r="F20" s="244"/>
-      <c r="G20" s="243">
-        <v>3500000</v>
-      </c>
+      <c r="G20" s="243"/>
       <c r="H20" s="244"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3716,788 +3841,1147 @@
         <v>44077</v>
       </c>
       <c r="B21" s="240" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="241" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D21" s="242" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="243"/>
       <c r="F21" s="244"/>
       <c r="G21" s="243">
-        <v>8800000</v>
+        <v>3500000</v>
       </c>
       <c r="H21" s="244"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="240">
         <v>44077</v>
       </c>
       <c r="B22" s="240" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="241" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D22" s="242" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="243"/>
       <c r="F22" s="244"/>
-      <c r="G22" s="243"/>
-      <c r="H22" s="244">
-        <v>6960000</v>
-      </c>
+      <c r="G22" s="243">
+        <v>8800000</v>
+      </c>
+      <c r="H22" s="244"/>
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="240">
         <v>44077</v>
       </c>
       <c r="B23" s="240" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C23" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D23" s="242" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="E23" s="243"/>
-      <c r="F23" s="244">
-        <v>2000000</v>
-      </c>
+      <c r="F23" s="244"/>
       <c r="G23" s="243"/>
-      <c r="H23" s="244"/>
+      <c r="H23" s="244">
+        <v>6960000</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="240">
-        <v>44080</v>
+        <v>44077</v>
       </c>
       <c r="B24" s="240" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D24" s="242" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="243">
-        <v>3221400</v>
-      </c>
-      <c r="F24" s="244"/>
+        <v>123</v>
+      </c>
+      <c r="E24" s="243"/>
+      <c r="F24" s="244">
+        <v>2000000</v>
+      </c>
       <c r="G24" s="243"/>
       <c r="H24" s="244"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="240">
-        <v>44082</v>
-      </c>
-      <c r="B25" s="240" t="s">
-        <v>188</v>
-      </c>
+        <v>44079</v>
+      </c>
+      <c r="B25" s="240"/>
       <c r="C25" s="241" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="D25" s="242" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="E25" s="243"/>
       <c r="F25" s="244"/>
-      <c r="G25" s="243">
-        <v>760000</v>
-      </c>
-      <c r="H25" s="244"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="243"/>
+      <c r="H25" s="244">
+        <v>227000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="240">
-        <v>44083</v>
-      </c>
-      <c r="B26" s="240" t="s">
-        <v>189</v>
-      </c>
+        <v>44079</v>
+      </c>
+      <c r="B26" s="240"/>
       <c r="C26" s="241" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D26" s="242" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="E26" s="243"/>
       <c r="F26" s="244"/>
-      <c r="G26" s="243">
-        <v>3415000</v>
-      </c>
-      <c r="H26" s="244"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="243"/>
+      <c r="H26" s="244">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="240">
-        <v>44083</v>
+        <v>44079</v>
       </c>
       <c r="B27" s="240"/>
       <c r="C27" s="241" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D27" s="242" t="s">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="E27" s="243"/>
       <c r="F27" s="244"/>
-      <c r="G27" s="243"/>
-      <c r="H27" s="244">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="243">
+        <v>1905000</v>
+      </c>
+      <c r="H27" s="244"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="240">
-        <v>44070</v>
-      </c>
-      <c r="B28" s="240"/>
+        <v>44080</v>
+      </c>
+      <c r="B28" s="240" t="s">
+        <v>175</v>
+      </c>
       <c r="C28" s="241" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="D28" s="242" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="243"/>
+        <v>197</v>
+      </c>
+      <c r="E28" s="243">
+        <v>3221400</v>
+      </c>
       <c r="F28" s="244"/>
       <c r="G28" s="243"/>
-      <c r="H28" s="244">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="244"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="240">
-        <v>44083</v>
-      </c>
-      <c r="B29" s="240"/>
+        <v>44082</v>
+      </c>
+      <c r="B29" s="240" t="s">
+        <v>188</v>
+      </c>
       <c r="C29" s="241" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="D29" s="242" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E29" s="243"/>
       <c r="F29" s="244"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244">
-        <v>315000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="243">
+        <v>760000</v>
+      </c>
+      <c r="H29" s="244"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="240">
-        <v>44014</v>
-      </c>
-      <c r="B30" s="240" t="s">
-        <v>194</v>
-      </c>
+        <v>44082</v>
+      </c>
+      <c r="B30" s="240"/>
       <c r="C30" s="241" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="D30" s="242" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E30" s="243"/>
-      <c r="F30" s="244">
-        <v>535000000</v>
-      </c>
+      <c r="F30" s="244"/>
       <c r="G30" s="243"/>
-      <c r="H30" s="244"/>
+      <c r="H30" s="244">
+        <v>40000</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="240">
-        <v>44085</v>
-      </c>
-      <c r="B31" s="240"/>
+        <v>44083</v>
+      </c>
+      <c r="B31" s="240" t="s">
+        <v>189</v>
+      </c>
       <c r="C31" s="241" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D31" s="242" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="E31" s="243"/>
-      <c r="F31" s="244">
-        <v>3000000</v>
-      </c>
-      <c r="G31" s="243"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="243">
+        <v>3415000</v>
+      </c>
       <c r="H31" s="244"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="240">
-        <v>44087</v>
+        <v>44083</v>
       </c>
       <c r="B32" s="240"/>
       <c r="C32" s="241" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D32" s="242" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E32" s="243"/>
       <c r="F32" s="244"/>
       <c r="G32" s="243"/>
       <c r="H32" s="244">
-        <v>1185000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="240">
-        <v>44087</v>
-      </c>
-      <c r="B33" s="240" t="s">
-        <v>203</v>
-      </c>
+        <v>44083</v>
+      </c>
+      <c r="B33" s="240"/>
       <c r="C33" s="241" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="D33" s="242" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="E33" s="243"/>
       <c r="F33" s="244"/>
       <c r="G33" s="243"/>
       <c r="H33" s="244">
-        <v>1380000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="240">
-        <v>44087</v>
+        <v>44083</v>
       </c>
       <c r="B34" s="240"/>
       <c r="C34" s="241" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34" s="242" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="E34" s="243"/>
       <c r="F34" s="244"/>
       <c r="G34" s="243"/>
       <c r="H34" s="244">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="240">
-        <v>44089</v>
+        <v>44083</v>
       </c>
       <c r="B35" s="240"/>
       <c r="C35" s="241" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D35" s="242" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="E35" s="243"/>
-      <c r="F35" s="244">
-        <v>1717000</v>
-      </c>
+      <c r="F35" s="244"/>
       <c r="G35" s="243"/>
-      <c r="H35" s="244"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="244">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="240">
-        <v>44089</v>
+        <v>44083</v>
       </c>
       <c r="B36" s="240"/>
       <c r="C36" s="241" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="D36" s="242" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="E36" s="243"/>
       <c r="F36" s="244"/>
       <c r="G36" s="243"/>
       <c r="H36" s="244">
-        <v>1717000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="240"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="240">
+        <v>44083</v>
+      </c>
       <c r="B37" s="240"/>
-      <c r="C37" s="241"/>
+      <c r="C37" s="241" t="s">
+        <v>190</v>
+      </c>
       <c r="D37" s="242" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="E37" s="243"/>
       <c r="F37" s="244"/>
       <c r="G37" s="243"/>
-      <c r="H37" s="244"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="240"/>
+      <c r="H37" s="244">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="240">
+        <v>44083</v>
+      </c>
       <c r="B38" s="240"/>
-      <c r="C38" s="241"/>
+      <c r="C38" s="241" t="s">
+        <v>190</v>
+      </c>
       <c r="D38" s="242" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="243">
-        <v>4085750</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E38" s="243"/>
       <c r="F38" s="244"/>
       <c r="G38" s="243"/>
-      <c r="H38" s="244"/>
+      <c r="H38" s="244">
+        <v>40000</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="240"/>
-      <c r="B39" s="240"/>
-      <c r="C39" s="241"/>
+      <c r="A39" s="240">
+        <v>44083</v>
+      </c>
+      <c r="B39" s="240" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="241" t="s">
+        <v>118</v>
+      </c>
       <c r="D39" s="242" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="E39" s="243"/>
       <c r="F39" s="244"/>
       <c r="G39" s="243"/>
-      <c r="H39" s="244"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="244">
+        <v>1315001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="240">
-        <v>44102</v>
+        <v>44083</v>
       </c>
       <c r="B40" s="240"/>
-      <c r="C40" s="241"/>
+      <c r="C40" s="241" t="s">
+        <v>192</v>
+      </c>
       <c r="D40" s="242" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="E40" s="243"/>
-      <c r="F40" s="244">
-        <v>5000000</v>
-      </c>
+      <c r="F40" s="244"/>
       <c r="G40" s="243"/>
-      <c r="H40" s="244"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="244">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="240">
-        <v>44103</v>
+        <v>44083</v>
       </c>
       <c r="B41" s="240"/>
-      <c r="C41" s="241"/>
+      <c r="C41" s="241" t="s">
+        <v>192</v>
+      </c>
       <c r="D41" s="242" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="E41" s="243"/>
       <c r="F41" s="244"/>
-      <c r="G41" s="243">
-        <v>28000000</v>
-      </c>
-      <c r="H41" s="244"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="243"/>
+      <c r="H41" s="244">
+        <v>718000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="240">
-        <v>44102</v>
+        <v>44083</v>
       </c>
       <c r="B42" s="240"/>
-      <c r="C42" s="241"/>
+      <c r="C42" s="241" t="s">
+        <v>192</v>
+      </c>
       <c r="D42" s="242" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="E42" s="243"/>
-      <c r="F42" s="244">
-        <v>268450</v>
-      </c>
+      <c r="F42" s="244"/>
       <c r="G42" s="243"/>
-      <c r="H42" s="244"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="244">
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="240">
-        <v>44102</v>
+        <v>44083</v>
       </c>
       <c r="B43" s="240"/>
-      <c r="C43" s="241"/>
+      <c r="C43" s="241" t="s">
+        <v>192</v>
+      </c>
       <c r="D43" s="242" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="E43" s="243"/>
       <c r="F43" s="244"/>
       <c r="G43" s="243"/>
       <c r="H43" s="244">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="240">
-        <v>44104</v>
+        <v>44083</v>
       </c>
       <c r="B44" s="240"/>
-      <c r="C44" s="241"/>
+      <c r="C44" s="241" t="s">
+        <v>192</v>
+      </c>
       <c r="D44" s="242" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="E44" s="243"/>
       <c r="F44" s="244"/>
-      <c r="G44" s="243">
-        <v>10000000</v>
-      </c>
-      <c r="H44" s="244"/>
+      <c r="G44" s="243"/>
+      <c r="H44" s="244">
+        <v>315000</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="240"/>
-      <c r="B45" s="240"/>
-      <c r="C45" s="241"/>
+      <c r="A45" s="240">
+        <v>44014</v>
+      </c>
+      <c r="B45" s="240" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="241" t="s">
+        <v>118</v>
+      </c>
       <c r="D45" s="242" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="E45" s="243"/>
       <c r="F45" s="244">
-        <v>3055000</v>
+        <v>535000000</v>
       </c>
       <c r="G45" s="243"/>
       <c r="H45" s="244"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="240"/>
-      <c r="B46" s="240"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="242"/>
+      <c r="A46" s="240">
+        <v>44085</v>
+      </c>
+      <c r="B46" s="240" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="242" t="s">
+        <v>123</v>
+      </c>
       <c r="E46" s="243"/>
-      <c r="F46" s="244"/>
+      <c r="F46" s="244">
+        <v>3000000</v>
+      </c>
       <c r="G46" s="243"/>
       <c r="H46" s="244"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="240"/>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="240">
+        <v>44085</v>
+      </c>
       <c r="B47" s="240"/>
-      <c r="C47" s="241"/>
-      <c r="D47" s="242"/>
+      <c r="C47" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="242" t="s">
+        <v>191</v>
+      </c>
       <c r="E47" s="243"/>
       <c r="F47" s="244"/>
       <c r="G47" s="243"/>
-      <c r="H47" s="244"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="240"/>
+      <c r="H47" s="244">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="240">
+        <v>44085</v>
+      </c>
       <c r="B48" s="240"/>
-      <c r="C48" s="241"/>
-      <c r="D48" s="242"/>
+      <c r="C48" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="242" t="s">
+        <v>191</v>
+      </c>
       <c r="E48" s="243"/>
       <c r="F48" s="244"/>
       <c r="G48" s="243"/>
-      <c r="H48" s="244"/>
+      <c r="H48" s="244">
+        <v>105000</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="240"/>
-      <c r="B49" s="240"/>
-      <c r="C49" s="241"/>
-      <c r="D49" s="242"/>
+      <c r="A49" s="240">
+        <v>44086</v>
+      </c>
+      <c r="B49" s="240" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="242" t="s">
+        <v>293</v>
+      </c>
       <c r="E49" s="243"/>
       <c r="F49" s="244"/>
       <c r="G49" s="243"/>
-      <c r="H49" s="244"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="240"/>
+      <c r="H49" s="244">
+        <v>2140001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="240">
+        <v>44087</v>
+      </c>
       <c r="B50" s="240"/>
-      <c r="C50" s="241"/>
-      <c r="D50" s="242"/>
+      <c r="C50" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="242" t="s">
+        <v>191</v>
+      </c>
       <c r="E50" s="243"/>
       <c r="F50" s="244"/>
       <c r="G50" s="243"/>
-      <c r="H50" s="244"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="240"/>
+      <c r="H50" s="244">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="240">
+        <v>44087</v>
+      </c>
       <c r="B51" s="240"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="242"/>
+      <c r="C51" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="242" t="s">
+        <v>291</v>
+      </c>
       <c r="E51" s="243"/>
       <c r="F51" s="244"/>
       <c r="G51" s="243"/>
-      <c r="H51" s="244"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="240"/>
+      <c r="H51" s="244">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="240">
+        <v>44087</v>
+      </c>
       <c r="B52" s="240"/>
-      <c r="C52" s="241"/>
-      <c r="D52" s="242"/>
+      <c r="C52" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="242" t="s">
+        <v>191</v>
+      </c>
       <c r="E52" s="243"/>
       <c r="F52" s="244"/>
       <c r="G52" s="243"/>
-      <c r="H52" s="244"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="240"/>
+      <c r="H52" s="244">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="240">
+        <v>44087</v>
+      </c>
       <c r="B53" s="240"/>
-      <c r="C53" s="241"/>
-      <c r="D53" s="242"/>
+      <c r="C53" s="241" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="242" t="s">
+        <v>295</v>
+      </c>
       <c r="E53" s="243"/>
       <c r="F53" s="244"/>
       <c r="G53" s="243"/>
-      <c r="H53" s="244"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="240"/>
+      <c r="H53" s="244">
+        <v>1185000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="240">
+        <v>44088</v>
+      </c>
       <c r="B54" s="240"/>
-      <c r="C54" s="241"/>
-      <c r="D54" s="242"/>
+      <c r="C54" s="241" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="242" t="s">
+        <v>278</v>
+      </c>
       <c r="E54" s="243"/>
       <c r="F54" s="244"/>
       <c r="G54" s="243"/>
-      <c r="H54" s="244"/>
+      <c r="H54" s="244">
+        <v>85000</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="240"/>
-      <c r="B55" s="240"/>
-      <c r="C55" s="241"/>
-      <c r="D55" s="242"/>
+      <c r="A55" s="240">
+        <v>44089</v>
+      </c>
+      <c r="B55" s="240" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="242" t="s">
+        <v>200</v>
+      </c>
       <c r="E55" s="243"/>
-      <c r="F55" s="244"/>
+      <c r="F55" s="244">
+        <v>1717000</v>
+      </c>
       <c r="G55" s="243"/>
       <c r="H55" s="244"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="240"/>
-      <c r="B56" s="240"/>
-      <c r="C56" s="241"/>
-      <c r="D56" s="242"/>
+      <c r="A56" s="240">
+        <v>44089</v>
+      </c>
+      <c r="B56" s="240" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="241" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="242" t="s">
+        <v>201</v>
+      </c>
       <c r="E56" s="243"/>
       <c r="F56" s="244"/>
       <c r="G56" s="243"/>
-      <c r="H56" s="244"/>
+      <c r="H56" s="244">
+        <v>1717000</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="240"/>
-      <c r="B57" s="240"/>
-      <c r="C57" s="241"/>
-      <c r="D57" s="242"/>
+      <c r="A57" s="240">
+        <v>44090</v>
+      </c>
+      <c r="B57" s="240" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="242" t="s">
+        <v>273</v>
+      </c>
       <c r="E57" s="243"/>
       <c r="F57" s="244"/>
       <c r="G57" s="243"/>
-      <c r="H57" s="244"/>
+      <c r="H57" s="244">
+        <v>10120000</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="240"/>
-      <c r="B58" s="240"/>
-      <c r="C58" s="241"/>
-      <c r="D58" s="242"/>
+      <c r="A58" s="240">
+        <v>44091</v>
+      </c>
+      <c r="B58" s="240" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="242" t="s">
+        <v>276</v>
+      </c>
       <c r="E58" s="243"/>
       <c r="F58" s="244"/>
       <c r="G58" s="243"/>
-      <c r="H58" s="244"/>
+      <c r="H58" s="244">
+        <v>105001</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="240"/>
-      <c r="B59" s="240"/>
-      <c r="C59" s="241"/>
-      <c r="D59" s="242"/>
+      <c r="A59" s="240">
+        <v>44091</v>
+      </c>
+      <c r="B59" s="240" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="242" t="s">
+        <v>259</v>
+      </c>
       <c r="E59" s="243"/>
-      <c r="F59" s="244"/>
+      <c r="F59" s="244">
+        <v>1097000</v>
+      </c>
       <c r="G59" s="243"/>
       <c r="H59" s="244"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="240"/>
-      <c r="B60" s="240"/>
-      <c r="C60" s="241"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="243"/>
+      <c r="A60" s="240">
+        <v>44091</v>
+      </c>
+      <c r="B60" s="240" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="242" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" s="243">
+        <v>9664200</v>
+      </c>
       <c r="F60" s="244"/>
       <c r="G60" s="243"/>
       <c r="H60" s="244"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="240"/>
-      <c r="B61" s="240"/>
-      <c r="C61" s="241"/>
-      <c r="D61" s="242"/>
+      <c r="A61" s="240">
+        <v>44092</v>
+      </c>
+      <c r="B61" s="240" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="242" t="s">
+        <v>173</v>
+      </c>
       <c r="E61" s="243"/>
       <c r="F61" s="244"/>
       <c r="G61" s="243"/>
-      <c r="H61" s="244"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="240"/>
+      <c r="H61" s="244">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="240">
+        <v>44092</v>
+      </c>
       <c r="B62" s="240"/>
-      <c r="C62" s="241"/>
-      <c r="D62" s="242"/>
+      <c r="C62" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="242" t="s">
+        <v>291</v>
+      </c>
       <c r="E62" s="243"/>
       <c r="F62" s="244"/>
       <c r="G62" s="243"/>
-      <c r="H62" s="244"/>
+      <c r="H62" s="244">
+        <v>1010360</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="240"/>
-      <c r="B63" s="240"/>
-      <c r="C63" s="241"/>
-      <c r="D63" s="242"/>
-      <c r="E63" s="243"/>
+      <c r="A63" s="240">
+        <v>44091</v>
+      </c>
+      <c r="B63" s="240" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="242" t="s">
+        <v>265</v>
+      </c>
+      <c r="E63" s="243">
+        <v>1610700</v>
+      </c>
       <c r="F63" s="244"/>
       <c r="G63" s="243"/>
       <c r="H63" s="244"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="240"/>
-      <c r="B64" s="240"/>
-      <c r="C64" s="241"/>
-      <c r="D64" s="242"/>
+      <c r="A64" s="240">
+        <v>44092</v>
+      </c>
+      <c r="B64" s="240" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="242" t="s">
+        <v>279</v>
+      </c>
       <c r="E64" s="243"/>
       <c r="F64" s="244"/>
       <c r="G64" s="243"/>
-      <c r="H64" s="244"/>
+      <c r="H64" s="244">
+        <v>726000</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="240"/>
-      <c r="B65" s="240"/>
-      <c r="C65" s="241"/>
-      <c r="D65" s="242"/>
-      <c r="E65" s="243"/>
+      <c r="A65" s="240">
+        <v>44092</v>
+      </c>
+      <c r="B65" s="240" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="242" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="243">
+        <v>4085750</v>
+      </c>
       <c r="F65" s="244"/>
       <c r="G65" s="243"/>
       <c r="H65" s="244"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="240"/>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="240">
+        <v>44093</v>
+      </c>
       <c r="B66" s="240"/>
-      <c r="C66" s="241"/>
-      <c r="D66" s="242"/>
+      <c r="C66" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="242" t="s">
+        <v>191</v>
+      </c>
       <c r="E66" s="243"/>
       <c r="F66" s="244"/>
       <c r="G66" s="243"/>
-      <c r="H66" s="244"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="240"/>
+      <c r="H66" s="244">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="240">
+        <v>44093</v>
+      </c>
       <c r="B67" s="240"/>
-      <c r="C67" s="241"/>
-      <c r="D67" s="242"/>
+      <c r="C67" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="242" t="s">
+        <v>191</v>
+      </c>
       <c r="E67" s="243"/>
       <c r="F67" s="244"/>
       <c r="G67" s="243"/>
-      <c r="H67" s="244"/>
+      <c r="H67" s="244">
+        <v>105000</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="240"/>
-      <c r="B68" s="240"/>
-      <c r="C68" s="241"/>
-      <c r="D68" s="242"/>
+      <c r="A68" s="240">
+        <v>44094</v>
+      </c>
+      <c r="B68" s="240" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="242" t="s">
+        <v>255</v>
+      </c>
       <c r="E68" s="243"/>
-      <c r="F68" s="244"/>
+      <c r="F68" s="244">
+        <v>280250</v>
+      </c>
       <c r="G68" s="243"/>
       <c r="H68" s="244"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="240"/>
-      <c r="B69" s="240"/>
-      <c r="C69" s="241"/>
-      <c r="D69" s="242"/>
+      <c r="A69" s="240">
+        <v>44095</v>
+      </c>
+      <c r="B69" s="240" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="242" t="s">
+        <v>169</v>
+      </c>
       <c r="E69" s="243"/>
       <c r="F69" s="244"/>
-      <c r="G69" s="243"/>
+      <c r="G69" s="243">
+        <v>530000</v>
+      </c>
       <c r="H69" s="244"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="240"/>
-      <c r="B70" s="240"/>
-      <c r="C70" s="241"/>
-      <c r="D70" s="242"/>
+      <c r="A70" s="240">
+        <v>44095</v>
+      </c>
+      <c r="B70" s="240" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="242" t="s">
+        <v>296</v>
+      </c>
       <c r="E70" s="243"/>
-      <c r="F70" s="244"/>
+      <c r="F70" s="244">
+        <v>3055000</v>
+      </c>
       <c r="G70" s="243"/>
       <c r="H70" s="244"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="240"/>
-      <c r="B71" s="240"/>
-      <c r="C71" s="241"/>
-      <c r="D71" s="242"/>
+      <c r="A71" s="240">
+        <v>44096</v>
+      </c>
+      <c r="B71" s="240" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="242" t="s">
+        <v>267</v>
+      </c>
       <c r="E71" s="243"/>
-      <c r="F71" s="244"/>
+      <c r="F71" s="244">
+        <v>2000000</v>
+      </c>
       <c r="G71" s="243"/>
       <c r="H71" s="244"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="240"/>
-      <c r="B72" s="240"/>
-      <c r="C72" s="241"/>
-      <c r="D72" s="242"/>
+      <c r="A72" s="240">
+        <v>44096</v>
+      </c>
+      <c r="B72" s="240" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="241" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="242" t="s">
+        <v>271</v>
+      </c>
       <c r="E72" s="243"/>
       <c r="F72" s="244"/>
       <c r="G72" s="243"/>
-      <c r="H72" s="244"/>
+      <c r="H72" s="244">
+        <v>700000</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="240"/>
-      <c r="B73" s="240"/>
-      <c r="C73" s="241"/>
-      <c r="D73" s="242"/>
+      <c r="A73" s="240">
+        <v>44097</v>
+      </c>
+      <c r="B73" s="240" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="242" t="s">
+        <v>224</v>
+      </c>
       <c r="E73" s="243"/>
-      <c r="F73" s="244"/>
+      <c r="F73" s="244">
+        <v>268450</v>
+      </c>
       <c r="G73" s="243"/>
       <c r="H73" s="244"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="240"/>
-      <c r="B74" s="240"/>
-      <c r="C74" s="241"/>
-      <c r="D74" s="242"/>
+      <c r="A74" s="240">
+        <v>44097</v>
+      </c>
+      <c r="B74" s="240" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="242" t="s">
+        <v>250</v>
+      </c>
       <c r="E74" s="243"/>
-      <c r="F74" s="244"/>
+      <c r="F74" s="244">
+        <v>5000000</v>
+      </c>
       <c r="G74" s="243"/>
       <c r="H74" s="244"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="240"/>
-      <c r="B75" s="240"/>
-      <c r="C75" s="241"/>
-      <c r="D75" s="242"/>
+      <c r="A75" s="240">
+        <v>44097</v>
+      </c>
+      <c r="B75" s="240" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="241" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="242" t="s">
+        <v>269</v>
+      </c>
       <c r="E75" s="243"/>
-      <c r="F75" s="244"/>
+      <c r="F75" s="244">
+        <v>268450</v>
+      </c>
       <c r="G75" s="243"/>
       <c r="H75" s="244"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="240"/>
-      <c r="B76" s="240"/>
-      <c r="C76" s="241"/>
-      <c r="D76" s="242"/>
+      <c r="A76" s="240">
+        <v>44097</v>
+      </c>
+      <c r="B76" s="240" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="241" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="242" t="s">
+        <v>251</v>
+      </c>
       <c r="E76" s="243"/>
       <c r="F76" s="244"/>
       <c r="G76" s="243"/>
-      <c r="H76" s="244"/>
+      <c r="H76" s="244">
+        <v>3000000</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="240"/>
-      <c r="B77" s="240"/>
-      <c r="C77" s="241"/>
-      <c r="D77" s="242"/>
+      <c r="A77" s="240">
+        <v>44103</v>
+      </c>
+      <c r="B77" s="240" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="242" t="s">
+        <v>249</v>
+      </c>
       <c r="E77" s="243"/>
       <c r="F77" s="244"/>
-      <c r="G77" s="243"/>
+      <c r="G77" s="243">
+        <v>28000000</v>
+      </c>
       <c r="H77" s="244"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="240"/>
-      <c r="B78" s="240"/>
-      <c r="C78" s="241"/>
-      <c r="D78" s="242"/>
+      <c r="A78" s="240">
+        <v>44104</v>
+      </c>
+      <c r="B78" s="240" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" s="241" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="242" t="s">
+        <v>248</v>
+      </c>
       <c r="E78" s="243"/>
       <c r="F78" s="244"/>
-      <c r="G78" s="243"/>
+      <c r="G78" s="243">
+        <v>10000000</v>
+      </c>
       <c r="H78" s="244"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="240"/>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="240">
+        <v>44104</v>
+      </c>
       <c r="B79" s="240"/>
-      <c r="C79" s="241"/>
-      <c r="D79" s="242"/>
+      <c r="C79" s="241" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="242" t="s">
+        <v>289</v>
+      </c>
       <c r="E79" s="243"/>
       <c r="F79" s="244"/>
       <c r="G79" s="243"/>
-      <c r="H79" s="244"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="240"/>
+      <c r="H79" s="244">
+        <v>415000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="240">
+        <v>44104</v>
+      </c>
       <c r="B80" s="240"/>
-      <c r="C80" s="241"/>
-      <c r="D80" s="242"/>
+      <c r="C80" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="242" t="s">
+        <v>191</v>
+      </c>
       <c r="E80" s="243"/>
       <c r="F80" s="244"/>
       <c r="G80" s="243"/>
-      <c r="H80" s="244"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="244">
+        <f>13*15000</f>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="240"/>
       <c r="B81" s="240"/>
       <c r="C81" s="241"/>
@@ -4507,465 +4991,145 @@
       <c r="G81" s="243"/>
       <c r="H81" s="244"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="240"/>
-      <c r="B82" s="240"/>
-      <c r="C82" s="241"/>
-      <c r="D82" s="242"/>
-      <c r="E82" s="243"/>
-      <c r="F82" s="244"/>
-      <c r="G82" s="243"/>
-      <c r="H82" s="244"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="240"/>
-      <c r="B83" s="240"/>
-      <c r="C83" s="241"/>
-      <c r="D83" s="242"/>
-      <c r="E83" s="243"/>
-      <c r="F83" s="244"/>
-      <c r="G83" s="243"/>
-      <c r="H83" s="244"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="240"/>
-      <c r="B84" s="240"/>
-      <c r="C84" s="241"/>
-      <c r="D84" s="242"/>
-      <c r="E84" s="243"/>
-      <c r="F84" s="244"/>
-      <c r="G84" s="243"/>
-      <c r="H84" s="244"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="240"/>
-      <c r="B85" s="240"/>
-      <c r="C85" s="241"/>
-      <c r="D85" s="242"/>
-      <c r="E85" s="243"/>
-      <c r="F85" s="244"/>
-      <c r="G85" s="243"/>
-      <c r="H85" s="244"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="240"/>
-      <c r="B86" s="240"/>
-      <c r="C86" s="241"/>
-      <c r="D86" s="245"/>
-      <c r="E86" s="243"/>
-      <c r="F86" s="244"/>
-      <c r="G86" s="243"/>
-      <c r="H86" s="244"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="240"/>
-      <c r="B87" s="240"/>
-      <c r="C87" s="241"/>
-      <c r="D87" s="245"/>
-      <c r="E87" s="243"/>
-      <c r="F87" s="244"/>
-      <c r="G87" s="243"/>
-      <c r="H87" s="244"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="240"/>
-      <c r="B88" s="240"/>
-      <c r="C88" s="241"/>
-      <c r="D88" s="245"/>
-      <c r="E88" s="243"/>
-      <c r="F88" s="244"/>
-      <c r="G88" s="243"/>
-      <c r="H88" s="244"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="240"/>
-      <c r="B89" s="240"/>
-      <c r="C89" s="241"/>
-      <c r="D89" s="245"/>
-      <c r="E89" s="243"/>
-      <c r="F89" s="244"/>
-      <c r="G89" s="243"/>
-      <c r="H89" s="244"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="240"/>
-      <c r="B90" s="240"/>
-      <c r="C90" s="241"/>
-      <c r="D90" s="242"/>
-      <c r="E90" s="243"/>
-      <c r="F90" s="244"/>
-      <c r="G90" s="243"/>
-      <c r="H90" s="246"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="240"/>
-      <c r="B91" s="240"/>
-      <c r="C91" s="241"/>
-      <c r="D91" s="242"/>
-      <c r="E91" s="243"/>
-      <c r="F91" s="244"/>
-      <c r="G91" s="243"/>
-      <c r="H91" s="246"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="240"/>
-      <c r="B92" s="240"/>
-      <c r="C92" s="241"/>
-      <c r="D92" s="242"/>
-      <c r="E92" s="243"/>
-      <c r="F92" s="244"/>
-      <c r="G92" s="243"/>
-      <c r="H92" s="246"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="240"/>
-      <c r="B93" s="240"/>
-      <c r="C93" s="241"/>
-      <c r="D93" s="242"/>
-      <c r="E93" s="243"/>
-      <c r="F93" s="244"/>
-      <c r="G93" s="243"/>
-      <c r="H93" s="246"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="240"/>
-      <c r="B94" s="240"/>
-      <c r="C94" s="241"/>
-      <c r="D94" s="242"/>
-      <c r="E94" s="243"/>
-      <c r="F94" s="244"/>
-      <c r="G94" s="243"/>
-      <c r="H94" s="246"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="240"/>
-      <c r="B95" s="240"/>
-      <c r="C95" s="241"/>
-      <c r="D95" s="242"/>
-      <c r="E95" s="243"/>
-      <c r="F95" s="244"/>
-      <c r="G95" s="243"/>
-      <c r="H95" s="246"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="240"/>
-      <c r="B96" s="240"/>
-      <c r="C96" s="241"/>
-      <c r="D96" s="242"/>
-      <c r="E96" s="243"/>
-      <c r="F96" s="244"/>
-      <c r="G96" s="243"/>
-      <c r="H96" s="246"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="240"/>
-      <c r="B97" s="240"/>
-      <c r="C97" s="241"/>
-      <c r="D97" s="242"/>
-      <c r="E97" s="243"/>
-      <c r="F97" s="244"/>
-      <c r="G97" s="243"/>
-      <c r="H97" s="246"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="240"/>
-      <c r="B98" s="240"/>
-      <c r="C98" s="241"/>
-      <c r="D98" s="242"/>
-      <c r="E98" s="243"/>
-      <c r="F98" s="244"/>
-      <c r="G98" s="243"/>
-      <c r="H98" s="246"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="240"/>
-      <c r="B99" s="240"/>
-      <c r="C99" s="241"/>
-      <c r="D99" s="242"/>
-      <c r="E99" s="243"/>
-      <c r="F99" s="244"/>
-      <c r="G99" s="243"/>
-      <c r="H99" s="246"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="240"/>
-      <c r="B100" s="240"/>
-      <c r="C100" s="241"/>
-      <c r="D100" s="242"/>
-      <c r="E100" s="243"/>
-      <c r="F100" s="244"/>
-      <c r="G100" s="243"/>
-      <c r="H100" s="246"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="240"/>
-      <c r="B101" s="240"/>
-      <c r="C101" s="241"/>
-      <c r="D101" s="242"/>
-      <c r="E101" s="243"/>
-      <c r="F101" s="244"/>
-      <c r="G101" s="243"/>
-      <c r="H101" s="246"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="240"/>
-      <c r="B102" s="240"/>
-      <c r="C102" s="241"/>
-      <c r="D102" s="242"/>
-      <c r="E102" s="243"/>
-      <c r="F102" s="244"/>
-      <c r="G102" s="243"/>
-      <c r="H102" s="246"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="240"/>
-      <c r="B103" s="240"/>
-      <c r="C103" s="241"/>
-      <c r="D103" s="247"/>
-      <c r="E103" s="243"/>
-      <c r="F103" s="244"/>
-      <c r="G103" s="243"/>
-      <c r="H103" s="246"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="240"/>
-      <c r="B104" s="240"/>
-      <c r="C104" s="241"/>
-      <c r="D104" s="247"/>
-      <c r="E104" s="243"/>
-      <c r="F104" s="244"/>
-      <c r="G104" s="243"/>
-      <c r="H104" s="246"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="240"/>
-      <c r="B105" s="240"/>
-      <c r="C105" s="241"/>
-      <c r="D105" s="247"/>
-      <c r="E105" s="243"/>
-      <c r="F105" s="244"/>
-      <c r="G105" s="243"/>
-      <c r="H105" s="246"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="240"/>
-      <c r="B106" s="240"/>
-      <c r="C106" s="241"/>
-      <c r="D106" s="245"/>
-      <c r="E106" s="243"/>
-      <c r="F106" s="244"/>
-      <c r="G106" s="243"/>
-      <c r="H106" s="246"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="240"/>
-      <c r="B107" s="240"/>
-      <c r="C107" s="241"/>
-      <c r="D107" s="242"/>
-      <c r="E107" s="243"/>
-      <c r="F107" s="244"/>
-      <c r="G107" s="243"/>
-      <c r="H107" s="246"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="240"/>
-      <c r="B108" s="240"/>
-      <c r="C108" s="241"/>
-      <c r="D108" s="242"/>
-      <c r="E108" s="243"/>
-      <c r="F108" s="244"/>
-      <c r="G108" s="243"/>
-      <c r="H108" s="246"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="240"/>
-      <c r="B109" s="240"/>
-      <c r="C109" s="241"/>
-      <c r="D109" s="242"/>
-      <c r="E109" s="243"/>
-      <c r="F109" s="244"/>
-      <c r="G109" s="243"/>
-      <c r="H109" s="246"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="240"/>
-      <c r="B110" s="240"/>
-      <c r="C110" s="241"/>
-      <c r="D110" s="242"/>
-      <c r="E110" s="243"/>
-      <c r="F110" s="244"/>
-      <c r="G110" s="243"/>
-      <c r="H110" s="246"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="240"/>
-      <c r="B111" s="240"/>
-      <c r="C111" s="241"/>
-      <c r="D111" s="242"/>
-      <c r="E111" s="243"/>
-      <c r="F111" s="244"/>
-      <c r="G111" s="243"/>
-      <c r="H111" s="246"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="240"/>
-      <c r="B112" s="240"/>
-      <c r="C112" s="241"/>
-      <c r="D112" s="242"/>
-      <c r="E112" s="243"/>
-      <c r="F112" s="244"/>
-      <c r="G112" s="243"/>
-      <c r="H112" s="246"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="240"/>
-      <c r="B113" s="240"/>
-      <c r="C113" s="241"/>
-      <c r="D113" s="242"/>
-      <c r="E113" s="243"/>
-      <c r="F113" s="244"/>
-      <c r="G113" s="243"/>
-      <c r="H113" s="246"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="240"/>
-      <c r="B114" s="240"/>
-      <c r="C114" s="241"/>
-      <c r="D114" s="242"/>
-      <c r="E114" s="243"/>
-      <c r="F114" s="244"/>
-      <c r="G114" s="243"/>
-      <c r="H114" s="246"/>
-    </row>
-    <row r="115" spans="1:9" s="249" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="399" t="s">
+    <row r="82" spans="1:9" s="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="400"/>
-      <c r="C115" s="400"/>
-      <c r="D115" s="401"/>
-      <c r="E115" s="248">
-        <f>SUM(E8:E114)</f>
-        <v>120405150</v>
-      </c>
-      <c r="F115" s="248">
-        <f t="shared" ref="F115:H115" si="0">SUM(F8:F114)</f>
-        <v>557698835</v>
-      </c>
-      <c r="G115" s="248">
+      <c r="B82" s="397"/>
+      <c r="C82" s="397"/>
+      <c r="D82" s="398"/>
+      <c r="E82" s="245">
+        <f>SUM(E8:E81)</f>
+        <v>131680050</v>
+      </c>
+      <c r="F82" s="245">
+        <f t="shared" ref="F82:H82" si="0">SUM(F8:F81)</f>
+        <v>561344535</v>
+      </c>
+      <c r="G82" s="245">
         <f t="shared" si="0"/>
-        <v>80510000</v>
-      </c>
-      <c r="H115" s="248">
+        <v>82945000</v>
+      </c>
+      <c r="H82" s="245">
         <f t="shared" si="0"/>
-        <v>22560385</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="249" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="250"/>
-      <c r="B116" s="250"/>
-      <c r="C116" s="251"/>
-      <c r="D116" s="251"/>
-      <c r="E116" s="252"/>
-      <c r="F116" s="252"/>
-      <c r="G116" s="252"/>
-      <c r="H116" s="252"/>
-    </row>
-    <row r="117" spans="1:9" s="249" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="398" t="s">
+        <v>56696748</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="247"/>
+      <c r="B83" s="247"/>
+      <c r="C83" s="248"/>
+      <c r="D83" s="248"/>
+      <c r="E83" s="249"/>
+      <c r="F83" s="249"/>
+      <c r="G83" s="249"/>
+      <c r="H83" s="249"/>
+    </row>
+    <row r="84" spans="1:9" s="246" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="395" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="398"/>
-      <c r="C117" s="398"/>
-      <c r="D117" s="251"/>
-      <c r="E117" s="252"/>
-      <c r="F117" s="252"/>
-      <c r="G117" s="252"/>
-      <c r="H117" s="252"/>
-    </row>
-    <row r="118" spans="1:9" s="249" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="250"/>
-      <c r="B118" s="250"/>
-      <c r="C118" s="251"/>
-      <c r="D118" s="251"/>
-      <c r="E118" s="252"/>
-      <c r="F118" s="252"/>
-      <c r="G118" s="252"/>
-      <c r="H118" s="252"/>
-    </row>
-    <row r="119" spans="1:9" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="253"/>
-      <c r="B119" s="253"/>
-      <c r="C119" s="254"/>
-      <c r="D119" s="255"/>
-      <c r="E119" s="256"/>
-      <c r="F119" s="257"/>
-      <c r="G119" s="256"/>
-      <c r="H119" s="258"/>
-    </row>
-    <row r="120" spans="1:9" s="249" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="253"/>
-      <c r="B120" s="253"/>
-      <c r="C120" s="254"/>
-      <c r="D120" s="255"/>
-      <c r="E120" s="256"/>
-      <c r="F120" s="257"/>
-      <c r="G120" s="256"/>
-      <c r="H120" s="258"/>
-    </row>
-    <row r="121" spans="1:9" s="249" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="250"/>
-      <c r="B121" s="250"/>
-      <c r="C121" s="251"/>
-      <c r="D121" s="251"/>
-      <c r="E121" s="252"/>
-      <c r="F121" s="252"/>
-      <c r="G121" s="252"/>
-      <c r="H121" s="252"/>
-    </row>
-    <row r="122" spans="1:9" s="262" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="259"/>
-      <c r="B122" s="259"/>
-      <c r="C122" s="260" t="s">
+      <c r="B84" s="395"/>
+      <c r="C84" s="395"/>
+      <c r="D84" s="248"/>
+      <c r="E84" s="249"/>
+      <c r="F84" s="249"/>
+      <c r="G84" s="249"/>
+      <c r="H84" s="249"/>
+    </row>
+    <row r="85" spans="1:9" s="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="247"/>
+      <c r="B85" s="247"/>
+      <c r="C85" s="248"/>
+      <c r="D85" s="248"/>
+      <c r="E85" s="249"/>
+      <c r="F85" s="249"/>
+      <c r="G85" s="249"/>
+      <c r="H85" s="249"/>
+    </row>
+    <row r="86" spans="1:9" s="246" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="250"/>
+      <c r="B86" s="250"/>
+      <c r="C86" s="251"/>
+      <c r="D86" s="252"/>
+      <c r="E86" s="253"/>
+      <c r="F86" s="254"/>
+      <c r="G86" s="253"/>
+      <c r="H86" s="255"/>
+    </row>
+    <row r="87" spans="1:9" s="246" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="250"/>
+      <c r="B87" s="250"/>
+      <c r="C87" s="251"/>
+      <c r="D87" s="252"/>
+      <c r="E87" s="253"/>
+      <c r="F87" s="254"/>
+      <c r="G87" s="253"/>
+      <c r="H87" s="255"/>
+    </row>
+    <row r="88" spans="1:9" s="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="247"/>
+      <c r="B88" s="247"/>
+      <c r="C88" s="248"/>
+      <c r="D88" s="248"/>
+      <c r="E88" s="249"/>
+      <c r="F88" s="249"/>
+      <c r="G88" s="249"/>
+      <c r="H88" s="249"/>
+    </row>
+    <row r="89" spans="1:9" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="256"/>
+      <c r="B89" s="256"/>
+      <c r="C89" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="D122" s="261"/>
-      <c r="E122" s="260" t="s">
+      <c r="D89" s="258"/>
+      <c r="E89" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="261"/>
-      <c r="G122" s="261"/>
-      <c r="H122" s="261"/>
-      <c r="I122" s="261"/>
-    </row>
-    <row r="123" spans="1:9" s="262" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="259"/>
-      <c r="B123" s="259"/>
-      <c r="C123" s="263" t="s">
+      <c r="F89" s="258"/>
+      <c r="G89" s="258"/>
+      <c r="H89" s="258"/>
+      <c r="I89" s="258"/>
+    </row>
+    <row r="90" spans="1:9" s="259" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="256"/>
+      <c r="B90" s="256"/>
+      <c r="C90" s="260" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="264"/>
-      <c r="E123" s="263" t="s">
+      <c r="D90" s="261"/>
+      <c r="E90" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="264"/>
-      <c r="G123" s="264"/>
-      <c r="H123" s="264"/>
-      <c r="I123" s="264"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="260"/>
-      <c r="D126" s="260"/>
-      <c r="E126" s="266"/>
+      <c r="F90" s="261"/>
+      <c r="G90" s="261"/>
+      <c r="H90" s="261"/>
+      <c r="I90" s="261"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="257"/>
+      <c r="D93" s="257"/>
+      <c r="E93" s="263"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:H115">
+  <autoFilter ref="A6:H82">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Biển bảng"/>
+        <filter val="Hàng Hóa"/>
+        <filter val="Khác"/>
+        <filter val="Lương, thưởng"/>
+        <filter val="Vận Chuyển"/>
+        <filter val="Văn phòng"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
@@ -4984,8 +5148,8 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5010,13 +5174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="431" t="s">
+      <c r="A1" s="428" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="431"/>
-      <c r="C1" s="431"/>
-      <c r="D1" s="431"/>
-      <c r="E1" s="431"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
       <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5030,163 +5194,163 @@
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="432" t="s">
+      <c r="A3" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="432"/>
-      <c r="I3" s="432"/>
-      <c r="J3" s="432"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="432"/>
-      <c r="M3" s="432"/>
-      <c r="N3" s="432"/>
-      <c r="O3" s="432"/>
-      <c r="P3" s="432"/>
+      <c r="B3" s="429"/>
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
+      <c r="G3" s="429"/>
+      <c r="H3" s="429"/>
+      <c r="I3" s="429"/>
+      <c r="J3" s="429"/>
+      <c r="K3" s="429"/>
+      <c r="L3" s="429"/>
+      <c r="M3" s="429"/>
+      <c r="N3" s="429"/>
+      <c r="O3" s="429"/>
+      <c r="P3" s="429"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="432" t="s">
+      <c r="A4" s="429" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="432"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="432"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
-      <c r="H4" s="432"/>
-      <c r="I4" s="432"/>
-      <c r="J4" s="432"/>
-      <c r="K4" s="432"/>
-      <c r="L4" s="432"/>
-      <c r="M4" s="432"/>
-      <c r="N4" s="432"/>
-      <c r="O4" s="432"/>
-      <c r="P4" s="432"/>
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="429"/>
+      <c r="K4" s="429"/>
+      <c r="L4" s="429"/>
+      <c r="M4" s="429"/>
+      <c r="N4" s="429"/>
+      <c r="O4" s="429"/>
+      <c r="P4" s="429"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="432"/>
-      <c r="B5" s="432"/>
-      <c r="C5" s="432"/>
-      <c r="D5" s="432"/>
-      <c r="E5" s="432"/>
-      <c r="F5" s="432"/>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
-      <c r="I5" s="432"/>
-      <c r="J5" s="432"/>
-      <c r="K5" s="433"/>
-      <c r="L5" s="433"/>
+      <c r="A5" s="429"/>
+      <c r="B5" s="429"/>
+      <c r="C5" s="429"/>
+      <c r="D5" s="429"/>
+      <c r="E5" s="429"/>
+      <c r="F5" s="429"/>
+      <c r="G5" s="429"/>
+      <c r="H5" s="429"/>
+      <c r="I5" s="429"/>
+      <c r="J5" s="429"/>
+      <c r="K5" s="430"/>
+      <c r="L5" s="430"/>
     </row>
     <row r="6" spans="1:17" s="144" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="426" t="s">
+      <c r="A6" s="423" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="434" t="s">
+      <c r="B6" s="431" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="426" t="s">
+      <c r="C6" s="423" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="436" t="s">
+      <c r="D6" s="433" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="436"/>
-      <c r="F6" s="437" t="s">
+      <c r="E6" s="433"/>
+      <c r="F6" s="434" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="437"/>
-      <c r="H6" s="437"/>
-      <c r="I6" s="437"/>
-      <c r="J6" s="437"/>
-      <c r="K6" s="437"/>
-      <c r="L6" s="437"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="438"/>
-      <c r="O6" s="438"/>
-      <c r="P6" s="439" t="s">
+      <c r="G6" s="434"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="434"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="434"/>
+      <c r="L6" s="434"/>
+      <c r="M6" s="435"/>
+      <c r="N6" s="435"/>
+      <c r="O6" s="435"/>
+      <c r="P6" s="436" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="144" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="427"/>
-      <c r="B7" s="435"/>
-      <c r="C7" s="427"/>
-      <c r="D7" s="426" t="s">
+      <c r="A7" s="424"/>
+      <c r="B7" s="432"/>
+      <c r="C7" s="424"/>
+      <c r="D7" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="426" t="s">
+      <c r="E7" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="426" t="s">
+      <c r="F7" s="423" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="426" t="s">
+      <c r="G7" s="423" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="424" t="s">
+      <c r="H7" s="421" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="424" t="s">
+      <c r="I7" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="428" t="s">
+      <c r="J7" s="425" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="428"/>
-      <c r="L7" s="424" t="s">
+      <c r="K7" s="425"/>
+      <c r="L7" s="421" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="424" t="s">
+      <c r="M7" s="421" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="424" t="s">
+      <c r="N7" s="421" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="424" t="s">
+      <c r="O7" s="421" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="440"/>
+      <c r="P7" s="437"/>
     </row>
     <row r="8" spans="1:17" s="144" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="427"/>
-      <c r="B8" s="435"/>
-      <c r="C8" s="427"/>
-      <c r="D8" s="427"/>
-      <c r="E8" s="427"/>
-      <c r="F8" s="427"/>
-      <c r="G8" s="427"/>
-      <c r="H8" s="425"/>
-      <c r="I8" s="425"/>
+      <c r="A8" s="424"/>
+      <c r="B8" s="432"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="424"/>
+      <c r="E8" s="424"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="424"/>
+      <c r="H8" s="422"/>
+      <c r="I8" s="422"/>
       <c r="J8" s="179" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="425"/>
-      <c r="M8" s="425"/>
-      <c r="N8" s="425"/>
-      <c r="O8" s="425"/>
-      <c r="P8" s="440"/>
+      <c r="L8" s="422"/>
+      <c r="M8" s="422"/>
+      <c r="N8" s="422"/>
+      <c r="O8" s="422"/>
+      <c r="P8" s="437"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="447">
+      <c r="A9" s="444">
         <v>785</v>
       </c>
-      <c r="B9" s="445">
+      <c r="B9" s="442">
         <v>44077</v>
       </c>
-      <c r="C9" s="410"/>
-      <c r="D9" s="410" t="s">
+      <c r="C9" s="407"/>
+      <c r="D9" s="407" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="410" t="s">
+      <c r="E9" s="407" t="s">
         <v>130</v>
       </c>
       <c r="F9" s="217" t="s">
@@ -5221,11 +5385,11 @@
       <c r="P9" s="217"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="448"/>
-      <c r="B10" s="446"/>
-      <c r="C10" s="420"/>
-      <c r="D10" s="420"/>
-      <c r="E10" s="420"/>
+      <c r="A10" s="445"/>
+      <c r="B10" s="443"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="417"/>
       <c r="F10" s="219" t="s">
         <v>127</v>
       </c>
@@ -5256,19 +5420,19 @@
       <c r="P10" s="176"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="410">
+      <c r="A11" s="407">
         <v>662</v>
       </c>
-      <c r="B11" s="413">
+      <c r="B11" s="410">
         <v>44077</v>
       </c>
-      <c r="C11" s="410" t="s">
+      <c r="C11" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="410" t="s">
+      <c r="D11" s="407" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="410" t="s">
+      <c r="E11" s="407" t="s">
         <v>148</v>
       </c>
       <c r="F11" s="217" t="s">
@@ -5302,11 +5466,11 @@
       <c r="Q11" s="184"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="411"/>
-      <c r="B12" s="414"/>
-      <c r="C12" s="411"/>
-      <c r="D12" s="411"/>
-      <c r="E12" s="411"/>
+      <c r="A12" s="408"/>
+      <c r="B12" s="411"/>
+      <c r="C12" s="408"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="408"/>
       <c r="F12" s="218" t="s">
         <v>126</v>
       </c>
@@ -5337,11 +5501,11 @@
       <c r="P12" s="175"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="411"/>
-      <c r="B13" s="414"/>
-      <c r="C13" s="411"/>
-      <c r="D13" s="411"/>
-      <c r="E13" s="411"/>
+      <c r="A13" s="408"/>
+      <c r="B13" s="411"/>
+      <c r="C13" s="408"/>
+      <c r="D13" s="408"/>
+      <c r="E13" s="408"/>
       <c r="F13" s="218" t="s">
         <v>133</v>
       </c>
@@ -5372,11 +5536,11 @@
       <c r="P13" s="218"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="420"/>
-      <c r="B14" s="421"/>
-      <c r="C14" s="420"/>
-      <c r="D14" s="420"/>
-      <c r="E14" s="420"/>
+      <c r="A14" s="417"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="417"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="417"/>
       <c r="F14" s="219" t="s">
         <v>124</v>
       </c>
@@ -5410,7 +5574,7 @@
       <c r="A15" s="220">
         <v>787</v>
       </c>
-      <c r="B15" s="316">
+      <c r="B15" s="313">
         <v>44080</v>
       </c>
       <c r="C15" s="216" t="s">
@@ -5500,7 +5664,7 @@
       <c r="A17" s="220">
         <v>790</v>
       </c>
-      <c r="B17" s="316">
+      <c r="B17" s="313">
         <v>44081</v>
       </c>
       <c r="C17" s="220" t="s">
@@ -5540,25 +5704,25 @@
       <c r="P17" s="190"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="410">
+      <c r="A18" s="407">
         <v>792</v>
       </c>
-      <c r="B18" s="413">
+      <c r="B18" s="410">
         <v>44085</v>
       </c>
-      <c r="C18" s="410" t="s">
+      <c r="C18" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="416" t="s">
+      <c r="D18" s="413" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="416" t="s">
+      <c r="E18" s="413" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="332" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="332">
+      <c r="F18" s="329" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="329">
         <v>9</v>
       </c>
       <c r="H18" s="192">
@@ -5582,18 +5746,18 @@
         <f t="shared" si="3"/>
         <v>1255500</v>
       </c>
-      <c r="P18" s="339"/>
+      <c r="P18" s="336"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="420"/>
-      <c r="B19" s="421"/>
-      <c r="C19" s="420"/>
-      <c r="D19" s="419"/>
-      <c r="E19" s="419"/>
-      <c r="F19" s="333" t="s">
+      <c r="A19" s="417"/>
+      <c r="B19" s="418"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="416"/>
+      <c r="E19" s="416"/>
+      <c r="F19" s="330" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="333">
+      <c r="G19" s="330">
         <v>36</v>
       </c>
       <c r="H19" s="193">
@@ -5617,24 +5781,24 @@
         <f t="shared" si="3"/>
         <v>10155600</v>
       </c>
-      <c r="P19" s="340"/>
+      <c r="P19" s="337"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="410">
+      <c r="A20" s="407">
         <v>665</v>
       </c>
-      <c r="B20" s="413">
+      <c r="B20" s="410">
         <v>44088</v>
       </c>
-      <c r="C20" s="410"/>
-      <c r="D20" s="416" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="422"/>
-      <c r="F20" s="317" t="s">
+      <c r="C20" s="407"/>
+      <c r="D20" s="413" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="419"/>
+      <c r="F20" s="314" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="317">
+      <c r="G20" s="314">
         <v>24</v>
       </c>
       <c r="H20" s="192">
@@ -5658,18 +5822,18 @@
         <f t="shared" si="3"/>
         <v>5460000</v>
       </c>
-      <c r="P20" s="319"/>
+      <c r="P20" s="316"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="420"/>
-      <c r="B21" s="421"/>
-      <c r="C21" s="420"/>
-      <c r="D21" s="419"/>
-      <c r="E21" s="423"/>
-      <c r="F21" s="318" t="s">
+      <c r="A21" s="417"/>
+      <c r="B21" s="418"/>
+      <c r="C21" s="417"/>
+      <c r="D21" s="416"/>
+      <c r="E21" s="420"/>
+      <c r="F21" s="315" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="318">
+      <c r="G21" s="315">
         <v>24</v>
       </c>
       <c r="H21" s="193">
@@ -5693,71 +5857,71 @@
         <f t="shared" si="3"/>
         <v>5580000</v>
       </c>
-      <c r="P21" s="320"/>
+      <c r="P21" s="317"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="352">
+      <c r="A22" s="349">
         <v>791</v>
       </c>
-      <c r="B22" s="353">
+      <c r="B22" s="350">
         <v>44089</v>
       </c>
-      <c r="C22" s="352" t="s">
+      <c r="C22" s="349" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="349" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="349" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="335" t="s">
+      <c r="D22" s="346" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="346" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="332" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="335">
+      <c r="G22" s="332">
         <v>6</v>
       </c>
-      <c r="H22" s="354">
+      <c r="H22" s="351">
         <v>485000</v>
       </c>
-      <c r="I22" s="347">
+      <c r="I22" s="344">
         <f t="shared" si="0"/>
         <v>2910000</v>
       </c>
-      <c r="J22" s="347"/>
-      <c r="K22" s="348">
+      <c r="J22" s="344"/>
+      <c r="K22" s="345">
         <v>0.41</v>
       </c>
-      <c r="L22" s="347">
+      <c r="L22" s="344">
         <f t="shared" si="1"/>
         <v>1716900.0000000002</v>
       </c>
-      <c r="M22" s="347"/>
-      <c r="N22" s="347">
+      <c r="M22" s="344"/>
+      <c r="N22" s="344">
         <f>L22</f>
         <v>1716900.0000000002</v>
       </c>
-      <c r="O22" s="347"/>
-      <c r="P22" s="337"/>
+      <c r="O22" s="344"/>
+      <c r="P22" s="334"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="410">
+      <c r="A23" s="407">
         <v>788</v>
       </c>
-      <c r="B23" s="413">
+      <c r="B23" s="410">
         <v>44090</v>
       </c>
-      <c r="C23" s="410" t="s">
+      <c r="C23" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="416" t="s">
+      <c r="D23" s="413" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="416"/>
-      <c r="F23" s="332" t="s">
+      <c r="E23" s="413"/>
+      <c r="F23" s="329" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="332">
+      <c r="G23" s="329">
         <v>8</v>
       </c>
       <c r="H23" s="192">
@@ -5781,18 +5945,18 @@
       </c>
       <c r="N23" s="180"/>
       <c r="O23" s="180"/>
-      <c r="P23" s="339"/>
+      <c r="P23" s="336"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="411"/>
-      <c r="B24" s="414"/>
-      <c r="C24" s="411"/>
-      <c r="D24" s="417"/>
-      <c r="E24" s="417"/>
-      <c r="F24" s="336" t="s">
+      <c r="A24" s="408"/>
+      <c r="B24" s="411"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="414"/>
+      <c r="E24" s="414"/>
+      <c r="F24" s="333" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="336">
+      <c r="G24" s="333">
         <v>5</v>
       </c>
       <c r="H24" s="182">
@@ -5816,18 +5980,18 @@
       </c>
       <c r="N24" s="182"/>
       <c r="O24" s="182"/>
-      <c r="P24" s="327"/>
+      <c r="P24" s="324"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="411"/>
-      <c r="B25" s="414"/>
-      <c r="C25" s="411"/>
-      <c r="D25" s="417"/>
-      <c r="E25" s="417"/>
-      <c r="F25" s="336" t="s">
+      <c r="A25" s="408"/>
+      <c r="B25" s="411"/>
+      <c r="C25" s="408"/>
+      <c r="D25" s="414"/>
+      <c r="E25" s="414"/>
+      <c r="F25" s="333" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="336">
+      <c r="G25" s="333">
         <v>4</v>
       </c>
       <c r="H25" s="182">
@@ -5851,19 +6015,19 @@
       </c>
       <c r="N25" s="182"/>
       <c r="O25" s="182"/>
-      <c r="P25" s="336"/>
+      <c r="P25" s="333"/>
       <c r="R25" s="184"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="420"/>
-      <c r="B26" s="421"/>
-      <c r="C26" s="420"/>
-      <c r="D26" s="419"/>
-      <c r="E26" s="419"/>
-      <c r="F26" s="333" t="s">
+      <c r="A26" s="417"/>
+      <c r="B26" s="418"/>
+      <c r="C26" s="417"/>
+      <c r="D26" s="416"/>
+      <c r="E26" s="416"/>
+      <c r="F26" s="330" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="333">
+      <c r="G26" s="330">
         <v>5</v>
       </c>
       <c r="H26" s="185">
@@ -5887,65 +6051,65 @@
       </c>
       <c r="N26" s="185"/>
       <c r="O26" s="185"/>
-      <c r="P26" s="333"/>
+      <c r="P26" s="330"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="321">
+      <c r="A27" s="318">
         <v>796</v>
       </c>
-      <c r="B27" s="323">
+      <c r="B27" s="320">
         <v>44090</v>
       </c>
-      <c r="C27" s="321" t="s">
+      <c r="C27" s="318" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="322"/>
-      <c r="E27" s="322"/>
-      <c r="F27" s="335" t="s">
+      <c r="D27" s="319"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="332" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="335">
+      <c r="G27" s="332">
         <v>2</v>
       </c>
-      <c r="H27" s="347">
+      <c r="H27" s="344">
         <v>485000</v>
       </c>
-      <c r="I27" s="347">
+      <c r="I27" s="344">
         <f t="shared" si="0"/>
         <v>970000</v>
       </c>
-      <c r="J27" s="355"/>
-      <c r="K27" s="348">
+      <c r="J27" s="352"/>
+      <c r="K27" s="345">
         <v>0.41</v>
       </c>
-      <c r="L27" s="347">
+      <c r="L27" s="344">
         <f t="shared" si="1"/>
         <v>572300.00000000012</v>
       </c>
-      <c r="M27" s="347"/>
-      <c r="N27" s="347"/>
-      <c r="O27" s="347">
+      <c r="M27" s="344"/>
+      <c r="N27" s="344"/>
+      <c r="O27" s="344">
         <f>L27</f>
         <v>572300.00000000012</v>
       </c>
-      <c r="P27" s="335"/>
+      <c r="P27" s="332"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="410">
+      <c r="A28" s="407">
         <v>794</v>
       </c>
-      <c r="B28" s="413">
+      <c r="B28" s="410">
         <v>44090</v>
       </c>
-      <c r="C28" s="410"/>
-      <c r="D28" s="416" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="416"/>
-      <c r="F28" s="332" t="s">
+      <c r="C28" s="407"/>
+      <c r="D28" s="413" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="413"/>
+      <c r="F28" s="329" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="332">
+      <c r="G28" s="329">
         <v>48</v>
       </c>
       <c r="H28" s="180">
@@ -5969,18 +6133,18 @@
         <f>L28</f>
         <v>10920000</v>
       </c>
-      <c r="P28" s="332"/>
+      <c r="P28" s="329"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="411"/>
-      <c r="B29" s="414"/>
-      <c r="C29" s="411"/>
-      <c r="D29" s="417"/>
-      <c r="E29" s="417"/>
-      <c r="F29" s="336" t="s">
+      <c r="A29" s="408"/>
+      <c r="B29" s="411"/>
+      <c r="C29" s="408"/>
+      <c r="D29" s="414"/>
+      <c r="E29" s="414"/>
+      <c r="F29" s="333" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="336">
+      <c r="G29" s="333">
         <v>24</v>
       </c>
       <c r="H29" s="182">
@@ -6004,18 +6168,18 @@
         <f t="shared" ref="O29:O30" si="5">L29</f>
         <v>5580000</v>
       </c>
-      <c r="P29" s="336"/>
+      <c r="P29" s="333"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="420"/>
-      <c r="B30" s="421"/>
-      <c r="C30" s="420"/>
-      <c r="D30" s="419"/>
-      <c r="E30" s="419"/>
-      <c r="F30" s="333" t="s">
+      <c r="A30" s="417"/>
+      <c r="B30" s="418"/>
+      <c r="C30" s="417"/>
+      <c r="D30" s="416"/>
+      <c r="E30" s="416"/>
+      <c r="F30" s="330" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="333">
+      <c r="G30" s="330">
         <v>24</v>
       </c>
       <c r="H30" s="185">
@@ -6039,28 +6203,28 @@
         <f t="shared" si="5"/>
         <v>5820000</v>
       </c>
-      <c r="P30" s="333"/>
+      <c r="P30" s="330"/>
     </row>
     <row r="31" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="328">
+      <c r="A31" s="325">
         <v>797</v>
       </c>
       <c r="B31" s="189">
         <v>44091</v>
       </c>
-      <c r="C31" s="328" t="s">
+      <c r="C31" s="325" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="190" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E31" s="190" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="328" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="325" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="328">
+      <c r="G31" s="325">
         <v>4</v>
       </c>
       <c r="H31" s="187">
@@ -6070,7 +6234,7 @@
         <f t="shared" si="0"/>
         <v>1860000</v>
       </c>
-      <c r="J31" s="350"/>
+      <c r="J31" s="347"/>
       <c r="K31" s="188">
         <v>0.41</v>
       </c>
@@ -6084,13 +6248,13 @@
         <v>1097400.0000000002</v>
       </c>
       <c r="O31" s="187"/>
-      <c r="P31" s="328"/>
+      <c r="P31" s="325"/>
     </row>
     <row r="32" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="216">
         <v>667</v>
       </c>
-      <c r="B32" s="316">
+      <c r="B32" s="313">
         <v>44091</v>
       </c>
       <c r="C32" s="216"/>
@@ -6100,10 +6264,10 @@
       <c r="E32" s="216" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="328" t="s">
+      <c r="F32" s="325" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="328">
+      <c r="G32" s="325">
         <v>36</v>
       </c>
       <c r="H32" s="187">
@@ -6113,7 +6277,7 @@
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="J32" s="351">
+      <c r="J32" s="348">
         <v>150000</v>
       </c>
       <c r="K32" s="188">
@@ -6129,28 +6293,28 @@
         <v>9664200.0000000019</v>
       </c>
       <c r="O32" s="187"/>
-      <c r="P32" s="328"/>
+      <c r="P32" s="325"/>
     </row>
     <row r="33" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="216">
         <v>668</v>
       </c>
-      <c r="B33" s="316">
+      <c r="B33" s="313">
         <v>44091</v>
       </c>
       <c r="C33" s="216" t="s">
         <v>150</v>
       </c>
       <c r="D33" s="216" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E33" s="216" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" s="328" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="325" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="328">
+      <c r="G33" s="325">
         <v>6</v>
       </c>
       <c r="H33" s="187">
@@ -6180,7 +6344,7 @@
       <c r="A34" s="216">
         <v>798</v>
       </c>
-      <c r="B34" s="316">
+      <c r="B34" s="313">
         <v>44092</v>
       </c>
       <c r="C34" s="216" t="s">
@@ -6188,10 +6352,10 @@
       </c>
       <c r="D34" s="216"/>
       <c r="E34" s="216"/>
-      <c r="F34" s="328" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="328">
+      <c r="F34" s="325" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="325">
         <v>1</v>
       </c>
       <c r="H34" s="187">
@@ -6218,25 +6382,25 @@
       <c r="P34" s="190"/>
     </row>
     <row r="35" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="410">
+      <c r="A35" s="407">
         <v>799</v>
       </c>
-      <c r="B35" s="413">
+      <c r="B35" s="410">
         <v>44092</v>
       </c>
-      <c r="C35" s="410" t="s">
+      <c r="C35" s="407" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="410" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="410" t="s">
+      <c r="D35" s="407" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="407" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="332" t="s">
+      <c r="F35" s="329" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="332">
+      <c r="G35" s="329">
         <v>5</v>
       </c>
       <c r="H35" s="180">
@@ -6260,18 +6424,18 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O35" s="180"/>
-      <c r="P35" s="332"/>
+      <c r="P35" s="329"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="420"/>
-      <c r="B36" s="421"/>
-      <c r="C36" s="420"/>
-      <c r="D36" s="420"/>
-      <c r="E36" s="420"/>
-      <c r="F36" s="333" t="s">
+      <c r="A36" s="417"/>
+      <c r="B36" s="418"/>
+      <c r="C36" s="417"/>
+      <c r="D36" s="417"/>
+      <c r="E36" s="417"/>
+      <c r="F36" s="330" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="333">
+      <c r="G36" s="330">
         <v>10</v>
       </c>
       <c r="H36" s="185">
@@ -6295,24 +6459,24 @@
         <v>2743500.0000000005</v>
       </c>
       <c r="O36" s="185"/>
-      <c r="P36" s="333"/>
+      <c r="P36" s="330"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="216">
         <v>671</v>
       </c>
-      <c r="B37" s="316">
+      <c r="B37" s="313">
         <v>44092</v>
       </c>
       <c r="C37" s="216"/>
       <c r="D37" s="216" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="216"/>
+      <c r="F37" s="325" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="216"/>
-      <c r="F37" s="328" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="328">
+      <c r="G37" s="325">
         <v>18</v>
       </c>
       <c r="H37" s="187">
@@ -6336,24 +6500,24 @@
       </c>
       <c r="N37" s="187"/>
       <c r="O37" s="187"/>
-      <c r="P37" s="328"/>
+      <c r="P37" s="325"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="216">
         <v>672</v>
       </c>
-      <c r="B38" s="316">
+      <c r="B38" s="313">
         <v>44092</v>
       </c>
       <c r="C38" s="216"/>
       <c r="D38" s="216" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="216"/>
+      <c r="F38" s="325" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="216"/>
-      <c r="F38" s="328" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="328">
+      <c r="G38" s="325">
         <v>6</v>
       </c>
       <c r="H38" s="187">
@@ -6383,18 +6547,18 @@
       <c r="A39" s="216">
         <v>675</v>
       </c>
-      <c r="B39" s="316">
+      <c r="B39" s="313">
         <v>44096</v>
       </c>
       <c r="C39" s="216"/>
       <c r="D39" s="216" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E39" s="216"/>
-      <c r="F39" s="328" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="328">
+      <c r="F39" s="325" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="325">
         <v>12</v>
       </c>
       <c r="H39" s="187">
@@ -6424,20 +6588,20 @@
       <c r="A40" s="216">
         <v>674</v>
       </c>
-      <c r="B40" s="316">
+      <c r="B40" s="313">
         <v>44096</v>
       </c>
       <c r="C40" s="216"/>
       <c r="D40" s="216" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E40" s="216" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="328" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="328">
+        <v>215</v>
+      </c>
+      <c r="F40" s="325" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="325">
         <v>12</v>
       </c>
       <c r="H40" s="187">
@@ -6464,23 +6628,23 @@
       <c r="P40" s="204"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="410">
+      <c r="A41" s="407">
         <v>678</v>
       </c>
-      <c r="B41" s="413">
+      <c r="B41" s="410">
         <v>44096</v>
       </c>
-      <c r="C41" s="410" t="s">
+      <c r="C41" s="407" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="416" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="410"/>
-      <c r="F41" s="332" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" s="332">
+      <c r="D41" s="413" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="407"/>
+      <c r="F41" s="329" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="329">
         <v>1</v>
       </c>
       <c r="H41" s="180">
@@ -6501,19 +6665,19 @@
       <c r="M41" s="180"/>
       <c r="N41" s="180"/>
       <c r="O41" s="180"/>
-      <c r="P41" s="332"/>
+      <c r="P41" s="329"/>
       <c r="Q41" s="184"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="411"/>
-      <c r="B42" s="414"/>
-      <c r="C42" s="411"/>
-      <c r="D42" s="417"/>
-      <c r="E42" s="411"/>
-      <c r="F42" s="336" t="s">
+      <c r="A42" s="408"/>
+      <c r="B42" s="411"/>
+      <c r="C42" s="408"/>
+      <c r="D42" s="414"/>
+      <c r="E42" s="408"/>
+      <c r="F42" s="333" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="336">
+      <c r="G42" s="333">
         <v>1</v>
       </c>
       <c r="H42" s="182">
@@ -6534,19 +6698,19 @@
       <c r="M42" s="182"/>
       <c r="N42" s="182"/>
       <c r="O42" s="182"/>
-      <c r="P42" s="336"/>
+      <c r="P42" s="333"/>
       <c r="Q42" s="184"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="411"/>
-      <c r="B43" s="414"/>
-      <c r="C43" s="411"/>
-      <c r="D43" s="417"/>
-      <c r="E43" s="411"/>
-      <c r="F43" s="336" t="s">
+      <c r="A43" s="408"/>
+      <c r="B43" s="411"/>
+      <c r="C43" s="408"/>
+      <c r="D43" s="414"/>
+      <c r="E43" s="408"/>
+      <c r="F43" s="333" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="336">
+      <c r="G43" s="333">
         <v>1</v>
       </c>
       <c r="H43" s="182">
@@ -6567,19 +6731,19 @@
       <c r="M43" s="182"/>
       <c r="N43" s="182"/>
       <c r="O43" s="182"/>
-      <c r="P43" s="336"/>
+      <c r="P43" s="333"/>
       <c r="Q43" s="184"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="411"/>
-      <c r="B44" s="414"/>
-      <c r="C44" s="411"/>
-      <c r="D44" s="417"/>
-      <c r="E44" s="411"/>
-      <c r="F44" s="336" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="336">
+      <c r="A44" s="408"/>
+      <c r="B44" s="411"/>
+      <c r="C44" s="408"/>
+      <c r="D44" s="414"/>
+      <c r="E44" s="408"/>
+      <c r="F44" s="333" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="333">
         <v>1</v>
       </c>
       <c r="H44" s="182">
@@ -6600,19 +6764,19 @@
       <c r="M44" s="182"/>
       <c r="N44" s="182"/>
       <c r="O44" s="182"/>
-      <c r="P44" s="336"/>
+      <c r="P44" s="333"/>
       <c r="Q44" s="184"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="411"/>
-      <c r="B45" s="414"/>
-      <c r="C45" s="411"/>
-      <c r="D45" s="417"/>
-      <c r="E45" s="411"/>
-      <c r="F45" s="336" t="s">
+      <c r="A45" s="408"/>
+      <c r="B45" s="411"/>
+      <c r="C45" s="408"/>
+      <c r="D45" s="414"/>
+      <c r="E45" s="408"/>
+      <c r="F45" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="G45" s="336">
+      <c r="G45" s="333">
         <v>1</v>
       </c>
       <c r="H45" s="182">
@@ -6633,19 +6797,19 @@
       <c r="M45" s="182"/>
       <c r="N45" s="182"/>
       <c r="O45" s="182"/>
-      <c r="P45" s="336"/>
+      <c r="P45" s="333"/>
       <c r="Q45" s="184"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="411"/>
-      <c r="B46" s="414"/>
-      <c r="C46" s="411"/>
-      <c r="D46" s="417"/>
-      <c r="E46" s="411"/>
-      <c r="F46" s="336" t="s">
+      <c r="A46" s="408"/>
+      <c r="B46" s="411"/>
+      <c r="C46" s="408"/>
+      <c r="D46" s="414"/>
+      <c r="E46" s="408"/>
+      <c r="F46" s="333" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="336">
+      <c r="G46" s="333">
         <v>1</v>
       </c>
       <c r="H46" s="182">
@@ -6666,19 +6830,19 @@
       <c r="M46" s="182"/>
       <c r="N46" s="182"/>
       <c r="O46" s="182"/>
-      <c r="P46" s="336"/>
+      <c r="P46" s="333"/>
       <c r="Q46" s="184"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="411"/>
-      <c r="B47" s="414"/>
-      <c r="C47" s="411"/>
-      <c r="D47" s="417"/>
-      <c r="E47" s="411"/>
-      <c r="F47" s="336" t="s">
+      <c r="A47" s="408"/>
+      <c r="B47" s="411"/>
+      <c r="C47" s="408"/>
+      <c r="D47" s="414"/>
+      <c r="E47" s="408"/>
+      <c r="F47" s="333" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="336">
+      <c r="G47" s="333">
         <v>1</v>
       </c>
       <c r="H47" s="182">
@@ -6699,19 +6863,19 @@
       <c r="M47" s="182"/>
       <c r="N47" s="182"/>
       <c r="O47" s="182"/>
-      <c r="P47" s="336"/>
+      <c r="P47" s="333"/>
       <c r="Q47" s="184"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="412"/>
-      <c r="B48" s="415"/>
-      <c r="C48" s="412"/>
-      <c r="D48" s="418"/>
-      <c r="E48" s="412"/>
-      <c r="F48" s="338" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="338">
+      <c r="A48" s="409"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="409"/>
+      <c r="D48" s="415"/>
+      <c r="E48" s="409"/>
+      <c r="F48" s="335" t="s">
+        <v>213</v>
+      </c>
+      <c r="G48" s="335">
         <v>1</v>
       </c>
       <c r="H48" s="201">
@@ -6732,27 +6896,27 @@
       <c r="M48" s="201"/>
       <c r="N48" s="201"/>
       <c r="O48" s="201"/>
-      <c r="P48" s="338"/>
+      <c r="P48" s="335"/>
       <c r="Q48" s="184"/>
     </row>
     <row r="49" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="216">
         <v>676</v>
       </c>
-      <c r="B49" s="316">
+      <c r="B49" s="313">
         <v>44097</v>
       </c>
-      <c r="C49" s="316" t="s">
+      <c r="C49" s="313" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="331" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="316"/>
-      <c r="F49" s="328" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="328">
+      <c r="D49" s="328" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="313"/>
+      <c r="F49" s="325" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="325">
         <v>1</v>
       </c>
       <c r="H49" s="187">
@@ -6776,27 +6940,27 @@
         <f>L49</f>
         <v>275000</v>
       </c>
-      <c r="P49" s="328"/>
+      <c r="P49" s="325"/>
       <c r="Q49" s="184"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="216">
         <v>801</v>
       </c>
-      <c r="B50" s="316">
+      <c r="B50" s="313">
         <v>44097</v>
       </c>
-      <c r="C50" s="316" t="s">
+      <c r="C50" s="313" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="331" t="s">
+      <c r="D50" s="328" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="316"/>
-      <c r="F50" s="328" t="s">
+      <c r="E50" s="313"/>
+      <c r="F50" s="325" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="328">
+      <c r="G50" s="325">
         <v>1</v>
       </c>
       <c r="H50" s="187">
@@ -6820,27 +6984,27 @@
       </c>
       <c r="N50" s="187"/>
       <c r="O50" s="187"/>
-      <c r="P50" s="328"/>
+      <c r="P50" s="325"/>
       <c r="Q50" s="184"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="410">
+      <c r="A51" s="407">
         <v>805</v>
       </c>
-      <c r="B51" s="413">
+      <c r="B51" s="410">
         <v>44102</v>
       </c>
-      <c r="C51" s="449"/>
-      <c r="D51" s="452" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="447" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="344" t="s">
+      <c r="C51" s="446"/>
+      <c r="D51" s="449" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="444" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="341" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="332">
+      <c r="G51" s="329">
         <v>3</v>
       </c>
       <c r="H51" s="180">
@@ -6850,7 +7014,7 @@
         <f t="shared" ref="I51:I56" si="7">G51*H51</f>
         <v>1395000</v>
       </c>
-      <c r="J51" s="332"/>
+      <c r="J51" s="329"/>
       <c r="K51" s="181">
         <v>0.35</v>
       </c>
@@ -6864,19 +7028,19 @@
       </c>
       <c r="N51" s="180"/>
       <c r="O51" s="180"/>
-      <c r="P51" s="332"/>
+      <c r="P51" s="329"/>
       <c r="Q51" s="184"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="411"/>
-      <c r="B52" s="414"/>
-      <c r="C52" s="450"/>
-      <c r="D52" s="453"/>
-      <c r="E52" s="448"/>
-      <c r="F52" s="346" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="336">
+      <c r="A52" s="408"/>
+      <c r="B52" s="411"/>
+      <c r="C52" s="447"/>
+      <c r="D52" s="450"/>
+      <c r="E52" s="445"/>
+      <c r="F52" s="343" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="333">
         <v>25</v>
       </c>
       <c r="H52" s="182">
@@ -6886,7 +7050,7 @@
         <f t="shared" si="7"/>
         <v>11875000</v>
       </c>
-      <c r="J52" s="336"/>
+      <c r="J52" s="333"/>
       <c r="K52" s="183">
         <v>0.35</v>
       </c>
@@ -6900,19 +7064,19 @@
       </c>
       <c r="N52" s="182"/>
       <c r="O52" s="182"/>
-      <c r="P52" s="336"/>
+      <c r="P52" s="333"/>
       <c r="Q52" s="184"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="411"/>
-      <c r="B53" s="414"/>
-      <c r="C53" s="450"/>
-      <c r="D53" s="453"/>
-      <c r="E53" s="448"/>
-      <c r="F53" s="346" t="s">
+      <c r="A53" s="408"/>
+      <c r="B53" s="411"/>
+      <c r="C53" s="447"/>
+      <c r="D53" s="450"/>
+      <c r="E53" s="445"/>
+      <c r="F53" s="343" t="s">
         <v>124</v>
       </c>
-      <c r="G53" s="336">
+      <c r="G53" s="333">
         <v>27</v>
       </c>
       <c r="H53" s="182">
@@ -6922,7 +7086,7 @@
         <f t="shared" si="7"/>
         <v>13095000</v>
       </c>
-      <c r="J53" s="336"/>
+      <c r="J53" s="333"/>
       <c r="K53" s="183">
         <v>0.35</v>
       </c>
@@ -6936,19 +7100,19 @@
       </c>
       <c r="N53" s="182"/>
       <c r="O53" s="182"/>
-      <c r="P53" s="336"/>
+      <c r="P53" s="333"/>
       <c r="Q53" s="184"/>
     </row>
     <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="411"/>
-      <c r="B54" s="414"/>
-      <c r="C54" s="450"/>
-      <c r="D54" s="453"/>
-      <c r="E54" s="448"/>
-      <c r="F54" s="346" t="s">
+      <c r="A54" s="408"/>
+      <c r="B54" s="411"/>
+      <c r="C54" s="447"/>
+      <c r="D54" s="450"/>
+      <c r="E54" s="445"/>
+      <c r="F54" s="343" t="s">
         <v>127</v>
       </c>
-      <c r="G54" s="336">
+      <c r="G54" s="333">
         <v>3</v>
       </c>
       <c r="H54" s="182">
@@ -6958,7 +7122,7 @@
         <f t="shared" si="7"/>
         <v>1455000</v>
       </c>
-      <c r="J54" s="336"/>
+      <c r="J54" s="333"/>
       <c r="K54" s="183">
         <v>0.35</v>
       </c>
@@ -6972,19 +7136,19 @@
       </c>
       <c r="N54" s="182"/>
       <c r="O54" s="182"/>
-      <c r="P54" s="336"/>
+      <c r="P54" s="333"/>
       <c r="Q54" s="184"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="420"/>
-      <c r="B55" s="421"/>
-      <c r="C55" s="451"/>
-      <c r="D55" s="454"/>
-      <c r="E55" s="455"/>
-      <c r="F55" s="345" t="s">
+      <c r="A55" s="417"/>
+      <c r="B55" s="418"/>
+      <c r="C55" s="448"/>
+      <c r="D55" s="451"/>
+      <c r="E55" s="452"/>
+      <c r="F55" s="342" t="s">
         <v>128</v>
       </c>
-      <c r="G55" s="333">
+      <c r="G55" s="330">
         <v>6</v>
       </c>
       <c r="H55" s="185">
@@ -6994,7 +7158,7 @@
         <f t="shared" si="7"/>
         <v>2730000</v>
       </c>
-      <c r="J55" s="333"/>
+      <c r="J55" s="330"/>
       <c r="K55" s="186">
         <v>0.35</v>
       </c>
@@ -7008,29 +7172,29 @@
       </c>
       <c r="N55" s="185"/>
       <c r="O55" s="185"/>
-      <c r="P55" s="333"/>
+      <c r="P55" s="330"/>
       <c r="Q55" s="184"/>
     </row>
     <row r="56" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="328">
+      <c r="A56" s="325">
         <v>804</v>
       </c>
       <c r="B56" s="189">
         <v>44102</v>
       </c>
-      <c r="C56" s="328" t="s">
+      <c r="C56" s="325" t="s">
         <v>149</v>
       </c>
       <c r="D56" s="190" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" s="328" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="328" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" s="325" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="325" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="328">
+      <c r="G56" s="325">
         <v>2</v>
       </c>
       <c r="H56" s="187">
@@ -7054,18 +7218,18 @@
         <f t="shared" ref="O56" si="10">L56</f>
         <v>465000</v>
       </c>
-      <c r="P56" s="328"/>
+      <c r="P56" s="325"/>
       <c r="Q56" s="184"/>
     </row>
     <row r="57" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="441" t="s">
+      <c r="A57" s="438" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="442"/>
-      <c r="C57" s="442"/>
-      <c r="D57" s="442"/>
-      <c r="E57" s="442"/>
-      <c r="F57" s="443"/>
+      <c r="B57" s="439"/>
+      <c r="C57" s="439"/>
+      <c r="D57" s="439"/>
+      <c r="E57" s="439"/>
+      <c r="F57" s="440"/>
       <c r="G57" s="158">
         <f>SUM(G13:G56)</f>
         <v>466</v>
@@ -7084,18 +7248,18 @@
       <c r="M57" s="164"/>
       <c r="N57" s="164"/>
       <c r="O57" s="164"/>
-      <c r="P57" s="444"/>
-      <c r="Q57" s="429"/>
+      <c r="P57" s="441"/>
+      <c r="Q57" s="426"/>
     </row>
     <row r="58" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="430" t="s">
+      <c r="A58" s="427" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="430"/>
-      <c r="C58" s="430"/>
-      <c r="D58" s="430"/>
-      <c r="E58" s="430"/>
-      <c r="F58" s="430"/>
+      <c r="B58" s="427"/>
+      <c r="C58" s="427"/>
+      <c r="D58" s="427"/>
+      <c r="E58" s="427"/>
+      <c r="F58" s="427"/>
       <c r="G58" s="146">
         <f>G57</f>
         <v>466</v>
@@ -7111,18 +7275,18 @@
       <c r="M58" s="149"/>
       <c r="N58" s="149"/>
       <c r="O58" s="149"/>
-      <c r="P58" s="444"/>
-      <c r="Q58" s="429"/>
+      <c r="P58" s="441"/>
+      <c r="Q58" s="426"/>
     </row>
     <row r="59" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="430" t="s">
+      <c r="A59" s="427" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="430"/>
-      <c r="C59" s="430"/>
-      <c r="D59" s="430"/>
-      <c r="E59" s="430"/>
-      <c r="F59" s="430"/>
+      <c r="B59" s="427"/>
+      <c r="C59" s="427"/>
+      <c r="D59" s="427"/>
+      <c r="E59" s="427"/>
+      <c r="F59" s="427"/>
       <c r="G59" s="153" t="s">
         <v>49</v>
       </c>
@@ -7139,14 +7303,14 @@
       <c r="O59" s="149"/>
     </row>
     <row r="60" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="430" t="s">
+      <c r="A60" s="427" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="430"/>
-      <c r="C60" s="430"/>
-      <c r="D60" s="430"/>
-      <c r="E60" s="430"/>
-      <c r="F60" s="430"/>
+      <c r="B60" s="427"/>
+      <c r="C60" s="427"/>
+      <c r="D60" s="427"/>
+      <c r="E60" s="427"/>
+      <c r="F60" s="427"/>
       <c r="G60" s="153"/>
       <c r="H60" s="156"/>
       <c r="I60" s="147"/>
@@ -7161,14 +7325,14 @@
       <c r="O60" s="149"/>
     </row>
     <row r="61" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A61" s="430" t="s">
+      <c r="A61" s="427" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="430"/>
-      <c r="C61" s="430"/>
-      <c r="D61" s="430"/>
-      <c r="E61" s="430"/>
-      <c r="F61" s="430"/>
+      <c r="B61" s="427"/>
+      <c r="C61" s="427"/>
+      <c r="D61" s="427"/>
+      <c r="E61" s="427"/>
+      <c r="F61" s="427"/>
       <c r="G61" s="153"/>
       <c r="H61" s="156"/>
       <c r="I61" s="147"/>
@@ -7328,211 +7492,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="309"/>
-    <col min="2" max="2" width="12" style="267" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="267"/>
-    <col min="4" max="4" width="20.140625" style="267" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="267"/>
-    <col min="6" max="6" width="9.28515625" style="267" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14" style="267" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="268"/>
-    <col min="10" max="10" width="17" style="269" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="267" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="267"/>
-    <col min="13" max="13" width="13.140625" style="267" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="267"/>
+    <col min="1" max="1" width="9.140625" style="306"/>
+    <col min="2" max="2" width="12" style="264" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="264"/>
+    <col min="4" max="4" width="20.140625" style="264" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="264"/>
+    <col min="6" max="6" width="9.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" style="264" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="265"/>
+    <col min="10" max="10" width="17" style="266" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="264" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="264"/>
+    <col min="13" max="13" width="13.140625" style="264" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="264"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="467" t="s">
+      <c r="A2" s="464" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
+      <c r="B2" s="464"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="464"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="468" t="s">
+      <c r="A3" s="465" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="468"/>
-      <c r="C3" s="468"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="468"/>
-      <c r="F3" s="468"/>
-      <c r="G3" s="468"/>
-      <c r="H3" s="468"/>
-      <c r="I3" s="468"/>
-      <c r="J3" s="468"/>
-      <c r="K3" s="468"/>
-      <c r="L3" s="468"/>
-      <c r="M3" s="468"/>
-      <c r="N3" s="468"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
+      <c r="J3" s="465"/>
+      <c r="K3" s="465"/>
+      <c r="L3" s="465"/>
+      <c r="M3" s="465"/>
+      <c r="N3" s="465"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="469" t="s">
+      <c r="A4" s="466" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="469"/>
-      <c r="C4" s="469"/>
-      <c r="D4" s="469"/>
-      <c r="E4" s="469"/>
-      <c r="F4" s="469"/>
-      <c r="G4" s="469"/>
-      <c r="H4" s="469"/>
-      <c r="I4" s="470"/>
-      <c r="J4" s="469"/>
-      <c r="K4" s="469"/>
-      <c r="L4" s="469"/>
-      <c r="M4" s="469"/>
-      <c r="N4" s="469"/>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="466"/>
+      <c r="F4" s="466"/>
+      <c r="G4" s="466"/>
+      <c r="H4" s="466"/>
+      <c r="I4" s="467"/>
+      <c r="J4" s="466"/>
+      <c r="K4" s="466"/>
+      <c r="L4" s="466"/>
+      <c r="M4" s="466"/>
+      <c r="N4" s="466"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="471" t="s">
+      <c r="A5" s="468" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="473" t="s">
+      <c r="B5" s="470" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="472" t="s">
+      <c r="C5" s="469" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="270" t="s">
+      <c r="D5" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="465" t="s">
+      <c r="E5" s="462" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="465"/>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="474"/>
-      <c r="J5" s="464" t="s">
+      <c r="F5" s="462"/>
+      <c r="G5" s="462"/>
+      <c r="H5" s="462"/>
+      <c r="I5" s="471"/>
+      <c r="J5" s="461" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="465" t="s">
+      <c r="K5" s="462" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="465"/>
-      <c r="M5" s="465"/>
-      <c r="N5" s="472" t="s">
+      <c r="L5" s="462"/>
+      <c r="M5" s="462"/>
+      <c r="N5" s="469" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="471"/>
-      <c r="B6" s="473"/>
-      <c r="C6" s="472"/>
-      <c r="D6" s="270" t="s">
+      <c r="A6" s="468"/>
+      <c r="B6" s="470"/>
+      <c r="C6" s="469"/>
+      <c r="D6" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="270" t="s">
+      <c r="E6" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="270" t="s">
+      <c r="F6" s="267" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="271" t="s">
+      <c r="G6" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="272" t="s">
+      <c r="H6" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="273" t="s">
+      <c r="I6" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="464"/>
-      <c r="K6" s="270" t="s">
+      <c r="J6" s="461"/>
+      <c r="K6" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="270" t="s">
+      <c r="L6" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="270" t="s">
+      <c r="M6" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="472"/>
+      <c r="N6" s="469"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="174">
         <v>663</v>
       </c>
-      <c r="B7" s="274">
+      <c r="B7" s="271">
         <v>44077</v>
       </c>
       <c r="C7" s="174" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="341" t="s">
+      <c r="D7" s="338" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="341" t="s">
+      <c r="E7" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="334">
+      <c r="F7" s="331">
         <v>4</v>
       </c>
-      <c r="G7" s="275">
+      <c r="G7" s="272">
         <v>485000</v>
       </c>
-      <c r="H7" s="275">
+      <c r="H7" s="272">
         <f>F7*G7</f>
         <v>1940000</v>
       </c>
-      <c r="I7" s="276">
+      <c r="I7" s="273">
         <v>0.38</v>
       </c>
-      <c r="J7" s="277">
+      <c r="J7" s="274">
         <f>H7*(1-I7)</f>
         <v>1202800</v>
       </c>
-      <c r="K7" s="278"/>
+      <c r="K7" s="275"/>
       <c r="L7" s="174"/>
-      <c r="M7" s="278">
+      <c r="M7" s="275">
         <f>J7</f>
         <v>1202800</v>
       </c>
-      <c r="N7" s="279"/>
+      <c r="N7" s="276"/>
     </row>
     <row r="8" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="410">
+      <c r="A8" s="407">
         <v>664</v>
       </c>
-      <c r="B8" s="413">
+      <c r="B8" s="410">
         <v>44088</v>
       </c>
-      <c r="C8" s="449"/>
-      <c r="D8" s="452" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="344" t="s">
+      <c r="C8" s="446"/>
+      <c r="D8" s="449" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="341" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="332">
+      <c r="F8" s="329">
         <v>24</v>
       </c>
       <c r="G8" s="180">
         <v>455000</v>
       </c>
-      <c r="H8" s="280">
+      <c r="H8" s="277">
         <f t="shared" ref="H8:H9" si="0">F8*G8</f>
         <v>10920000</v>
       </c>
-      <c r="I8" s="281">
+      <c r="I8" s="278">
         <v>0.5</v>
       </c>
       <c r="J8" s="197">
@@ -7541,32 +7705,32 @@
       </c>
       <c r="K8" s="180"/>
       <c r="L8" s="180"/>
-      <c r="M8" s="292">
+      <c r="M8" s="289">
         <f t="shared" ref="M8:M26" si="2">J8</f>
         <v>5460000</v>
       </c>
-      <c r="N8" s="324"/>
+      <c r="N8" s="321"/>
       <c r="Q8" s="184"/>
     </row>
     <row r="9" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="420"/>
-      <c r="B9" s="421"/>
-      <c r="C9" s="451"/>
-      <c r="D9" s="454"/>
-      <c r="E9" s="345" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="333">
+      <c r="A9" s="417"/>
+      <c r="B9" s="418"/>
+      <c r="C9" s="448"/>
+      <c r="D9" s="451"/>
+      <c r="E9" s="342" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="330">
         <v>24</v>
       </c>
       <c r="G9" s="185">
         <v>475000</v>
       </c>
-      <c r="H9" s="282">
+      <c r="H9" s="279">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-      <c r="I9" s="283">
+      <c r="I9" s="280">
         <v>0.5</v>
       </c>
       <c r="J9" s="206">
@@ -7575,28 +7739,28 @@
       </c>
       <c r="K9" s="185"/>
       <c r="L9" s="185"/>
-      <c r="M9" s="300">
+      <c r="M9" s="297">
         <f t="shared" si="2"/>
         <v>5700000</v>
       </c>
-      <c r="N9" s="326"/>
+      <c r="N9" s="323"/>
       <c r="Q9" s="184"/>
     </row>
     <row r="10" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="216">
         <v>666</v>
       </c>
-      <c r="B10" s="316">
+      <c r="B10" s="313">
         <v>44091</v>
       </c>
-      <c r="C10" s="331"/>
-      <c r="D10" s="342" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="343" t="s">
+      <c r="C10" s="328"/>
+      <c r="D10" s="339" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="340" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="328">
+      <c r="F10" s="325">
         <v>42</v>
       </c>
       <c r="G10" s="187">
@@ -7615,28 +7779,28 @@
       </c>
       <c r="K10" s="187"/>
       <c r="L10" s="187"/>
-      <c r="M10" s="303">
+      <c r="M10" s="300">
         <f t="shared" si="2"/>
         <v>9555000</v>
       </c>
-      <c r="N10" s="328"/>
+      <c r="N10" s="325"/>
       <c r="Q10" s="184"/>
     </row>
     <row r="11" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="216">
         <v>669</v>
       </c>
-      <c r="B11" s="316">
+      <c r="B11" s="313">
         <v>44092</v>
       </c>
-      <c r="C11" s="331"/>
-      <c r="D11" s="342" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="343" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="328">
+      <c r="C11" s="328"/>
+      <c r="D11" s="339" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="340" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="325">
         <v>24</v>
       </c>
       <c r="G11" s="187">
@@ -7659,200 +7823,200 @@
         <f t="shared" si="2"/>
         <v>2700000</v>
       </c>
-      <c r="N11" s="328"/>
+      <c r="N11" s="325"/>
       <c r="Q11" s="184"/>
     </row>
     <row r="12" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="447">
+      <c r="A12" s="444">
         <v>803</v>
       </c>
-      <c r="B12" s="445">
+      <c r="B12" s="442">
         <v>44095</v>
       </c>
-      <c r="C12" s="458"/>
-      <c r="D12" s="461" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="341" t="s">
+      <c r="C12" s="455"/>
+      <c r="D12" s="458" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="338" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="334">
+      <c r="F12" s="331">
         <v>3</v>
       </c>
-      <c r="G12" s="329">
+      <c r="G12" s="326">
         <v>465000</v>
       </c>
-      <c r="H12" s="329">
+      <c r="H12" s="326">
         <f t="shared" si="3"/>
         <v>1395000</v>
       </c>
-      <c r="I12" s="330">
+      <c r="I12" s="327">
         <v>0.35</v>
       </c>
-      <c r="J12" s="329">
+      <c r="J12" s="326">
         <f t="shared" si="1"/>
         <v>906750</v>
       </c>
-      <c r="K12" s="329"/>
-      <c r="L12" s="329"/>
-      <c r="M12" s="329">
+      <c r="K12" s="326"/>
+      <c r="L12" s="326"/>
+      <c r="M12" s="326">
         <f t="shared" si="2"/>
         <v>906750</v>
       </c>
-      <c r="N12" s="334"/>
+      <c r="N12" s="331"/>
       <c r="Q12" s="184"/>
     </row>
     <row r="13" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="448"/>
-      <c r="B13" s="446"/>
-      <c r="C13" s="459"/>
-      <c r="D13" s="462"/>
-      <c r="E13" s="341" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="334">
+      <c r="A13" s="445"/>
+      <c r="B13" s="443"/>
+      <c r="C13" s="456"/>
+      <c r="D13" s="459"/>
+      <c r="E13" s="338" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="331">
         <v>25</v>
       </c>
-      <c r="G13" s="329">
+      <c r="G13" s="326">
         <v>475000</v>
       </c>
-      <c r="H13" s="329">
+      <c r="H13" s="326">
         <f t="shared" si="3"/>
         <v>11875000</v>
       </c>
-      <c r="I13" s="330">
+      <c r="I13" s="327">
         <v>0.35</v>
       </c>
-      <c r="J13" s="329">
+      <c r="J13" s="326">
         <f t="shared" si="1"/>
         <v>7718750</v>
       </c>
-      <c r="K13" s="329"/>
-      <c r="L13" s="329"/>
-      <c r="M13" s="329">
+      <c r="K13" s="326"/>
+      <c r="L13" s="326"/>
+      <c r="M13" s="326">
         <f t="shared" si="2"/>
         <v>7718750</v>
       </c>
-      <c r="N13" s="334"/>
+      <c r="N13" s="331"/>
       <c r="Q13" s="184"/>
     </row>
     <row r="14" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="448"/>
-      <c r="B14" s="446"/>
-      <c r="C14" s="459"/>
-      <c r="D14" s="462"/>
-      <c r="E14" s="341" t="s">
+      <c r="A14" s="445"/>
+      <c r="B14" s="443"/>
+      <c r="C14" s="456"/>
+      <c r="D14" s="459"/>
+      <c r="E14" s="338" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="334">
+      <c r="F14" s="331">
         <v>27</v>
       </c>
-      <c r="G14" s="329">
+      <c r="G14" s="326">
         <v>485000</v>
       </c>
-      <c r="H14" s="329">
+      <c r="H14" s="326">
         <f t="shared" si="3"/>
         <v>13095000</v>
       </c>
-      <c r="I14" s="330">
+      <c r="I14" s="327">
         <v>0.35</v>
       </c>
-      <c r="J14" s="329">
+      <c r="J14" s="326">
         <f t="shared" si="1"/>
         <v>8511750</v>
       </c>
-      <c r="K14" s="329"/>
-      <c r="L14" s="329"/>
-      <c r="M14" s="329">
+      <c r="K14" s="326"/>
+      <c r="L14" s="326"/>
+      <c r="M14" s="326">
         <f t="shared" si="2"/>
         <v>8511750</v>
       </c>
-      <c r="N14" s="334"/>
+      <c r="N14" s="331"/>
       <c r="Q14" s="184"/>
     </row>
     <row r="15" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="448"/>
-      <c r="B15" s="446"/>
-      <c r="C15" s="459"/>
-      <c r="D15" s="462"/>
-      <c r="E15" s="341" t="s">
+      <c r="A15" s="445"/>
+      <c r="B15" s="443"/>
+      <c r="C15" s="456"/>
+      <c r="D15" s="459"/>
+      <c r="E15" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="334">
+      <c r="F15" s="331">
         <v>3</v>
       </c>
-      <c r="G15" s="329">
+      <c r="G15" s="326">
         <v>485000</v>
       </c>
-      <c r="H15" s="329">
+      <c r="H15" s="326">
         <f t="shared" si="3"/>
         <v>1455000</v>
       </c>
-      <c r="I15" s="330">
+      <c r="I15" s="327">
         <v>0.35</v>
       </c>
-      <c r="J15" s="329">
+      <c r="J15" s="326">
         <f t="shared" si="1"/>
         <v>945750</v>
       </c>
-      <c r="K15" s="329"/>
-      <c r="L15" s="329"/>
-      <c r="M15" s="329">
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
+      <c r="M15" s="326">
         <f t="shared" si="2"/>
         <v>945750</v>
       </c>
-      <c r="N15" s="334"/>
+      <c r="N15" s="331"/>
       <c r="Q15" s="184"/>
     </row>
     <row r="16" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="455"/>
-      <c r="B16" s="457"/>
-      <c r="C16" s="460"/>
-      <c r="D16" s="463"/>
-      <c r="E16" s="341" t="s">
+      <c r="A16" s="452"/>
+      <c r="B16" s="454"/>
+      <c r="C16" s="457"/>
+      <c r="D16" s="460"/>
+      <c r="E16" s="338" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="334">
+      <c r="F16" s="331">
         <v>6</v>
       </c>
-      <c r="G16" s="329">
+      <c r="G16" s="326">
         <v>455000</v>
       </c>
-      <c r="H16" s="329">
+      <c r="H16" s="326">
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="I16" s="330">
+      <c r="I16" s="327">
         <v>0.35</v>
       </c>
-      <c r="J16" s="329">
+      <c r="J16" s="326">
         <f t="shared" si="1"/>
         <v>1774500</v>
       </c>
-      <c r="K16" s="329"/>
-      <c r="L16" s="329"/>
-      <c r="M16" s="329">
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
+      <c r="M16" s="326">
         <f t="shared" si="2"/>
         <v>1774500</v>
       </c>
-      <c r="N16" s="334"/>
+      <c r="N16" s="331"/>
       <c r="Q16" s="184"/>
     </row>
     <row r="17" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="410">
+      <c r="A17" s="407">
         <v>677</v>
       </c>
-      <c r="B17" s="413">
+      <c r="B17" s="410">
         <v>44096</v>
       </c>
-      <c r="C17" s="449"/>
-      <c r="D17" s="452" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="344" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="332">
+      <c r="C17" s="446"/>
+      <c r="D17" s="449" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="341" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="329">
         <v>1</v>
       </c>
       <c r="G17" s="180">
@@ -7875,18 +8039,18 @@
         <f t="shared" si="2"/>
         <v>112500</v>
       </c>
-      <c r="N17" s="324"/>
+      <c r="N17" s="321"/>
       <c r="Q17" s="184"/>
     </row>
     <row r="18" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="411"/>
-      <c r="B18" s="414"/>
-      <c r="C18" s="450"/>
-      <c r="D18" s="453"/>
-      <c r="E18" s="346" t="s">
+      <c r="A18" s="408"/>
+      <c r="B18" s="411"/>
+      <c r="C18" s="447"/>
+      <c r="D18" s="450"/>
+      <c r="E18" s="343" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="336">
+      <c r="F18" s="333">
         <v>1</v>
       </c>
       <c r="G18" s="182">
@@ -7909,18 +8073,18 @@
         <f t="shared" si="2"/>
         <v>227500</v>
       </c>
-      <c r="N18" s="325"/>
+      <c r="N18" s="322"/>
       <c r="Q18" s="184"/>
     </row>
     <row r="19" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="411"/>
-      <c r="B19" s="414"/>
-      <c r="C19" s="450"/>
-      <c r="D19" s="453"/>
-      <c r="E19" s="346" t="s">
+      <c r="A19" s="408"/>
+      <c r="B19" s="411"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="450"/>
+      <c r="E19" s="343" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="336">
+      <c r="F19" s="333">
         <v>1</v>
       </c>
       <c r="G19" s="182">
@@ -7943,18 +8107,18 @@
         <f t="shared" si="2"/>
         <v>232500</v>
       </c>
-      <c r="N19" s="325"/>
+      <c r="N19" s="322"/>
       <c r="Q19" s="184"/>
     </row>
     <row r="20" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="411"/>
-      <c r="B20" s="414"/>
-      <c r="C20" s="450"/>
-      <c r="D20" s="453"/>
-      <c r="E20" s="346" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="336">
+      <c r="A20" s="408"/>
+      <c r="B20" s="411"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="450"/>
+      <c r="E20" s="343" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="333">
         <v>1</v>
       </c>
       <c r="G20" s="182">
@@ -7977,18 +8141,18 @@
         <f t="shared" si="2"/>
         <v>237500</v>
       </c>
-      <c r="N20" s="325"/>
+      <c r="N20" s="322"/>
       <c r="Q20" s="184"/>
     </row>
     <row r="21" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="411"/>
-      <c r="B21" s="414"/>
-      <c r="C21" s="450"/>
-      <c r="D21" s="453"/>
-      <c r="E21" s="346" t="s">
+      <c r="A21" s="408"/>
+      <c r="B21" s="411"/>
+      <c r="C21" s="447"/>
+      <c r="D21" s="450"/>
+      <c r="E21" s="343" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="336">
+      <c r="F21" s="333">
         <v>1</v>
       </c>
       <c r="G21" s="182">
@@ -8011,18 +8175,18 @@
         <f t="shared" si="2"/>
         <v>242500</v>
       </c>
-      <c r="N21" s="325"/>
+      <c r="N21" s="322"/>
       <c r="Q21" s="184"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="411"/>
-      <c r="B22" s="414"/>
-      <c r="C22" s="450"/>
-      <c r="D22" s="453"/>
-      <c r="E22" s="346" t="s">
+      <c r="A22" s="408"/>
+      <c r="B22" s="411"/>
+      <c r="C22" s="447"/>
+      <c r="D22" s="450"/>
+      <c r="E22" s="343" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="336">
+      <c r="F22" s="333">
         <v>1</v>
       </c>
       <c r="G22" s="182">
@@ -8048,14 +8212,14 @@
       <c r="N22" s="203"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="411"/>
-      <c r="B23" s="414"/>
-      <c r="C23" s="450"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="346" t="s">
+      <c r="A23" s="408"/>
+      <c r="B23" s="411"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="450"/>
+      <c r="E23" s="343" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="336">
+      <c r="F23" s="333">
         <v>1</v>
       </c>
       <c r="G23" s="182">
@@ -8081,14 +8245,14 @@
       <c r="N23" s="203"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="420"/>
-      <c r="B24" s="421"/>
-      <c r="C24" s="451"/>
-      <c r="D24" s="454"/>
-      <c r="E24" s="345" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="333">
+      <c r="A24" s="417"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="448"/>
+      <c r="D24" s="451"/>
+      <c r="E24" s="342" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="330">
         <v>1</v>
       </c>
       <c r="G24" s="185">
@@ -8105,7 +8269,7 @@
         <f t="shared" si="1"/>
         <v>227500</v>
       </c>
-      <c r="K24" s="300"/>
+      <c r="K24" s="297"/>
       <c r="L24" s="176"/>
       <c r="M24" s="185">
         <f t="shared" si="2"/>
@@ -8117,29 +8281,29 @@
       <c r="A25" s="216">
         <v>802</v>
       </c>
-      <c r="B25" s="316">
+      <c r="B25" s="313">
         <v>44097</v>
       </c>
       <c r="C25" s="216" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="343" t="s">
+      <c r="D25" s="340" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="343" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="328">
+      <c r="E25" s="340" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="325">
         <v>1</v>
       </c>
-      <c r="G25" s="301">
+      <c r="G25" s="298">
         <v>550000</v>
       </c>
-      <c r="H25" s="301">
+      <c r="H25" s="298">
         <f t="shared" si="4"/>
         <v>550000</v>
       </c>
-      <c r="I25" s="302">
+      <c r="I25" s="299">
         <v>0.41</v>
       </c>
       <c r="J25" s="207">
@@ -8158,29 +8322,29 @@
       <c r="A26" s="216">
         <v>800</v>
       </c>
-      <c r="B26" s="316">
+      <c r="B26" s="313">
         <v>44097</v>
       </c>
       <c r="C26" s="216" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="343" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="343" t="s">
-        <v>224</v>
-      </c>
-      <c r="F26" s="328">
+      <c r="D26" s="340" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="340" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="325">
         <v>3</v>
       </c>
-      <c r="G26" s="301">
+      <c r="G26" s="298">
         <v>550000</v>
       </c>
-      <c r="H26" s="301">
+      <c r="H26" s="298">
         <f t="shared" si="4"/>
         <v>1650000</v>
       </c>
-      <c r="I26" s="302">
+      <c r="I26" s="299">
         <v>0.41</v>
       </c>
       <c r="J26" s="207">
@@ -8196,179 +8360,179 @@
       <c r="N26" s="216"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="284"/>
-      <c r="B27" s="285"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="286"/>
-      <c r="I27" s="287"/>
+      <c r="A27" s="281"/>
+      <c r="B27" s="282"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="283"/>
+      <c r="H27" s="283"/>
+      <c r="I27" s="284"/>
       <c r="J27" s="208"/>
-      <c r="K27" s="284"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="288"/>
-      <c r="N27" s="284"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="281"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="175"/>
-      <c r="B28" s="289"/>
+      <c r="B28" s="286"/>
       <c r="C28" s="175"/>
       <c r="D28" s="175"/>
       <c r="E28" s="175"/>
       <c r="F28" s="175"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="291"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="287"/>
+      <c r="I28" s="288"/>
       <c r="J28" s="198"/>
       <c r="K28" s="175"/>
       <c r="L28" s="175"/>
-      <c r="M28" s="292"/>
+      <c r="M28" s="289"/>
       <c r="N28" s="203"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="205"/>
-      <c r="B29" s="293"/>
+      <c r="B29" s="290"/>
       <c r="C29" s="205"/>
       <c r="D29" s="205"/>
       <c r="E29" s="205"/>
       <c r="F29" s="205"/>
-      <c r="G29" s="294"/>
-      <c r="H29" s="294"/>
-      <c r="I29" s="295"/>
-      <c r="J29" s="296"/>
+      <c r="G29" s="291"/>
+      <c r="H29" s="291"/>
+      <c r="I29" s="292"/>
+      <c r="J29" s="293"/>
       <c r="K29" s="205"/>
       <c r="L29" s="205"/>
-      <c r="M29" s="292"/>
-      <c r="N29" s="297"/>
+      <c r="M29" s="289"/>
+      <c r="N29" s="294"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="176"/>
-      <c r="B30" s="298"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="176"/>
       <c r="D30" s="176"/>
       <c r="E30" s="176"/>
       <c r="F30" s="176"/>
-      <c r="G30" s="282"/>
-      <c r="H30" s="282"/>
-      <c r="I30" s="283"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="280"/>
       <c r="J30" s="206"/>
       <c r="K30" s="176"/>
       <c r="L30" s="176"/>
-      <c r="M30" s="292"/>
+      <c r="M30" s="289"/>
       <c r="N30" s="199"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="410"/>
-      <c r="B31" s="413"/>
-      <c r="C31" s="410"/>
-      <c r="D31" s="410"/>
+      <c r="A31" s="407"/>
+      <c r="B31" s="410"/>
+      <c r="C31" s="407"/>
+      <c r="D31" s="407"/>
       <c r="E31" s="177"/>
       <c r="F31" s="177"/>
-      <c r="G31" s="280"/>
-      <c r="H31" s="280"/>
-      <c r="I31" s="281"/>
+      <c r="G31" s="277"/>
+      <c r="H31" s="277"/>
+      <c r="I31" s="278"/>
       <c r="J31" s="197"/>
       <c r="K31" s="177"/>
       <c r="L31" s="177"/>
-      <c r="M31" s="292"/>
+      <c r="M31" s="289"/>
       <c r="N31" s="200"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="411"/>
-      <c r="B32" s="414"/>
-      <c r="C32" s="411"/>
-      <c r="D32" s="411"/>
+      <c r="A32" s="408"/>
+      <c r="B32" s="411"/>
+      <c r="C32" s="408"/>
+      <c r="D32" s="408"/>
       <c r="E32" s="175"/>
       <c r="F32" s="175"/>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="291"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="287"/>
+      <c r="I32" s="288"/>
       <c r="J32" s="198"/>
       <c r="K32" s="175"/>
       <c r="L32" s="175"/>
-      <c r="M32" s="299"/>
+      <c r="M32" s="296"/>
       <c r="N32" s="203"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="420"/>
-      <c r="B33" s="421"/>
-      <c r="C33" s="420"/>
-      <c r="D33" s="420"/>
+      <c r="A33" s="417"/>
+      <c r="B33" s="418"/>
+      <c r="C33" s="417"/>
+      <c r="D33" s="417"/>
       <c r="E33" s="176"/>
       <c r="F33" s="176"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="282"/>
-      <c r="I33" s="283"/>
+      <c r="G33" s="279"/>
+      <c r="H33" s="279"/>
+      <c r="I33" s="280"/>
       <c r="J33" s="206"/>
       <c r="K33" s="176"/>
       <c r="L33" s="176"/>
-      <c r="M33" s="300"/>
+      <c r="M33" s="297"/>
       <c r="N33" s="199"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="410"/>
-      <c r="B34" s="413"/>
-      <c r="C34" s="410"/>
-      <c r="D34" s="410"/>
+      <c r="A34" s="407"/>
+      <c r="B34" s="410"/>
+      <c r="C34" s="407"/>
+      <c r="D34" s="407"/>
       <c r="E34" s="177"/>
       <c r="F34" s="177"/>
-      <c r="G34" s="280"/>
-      <c r="H34" s="280"/>
-      <c r="I34" s="281"/>
+      <c r="G34" s="277"/>
+      <c r="H34" s="277"/>
+      <c r="I34" s="278"/>
       <c r="J34" s="197"/>
       <c r="K34" s="177"/>
       <c r="L34" s="177"/>
-      <c r="M34" s="292"/>
+      <c r="M34" s="289"/>
       <c r="N34" s="200"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="411"/>
-      <c r="B35" s="414"/>
-      <c r="C35" s="411"/>
-      <c r="D35" s="411"/>
+      <c r="A35" s="408"/>
+      <c r="B35" s="411"/>
+      <c r="C35" s="408"/>
+      <c r="D35" s="408"/>
       <c r="E35" s="175"/>
       <c r="F35" s="175"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="290"/>
-      <c r="I35" s="291"/>
+      <c r="G35" s="287"/>
+      <c r="H35" s="287"/>
+      <c r="I35" s="288"/>
       <c r="J35" s="198"/>
       <c r="K35" s="175"/>
       <c r="L35" s="175"/>
-      <c r="M35" s="299"/>
+      <c r="M35" s="296"/>
       <c r="N35" s="203"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="411"/>
-      <c r="B36" s="414"/>
-      <c r="C36" s="411"/>
-      <c r="D36" s="411"/>
+      <c r="A36" s="408"/>
+      <c r="B36" s="411"/>
+      <c r="C36" s="408"/>
+      <c r="D36" s="408"/>
       <c r="E36" s="175"/>
       <c r="F36" s="175"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="291"/>
+      <c r="G36" s="287"/>
+      <c r="H36" s="287"/>
+      <c r="I36" s="288"/>
       <c r="J36" s="198"/>
       <c r="K36" s="175"/>
       <c r="L36" s="175"/>
-      <c r="M36" s="299"/>
+      <c r="M36" s="296"/>
       <c r="N36" s="203"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="420"/>
-      <c r="B37" s="421"/>
-      <c r="C37" s="420"/>
-      <c r="D37" s="420"/>
+      <c r="A37" s="417"/>
+      <c r="B37" s="418"/>
+      <c r="C37" s="417"/>
+      <c r="D37" s="417"/>
       <c r="E37" s="176"/>
       <c r="F37" s="176"/>
-      <c r="G37" s="282"/>
-      <c r="H37" s="282"/>
-      <c r="I37" s="283"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="280"/>
       <c r="J37" s="206"/>
       <c r="K37" s="176"/>
       <c r="L37" s="176"/>
-      <c r="M37" s="300"/>
+      <c r="M37" s="297"/>
       <c r="N37" s="199"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8378,13 +8542,13 @@
       <c r="D38" s="220"/>
       <c r="E38" s="216"/>
       <c r="F38" s="216"/>
-      <c r="G38" s="301"/>
-      <c r="H38" s="301"/>
-      <c r="I38" s="302"/>
+      <c r="G38" s="298"/>
+      <c r="H38" s="298"/>
+      <c r="I38" s="299"/>
       <c r="J38" s="207"/>
       <c r="K38" s="216"/>
       <c r="L38" s="216"/>
-      <c r="M38" s="303"/>
+      <c r="M38" s="300"/>
       <c r="N38" s="204"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8394,13 +8558,13 @@
       <c r="D39" s="220"/>
       <c r="E39" s="216"/>
       <c r="F39" s="216"/>
-      <c r="G39" s="301"/>
-      <c r="H39" s="301"/>
-      <c r="I39" s="302"/>
+      <c r="G39" s="298"/>
+      <c r="H39" s="298"/>
+      <c r="I39" s="299"/>
       <c r="J39" s="207"/>
       <c r="K39" s="216"/>
       <c r="L39" s="216"/>
-      <c r="M39" s="303"/>
+      <c r="M39" s="300"/>
       <c r="N39" s="204"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8410,13 +8574,13 @@
       <c r="D40" s="220"/>
       <c r="E40" s="216"/>
       <c r="F40" s="216"/>
-      <c r="G40" s="301"/>
-      <c r="H40" s="301"/>
-      <c r="I40" s="302"/>
+      <c r="G40" s="298"/>
+      <c r="H40" s="298"/>
+      <c r="I40" s="299"/>
       <c r="J40" s="207"/>
       <c r="K40" s="216"/>
       <c r="L40" s="216"/>
-      <c r="M40" s="303"/>
+      <c r="M40" s="300"/>
       <c r="N40" s="204"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -8426,45 +8590,45 @@
       <c r="D41" s="220"/>
       <c r="E41" s="216"/>
       <c r="F41" s="216"/>
-      <c r="G41" s="301"/>
-      <c r="H41" s="301"/>
-      <c r="I41" s="302"/>
+      <c r="G41" s="298"/>
+      <c r="H41" s="298"/>
+      <c r="I41" s="299"/>
       <c r="J41" s="207"/>
       <c r="K41" s="216"/>
       <c r="L41" s="216"/>
-      <c r="M41" s="303"/>
+      <c r="M41" s="300"/>
       <c r="N41" s="204"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="410"/>
-      <c r="B42" s="413"/>
-      <c r="C42" s="410"/>
-      <c r="D42" s="410"/>
+      <c r="A42" s="407"/>
+      <c r="B42" s="410"/>
+      <c r="C42" s="407"/>
+      <c r="D42" s="407"/>
       <c r="E42" s="177"/>
       <c r="F42" s="177"/>
-      <c r="G42" s="280"/>
-      <c r="H42" s="280"/>
-      <c r="I42" s="281"/>
+      <c r="G42" s="277"/>
+      <c r="H42" s="277"/>
+      <c r="I42" s="278"/>
       <c r="J42" s="197"/>
       <c r="K42" s="177"/>
       <c r="L42" s="177"/>
-      <c r="M42" s="292"/>
+      <c r="M42" s="289"/>
       <c r="N42" s="200"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="420"/>
-      <c r="B43" s="421"/>
-      <c r="C43" s="420"/>
-      <c r="D43" s="420"/>
+      <c r="A43" s="417"/>
+      <c r="B43" s="418"/>
+      <c r="C43" s="417"/>
+      <c r="D43" s="417"/>
       <c r="E43" s="176"/>
       <c r="F43" s="176"/>
-      <c r="G43" s="282"/>
-      <c r="H43" s="282"/>
-      <c r="I43" s="283"/>
+      <c r="G43" s="279"/>
+      <c r="H43" s="279"/>
+      <c r="I43" s="280"/>
       <c r="J43" s="206"/>
       <c r="K43" s="176"/>
       <c r="L43" s="176"/>
-      <c r="M43" s="300"/>
+      <c r="M43" s="297"/>
       <c r="N43" s="199"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -8474,13 +8638,13 @@
       <c r="D44" s="220"/>
       <c r="E44" s="216"/>
       <c r="F44" s="216"/>
-      <c r="G44" s="301"/>
-      <c r="H44" s="301"/>
-      <c r="I44" s="302"/>
+      <c r="G44" s="298"/>
+      <c r="H44" s="298"/>
+      <c r="I44" s="299"/>
       <c r="J44" s="207"/>
       <c r="K44" s="216"/>
       <c r="L44" s="216"/>
-      <c r="M44" s="303"/>
+      <c r="M44" s="300"/>
       <c r="N44" s="204"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8490,68 +8654,68 @@
       <c r="D45" s="220"/>
       <c r="E45" s="216"/>
       <c r="F45" s="216"/>
-      <c r="G45" s="301"/>
-      <c r="H45" s="301"/>
-      <c r="I45" s="302"/>
+      <c r="G45" s="298"/>
+      <c r="H45" s="298"/>
+      <c r="I45" s="299"/>
       <c r="J45" s="207"/>
       <c r="K45" s="216"/>
       <c r="L45" s="216"/>
-      <c r="M45" s="303"/>
+      <c r="M45" s="300"/>
       <c r="N45" s="204"/>
     </row>
-    <row r="46" spans="1:14" s="308" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="456" t="s">
+    <row r="46" spans="1:14" s="305" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="453" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="456"/>
-      <c r="C46" s="456"/>
-      <c r="D46" s="456"/>
-      <c r="E46" s="304"/>
-      <c r="F46" s="304">
+      <c r="B46" s="453"/>
+      <c r="C46" s="453"/>
+      <c r="D46" s="453"/>
+      <c r="E46" s="301"/>
+      <c r="F46" s="301">
         <f>SUM(F7:F45)</f>
         <v>194</v>
       </c>
-      <c r="G46" s="305">
+      <c r="G46" s="302">
         <f>SUM(G7:G45)</f>
         <v>9060000</v>
       </c>
-      <c r="H46" s="305">
+      <c r="H46" s="302">
         <f>SUM(H7:H45)</f>
         <v>85020000</v>
       </c>
-      <c r="I46" s="306"/>
-      <c r="J46" s="307">
+      <c r="I46" s="303"/>
+      <c r="J46" s="304">
         <f>SUM(J7:J45)</f>
         <v>47523300</v>
       </c>
-      <c r="K46" s="304"/>
-      <c r="L46" s="304"/>
-      <c r="M46" s="304"/>
-      <c r="N46" s="304"/>
+      <c r="K46" s="301"/>
+      <c r="L46" s="301"/>
+      <c r="M46" s="301"/>
+      <c r="N46" s="301"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F47" s="310"/>
-      <c r="G47" s="310"/>
+      <c r="F47" s="307"/>
+      <c r="G47" s="307"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F48" s="310"/>
-      <c r="G48" s="310"/>
-    </row>
-    <row r="49" spans="1:10" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="311"/>
-      <c r="C49" s="313"/>
+      <c r="F48" s="307"/>
+      <c r="G48" s="307"/>
+    </row>
+    <row r="49" spans="1:10" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="308"/>
+      <c r="C49" s="310"/>
       <c r="D49" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="313"/>
-      <c r="F49" s="313"/>
-      <c r="G49" s="313"/>
+      <c r="E49" s="310"/>
+      <c r="F49" s="310"/>
+      <c r="G49" s="310"/>
       <c r="J49" s="212" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="312" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="311"/>
+    <row r="50" spans="1:10" s="309" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="308"/>
       <c r="C50" s="12"/>
       <c r="D50" s="140" t="s">
         <v>15</v>
@@ -8564,32 +8728,32 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F51" s="310"/>
-      <c r="G51" s="310"/>
-      <c r="J51" s="314"/>
+      <c r="F51" s="307"/>
+      <c r="G51" s="307"/>
+      <c r="J51" s="311"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F52" s="310"/>
-      <c r="G52" s="310"/>
-      <c r="J52" s="314"/>
+      <c r="F52" s="307"/>
+      <c r="G52" s="307"/>
+      <c r="J52" s="311"/>
     </row>
     <row r="53" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="237"/>
-      <c r="C53" s="313"/>
+      <c r="C53" s="310"/>
       <c r="E53" s="234"/>
-      <c r="J53" s="315"/>
+      <c r="J53" s="312"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F54" s="310"/>
-      <c r="G54" s="310"/>
+      <c r="F54" s="307"/>
+      <c r="G54" s="307"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F55" s="310"/>
-      <c r="G55" s="310"/>
+      <c r="F55" s="307"/>
+      <c r="G55" s="307"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="310"/>
-      <c r="G56" s="310"/>
+      <c r="F56" s="307"/>
+      <c r="G56" s="307"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -8717,14 +8881,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="475" t="s">
+      <c r="A4" s="472" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
-      <c r="D4" s="475"/>
-      <c r="E4" s="475"/>
-      <c r="F4" s="475"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
+      <c r="D4" s="472"/>
+      <c r="E4" s="472"/>
+      <c r="F4" s="472"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -8738,14 +8902,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="476" t="s">
+      <c r="A5" s="473" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="476"/>
-      <c r="C5" s="476"/>
-      <c r="D5" s="476"/>
-      <c r="E5" s="476"/>
-      <c r="F5" s="476"/>
+      <c r="B5" s="473"/>
+      <c r="C5" s="473"/>
+      <c r="D5" s="473"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -9092,10 +9256,10 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="477" t="s">
+      <c r="A25" s="474" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="477"/>
+      <c r="B25" s="474"/>
       <c r="C25" s="31"/>
       <c r="D25" s="121">
         <f>C24-D24</f>
@@ -9174,13 +9338,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9188,7 +9352,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -9200,110 +9364,110 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="479" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="482"/>
-      <c r="J3" s="482"/>
-      <c r="K3" s="482"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="483" t="s">
+      <c r="A4" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="498" t="s">
+      <c r="B4" s="495" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="483" t="s">
+      <c r="C4" s="480" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="483" t="s">
+      <c r="D4" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="483"/>
-      <c r="F4" s="491" t="s">
+      <c r="E4" s="480"/>
+      <c r="F4" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="491"/>
-      <c r="H4" s="491"/>
-      <c r="I4" s="491"/>
-      <c r="J4" s="491"/>
-      <c r="K4" s="491"/>
-      <c r="L4" s="495" t="s">
-        <v>251</v>
-      </c>
-      <c r="M4" s="496"/>
-      <c r="N4" s="497"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="488"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="492" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="493"/>
+      <c r="N4" s="494"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="483"/>
-      <c r="B5" s="498"/>
-      <c r="C5" s="483"/>
-      <c r="D5" s="483" t="s">
+      <c r="A5" s="480"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="483" t="s">
+      <c r="E5" s="480" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="483" t="s">
+      <c r="F5" s="480" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="483" t="s">
+      <c r="G5" s="480" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="484" t="s">
+      <c r="H5" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="484" t="s">
+      <c r="I5" s="481" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="362"/>
-      <c r="K5" s="484" t="s">
+      <c r="J5" s="359"/>
+      <c r="K5" s="481" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="424" t="s">
+      <c r="L5" s="421" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="424" t="s">
+      <c r="M5" s="421" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="424" t="s">
+      <c r="N5" s="421" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="483"/>
-      <c r="B6" s="498"/>
-      <c r="C6" s="483"/>
-      <c r="D6" s="483"/>
-      <c r="E6" s="483"/>
-      <c r="F6" s="483"/>
-      <c r="G6" s="483"/>
-      <c r="H6" s="484"/>
-      <c r="I6" s="484"/>
+      <c r="A6" s="480"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="480"/>
+      <c r="E6" s="480"/>
+      <c r="F6" s="480"/>
+      <c r="G6" s="480"/>
+      <c r="H6" s="481"/>
+      <c r="I6" s="481"/>
       <c r="J6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="484"/>
-      <c r="L6" s="425"/>
-      <c r="M6" s="425"/>
-      <c r="N6" s="425"/>
+      <c r="K6" s="481"/>
+      <c r="L6" s="422"/>
+      <c r="M6" s="422"/>
+      <c r="N6" s="422"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="328">
+      <c r="A7" s="325">
         <v>789</v>
       </c>
       <c r="B7" s="189">
         <v>44081</v>
       </c>
-      <c r="C7" s="328" t="s">
+      <c r="C7" s="325" t="s">
         <v>116</v>
       </c>
       <c r="D7" s="190" t="s">
@@ -9312,10 +9476,10 @@
       <c r="E7" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="328" t="s">
+      <c r="F7" s="325" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="328">
+      <c r="G7" s="325">
         <v>1</v>
       </c>
       <c r="H7" s="191">
@@ -9337,23 +9501,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="328">
+      <c r="A8" s="325">
         <v>790</v>
       </c>
-      <c r="B8" s="316">
+      <c r="B8" s="313">
         <v>44081</v>
       </c>
-      <c r="C8" s="328" t="s">
+      <c r="C8" s="325" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="190" t="s">
         <v>116</v>
       </c>
       <c r="E8" s="204"/>
-      <c r="F8" s="328" t="s">
+      <c r="F8" s="325" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="328">
+      <c r="G8" s="325">
         <v>12</v>
       </c>
       <c r="H8" s="191">
@@ -9375,38 +9539,38 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="359">
+      <c r="A9" s="356">
         <v>796</v>
       </c>
-      <c r="B9" s="360">
+      <c r="B9" s="357">
         <v>44090</v>
       </c>
-      <c r="C9" s="359" t="s">
+      <c r="C9" s="356" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="359" t="s">
+      <c r="D9" s="334"/>
+      <c r="E9" s="334"/>
+      <c r="F9" s="356" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="359">
+      <c r="G9" s="356">
         <v>2</v>
       </c>
-      <c r="H9" s="347">
+      <c r="H9" s="344">
         <v>485000</v>
       </c>
-      <c r="I9" s="347">
+      <c r="I9" s="344">
         <v>970000</v>
       </c>
-      <c r="J9" s="348">
+      <c r="J9" s="345">
         <v>0.41</v>
       </c>
-      <c r="K9" s="347">
+      <c r="K9" s="344">
         <v>572300.00000000012</v>
       </c>
-      <c r="L9" s="347"/>
-      <c r="M9" s="347"/>
-      <c r="N9" s="347">
+      <c r="L9" s="344"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="344">
         <v>572300.00000000012</v>
       </c>
     </row>
@@ -9414,18 +9578,18 @@
       <c r="A10" s="216">
         <v>798</v>
       </c>
-      <c r="B10" s="316">
+      <c r="B10" s="313">
         <v>44092</v>
       </c>
-      <c r="C10" s="328" t="s">
+      <c r="C10" s="325" t="s">
         <v>116</v>
       </c>
       <c r="D10" s="216"/>
       <c r="E10" s="216"/>
-      <c r="F10" s="328" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="328">
+      <c r="F10" s="325" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="325">
         <v>1</v>
       </c>
       <c r="H10" s="187">
@@ -9447,25 +9611,25 @@
       <c r="N10" s="187"/>
     </row>
     <row r="11" spans="1:14" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="410">
+      <c r="A11" s="407">
         <v>799</v>
       </c>
-      <c r="B11" s="413">
+      <c r="B11" s="410">
         <v>44092</v>
       </c>
-      <c r="C11" s="410" t="s">
+      <c r="C11" s="407" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="410" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="410" t="s">
+      <c r="D11" s="407" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="407" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="356" t="s">
+      <c r="F11" s="353" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="356">
+      <c r="G11" s="353">
         <v>5</v>
       </c>
       <c r="H11" s="180">
@@ -9487,15 +9651,15 @@
       <c r="N11" s="180"/>
     </row>
     <row r="12" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="420"/>
-      <c r="B12" s="421"/>
-      <c r="C12" s="420"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="420"/>
-      <c r="F12" s="358" t="s">
+      <c r="A12" s="417"/>
+      <c r="B12" s="418"/>
+      <c r="C12" s="417"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="417"/>
+      <c r="F12" s="355" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="358">
+      <c r="G12" s="355">
         <v>10</v>
       </c>
       <c r="H12" s="185">
@@ -9517,34 +9681,34 @@
       <c r="N12" s="185"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="492" t="s">
+      <c r="A13" s="489" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="493"/>
-      <c r="C13" s="493"/>
-      <c r="D13" s="493"/>
-      <c r="E13" s="493"/>
-      <c r="F13" s="493"/>
-      <c r="G13" s="493"/>
-      <c r="H13" s="494"/>
-      <c r="I13" s="369">
+      <c r="B13" s="490"/>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="490"/>
+      <c r="G13" s="490"/>
+      <c r="H13" s="491"/>
+      <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>14675000</v>
       </c>
-      <c r="J13" s="370"/>
-      <c r="K13" s="369">
+      <c r="J13" s="367"/>
+      <c r="K13" s="366">
         <f>SUM(K7:K12)</f>
         <v>8566100.0000000019</v>
       </c>
-      <c r="L13" s="369">
+      <c r="L13" s="366">
         <f>SUM(L7:L12)</f>
         <v>280250.00000000006</v>
       </c>
-      <c r="M13" s="369">
+      <c r="M13" s="366">
         <f t="shared" ref="M13:N13" si="0">SUM(M7:M12)</f>
         <v>4085750.0000000009</v>
       </c>
-      <c r="N13" s="369">
+      <c r="N13" s="366">
         <f t="shared" si="0"/>
         <v>4200100.0000000009</v>
       </c>
@@ -9566,30 +9730,30 @@
       <c r="A15" s="165"/>
       <c r="B15" s="165"/>
       <c r="C15" s="165"/>
-      <c r="D15" s="485" t="s">
+      <c r="D15" s="482" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="486"/>
-      <c r="F15" s="486"/>
-      <c r="G15" s="486"/>
-      <c r="H15" s="486"/>
-      <c r="I15" s="487"/>
-      <c r="J15" s="364"/>
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="484"/>
+      <c r="J15" s="361"/>
       <c r="K15" s="166"/>
     </row>
     <row r="16" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="165"/>
       <c r="B16" s="165"/>
       <c r="C16" s="165"/>
-      <c r="D16" s="488" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="489"/>
-      <c r="F16" s="489"/>
-      <c r="G16" s="489"/>
-      <c r="H16" s="489"/>
-      <c r="I16" s="490"/>
-      <c r="J16" s="368">
+      <c r="D16" s="485" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
+      <c r="J16" s="365">
         <v>2309530</v>
       </c>
     </row>
@@ -9597,15 +9761,15 @@
       <c r="A17" s="165"/>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
-      <c r="D17" s="488" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" s="489"/>
-      <c r="F17" s="489"/>
-      <c r="G17" s="489"/>
-      <c r="H17" s="489"/>
-      <c r="I17" s="490"/>
-      <c r="J17" s="368">
+      <c r="D17" s="485" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="486"/>
+      <c r="F17" s="486"/>
+      <c r="G17" s="486"/>
+      <c r="H17" s="486"/>
+      <c r="I17" s="487"/>
+      <c r="J17" s="365">
         <f>N13</f>
         <v>4200100.0000000009</v>
       </c>
@@ -9614,15 +9778,15 @@
       <c r="A18" s="165"/>
       <c r="B18" s="165"/>
       <c r="C18" s="165"/>
-      <c r="D18" s="480" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="480"/>
-      <c r="F18" s="480"/>
-      <c r="G18" s="480"/>
-      <c r="H18" s="480"/>
-      <c r="I18" s="480"/>
-      <c r="J18" s="368">
+      <c r="D18" s="477" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="477"/>
+      <c r="F18" s="477"/>
+      <c r="G18" s="477"/>
+      <c r="H18" s="477"/>
+      <c r="I18" s="477"/>
+      <c r="J18" s="365">
         <f>SUM(J16:L17)</f>
         <v>6509630.0000000009</v>
       </c>
@@ -9635,11 +9799,11 @@
       <c r="E19" s="168"/>
       <c r="F19" s="168"/>
       <c r="G19" s="168"/>
-      <c r="H19" s="478" t="s">
+      <c r="H19" s="475" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="478"/>
-      <c r="J19" s="368">
+      <c r="I19" s="475"/>
+      <c r="J19" s="365">
         <v>2500000</v>
       </c>
     </row>
@@ -9651,38 +9815,38 @@
       <c r="E20" s="168"/>
       <c r="F20" s="168"/>
       <c r="G20" s="168"/>
-      <c r="H20" s="479" t="s">
+      <c r="H20" s="476" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="479"/>
-      <c r="J20" s="368">
+      <c r="I20" s="476"/>
+      <c r="J20" s="365">
         <f>J18+J19</f>
         <v>9009630</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="361"/>
-      <c r="B21" s="361"/>
-      <c r="C21" s="361"/>
+      <c r="A21" s="358"/>
+      <c r="B21" s="358"/>
+      <c r="C21" s="358"/>
       <c r="D21" s="168"/>
       <c r="E21" s="168"/>
       <c r="F21" s="168"/>
       <c r="G21" s="168"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="373"/>
+      <c r="H21" s="371"/>
+      <c r="I21" s="371"/>
+      <c r="J21" s="370"/>
     </row>
     <row r="22" spans="1:11" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="361"/>
-      <c r="B22" s="361"/>
-      <c r="C22" s="361"/>
+      <c r="A22" s="358"/>
+      <c r="B22" s="358"/>
+      <c r="C22" s="358"/>
       <c r="D22" s="168"/>
       <c r="E22" s="168"/>
       <c r="F22" s="168"/>
       <c r="G22" s="168"/>
-      <c r="H22" s="374"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="373"/>
+      <c r="H22" s="371"/>
+      <c r="I22" s="371"/>
+      <c r="J22" s="370"/>
     </row>
     <row r="23" spans="1:11" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C23" s="128" t="s">
@@ -9769,13 +9933,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9783,7 +9947,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -9795,111 +9959,111 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="482" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="482"/>
-      <c r="J3" s="482"/>
-      <c r="K3" s="482"/>
-      <c r="L3" s="482"/>
+      <c r="A3" s="479" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="483" t="s">
+      <c r="A4" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="498" t="s">
+      <c r="B4" s="495" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="483" t="s">
+      <c r="C4" s="480" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="483" t="s">
+      <c r="D4" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="483"/>
-      <c r="F4" s="491" t="s">
+      <c r="E4" s="480"/>
+      <c r="F4" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="491"/>
-      <c r="H4" s="491"/>
-      <c r="I4" s="491"/>
-      <c r="J4" s="491"/>
-      <c r="K4" s="491"/>
-      <c r="L4" s="491"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="488"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="488"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="483"/>
-      <c r="B5" s="498"/>
-      <c r="C5" s="483"/>
-      <c r="D5" s="483" t="s">
+      <c r="A5" s="480"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="483" t="s">
+      <c r="E5" s="480" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="483" t="s">
+      <c r="F5" s="480" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="483" t="s">
+      <c r="G5" s="480" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="484" t="s">
+      <c r="H5" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="484" t="s">
+      <c r="I5" s="481" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="499" t="s">
+      <c r="J5" s="496" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="500"/>
-      <c r="L5" s="484" t="s">
+      <c r="K5" s="497"/>
+      <c r="L5" s="481" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="483"/>
-      <c r="B6" s="498"/>
-      <c r="C6" s="483"/>
-      <c r="D6" s="483"/>
-      <c r="E6" s="483"/>
-      <c r="F6" s="483"/>
-      <c r="G6" s="483"/>
-      <c r="H6" s="484"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="363" t="s">
+      <c r="A6" s="480"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="480"/>
+      <c r="E6" s="480"/>
+      <c r="F6" s="480"/>
+      <c r="G6" s="480"/>
+      <c r="H6" s="481"/>
+      <c r="I6" s="481"/>
+      <c r="J6" s="360" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="484"/>
+      <c r="L6" s="481"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="410">
+      <c r="A7" s="407">
         <v>788</v>
       </c>
-      <c r="B7" s="413">
+      <c r="B7" s="410">
         <v>44090</v>
       </c>
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="416" t="s">
+      <c r="D7" s="413" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="416"/>
-      <c r="F7" s="356" t="s">
+      <c r="E7" s="413"/>
+      <c r="F7" s="353" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="356">
+      <c r="G7" s="353">
         <v>8</v>
       </c>
       <c r="H7" s="192">
@@ -9917,15 +10081,15 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="411"/>
-      <c r="B8" s="414"/>
-      <c r="C8" s="411"/>
-      <c r="D8" s="417"/>
-      <c r="E8" s="417"/>
-      <c r="F8" s="357" t="s">
+      <c r="A8" s="408"/>
+      <c r="B8" s="411"/>
+      <c r="C8" s="408"/>
+      <c r="D8" s="414"/>
+      <c r="E8" s="414"/>
+      <c r="F8" s="354" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="357">
+      <c r="G8" s="354">
         <v>5</v>
       </c>
       <c r="H8" s="182">
@@ -9943,15 +10107,15 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="411"/>
-      <c r="B9" s="414"/>
-      <c r="C9" s="411"/>
-      <c r="D9" s="417"/>
-      <c r="E9" s="417"/>
-      <c r="F9" s="357" t="s">
+      <c r="A9" s="408"/>
+      <c r="B9" s="411"/>
+      <c r="C9" s="408"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
+      <c r="F9" s="354" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="357">
+      <c r="G9" s="354">
         <v>4</v>
       </c>
       <c r="H9" s="182">
@@ -9970,15 +10134,15 @@
       <c r="N9" s="184"/>
     </row>
     <row r="10" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="421"/>
-      <c r="C10" s="420"/>
-      <c r="D10" s="419"/>
-      <c r="E10" s="419"/>
-      <c r="F10" s="358" t="s">
+      <c r="A10" s="417"/>
+      <c r="B10" s="418"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="416"/>
+      <c r="E10" s="416"/>
+      <c r="F10" s="355" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="358">
+      <c r="G10" s="355">
         <v>5</v>
       </c>
       <c r="H10" s="185">
@@ -9996,23 +10160,23 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="328">
+      <c r="A11" s="325">
         <v>676</v>
       </c>
-      <c r="B11" s="316">
+      <c r="B11" s="313">
         <v>44097</v>
       </c>
-      <c r="C11" s="316" t="s">
+      <c r="C11" s="313" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="331" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="316"/>
-      <c r="F11" s="328" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11" s="328">
+      <c r="D11" s="328" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="313"/>
+      <c r="F11" s="325" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="325">
         <v>1</v>
       </c>
       <c r="H11" s="187">
@@ -10031,25 +10195,25 @@
       <c r="M11" s="184"/>
     </row>
     <row r="12" spans="1:14" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="328">
+      <c r="A12" s="325">
         <v>804</v>
       </c>
       <c r="B12" s="189">
         <v>44102</v>
       </c>
-      <c r="C12" s="328" t="s">
+      <c r="C12" s="325" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="371" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="343" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="328" t="s">
+      <c r="D12" s="368" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="340" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="325" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="328">
+      <c r="G12" s="325">
         <v>2</v>
       </c>
       <c r="H12" s="187">
@@ -10068,23 +10232,23 @@
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="492" t="s">
+      <c r="A13" s="489" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="493"/>
-      <c r="C13" s="493"/>
-      <c r="D13" s="493"/>
-      <c r="E13" s="493"/>
-      <c r="F13" s="493"/>
-      <c r="G13" s="493"/>
-      <c r="H13" s="494"/>
-      <c r="I13" s="369">
+      <c r="B13" s="490"/>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="490"/>
+      <c r="G13" s="490"/>
+      <c r="H13" s="491"/>
+      <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>10890000</v>
       </c>
-      <c r="J13" s="369"/>
-      <c r="K13" s="370"/>
-      <c r="L13" s="369">
+      <c r="J13" s="366"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="366">
         <f>SUM(L7:L12)</f>
         <v>5445000</v>
       </c>
@@ -10104,146 +10268,146 @@
       <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="361"/>
-      <c r="B15" s="361"/>
-      <c r="C15" s="361"/>
-      <c r="D15" s="485" t="s">
+      <c r="A15" s="358"/>
+      <c r="B15" s="358"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="482" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="486"/>
-      <c r="F15" s="486"/>
-      <c r="G15" s="486"/>
-      <c r="H15" s="486"/>
-      <c r="I15" s="487"/>
-      <c r="J15" s="501" t="s">
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="484"/>
+      <c r="J15" s="498" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="502"/>
+      <c r="K15" s="499"/>
       <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="361"/>
-      <c r="B16" s="361"/>
-      <c r="C16" s="361"/>
-      <c r="D16" s="488" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="489"/>
-      <c r="F16" s="489"/>
-      <c r="G16" s="489"/>
-      <c r="H16" s="489"/>
-      <c r="I16" s="490"/>
-      <c r="J16" s="503">
+      <c r="A16" s="358"/>
+      <c r="B16" s="358"/>
+      <c r="C16" s="358"/>
+      <c r="D16" s="485" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
+      <c r="J16" s="500">
         <v>4782500</v>
       </c>
-      <c r="K16" s="504"/>
+      <c r="K16" s="501"/>
       <c r="L16" s="166"/>
     </row>
     <row r="17" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="361"/>
-      <c r="B17" s="361"/>
-      <c r="C17" s="361"/>
-      <c r="D17" s="488" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="489"/>
-      <c r="F17" s="489"/>
-      <c r="G17" s="489"/>
-      <c r="H17" s="489"/>
-      <c r="I17" s="490"/>
-      <c r="J17" s="503">
+      <c r="A17" s="358"/>
+      <c r="B17" s="358"/>
+      <c r="C17" s="358"/>
+      <c r="D17" s="485" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="486"/>
+      <c r="F17" s="486"/>
+      <c r="G17" s="486"/>
+      <c r="H17" s="486"/>
+      <c r="I17" s="487"/>
+      <c r="J17" s="500">
         <f>L13</f>
         <v>5445000</v>
       </c>
-      <c r="K17" s="504"/>
+      <c r="K17" s="501"/>
       <c r="L17" s="166"/>
     </row>
     <row r="18" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="361"/>
-      <c r="B18" s="361"/>
-      <c r="C18" s="361"/>
-      <c r="D18" s="485" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="486"/>
-      <c r="F18" s="486"/>
-      <c r="G18" s="486"/>
-      <c r="H18" s="486"/>
-      <c r="I18" s="487"/>
-      <c r="J18" s="503">
+      <c r="A18" s="358"/>
+      <c r="B18" s="358"/>
+      <c r="C18" s="358"/>
+      <c r="D18" s="482" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="483"/>
+      <c r="F18" s="483"/>
+      <c r="G18" s="483"/>
+      <c r="H18" s="483"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="500">
         <f>J17-J16</f>
         <v>662500</v>
       </c>
-      <c r="K18" s="504"/>
+      <c r="K18" s="501"/>
       <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="361"/>
-      <c r="B19" s="361"/>
-      <c r="C19" s="361"/>
-      <c r="D19" s="488" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="489"/>
-      <c r="F19" s="489"/>
-      <c r="G19" s="489"/>
-      <c r="H19" s="489"/>
-      <c r="I19" s="490"/>
-      <c r="J19" s="503">
+      <c r="A19" s="358"/>
+      <c r="B19" s="358"/>
+      <c r="C19" s="358"/>
+      <c r="D19" s="485" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="486"/>
+      <c r="F19" s="486"/>
+      <c r="G19" s="486"/>
+      <c r="H19" s="486"/>
+      <c r="I19" s="487"/>
+      <c r="J19" s="500">
         <v>3000000</v>
       </c>
-      <c r="K19" s="504"/>
+      <c r="K19" s="501"/>
       <c r="L19" s="166"/>
     </row>
     <row r="20" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="361"/>
-      <c r="B20" s="361"/>
-      <c r="C20" s="361"/>
-      <c r="D20" s="488" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="489"/>
-      <c r="F20" s="489"/>
-      <c r="G20" s="489"/>
-      <c r="H20" s="489"/>
-      <c r="I20" s="490"/>
-      <c r="J20" s="503">
+      <c r="A20" s="358"/>
+      <c r="B20" s="358"/>
+      <c r="C20" s="358"/>
+      <c r="D20" s="485" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="486"/>
+      <c r="F20" s="486"/>
+      <c r="G20" s="486"/>
+      <c r="H20" s="486"/>
+      <c r="I20" s="487"/>
+      <c r="J20" s="500">
         <f>12%*5000000</f>
         <v>600000</v>
       </c>
-      <c r="K20" s="504"/>
+      <c r="K20" s="501"/>
       <c r="L20" s="166"/>
     </row>
     <row r="21" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="361"/>
-      <c r="B21" s="361"/>
-      <c r="C21" s="361"/>
-      <c r="D21" s="480" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" s="480"/>
-      <c r="F21" s="480"/>
-      <c r="G21" s="480"/>
-      <c r="H21" s="480"/>
-      <c r="I21" s="480"/>
-      <c r="J21" s="505">
+      <c r="A21" s="358"/>
+      <c r="B21" s="358"/>
+      <c r="C21" s="358"/>
+      <c r="D21" s="477" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="477"/>
+      <c r="F21" s="477"/>
+      <c r="G21" s="477"/>
+      <c r="H21" s="477"/>
+      <c r="I21" s="477"/>
+      <c r="J21" s="502">
         <f>J18+J19-J20</f>
         <v>3062500</v>
       </c>
-      <c r="K21" s="506"/>
+      <c r="K21" s="503"/>
     </row>
     <row r="22" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="361"/>
-      <c r="B22" s="361"/>
-      <c r="C22" s="361"/>
-      <c r="D22" s="372"/>
-      <c r="E22" s="372"/>
-      <c r="F22" s="372"/>
-      <c r="G22" s="372"/>
-      <c r="H22" s="372"/>
-      <c r="I22" s="372"/>
-      <c r="J22" s="373"/>
-      <c r="K22" s="373"/>
+      <c r="A22" s="358"/>
+      <c r="B22" s="358"/>
+      <c r="C22" s="358"/>
+      <c r="D22" s="369"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="369"/>
+      <c r="G22" s="369"/>
+      <c r="H22" s="369"/>
+      <c r="I22" s="369"/>
+      <c r="J22" s="370"/>
+      <c r="K22" s="370"/>
     </row>
     <row r="23" spans="1:12" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C23" s="128" t="s">
@@ -10326,13 +10490,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10340,7 +10504,7 @@
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -10352,177 +10516,177 @@
       <c r="I2" s="46"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="510" t="s">
+      <c r="A4" s="507" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="510"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="510"/>
-      <c r="E4" s="510"/>
-      <c r="F4" s="510"/>
-      <c r="G4" s="510"/>
-      <c r="H4" s="510"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="507"/>
+      <c r="H4" s="507"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="511" t="s">
+      <c r="A6" s="508" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="511"/>
-      <c r="C6" s="511"/>
-      <c r="D6" s="511"/>
-      <c r="E6" s="511"/>
-      <c r="F6" s="511"/>
-      <c r="G6" s="512" t="s">
+      <c r="B6" s="508"/>
+      <c r="C6" s="508"/>
+      <c r="D6" s="508"/>
+      <c r="E6" s="508"/>
+      <c r="F6" s="508"/>
+      <c r="G6" s="509" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="512"/>
+      <c r="H6" s="509"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="513" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="514"/>
-      <c r="C7" s="514"/>
-      <c r="D7" s="515"/>
-      <c r="E7" s="365" t="s">
+      <c r="A7" s="510" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="511"/>
+      <c r="C7" s="511"/>
+      <c r="D7" s="512"/>
+      <c r="E7" s="362" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="366">
+      <c r="F7" s="363">
         <v>954000</v>
       </c>
-      <c r="G7" s="522">
+      <c r="G7" s="519">
         <f>SUM(F7:F14)</f>
         <v>6713000</v>
       </c>
-      <c r="H7" s="523"/>
+      <c r="H7" s="520"/>
     </row>
     <row r="8" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="516"/>
-      <c r="B8" s="517"/>
-      <c r="C8" s="517"/>
-      <c r="D8" s="518"/>
-      <c r="E8" s="365" t="s">
+      <c r="A8" s="513"/>
+      <c r="B8" s="514"/>
+      <c r="C8" s="514"/>
+      <c r="D8" s="515"/>
+      <c r="E8" s="362" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="366">
+      <c r="F8" s="363">
         <v>54000</v>
       </c>
-      <c r="G8" s="524"/>
-      <c r="H8" s="525"/>
+      <c r="G8" s="521"/>
+      <c r="H8" s="522"/>
     </row>
     <row r="9" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="516"/>
-      <c r="B9" s="517"/>
-      <c r="C9" s="517"/>
-      <c r="D9" s="518"/>
-      <c r="E9" s="365" t="s">
+      <c r="A9" s="513"/>
+      <c r="B9" s="514"/>
+      <c r="C9" s="514"/>
+      <c r="D9" s="515"/>
+      <c r="E9" s="362" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="366">
+      <c r="F9" s="363">
         <v>182000</v>
       </c>
-      <c r="G9" s="524"/>
-      <c r="H9" s="525"/>
+      <c r="G9" s="521"/>
+      <c r="H9" s="522"/>
     </row>
     <row r="10" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="516"/>
-      <c r="B10" s="517"/>
-      <c r="C10" s="517"/>
-      <c r="D10" s="518"/>
-      <c r="E10" s="365" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="366">
+      <c r="A10" s="513"/>
+      <c r="B10" s="514"/>
+      <c r="C10" s="514"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="362" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="363">
         <v>2012000</v>
       </c>
-      <c r="G10" s="524"/>
-      <c r="H10" s="525"/>
+      <c r="G10" s="521"/>
+      <c r="H10" s="522"/>
     </row>
     <row r="11" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="516"/>
-      <c r="B11" s="517"/>
-      <c r="C11" s="517"/>
-      <c r="D11" s="518"/>
-      <c r="E11" s="365" t="s">
+      <c r="A11" s="513"/>
+      <c r="B11" s="514"/>
+      <c r="C11" s="514"/>
+      <c r="D11" s="515"/>
+      <c r="E11" s="362" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="366">
+      <c r="F11" s="363">
         <v>306000</v>
       </c>
-      <c r="G11" s="524"/>
-      <c r="H11" s="525"/>
+      <c r="G11" s="521"/>
+      <c r="H11" s="522"/>
     </row>
     <row r="12" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="516"/>
-      <c r="B12" s="517"/>
-      <c r="C12" s="517"/>
-      <c r="D12" s="518"/>
-      <c r="E12" s="365" t="s">
-        <v>234</v>
-      </c>
-      <c r="F12" s="366">
+      <c r="A12" s="513"/>
+      <c r="B12" s="514"/>
+      <c r="C12" s="514"/>
+      <c r="D12" s="515"/>
+      <c r="E12" s="362" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="363">
         <v>1380000</v>
       </c>
-      <c r="G12" s="524"/>
-      <c r="H12" s="525"/>
+      <c r="G12" s="521"/>
+      <c r="H12" s="522"/>
     </row>
     <row r="13" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="516"/>
-      <c r="B13" s="517"/>
-      <c r="C13" s="517"/>
-      <c r="D13" s="518"/>
-      <c r="E13" s="365" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="366">
+      <c r="A13" s="513"/>
+      <c r="B13" s="514"/>
+      <c r="C13" s="514"/>
+      <c r="D13" s="515"/>
+      <c r="E13" s="362" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="363">
         <v>1325000</v>
       </c>
-      <c r="G13" s="524"/>
-      <c r="H13" s="525"/>
+      <c r="G13" s="521"/>
+      <c r="H13" s="522"/>
     </row>
     <row r="14" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="519"/>
-      <c r="B14" s="520"/>
-      <c r="C14" s="520"/>
-      <c r="D14" s="521"/>
-      <c r="E14" s="365" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="367">
+      <c r="A14" s="516"/>
+      <c r="B14" s="517"/>
+      <c r="C14" s="517"/>
+      <c r="D14" s="518"/>
+      <c r="E14" s="362" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="364">
         <v>500000</v>
       </c>
-      <c r="G14" s="526"/>
-      <c r="H14" s="527"/>
+      <c r="G14" s="523"/>
+      <c r="H14" s="524"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="508" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="508"/>
-      <c r="C15" s="508"/>
-      <c r="D15" s="508"/>
-      <c r="E15" s="508"/>
-      <c r="F15" s="508"/>
-      <c r="G15" s="509">
+      <c r="A15" s="505" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="505"/>
+      <c r="C15" s="505"/>
+      <c r="D15" s="505"/>
+      <c r="E15" s="505"/>
+      <c r="F15" s="505"/>
+      <c r="G15" s="506">
         <f>'Bảng lương'!I12</f>
         <v>4744538.461538462</v>
       </c>
-      <c r="H15" s="509"/>
+      <c r="H15" s="506"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="480" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="480"/>
-      <c r="C16" s="480"/>
-      <c r="D16" s="480"/>
-      <c r="E16" s="480"/>
-      <c r="F16" s="480"/>
-      <c r="G16" s="507">
+      <c r="A16" s="477" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="477"/>
+      <c r="C16" s="477"/>
+      <c r="D16" s="477"/>
+      <c r="E16" s="477"/>
+      <c r="F16" s="477"/>
+      <c r="G16" s="504">
         <f>G7+G15</f>
         <v>11457538.461538462</v>
       </c>
-      <c r="H16" s="507"/>
+      <c r="H16" s="504"/>
     </row>
     <row r="19" spans="2:11" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="128" t="s">
@@ -11101,16 +11265,16 @@
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="Z1" s="546" t="s">
+      <c r="Z1" s="543" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="547"/>
-      <c r="AB1" s="547"/>
-      <c r="AC1" s="547"/>
-      <c r="AD1" s="547"/>
-      <c r="AE1" s="547"/>
-      <c r="AF1" s="547"/>
-      <c r="AG1" s="548"/>
+      <c r="AA1" s="544"/>
+      <c r="AB1" s="544"/>
+      <c r="AC1" s="544"/>
+      <c r="AD1" s="544"/>
+      <c r="AE1" s="544"/>
+      <c r="AF1" s="544"/>
+      <c r="AG1" s="545"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -11120,18 +11284,18 @@
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="Z2" s="529" t="s">
+      <c r="Z2" s="526" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="530"/>
-      <c r="AB2" s="530"/>
-      <c r="AC2" s="530"/>
-      <c r="AD2" s="530"/>
-      <c r="AE2" s="531"/>
-      <c r="AF2" s="532" t="s">
+      <c r="AA2" s="527"/>
+      <c r="AB2" s="527"/>
+      <c r="AC2" s="527"/>
+      <c r="AD2" s="527"/>
+      <c r="AE2" s="528"/>
+      <c r="AF2" s="529" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="533"/>
+      <c r="AG2" s="530"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -11141,18 +11305,18 @@
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
-      <c r="Z3" s="529" t="s">
+      <c r="Z3" s="526" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="530"/>
-      <c r="AB3" s="530"/>
-      <c r="AC3" s="530"/>
-      <c r="AD3" s="530"/>
-      <c r="AE3" s="531"/>
-      <c r="AF3" s="532" t="s">
+      <c r="AA3" s="527"/>
+      <c r="AB3" s="527"/>
+      <c r="AC3" s="527"/>
+      <c r="AD3" s="527"/>
+      <c r="AE3" s="528"/>
+      <c r="AF3" s="529" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" s="533"/>
+      <c r="AG3" s="530"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
@@ -11165,18 +11329,18 @@
       <c r="T4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="529" t="s">
+      <c r="Z4" s="526" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="530"/>
-      <c r="AB4" s="530"/>
-      <c r="AC4" s="530"/>
-      <c r="AD4" s="530"/>
-      <c r="AE4" s="531"/>
-      <c r="AF4" s="532" t="s">
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="528"/>
+      <c r="AF4" s="529" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="533"/>
+      <c r="AG4" s="530"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
@@ -11186,18 +11350,18 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
-      <c r="Z5" s="529" t="s">
+      <c r="Z5" s="526" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="530"/>
-      <c r="AB5" s="530"/>
-      <c r="AC5" s="530"/>
-      <c r="AD5" s="530"/>
-      <c r="AE5" s="531"/>
-      <c r="AF5" s="532" t="s">
+      <c r="AA5" s="527"/>
+      <c r="AB5" s="527"/>
+      <c r="AC5" s="527"/>
+      <c r="AD5" s="527"/>
+      <c r="AE5" s="528"/>
+      <c r="AF5" s="529" t="s">
         <v>92</v>
       </c>
-      <c r="AG5" s="533"/>
+      <c r="AG5" s="530"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -11207,93 +11371,93 @@
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:40" s="83" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="534" t="s">
+      <c r="A7" s="531" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="534"/>
-      <c r="C7" s="534"/>
-      <c r="D7" s="534"/>
-      <c r="E7" s="534"/>
-      <c r="F7" s="534"/>
-      <c r="G7" s="534"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="534"/>
-      <c r="J7" s="534"/>
-      <c r="K7" s="534"/>
-      <c r="L7" s="534"/>
-      <c r="M7" s="534"/>
-      <c r="N7" s="534"/>
-      <c r="O7" s="534"/>
-      <c r="P7" s="534"/>
-      <c r="Q7" s="534"/>
-      <c r="R7" s="534"/>
-      <c r="S7" s="534"/>
-      <c r="T7" s="534"/>
-      <c r="U7" s="534"/>
-      <c r="V7" s="534"/>
-      <c r="W7" s="534"/>
-      <c r="X7" s="534"/>
-      <c r="Y7" s="534"/>
-      <c r="Z7" s="534"/>
-      <c r="AA7" s="534"/>
-      <c r="AB7" s="534"/>
-      <c r="AC7" s="534"/>
-      <c r="AD7" s="534"/>
-      <c r="AE7" s="534"/>
-      <c r="AF7" s="534"/>
-      <c r="AG7" s="534"/>
-      <c r="AH7" s="534"/>
-      <c r="AI7" s="534"/>
-      <c r="AJ7" s="534"/>
-      <c r="AK7" s="534"/>
-      <c r="AL7" s="534"/>
-      <c r="AM7" s="534"/>
+      <c r="B7" s="531"/>
+      <c r="C7" s="531"/>
+      <c r="D7" s="531"/>
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="531"/>
+      <c r="I7" s="531"/>
+      <c r="J7" s="531"/>
+      <c r="K7" s="531"/>
+      <c r="L7" s="531"/>
+      <c r="M7" s="531"/>
+      <c r="N7" s="531"/>
+      <c r="O7" s="531"/>
+      <c r="P7" s="531"/>
+      <c r="Q7" s="531"/>
+      <c r="R7" s="531"/>
+      <c r="S7" s="531"/>
+      <c r="T7" s="531"/>
+      <c r="U7" s="531"/>
+      <c r="V7" s="531"/>
+      <c r="W7" s="531"/>
+      <c r="X7" s="531"/>
+      <c r="Y7" s="531"/>
+      <c r="Z7" s="531"/>
+      <c r="AA7" s="531"/>
+      <c r="AB7" s="531"/>
+      <c r="AC7" s="531"/>
+      <c r="AD7" s="531"/>
+      <c r="AE7" s="531"/>
+      <c r="AF7" s="531"/>
+      <c r="AG7" s="531"/>
+      <c r="AH7" s="531"/>
+      <c r="AI7" s="531"/>
+      <c r="AJ7" s="531"/>
+      <c r="AK7" s="531"/>
+      <c r="AL7" s="531"/>
+      <c r="AM7" s="531"/>
       <c r="AN7" s="82"/>
     </row>
     <row r="9" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="535" t="s">
+      <c r="A9" s="532" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="535" t="s">
+      <c r="B9" s="532" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="535" t="s">
+      <c r="C9" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="538" t="s">
+      <c r="D9" s="535" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="539"/>
-      <c r="F9" s="539"/>
-      <c r="G9" s="539"/>
-      <c r="H9" s="539"/>
-      <c r="I9" s="539"/>
-      <c r="J9" s="539"/>
-      <c r="K9" s="539"/>
-      <c r="L9" s="539"/>
-      <c r="M9" s="539"/>
-      <c r="N9" s="539"/>
-      <c r="O9" s="539"/>
-      <c r="P9" s="539"/>
-      <c r="Q9" s="539"/>
-      <c r="R9" s="539"/>
-      <c r="S9" s="539"/>
-      <c r="T9" s="539"/>
-      <c r="U9" s="539"/>
-      <c r="V9" s="539"/>
-      <c r="W9" s="539"/>
-      <c r="X9" s="539"/>
-      <c r="Y9" s="539"/>
-      <c r="Z9" s="539"/>
-      <c r="AA9" s="539"/>
-      <c r="AB9" s="539"/>
-      <c r="AC9" s="539"/>
-      <c r="AD9" s="539"/>
-      <c r="AE9" s="539"/>
-      <c r="AF9" s="539"/>
-      <c r="AG9" s="539"/>
-      <c r="AH9" s="540"/>
-      <c r="AI9" s="541" t="s">
+      <c r="E9" s="536"/>
+      <c r="F9" s="536"/>
+      <c r="G9" s="536"/>
+      <c r="H9" s="536"/>
+      <c r="I9" s="536"/>
+      <c r="J9" s="536"/>
+      <c r="K9" s="536"/>
+      <c r="L9" s="536"/>
+      <c r="M9" s="536"/>
+      <c r="N9" s="536"/>
+      <c r="O9" s="536"/>
+      <c r="P9" s="536"/>
+      <c r="Q9" s="536"/>
+      <c r="R9" s="536"/>
+      <c r="S9" s="536"/>
+      <c r="T9" s="536"/>
+      <c r="U9" s="536"/>
+      <c r="V9" s="536"/>
+      <c r="W9" s="536"/>
+      <c r="X9" s="536"/>
+      <c r="Y9" s="536"/>
+      <c r="Z9" s="536"/>
+      <c r="AA9" s="536"/>
+      <c r="AB9" s="536"/>
+      <c r="AC9" s="536"/>
+      <c r="AD9" s="536"/>
+      <c r="AE9" s="536"/>
+      <c r="AF9" s="536"/>
+      <c r="AG9" s="536"/>
+      <c r="AH9" s="537"/>
+      <c r="AI9" s="538" t="s">
         <v>97</v>
       </c>
       <c r="AJ9" s="84"/>
@@ -11303,9 +11467,9 @@
       <c r="AN9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="536"/>
-      <c r="B10" s="536"/>
-      <c r="C10" s="536"/>
+      <c r="A10" s="533"/>
+      <c r="B10" s="533"/>
+      <c r="C10" s="533"/>
       <c r="D10" s="89">
         <v>1</v>
       </c>
@@ -11399,7 +11563,7 @@
       <c r="AH10" s="89">
         <v>31</v>
       </c>
-      <c r="AI10" s="541"/>
+      <c r="AI10" s="538"/>
       <c r="AJ10" s="90"/>
       <c r="AK10" s="86"/>
       <c r="AL10" s="86"/>
@@ -11407,9 +11571,9 @@
       <c r="AN10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="537"/>
-      <c r="B11" s="537"/>
-      <c r="C11" s="537"/>
+      <c r="A11" s="534"/>
+      <c r="B11" s="534"/>
+      <c r="C11" s="534"/>
       <c r="D11" s="89" t="s">
         <v>103</v>
       </c>
@@ -11503,7 +11667,7 @@
       <c r="AH11" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="AI11" s="541"/>
+      <c r="AI11" s="538"/>
       <c r="AJ11" s="93"/>
       <c r="AN11" s="95"/>
     </row>
@@ -11824,10 +11988,10 @@
       <c r="AN14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="542" t="s">
+      <c r="A15" s="539" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="543"/>
+      <c r="B15" s="540"/>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="98"/>
@@ -11870,49 +12034,49 @@
       <c r="AN15" s="95"/>
     </row>
     <row r="17" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="544" t="s">
+      <c r="A17" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="544"/>
-      <c r="C17" s="544"/>
-      <c r="D17" s="544"/>
-      <c r="E17" s="544"/>
-      <c r="F17" s="544"/>
-      <c r="G17" s="544"/>
+      <c r="B17" s="541"/>
+      <c r="C17" s="541"/>
+      <c r="D17" s="541"/>
+      <c r="E17" s="541"/>
+      <c r="F17" s="541"/>
+      <c r="G17" s="541"/>
       <c r="H17" s="102"/>
-      <c r="I17" s="545"/>
-      <c r="J17" s="545"/>
-      <c r="K17" s="545"/>
-      <c r="L17" s="545"/>
-      <c r="M17" s="545"/>
+      <c r="I17" s="542"/>
+      <c r="J17" s="542"/>
+      <c r="K17" s="542"/>
+      <c r="L17" s="542"/>
+      <c r="M17" s="542"/>
       <c r="N17" s="103"/>
-      <c r="O17" s="545" t="s">
+      <c r="O17" s="542" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="545"/>
-      <c r="Q17" s="545"/>
-      <c r="R17" s="545"/>
-      <c r="S17" s="545"/>
-      <c r="T17" s="545"/>
-      <c r="U17" s="545"/>
-      <c r="V17" s="545"/>
-      <c r="W17" s="545"/>
-      <c r="X17" s="545"/>
-      <c r="Y17" s="545"/>
+      <c r="P17" s="542"/>
+      <c r="Q17" s="542"/>
+      <c r="R17" s="542"/>
+      <c r="S17" s="542"/>
+      <c r="T17" s="542"/>
+      <c r="U17" s="542"/>
+      <c r="V17" s="542"/>
+      <c r="W17" s="542"/>
+      <c r="X17" s="542"/>
+      <c r="Y17" s="542"/>
       <c r="Z17" s="104"/>
       <c r="AA17" s="104"/>
       <c r="AB17" s="105"/>
-      <c r="AC17" s="545"/>
-      <c r="AD17" s="545"/>
-      <c r="AE17" s="545"/>
-      <c r="AF17" s="545"/>
-      <c r="AG17" s="545"/>
-      <c r="AH17" s="545"/>
-      <c r="AI17" s="545"/>
-      <c r="AJ17" s="545"/>
-      <c r="AK17" s="545"/>
-      <c r="AL17" s="545"/>
-      <c r="AM17" s="545"/>
+      <c r="AC17" s="542"/>
+      <c r="AD17" s="542"/>
+      <c r="AE17" s="542"/>
+      <c r="AF17" s="542"/>
+      <c r="AG17" s="542"/>
+      <c r="AH17" s="542"/>
+      <c r="AI17" s="542"/>
+      <c r="AJ17" s="542"/>
+      <c r="AK17" s="542"/>
+      <c r="AL17" s="542"/>
+      <c r="AM17" s="542"/>
       <c r="AN17" s="106"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -11946,131 +12110,131 @@
       <c r="AN32" s="111"/>
     </row>
     <row r="33" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="528"/>
-      <c r="H33" s="528"/>
-      <c r="I33" s="528"/>
-      <c r="J33" s="528"/>
-      <c r="K33" s="528"/>
-      <c r="L33" s="528"/>
-      <c r="M33" s="528"/>
-      <c r="N33" s="528"/>
-      <c r="O33" s="528"/>
-      <c r="P33" s="528"/>
-      <c r="Q33" s="528"/>
-      <c r="R33" s="528"/>
-      <c r="S33" s="528"/>
-      <c r="T33" s="528"/>
-      <c r="U33" s="528"/>
-      <c r="V33" s="528"/>
-      <c r="W33" s="528"/>
-      <c r="X33" s="528"/>
+      <c r="G33" s="525"/>
+      <c r="H33" s="525"/>
+      <c r="I33" s="525"/>
+      <c r="J33" s="525"/>
+      <c r="K33" s="525"/>
+      <c r="L33" s="525"/>
+      <c r="M33" s="525"/>
+      <c r="N33" s="525"/>
+      <c r="O33" s="525"/>
+      <c r="P33" s="525"/>
+      <c r="Q33" s="525"/>
+      <c r="R33" s="525"/>
+      <c r="S33" s="525"/>
+      <c r="T33" s="525"/>
+      <c r="U33" s="525"/>
+      <c r="V33" s="525"/>
+      <c r="W33" s="525"/>
+      <c r="X33" s="525"/>
       <c r="AN33" s="111"/>
     </row>
     <row r="34" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="528"/>
-      <c r="H34" s="528"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="528"/>
-      <c r="K34" s="528"/>
-      <c r="L34" s="528"/>
-      <c r="M34" s="528"/>
-      <c r="N34" s="528"/>
-      <c r="O34" s="528"/>
-      <c r="P34" s="528"/>
-      <c r="Q34" s="528"/>
-      <c r="R34" s="528"/>
-      <c r="S34" s="528"/>
-      <c r="T34" s="528"/>
-      <c r="U34" s="528"/>
-      <c r="V34" s="528"/>
-      <c r="W34" s="528"/>
-      <c r="X34" s="528"/>
+      <c r="G34" s="525"/>
+      <c r="H34" s="525"/>
+      <c r="I34" s="525"/>
+      <c r="J34" s="525"/>
+      <c r="K34" s="525"/>
+      <c r="L34" s="525"/>
+      <c r="M34" s="525"/>
+      <c r="N34" s="525"/>
+      <c r="O34" s="525"/>
+      <c r="P34" s="525"/>
+      <c r="Q34" s="525"/>
+      <c r="R34" s="525"/>
+      <c r="S34" s="525"/>
+      <c r="T34" s="525"/>
+      <c r="U34" s="525"/>
+      <c r="V34" s="525"/>
+      <c r="W34" s="525"/>
+      <c r="X34" s="525"/>
       <c r="AN34" s="111"/>
     </row>
     <row r="35" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="528"/>
-      <c r="H35" s="528"/>
-      <c r="I35" s="528"/>
-      <c r="J35" s="528"/>
-      <c r="K35" s="528"/>
-      <c r="L35" s="528"/>
-      <c r="M35" s="528"/>
-      <c r="N35" s="528"/>
-      <c r="O35" s="528"/>
-      <c r="P35" s="528"/>
-      <c r="Q35" s="528"/>
-      <c r="R35" s="528"/>
-      <c r="S35" s="528"/>
-      <c r="T35" s="528"/>
-      <c r="U35" s="528"/>
-      <c r="V35" s="528"/>
-      <c r="W35" s="528"/>
-      <c r="X35" s="528"/>
+      <c r="G35" s="525"/>
+      <c r="H35" s="525"/>
+      <c r="I35" s="525"/>
+      <c r="J35" s="525"/>
+      <c r="K35" s="525"/>
+      <c r="L35" s="525"/>
+      <c r="M35" s="525"/>
+      <c r="N35" s="525"/>
+      <c r="O35" s="525"/>
+      <c r="P35" s="525"/>
+      <c r="Q35" s="525"/>
+      <c r="R35" s="525"/>
+      <c r="S35" s="525"/>
+      <c r="T35" s="525"/>
+      <c r="U35" s="525"/>
+      <c r="V35" s="525"/>
+      <c r="W35" s="525"/>
+      <c r="X35" s="525"/>
       <c r="AN35" s="111"/>
     </row>
     <row r="36" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="528"/>
-      <c r="H36" s="528"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="528"/>
-      <c r="K36" s="528"/>
-      <c r="L36" s="528"/>
-      <c r="M36" s="528"/>
-      <c r="N36" s="528"/>
-      <c r="O36" s="528"/>
-      <c r="P36" s="528"/>
-      <c r="Q36" s="528"/>
-      <c r="R36" s="528"/>
-      <c r="S36" s="528"/>
-      <c r="T36" s="528"/>
-      <c r="U36" s="528"/>
-      <c r="V36" s="528"/>
-      <c r="W36" s="528"/>
-      <c r="X36" s="528"/>
+      <c r="G36" s="525"/>
+      <c r="H36" s="525"/>
+      <c r="I36" s="525"/>
+      <c r="J36" s="525"/>
+      <c r="K36" s="525"/>
+      <c r="L36" s="525"/>
+      <c r="M36" s="525"/>
+      <c r="N36" s="525"/>
+      <c r="O36" s="525"/>
+      <c r="P36" s="525"/>
+      <c r="Q36" s="525"/>
+      <c r="R36" s="525"/>
+      <c r="S36" s="525"/>
+      <c r="T36" s="525"/>
+      <c r="U36" s="525"/>
+      <c r="V36" s="525"/>
+      <c r="W36" s="525"/>
+      <c r="X36" s="525"/>
       <c r="AN36" s="111"/>
     </row>
     <row r="37" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="528"/>
-      <c r="H37" s="528"/>
-      <c r="I37" s="528"/>
-      <c r="J37" s="528"/>
-      <c r="K37" s="528"/>
-      <c r="L37" s="528"/>
-      <c r="M37" s="528"/>
-      <c r="N37" s="528"/>
-      <c r="O37" s="528"/>
-      <c r="P37" s="528"/>
-      <c r="Q37" s="528"/>
-      <c r="R37" s="528"/>
-      <c r="S37" s="528"/>
-      <c r="T37" s="528"/>
-      <c r="U37" s="528"/>
-      <c r="V37" s="528"/>
-      <c r="W37" s="528"/>
-      <c r="X37" s="528"/>
+      <c r="G37" s="525"/>
+      <c r="H37" s="525"/>
+      <c r="I37" s="525"/>
+      <c r="J37" s="525"/>
+      <c r="K37" s="525"/>
+      <c r="L37" s="525"/>
+      <c r="M37" s="525"/>
+      <c r="N37" s="525"/>
+      <c r="O37" s="525"/>
+      <c r="P37" s="525"/>
+      <c r="Q37" s="525"/>
+      <c r="R37" s="525"/>
+      <c r="S37" s="525"/>
+      <c r="T37" s="525"/>
+      <c r="U37" s="525"/>
+      <c r="V37" s="525"/>
+      <c r="W37" s="525"/>
+      <c r="X37" s="525"/>
       <c r="AN37" s="111"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="G38" s="528"/>
-      <c r="H38" s="528"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="528"/>
-      <c r="K38" s="528"/>
-      <c r="L38" s="528"/>
-      <c r="M38" s="528"/>
-      <c r="N38" s="528"/>
-      <c r="O38" s="528"/>
-      <c r="P38" s="528"/>
-      <c r="Q38" s="528"/>
-      <c r="R38" s="528"/>
-      <c r="S38" s="528"/>
-      <c r="T38" s="528"/>
-      <c r="U38" s="528"/>
-      <c r="V38" s="528"/>
-      <c r="W38" s="528"/>
-      <c r="X38" s="528"/>
+      <c r="G38" s="525"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="525"/>
+      <c r="J38" s="525"/>
+      <c r="K38" s="525"/>
+      <c r="L38" s="525"/>
+      <c r="M38" s="525"/>
+      <c r="N38" s="525"/>
+      <c r="O38" s="525"/>
+      <c r="P38" s="525"/>
+      <c r="Q38" s="525"/>
+      <c r="R38" s="525"/>
+      <c r="S38" s="525"/>
+      <c r="T38" s="525"/>
+      <c r="U38" s="525"/>
+      <c r="V38" s="525"/>
+      <c r="W38" s="525"/>
+      <c r="X38" s="525"/>
       <c r="AN38" s="76"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12957,36 +13121,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="125" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="372" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="556" t="s">
+      <c r="F1" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="556"/>
-      <c r="H1" s="556"/>
-      <c r="I1" s="556"/>
-      <c r="J1" s="556"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
     </row>
     <row r="2" spans="1:14" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="557" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="557"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="557"/>
+      <c r="A2" s="554" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="554"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="554"/>
       <c r="E2" s="124"/>
-      <c r="F2" s="558" t="s">
+      <c r="F2" s="555" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="558"/>
-      <c r="H2" s="558"/>
-      <c r="I2" s="558"/>
-      <c r="J2" s="558"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
     </row>
     <row r="3" spans="1:14" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="126"/>
@@ -12998,129 +13162,129 @@
       <c r="H3" s="127"/>
     </row>
     <row r="4" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="552" t="s">
+      <c r="A4" s="549" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="552"/>
-      <c r="C4" s="552"/>
-      <c r="D4" s="552"/>
-      <c r="E4" s="552"/>
-      <c r="F4" s="552"/>
-      <c r="G4" s="552"/>
-      <c r="H4" s="552"/>
-      <c r="I4" s="552"/>
-      <c r="J4" s="552"/>
-      <c r="K4" s="552"/>
+      <c r="B4" s="549"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="549"/>
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
+      <c r="H4" s="549"/>
+      <c r="I4" s="549"/>
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
     </row>
     <row r="5" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="552" t="s">
+      <c r="A5" s="549" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="552"/>
-      <c r="C5" s="552"/>
-      <c r="D5" s="552"/>
-      <c r="E5" s="552"/>
-      <c r="F5" s="552"/>
-      <c r="G5" s="552"/>
-      <c r="H5" s="552"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="552"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="549"/>
+      <c r="D5" s="549"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="549"/>
+      <c r="K5" s="549"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="549" t="s">
+      <c r="I6" s="546" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="549"/>
-      <c r="K6" s="549"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="546"/>
     </row>
     <row r="7" spans="1:14" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="376" t="s">
+      <c r="A7" s="373" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="377" t="s">
+      <c r="B7" s="374" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="376" t="s">
+      <c r="C7" s="373" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="377" t="s">
+      <c r="D7" s="374" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="378" t="s">
+      <c r="E7" s="375" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="376" t="s">
+      <c r="F7" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="376" t="s">
+      <c r="G7" s="373" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="376" t="s">
+      <c r="H7" s="373" t="s">
         <v>139</v>
       </c>
-      <c r="I7" s="376" t="s">
+      <c r="I7" s="373" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="379" t="s">
+      <c r="J7" s="376" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="376" t="s">
+      <c r="K7" s="373" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="380"/>
-      <c r="B8" s="381"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="383"/>
-      <c r="F8" s="383" t="s">
+      <c r="A8" s="377"/>
+      <c r="B8" s="378"/>
+      <c r="C8" s="379"/>
+      <c r="D8" s="379"/>
+      <c r="E8" s="380"/>
+      <c r="F8" s="380" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="383" t="s">
+      <c r="G8" s="380" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="383" t="s">
+      <c r="H8" s="380" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="384" t="s">
-        <v>254</v>
-      </c>
-      <c r="J8" s="382"/>
-      <c r="K8" s="385"/>
+      <c r="I8" s="381" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" s="379"/>
+      <c r="K8" s="382"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="550" t="s">
+      <c r="A9" s="547" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="551"/>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="383"/>
-      <c r="F9" s="385" t="s">
+      <c r="B9" s="548"/>
+      <c r="C9" s="379"/>
+      <c r="D9" s="379"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="382" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="385"/>
-      <c r="H9" s="385"/>
-      <c r="I9" s="385"/>
-      <c r="J9" s="382"/>
-      <c r="K9" s="385"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="382"/>
+      <c r="I9" s="382"/>
+      <c r="J9" s="379"/>
+      <c r="K9" s="382"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="386">
+      <c r="A10" s="383">
         <v>1</v>
       </c>
-      <c r="B10" s="386" t="s">
+      <c r="B10" s="383" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="387" t="s">
+      <c r="C10" s="384" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="155">
         <v>15000000</v>
       </c>
-      <c r="E10" s="388">
+      <c r="E10" s="385">
         <f>'bảng chấm công'!AI12</f>
         <v>28</v>
       </c>
@@ -13128,31 +13292,31 @@
         <f>D10/26*E10</f>
         <v>16153846.153846152</v>
       </c>
-      <c r="G10" s="389"/>
-      <c r="H10" s="389">
+      <c r="G10" s="386"/>
+      <c r="H10" s="386">
         <v>77307692</v>
       </c>
-      <c r="I10" s="389">
+      <c r="I10" s="386">
         <f>F10-G10+H10</f>
         <v>93461538.153846145</v>
       </c>
-      <c r="J10" s="389"/>
-      <c r="K10" s="386"/>
+      <c r="J10" s="386"/>
+      <c r="K10" s="383"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="386">
+      <c r="A11" s="383">
         <v>3</v>
       </c>
-      <c r="B11" s="386" t="s">
+      <c r="B11" s="383" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="387" t="s">
+      <c r="C11" s="384" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="155">
         <v>6000000</v>
       </c>
-      <c r="E11" s="388">
+      <c r="E11" s="385">
         <f>'bảng chấm công'!AI14</f>
         <v>27</v>
       </c>
@@ -13160,32 +13324,32 @@
         <f t="shared" ref="F11:F12" si="0">D11/26*E11</f>
         <v>6230769.230769231</v>
       </c>
-      <c r="G11" s="389"/>
-      <c r="H11" s="389">
+      <c r="G11" s="386"/>
+      <c r="H11" s="386">
         <v>40119519</v>
       </c>
-      <c r="I11" s="389">
+      <c r="I11" s="386">
         <f t="shared" ref="I11:I12" si="1">F11-G11+H11</f>
         <v>46350288.230769232</v>
       </c>
-      <c r="J11" s="389"/>
-      <c r="K11" s="386"/>
+      <c r="J11" s="386"/>
+      <c r="K11" s="383"/>
       <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="390">
+      <c r="A12" s="387">
         <v>4</v>
       </c>
-      <c r="B12" s="390" t="s">
+      <c r="B12" s="387" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="391" t="s">
+      <c r="C12" s="388" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="157">
         <v>6000000</v>
       </c>
-      <c r="E12" s="392">
+      <c r="E12" s="389">
         <f>'bảng chấm công'!AI13</f>
         <v>28</v>
       </c>
@@ -13193,56 +13357,56 @@
         <f t="shared" si="0"/>
         <v>6461538.461538462</v>
       </c>
-      <c r="G12" s="393">
+      <c r="G12" s="390">
         <v>1717000</v>
       </c>
-      <c r="H12" s="393">
+      <c r="H12" s="390">
         <v>0</v>
       </c>
-      <c r="I12" s="389">
+      <c r="I12" s="386">
         <f t="shared" si="1"/>
         <v>4744538.461538462</v>
       </c>
-      <c r="J12" s="393"/>
-      <c r="K12" s="390"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="387"/>
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="553" t="s">
+      <c r="A13" s="550" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="554"/>
-      <c r="C13" s="555"/>
-      <c r="D13" s="394">
+      <c r="B13" s="551"/>
+      <c r="C13" s="552"/>
+      <c r="D13" s="391">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
       </c>
-      <c r="E13" s="395"/>
-      <c r="F13" s="394">
+      <c r="E13" s="392"/>
+      <c r="F13" s="391">
         <f>SUM(F10:F12)</f>
         <v>28846153.846153848</v>
       </c>
-      <c r="G13" s="396"/>
-      <c r="H13" s="396">
+      <c r="G13" s="393"/>
+      <c r="H13" s="393">
         <f>SUM(H10:H12)</f>
         <v>117427211</v>
       </c>
-      <c r="I13" s="396">
+      <c r="I13" s="393">
         <f>SUM(I10:I12)</f>
         <v>144556364.84615383</v>
       </c>
-      <c r="J13" s="396"/>
-      <c r="K13" s="397"/>
+      <c r="J13" s="393"/>
+      <c r="K13" s="394"/>
     </row>
     <row r="15" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="552"/>
-      <c r="C15" s="552"/>
-      <c r="D15" s="552"/>
+      <c r="B15" s="549"/>
+      <c r="C15" s="549"/>
+      <c r="D15" s="549"/>
       <c r="E15" s="122"/>
-      <c r="G15" s="552"/>
-      <c r="H15" s="552"/>
-      <c r="I15" s="552"/>
-      <c r="J15" s="552"/>
+      <c r="G15" s="549"/>
+      <c r="H15" s="549"/>
+      <c r="I15" s="549"/>
+      <c r="J15" s="549"/>
     </row>
     <row r="16" spans="1:14" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="128" t="s">

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -742,12 +742,6 @@
     <t>Anh Sơn phải thanh toán cho công ty</t>
   </si>
   <si>
-    <t>Số hoa hồng tháng 9 của Anh Sơn (3s trả 5 triệu)</t>
-  </si>
-  <si>
-    <t>Tiền hàng anh Sơn còn nợ công ty T9</t>
-  </si>
-  <si>
     <t>Tiền hàng tháng 9 của anh Sơn đã sau chiết khấu</t>
   </si>
   <si>
@@ -941,6 +935,12 @@
   </si>
   <si>
     <t>PT00176</t>
+  </si>
+  <si>
+    <t>Số hoa hồng tháng 9 của Anh Sơn (3s trả 5 tr, Hà Linh trả 5tr)</t>
+  </si>
+  <si>
+    <t>Tiền hàng anh Sơn còn nợ công ty T9 (Sau CK)</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2705,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2714,8 +2714,104 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2723,119 +2819,56 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2861,39 +2894,6 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,6 +2903,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,9 +2945,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2942,29 +2966,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2972,24 +2990,6 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3053,24 +3053,33 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3107,13 +3116,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3125,9 +3137,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3135,15 +3144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3459,9 +3459,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="H6" s="404"/>
     </row>
-    <row r="7" spans="1:9" s="235" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="235" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="401"/>
       <c r="B7" s="406"/>
       <c r="C7" s="401"/>
@@ -3597,7 +3597,7 @@
       <c r="G8" s="243"/>
       <c r="H8" s="244"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="240">
         <v>44075</v>
       </c>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H9" s="244"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="240">
         <v>44075</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="H10" s="244"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="240">
         <v>44075</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H11" s="244"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="240">
         <v>44075</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>5695385</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="240">
         <v>44075</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>674000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="240">
         <v>44075</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="G15" s="243"/>
       <c r="H15" s="244"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="240">
         <v>44075</v>
       </c>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="H16" s="244"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="240">
         <v>44075</v>
       </c>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="H17" s="244"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="240">
         <v>44075</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>118</v>
       </c>
       <c r="D18" s="242" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E18" s="243"/>
       <c r="F18" s="244"/>
@@ -3796,7 +3796,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="240">
         <v>44077</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="G20" s="243"/>
       <c r="H20" s="244"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="240">
         <v>44077</v>
       </c>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="H21" s="244"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="240">
         <v>44077</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>192</v>
       </c>
       <c r="D25" s="242" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E25" s="243"/>
       <c r="F25" s="244"/>
@@ -3943,7 +3943,7 @@
         <v>192</v>
       </c>
       <c r="D26" s="242" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E26" s="243"/>
       <c r="F26" s="244"/>
@@ -3961,7 +3961,7 @@
         <v>192</v>
       </c>
       <c r="D27" s="242" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E27" s="243"/>
       <c r="F27" s="244"/>
@@ -3990,7 +3990,7 @@
       <c r="G28" s="243"/>
       <c r="H28" s="244"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="240">
         <v>44082</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="240">
         <v>44083</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>190</v>
       </c>
       <c r="D33" s="242" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E33" s="243"/>
       <c r="F33" s="244"/>
@@ -4093,7 +4093,7 @@
         <v>190</v>
       </c>
       <c r="D34" s="242" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E34" s="243"/>
       <c r="F34" s="244"/>
@@ -4111,7 +4111,7 @@
         <v>190</v>
       </c>
       <c r="D35" s="242" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E35" s="243"/>
       <c r="F35" s="244"/>
@@ -4129,7 +4129,7 @@
         <v>190</v>
       </c>
       <c r="D36" s="242" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E36" s="243"/>
       <c r="F36" s="244"/>
@@ -4147,7 +4147,7 @@
         <v>190</v>
       </c>
       <c r="D37" s="242" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E37" s="243"/>
       <c r="F37" s="244"/>
@@ -4165,7 +4165,7 @@
         <v>190</v>
       </c>
       <c r="D38" s="242" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E38" s="243"/>
       <c r="F38" s="244"/>
@@ -4174,18 +4174,18 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="240">
         <v>44083</v>
       </c>
       <c r="B39" s="240" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C39" s="241" t="s">
         <v>118</v>
       </c>
       <c r="D39" s="242" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E39" s="243"/>
       <c r="F39" s="244"/>
@@ -4203,7 +4203,7 @@
         <v>192</v>
       </c>
       <c r="D40" s="242" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E40" s="243"/>
       <c r="F40" s="244"/>
@@ -4221,7 +4221,7 @@
         <v>192</v>
       </c>
       <c r="D41" s="242" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E41" s="243"/>
       <c r="F41" s="244"/>
@@ -4239,7 +4239,7 @@
         <v>192</v>
       </c>
       <c r="D42" s="242" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E42" s="243"/>
       <c r="F42" s="244"/>
@@ -4257,7 +4257,7 @@
         <v>192</v>
       </c>
       <c r="D43" s="242" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E43" s="243"/>
       <c r="F43" s="244"/>
@@ -4284,7 +4284,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="240">
         <v>44014</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>44085</v>
       </c>
       <c r="B46" s="240" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C46" s="241" t="s">
         <v>154</v>
@@ -4360,18 +4360,18 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="240">
         <v>44086</v>
       </c>
       <c r="B49" s="240" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C49" s="241" t="s">
         <v>118</v>
       </c>
       <c r="D49" s="242" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E49" s="243"/>
       <c r="F49" s="244"/>
@@ -4407,7 +4407,7 @@
         <v>190</v>
       </c>
       <c r="D51" s="242" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E51" s="243"/>
       <c r="F51" s="244"/>
@@ -4443,7 +4443,7 @@
         <v>192</v>
       </c>
       <c r="D53" s="242" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E53" s="243"/>
       <c r="F53" s="244"/>
@@ -4461,7 +4461,7 @@
         <v>192</v>
       </c>
       <c r="D54" s="242" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E54" s="243"/>
       <c r="F54" s="244"/>
@@ -4475,7 +4475,7 @@
         <v>44089</v>
       </c>
       <c r="B55" s="240" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C55" s="241" t="s">
         <v>154</v>
@@ -4490,7 +4490,7 @@
       <c r="G55" s="243"/>
       <c r="H55" s="244"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="240">
         <v>44089</v>
       </c>
@@ -4510,18 +4510,18 @@
         <v>1717000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="240">
         <v>44090</v>
       </c>
       <c r="B57" s="240" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C57" s="241" t="s">
         <v>118</v>
       </c>
       <c r="D57" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E57" s="243"/>
       <c r="F57" s="244"/>
@@ -4530,18 +4530,18 @@
         <v>10120000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="240">
         <v>44091</v>
       </c>
       <c r="B58" s="240" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C58" s="241" t="s">
         <v>118</v>
       </c>
       <c r="D58" s="242" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E58" s="243"/>
       <c r="F58" s="244"/>
@@ -4555,13 +4555,13 @@
         <v>44091</v>
       </c>
       <c r="B59" s="240" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C59" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D59" s="242" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E59" s="243"/>
       <c r="F59" s="244">
@@ -4575,13 +4575,13 @@
         <v>44091</v>
       </c>
       <c r="B60" s="240" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C60" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D60" s="242" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E60" s="243">
         <v>9664200</v>
@@ -4590,12 +4590,12 @@
       <c r="G60" s="243"/>
       <c r="H60" s="244"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="240">
         <v>44092</v>
       </c>
       <c r="B61" s="240" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C61" s="241" t="s">
         <v>121</v>
@@ -4619,7 +4619,7 @@
         <v>190</v>
       </c>
       <c r="D62" s="242" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E62" s="243"/>
       <c r="F62" s="244"/>
@@ -4633,13 +4633,13 @@
         <v>44091</v>
       </c>
       <c r="B63" s="240" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C63" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D63" s="242" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E63" s="243">
         <v>1610700</v>
@@ -4648,18 +4648,18 @@
       <c r="G63" s="243"/>
       <c r="H63" s="244"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="240">
         <v>44092</v>
       </c>
       <c r="B64" s="240" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C64" s="241" t="s">
         <v>118</v>
       </c>
       <c r="D64" s="242" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E64" s="243"/>
       <c r="F64" s="244"/>
@@ -4673,13 +4673,13 @@
         <v>44092</v>
       </c>
       <c r="B65" s="240" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C65" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D65" s="242" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E65" s="243">
         <v>4085750</v>
@@ -4729,13 +4729,13 @@
         <v>44094</v>
       </c>
       <c r="B68" s="240" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C68" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D68" s="242" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E68" s="243"/>
       <c r="F68" s="244">
@@ -4744,12 +4744,12 @@
       <c r="G68" s="243"/>
       <c r="H68" s="244"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="240">
         <v>44095</v>
       </c>
       <c r="B69" s="240" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C69" s="241" t="s">
         <v>118</v>
@@ -4769,13 +4769,13 @@
         <v>44095</v>
       </c>
       <c r="B70" s="240" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C70" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="242" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E70" s="243"/>
       <c r="F70" s="244">
@@ -4789,13 +4789,13 @@
         <v>44096</v>
       </c>
       <c r="B71" s="240" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C71" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D71" s="242" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E71" s="243"/>
       <c r="F71" s="244">
@@ -4804,18 +4804,18 @@
       <c r="G71" s="243"/>
       <c r="H71" s="244"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="240">
         <v>44096</v>
       </c>
       <c r="B72" s="240" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C72" s="241" t="s">
         <v>120</v>
       </c>
       <c r="D72" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E72" s="243"/>
       <c r="F72" s="244"/>
@@ -4829,7 +4829,7 @@
         <v>44097</v>
       </c>
       <c r="B73" s="240" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C73" s="241" t="s">
         <v>154</v>
@@ -4849,13 +4849,13 @@
         <v>44097</v>
       </c>
       <c r="B74" s="240" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C74" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D74" s="242" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E74" s="243"/>
       <c r="F74" s="244">
@@ -4869,13 +4869,13 @@
         <v>44097</v>
       </c>
       <c r="B75" s="240" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C75" s="241" t="s">
         <v>154</v>
       </c>
       <c r="D75" s="242" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E75" s="243"/>
       <c r="F75" s="244">
@@ -4884,18 +4884,18 @@
       <c r="G75" s="243"/>
       <c r="H75" s="244"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="240">
         <v>44097</v>
       </c>
       <c r="B76" s="240" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C76" s="241" t="s">
         <v>119</v>
       </c>
       <c r="D76" s="242" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E76" s="243"/>
       <c r="F76" s="244"/>
@@ -4904,18 +4904,18 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="240">
         <v>44103</v>
       </c>
       <c r="B77" s="240" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C77" s="241" t="s">
         <v>118</v>
       </c>
       <c r="D77" s="242" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E77" s="243"/>
       <c r="F77" s="244"/>
@@ -4924,18 +4924,18 @@
       </c>
       <c r="H77" s="244"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="240">
         <v>44104</v>
       </c>
       <c r="B78" s="240" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C78" s="241" t="s">
         <v>120</v>
       </c>
       <c r="D78" s="242" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E78" s="243"/>
       <c r="F78" s="244"/>
@@ -4953,7 +4953,7 @@
         <v>192</v>
       </c>
       <c r="D79" s="242" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E79" s="243"/>
       <c r="F79" s="244"/>
@@ -4981,7 +4981,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="240"/>
       <c r="B81" s="240"/>
       <c r="C81" s="241"/>
@@ -4991,7 +4991,7 @@
       <c r="G81" s="243"/>
       <c r="H81" s="244"/>
     </row>
-    <row r="82" spans="1:9" s="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="246" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="396" t="s">
         <v>10</v>
       </c>
@@ -5115,13 +5115,8 @@
   </sheetData>
   <autoFilter ref="A6:H82">
     <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="Biển bảng"/>
+      <filters>
         <filter val="Hàng Hóa"/>
-        <filter val="Khác"/>
-        <filter val="Lương, thưởng"/>
-        <filter val="Vận Chuyển"/>
-        <filter val="Văn phòng"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
@@ -5174,13 +5169,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="430" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
       <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5194,156 +5189,156 @@
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="429" t="s">
+      <c r="A3" s="431" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="429"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="429"/>
-      <c r="E3" s="429"/>
-      <c r="F3" s="429"/>
-      <c r="G3" s="429"/>
-      <c r="H3" s="429"/>
-      <c r="I3" s="429"/>
-      <c r="J3" s="429"/>
-      <c r="K3" s="429"/>
-      <c r="L3" s="429"/>
-      <c r="M3" s="429"/>
-      <c r="N3" s="429"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="429"/>
+      <c r="B3" s="431"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="431"/>
+      <c r="J3" s="431"/>
+      <c r="K3" s="431"/>
+      <c r="L3" s="431"/>
+      <c r="M3" s="431"/>
+      <c r="N3" s="431"/>
+      <c r="O3" s="431"/>
+      <c r="P3" s="431"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="431" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
-      <c r="J4" s="429"/>
-      <c r="K4" s="429"/>
-      <c r="L4" s="429"/>
-      <c r="M4" s="429"/>
-      <c r="N4" s="429"/>
-      <c r="O4" s="429"/>
-      <c r="P4" s="429"/>
+      <c r="B4" s="431"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="431"/>
+      <c r="K4" s="431"/>
+      <c r="L4" s="431"/>
+      <c r="M4" s="431"/>
+      <c r="N4" s="431"/>
+      <c r="O4" s="431"/>
+      <c r="P4" s="431"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="429"/>
-      <c r="B5" s="429"/>
-      <c r="C5" s="429"/>
-      <c r="D5" s="429"/>
-      <c r="E5" s="429"/>
-      <c r="F5" s="429"/>
-      <c r="G5" s="429"/>
-      <c r="H5" s="429"/>
-      <c r="I5" s="429"/>
-      <c r="J5" s="429"/>
-      <c r="K5" s="430"/>
-      <c r="L5" s="430"/>
+      <c r="A5" s="431"/>
+      <c r="B5" s="431"/>
+      <c r="C5" s="431"/>
+      <c r="D5" s="431"/>
+      <c r="E5" s="431"/>
+      <c r="F5" s="431"/>
+      <c r="G5" s="431"/>
+      <c r="H5" s="431"/>
+      <c r="I5" s="431"/>
+      <c r="J5" s="431"/>
+      <c r="K5" s="432"/>
+      <c r="L5" s="432"/>
     </row>
     <row r="6" spans="1:17" s="144" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="433" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="423" t="s">
+      <c r="C6" s="433" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="433" t="s">
+      <c r="D6" s="439" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="433"/>
-      <c r="F6" s="434" t="s">
+      <c r="E6" s="439"/>
+      <c r="F6" s="440" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="434"/>
-      <c r="H6" s="434"/>
-      <c r="I6" s="434"/>
-      <c r="J6" s="434"/>
-      <c r="K6" s="434"/>
-      <c r="L6" s="434"/>
-      <c r="M6" s="435"/>
-      <c r="N6" s="435"/>
-      <c r="O6" s="435"/>
-      <c r="P6" s="436" t="s">
+      <c r="G6" s="440"/>
+      <c r="H6" s="440"/>
+      <c r="I6" s="440"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="440"/>
+      <c r="L6" s="440"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="442" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="144" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="424"/>
-      <c r="B7" s="432"/>
-      <c r="C7" s="424"/>
-      <c r="D7" s="423" t="s">
+      <c r="A7" s="434"/>
+      <c r="B7" s="436"/>
+      <c r="C7" s="434"/>
+      <c r="D7" s="433" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="423" t="s">
+      <c r="E7" s="433" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="423" t="s">
+      <c r="F7" s="433" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="423" t="s">
+      <c r="G7" s="433" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="421" t="s">
+      <c r="H7" s="437" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="421" t="s">
+      <c r="I7" s="437" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="425" t="s">
+      <c r="J7" s="444" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="425"/>
-      <c r="L7" s="421" t="s">
+      <c r="K7" s="444"/>
+      <c r="L7" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="421" t="s">
+      <c r="M7" s="437" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="421" t="s">
+      <c r="N7" s="437" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="421" t="s">
+      <c r="O7" s="437" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="437"/>
+      <c r="P7" s="443"/>
     </row>
     <row r="8" spans="1:17" s="144" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="424"/>
-      <c r="B8" s="432"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="424"/>
-      <c r="F8" s="424"/>
-      <c r="G8" s="424"/>
-      <c r="H8" s="422"/>
-      <c r="I8" s="422"/>
+      <c r="A8" s="434"/>
+      <c r="B8" s="436"/>
+      <c r="C8" s="434"/>
+      <c r="D8" s="434"/>
+      <c r="E8" s="434"/>
+      <c r="F8" s="434"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="438"/>
+      <c r="I8" s="438"/>
       <c r="J8" s="179" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="422"/>
-      <c r="M8" s="422"/>
-      <c r="N8" s="422"/>
-      <c r="O8" s="422"/>
-      <c r="P8" s="437"/>
+      <c r="L8" s="438"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="438"/>
+      <c r="P8" s="443"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="444">
+      <c r="A9" s="419">
         <v>785</v>
       </c>
-      <c r="B9" s="442">
+      <c r="B9" s="422">
         <v>44077</v>
       </c>
       <c r="C9" s="407"/>
@@ -5385,11 +5380,11 @@
       <c r="P9" s="217"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="445"/>
-      <c r="B10" s="443"/>
-      <c r="C10" s="417"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="417"/>
+      <c r="A10" s="420"/>
+      <c r="B10" s="423"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="409"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="219" t="s">
         <v>127</v>
       </c>
@@ -5536,11 +5531,11 @@
       <c r="P13" s="218"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="417"/>
-      <c r="B14" s="418"/>
-      <c r="C14" s="417"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="417"/>
+      <c r="A14" s="409"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="409"/>
       <c r="F14" s="219" t="s">
         <v>124</v>
       </c>
@@ -5713,10 +5708,10 @@
       <c r="C18" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="413" t="s">
+      <c r="D18" s="445" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="413" t="s">
+      <c r="E18" s="445" t="s">
         <v>148</v>
       </c>
       <c r="F18" s="329" t="s">
@@ -5749,11 +5744,11 @@
       <c r="P18" s="336"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="417"/>
-      <c r="B19" s="418"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="416"/>
-      <c r="E19" s="416"/>
+      <c r="A19" s="409"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="447"/>
+      <c r="E19" s="447"/>
       <c r="F19" s="330" t="s">
         <v>125</v>
       </c>
@@ -5791,10 +5786,10 @@
         <v>44088</v>
       </c>
       <c r="C20" s="407"/>
-      <c r="D20" s="413" t="s">
+      <c r="D20" s="445" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="419"/>
+      <c r="E20" s="448"/>
       <c r="F20" s="314" t="s">
         <v>125</v>
       </c>
@@ -5825,11 +5820,11 @@
       <c r="P20" s="316"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="417"/>
-      <c r="B21" s="418"/>
-      <c r="C21" s="417"/>
-      <c r="D21" s="416"/>
-      <c r="E21" s="420"/>
+      <c r="A21" s="409"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="409"/>
+      <c r="D21" s="447"/>
+      <c r="E21" s="449"/>
       <c r="F21" s="315" t="s">
         <v>126</v>
       </c>
@@ -5914,10 +5909,10 @@
       <c r="C23" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="413" t="s">
+      <c r="D23" s="445" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="413"/>
+      <c r="E23" s="445"/>
       <c r="F23" s="329" t="s">
         <v>125</v>
       </c>
@@ -5951,8 +5946,8 @@
       <c r="A24" s="408"/>
       <c r="B24" s="411"/>
       <c r="C24" s="408"/>
-      <c r="D24" s="414"/>
-      <c r="E24" s="414"/>
+      <c r="D24" s="446"/>
+      <c r="E24" s="446"/>
       <c r="F24" s="333" t="s">
         <v>126</v>
       </c>
@@ -5986,8 +5981,8 @@
       <c r="A25" s="408"/>
       <c r="B25" s="411"/>
       <c r="C25" s="408"/>
-      <c r="D25" s="414"/>
-      <c r="E25" s="414"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="446"/>
       <c r="F25" s="333" t="s">
         <v>133</v>
       </c>
@@ -6019,11 +6014,11 @@
       <c r="R25" s="184"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="417"/>
-      <c r="B26" s="418"/>
-      <c r="C26" s="417"/>
-      <c r="D26" s="416"/>
-      <c r="E26" s="416"/>
+      <c r="A26" s="409"/>
+      <c r="B26" s="412"/>
+      <c r="C26" s="409"/>
+      <c r="D26" s="447"/>
+      <c r="E26" s="447"/>
       <c r="F26" s="330" t="s">
         <v>124</v>
       </c>
@@ -6102,10 +6097,10 @@
         <v>44090</v>
       </c>
       <c r="C28" s="407"/>
-      <c r="D28" s="413" t="s">
+      <c r="D28" s="445" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="413"/>
+      <c r="E28" s="445"/>
       <c r="F28" s="329" t="s">
         <v>125</v>
       </c>
@@ -6139,8 +6134,8 @@
       <c r="A29" s="408"/>
       <c r="B29" s="411"/>
       <c r="C29" s="408"/>
-      <c r="D29" s="414"/>
-      <c r="E29" s="414"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="446"/>
       <c r="F29" s="333" t="s">
         <v>126</v>
       </c>
@@ -6171,11 +6166,11 @@
       <c r="P29" s="333"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="417"/>
-      <c r="B30" s="418"/>
-      <c r="C30" s="417"/>
-      <c r="D30" s="416"/>
-      <c r="E30" s="416"/>
+      <c r="A30" s="409"/>
+      <c r="B30" s="412"/>
+      <c r="C30" s="409"/>
+      <c r="D30" s="447"/>
+      <c r="E30" s="447"/>
       <c r="F30" s="330" t="s">
         <v>124</v>
       </c>
@@ -6427,11 +6422,11 @@
       <c r="P35" s="329"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="417"/>
-      <c r="B36" s="418"/>
-      <c r="C36" s="417"/>
-      <c r="D36" s="417"/>
-      <c r="E36" s="417"/>
+      <c r="A36" s="409"/>
+      <c r="B36" s="412"/>
+      <c r="C36" s="409"/>
+      <c r="D36" s="409"/>
+      <c r="E36" s="409"/>
       <c r="F36" s="330" t="s">
         <v>126</v>
       </c>
@@ -6637,7 +6632,7 @@
       <c r="C41" s="407" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="413" t="s">
+      <c r="D41" s="445" t="s">
         <v>216</v>
       </c>
       <c r="E41" s="407"/>
@@ -6672,7 +6667,7 @@
       <c r="A42" s="408"/>
       <c r="B42" s="411"/>
       <c r="C42" s="408"/>
-      <c r="D42" s="414"/>
+      <c r="D42" s="446"/>
       <c r="E42" s="408"/>
       <c r="F42" s="333" t="s">
         <v>125</v>
@@ -6705,7 +6700,7 @@
       <c r="A43" s="408"/>
       <c r="B43" s="411"/>
       <c r="C43" s="408"/>
-      <c r="D43" s="414"/>
+      <c r="D43" s="446"/>
       <c r="E43" s="408"/>
       <c r="F43" s="333" t="s">
         <v>126</v>
@@ -6738,7 +6733,7 @@
       <c r="A44" s="408"/>
       <c r="B44" s="411"/>
       <c r="C44" s="408"/>
-      <c r="D44" s="414"/>
+      <c r="D44" s="446"/>
       <c r="E44" s="408"/>
       <c r="F44" s="333" t="s">
         <v>204</v>
@@ -6771,7 +6766,7 @@
       <c r="A45" s="408"/>
       <c r="B45" s="411"/>
       <c r="C45" s="408"/>
-      <c r="D45" s="414"/>
+      <c r="D45" s="446"/>
       <c r="E45" s="408"/>
       <c r="F45" s="333" t="s">
         <v>124</v>
@@ -6804,7 +6799,7 @@
       <c r="A46" s="408"/>
       <c r="B46" s="411"/>
       <c r="C46" s="408"/>
-      <c r="D46" s="414"/>
+      <c r="D46" s="446"/>
       <c r="E46" s="408"/>
       <c r="F46" s="333" t="s">
         <v>127</v>
@@ -6837,7 +6832,7 @@
       <c r="A47" s="408"/>
       <c r="B47" s="411"/>
       <c r="C47" s="408"/>
-      <c r="D47" s="414"/>
+      <c r="D47" s="446"/>
       <c r="E47" s="408"/>
       <c r="F47" s="333" t="s">
         <v>128</v>
@@ -6867,11 +6862,11 @@
       <c r="Q47" s="184"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="409"/>
-      <c r="B48" s="412"/>
-      <c r="C48" s="409"/>
-      <c r="D48" s="415"/>
-      <c r="E48" s="409"/>
+      <c r="A48" s="450"/>
+      <c r="B48" s="451"/>
+      <c r="C48" s="450"/>
+      <c r="D48" s="452"/>
+      <c r="E48" s="450"/>
       <c r="F48" s="335" t="s">
         <v>213</v>
       </c>
@@ -6994,11 +6989,11 @@
       <c r="B51" s="410">
         <v>44102</v>
       </c>
-      <c r="C51" s="446"/>
-      <c r="D51" s="449" t="s">
+      <c r="C51" s="413"/>
+      <c r="D51" s="416" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="444" t="s">
+      <c r="E51" s="419" t="s">
         <v>223</v>
       </c>
       <c r="F51" s="341" t="s">
@@ -7034,9 +7029,9 @@
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="408"/>
       <c r="B52" s="411"/>
-      <c r="C52" s="447"/>
-      <c r="D52" s="450"/>
-      <c r="E52" s="445"/>
+      <c r="C52" s="414"/>
+      <c r="D52" s="417"/>
+      <c r="E52" s="420"/>
       <c r="F52" s="343" t="s">
         <v>204</v>
       </c>
@@ -7070,9 +7065,9 @@
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="408"/>
       <c r="B53" s="411"/>
-      <c r="C53" s="447"/>
-      <c r="D53" s="450"/>
-      <c r="E53" s="445"/>
+      <c r="C53" s="414"/>
+      <c r="D53" s="417"/>
+      <c r="E53" s="420"/>
       <c r="F53" s="343" t="s">
         <v>124</v>
       </c>
@@ -7106,9 +7101,9 @@
     <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="408"/>
       <c r="B54" s="411"/>
-      <c r="C54" s="447"/>
-      <c r="D54" s="450"/>
-      <c r="E54" s="445"/>
+      <c r="C54" s="414"/>
+      <c r="D54" s="417"/>
+      <c r="E54" s="420"/>
       <c r="F54" s="343" t="s">
         <v>127</v>
       </c>
@@ -7140,11 +7135,11 @@
       <c r="Q54" s="184"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="417"/>
-      <c r="B55" s="418"/>
-      <c r="C55" s="448"/>
-      <c r="D55" s="451"/>
-      <c r="E55" s="452"/>
+      <c r="A55" s="409"/>
+      <c r="B55" s="412"/>
+      <c r="C55" s="415"/>
+      <c r="D55" s="418"/>
+      <c r="E55" s="421"/>
       <c r="F55" s="342" t="s">
         <v>128</v>
       </c>
@@ -7222,14 +7217,14 @@
       <c r="Q56" s="184"/>
     </row>
     <row r="57" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="438" t="s">
+      <c r="A57" s="425" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="439"/>
-      <c r="C57" s="439"/>
-      <c r="D57" s="439"/>
-      <c r="E57" s="439"/>
-      <c r="F57" s="440"/>
+      <c r="B57" s="426"/>
+      <c r="C57" s="426"/>
+      <c r="D57" s="426"/>
+      <c r="E57" s="426"/>
+      <c r="F57" s="427"/>
       <c r="G57" s="158">
         <f>SUM(G13:G56)</f>
         <v>466</v>
@@ -7248,18 +7243,18 @@
       <c r="M57" s="164"/>
       <c r="N57" s="164"/>
       <c r="O57" s="164"/>
-      <c r="P57" s="441"/>
-      <c r="Q57" s="426"/>
+      <c r="P57" s="428"/>
+      <c r="Q57" s="429"/>
     </row>
     <row r="58" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="427" t="s">
+      <c r="A58" s="424" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="427"/>
-      <c r="C58" s="427"/>
-      <c r="D58" s="427"/>
-      <c r="E58" s="427"/>
-      <c r="F58" s="427"/>
+      <c r="B58" s="424"/>
+      <c r="C58" s="424"/>
+      <c r="D58" s="424"/>
+      <c r="E58" s="424"/>
+      <c r="F58" s="424"/>
       <c r="G58" s="146">
         <f>G57</f>
         <v>466</v>
@@ -7275,18 +7270,18 @@
       <c r="M58" s="149"/>
       <c r="N58" s="149"/>
       <c r="O58" s="149"/>
-      <c r="P58" s="441"/>
-      <c r="Q58" s="426"/>
+      <c r="P58" s="428"/>
+      <c r="Q58" s="429"/>
     </row>
     <row r="59" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="427" t="s">
+      <c r="A59" s="424" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="427"/>
-      <c r="C59" s="427"/>
-      <c r="D59" s="427"/>
-      <c r="E59" s="427"/>
-      <c r="F59" s="427"/>
+      <c r="B59" s="424"/>
+      <c r="C59" s="424"/>
+      <c r="D59" s="424"/>
+      <c r="E59" s="424"/>
+      <c r="F59" s="424"/>
       <c r="G59" s="153" t="s">
         <v>49</v>
       </c>
@@ -7303,14 +7298,14 @@
       <c r="O59" s="149"/>
     </row>
     <row r="60" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="427" t="s">
+      <c r="A60" s="424" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="427"/>
-      <c r="C60" s="427"/>
-      <c r="D60" s="427"/>
-      <c r="E60" s="427"/>
-      <c r="F60" s="427"/>
+      <c r="B60" s="424"/>
+      <c r="C60" s="424"/>
+      <c r="D60" s="424"/>
+      <c r="E60" s="424"/>
+      <c r="F60" s="424"/>
       <c r="G60" s="153"/>
       <c r="H60" s="156"/>
       <c r="I60" s="147"/>
@@ -7325,14 +7320,14 @@
       <c r="O60" s="149"/>
     </row>
     <row r="61" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A61" s="427" t="s">
+      <c r="A61" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="427"/>
-      <c r="C61" s="427"/>
-      <c r="D61" s="427"/>
-      <c r="E61" s="427"/>
-      <c r="F61" s="427"/>
+      <c r="B61" s="424"/>
+      <c r="C61" s="424"/>
+      <c r="D61" s="424"/>
+      <c r="E61" s="424"/>
+      <c r="F61" s="424"/>
       <c r="G61" s="153"/>
       <c r="H61" s="156"/>
       <c r="I61" s="147"/>
@@ -7408,26 +7403,44 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="74">
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A1:E1"/>
@@ -7444,44 +7457,26 @@
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7514,93 +7509,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="453" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
+      <c r="B1" s="453"/>
+      <c r="C1" s="453"/>
+      <c r="D1" s="453"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="464" t="s">
+      <c r="A2" s="454" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="464"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="464"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="465" t="s">
+      <c r="A3" s="455" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
-      <c r="J3" s="465"/>
-      <c r="K3" s="465"/>
-      <c r="L3" s="465"/>
-      <c r="M3" s="465"/>
-      <c r="N3" s="465"/>
+      <c r="B3" s="455"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="455"/>
+      <c r="F3" s="455"/>
+      <c r="G3" s="455"/>
+      <c r="H3" s="455"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="455"/>
+      <c r="K3" s="455"/>
+      <c r="L3" s="455"/>
+      <c r="M3" s="455"/>
+      <c r="N3" s="455"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="466" t="s">
+      <c r="A4" s="456" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
-      <c r="G4" s="466"/>
-      <c r="H4" s="466"/>
-      <c r="I4" s="467"/>
-      <c r="J4" s="466"/>
-      <c r="K4" s="466"/>
-      <c r="L4" s="466"/>
-      <c r="M4" s="466"/>
-      <c r="N4" s="466"/>
+      <c r="B4" s="456"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="456"/>
+      <c r="G4" s="456"/>
+      <c r="H4" s="456"/>
+      <c r="I4" s="457"/>
+      <c r="J4" s="456"/>
+      <c r="K4" s="456"/>
+      <c r="L4" s="456"/>
+      <c r="M4" s="456"/>
+      <c r="N4" s="456"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="468" t="s">
+      <c r="A5" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="470" t="s">
+      <c r="B5" s="460" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="469" t="s">
+      <c r="C5" s="459" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="462" t="s">
+      <c r="E5" s="461" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="462"/>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="471"/>
-      <c r="J5" s="461" t="s">
+      <c r="F5" s="461"/>
+      <c r="G5" s="461"/>
+      <c r="H5" s="461"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="462" t="s">
+      <c r="K5" s="461" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="462"/>
-      <c r="M5" s="462"/>
-      <c r="N5" s="469" t="s">
+      <c r="L5" s="461"/>
+      <c r="M5" s="461"/>
+      <c r="N5" s="459" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="468"/>
-      <c r="B6" s="470"/>
-      <c r="C6" s="469"/>
+      <c r="A6" s="458"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="459"/>
       <c r="D6" s="267" t="s">
         <v>41</v>
       </c>
@@ -7619,7 +7614,7 @@
       <c r="I6" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="461"/>
+      <c r="J6" s="463"/>
       <c r="K6" s="267" t="s">
         <v>45</v>
       </c>
@@ -7629,7 +7624,7 @@
       <c r="M6" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="469"/>
+      <c r="N6" s="459"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="174">
@@ -7679,8 +7674,8 @@
       <c r="B8" s="410">
         <v>44088</v>
       </c>
-      <c r="C8" s="446"/>
-      <c r="D8" s="449" t="s">
+      <c r="C8" s="413"/>
+      <c r="D8" s="416" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="341" t="s">
@@ -7713,10 +7708,10 @@
       <c r="Q8" s="184"/>
     </row>
     <row r="9" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="417"/>
-      <c r="B9" s="418"/>
-      <c r="C9" s="448"/>
-      <c r="D9" s="451"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="415"/>
+      <c r="D9" s="418"/>
       <c r="E9" s="342" t="s">
         <v>204</v>
       </c>
@@ -7827,14 +7822,14 @@
       <c r="Q11" s="184"/>
     </row>
     <row r="12" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="444">
+      <c r="A12" s="419">
         <v>803</v>
       </c>
-      <c r="B12" s="442">
+      <c r="B12" s="422">
         <v>44095</v>
       </c>
-      <c r="C12" s="455"/>
-      <c r="D12" s="458" t="s">
+      <c r="C12" s="466"/>
+      <c r="D12" s="469" t="s">
         <v>220</v>
       </c>
       <c r="E12" s="338" t="s">
@@ -7867,10 +7862,10 @@
       <c r="Q12" s="184"/>
     </row>
     <row r="13" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="445"/>
-      <c r="B13" s="443"/>
-      <c r="C13" s="456"/>
-      <c r="D13" s="459"/>
+      <c r="A13" s="420"/>
+      <c r="B13" s="423"/>
+      <c r="C13" s="467"/>
+      <c r="D13" s="470"/>
       <c r="E13" s="338" t="s">
         <v>204</v>
       </c>
@@ -7901,10 +7896,10 @@
       <c r="Q13" s="184"/>
     </row>
     <row r="14" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="445"/>
-      <c r="B14" s="443"/>
-      <c r="C14" s="456"/>
-      <c r="D14" s="459"/>
+      <c r="A14" s="420"/>
+      <c r="B14" s="423"/>
+      <c r="C14" s="467"/>
+      <c r="D14" s="470"/>
       <c r="E14" s="338" t="s">
         <v>124</v>
       </c>
@@ -7935,10 +7930,10 @@
       <c r="Q14" s="184"/>
     </row>
     <row r="15" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="445"/>
-      <c r="B15" s="443"/>
-      <c r="C15" s="456"/>
-      <c r="D15" s="459"/>
+      <c r="A15" s="420"/>
+      <c r="B15" s="423"/>
+      <c r="C15" s="467"/>
+      <c r="D15" s="470"/>
       <c r="E15" s="338" t="s">
         <v>127</v>
       </c>
@@ -7969,10 +7964,10 @@
       <c r="Q15" s="184"/>
     </row>
     <row r="16" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="452"/>
-      <c r="B16" s="454"/>
-      <c r="C16" s="457"/>
-      <c r="D16" s="460"/>
+      <c r="A16" s="421"/>
+      <c r="B16" s="465"/>
+      <c r="C16" s="468"/>
+      <c r="D16" s="471"/>
       <c r="E16" s="338" t="s">
         <v>128</v>
       </c>
@@ -8009,8 +8004,8 @@
       <c r="B17" s="410">
         <v>44096</v>
       </c>
-      <c r="C17" s="446"/>
-      <c r="D17" s="449" t="s">
+      <c r="C17" s="413"/>
+      <c r="D17" s="416" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="341" t="s">
@@ -8045,8 +8040,8 @@
     <row r="18" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="408"/>
       <c r="B18" s="411"/>
-      <c r="C18" s="447"/>
-      <c r="D18" s="450"/>
+      <c r="C18" s="414"/>
+      <c r="D18" s="417"/>
       <c r="E18" s="343" t="s">
         <v>125</v>
       </c>
@@ -8079,8 +8074,8 @@
     <row r="19" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="408"/>
       <c r="B19" s="411"/>
-      <c r="C19" s="447"/>
-      <c r="D19" s="450"/>
+      <c r="C19" s="414"/>
+      <c r="D19" s="417"/>
       <c r="E19" s="343" t="s">
         <v>126</v>
       </c>
@@ -8113,8 +8108,8 @@
     <row r="20" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="408"/>
       <c r="B20" s="411"/>
-      <c r="C20" s="447"/>
-      <c r="D20" s="450"/>
+      <c r="C20" s="414"/>
+      <c r="D20" s="417"/>
       <c r="E20" s="343" t="s">
         <v>204</v>
       </c>
@@ -8147,8 +8142,8 @@
     <row r="21" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="408"/>
       <c r="B21" s="411"/>
-      <c r="C21" s="447"/>
-      <c r="D21" s="450"/>
+      <c r="C21" s="414"/>
+      <c r="D21" s="417"/>
       <c r="E21" s="343" t="s">
         <v>124</v>
       </c>
@@ -8181,8 +8176,8 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="408"/>
       <c r="B22" s="411"/>
-      <c r="C22" s="447"/>
-      <c r="D22" s="450"/>
+      <c r="C22" s="414"/>
+      <c r="D22" s="417"/>
       <c r="E22" s="343" t="s">
         <v>127</v>
       </c>
@@ -8214,8 +8209,8 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="408"/>
       <c r="B23" s="411"/>
-      <c r="C23" s="447"/>
-      <c r="D23" s="450"/>
+      <c r="C23" s="414"/>
+      <c r="D23" s="417"/>
       <c r="E23" s="343" t="s">
         <v>128</v>
       </c>
@@ -8245,10 +8240,10 @@
       <c r="N23" s="203"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="417"/>
-      <c r="B24" s="418"/>
-      <c r="C24" s="448"/>
-      <c r="D24" s="451"/>
+      <c r="A24" s="409"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="415"/>
+      <c r="D24" s="418"/>
       <c r="E24" s="342" t="s">
         <v>213</v>
       </c>
@@ -8456,10 +8451,10 @@
       <c r="N32" s="203"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="417"/>
-      <c r="B33" s="418"/>
-      <c r="C33" s="417"/>
-      <c r="D33" s="417"/>
+      <c r="A33" s="409"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="409"/>
+      <c r="D33" s="409"/>
       <c r="E33" s="176"/>
       <c r="F33" s="176"/>
       <c r="G33" s="279"/>
@@ -8520,10 +8515,10 @@
       <c r="N36" s="203"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="417"/>
-      <c r="B37" s="418"/>
-      <c r="C37" s="417"/>
-      <c r="D37" s="417"/>
+      <c r="A37" s="409"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="409"/>
+      <c r="D37" s="409"/>
       <c r="E37" s="176"/>
       <c r="F37" s="176"/>
       <c r="G37" s="279"/>
@@ -8616,10 +8611,10 @@
       <c r="N42" s="200"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="417"/>
-      <c r="B43" s="418"/>
-      <c r="C43" s="417"/>
-      <c r="D43" s="417"/>
+      <c r="A43" s="409"/>
+      <c r="B43" s="412"/>
+      <c r="C43" s="409"/>
+      <c r="D43" s="409"/>
       <c r="E43" s="176"/>
       <c r="F43" s="176"/>
       <c r="G43" s="279"/>
@@ -8664,12 +8659,12 @@
       <c r="N45" s="204"/>
     </row>
     <row r="46" spans="1:14" s="305" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="453" t="s">
+      <c r="A46" s="464" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="453"/>
-      <c r="C46" s="453"/>
-      <c r="D46" s="453"/>
+      <c r="B46" s="464"/>
+      <c r="C46" s="464"/>
+      <c r="D46" s="464"/>
       <c r="E46" s="301"/>
       <c r="F46" s="301">
         <f>SUM(F7:F45)</f>
@@ -8757,6 +8752,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B31:B33"/>
@@ -8773,26 +8788,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9338,13 +9333,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9352,7 +9347,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -9364,101 +9359,101 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="488" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
-      <c r="J3" s="479"/>
-      <c r="K3" s="479"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="488"/>
+      <c r="K3" s="488"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="480" t="s">
+      <c r="A4" s="482" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="495" t="s">
+      <c r="B4" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="480" t="s">
+      <c r="C4" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="480" t="s">
+      <c r="D4" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="480"/>
-      <c r="F4" s="488" t="s">
+      <c r="E4" s="482"/>
+      <c r="F4" s="475" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="488"/>
-      <c r="J4" s="488"/>
-      <c r="K4" s="488"/>
-      <c r="L4" s="492" t="s">
-        <v>244</v>
-      </c>
-      <c r="M4" s="493"/>
-      <c r="N4" s="494"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="475"/>
+      <c r="I4" s="475"/>
+      <c r="J4" s="475"/>
+      <c r="K4" s="475"/>
+      <c r="L4" s="479" t="s">
+        <v>242</v>
+      </c>
+      <c r="M4" s="480"/>
+      <c r="N4" s="481"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="480"/>
-      <c r="B5" s="495"/>
-      <c r="C5" s="480"/>
-      <c r="D5" s="480" t="s">
+      <c r="A5" s="482"/>
+      <c r="B5" s="483"/>
+      <c r="C5" s="482"/>
+      <c r="D5" s="482" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="480" t="s">
+      <c r="E5" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="480" t="s">
+      <c r="F5" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="480" t="s">
+      <c r="G5" s="482" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="481" t="s">
+      <c r="H5" s="489" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="481" t="s">
+      <c r="I5" s="489" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="359"/>
-      <c r="K5" s="481" t="s">
+      <c r="K5" s="489" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="421" t="s">
+      <c r="L5" s="437" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="421" t="s">
+      <c r="M5" s="437" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="421" t="s">
+      <c r="N5" s="437" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="480"/>
-      <c r="B6" s="495"/>
-      <c r="C6" s="480"/>
-      <c r="D6" s="480"/>
-      <c r="E6" s="480"/>
-      <c r="F6" s="480"/>
-      <c r="G6" s="480"/>
-      <c r="H6" s="481"/>
-      <c r="I6" s="481"/>
+      <c r="A6" s="482"/>
+      <c r="B6" s="483"/>
+      <c r="C6" s="482"/>
+      <c r="D6" s="482"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="482"/>
+      <c r="G6" s="482"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="481"/>
-      <c r="L6" s="422"/>
-      <c r="M6" s="422"/>
-      <c r="N6" s="422"/>
+      <c r="K6" s="489"/>
+      <c r="L6" s="438"/>
+      <c r="M6" s="438"/>
+      <c r="N6" s="438"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="325">
@@ -9651,11 +9646,11 @@
       <c r="N11" s="180"/>
     </row>
     <row r="12" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="417"/>
-      <c r="B12" s="418"/>
-      <c r="C12" s="417"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="417"/>
+      <c r="A12" s="409"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="409"/>
+      <c r="D12" s="409"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="355" t="s">
         <v>126</v>
       </c>
@@ -9681,16 +9676,16 @@
       <c r="N12" s="185"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="489" t="s">
+      <c r="A13" s="476" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="490"/>
-      <c r="C13" s="490"/>
-      <c r="D13" s="490"/>
-      <c r="E13" s="490"/>
-      <c r="F13" s="490"/>
-      <c r="G13" s="490"/>
-      <c r="H13" s="491"/>
+      <c r="B13" s="477"/>
+      <c r="C13" s="477"/>
+      <c r="D13" s="477"/>
+      <c r="E13" s="477"/>
+      <c r="F13" s="477"/>
+      <c r="G13" s="477"/>
+      <c r="H13" s="478"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>14675000</v>
@@ -9730,14 +9725,14 @@
       <c r="A15" s="165"/>
       <c r="B15" s="165"/>
       <c r="C15" s="165"/>
-      <c r="D15" s="482" t="s">
+      <c r="D15" s="490" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="483"/>
-      <c r="F15" s="483"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="483"/>
-      <c r="I15" s="484"/>
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="492"/>
       <c r="J15" s="361"/>
       <c r="K15" s="166"/>
     </row>
@@ -9745,14 +9740,14 @@
       <c r="A16" s="165"/>
       <c r="B16" s="165"/>
       <c r="C16" s="165"/>
-      <c r="D16" s="485" t="s">
+      <c r="D16" s="493" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="486"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="487"/>
+      <c r="E16" s="494"/>
+      <c r="F16" s="494"/>
+      <c r="G16" s="494"/>
+      <c r="H16" s="494"/>
+      <c r="I16" s="495"/>
       <c r="J16" s="365">
         <v>2309530</v>
       </c>
@@ -9761,14 +9756,14 @@
       <c r="A17" s="165"/>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
-      <c r="D17" s="485" t="s">
+      <c r="D17" s="493" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="486"/>
-      <c r="F17" s="486"/>
-      <c r="G17" s="486"/>
-      <c r="H17" s="486"/>
-      <c r="I17" s="487"/>
+      <c r="E17" s="494"/>
+      <c r="F17" s="494"/>
+      <c r="G17" s="494"/>
+      <c r="H17" s="494"/>
+      <c r="I17" s="495"/>
       <c r="J17" s="365">
         <f>N13</f>
         <v>4200100.0000000009</v>
@@ -9778,14 +9773,14 @@
       <c r="A18" s="165"/>
       <c r="B18" s="165"/>
       <c r="C18" s="165"/>
-      <c r="D18" s="477" t="s">
+      <c r="D18" s="486" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="477"/>
-      <c r="F18" s="477"/>
-      <c r="G18" s="477"/>
-      <c r="H18" s="477"/>
-      <c r="I18" s="477"/>
+      <c r="E18" s="486"/>
+      <c r="F18" s="486"/>
+      <c r="G18" s="486"/>
+      <c r="H18" s="486"/>
+      <c r="I18" s="486"/>
       <c r="J18" s="365">
         <f>SUM(J16:L17)</f>
         <v>6509630.0000000009</v>
@@ -9799,10 +9794,10 @@
       <c r="E19" s="168"/>
       <c r="F19" s="168"/>
       <c r="G19" s="168"/>
-      <c r="H19" s="475" t="s">
+      <c r="H19" s="484" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="475"/>
+      <c r="I19" s="484"/>
       <c r="J19" s="365">
         <v>2500000</v>
       </c>
@@ -9815,10 +9810,10 @@
       <c r="E20" s="168"/>
       <c r="F20" s="168"/>
       <c r="G20" s="168"/>
-      <c r="H20" s="476" t="s">
+      <c r="H20" s="485" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="476"/>
+      <c r="I20" s="485"/>
       <c r="J20" s="365">
         <f>J18+J19</f>
         <v>9009630</v>
@@ -9871,20 +9866,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D18:I18"/>
@@ -9901,6 +9882,20 @@
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.2" top="0.82" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9911,8 +9906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9925,7 +9920,7 @@
     <col min="6" max="6" width="8.28515625" style="14" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" style="14" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="14" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" style="14" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="14" customWidth="1"/>
@@ -9933,13 +9928,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9947,7 +9942,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -9959,92 +9954,92 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="479" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
-      <c r="J3" s="479"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="479"/>
+      <c r="A3" s="488" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="488"/>
+      <c r="K3" s="488"/>
+      <c r="L3" s="488"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="480" t="s">
+      <c r="A4" s="482" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="495" t="s">
+      <c r="B4" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="480" t="s">
+      <c r="C4" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="480" t="s">
+      <c r="D4" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="480"/>
-      <c r="F4" s="488" t="s">
+      <c r="E4" s="482"/>
+      <c r="F4" s="475" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="488"/>
-      <c r="J4" s="488"/>
-      <c r="K4" s="488"/>
-      <c r="L4" s="488"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="475"/>
+      <c r="I4" s="475"/>
+      <c r="J4" s="475"/>
+      <c r="K4" s="475"/>
+      <c r="L4" s="475"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="480"/>
-      <c r="B5" s="495"/>
-      <c r="C5" s="480"/>
-      <c r="D5" s="480" t="s">
+      <c r="A5" s="482"/>
+      <c r="B5" s="483"/>
+      <c r="C5" s="482"/>
+      <c r="D5" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="480" t="s">
+      <c r="E5" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="480" t="s">
+      <c r="F5" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="480" t="s">
+      <c r="G5" s="482" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="481" t="s">
+      <c r="H5" s="489" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="481" t="s">
+      <c r="I5" s="489" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="496" t="s">
+      <c r="J5" s="502" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="497"/>
-      <c r="L5" s="481" t="s">
+      <c r="K5" s="503"/>
+      <c r="L5" s="489" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="480"/>
-      <c r="B6" s="495"/>
-      <c r="C6" s="480"/>
-      <c r="D6" s="480"/>
-      <c r="E6" s="480"/>
-      <c r="F6" s="480"/>
-      <c r="G6" s="480"/>
-      <c r="H6" s="481"/>
-      <c r="I6" s="481"/>
+      <c r="A6" s="482"/>
+      <c r="B6" s="483"/>
+      <c r="C6" s="482"/>
+      <c r="D6" s="482"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="482"/>
+      <c r="G6" s="482"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="360" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="481"/>
+      <c r="L6" s="489"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="407">
@@ -10056,10 +10051,10 @@
       <c r="C7" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="413" t="s">
+      <c r="D7" s="445" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="413"/>
+      <c r="E7" s="445"/>
       <c r="F7" s="353" t="s">
         <v>125</v>
       </c>
@@ -10084,8 +10079,8 @@
       <c r="A8" s="408"/>
       <c r="B8" s="411"/>
       <c r="C8" s="408"/>
-      <c r="D8" s="414"/>
-      <c r="E8" s="414"/>
+      <c r="D8" s="446"/>
+      <c r="E8" s="446"/>
       <c r="F8" s="354" t="s">
         <v>126</v>
       </c>
@@ -10110,8 +10105,8 @@
       <c r="A9" s="408"/>
       <c r="B9" s="411"/>
       <c r="C9" s="408"/>
-      <c r="D9" s="414"/>
-      <c r="E9" s="414"/>
+      <c r="D9" s="446"/>
+      <c r="E9" s="446"/>
       <c r="F9" s="354" t="s">
         <v>133</v>
       </c>
@@ -10134,11 +10129,11 @@
       <c r="N9" s="184"/>
     </row>
     <row r="10" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="417"/>
-      <c r="B10" s="418"/>
-      <c r="C10" s="417"/>
-      <c r="D10" s="416"/>
-      <c r="E10" s="416"/>
+      <c r="A10" s="409"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="447"/>
+      <c r="E10" s="447"/>
       <c r="F10" s="355" t="s">
         <v>124</v>
       </c>
@@ -10232,16 +10227,16 @@
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="489" t="s">
+      <c r="A13" s="476" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="490"/>
-      <c r="C13" s="490"/>
-      <c r="D13" s="490"/>
-      <c r="E13" s="490"/>
-      <c r="F13" s="490"/>
-      <c r="G13" s="490"/>
-      <c r="H13" s="491"/>
+      <c r="B13" s="477"/>
+      <c r="C13" s="477"/>
+      <c r="D13" s="477"/>
+      <c r="E13" s="477"/>
+      <c r="F13" s="477"/>
+      <c r="G13" s="477"/>
+      <c r="H13" s="478"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>10890000</v>
@@ -10271,130 +10266,130 @@
       <c r="A15" s="358"/>
       <c r="B15" s="358"/>
       <c r="C15" s="358"/>
-      <c r="D15" s="482" t="s">
+      <c r="D15" s="490" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="483"/>
-      <c r="F15" s="483"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="483"/>
-      <c r="I15" s="484"/>
-      <c r="J15" s="498" t="s">
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="492"/>
+      <c r="J15" s="496" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="499"/>
+      <c r="K15" s="497"/>
       <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="358"/>
       <c r="B16" s="358"/>
       <c r="C16" s="358"/>
-      <c r="D16" s="485" t="s">
+      <c r="D16" s="493" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="486"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="487"/>
-      <c r="J16" s="500">
+      <c r="E16" s="494"/>
+      <c r="F16" s="494"/>
+      <c r="G16" s="494"/>
+      <c r="H16" s="494"/>
+      <c r="I16" s="495"/>
+      <c r="J16" s="498">
         <v>4782500</v>
       </c>
-      <c r="K16" s="501"/>
+      <c r="K16" s="499"/>
       <c r="L16" s="166"/>
     </row>
     <row r="17" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="358"/>
       <c r="B17" s="358"/>
       <c r="C17" s="358"/>
-      <c r="D17" s="485" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" s="486"/>
-      <c r="F17" s="486"/>
-      <c r="G17" s="486"/>
-      <c r="H17" s="486"/>
-      <c r="I17" s="487"/>
-      <c r="J17" s="500">
+      <c r="D17" s="493" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="494"/>
+      <c r="F17" s="494"/>
+      <c r="G17" s="494"/>
+      <c r="H17" s="494"/>
+      <c r="I17" s="495"/>
+      <c r="J17" s="498">
         <f>L13</f>
         <v>5445000</v>
       </c>
-      <c r="K17" s="501"/>
+      <c r="K17" s="499"/>
       <c r="L17" s="166"/>
     </row>
     <row r="18" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="358"/>
       <c r="B18" s="358"/>
       <c r="C18" s="358"/>
-      <c r="D18" s="482" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="483"/>
-      <c r="F18" s="483"/>
-      <c r="G18" s="483"/>
-      <c r="H18" s="483"/>
-      <c r="I18" s="484"/>
-      <c r="J18" s="500">
+      <c r="D18" s="490" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="491"/>
+      <c r="F18" s="491"/>
+      <c r="G18" s="491"/>
+      <c r="H18" s="491"/>
+      <c r="I18" s="492"/>
+      <c r="J18" s="498">
         <f>J17-J16</f>
         <v>662500</v>
       </c>
-      <c r="K18" s="501"/>
+      <c r="K18" s="499"/>
       <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="358"/>
       <c r="B19" s="358"/>
       <c r="C19" s="358"/>
-      <c r="D19" s="485" t="s">
+      <c r="D19" s="493" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="486"/>
-      <c r="F19" s="486"/>
-      <c r="G19" s="486"/>
-      <c r="H19" s="486"/>
-      <c r="I19" s="487"/>
-      <c r="J19" s="500">
+      <c r="E19" s="494"/>
+      <c r="F19" s="494"/>
+      <c r="G19" s="494"/>
+      <c r="H19" s="494"/>
+      <c r="I19" s="495"/>
+      <c r="J19" s="498">
         <v>3000000</v>
       </c>
-      <c r="K19" s="501"/>
+      <c r="K19" s="499"/>
       <c r="L19" s="166"/>
     </row>
     <row r="20" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="358"/>
       <c r="B20" s="358"/>
       <c r="C20" s="358"/>
-      <c r="D20" s="485" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="486"/>
-      <c r="F20" s="486"/>
-      <c r="G20" s="486"/>
-      <c r="H20" s="486"/>
-      <c r="I20" s="487"/>
-      <c r="J20" s="500">
-        <f>12%*5000000</f>
-        <v>600000</v>
-      </c>
-      <c r="K20" s="501"/>
+      <c r="D20" s="493" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="494"/>
+      <c r="F20" s="494"/>
+      <c r="G20" s="494"/>
+      <c r="H20" s="494"/>
+      <c r="I20" s="495"/>
+      <c r="J20" s="498">
+        <f>12%*(5000000+5000000)</f>
+        <v>1200000</v>
+      </c>
+      <c r="K20" s="499"/>
       <c r="L20" s="166"/>
     </row>
     <row r="21" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="358"/>
       <c r="B21" s="358"/>
       <c r="C21" s="358"/>
-      <c r="D21" s="477" t="s">
+      <c r="D21" s="486" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="477"/>
-      <c r="F21" s="477"/>
-      <c r="G21" s="477"/>
-      <c r="H21" s="477"/>
-      <c r="I21" s="477"/>
-      <c r="J21" s="502">
+      <c r="E21" s="486"/>
+      <c r="F21" s="486"/>
+      <c r="G21" s="486"/>
+      <c r="H21" s="486"/>
+      <c r="I21" s="486"/>
+      <c r="J21" s="500">
         <f>J18+J19-J20</f>
-        <v>3062500</v>
-      </c>
-      <c r="K21" s="503"/>
+        <v>2462500</v>
+      </c>
+      <c r="K21" s="501"/>
     </row>
     <row r="22" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="358"/>
@@ -10432,17 +10427,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
@@ -10455,18 +10451,17 @@
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <pageMargins left="0.52" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10490,13 +10485,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10504,7 +10499,7 @@
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -10674,14 +10669,14 @@
       <c r="H15" s="506"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="477" t="s">
+      <c r="A16" s="486" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="477"/>
-      <c r="C16" s="477"/>
-      <c r="D16" s="477"/>
-      <c r="E16" s="477"/>
-      <c r="F16" s="477"/>
+      <c r="B16" s="486"/>
+      <c r="C16" s="486"/>
+      <c r="D16" s="486"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
       <c r="G16" s="504">
         <f>G7+G15</f>
         <v>11457538.461538462</v>
@@ -11265,16 +11260,16 @@
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="Z1" s="543" t="s">
+      <c r="Z1" s="530" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="544"/>
-      <c r="AB1" s="544"/>
-      <c r="AC1" s="544"/>
-      <c r="AD1" s="544"/>
-      <c r="AE1" s="544"/>
-      <c r="AF1" s="544"/>
-      <c r="AG1" s="545"/>
+      <c r="AA1" s="531"/>
+      <c r="AB1" s="531"/>
+      <c r="AC1" s="531"/>
+      <c r="AD1" s="531"/>
+      <c r="AE1" s="531"/>
+      <c r="AF1" s="531"/>
+      <c r="AG1" s="532"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -11284,18 +11279,18 @@
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="Z2" s="526" t="s">
+      <c r="Z2" s="525" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="527"/>
-      <c r="AB2" s="527"/>
-      <c r="AC2" s="527"/>
-      <c r="AD2" s="527"/>
-      <c r="AE2" s="528"/>
-      <c r="AF2" s="529" t="s">
+      <c r="AA2" s="526"/>
+      <c r="AB2" s="526"/>
+      <c r="AC2" s="526"/>
+      <c r="AD2" s="526"/>
+      <c r="AE2" s="527"/>
+      <c r="AF2" s="528" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="530"/>
+      <c r="AG2" s="529"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -11305,18 +11300,18 @@
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
-      <c r="Z3" s="526" t="s">
+      <c r="Z3" s="525" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="527"/>
-      <c r="AB3" s="527"/>
-      <c r="AC3" s="527"/>
-      <c r="AD3" s="527"/>
-      <c r="AE3" s="528"/>
-      <c r="AF3" s="529" t="s">
+      <c r="AA3" s="526"/>
+      <c r="AB3" s="526"/>
+      <c r="AC3" s="526"/>
+      <c r="AD3" s="526"/>
+      <c r="AE3" s="527"/>
+      <c r="AF3" s="528" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" s="530"/>
+      <c r="AG3" s="529"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
@@ -11329,18 +11324,18 @@
       <c r="T4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="526" t="s">
+      <c r="Z4" s="525" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="527"/>
-      <c r="AB4" s="527"/>
-      <c r="AC4" s="527"/>
-      <c r="AD4" s="527"/>
-      <c r="AE4" s="528"/>
-      <c r="AF4" s="529" t="s">
+      <c r="AA4" s="526"/>
+      <c r="AB4" s="526"/>
+      <c r="AC4" s="526"/>
+      <c r="AD4" s="526"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="528" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="530"/>
+      <c r="AG4" s="529"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
@@ -11350,18 +11345,18 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
-      <c r="Z5" s="526" t="s">
+      <c r="Z5" s="525" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="527"/>
-      <c r="AB5" s="527"/>
-      <c r="AC5" s="527"/>
-      <c r="AD5" s="527"/>
-      <c r="AE5" s="528"/>
-      <c r="AF5" s="529" t="s">
+      <c r="AA5" s="526"/>
+      <c r="AB5" s="526"/>
+      <c r="AC5" s="526"/>
+      <c r="AD5" s="526"/>
+      <c r="AE5" s="527"/>
+      <c r="AF5" s="528" t="s">
         <v>92</v>
       </c>
-      <c r="AG5" s="530"/>
+      <c r="AG5" s="529"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -11371,93 +11366,93 @@
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:40" s="83" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="531" t="s">
+      <c r="A7" s="534" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="531"/>
-      <c r="C7" s="531"/>
-      <c r="D7" s="531"/>
-      <c r="E7" s="531"/>
-      <c r="F7" s="531"/>
-      <c r="G7" s="531"/>
-      <c r="H7" s="531"/>
-      <c r="I7" s="531"/>
-      <c r="J7" s="531"/>
-      <c r="K7" s="531"/>
-      <c r="L7" s="531"/>
-      <c r="M7" s="531"/>
-      <c r="N7" s="531"/>
-      <c r="O7" s="531"/>
-      <c r="P7" s="531"/>
-      <c r="Q7" s="531"/>
-      <c r="R7" s="531"/>
-      <c r="S7" s="531"/>
-      <c r="T7" s="531"/>
-      <c r="U7" s="531"/>
-      <c r="V7" s="531"/>
-      <c r="W7" s="531"/>
-      <c r="X7" s="531"/>
-      <c r="Y7" s="531"/>
-      <c r="Z7" s="531"/>
-      <c r="AA7" s="531"/>
-      <c r="AB7" s="531"/>
-      <c r="AC7" s="531"/>
-      <c r="AD7" s="531"/>
-      <c r="AE7" s="531"/>
-      <c r="AF7" s="531"/>
-      <c r="AG7" s="531"/>
-      <c r="AH7" s="531"/>
-      <c r="AI7" s="531"/>
-      <c r="AJ7" s="531"/>
-      <c r="AK7" s="531"/>
-      <c r="AL7" s="531"/>
-      <c r="AM7" s="531"/>
+      <c r="B7" s="534"/>
+      <c r="C7" s="534"/>
+      <c r="D7" s="534"/>
+      <c r="E7" s="534"/>
+      <c r="F7" s="534"/>
+      <c r="G7" s="534"/>
+      <c r="H7" s="534"/>
+      <c r="I7" s="534"/>
+      <c r="J7" s="534"/>
+      <c r="K7" s="534"/>
+      <c r="L7" s="534"/>
+      <c r="M7" s="534"/>
+      <c r="N7" s="534"/>
+      <c r="O7" s="534"/>
+      <c r="P7" s="534"/>
+      <c r="Q7" s="534"/>
+      <c r="R7" s="534"/>
+      <c r="S7" s="534"/>
+      <c r="T7" s="534"/>
+      <c r="U7" s="534"/>
+      <c r="V7" s="534"/>
+      <c r="W7" s="534"/>
+      <c r="X7" s="534"/>
+      <c r="Y7" s="534"/>
+      <c r="Z7" s="534"/>
+      <c r="AA7" s="534"/>
+      <c r="AB7" s="534"/>
+      <c r="AC7" s="534"/>
+      <c r="AD7" s="534"/>
+      <c r="AE7" s="534"/>
+      <c r="AF7" s="534"/>
+      <c r="AG7" s="534"/>
+      <c r="AH7" s="534"/>
+      <c r="AI7" s="534"/>
+      <c r="AJ7" s="534"/>
+      <c r="AK7" s="534"/>
+      <c r="AL7" s="534"/>
+      <c r="AM7" s="534"/>
       <c r="AN7" s="82"/>
     </row>
     <row r="9" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="532" t="s">
+      <c r="A9" s="535" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="532" t="s">
+      <c r="B9" s="535" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="532" t="s">
+      <c r="C9" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="535" t="s">
+      <c r="D9" s="538" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="536"/>
-      <c r="F9" s="536"/>
-      <c r="G9" s="536"/>
-      <c r="H9" s="536"/>
-      <c r="I9" s="536"/>
-      <c r="J9" s="536"/>
-      <c r="K9" s="536"/>
-      <c r="L9" s="536"/>
-      <c r="M9" s="536"/>
-      <c r="N9" s="536"/>
-      <c r="O9" s="536"/>
-      <c r="P9" s="536"/>
-      <c r="Q9" s="536"/>
-      <c r="R9" s="536"/>
-      <c r="S9" s="536"/>
-      <c r="T9" s="536"/>
-      <c r="U9" s="536"/>
-      <c r="V9" s="536"/>
-      <c r="W9" s="536"/>
-      <c r="X9" s="536"/>
-      <c r="Y9" s="536"/>
-      <c r="Z9" s="536"/>
-      <c r="AA9" s="536"/>
-      <c r="AB9" s="536"/>
-      <c r="AC9" s="536"/>
-      <c r="AD9" s="536"/>
-      <c r="AE9" s="536"/>
-      <c r="AF9" s="536"/>
-      <c r="AG9" s="536"/>
-      <c r="AH9" s="537"/>
-      <c r="AI9" s="538" t="s">
+      <c r="E9" s="539"/>
+      <c r="F9" s="539"/>
+      <c r="G9" s="539"/>
+      <c r="H9" s="539"/>
+      <c r="I9" s="539"/>
+      <c r="J9" s="539"/>
+      <c r="K9" s="539"/>
+      <c r="L9" s="539"/>
+      <c r="M9" s="539"/>
+      <c r="N9" s="539"/>
+      <c r="O9" s="539"/>
+      <c r="P9" s="539"/>
+      <c r="Q9" s="539"/>
+      <c r="R9" s="539"/>
+      <c r="S9" s="539"/>
+      <c r="T9" s="539"/>
+      <c r="U9" s="539"/>
+      <c r="V9" s="539"/>
+      <c r="W9" s="539"/>
+      <c r="X9" s="539"/>
+      <c r="Y9" s="539"/>
+      <c r="Z9" s="539"/>
+      <c r="AA9" s="539"/>
+      <c r="AB9" s="539"/>
+      <c r="AC9" s="539"/>
+      <c r="AD9" s="539"/>
+      <c r="AE9" s="539"/>
+      <c r="AF9" s="539"/>
+      <c r="AG9" s="539"/>
+      <c r="AH9" s="540"/>
+      <c r="AI9" s="541" t="s">
         <v>97</v>
       </c>
       <c r="AJ9" s="84"/>
@@ -11467,9 +11462,9 @@
       <c r="AN9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="533"/>
-      <c r="B10" s="533"/>
-      <c r="C10" s="533"/>
+      <c r="A10" s="536"/>
+      <c r="B10" s="536"/>
+      <c r="C10" s="536"/>
       <c r="D10" s="89">
         <v>1</v>
       </c>
@@ -11563,7 +11558,7 @@
       <c r="AH10" s="89">
         <v>31</v>
       </c>
-      <c r="AI10" s="538"/>
+      <c r="AI10" s="541"/>
       <c r="AJ10" s="90"/>
       <c r="AK10" s="86"/>
       <c r="AL10" s="86"/>
@@ -11571,9 +11566,9 @@
       <c r="AN10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="534"/>
-      <c r="B11" s="534"/>
-      <c r="C11" s="534"/>
+      <c r="A11" s="537"/>
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
       <c r="D11" s="89" t="s">
         <v>103</v>
       </c>
@@ -11667,7 +11662,7 @@
       <c r="AH11" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="AI11" s="538"/>
+      <c r="AI11" s="541"/>
       <c r="AJ11" s="93"/>
       <c r="AN11" s="95"/>
     </row>
@@ -11988,10 +11983,10 @@
       <c r="AN14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="539" t="s">
+      <c r="A15" s="542" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="540"/>
+      <c r="B15" s="543"/>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="98"/>
@@ -12034,49 +12029,49 @@
       <c r="AN15" s="95"/>
     </row>
     <row r="17" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="541" t="s">
+      <c r="A17" s="544" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="541"/>
-      <c r="C17" s="541"/>
-      <c r="D17" s="541"/>
-      <c r="E17" s="541"/>
-      <c r="F17" s="541"/>
-      <c r="G17" s="541"/>
+      <c r="B17" s="544"/>
+      <c r="C17" s="544"/>
+      <c r="D17" s="544"/>
+      <c r="E17" s="544"/>
+      <c r="F17" s="544"/>
+      <c r="G17" s="544"/>
       <c r="H17" s="102"/>
-      <c r="I17" s="542"/>
-      <c r="J17" s="542"/>
-      <c r="K17" s="542"/>
-      <c r="L17" s="542"/>
-      <c r="M17" s="542"/>
+      <c r="I17" s="545"/>
+      <c r="J17" s="545"/>
+      <c r="K17" s="545"/>
+      <c r="L17" s="545"/>
+      <c r="M17" s="545"/>
       <c r="N17" s="103"/>
-      <c r="O17" s="542" t="s">
+      <c r="O17" s="545" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="542"/>
-      <c r="Q17" s="542"/>
-      <c r="R17" s="542"/>
-      <c r="S17" s="542"/>
-      <c r="T17" s="542"/>
-      <c r="U17" s="542"/>
-      <c r="V17" s="542"/>
-      <c r="W17" s="542"/>
-      <c r="X17" s="542"/>
-      <c r="Y17" s="542"/>
+      <c r="P17" s="545"/>
+      <c r="Q17" s="545"/>
+      <c r="R17" s="545"/>
+      <c r="S17" s="545"/>
+      <c r="T17" s="545"/>
+      <c r="U17" s="545"/>
+      <c r="V17" s="545"/>
+      <c r="W17" s="545"/>
+      <c r="X17" s="545"/>
+      <c r="Y17" s="545"/>
       <c r="Z17" s="104"/>
       <c r="AA17" s="104"/>
       <c r="AB17" s="105"/>
-      <c r="AC17" s="542"/>
-      <c r="AD17" s="542"/>
-      <c r="AE17" s="542"/>
-      <c r="AF17" s="542"/>
-      <c r="AG17" s="542"/>
-      <c r="AH17" s="542"/>
-      <c r="AI17" s="542"/>
-      <c r="AJ17" s="542"/>
-      <c r="AK17" s="542"/>
-      <c r="AL17" s="542"/>
-      <c r="AM17" s="542"/>
+      <c r="AC17" s="545"/>
+      <c r="AD17" s="545"/>
+      <c r="AE17" s="545"/>
+      <c r="AF17" s="545"/>
+      <c r="AG17" s="545"/>
+      <c r="AH17" s="545"/>
+      <c r="AI17" s="545"/>
+      <c r="AJ17" s="545"/>
+      <c r="AK17" s="545"/>
+      <c r="AL17" s="545"/>
+      <c r="AM17" s="545"/>
       <c r="AN17" s="106"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12110,131 +12105,131 @@
       <c r="AN32" s="111"/>
     </row>
     <row r="33" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="525"/>
-      <c r="H33" s="525"/>
-      <c r="I33" s="525"/>
-      <c r="J33" s="525"/>
-      <c r="K33" s="525"/>
-      <c r="L33" s="525"/>
-      <c r="M33" s="525"/>
-      <c r="N33" s="525"/>
-      <c r="O33" s="525"/>
-      <c r="P33" s="525"/>
-      <c r="Q33" s="525"/>
-      <c r="R33" s="525"/>
-      <c r="S33" s="525"/>
-      <c r="T33" s="525"/>
-      <c r="U33" s="525"/>
-      <c r="V33" s="525"/>
-      <c r="W33" s="525"/>
-      <c r="X33" s="525"/>
+      <c r="G33" s="533"/>
+      <c r="H33" s="533"/>
+      <c r="I33" s="533"/>
+      <c r="J33" s="533"/>
+      <c r="K33" s="533"/>
+      <c r="L33" s="533"/>
+      <c r="M33" s="533"/>
+      <c r="N33" s="533"/>
+      <c r="O33" s="533"/>
+      <c r="P33" s="533"/>
+      <c r="Q33" s="533"/>
+      <c r="R33" s="533"/>
+      <c r="S33" s="533"/>
+      <c r="T33" s="533"/>
+      <c r="U33" s="533"/>
+      <c r="V33" s="533"/>
+      <c r="W33" s="533"/>
+      <c r="X33" s="533"/>
       <c r="AN33" s="111"/>
     </row>
     <row r="34" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="525"/>
-      <c r="H34" s="525"/>
-      <c r="I34" s="525"/>
-      <c r="J34" s="525"/>
-      <c r="K34" s="525"/>
-      <c r="L34" s="525"/>
-      <c r="M34" s="525"/>
-      <c r="N34" s="525"/>
-      <c r="O34" s="525"/>
-      <c r="P34" s="525"/>
-      <c r="Q34" s="525"/>
-      <c r="R34" s="525"/>
-      <c r="S34" s="525"/>
-      <c r="T34" s="525"/>
-      <c r="U34" s="525"/>
-      <c r="V34" s="525"/>
-      <c r="W34" s="525"/>
-      <c r="X34" s="525"/>
+      <c r="G34" s="533"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="533"/>
+      <c r="J34" s="533"/>
+      <c r="K34" s="533"/>
+      <c r="L34" s="533"/>
+      <c r="M34" s="533"/>
+      <c r="N34" s="533"/>
+      <c r="O34" s="533"/>
+      <c r="P34" s="533"/>
+      <c r="Q34" s="533"/>
+      <c r="R34" s="533"/>
+      <c r="S34" s="533"/>
+      <c r="T34" s="533"/>
+      <c r="U34" s="533"/>
+      <c r="V34" s="533"/>
+      <c r="W34" s="533"/>
+      <c r="X34" s="533"/>
       <c r="AN34" s="111"/>
     </row>
     <row r="35" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="525"/>
-      <c r="H35" s="525"/>
-      <c r="I35" s="525"/>
-      <c r="J35" s="525"/>
-      <c r="K35" s="525"/>
-      <c r="L35" s="525"/>
-      <c r="M35" s="525"/>
-      <c r="N35" s="525"/>
-      <c r="O35" s="525"/>
-      <c r="P35" s="525"/>
-      <c r="Q35" s="525"/>
-      <c r="R35" s="525"/>
-      <c r="S35" s="525"/>
-      <c r="T35" s="525"/>
-      <c r="U35" s="525"/>
-      <c r="V35" s="525"/>
-      <c r="W35" s="525"/>
-      <c r="X35" s="525"/>
+      <c r="G35" s="533"/>
+      <c r="H35" s="533"/>
+      <c r="I35" s="533"/>
+      <c r="J35" s="533"/>
+      <c r="K35" s="533"/>
+      <c r="L35" s="533"/>
+      <c r="M35" s="533"/>
+      <c r="N35" s="533"/>
+      <c r="O35" s="533"/>
+      <c r="P35" s="533"/>
+      <c r="Q35" s="533"/>
+      <c r="R35" s="533"/>
+      <c r="S35" s="533"/>
+      <c r="T35" s="533"/>
+      <c r="U35" s="533"/>
+      <c r="V35" s="533"/>
+      <c r="W35" s="533"/>
+      <c r="X35" s="533"/>
       <c r="AN35" s="111"/>
     </row>
     <row r="36" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="525"/>
-      <c r="H36" s="525"/>
-      <c r="I36" s="525"/>
-      <c r="J36" s="525"/>
-      <c r="K36" s="525"/>
-      <c r="L36" s="525"/>
-      <c r="M36" s="525"/>
-      <c r="N36" s="525"/>
-      <c r="O36" s="525"/>
-      <c r="P36" s="525"/>
-      <c r="Q36" s="525"/>
-      <c r="R36" s="525"/>
-      <c r="S36" s="525"/>
-      <c r="T36" s="525"/>
-      <c r="U36" s="525"/>
-      <c r="V36" s="525"/>
-      <c r="W36" s="525"/>
-      <c r="X36" s="525"/>
+      <c r="G36" s="533"/>
+      <c r="H36" s="533"/>
+      <c r="I36" s="533"/>
+      <c r="J36" s="533"/>
+      <c r="K36" s="533"/>
+      <c r="L36" s="533"/>
+      <c r="M36" s="533"/>
+      <c r="N36" s="533"/>
+      <c r="O36" s="533"/>
+      <c r="P36" s="533"/>
+      <c r="Q36" s="533"/>
+      <c r="R36" s="533"/>
+      <c r="S36" s="533"/>
+      <c r="T36" s="533"/>
+      <c r="U36" s="533"/>
+      <c r="V36" s="533"/>
+      <c r="W36" s="533"/>
+      <c r="X36" s="533"/>
       <c r="AN36" s="111"/>
     </row>
     <row r="37" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="525"/>
-      <c r="H37" s="525"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="525"/>
-      <c r="K37" s="525"/>
-      <c r="L37" s="525"/>
-      <c r="M37" s="525"/>
-      <c r="N37" s="525"/>
-      <c r="O37" s="525"/>
-      <c r="P37" s="525"/>
-      <c r="Q37" s="525"/>
-      <c r="R37" s="525"/>
-      <c r="S37" s="525"/>
-      <c r="T37" s="525"/>
-      <c r="U37" s="525"/>
-      <c r="V37" s="525"/>
-      <c r="W37" s="525"/>
-      <c r="X37" s="525"/>
+      <c r="G37" s="533"/>
+      <c r="H37" s="533"/>
+      <c r="I37" s="533"/>
+      <c r="J37" s="533"/>
+      <c r="K37" s="533"/>
+      <c r="L37" s="533"/>
+      <c r="M37" s="533"/>
+      <c r="N37" s="533"/>
+      <c r="O37" s="533"/>
+      <c r="P37" s="533"/>
+      <c r="Q37" s="533"/>
+      <c r="R37" s="533"/>
+      <c r="S37" s="533"/>
+      <c r="T37" s="533"/>
+      <c r="U37" s="533"/>
+      <c r="V37" s="533"/>
+      <c r="W37" s="533"/>
+      <c r="X37" s="533"/>
       <c r="AN37" s="111"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="G38" s="525"/>
-      <c r="H38" s="525"/>
-      <c r="I38" s="525"/>
-      <c r="J38" s="525"/>
-      <c r="K38" s="525"/>
-      <c r="L38" s="525"/>
-      <c r="M38" s="525"/>
-      <c r="N38" s="525"/>
-      <c r="O38" s="525"/>
-      <c r="P38" s="525"/>
-      <c r="Q38" s="525"/>
-      <c r="R38" s="525"/>
-      <c r="S38" s="525"/>
-      <c r="T38" s="525"/>
-      <c r="U38" s="525"/>
-      <c r="V38" s="525"/>
-      <c r="W38" s="525"/>
-      <c r="X38" s="525"/>
+      <c r="G38" s="533"/>
+      <c r="H38" s="533"/>
+      <c r="I38" s="533"/>
+      <c r="J38" s="533"/>
+      <c r="K38" s="533"/>
+      <c r="L38" s="533"/>
+      <c r="M38" s="533"/>
+      <c r="N38" s="533"/>
+      <c r="O38" s="533"/>
+      <c r="P38" s="533"/>
+      <c r="Q38" s="533"/>
+      <c r="R38" s="533"/>
+      <c r="S38" s="533"/>
+      <c r="T38" s="533"/>
+      <c r="U38" s="533"/>
+      <c r="V38" s="533"/>
+      <c r="W38" s="533"/>
+      <c r="X38" s="533"/>
       <c r="AN38" s="76"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12244,13 +12239,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12265,6 +12253,13 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -13128,29 +13123,29 @@
       <c r="C1" s="372"/>
       <c r="D1" s="372"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="553" t="s">
+      <c r="F1" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
+      <c r="J1" s="546"/>
     </row>
     <row r="2" spans="1:14" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="554" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="554"/>
-      <c r="C2" s="554"/>
-      <c r="D2" s="554"/>
+      <c r="A2" s="547" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
       <c r="E2" s="124"/>
-      <c r="F2" s="555" t="s">
+      <c r="F2" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
     </row>
     <row r="3" spans="1:14" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="126"/>
@@ -13192,11 +13187,11 @@
       <c r="K5" s="549"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="546" t="s">
+      <c r="I6" s="550" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="546"/>
-      <c r="K6" s="546"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="550"/>
     </row>
     <row r="7" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="373" t="s">
@@ -13249,16 +13244,16 @@
         <v>70</v>
       </c>
       <c r="I8" s="381" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J8" s="379"/>
       <c r="K8" s="382"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="547" t="s">
+      <c r="A9" s="551" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="548"/>
+      <c r="B9" s="552"/>
       <c r="C9" s="379"/>
       <c r="D9" s="379"/>
       <c r="E9" s="380"/>
@@ -13372,11 +13367,11 @@
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="550" t="s">
+      <c r="A13" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="551"/>
-      <c r="C13" s="552"/>
+      <c r="B13" s="554"/>
+      <c r="C13" s="555"/>
       <c r="D13" s="391">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13439,16 +13434,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.62" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2705,16 +2705,115 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2735,107 +2834,38 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2861,39 +2891,9 @@
     <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,93 +2903,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3053,33 +3053,24 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3116,6 +3107,36 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3123,27 +3144,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3459,9 +3459,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,7 +3577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="240">
         <v>44075</v>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="G8" s="243"/>
       <c r="H8" s="244"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="240">
         <v>44075</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H11" s="244"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="240">
         <v>44075</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>1289000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="240">
         <v>44075</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="240">
         <v>44077</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H22" s="244"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="240">
         <v>44077</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>6960000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="240">
         <v>44077</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="H27" s="244"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="240">
         <v>44080</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="G45" s="243"/>
       <c r="H45" s="244"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="240">
         <v>44085</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="240">
         <v>44089</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="G55" s="243"/>
       <c r="H55" s="244"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="240">
         <v>44089</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>105001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="240">
         <v>44091</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="G59" s="243"/>
       <c r="H59" s="244"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="240">
         <v>44091</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>1010360</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="240">
         <v>44091</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>726000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="240">
         <v>44092</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="240">
         <v>44094</v>
       </c>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="H69" s="244"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="240">
         <v>44095</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="G70" s="243"/>
       <c r="H70" s="244"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="240">
         <v>44096</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="240">
         <v>44097</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="G73" s="243"/>
       <c r="H73" s="244"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="240">
         <v>44097</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="G74" s="243"/>
       <c r="H74" s="244"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="240">
         <v>44097</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="G75" s="243"/>
       <c r="H75" s="244"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="240">
         <v>44097</v>
       </c>
@@ -5116,7 +5116,7 @@
   <autoFilter ref="A6:H82">
     <filterColumn colId="2">
       <filters>
-        <filter val="Hàng Hóa"/>
+        <filter val="Lương, thưởng"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
@@ -5169,13 +5169,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="428" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
       <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5189,156 +5189,156 @@
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="431" t="s">
+      <c r="A3" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="431"/>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="431"/>
-      <c r="J3" s="431"/>
-      <c r="K3" s="431"/>
-      <c r="L3" s="431"/>
-      <c r="M3" s="431"/>
-      <c r="N3" s="431"/>
-      <c r="O3" s="431"/>
-      <c r="P3" s="431"/>
+      <c r="B3" s="429"/>
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
+      <c r="G3" s="429"/>
+      <c r="H3" s="429"/>
+      <c r="I3" s="429"/>
+      <c r="J3" s="429"/>
+      <c r="K3" s="429"/>
+      <c r="L3" s="429"/>
+      <c r="M3" s="429"/>
+      <c r="N3" s="429"/>
+      <c r="O3" s="429"/>
+      <c r="P3" s="429"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="431" t="s">
+      <c r="A4" s="429" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="431"/>
-      <c r="C4" s="431"/>
-      <c r="D4" s="431"/>
-      <c r="E4" s="431"/>
-      <c r="F4" s="431"/>
-      <c r="G4" s="431"/>
-      <c r="H4" s="431"/>
-      <c r="I4" s="431"/>
-      <c r="J4" s="431"/>
-      <c r="K4" s="431"/>
-      <c r="L4" s="431"/>
-      <c r="M4" s="431"/>
-      <c r="N4" s="431"/>
-      <c r="O4" s="431"/>
-      <c r="P4" s="431"/>
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="429"/>
+      <c r="K4" s="429"/>
+      <c r="L4" s="429"/>
+      <c r="M4" s="429"/>
+      <c r="N4" s="429"/>
+      <c r="O4" s="429"/>
+      <c r="P4" s="429"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="431"/>
-      <c r="B5" s="431"/>
-      <c r="C5" s="431"/>
-      <c r="D5" s="431"/>
-      <c r="E5" s="431"/>
-      <c r="F5" s="431"/>
-      <c r="G5" s="431"/>
-      <c r="H5" s="431"/>
-      <c r="I5" s="431"/>
-      <c r="J5" s="431"/>
-      <c r="K5" s="432"/>
-      <c r="L5" s="432"/>
+      <c r="A5" s="429"/>
+      <c r="B5" s="429"/>
+      <c r="C5" s="429"/>
+      <c r="D5" s="429"/>
+      <c r="E5" s="429"/>
+      <c r="F5" s="429"/>
+      <c r="G5" s="429"/>
+      <c r="H5" s="429"/>
+      <c r="I5" s="429"/>
+      <c r="J5" s="429"/>
+      <c r="K5" s="430"/>
+      <c r="L5" s="430"/>
     </row>
     <row r="6" spans="1:17" s="144" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="433" t="s">
+      <c r="A6" s="423" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="431" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="433" t="s">
+      <c r="C6" s="423" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="439" t="s">
+      <c r="D6" s="433" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="439"/>
-      <c r="F6" s="440" t="s">
+      <c r="E6" s="433"/>
+      <c r="F6" s="434" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="440"/>
-      <c r="H6" s="440"/>
-      <c r="I6" s="440"/>
-      <c r="J6" s="440"/>
-      <c r="K6" s="440"/>
-      <c r="L6" s="440"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="441"/>
-      <c r="O6" s="441"/>
-      <c r="P6" s="442" t="s">
+      <c r="G6" s="434"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="434"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="434"/>
+      <c r="L6" s="434"/>
+      <c r="M6" s="435"/>
+      <c r="N6" s="435"/>
+      <c r="O6" s="435"/>
+      <c r="P6" s="436" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="144" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="434"/>
-      <c r="B7" s="436"/>
-      <c r="C7" s="434"/>
-      <c r="D7" s="433" t="s">
+      <c r="A7" s="424"/>
+      <c r="B7" s="432"/>
+      <c r="C7" s="424"/>
+      <c r="D7" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="433" t="s">
+      <c r="E7" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="433" t="s">
+      <c r="F7" s="423" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="433" t="s">
+      <c r="G7" s="423" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="437" t="s">
+      <c r="H7" s="421" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="437" t="s">
+      <c r="I7" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="444" t="s">
+      <c r="J7" s="425" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="444"/>
-      <c r="L7" s="437" t="s">
+      <c r="K7" s="425"/>
+      <c r="L7" s="421" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="437" t="s">
+      <c r="M7" s="421" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="437" t="s">
+      <c r="N7" s="421" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="437" t="s">
+      <c r="O7" s="421" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="443"/>
+      <c r="P7" s="437"/>
     </row>
     <row r="8" spans="1:17" s="144" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="434"/>
-      <c r="B8" s="436"/>
-      <c r="C8" s="434"/>
-      <c r="D8" s="434"/>
-      <c r="E8" s="434"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="434"/>
-      <c r="H8" s="438"/>
-      <c r="I8" s="438"/>
+      <c r="A8" s="424"/>
+      <c r="B8" s="432"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="424"/>
+      <c r="E8" s="424"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="424"/>
+      <c r="H8" s="422"/>
+      <c r="I8" s="422"/>
       <c r="J8" s="179" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="438"/>
-      <c r="M8" s="438"/>
-      <c r="N8" s="438"/>
-      <c r="O8" s="438"/>
-      <c r="P8" s="443"/>
+      <c r="L8" s="422"/>
+      <c r="M8" s="422"/>
+      <c r="N8" s="422"/>
+      <c r="O8" s="422"/>
+      <c r="P8" s="437"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="419">
+      <c r="A9" s="444">
         <v>785</v>
       </c>
-      <c r="B9" s="422">
+      <c r="B9" s="442">
         <v>44077</v>
       </c>
       <c r="C9" s="407"/>
@@ -5380,11 +5380,11 @@
       <c r="P9" s="217"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="423"/>
-      <c r="C10" s="409"/>
-      <c r="D10" s="409"/>
-      <c r="E10" s="409"/>
+      <c r="A10" s="445"/>
+      <c r="B10" s="443"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="417"/>
       <c r="F10" s="219" t="s">
         <v>127</v>
       </c>
@@ -5531,11 +5531,11 @@
       <c r="P13" s="218"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="409"/>
-      <c r="B14" s="412"/>
-      <c r="C14" s="409"/>
-      <c r="D14" s="409"/>
-      <c r="E14" s="409"/>
+      <c r="A14" s="417"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="417"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="417"/>
       <c r="F14" s="219" t="s">
         <v>124</v>
       </c>
@@ -5708,10 +5708,10 @@
       <c r="C18" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="445" t="s">
+      <c r="D18" s="413" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="445" t="s">
+      <c r="E18" s="413" t="s">
         <v>148</v>
       </c>
       <c r="F18" s="329" t="s">
@@ -5744,11 +5744,11 @@
       <c r="P18" s="336"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="409"/>
-      <c r="B19" s="412"/>
-      <c r="C19" s="409"/>
-      <c r="D19" s="447"/>
-      <c r="E19" s="447"/>
+      <c r="A19" s="417"/>
+      <c r="B19" s="418"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="416"/>
+      <c r="E19" s="416"/>
       <c r="F19" s="330" t="s">
         <v>125</v>
       </c>
@@ -5786,10 +5786,10 @@
         <v>44088</v>
       </c>
       <c r="C20" s="407"/>
-      <c r="D20" s="445" t="s">
+      <c r="D20" s="413" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="448"/>
+      <c r="E20" s="419"/>
       <c r="F20" s="314" t="s">
         <v>125</v>
       </c>
@@ -5820,11 +5820,11 @@
       <c r="P20" s="316"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="409"/>
-      <c r="B21" s="412"/>
-      <c r="C21" s="409"/>
-      <c r="D21" s="447"/>
-      <c r="E21" s="449"/>
+      <c r="A21" s="417"/>
+      <c r="B21" s="418"/>
+      <c r="C21" s="417"/>
+      <c r="D21" s="416"/>
+      <c r="E21" s="420"/>
       <c r="F21" s="315" t="s">
         <v>126</v>
       </c>
@@ -5909,10 +5909,10 @@
       <c r="C23" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="445" t="s">
+      <c r="D23" s="413" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="445"/>
+      <c r="E23" s="413"/>
       <c r="F23" s="329" t="s">
         <v>125</v>
       </c>
@@ -5946,8 +5946,8 @@
       <c r="A24" s="408"/>
       <c r="B24" s="411"/>
       <c r="C24" s="408"/>
-      <c r="D24" s="446"/>
-      <c r="E24" s="446"/>
+      <c r="D24" s="414"/>
+      <c r="E24" s="414"/>
       <c r="F24" s="333" t="s">
         <v>126</v>
       </c>
@@ -5981,8 +5981,8 @@
       <c r="A25" s="408"/>
       <c r="B25" s="411"/>
       <c r="C25" s="408"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="446"/>
+      <c r="D25" s="414"/>
+      <c r="E25" s="414"/>
       <c r="F25" s="333" t="s">
         <v>133</v>
       </c>
@@ -6014,11 +6014,11 @@
       <c r="R25" s="184"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="409"/>
-      <c r="B26" s="412"/>
-      <c r="C26" s="409"/>
-      <c r="D26" s="447"/>
-      <c r="E26" s="447"/>
+      <c r="A26" s="417"/>
+      <c r="B26" s="418"/>
+      <c r="C26" s="417"/>
+      <c r="D26" s="416"/>
+      <c r="E26" s="416"/>
       <c r="F26" s="330" t="s">
         <v>124</v>
       </c>
@@ -6097,10 +6097,10 @@
         <v>44090</v>
       </c>
       <c r="C28" s="407"/>
-      <c r="D28" s="445" t="s">
+      <c r="D28" s="413" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="445"/>
+      <c r="E28" s="413"/>
       <c r="F28" s="329" t="s">
         <v>125</v>
       </c>
@@ -6134,8 +6134,8 @@
       <c r="A29" s="408"/>
       <c r="B29" s="411"/>
       <c r="C29" s="408"/>
-      <c r="D29" s="446"/>
-      <c r="E29" s="446"/>
+      <c r="D29" s="414"/>
+      <c r="E29" s="414"/>
       <c r="F29" s="333" t="s">
         <v>126</v>
       </c>
@@ -6166,11 +6166,11 @@
       <c r="P29" s="333"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="409"/>
-      <c r="B30" s="412"/>
-      <c r="C30" s="409"/>
-      <c r="D30" s="447"/>
-      <c r="E30" s="447"/>
+      <c r="A30" s="417"/>
+      <c r="B30" s="418"/>
+      <c r="C30" s="417"/>
+      <c r="D30" s="416"/>
+      <c r="E30" s="416"/>
       <c r="F30" s="330" t="s">
         <v>124</v>
       </c>
@@ -6422,11 +6422,11 @@
       <c r="P35" s="329"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="409"/>
-      <c r="B36" s="412"/>
-      <c r="C36" s="409"/>
-      <c r="D36" s="409"/>
-      <c r="E36" s="409"/>
+      <c r="A36" s="417"/>
+      <c r="B36" s="418"/>
+      <c r="C36" s="417"/>
+      <c r="D36" s="417"/>
+      <c r="E36" s="417"/>
       <c r="F36" s="330" t="s">
         <v>126</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="C41" s="407" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="445" t="s">
+      <c r="D41" s="413" t="s">
         <v>216</v>
       </c>
       <c r="E41" s="407"/>
@@ -6667,7 +6667,7 @@
       <c r="A42" s="408"/>
       <c r="B42" s="411"/>
       <c r="C42" s="408"/>
-      <c r="D42" s="446"/>
+      <c r="D42" s="414"/>
       <c r="E42" s="408"/>
       <c r="F42" s="333" t="s">
         <v>125</v>
@@ -6700,7 +6700,7 @@
       <c r="A43" s="408"/>
       <c r="B43" s="411"/>
       <c r="C43" s="408"/>
-      <c r="D43" s="446"/>
+      <c r="D43" s="414"/>
       <c r="E43" s="408"/>
       <c r="F43" s="333" t="s">
         <v>126</v>
@@ -6733,7 +6733,7 @@
       <c r="A44" s="408"/>
       <c r="B44" s="411"/>
       <c r="C44" s="408"/>
-      <c r="D44" s="446"/>
+      <c r="D44" s="414"/>
       <c r="E44" s="408"/>
       <c r="F44" s="333" t="s">
         <v>204</v>
@@ -6766,7 +6766,7 @@
       <c r="A45" s="408"/>
       <c r="B45" s="411"/>
       <c r="C45" s="408"/>
-      <c r="D45" s="446"/>
+      <c r="D45" s="414"/>
       <c r="E45" s="408"/>
       <c r="F45" s="333" t="s">
         <v>124</v>
@@ -6799,7 +6799,7 @@
       <c r="A46" s="408"/>
       <c r="B46" s="411"/>
       <c r="C46" s="408"/>
-      <c r="D46" s="446"/>
+      <c r="D46" s="414"/>
       <c r="E46" s="408"/>
       <c r="F46" s="333" t="s">
         <v>127</v>
@@ -6832,7 +6832,7 @@
       <c r="A47" s="408"/>
       <c r="B47" s="411"/>
       <c r="C47" s="408"/>
-      <c r="D47" s="446"/>
+      <c r="D47" s="414"/>
       <c r="E47" s="408"/>
       <c r="F47" s="333" t="s">
         <v>128</v>
@@ -6862,11 +6862,11 @@
       <c r="Q47" s="184"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="450"/>
-      <c r="B48" s="451"/>
-      <c r="C48" s="450"/>
-      <c r="D48" s="452"/>
-      <c r="E48" s="450"/>
+      <c r="A48" s="409"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="409"/>
+      <c r="D48" s="415"/>
+      <c r="E48" s="409"/>
       <c r="F48" s="335" t="s">
         <v>213</v>
       </c>
@@ -6989,11 +6989,11 @@
       <c r="B51" s="410">
         <v>44102</v>
       </c>
-      <c r="C51" s="413"/>
-      <c r="D51" s="416" t="s">
+      <c r="C51" s="446"/>
+      <c r="D51" s="449" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="419" t="s">
+      <c r="E51" s="444" t="s">
         <v>223</v>
       </c>
       <c r="F51" s="341" t="s">
@@ -7029,9 +7029,9 @@
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="408"/>
       <c r="B52" s="411"/>
-      <c r="C52" s="414"/>
-      <c r="D52" s="417"/>
-      <c r="E52" s="420"/>
+      <c r="C52" s="447"/>
+      <c r="D52" s="450"/>
+      <c r="E52" s="445"/>
       <c r="F52" s="343" t="s">
         <v>204</v>
       </c>
@@ -7065,9 +7065,9 @@
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="408"/>
       <c r="B53" s="411"/>
-      <c r="C53" s="414"/>
-      <c r="D53" s="417"/>
-      <c r="E53" s="420"/>
+      <c r="C53" s="447"/>
+      <c r="D53" s="450"/>
+      <c r="E53" s="445"/>
       <c r="F53" s="343" t="s">
         <v>124</v>
       </c>
@@ -7101,9 +7101,9 @@
     <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="408"/>
       <c r="B54" s="411"/>
-      <c r="C54" s="414"/>
-      <c r="D54" s="417"/>
-      <c r="E54" s="420"/>
+      <c r="C54" s="447"/>
+      <c r="D54" s="450"/>
+      <c r="E54" s="445"/>
       <c r="F54" s="343" t="s">
         <v>127</v>
       </c>
@@ -7135,11 +7135,11 @@
       <c r="Q54" s="184"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="409"/>
-      <c r="B55" s="412"/>
-      <c r="C55" s="415"/>
-      <c r="D55" s="418"/>
-      <c r="E55" s="421"/>
+      <c r="A55" s="417"/>
+      <c r="B55" s="418"/>
+      <c r="C55" s="448"/>
+      <c r="D55" s="451"/>
+      <c r="E55" s="452"/>
       <c r="F55" s="342" t="s">
         <v>128</v>
       </c>
@@ -7217,14 +7217,14 @@
       <c r="Q56" s="184"/>
     </row>
     <row r="57" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="425" t="s">
+      <c r="A57" s="438" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="426"/>
-      <c r="C57" s="426"/>
-      <c r="D57" s="426"/>
-      <c r="E57" s="426"/>
-      <c r="F57" s="427"/>
+      <c r="B57" s="439"/>
+      <c r="C57" s="439"/>
+      <c r="D57" s="439"/>
+      <c r="E57" s="439"/>
+      <c r="F57" s="440"/>
       <c r="G57" s="158">
         <f>SUM(G13:G56)</f>
         <v>466</v>
@@ -7243,18 +7243,18 @@
       <c r="M57" s="164"/>
       <c r="N57" s="164"/>
       <c r="O57" s="164"/>
-      <c r="P57" s="428"/>
-      <c r="Q57" s="429"/>
+      <c r="P57" s="441"/>
+      <c r="Q57" s="426"/>
     </row>
     <row r="58" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="424" t="s">
+      <c r="A58" s="427" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="424"/>
-      <c r="C58" s="424"/>
-      <c r="D58" s="424"/>
-      <c r="E58" s="424"/>
-      <c r="F58" s="424"/>
+      <c r="B58" s="427"/>
+      <c r="C58" s="427"/>
+      <c r="D58" s="427"/>
+      <c r="E58" s="427"/>
+      <c r="F58" s="427"/>
       <c r="G58" s="146">
         <f>G57</f>
         <v>466</v>
@@ -7270,18 +7270,18 @@
       <c r="M58" s="149"/>
       <c r="N58" s="149"/>
       <c r="O58" s="149"/>
-      <c r="P58" s="428"/>
-      <c r="Q58" s="429"/>
+      <c r="P58" s="441"/>
+      <c r="Q58" s="426"/>
     </row>
     <row r="59" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="424" t="s">
+      <c r="A59" s="427" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="424"/>
-      <c r="C59" s="424"/>
-      <c r="D59" s="424"/>
-      <c r="E59" s="424"/>
-      <c r="F59" s="424"/>
+      <c r="B59" s="427"/>
+      <c r="C59" s="427"/>
+      <c r="D59" s="427"/>
+      <c r="E59" s="427"/>
+      <c r="F59" s="427"/>
       <c r="G59" s="153" t="s">
         <v>49</v>
       </c>
@@ -7298,14 +7298,14 @@
       <c r="O59" s="149"/>
     </row>
     <row r="60" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="424" t="s">
+      <c r="A60" s="427" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="424"/>
-      <c r="C60" s="424"/>
-      <c r="D60" s="424"/>
-      <c r="E60" s="424"/>
-      <c r="F60" s="424"/>
+      <c r="B60" s="427"/>
+      <c r="C60" s="427"/>
+      <c r="D60" s="427"/>
+      <c r="E60" s="427"/>
+      <c r="F60" s="427"/>
       <c r="G60" s="153"/>
       <c r="H60" s="156"/>
       <c r="I60" s="147"/>
@@ -7320,14 +7320,14 @@
       <c r="O60" s="149"/>
     </row>
     <row r="61" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A61" s="424" t="s">
+      <c r="A61" s="427" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="424"/>
-      <c r="C61" s="424"/>
-      <c r="D61" s="424"/>
-      <c r="E61" s="424"/>
-      <c r="F61" s="424"/>
+      <c r="B61" s="427"/>
+      <c r="C61" s="427"/>
+      <c r="D61" s="427"/>
+      <c r="E61" s="427"/>
+      <c r="F61" s="427"/>
       <c r="G61" s="153"/>
       <c r="H61" s="156"/>
       <c r="I61" s="147"/>
@@ -7403,44 +7403,26 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="74">
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A59:F59"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A1:E1"/>
@@ -7457,26 +7439,44 @@
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:P8"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="D41:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7509,93 +7509,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="453" t="s">
+      <c r="A1" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="453"/>
-      <c r="C1" s="453"/>
-      <c r="D1" s="453"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="464" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
+      <c r="B2" s="464"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="464"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="455" t="s">
+      <c r="A3" s="465" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
-      <c r="F3" s="455"/>
-      <c r="G3" s="455"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="455"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="455"/>
-      <c r="M3" s="455"/>
-      <c r="N3" s="455"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
+      <c r="J3" s="465"/>
+      <c r="K3" s="465"/>
+      <c r="L3" s="465"/>
+      <c r="M3" s="465"/>
+      <c r="N3" s="465"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="466" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="456"/>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456"/>
-      <c r="H4" s="456"/>
-      <c r="I4" s="457"/>
-      <c r="J4" s="456"/>
-      <c r="K4" s="456"/>
-      <c r="L4" s="456"/>
-      <c r="M4" s="456"/>
-      <c r="N4" s="456"/>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="466"/>
+      <c r="F4" s="466"/>
+      <c r="G4" s="466"/>
+      <c r="H4" s="466"/>
+      <c r="I4" s="467"/>
+      <c r="J4" s="466"/>
+      <c r="K4" s="466"/>
+      <c r="L4" s="466"/>
+      <c r="M4" s="466"/>
+      <c r="N4" s="466"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458" t="s">
+      <c r="A5" s="468" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="470" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="459" t="s">
+      <c r="C5" s="469" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="461" t="s">
+      <c r="E5" s="462" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463" t="s">
+      <c r="F5" s="462"/>
+      <c r="G5" s="462"/>
+      <c r="H5" s="462"/>
+      <c r="I5" s="471"/>
+      <c r="J5" s="461" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="461" t="s">
+      <c r="K5" s="462" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="459" t="s">
+      <c r="L5" s="462"/>
+      <c r="M5" s="462"/>
+      <c r="N5" s="469" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="458"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="459"/>
+      <c r="A6" s="468"/>
+      <c r="B6" s="470"/>
+      <c r="C6" s="469"/>
       <c r="D6" s="267" t="s">
         <v>41</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="I6" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="463"/>
+      <c r="J6" s="461"/>
       <c r="K6" s="267" t="s">
         <v>45</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="M6" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="459"/>
+      <c r="N6" s="469"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="174">
@@ -7674,8 +7674,8 @@
       <c r="B8" s="410">
         <v>44088</v>
       </c>
-      <c r="C8" s="413"/>
-      <c r="D8" s="416" t="s">
+      <c r="C8" s="446"/>
+      <c r="D8" s="449" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="341" t="s">
@@ -7708,10 +7708,10 @@
       <c r="Q8" s="184"/>
     </row>
     <row r="9" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="409"/>
-      <c r="B9" s="412"/>
-      <c r="C9" s="415"/>
-      <c r="D9" s="418"/>
+      <c r="A9" s="417"/>
+      <c r="B9" s="418"/>
+      <c r="C9" s="448"/>
+      <c r="D9" s="451"/>
       <c r="E9" s="342" t="s">
         <v>204</v>
       </c>
@@ -7822,14 +7822,14 @@
       <c r="Q11" s="184"/>
     </row>
     <row r="12" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="419">
+      <c r="A12" s="444">
         <v>803</v>
       </c>
-      <c r="B12" s="422">
+      <c r="B12" s="442">
         <v>44095</v>
       </c>
-      <c r="C12" s="466"/>
-      <c r="D12" s="469" t="s">
+      <c r="C12" s="455"/>
+      <c r="D12" s="458" t="s">
         <v>220</v>
       </c>
       <c r="E12" s="338" t="s">
@@ -7862,10 +7862,10 @@
       <c r="Q12" s="184"/>
     </row>
     <row r="13" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="420"/>
-      <c r="B13" s="423"/>
-      <c r="C13" s="467"/>
-      <c r="D13" s="470"/>
+      <c r="A13" s="445"/>
+      <c r="B13" s="443"/>
+      <c r="C13" s="456"/>
+      <c r="D13" s="459"/>
       <c r="E13" s="338" t="s">
         <v>204</v>
       </c>
@@ -7896,10 +7896,10 @@
       <c r="Q13" s="184"/>
     </row>
     <row r="14" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="420"/>
-      <c r="B14" s="423"/>
-      <c r="C14" s="467"/>
-      <c r="D14" s="470"/>
+      <c r="A14" s="445"/>
+      <c r="B14" s="443"/>
+      <c r="C14" s="456"/>
+      <c r="D14" s="459"/>
       <c r="E14" s="338" t="s">
         <v>124</v>
       </c>
@@ -7930,10 +7930,10 @@
       <c r="Q14" s="184"/>
     </row>
     <row r="15" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="420"/>
-      <c r="B15" s="423"/>
-      <c r="C15" s="467"/>
-      <c r="D15" s="470"/>
+      <c r="A15" s="445"/>
+      <c r="B15" s="443"/>
+      <c r="C15" s="456"/>
+      <c r="D15" s="459"/>
       <c r="E15" s="338" t="s">
         <v>127</v>
       </c>
@@ -7964,10 +7964,10 @@
       <c r="Q15" s="184"/>
     </row>
     <row r="16" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="421"/>
-      <c r="B16" s="465"/>
-      <c r="C16" s="468"/>
-      <c r="D16" s="471"/>
+      <c r="A16" s="452"/>
+      <c r="B16" s="454"/>
+      <c r="C16" s="457"/>
+      <c r="D16" s="460"/>
       <c r="E16" s="338" t="s">
         <v>128</v>
       </c>
@@ -8004,8 +8004,8 @@
       <c r="B17" s="410">
         <v>44096</v>
       </c>
-      <c r="C17" s="413"/>
-      <c r="D17" s="416" t="s">
+      <c r="C17" s="446"/>
+      <c r="D17" s="449" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="341" t="s">
@@ -8040,8 +8040,8 @@
     <row r="18" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="408"/>
       <c r="B18" s="411"/>
-      <c r="C18" s="414"/>
-      <c r="D18" s="417"/>
+      <c r="C18" s="447"/>
+      <c r="D18" s="450"/>
       <c r="E18" s="343" t="s">
         <v>125</v>
       </c>
@@ -8074,8 +8074,8 @@
     <row r="19" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="408"/>
       <c r="B19" s="411"/>
-      <c r="C19" s="414"/>
-      <c r="D19" s="417"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="450"/>
       <c r="E19" s="343" t="s">
         <v>126</v>
       </c>
@@ -8108,8 +8108,8 @@
     <row r="20" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="408"/>
       <c r="B20" s="411"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="417"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="450"/>
       <c r="E20" s="343" t="s">
         <v>204</v>
       </c>
@@ -8142,8 +8142,8 @@
     <row r="21" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="408"/>
       <c r="B21" s="411"/>
-      <c r="C21" s="414"/>
-      <c r="D21" s="417"/>
+      <c r="C21" s="447"/>
+      <c r="D21" s="450"/>
       <c r="E21" s="343" t="s">
         <v>124</v>
       </c>
@@ -8176,8 +8176,8 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="408"/>
       <c r="B22" s="411"/>
-      <c r="C22" s="414"/>
-      <c r="D22" s="417"/>
+      <c r="C22" s="447"/>
+      <c r="D22" s="450"/>
       <c r="E22" s="343" t="s">
         <v>127</v>
       </c>
@@ -8209,8 +8209,8 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="408"/>
       <c r="B23" s="411"/>
-      <c r="C23" s="414"/>
-      <c r="D23" s="417"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="450"/>
       <c r="E23" s="343" t="s">
         <v>128</v>
       </c>
@@ -8240,10 +8240,10 @@
       <c r="N23" s="203"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="409"/>
-      <c r="B24" s="412"/>
-      <c r="C24" s="415"/>
-      <c r="D24" s="418"/>
+      <c r="A24" s="417"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="448"/>
+      <c r="D24" s="451"/>
       <c r="E24" s="342" t="s">
         <v>213</v>
       </c>
@@ -8451,10 +8451,10 @@
       <c r="N32" s="203"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="409"/>
-      <c r="B33" s="412"/>
-      <c r="C33" s="409"/>
-      <c r="D33" s="409"/>
+      <c r="A33" s="417"/>
+      <c r="B33" s="418"/>
+      <c r="C33" s="417"/>
+      <c r="D33" s="417"/>
       <c r="E33" s="176"/>
       <c r="F33" s="176"/>
       <c r="G33" s="279"/>
@@ -8515,10 +8515,10 @@
       <c r="N36" s="203"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="409"/>
-      <c r="B37" s="412"/>
-      <c r="C37" s="409"/>
-      <c r="D37" s="409"/>
+      <c r="A37" s="417"/>
+      <c r="B37" s="418"/>
+      <c r="C37" s="417"/>
+      <c r="D37" s="417"/>
       <c r="E37" s="176"/>
       <c r="F37" s="176"/>
       <c r="G37" s="279"/>
@@ -8611,10 +8611,10 @@
       <c r="N42" s="200"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="409"/>
-      <c r="B43" s="412"/>
-      <c r="C43" s="409"/>
-      <c r="D43" s="409"/>
+      <c r="A43" s="417"/>
+      <c r="B43" s="418"/>
+      <c r="C43" s="417"/>
+      <c r="D43" s="417"/>
       <c r="E43" s="176"/>
       <c r="F43" s="176"/>
       <c r="G43" s="279"/>
@@ -8659,12 +8659,12 @@
       <c r="N45" s="204"/>
     </row>
     <row r="46" spans="1:14" s="305" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="464" t="s">
+      <c r="A46" s="453" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="464"/>
-      <c r="C46" s="464"/>
-      <c r="D46" s="464"/>
+      <c r="B46" s="453"/>
+      <c r="C46" s="453"/>
+      <c r="D46" s="453"/>
       <c r="E46" s="301"/>
       <c r="F46" s="301">
         <f>SUM(F7:F45)</f>
@@ -8752,26 +8752,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B31:B33"/>
@@ -8788,6 +8768,26 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9333,13 +9333,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9359,101 +9359,101 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="488" t="s">
+      <c r="A3" s="479" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
-      <c r="K3" s="488"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="483" t="s">
+      <c r="B4" s="495" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="482" t="s">
+      <c r="C4" s="480" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="482" t="s">
+      <c r="D4" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="482"/>
-      <c r="F4" s="475" t="s">
+      <c r="E4" s="480"/>
+      <c r="F4" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="475"/>
-      <c r="L4" s="479" t="s">
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="488"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="492" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="480"/>
-      <c r="N4" s="481"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="494"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="482"/>
-      <c r="B5" s="483"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482" t="s">
+      <c r="A5" s="480"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="482" t="s">
+      <c r="E5" s="480" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="482" t="s">
+      <c r="F5" s="480" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="482" t="s">
+      <c r="G5" s="480" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="489" t="s">
+      <c r="H5" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="489" t="s">
+      <c r="I5" s="481" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="359"/>
-      <c r="K5" s="489" t="s">
+      <c r="K5" s="481" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="437" t="s">
+      <c r="L5" s="421" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="437" t="s">
+      <c r="M5" s="421" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="437" t="s">
+      <c r="N5" s="421" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="482"/>
-      <c r="B6" s="483"/>
-      <c r="C6" s="482"/>
-      <c r="D6" s="482"/>
-      <c r="E6" s="482"/>
-      <c r="F6" s="482"/>
-      <c r="G6" s="482"/>
-      <c r="H6" s="489"/>
-      <c r="I6" s="489"/>
+      <c r="A6" s="480"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="480"/>
+      <c r="E6" s="480"/>
+      <c r="F6" s="480"/>
+      <c r="G6" s="480"/>
+      <c r="H6" s="481"/>
+      <c r="I6" s="481"/>
       <c r="J6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="489"/>
-      <c r="L6" s="438"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="438"/>
+      <c r="K6" s="481"/>
+      <c r="L6" s="422"/>
+      <c r="M6" s="422"/>
+      <c r="N6" s="422"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="325">
@@ -9646,11 +9646,11 @@
       <c r="N11" s="180"/>
     </row>
     <row r="12" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="409"/>
-      <c r="B12" s="412"/>
-      <c r="C12" s="409"/>
-      <c r="D12" s="409"/>
-      <c r="E12" s="409"/>
+      <c r="A12" s="417"/>
+      <c r="B12" s="418"/>
+      <c r="C12" s="417"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="417"/>
       <c r="F12" s="355" t="s">
         <v>126</v>
       </c>
@@ -9676,16 +9676,16 @@
       <c r="N12" s="185"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="476" t="s">
+      <c r="A13" s="489" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="477"/>
-      <c r="C13" s="477"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="477"/>
-      <c r="F13" s="477"/>
-      <c r="G13" s="477"/>
-      <c r="H13" s="478"/>
+      <c r="B13" s="490"/>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="490"/>
+      <c r="G13" s="490"/>
+      <c r="H13" s="491"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>14675000</v>
@@ -9725,14 +9725,14 @@
       <c r="A15" s="165"/>
       <c r="B15" s="165"/>
       <c r="C15" s="165"/>
-      <c r="D15" s="490" t="s">
+      <c r="D15" s="482" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="491"/>
-      <c r="F15" s="491"/>
-      <c r="G15" s="491"/>
-      <c r="H15" s="491"/>
-      <c r="I15" s="492"/>
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="484"/>
       <c r="J15" s="361"/>
       <c r="K15" s="166"/>
     </row>
@@ -9740,14 +9740,14 @@
       <c r="A16" s="165"/>
       <c r="B16" s="165"/>
       <c r="C16" s="165"/>
-      <c r="D16" s="493" t="s">
+      <c r="D16" s="485" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="494"/>
-      <c r="F16" s="494"/>
-      <c r="G16" s="494"/>
-      <c r="H16" s="494"/>
-      <c r="I16" s="495"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
       <c r="J16" s="365">
         <v>2309530</v>
       </c>
@@ -9756,14 +9756,14 @@
       <c r="A17" s="165"/>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
-      <c r="D17" s="493" t="s">
+      <c r="D17" s="485" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="494"/>
-      <c r="F17" s="494"/>
-      <c r="G17" s="494"/>
-      <c r="H17" s="494"/>
-      <c r="I17" s="495"/>
+      <c r="E17" s="486"/>
+      <c r="F17" s="486"/>
+      <c r="G17" s="486"/>
+      <c r="H17" s="486"/>
+      <c r="I17" s="487"/>
       <c r="J17" s="365">
         <f>N13</f>
         <v>4200100.0000000009</v>
@@ -9773,14 +9773,14 @@
       <c r="A18" s="165"/>
       <c r="B18" s="165"/>
       <c r="C18" s="165"/>
-      <c r="D18" s="486" t="s">
+      <c r="D18" s="477" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="486"/>
-      <c r="F18" s="486"/>
-      <c r="G18" s="486"/>
-      <c r="H18" s="486"/>
-      <c r="I18" s="486"/>
+      <c r="E18" s="477"/>
+      <c r="F18" s="477"/>
+      <c r="G18" s="477"/>
+      <c r="H18" s="477"/>
+      <c r="I18" s="477"/>
       <c r="J18" s="365">
         <f>SUM(J16:L17)</f>
         <v>6509630.0000000009</v>
@@ -9794,10 +9794,10 @@
       <c r="E19" s="168"/>
       <c r="F19" s="168"/>
       <c r="G19" s="168"/>
-      <c r="H19" s="484" t="s">
+      <c r="H19" s="475" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="484"/>
+      <c r="I19" s="475"/>
       <c r="J19" s="365">
         <v>2500000</v>
       </c>
@@ -9810,10 +9810,10 @@
       <c r="E20" s="168"/>
       <c r="F20" s="168"/>
       <c r="G20" s="168"/>
-      <c r="H20" s="485" t="s">
+      <c r="H20" s="476" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="485"/>
+      <c r="I20" s="476"/>
       <c r="J20" s="365">
         <f>J18+J19</f>
         <v>9009630</v>
@@ -9866,6 +9866,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D18:I18"/>
@@ -9882,20 +9896,6 @@
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.2" top="0.82" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9906,7 +9906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
@@ -9928,13 +9928,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9954,92 +9954,92 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="488" t="s">
+      <c r="A3" s="479" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="488"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="483" t="s">
+      <c r="B4" s="495" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="482" t="s">
+      <c r="C4" s="480" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="482" t="s">
+      <c r="D4" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="482"/>
-      <c r="F4" s="475" t="s">
+      <c r="E4" s="480"/>
+      <c r="F4" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="475"/>
-      <c r="L4" s="475"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="488"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="488"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="482"/>
-      <c r="B5" s="483"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482" t="s">
+      <c r="A5" s="480"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="482" t="s">
+      <c r="E5" s="480" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="482" t="s">
+      <c r="F5" s="480" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="482" t="s">
+      <c r="G5" s="480" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="489" t="s">
+      <c r="H5" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="489" t="s">
+      <c r="I5" s="481" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="502" t="s">
+      <c r="J5" s="496" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="503"/>
-      <c r="L5" s="489" t="s">
+      <c r="K5" s="497"/>
+      <c r="L5" s="481" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="482"/>
-      <c r="B6" s="483"/>
-      <c r="C6" s="482"/>
-      <c r="D6" s="482"/>
-      <c r="E6" s="482"/>
-      <c r="F6" s="482"/>
-      <c r="G6" s="482"/>
-      <c r="H6" s="489"/>
-      <c r="I6" s="489"/>
+      <c r="A6" s="480"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="480"/>
+      <c r="E6" s="480"/>
+      <c r="F6" s="480"/>
+      <c r="G6" s="480"/>
+      <c r="H6" s="481"/>
+      <c r="I6" s="481"/>
       <c r="J6" s="360" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="489"/>
+      <c r="L6" s="481"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="407">
@@ -10051,10 +10051,10 @@
       <c r="C7" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="445" t="s">
+      <c r="D7" s="413" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="445"/>
+      <c r="E7" s="413"/>
       <c r="F7" s="353" t="s">
         <v>125</v>
       </c>
@@ -10079,8 +10079,8 @@
       <c r="A8" s="408"/>
       <c r="B8" s="411"/>
       <c r="C8" s="408"/>
-      <c r="D8" s="446"/>
-      <c r="E8" s="446"/>
+      <c r="D8" s="414"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="354" t="s">
         <v>126</v>
       </c>
@@ -10105,8 +10105,8 @@
       <c r="A9" s="408"/>
       <c r="B9" s="411"/>
       <c r="C9" s="408"/>
-      <c r="D9" s="446"/>
-      <c r="E9" s="446"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
       <c r="F9" s="354" t="s">
         <v>133</v>
       </c>
@@ -10129,11 +10129,11 @@
       <c r="N9" s="184"/>
     </row>
     <row r="10" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="409"/>
-      <c r="B10" s="412"/>
-      <c r="C10" s="409"/>
-      <c r="D10" s="447"/>
-      <c r="E10" s="447"/>
+      <c r="A10" s="417"/>
+      <c r="B10" s="418"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="416"/>
+      <c r="E10" s="416"/>
       <c r="F10" s="355" t="s">
         <v>124</v>
       </c>
@@ -10227,16 +10227,16 @@
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="476" t="s">
+      <c r="A13" s="489" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="477"/>
-      <c r="C13" s="477"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="477"/>
-      <c r="F13" s="477"/>
-      <c r="G13" s="477"/>
-      <c r="H13" s="478"/>
+      <c r="B13" s="490"/>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="490"/>
+      <c r="G13" s="490"/>
+      <c r="H13" s="491"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>10890000</v>
@@ -10266,130 +10266,130 @@
       <c r="A15" s="358"/>
       <c r="B15" s="358"/>
       <c r="C15" s="358"/>
-      <c r="D15" s="490" t="s">
+      <c r="D15" s="482" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="491"/>
-      <c r="F15" s="491"/>
-      <c r="G15" s="491"/>
-      <c r="H15" s="491"/>
-      <c r="I15" s="492"/>
-      <c r="J15" s="496" t="s">
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="484"/>
+      <c r="J15" s="498" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="497"/>
+      <c r="K15" s="499"/>
       <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="358"/>
       <c r="B16" s="358"/>
       <c r="C16" s="358"/>
-      <c r="D16" s="493" t="s">
+      <c r="D16" s="485" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="494"/>
-      <c r="F16" s="494"/>
-      <c r="G16" s="494"/>
-      <c r="H16" s="494"/>
-      <c r="I16" s="495"/>
-      <c r="J16" s="498">
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
+      <c r="J16" s="500">
         <v>4782500</v>
       </c>
-      <c r="K16" s="499"/>
+      <c r="K16" s="501"/>
       <c r="L16" s="166"/>
     </row>
     <row r="17" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="358"/>
       <c r="B17" s="358"/>
       <c r="C17" s="358"/>
-      <c r="D17" s="493" t="s">
+      <c r="D17" s="485" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="494"/>
-      <c r="F17" s="494"/>
-      <c r="G17" s="494"/>
-      <c r="H17" s="494"/>
-      <c r="I17" s="495"/>
-      <c r="J17" s="498">
+      <c r="E17" s="486"/>
+      <c r="F17" s="486"/>
+      <c r="G17" s="486"/>
+      <c r="H17" s="486"/>
+      <c r="I17" s="487"/>
+      <c r="J17" s="500">
         <f>L13</f>
         <v>5445000</v>
       </c>
-      <c r="K17" s="499"/>
+      <c r="K17" s="501"/>
       <c r="L17" s="166"/>
     </row>
     <row r="18" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="358"/>
       <c r="B18" s="358"/>
       <c r="C18" s="358"/>
-      <c r="D18" s="490" t="s">
+      <c r="D18" s="482" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="491"/>
-      <c r="F18" s="491"/>
-      <c r="G18" s="491"/>
-      <c r="H18" s="491"/>
-      <c r="I18" s="492"/>
-      <c r="J18" s="498">
+      <c r="E18" s="483"/>
+      <c r="F18" s="483"/>
+      <c r="G18" s="483"/>
+      <c r="H18" s="483"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="500">
         <f>J17-J16</f>
         <v>662500</v>
       </c>
-      <c r="K18" s="499"/>
+      <c r="K18" s="501"/>
       <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="358"/>
       <c r="B19" s="358"/>
       <c r="C19" s="358"/>
-      <c r="D19" s="493" t="s">
+      <c r="D19" s="485" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="494"/>
-      <c r="F19" s="494"/>
-      <c r="G19" s="494"/>
-      <c r="H19" s="494"/>
-      <c r="I19" s="495"/>
-      <c r="J19" s="498">
+      <c r="E19" s="486"/>
+      <c r="F19" s="486"/>
+      <c r="G19" s="486"/>
+      <c r="H19" s="486"/>
+      <c r="I19" s="487"/>
+      <c r="J19" s="500">
         <v>3000000</v>
       </c>
-      <c r="K19" s="499"/>
+      <c r="K19" s="501"/>
       <c r="L19" s="166"/>
     </row>
     <row r="20" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="358"/>
       <c r="B20" s="358"/>
       <c r="C20" s="358"/>
-      <c r="D20" s="493" t="s">
+      <c r="D20" s="485" t="s">
         <v>303</v>
       </c>
-      <c r="E20" s="494"/>
-      <c r="F20" s="494"/>
-      <c r="G20" s="494"/>
-      <c r="H20" s="494"/>
-      <c r="I20" s="495"/>
-      <c r="J20" s="498">
+      <c r="E20" s="486"/>
+      <c r="F20" s="486"/>
+      <c r="G20" s="486"/>
+      <c r="H20" s="486"/>
+      <c r="I20" s="487"/>
+      <c r="J20" s="500">
         <f>12%*(5000000+5000000)</f>
         <v>1200000</v>
       </c>
-      <c r="K20" s="499"/>
+      <c r="K20" s="501"/>
       <c r="L20" s="166"/>
     </row>
     <row r="21" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="358"/>
       <c r="B21" s="358"/>
       <c r="C21" s="358"/>
-      <c r="D21" s="486" t="s">
+      <c r="D21" s="477" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="486"/>
-      <c r="F21" s="486"/>
-      <c r="G21" s="486"/>
-      <c r="H21" s="486"/>
-      <c r="I21" s="486"/>
-      <c r="J21" s="500">
+      <c r="E21" s="477"/>
+      <c r="F21" s="477"/>
+      <c r="G21" s="477"/>
+      <c r="H21" s="477"/>
+      <c r="I21" s="477"/>
+      <c r="J21" s="502">
         <f>J18+J19-J20</f>
         <v>2462500</v>
       </c>
-      <c r="K21" s="501"/>
+      <c r="K21" s="503"/>
     </row>
     <row r="22" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="358"/>
@@ -10427,6 +10427,29 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A1:E1"/>
@@ -10439,29 +10462,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <pageMargins left="0.52" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10485,13 +10485,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10669,14 +10669,14 @@
       <c r="H15" s="506"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="486" t="s">
+      <c r="A16" s="477" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="486"/>
-      <c r="C16" s="486"/>
-      <c r="D16" s="486"/>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
+      <c r="B16" s="477"/>
+      <c r="C16" s="477"/>
+      <c r="D16" s="477"/>
+      <c r="E16" s="477"/>
+      <c r="F16" s="477"/>
       <c r="G16" s="504">
         <f>G7+G15</f>
         <v>11457538.461538462</v>
@@ -11260,16 +11260,16 @@
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="Z1" s="530" t="s">
+      <c r="Z1" s="543" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="531"/>
-      <c r="AB1" s="531"/>
-      <c r="AC1" s="531"/>
-      <c r="AD1" s="531"/>
-      <c r="AE1" s="531"/>
-      <c r="AF1" s="531"/>
-      <c r="AG1" s="532"/>
+      <c r="AA1" s="544"/>
+      <c r="AB1" s="544"/>
+      <c r="AC1" s="544"/>
+      <c r="AD1" s="544"/>
+      <c r="AE1" s="544"/>
+      <c r="AF1" s="544"/>
+      <c r="AG1" s="545"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -11279,18 +11279,18 @@
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="Z2" s="525" t="s">
+      <c r="Z2" s="526" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="526"/>
-      <c r="AB2" s="526"/>
-      <c r="AC2" s="526"/>
-      <c r="AD2" s="526"/>
-      <c r="AE2" s="527"/>
-      <c r="AF2" s="528" t="s">
+      <c r="AA2" s="527"/>
+      <c r="AB2" s="527"/>
+      <c r="AC2" s="527"/>
+      <c r="AD2" s="527"/>
+      <c r="AE2" s="528"/>
+      <c r="AF2" s="529" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="529"/>
+      <c r="AG2" s="530"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -11300,18 +11300,18 @@
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
-      <c r="Z3" s="525" t="s">
+      <c r="Z3" s="526" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="526"/>
-      <c r="AB3" s="526"/>
-      <c r="AC3" s="526"/>
-      <c r="AD3" s="526"/>
-      <c r="AE3" s="527"/>
-      <c r="AF3" s="528" t="s">
+      <c r="AA3" s="527"/>
+      <c r="AB3" s="527"/>
+      <c r="AC3" s="527"/>
+      <c r="AD3" s="527"/>
+      <c r="AE3" s="528"/>
+      <c r="AF3" s="529" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" s="529"/>
+      <c r="AG3" s="530"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
@@ -11324,18 +11324,18 @@
       <c r="T4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="525" t="s">
+      <c r="Z4" s="526" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="526"/>
-      <c r="AB4" s="526"/>
-      <c r="AC4" s="526"/>
-      <c r="AD4" s="526"/>
-      <c r="AE4" s="527"/>
-      <c r="AF4" s="528" t="s">
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="528"/>
+      <c r="AF4" s="529" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="529"/>
+      <c r="AG4" s="530"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
@@ -11345,18 +11345,18 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
-      <c r="Z5" s="525" t="s">
+      <c r="Z5" s="526" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="526"/>
-      <c r="AB5" s="526"/>
-      <c r="AC5" s="526"/>
-      <c r="AD5" s="526"/>
-      <c r="AE5" s="527"/>
-      <c r="AF5" s="528" t="s">
+      <c r="AA5" s="527"/>
+      <c r="AB5" s="527"/>
+      <c r="AC5" s="527"/>
+      <c r="AD5" s="527"/>
+      <c r="AE5" s="528"/>
+      <c r="AF5" s="529" t="s">
         <v>92</v>
       </c>
-      <c r="AG5" s="529"/>
+      <c r="AG5" s="530"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -11366,93 +11366,93 @@
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:40" s="83" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="534" t="s">
+      <c r="A7" s="531" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="534"/>
-      <c r="C7" s="534"/>
-      <c r="D7" s="534"/>
-      <c r="E7" s="534"/>
-      <c r="F7" s="534"/>
-      <c r="G7" s="534"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="534"/>
-      <c r="J7" s="534"/>
-      <c r="K7" s="534"/>
-      <c r="L7" s="534"/>
-      <c r="M7" s="534"/>
-      <c r="N7" s="534"/>
-      <c r="O7" s="534"/>
-      <c r="P7" s="534"/>
-      <c r="Q7" s="534"/>
-      <c r="R7" s="534"/>
-      <c r="S7" s="534"/>
-      <c r="T7" s="534"/>
-      <c r="U7" s="534"/>
-      <c r="V7" s="534"/>
-      <c r="W7" s="534"/>
-      <c r="X7" s="534"/>
-      <c r="Y7" s="534"/>
-      <c r="Z7" s="534"/>
-      <c r="AA7" s="534"/>
-      <c r="AB7" s="534"/>
-      <c r="AC7" s="534"/>
-      <c r="AD7" s="534"/>
-      <c r="AE7" s="534"/>
-      <c r="AF7" s="534"/>
-      <c r="AG7" s="534"/>
-      <c r="AH7" s="534"/>
-      <c r="AI7" s="534"/>
-      <c r="AJ7" s="534"/>
-      <c r="AK7" s="534"/>
-      <c r="AL7" s="534"/>
-      <c r="AM7" s="534"/>
+      <c r="B7" s="531"/>
+      <c r="C7" s="531"/>
+      <c r="D7" s="531"/>
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="531"/>
+      <c r="I7" s="531"/>
+      <c r="J7" s="531"/>
+      <c r="K7" s="531"/>
+      <c r="L7" s="531"/>
+      <c r="M7" s="531"/>
+      <c r="N7" s="531"/>
+      <c r="O7" s="531"/>
+      <c r="P7" s="531"/>
+      <c r="Q7" s="531"/>
+      <c r="R7" s="531"/>
+      <c r="S7" s="531"/>
+      <c r="T7" s="531"/>
+      <c r="U7" s="531"/>
+      <c r="V7" s="531"/>
+      <c r="W7" s="531"/>
+      <c r="X7" s="531"/>
+      <c r="Y7" s="531"/>
+      <c r="Z7" s="531"/>
+      <c r="AA7" s="531"/>
+      <c r="AB7" s="531"/>
+      <c r="AC7" s="531"/>
+      <c r="AD7" s="531"/>
+      <c r="AE7" s="531"/>
+      <c r="AF7" s="531"/>
+      <c r="AG7" s="531"/>
+      <c r="AH7" s="531"/>
+      <c r="AI7" s="531"/>
+      <c r="AJ7" s="531"/>
+      <c r="AK7" s="531"/>
+      <c r="AL7" s="531"/>
+      <c r="AM7" s="531"/>
       <c r="AN7" s="82"/>
     </row>
     <row r="9" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="535" t="s">
+      <c r="A9" s="532" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="535" t="s">
+      <c r="B9" s="532" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="535" t="s">
+      <c r="C9" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="538" t="s">
+      <c r="D9" s="535" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="539"/>
-      <c r="F9" s="539"/>
-      <c r="G9" s="539"/>
-      <c r="H9" s="539"/>
-      <c r="I9" s="539"/>
-      <c r="J9" s="539"/>
-      <c r="K9" s="539"/>
-      <c r="L9" s="539"/>
-      <c r="M9" s="539"/>
-      <c r="N9" s="539"/>
-      <c r="O9" s="539"/>
-      <c r="P9" s="539"/>
-      <c r="Q9" s="539"/>
-      <c r="R9" s="539"/>
-      <c r="S9" s="539"/>
-      <c r="T9" s="539"/>
-      <c r="U9" s="539"/>
-      <c r="V9" s="539"/>
-      <c r="W9" s="539"/>
-      <c r="X9" s="539"/>
-      <c r="Y9" s="539"/>
-      <c r="Z9" s="539"/>
-      <c r="AA9" s="539"/>
-      <c r="AB9" s="539"/>
-      <c r="AC9" s="539"/>
-      <c r="AD9" s="539"/>
-      <c r="AE9" s="539"/>
-      <c r="AF9" s="539"/>
-      <c r="AG9" s="539"/>
-      <c r="AH9" s="540"/>
-      <c r="AI9" s="541" t="s">
+      <c r="E9" s="536"/>
+      <c r="F9" s="536"/>
+      <c r="G9" s="536"/>
+      <c r="H9" s="536"/>
+      <c r="I9" s="536"/>
+      <c r="J9" s="536"/>
+      <c r="K9" s="536"/>
+      <c r="L9" s="536"/>
+      <c r="M9" s="536"/>
+      <c r="N9" s="536"/>
+      <c r="O9" s="536"/>
+      <c r="P9" s="536"/>
+      <c r="Q9" s="536"/>
+      <c r="R9" s="536"/>
+      <c r="S9" s="536"/>
+      <c r="T9" s="536"/>
+      <c r="U9" s="536"/>
+      <c r="V9" s="536"/>
+      <c r="W9" s="536"/>
+      <c r="X9" s="536"/>
+      <c r="Y9" s="536"/>
+      <c r="Z9" s="536"/>
+      <c r="AA9" s="536"/>
+      <c r="AB9" s="536"/>
+      <c r="AC9" s="536"/>
+      <c r="AD9" s="536"/>
+      <c r="AE9" s="536"/>
+      <c r="AF9" s="536"/>
+      <c r="AG9" s="536"/>
+      <c r="AH9" s="537"/>
+      <c r="AI9" s="538" t="s">
         <v>97</v>
       </c>
       <c r="AJ9" s="84"/>
@@ -11462,9 +11462,9 @@
       <c r="AN9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="536"/>
-      <c r="B10" s="536"/>
-      <c r="C10" s="536"/>
+      <c r="A10" s="533"/>
+      <c r="B10" s="533"/>
+      <c r="C10" s="533"/>
       <c r="D10" s="89">
         <v>1</v>
       </c>
@@ -11558,7 +11558,7 @@
       <c r="AH10" s="89">
         <v>31</v>
       </c>
-      <c r="AI10" s="541"/>
+      <c r="AI10" s="538"/>
       <c r="AJ10" s="90"/>
       <c r="AK10" s="86"/>
       <c r="AL10" s="86"/>
@@ -11566,9 +11566,9 @@
       <c r="AN10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="537"/>
-      <c r="B11" s="537"/>
-      <c r="C11" s="537"/>
+      <c r="A11" s="534"/>
+      <c r="B11" s="534"/>
+      <c r="C11" s="534"/>
       <c r="D11" s="89" t="s">
         <v>103</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="AH11" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="AI11" s="541"/>
+      <c r="AI11" s="538"/>
       <c r="AJ11" s="93"/>
       <c r="AN11" s="95"/>
     </row>
@@ -11983,10 +11983,10 @@
       <c r="AN14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="542" t="s">
+      <c r="A15" s="539" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="543"/>
+      <c r="B15" s="540"/>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="98"/>
@@ -12029,49 +12029,49 @@
       <c r="AN15" s="95"/>
     </row>
     <row r="17" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="544" t="s">
+      <c r="A17" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="544"/>
-      <c r="C17" s="544"/>
-      <c r="D17" s="544"/>
-      <c r="E17" s="544"/>
-      <c r="F17" s="544"/>
-      <c r="G17" s="544"/>
+      <c r="B17" s="541"/>
+      <c r="C17" s="541"/>
+      <c r="D17" s="541"/>
+      <c r="E17" s="541"/>
+      <c r="F17" s="541"/>
+      <c r="G17" s="541"/>
       <c r="H17" s="102"/>
-      <c r="I17" s="545"/>
-      <c r="J17" s="545"/>
-      <c r="K17" s="545"/>
-      <c r="L17" s="545"/>
-      <c r="M17" s="545"/>
+      <c r="I17" s="542"/>
+      <c r="J17" s="542"/>
+      <c r="K17" s="542"/>
+      <c r="L17" s="542"/>
+      <c r="M17" s="542"/>
       <c r="N17" s="103"/>
-      <c r="O17" s="545" t="s">
+      <c r="O17" s="542" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="545"/>
-      <c r="Q17" s="545"/>
-      <c r="R17" s="545"/>
-      <c r="S17" s="545"/>
-      <c r="T17" s="545"/>
-      <c r="U17" s="545"/>
-      <c r="V17" s="545"/>
-      <c r="W17" s="545"/>
-      <c r="X17" s="545"/>
-      <c r="Y17" s="545"/>
+      <c r="P17" s="542"/>
+      <c r="Q17" s="542"/>
+      <c r="R17" s="542"/>
+      <c r="S17" s="542"/>
+      <c r="T17" s="542"/>
+      <c r="U17" s="542"/>
+      <c r="V17" s="542"/>
+      <c r="W17" s="542"/>
+      <c r="X17" s="542"/>
+      <c r="Y17" s="542"/>
       <c r="Z17" s="104"/>
       <c r="AA17" s="104"/>
       <c r="AB17" s="105"/>
-      <c r="AC17" s="545"/>
-      <c r="AD17" s="545"/>
-      <c r="AE17" s="545"/>
-      <c r="AF17" s="545"/>
-      <c r="AG17" s="545"/>
-      <c r="AH17" s="545"/>
-      <c r="AI17" s="545"/>
-      <c r="AJ17" s="545"/>
-      <c r="AK17" s="545"/>
-      <c r="AL17" s="545"/>
-      <c r="AM17" s="545"/>
+      <c r="AC17" s="542"/>
+      <c r="AD17" s="542"/>
+      <c r="AE17" s="542"/>
+      <c r="AF17" s="542"/>
+      <c r="AG17" s="542"/>
+      <c r="AH17" s="542"/>
+      <c r="AI17" s="542"/>
+      <c r="AJ17" s="542"/>
+      <c r="AK17" s="542"/>
+      <c r="AL17" s="542"/>
+      <c r="AM17" s="542"/>
       <c r="AN17" s="106"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12105,131 +12105,131 @@
       <c r="AN32" s="111"/>
     </row>
     <row r="33" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="533"/>
-      <c r="H33" s="533"/>
-      <c r="I33" s="533"/>
-      <c r="J33" s="533"/>
-      <c r="K33" s="533"/>
-      <c r="L33" s="533"/>
-      <c r="M33" s="533"/>
-      <c r="N33" s="533"/>
-      <c r="O33" s="533"/>
-      <c r="P33" s="533"/>
-      <c r="Q33" s="533"/>
-      <c r="R33" s="533"/>
-      <c r="S33" s="533"/>
-      <c r="T33" s="533"/>
-      <c r="U33" s="533"/>
-      <c r="V33" s="533"/>
-      <c r="W33" s="533"/>
-      <c r="X33" s="533"/>
+      <c r="G33" s="525"/>
+      <c r="H33" s="525"/>
+      <c r="I33" s="525"/>
+      <c r="J33" s="525"/>
+      <c r="K33" s="525"/>
+      <c r="L33" s="525"/>
+      <c r="M33" s="525"/>
+      <c r="N33" s="525"/>
+      <c r="O33" s="525"/>
+      <c r="P33" s="525"/>
+      <c r="Q33" s="525"/>
+      <c r="R33" s="525"/>
+      <c r="S33" s="525"/>
+      <c r="T33" s="525"/>
+      <c r="U33" s="525"/>
+      <c r="V33" s="525"/>
+      <c r="W33" s="525"/>
+      <c r="X33" s="525"/>
       <c r="AN33" s="111"/>
     </row>
     <row r="34" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="533"/>
-      <c r="H34" s="533"/>
-      <c r="I34" s="533"/>
-      <c r="J34" s="533"/>
-      <c r="K34" s="533"/>
-      <c r="L34" s="533"/>
-      <c r="M34" s="533"/>
-      <c r="N34" s="533"/>
-      <c r="O34" s="533"/>
-      <c r="P34" s="533"/>
-      <c r="Q34" s="533"/>
-      <c r="R34" s="533"/>
-      <c r="S34" s="533"/>
-      <c r="T34" s="533"/>
-      <c r="U34" s="533"/>
-      <c r="V34" s="533"/>
-      <c r="W34" s="533"/>
-      <c r="X34" s="533"/>
+      <c r="G34" s="525"/>
+      <c r="H34" s="525"/>
+      <c r="I34" s="525"/>
+      <c r="J34" s="525"/>
+      <c r="K34" s="525"/>
+      <c r="L34" s="525"/>
+      <c r="M34" s="525"/>
+      <c r="N34" s="525"/>
+      <c r="O34" s="525"/>
+      <c r="P34" s="525"/>
+      <c r="Q34" s="525"/>
+      <c r="R34" s="525"/>
+      <c r="S34" s="525"/>
+      <c r="T34" s="525"/>
+      <c r="U34" s="525"/>
+      <c r="V34" s="525"/>
+      <c r="W34" s="525"/>
+      <c r="X34" s="525"/>
       <c r="AN34" s="111"/>
     </row>
     <row r="35" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="533"/>
-      <c r="H35" s="533"/>
-      <c r="I35" s="533"/>
-      <c r="J35" s="533"/>
-      <c r="K35" s="533"/>
-      <c r="L35" s="533"/>
-      <c r="M35" s="533"/>
-      <c r="N35" s="533"/>
-      <c r="O35" s="533"/>
-      <c r="P35" s="533"/>
-      <c r="Q35" s="533"/>
-      <c r="R35" s="533"/>
-      <c r="S35" s="533"/>
-      <c r="T35" s="533"/>
-      <c r="U35" s="533"/>
-      <c r="V35" s="533"/>
-      <c r="W35" s="533"/>
-      <c r="X35" s="533"/>
+      <c r="G35" s="525"/>
+      <c r="H35" s="525"/>
+      <c r="I35" s="525"/>
+      <c r="J35" s="525"/>
+      <c r="K35" s="525"/>
+      <c r="L35" s="525"/>
+      <c r="M35" s="525"/>
+      <c r="N35" s="525"/>
+      <c r="O35" s="525"/>
+      <c r="P35" s="525"/>
+      <c r="Q35" s="525"/>
+      <c r="R35" s="525"/>
+      <c r="S35" s="525"/>
+      <c r="T35" s="525"/>
+      <c r="U35" s="525"/>
+      <c r="V35" s="525"/>
+      <c r="W35" s="525"/>
+      <c r="X35" s="525"/>
       <c r="AN35" s="111"/>
     </row>
     <row r="36" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="533"/>
-      <c r="H36" s="533"/>
-      <c r="I36" s="533"/>
-      <c r="J36" s="533"/>
-      <c r="K36" s="533"/>
-      <c r="L36" s="533"/>
-      <c r="M36" s="533"/>
-      <c r="N36" s="533"/>
-      <c r="O36" s="533"/>
-      <c r="P36" s="533"/>
-      <c r="Q36" s="533"/>
-      <c r="R36" s="533"/>
-      <c r="S36" s="533"/>
-      <c r="T36" s="533"/>
-      <c r="U36" s="533"/>
-      <c r="V36" s="533"/>
-      <c r="W36" s="533"/>
-      <c r="X36" s="533"/>
+      <c r="G36" s="525"/>
+      <c r="H36" s="525"/>
+      <c r="I36" s="525"/>
+      <c r="J36" s="525"/>
+      <c r="K36" s="525"/>
+      <c r="L36" s="525"/>
+      <c r="M36" s="525"/>
+      <c r="N36" s="525"/>
+      <c r="O36" s="525"/>
+      <c r="P36" s="525"/>
+      <c r="Q36" s="525"/>
+      <c r="R36" s="525"/>
+      <c r="S36" s="525"/>
+      <c r="T36" s="525"/>
+      <c r="U36" s="525"/>
+      <c r="V36" s="525"/>
+      <c r="W36" s="525"/>
+      <c r="X36" s="525"/>
       <c r="AN36" s="111"/>
     </row>
     <row r="37" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="533"/>
-      <c r="H37" s="533"/>
-      <c r="I37" s="533"/>
-      <c r="J37" s="533"/>
-      <c r="K37" s="533"/>
-      <c r="L37" s="533"/>
-      <c r="M37" s="533"/>
-      <c r="N37" s="533"/>
-      <c r="O37" s="533"/>
-      <c r="P37" s="533"/>
-      <c r="Q37" s="533"/>
-      <c r="R37" s="533"/>
-      <c r="S37" s="533"/>
-      <c r="T37" s="533"/>
-      <c r="U37" s="533"/>
-      <c r="V37" s="533"/>
-      <c r="W37" s="533"/>
-      <c r="X37" s="533"/>
+      <c r="G37" s="525"/>
+      <c r="H37" s="525"/>
+      <c r="I37" s="525"/>
+      <c r="J37" s="525"/>
+      <c r="K37" s="525"/>
+      <c r="L37" s="525"/>
+      <c r="M37" s="525"/>
+      <c r="N37" s="525"/>
+      <c r="O37" s="525"/>
+      <c r="P37" s="525"/>
+      <c r="Q37" s="525"/>
+      <c r="R37" s="525"/>
+      <c r="S37" s="525"/>
+      <c r="T37" s="525"/>
+      <c r="U37" s="525"/>
+      <c r="V37" s="525"/>
+      <c r="W37" s="525"/>
+      <c r="X37" s="525"/>
       <c r="AN37" s="111"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="G38" s="533"/>
-      <c r="H38" s="533"/>
-      <c r="I38" s="533"/>
-      <c r="J38" s="533"/>
-      <c r="K38" s="533"/>
-      <c r="L38" s="533"/>
-      <c r="M38" s="533"/>
-      <c r="N38" s="533"/>
-      <c r="O38" s="533"/>
-      <c r="P38" s="533"/>
-      <c r="Q38" s="533"/>
-      <c r="R38" s="533"/>
-      <c r="S38" s="533"/>
-      <c r="T38" s="533"/>
-      <c r="U38" s="533"/>
-      <c r="V38" s="533"/>
-      <c r="W38" s="533"/>
-      <c r="X38" s="533"/>
+      <c r="G38" s="525"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="525"/>
+      <c r="J38" s="525"/>
+      <c r="K38" s="525"/>
+      <c r="L38" s="525"/>
+      <c r="M38" s="525"/>
+      <c r="N38" s="525"/>
+      <c r="O38" s="525"/>
+      <c r="P38" s="525"/>
+      <c r="Q38" s="525"/>
+      <c r="R38" s="525"/>
+      <c r="S38" s="525"/>
+      <c r="T38" s="525"/>
+      <c r="U38" s="525"/>
+      <c r="V38" s="525"/>
+      <c r="W38" s="525"/>
+      <c r="X38" s="525"/>
       <c r="AN38" s="76"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12239,6 +12239,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12253,13 +12260,6 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -13123,29 +13123,29 @@
       <c r="C1" s="372"/>
       <c r="D1" s="372"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="546" t="s">
+      <c r="F1" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
     </row>
     <row r="2" spans="1:14" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="554" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
+      <c r="B2" s="554"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="554"/>
       <c r="E2" s="124"/>
-      <c r="F2" s="548" t="s">
+      <c r="F2" s="555" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
     </row>
     <row r="3" spans="1:14" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="126"/>
@@ -13187,11 +13187,11 @@
       <c r="K5" s="549"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="550" t="s">
+      <c r="I6" s="546" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="550"/>
-      <c r="K6" s="550"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="546"/>
     </row>
     <row r="7" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="373" t="s">
@@ -13250,10 +13250,10 @@
       <c r="K8" s="382"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="551" t="s">
+      <c r="A9" s="547" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="552"/>
+      <c r="B9" s="548"/>
       <c r="C9" s="379"/>
       <c r="D9" s="379"/>
       <c r="E9" s="380"/>
@@ -13367,11 +13367,11 @@
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="553" t="s">
+      <c r="A13" s="550" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="554"/>
-      <c r="C13" s="555"/>
+      <c r="B13" s="551"/>
+      <c r="C13" s="552"/>
       <c r="D13" s="391">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13434,16 +13434,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.62" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -2705,7 +2705,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2714,8 +2714,104 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2723,119 +2819,56 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2861,39 +2894,6 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,6 +2903,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,9 +2945,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2942,29 +2966,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2972,24 +2990,6 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3053,24 +3053,33 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3107,13 +3116,16 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3125,9 +3137,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3135,15 +3144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3456,12 +3456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3558,7 @@
       </c>
       <c r="H6" s="404"/>
     </row>
-    <row r="7" spans="1:9" s="235" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="235" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="401"/>
       <c r="B7" s="406"/>
       <c r="C7" s="401"/>
@@ -3577,7 +3576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="240">
         <v>44075</v>
       </c>
@@ -3617,7 +3616,7 @@
       </c>
       <c r="H9" s="244"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="240">
         <v>44075</v>
       </c>
@@ -3637,7 +3636,7 @@
       </c>
       <c r="H10" s="244"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="240">
         <v>44075</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>5695385</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="240">
         <v>44075</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>674000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="240">
         <v>44075</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>1289000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="240">
         <v>44075</v>
       </c>
@@ -3738,7 +3737,7 @@
       <c r="G15" s="243"/>
       <c r="H15" s="244"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="240">
         <v>44075</v>
       </c>
@@ -3758,7 +3757,7 @@
       </c>
       <c r="H16" s="244"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="240">
         <v>44075</v>
       </c>
@@ -3778,7 +3777,7 @@
       </c>
       <c r="H17" s="244"/>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="240">
         <v>44075</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="240">
         <v>44077</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="240">
         <v>44077</v>
       </c>
@@ -3836,7 +3835,7 @@
       <c r="G20" s="243"/>
       <c r="H20" s="244"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="240">
         <v>44077</v>
       </c>
@@ -3856,7 +3855,7 @@
       </c>
       <c r="H21" s="244"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="240">
         <v>44077</v>
       </c>
@@ -3876,7 +3875,7 @@
       </c>
       <c r="H22" s="244"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="240">
         <v>44077</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>6960000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="240">
         <v>44077</v>
       </c>
@@ -3916,7 +3915,7 @@
       <c r="G24" s="243"/>
       <c r="H24" s="244"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="240">
         <v>44079</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>227000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="240">
         <v>44079</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="240">
         <v>44079</v>
       </c>
@@ -3970,7 +3969,7 @@
       </c>
       <c r="H27" s="244"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="240">
         <v>44080</v>
       </c>
@@ -3990,7 +3989,7 @@
       <c r="G28" s="243"/>
       <c r="H28" s="244"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="240">
         <v>44082</v>
       </c>
@@ -4010,7 +4009,7 @@
       </c>
       <c r="H29" s="244"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="240">
         <v>44082</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="240">
         <v>44083</v>
       </c>
@@ -4048,7 +4047,7 @@
       </c>
       <c r="H31" s="244"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="240">
         <v>44083</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="240">
         <v>44083</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="240">
         <v>44083</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="240">
         <v>44083</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="240">
         <v>44083</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="240">
         <v>44083</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="240">
         <v>44083</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="240">
         <v>44083</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>1315001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="240">
         <v>44083</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="240">
         <v>44083</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>718000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="240">
         <v>44083</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="240">
         <v>44083</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="240">
         <v>44083</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="240">
         <v>44014</v>
       </c>
@@ -4304,7 +4303,7 @@
       <c r="G45" s="243"/>
       <c r="H45" s="244"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="240">
         <v>44085</v>
       </c>
@@ -4324,7 +4323,7 @@
       <c r="G46" s="243"/>
       <c r="H46" s="244"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="240">
         <v>44085</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="240">
         <v>44085</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="240">
         <v>44086</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>2140001</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="240">
         <v>44087</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="240">
         <v>44087</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>770000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="240">
         <v>44087</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="240">
         <v>44087</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>1185000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="240">
         <v>44088</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="240">
         <v>44089</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>1717000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="240">
         <v>44090</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>10120000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="240">
         <v>44091</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>105001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="240">
         <v>44091</v>
       </c>
@@ -4570,7 +4569,7 @@
       <c r="G59" s="243"/>
       <c r="H59" s="244"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="240">
         <v>44091</v>
       </c>
@@ -4590,7 +4589,7 @@
       <c r="G60" s="243"/>
       <c r="H60" s="244"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="240">
         <v>44092</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="240">
         <v>44092</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>1010360</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="240">
         <v>44091</v>
       </c>
@@ -4648,7 +4647,7 @@
       <c r="G63" s="243"/>
       <c r="H63" s="244"/>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="240">
         <v>44092</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>726000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="240">
         <v>44092</v>
       </c>
@@ -4688,7 +4687,7 @@
       <c r="G65" s="243"/>
       <c r="H65" s="244"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="240">
         <v>44093</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="240">
         <v>44093</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="240">
         <v>44094</v>
       </c>
@@ -4744,7 +4743,7 @@
       <c r="G68" s="243"/>
       <c r="H68" s="244"/>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="240">
         <v>44095</v>
       </c>
@@ -4764,7 +4763,7 @@
       </c>
       <c r="H69" s="244"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="240">
         <v>44095</v>
       </c>
@@ -4784,7 +4783,7 @@
       <c r="G70" s="243"/>
       <c r="H70" s="244"/>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="240">
         <v>44096</v>
       </c>
@@ -4804,7 +4803,7 @@
       <c r="G71" s="243"/>
       <c r="H71" s="244"/>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="240">
         <v>44096</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="240">
         <v>44097</v>
       </c>
@@ -4844,7 +4843,7 @@
       <c r="G73" s="243"/>
       <c r="H73" s="244"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="240">
         <v>44097</v>
       </c>
@@ -4864,7 +4863,7 @@
       <c r="G74" s="243"/>
       <c r="H74" s="244"/>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="240">
         <v>44097</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="240">
         <v>44103</v>
       </c>
@@ -4924,7 +4923,7 @@
       </c>
       <c r="H77" s="244"/>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="240">
         <v>44104</v>
       </c>
@@ -4944,7 +4943,7 @@
       </c>
       <c r="H78" s="244"/>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="240">
         <v>44104</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>415000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="240">
         <v>44104</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="240"/>
       <c r="B81" s="240"/>
       <c r="C81" s="241"/>
@@ -4991,7 +4990,7 @@
       <c r="G81" s="243"/>
       <c r="H81" s="244"/>
     </row>
-    <row r="82" spans="1:9" s="246" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="246" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="396" t="s">
         <v>10</v>
       </c>
@@ -5114,11 +5113,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H82">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Lương, thưởng"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
@@ -5169,13 +5163,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="430" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
       <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5189,156 +5183,156 @@
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="429" t="s">
+      <c r="A3" s="431" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="429"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="429"/>
-      <c r="E3" s="429"/>
-      <c r="F3" s="429"/>
-      <c r="G3" s="429"/>
-      <c r="H3" s="429"/>
-      <c r="I3" s="429"/>
-      <c r="J3" s="429"/>
-      <c r="K3" s="429"/>
-      <c r="L3" s="429"/>
-      <c r="M3" s="429"/>
-      <c r="N3" s="429"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="429"/>
+      <c r="B3" s="431"/>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="431"/>
+      <c r="J3" s="431"/>
+      <c r="K3" s="431"/>
+      <c r="L3" s="431"/>
+      <c r="M3" s="431"/>
+      <c r="N3" s="431"/>
+      <c r="O3" s="431"/>
+      <c r="P3" s="431"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="429" t="s">
+      <c r="A4" s="431" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="429"/>
-      <c r="H4" s="429"/>
-      <c r="I4" s="429"/>
-      <c r="J4" s="429"/>
-      <c r="K4" s="429"/>
-      <c r="L4" s="429"/>
-      <c r="M4" s="429"/>
-      <c r="N4" s="429"/>
-      <c r="O4" s="429"/>
-      <c r="P4" s="429"/>
+      <c r="B4" s="431"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="431"/>
+      <c r="K4" s="431"/>
+      <c r="L4" s="431"/>
+      <c r="M4" s="431"/>
+      <c r="N4" s="431"/>
+      <c r="O4" s="431"/>
+      <c r="P4" s="431"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="429"/>
-      <c r="B5" s="429"/>
-      <c r="C5" s="429"/>
-      <c r="D5" s="429"/>
-      <c r="E5" s="429"/>
-      <c r="F5" s="429"/>
-      <c r="G5" s="429"/>
-      <c r="H5" s="429"/>
-      <c r="I5" s="429"/>
-      <c r="J5" s="429"/>
-      <c r="K5" s="430"/>
-      <c r="L5" s="430"/>
+      <c r="A5" s="431"/>
+      <c r="B5" s="431"/>
+      <c r="C5" s="431"/>
+      <c r="D5" s="431"/>
+      <c r="E5" s="431"/>
+      <c r="F5" s="431"/>
+      <c r="G5" s="431"/>
+      <c r="H5" s="431"/>
+      <c r="I5" s="431"/>
+      <c r="J5" s="431"/>
+      <c r="K5" s="432"/>
+      <c r="L5" s="432"/>
     </row>
     <row r="6" spans="1:17" s="144" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="433" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="435" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="423" t="s">
+      <c r="C6" s="433" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="433" t="s">
+      <c r="D6" s="439" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="433"/>
-      <c r="F6" s="434" t="s">
+      <c r="E6" s="439"/>
+      <c r="F6" s="440" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="434"/>
-      <c r="H6" s="434"/>
-      <c r="I6" s="434"/>
-      <c r="J6" s="434"/>
-      <c r="K6" s="434"/>
-      <c r="L6" s="434"/>
-      <c r="M6" s="435"/>
-      <c r="N6" s="435"/>
-      <c r="O6" s="435"/>
-      <c r="P6" s="436" t="s">
+      <c r="G6" s="440"/>
+      <c r="H6" s="440"/>
+      <c r="I6" s="440"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="440"/>
+      <c r="L6" s="440"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="442" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="144" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="424"/>
-      <c r="B7" s="432"/>
-      <c r="C7" s="424"/>
-      <c r="D7" s="423" t="s">
+      <c r="A7" s="434"/>
+      <c r="B7" s="436"/>
+      <c r="C7" s="434"/>
+      <c r="D7" s="433" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="423" t="s">
+      <c r="E7" s="433" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="423" t="s">
+      <c r="F7" s="433" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="423" t="s">
+      <c r="G7" s="433" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="421" t="s">
+      <c r="H7" s="437" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="421" t="s">
+      <c r="I7" s="437" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="425" t="s">
+      <c r="J7" s="444" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="425"/>
-      <c r="L7" s="421" t="s">
+      <c r="K7" s="444"/>
+      <c r="L7" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="421" t="s">
+      <c r="M7" s="437" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="421" t="s">
+      <c r="N7" s="437" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="421" t="s">
+      <c r="O7" s="437" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="437"/>
+      <c r="P7" s="443"/>
     </row>
     <row r="8" spans="1:17" s="144" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="424"/>
-      <c r="B8" s="432"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="424"/>
-      <c r="F8" s="424"/>
-      <c r="G8" s="424"/>
-      <c r="H8" s="422"/>
-      <c r="I8" s="422"/>
+      <c r="A8" s="434"/>
+      <c r="B8" s="436"/>
+      <c r="C8" s="434"/>
+      <c r="D8" s="434"/>
+      <c r="E8" s="434"/>
+      <c r="F8" s="434"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="438"/>
+      <c r="I8" s="438"/>
       <c r="J8" s="179" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="422"/>
-      <c r="M8" s="422"/>
-      <c r="N8" s="422"/>
-      <c r="O8" s="422"/>
-      <c r="P8" s="437"/>
+      <c r="L8" s="438"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="438"/>
+      <c r="P8" s="443"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="444">
+      <c r="A9" s="419">
         <v>785</v>
       </c>
-      <c r="B9" s="442">
+      <c r="B9" s="422">
         <v>44077</v>
       </c>
       <c r="C9" s="407"/>
@@ -5380,11 +5374,11 @@
       <c r="P9" s="217"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="445"/>
-      <c r="B10" s="443"/>
-      <c r="C10" s="417"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="417"/>
+      <c r="A10" s="420"/>
+      <c r="B10" s="423"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="409"/>
+      <c r="E10" s="409"/>
       <c r="F10" s="219" t="s">
         <v>127</v>
       </c>
@@ -5531,11 +5525,11 @@
       <c r="P13" s="218"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="417"/>
-      <c r="B14" s="418"/>
-      <c r="C14" s="417"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="417"/>
+      <c r="A14" s="409"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="409"/>
+      <c r="D14" s="409"/>
+      <c r="E14" s="409"/>
       <c r="F14" s="219" t="s">
         <v>124</v>
       </c>
@@ -5708,10 +5702,10 @@
       <c r="C18" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="413" t="s">
+      <c r="D18" s="445" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="413" t="s">
+      <c r="E18" s="445" t="s">
         <v>148</v>
       </c>
       <c r="F18" s="329" t="s">
@@ -5744,11 +5738,11 @@
       <c r="P18" s="336"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="417"/>
-      <c r="B19" s="418"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="416"/>
-      <c r="E19" s="416"/>
+      <c r="A19" s="409"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="447"/>
+      <c r="E19" s="447"/>
       <c r="F19" s="330" t="s">
         <v>125</v>
       </c>
@@ -5786,10 +5780,10 @@
         <v>44088</v>
       </c>
       <c r="C20" s="407"/>
-      <c r="D20" s="413" t="s">
+      <c r="D20" s="445" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="419"/>
+      <c r="E20" s="448"/>
       <c r="F20" s="314" t="s">
         <v>125</v>
       </c>
@@ -5820,11 +5814,11 @@
       <c r="P20" s="316"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="417"/>
-      <c r="B21" s="418"/>
-      <c r="C21" s="417"/>
-      <c r="D21" s="416"/>
-      <c r="E21" s="420"/>
+      <c r="A21" s="409"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="409"/>
+      <c r="D21" s="447"/>
+      <c r="E21" s="449"/>
       <c r="F21" s="315" t="s">
         <v>126</v>
       </c>
@@ -5909,10 +5903,10 @@
       <c r="C23" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="413" t="s">
+      <c r="D23" s="445" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="413"/>
+      <c r="E23" s="445"/>
       <c r="F23" s="329" t="s">
         <v>125</v>
       </c>
@@ -5946,8 +5940,8 @@
       <c r="A24" s="408"/>
       <c r="B24" s="411"/>
       <c r="C24" s="408"/>
-      <c r="D24" s="414"/>
-      <c r="E24" s="414"/>
+      <c r="D24" s="446"/>
+      <c r="E24" s="446"/>
       <c r="F24" s="333" t="s">
         <v>126</v>
       </c>
@@ -5981,8 +5975,8 @@
       <c r="A25" s="408"/>
       <c r="B25" s="411"/>
       <c r="C25" s="408"/>
-      <c r="D25" s="414"/>
-      <c r="E25" s="414"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="446"/>
       <c r="F25" s="333" t="s">
         <v>133</v>
       </c>
@@ -6014,11 +6008,11 @@
       <c r="R25" s="184"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="417"/>
-      <c r="B26" s="418"/>
-      <c r="C26" s="417"/>
-      <c r="D26" s="416"/>
-      <c r="E26" s="416"/>
+      <c r="A26" s="409"/>
+      <c r="B26" s="412"/>
+      <c r="C26" s="409"/>
+      <c r="D26" s="447"/>
+      <c r="E26" s="447"/>
       <c r="F26" s="330" t="s">
         <v>124</v>
       </c>
@@ -6097,10 +6091,10 @@
         <v>44090</v>
       </c>
       <c r="C28" s="407"/>
-      <c r="D28" s="413" t="s">
+      <c r="D28" s="445" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="413"/>
+      <c r="E28" s="445"/>
       <c r="F28" s="329" t="s">
         <v>125</v>
       </c>
@@ -6134,8 +6128,8 @@
       <c r="A29" s="408"/>
       <c r="B29" s="411"/>
       <c r="C29" s="408"/>
-      <c r="D29" s="414"/>
-      <c r="E29" s="414"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="446"/>
       <c r="F29" s="333" t="s">
         <v>126</v>
       </c>
@@ -6166,11 +6160,11 @@
       <c r="P29" s="333"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="417"/>
-      <c r="B30" s="418"/>
-      <c r="C30" s="417"/>
-      <c r="D30" s="416"/>
-      <c r="E30" s="416"/>
+      <c r="A30" s="409"/>
+      <c r="B30" s="412"/>
+      <c r="C30" s="409"/>
+      <c r="D30" s="447"/>
+      <c r="E30" s="447"/>
       <c r="F30" s="330" t="s">
         <v>124</v>
       </c>
@@ -6422,11 +6416,11 @@
       <c r="P35" s="329"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="417"/>
-      <c r="B36" s="418"/>
-      <c r="C36" s="417"/>
-      <c r="D36" s="417"/>
-      <c r="E36" s="417"/>
+      <c r="A36" s="409"/>
+      <c r="B36" s="412"/>
+      <c r="C36" s="409"/>
+      <c r="D36" s="409"/>
+      <c r="E36" s="409"/>
       <c r="F36" s="330" t="s">
         <v>126</v>
       </c>
@@ -6632,7 +6626,7 @@
       <c r="C41" s="407" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="413" t="s">
+      <c r="D41" s="445" t="s">
         <v>216</v>
       </c>
       <c r="E41" s="407"/>
@@ -6667,7 +6661,7 @@
       <c r="A42" s="408"/>
       <c r="B42" s="411"/>
       <c r="C42" s="408"/>
-      <c r="D42" s="414"/>
+      <c r="D42" s="446"/>
       <c r="E42" s="408"/>
       <c r="F42" s="333" t="s">
         <v>125</v>
@@ -6700,7 +6694,7 @@
       <c r="A43" s="408"/>
       <c r="B43" s="411"/>
       <c r="C43" s="408"/>
-      <c r="D43" s="414"/>
+      <c r="D43" s="446"/>
       <c r="E43" s="408"/>
       <c r="F43" s="333" t="s">
         <v>126</v>
@@ -6733,7 +6727,7 @@
       <c r="A44" s="408"/>
       <c r="B44" s="411"/>
       <c r="C44" s="408"/>
-      <c r="D44" s="414"/>
+      <c r="D44" s="446"/>
       <c r="E44" s="408"/>
       <c r="F44" s="333" t="s">
         <v>204</v>
@@ -6766,7 +6760,7 @@
       <c r="A45" s="408"/>
       <c r="B45" s="411"/>
       <c r="C45" s="408"/>
-      <c r="D45" s="414"/>
+      <c r="D45" s="446"/>
       <c r="E45" s="408"/>
       <c r="F45" s="333" t="s">
         <v>124</v>
@@ -6799,7 +6793,7 @@
       <c r="A46" s="408"/>
       <c r="B46" s="411"/>
       <c r="C46" s="408"/>
-      <c r="D46" s="414"/>
+      <c r="D46" s="446"/>
       <c r="E46" s="408"/>
       <c r="F46" s="333" t="s">
         <v>127</v>
@@ -6832,7 +6826,7 @@
       <c r="A47" s="408"/>
       <c r="B47" s="411"/>
       <c r="C47" s="408"/>
-      <c r="D47" s="414"/>
+      <c r="D47" s="446"/>
       <c r="E47" s="408"/>
       <c r="F47" s="333" t="s">
         <v>128</v>
@@ -6862,11 +6856,11 @@
       <c r="Q47" s="184"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="409"/>
-      <c r="B48" s="412"/>
-      <c r="C48" s="409"/>
-      <c r="D48" s="415"/>
-      <c r="E48" s="409"/>
+      <c r="A48" s="450"/>
+      <c r="B48" s="451"/>
+      <c r="C48" s="450"/>
+      <c r="D48" s="452"/>
+      <c r="E48" s="450"/>
       <c r="F48" s="335" t="s">
         <v>213</v>
       </c>
@@ -6989,11 +6983,11 @@
       <c r="B51" s="410">
         <v>44102</v>
       </c>
-      <c r="C51" s="446"/>
-      <c r="D51" s="449" t="s">
+      <c r="C51" s="413"/>
+      <c r="D51" s="416" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="444" t="s">
+      <c r="E51" s="419" t="s">
         <v>223</v>
       </c>
       <c r="F51" s="341" t="s">
@@ -7029,9 +7023,9 @@
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="408"/>
       <c r="B52" s="411"/>
-      <c r="C52" s="447"/>
-      <c r="D52" s="450"/>
-      <c r="E52" s="445"/>
+      <c r="C52" s="414"/>
+      <c r="D52" s="417"/>
+      <c r="E52" s="420"/>
       <c r="F52" s="343" t="s">
         <v>204</v>
       </c>
@@ -7065,9 +7059,9 @@
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="408"/>
       <c r="B53" s="411"/>
-      <c r="C53" s="447"/>
-      <c r="D53" s="450"/>
-      <c r="E53" s="445"/>
+      <c r="C53" s="414"/>
+      <c r="D53" s="417"/>
+      <c r="E53" s="420"/>
       <c r="F53" s="343" t="s">
         <v>124</v>
       </c>
@@ -7101,9 +7095,9 @@
     <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="408"/>
       <c r="B54" s="411"/>
-      <c r="C54" s="447"/>
-      <c r="D54" s="450"/>
-      <c r="E54" s="445"/>
+      <c r="C54" s="414"/>
+      <c r="D54" s="417"/>
+      <c r="E54" s="420"/>
       <c r="F54" s="343" t="s">
         <v>127</v>
       </c>
@@ -7135,11 +7129,11 @@
       <c r="Q54" s="184"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="417"/>
-      <c r="B55" s="418"/>
-      <c r="C55" s="448"/>
-      <c r="D55" s="451"/>
-      <c r="E55" s="452"/>
+      <c r="A55" s="409"/>
+      <c r="B55" s="412"/>
+      <c r="C55" s="415"/>
+      <c r="D55" s="418"/>
+      <c r="E55" s="421"/>
       <c r="F55" s="342" t="s">
         <v>128</v>
       </c>
@@ -7217,14 +7211,14 @@
       <c r="Q56" s="184"/>
     </row>
     <row r="57" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="438" t="s">
+      <c r="A57" s="425" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="439"/>
-      <c r="C57" s="439"/>
-      <c r="D57" s="439"/>
-      <c r="E57" s="439"/>
-      <c r="F57" s="440"/>
+      <c r="B57" s="426"/>
+      <c r="C57" s="426"/>
+      <c r="D57" s="426"/>
+      <c r="E57" s="426"/>
+      <c r="F57" s="427"/>
       <c r="G57" s="158">
         <f>SUM(G13:G56)</f>
         <v>466</v>
@@ -7243,18 +7237,18 @@
       <c r="M57" s="164"/>
       <c r="N57" s="164"/>
       <c r="O57" s="164"/>
-      <c r="P57" s="441"/>
-      <c r="Q57" s="426"/>
+      <c r="P57" s="428"/>
+      <c r="Q57" s="429"/>
     </row>
     <row r="58" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="427" t="s">
+      <c r="A58" s="424" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="427"/>
-      <c r="C58" s="427"/>
-      <c r="D58" s="427"/>
-      <c r="E58" s="427"/>
-      <c r="F58" s="427"/>
+      <c r="B58" s="424"/>
+      <c r="C58" s="424"/>
+      <c r="D58" s="424"/>
+      <c r="E58" s="424"/>
+      <c r="F58" s="424"/>
       <c r="G58" s="146">
         <f>G57</f>
         <v>466</v>
@@ -7270,18 +7264,18 @@
       <c r="M58" s="149"/>
       <c r="N58" s="149"/>
       <c r="O58" s="149"/>
-      <c r="P58" s="441"/>
-      <c r="Q58" s="426"/>
+      <c r="P58" s="428"/>
+      <c r="Q58" s="429"/>
     </row>
     <row r="59" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="427" t="s">
+      <c r="A59" s="424" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="427"/>
-      <c r="C59" s="427"/>
-      <c r="D59" s="427"/>
-      <c r="E59" s="427"/>
-      <c r="F59" s="427"/>
+      <c r="B59" s="424"/>
+      <c r="C59" s="424"/>
+      <c r="D59" s="424"/>
+      <c r="E59" s="424"/>
+      <c r="F59" s="424"/>
       <c r="G59" s="153" t="s">
         <v>49</v>
       </c>
@@ -7298,14 +7292,14 @@
       <c r="O59" s="149"/>
     </row>
     <row r="60" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="427" t="s">
+      <c r="A60" s="424" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="427"/>
-      <c r="C60" s="427"/>
-      <c r="D60" s="427"/>
-      <c r="E60" s="427"/>
-      <c r="F60" s="427"/>
+      <c r="B60" s="424"/>
+      <c r="C60" s="424"/>
+      <c r="D60" s="424"/>
+      <c r="E60" s="424"/>
+      <c r="F60" s="424"/>
       <c r="G60" s="153"/>
       <c r="H60" s="156"/>
       <c r="I60" s="147"/>
@@ -7320,14 +7314,14 @@
       <c r="O60" s="149"/>
     </row>
     <row r="61" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A61" s="427" t="s">
+      <c r="A61" s="424" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="427"/>
-      <c r="C61" s="427"/>
-      <c r="D61" s="427"/>
-      <c r="E61" s="427"/>
-      <c r="F61" s="427"/>
+      <c r="B61" s="424"/>
+      <c r="C61" s="424"/>
+      <c r="D61" s="424"/>
+      <c r="E61" s="424"/>
+      <c r="F61" s="424"/>
       <c r="G61" s="153"/>
       <c r="H61" s="156"/>
       <c r="I61" s="147"/>
@@ -7403,26 +7397,44 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="74">
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A1:E1"/>
@@ -7439,44 +7451,26 @@
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7509,93 +7503,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="453" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
+      <c r="B1" s="453"/>
+      <c r="C1" s="453"/>
+      <c r="D1" s="453"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="464" t="s">
+      <c r="A2" s="454" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="464"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="464"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="465" t="s">
+      <c r="A3" s="455" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
-      <c r="J3" s="465"/>
-      <c r="K3" s="465"/>
-      <c r="L3" s="465"/>
-      <c r="M3" s="465"/>
-      <c r="N3" s="465"/>
+      <c r="B3" s="455"/>
+      <c r="C3" s="455"/>
+      <c r="D3" s="455"/>
+      <c r="E3" s="455"/>
+      <c r="F3" s="455"/>
+      <c r="G3" s="455"/>
+      <c r="H3" s="455"/>
+      <c r="I3" s="455"/>
+      <c r="J3" s="455"/>
+      <c r="K3" s="455"/>
+      <c r="L3" s="455"/>
+      <c r="M3" s="455"/>
+      <c r="N3" s="455"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="466" t="s">
+      <c r="A4" s="456" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
-      <c r="G4" s="466"/>
-      <c r="H4" s="466"/>
-      <c r="I4" s="467"/>
-      <c r="J4" s="466"/>
-      <c r="K4" s="466"/>
-      <c r="L4" s="466"/>
-      <c r="M4" s="466"/>
-      <c r="N4" s="466"/>
+      <c r="B4" s="456"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="456"/>
+      <c r="G4" s="456"/>
+      <c r="H4" s="456"/>
+      <c r="I4" s="457"/>
+      <c r="J4" s="456"/>
+      <c r="K4" s="456"/>
+      <c r="L4" s="456"/>
+      <c r="M4" s="456"/>
+      <c r="N4" s="456"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="468" t="s">
+      <c r="A5" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="470" t="s">
+      <c r="B5" s="460" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="469" t="s">
+      <c r="C5" s="459" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="462" t="s">
+      <c r="E5" s="461" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="462"/>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="471"/>
-      <c r="J5" s="461" t="s">
+      <c r="F5" s="461"/>
+      <c r="G5" s="461"/>
+      <c r="H5" s="461"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="462" t="s">
+      <c r="K5" s="461" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="462"/>
-      <c r="M5" s="462"/>
-      <c r="N5" s="469" t="s">
+      <c r="L5" s="461"/>
+      <c r="M5" s="461"/>
+      <c r="N5" s="459" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="468"/>
-      <c r="B6" s="470"/>
-      <c r="C6" s="469"/>
+      <c r="A6" s="458"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="459"/>
       <c r="D6" s="267" t="s">
         <v>41</v>
       </c>
@@ -7614,7 +7608,7 @@
       <c r="I6" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="461"/>
+      <c r="J6" s="463"/>
       <c r="K6" s="267" t="s">
         <v>45</v>
       </c>
@@ -7624,7 +7618,7 @@
       <c r="M6" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="469"/>
+      <c r="N6" s="459"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="174">
@@ -7674,8 +7668,8 @@
       <c r="B8" s="410">
         <v>44088</v>
       </c>
-      <c r="C8" s="446"/>
-      <c r="D8" s="449" t="s">
+      <c r="C8" s="413"/>
+      <c r="D8" s="416" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="341" t="s">
@@ -7708,10 +7702,10 @@
       <c r="Q8" s="184"/>
     </row>
     <row r="9" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="417"/>
-      <c r="B9" s="418"/>
-      <c r="C9" s="448"/>
-      <c r="D9" s="451"/>
+      <c r="A9" s="409"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="415"/>
+      <c r="D9" s="418"/>
       <c r="E9" s="342" t="s">
         <v>204</v>
       </c>
@@ -7822,14 +7816,14 @@
       <c r="Q11" s="184"/>
     </row>
     <row r="12" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="444">
+      <c r="A12" s="419">
         <v>803</v>
       </c>
-      <c r="B12" s="442">
+      <c r="B12" s="422">
         <v>44095</v>
       </c>
-      <c r="C12" s="455"/>
-      <c r="D12" s="458" t="s">
+      <c r="C12" s="466"/>
+      <c r="D12" s="469" t="s">
         <v>220</v>
       </c>
       <c r="E12" s="338" t="s">
@@ -7862,10 +7856,10 @@
       <c r="Q12" s="184"/>
     </row>
     <row r="13" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="445"/>
-      <c r="B13" s="443"/>
-      <c r="C13" s="456"/>
-      <c r="D13" s="459"/>
+      <c r="A13" s="420"/>
+      <c r="B13" s="423"/>
+      <c r="C13" s="467"/>
+      <c r="D13" s="470"/>
       <c r="E13" s="338" t="s">
         <v>204</v>
       </c>
@@ -7896,10 +7890,10 @@
       <c r="Q13" s="184"/>
     </row>
     <row r="14" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="445"/>
-      <c r="B14" s="443"/>
-      <c r="C14" s="456"/>
-      <c r="D14" s="459"/>
+      <c r="A14" s="420"/>
+      <c r="B14" s="423"/>
+      <c r="C14" s="467"/>
+      <c r="D14" s="470"/>
       <c r="E14" s="338" t="s">
         <v>124</v>
       </c>
@@ -7930,10 +7924,10 @@
       <c r="Q14" s="184"/>
     </row>
     <row r="15" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="445"/>
-      <c r="B15" s="443"/>
-      <c r="C15" s="456"/>
-      <c r="D15" s="459"/>
+      <c r="A15" s="420"/>
+      <c r="B15" s="423"/>
+      <c r="C15" s="467"/>
+      <c r="D15" s="470"/>
       <c r="E15" s="338" t="s">
         <v>127</v>
       </c>
@@ -7964,10 +7958,10 @@
       <c r="Q15" s="184"/>
     </row>
     <row r="16" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="452"/>
-      <c r="B16" s="454"/>
-      <c r="C16" s="457"/>
-      <c r="D16" s="460"/>
+      <c r="A16" s="421"/>
+      <c r="B16" s="465"/>
+      <c r="C16" s="468"/>
+      <c r="D16" s="471"/>
       <c r="E16" s="338" t="s">
         <v>128</v>
       </c>
@@ -8004,8 +7998,8 @@
       <c r="B17" s="410">
         <v>44096</v>
       </c>
-      <c r="C17" s="446"/>
-      <c r="D17" s="449" t="s">
+      <c r="C17" s="413"/>
+      <c r="D17" s="416" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="341" t="s">
@@ -8040,8 +8034,8 @@
     <row r="18" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="408"/>
       <c r="B18" s="411"/>
-      <c r="C18" s="447"/>
-      <c r="D18" s="450"/>
+      <c r="C18" s="414"/>
+      <c r="D18" s="417"/>
       <c r="E18" s="343" t="s">
         <v>125</v>
       </c>
@@ -8074,8 +8068,8 @@
     <row r="19" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="408"/>
       <c r="B19" s="411"/>
-      <c r="C19" s="447"/>
-      <c r="D19" s="450"/>
+      <c r="C19" s="414"/>
+      <c r="D19" s="417"/>
       <c r="E19" s="343" t="s">
         <v>126</v>
       </c>
@@ -8108,8 +8102,8 @@
     <row r="20" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="408"/>
       <c r="B20" s="411"/>
-      <c r="C20" s="447"/>
-      <c r="D20" s="450"/>
+      <c r="C20" s="414"/>
+      <c r="D20" s="417"/>
       <c r="E20" s="343" t="s">
         <v>204</v>
       </c>
@@ -8142,8 +8136,8 @@
     <row r="21" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="408"/>
       <c r="B21" s="411"/>
-      <c r="C21" s="447"/>
-      <c r="D21" s="450"/>
+      <c r="C21" s="414"/>
+      <c r="D21" s="417"/>
       <c r="E21" s="343" t="s">
         <v>124</v>
       </c>
@@ -8176,8 +8170,8 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="408"/>
       <c r="B22" s="411"/>
-      <c r="C22" s="447"/>
-      <c r="D22" s="450"/>
+      <c r="C22" s="414"/>
+      <c r="D22" s="417"/>
       <c r="E22" s="343" t="s">
         <v>127</v>
       </c>
@@ -8209,8 +8203,8 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="408"/>
       <c r="B23" s="411"/>
-      <c r="C23" s="447"/>
-      <c r="D23" s="450"/>
+      <c r="C23" s="414"/>
+      <c r="D23" s="417"/>
       <c r="E23" s="343" t="s">
         <v>128</v>
       </c>
@@ -8240,10 +8234,10 @@
       <c r="N23" s="203"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="417"/>
-      <c r="B24" s="418"/>
-      <c r="C24" s="448"/>
-      <c r="D24" s="451"/>
+      <c r="A24" s="409"/>
+      <c r="B24" s="412"/>
+      <c r="C24" s="415"/>
+      <c r="D24" s="418"/>
       <c r="E24" s="342" t="s">
         <v>213</v>
       </c>
@@ -8451,10 +8445,10 @@
       <c r="N32" s="203"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="417"/>
-      <c r="B33" s="418"/>
-      <c r="C33" s="417"/>
-      <c r="D33" s="417"/>
+      <c r="A33" s="409"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="409"/>
+      <c r="D33" s="409"/>
       <c r="E33" s="176"/>
       <c r="F33" s="176"/>
       <c r="G33" s="279"/>
@@ -8515,10 +8509,10 @@
       <c r="N36" s="203"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="417"/>
-      <c r="B37" s="418"/>
-      <c r="C37" s="417"/>
-      <c r="D37" s="417"/>
+      <c r="A37" s="409"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="409"/>
+      <c r="D37" s="409"/>
       <c r="E37" s="176"/>
       <c r="F37" s="176"/>
       <c r="G37" s="279"/>
@@ -8611,10 +8605,10 @@
       <c r="N42" s="200"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="417"/>
-      <c r="B43" s="418"/>
-      <c r="C43" s="417"/>
-      <c r="D43" s="417"/>
+      <c r="A43" s="409"/>
+      <c r="B43" s="412"/>
+      <c r="C43" s="409"/>
+      <c r="D43" s="409"/>
       <c r="E43" s="176"/>
       <c r="F43" s="176"/>
       <c r="G43" s="279"/>
@@ -8659,12 +8653,12 @@
       <c r="N45" s="204"/>
     </row>
     <row r="46" spans="1:14" s="305" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="453" t="s">
+      <c r="A46" s="464" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="453"/>
-      <c r="C46" s="453"/>
-      <c r="D46" s="453"/>
+      <c r="B46" s="464"/>
+      <c r="C46" s="464"/>
+      <c r="D46" s="464"/>
       <c r="E46" s="301"/>
       <c r="F46" s="301">
         <f>SUM(F7:F45)</f>
@@ -8752,6 +8746,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B31:B33"/>
@@ -8768,26 +8782,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9333,13 +9327,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9359,101 +9353,101 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="488" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
-      <c r="J3" s="479"/>
-      <c r="K3" s="479"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="488"/>
+      <c r="K3" s="488"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="480" t="s">
+      <c r="A4" s="482" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="495" t="s">
+      <c r="B4" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="480" t="s">
+      <c r="C4" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="480" t="s">
+      <c r="D4" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="480"/>
-      <c r="F4" s="488" t="s">
+      <c r="E4" s="482"/>
+      <c r="F4" s="475" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="488"/>
-      <c r="J4" s="488"/>
-      <c r="K4" s="488"/>
-      <c r="L4" s="492" t="s">
+      <c r="G4" s="475"/>
+      <c r="H4" s="475"/>
+      <c r="I4" s="475"/>
+      <c r="J4" s="475"/>
+      <c r="K4" s="475"/>
+      <c r="L4" s="479" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="493"/>
-      <c r="N4" s="494"/>
+      <c r="M4" s="480"/>
+      <c r="N4" s="481"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="480"/>
-      <c r="B5" s="495"/>
-      <c r="C5" s="480"/>
-      <c r="D5" s="480" t="s">
+      <c r="A5" s="482"/>
+      <c r="B5" s="483"/>
+      <c r="C5" s="482"/>
+      <c r="D5" s="482" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="480" t="s">
+      <c r="E5" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="480" t="s">
+      <c r="F5" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="480" t="s">
+      <c r="G5" s="482" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="481" t="s">
+      <c r="H5" s="489" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="481" t="s">
+      <c r="I5" s="489" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="359"/>
-      <c r="K5" s="481" t="s">
+      <c r="K5" s="489" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="421" t="s">
+      <c r="L5" s="437" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="421" t="s">
+      <c r="M5" s="437" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="421" t="s">
+      <c r="N5" s="437" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="480"/>
-      <c r="B6" s="495"/>
-      <c r="C6" s="480"/>
-      <c r="D6" s="480"/>
-      <c r="E6" s="480"/>
-      <c r="F6" s="480"/>
-      <c r="G6" s="480"/>
-      <c r="H6" s="481"/>
-      <c r="I6" s="481"/>
+      <c r="A6" s="482"/>
+      <c r="B6" s="483"/>
+      <c r="C6" s="482"/>
+      <c r="D6" s="482"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="482"/>
+      <c r="G6" s="482"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="481"/>
-      <c r="L6" s="422"/>
-      <c r="M6" s="422"/>
-      <c r="N6" s="422"/>
+      <c r="K6" s="489"/>
+      <c r="L6" s="438"/>
+      <c r="M6" s="438"/>
+      <c r="N6" s="438"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="325">
@@ -9646,11 +9640,11 @@
       <c r="N11" s="180"/>
     </row>
     <row r="12" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="417"/>
-      <c r="B12" s="418"/>
-      <c r="C12" s="417"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="417"/>
+      <c r="A12" s="409"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="409"/>
+      <c r="D12" s="409"/>
+      <c r="E12" s="409"/>
       <c r="F12" s="355" t="s">
         <v>126</v>
       </c>
@@ -9676,16 +9670,16 @@
       <c r="N12" s="185"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="489" t="s">
+      <c r="A13" s="476" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="490"/>
-      <c r="C13" s="490"/>
-      <c r="D13" s="490"/>
-      <c r="E13" s="490"/>
-      <c r="F13" s="490"/>
-      <c r="G13" s="490"/>
-      <c r="H13" s="491"/>
+      <c r="B13" s="477"/>
+      <c r="C13" s="477"/>
+      <c r="D13" s="477"/>
+      <c r="E13" s="477"/>
+      <c r="F13" s="477"/>
+      <c r="G13" s="477"/>
+      <c r="H13" s="478"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>14675000</v>
@@ -9725,14 +9719,14 @@
       <c r="A15" s="165"/>
       <c r="B15" s="165"/>
       <c r="C15" s="165"/>
-      <c r="D15" s="482" t="s">
+      <c r="D15" s="490" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="483"/>
-      <c r="F15" s="483"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="483"/>
-      <c r="I15" s="484"/>
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="492"/>
       <c r="J15" s="361"/>
       <c r="K15" s="166"/>
     </row>
@@ -9740,14 +9734,14 @@
       <c r="A16" s="165"/>
       <c r="B16" s="165"/>
       <c r="C16" s="165"/>
-      <c r="D16" s="485" t="s">
+      <c r="D16" s="493" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="486"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="487"/>
+      <c r="E16" s="494"/>
+      <c r="F16" s="494"/>
+      <c r="G16" s="494"/>
+      <c r="H16" s="494"/>
+      <c r="I16" s="495"/>
       <c r="J16" s="365">
         <v>2309530</v>
       </c>
@@ -9756,14 +9750,14 @@
       <c r="A17" s="165"/>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
-      <c r="D17" s="485" t="s">
+      <c r="D17" s="493" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="486"/>
-      <c r="F17" s="486"/>
-      <c r="G17" s="486"/>
-      <c r="H17" s="486"/>
-      <c r="I17" s="487"/>
+      <c r="E17" s="494"/>
+      <c r="F17" s="494"/>
+      <c r="G17" s="494"/>
+      <c r="H17" s="494"/>
+      <c r="I17" s="495"/>
       <c r="J17" s="365">
         <f>N13</f>
         <v>4200100.0000000009</v>
@@ -9773,14 +9767,14 @@
       <c r="A18" s="165"/>
       <c r="B18" s="165"/>
       <c r="C18" s="165"/>
-      <c r="D18" s="477" t="s">
+      <c r="D18" s="486" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="477"/>
-      <c r="F18" s="477"/>
-      <c r="G18" s="477"/>
-      <c r="H18" s="477"/>
-      <c r="I18" s="477"/>
+      <c r="E18" s="486"/>
+      <c r="F18" s="486"/>
+      <c r="G18" s="486"/>
+      <c r="H18" s="486"/>
+      <c r="I18" s="486"/>
       <c r="J18" s="365">
         <f>SUM(J16:L17)</f>
         <v>6509630.0000000009</v>
@@ -9794,10 +9788,10 @@
       <c r="E19" s="168"/>
       <c r="F19" s="168"/>
       <c r="G19" s="168"/>
-      <c r="H19" s="475" t="s">
+      <c r="H19" s="484" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="475"/>
+      <c r="I19" s="484"/>
       <c r="J19" s="365">
         <v>2500000</v>
       </c>
@@ -9810,10 +9804,10 @@
       <c r="E20" s="168"/>
       <c r="F20" s="168"/>
       <c r="G20" s="168"/>
-      <c r="H20" s="476" t="s">
+      <c r="H20" s="485" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="476"/>
+      <c r="I20" s="485"/>
       <c r="J20" s="365">
         <f>J18+J19</f>
         <v>9009630</v>
@@ -9866,20 +9860,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D18:I18"/>
@@ -9896,6 +9876,20 @@
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.2" top="0.82" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9928,13 +9922,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9954,92 +9948,92 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="488" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
-      <c r="J3" s="479"/>
-      <c r="K3" s="479"/>
-      <c r="L3" s="479"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="488"/>
+      <c r="K3" s="488"/>
+      <c r="L3" s="488"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="480" t="s">
+      <c r="A4" s="482" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="495" t="s">
+      <c r="B4" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="480" t="s">
+      <c r="C4" s="482" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="480" t="s">
+      <c r="D4" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="480"/>
-      <c r="F4" s="488" t="s">
+      <c r="E4" s="482"/>
+      <c r="F4" s="475" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="488"/>
-      <c r="J4" s="488"/>
-      <c r="K4" s="488"/>
-      <c r="L4" s="488"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="475"/>
+      <c r="I4" s="475"/>
+      <c r="J4" s="475"/>
+      <c r="K4" s="475"/>
+      <c r="L4" s="475"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="480"/>
-      <c r="B5" s="495"/>
-      <c r="C5" s="480"/>
-      <c r="D5" s="480" t="s">
+      <c r="A5" s="482"/>
+      <c r="B5" s="483"/>
+      <c r="C5" s="482"/>
+      <c r="D5" s="482" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="480" t="s">
+      <c r="E5" s="482" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="480" t="s">
+      <c r="F5" s="482" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="480" t="s">
+      <c r="G5" s="482" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="481" t="s">
+      <c r="H5" s="489" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="481" t="s">
+      <c r="I5" s="489" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="496" t="s">
+      <c r="J5" s="502" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="497"/>
-      <c r="L5" s="481" t="s">
+      <c r="K5" s="503"/>
+      <c r="L5" s="489" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="480"/>
-      <c r="B6" s="495"/>
-      <c r="C6" s="480"/>
-      <c r="D6" s="480"/>
-      <c r="E6" s="480"/>
-      <c r="F6" s="480"/>
-      <c r="G6" s="480"/>
-      <c r="H6" s="481"/>
-      <c r="I6" s="481"/>
+      <c r="A6" s="482"/>
+      <c r="B6" s="483"/>
+      <c r="C6" s="482"/>
+      <c r="D6" s="482"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="482"/>
+      <c r="G6" s="482"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="360" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="481"/>
+      <c r="L6" s="489"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="407">
@@ -10051,10 +10045,10 @@
       <c r="C7" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="413" t="s">
+      <c r="D7" s="445" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="413"/>
+      <c r="E7" s="445"/>
       <c r="F7" s="353" t="s">
         <v>125</v>
       </c>
@@ -10079,8 +10073,8 @@
       <c r="A8" s="408"/>
       <c r="B8" s="411"/>
       <c r="C8" s="408"/>
-      <c r="D8" s="414"/>
-      <c r="E8" s="414"/>
+      <c r="D8" s="446"/>
+      <c r="E8" s="446"/>
       <c r="F8" s="354" t="s">
         <v>126</v>
       </c>
@@ -10105,8 +10099,8 @@
       <c r="A9" s="408"/>
       <c r="B9" s="411"/>
       <c r="C9" s="408"/>
-      <c r="D9" s="414"/>
-      <c r="E9" s="414"/>
+      <c r="D9" s="446"/>
+      <c r="E9" s="446"/>
       <c r="F9" s="354" t="s">
         <v>133</v>
       </c>
@@ -10129,11 +10123,11 @@
       <c r="N9" s="184"/>
     </row>
     <row r="10" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="417"/>
-      <c r="B10" s="418"/>
-      <c r="C10" s="417"/>
-      <c r="D10" s="416"/>
-      <c r="E10" s="416"/>
+      <c r="A10" s="409"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="447"/>
+      <c r="E10" s="447"/>
       <c r="F10" s="355" t="s">
         <v>124</v>
       </c>
@@ -10227,16 +10221,16 @@
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="489" t="s">
+      <c r="A13" s="476" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="490"/>
-      <c r="C13" s="490"/>
-      <c r="D13" s="490"/>
-      <c r="E13" s="490"/>
-      <c r="F13" s="490"/>
-      <c r="G13" s="490"/>
-      <c r="H13" s="491"/>
+      <c r="B13" s="477"/>
+      <c r="C13" s="477"/>
+      <c r="D13" s="477"/>
+      <c r="E13" s="477"/>
+      <c r="F13" s="477"/>
+      <c r="G13" s="477"/>
+      <c r="H13" s="478"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>10890000</v>
@@ -10266,130 +10260,130 @@
       <c r="A15" s="358"/>
       <c r="B15" s="358"/>
       <c r="C15" s="358"/>
-      <c r="D15" s="482" t="s">
+      <c r="D15" s="490" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="483"/>
-      <c r="F15" s="483"/>
-      <c r="G15" s="483"/>
-      <c r="H15" s="483"/>
-      <c r="I15" s="484"/>
-      <c r="J15" s="498" t="s">
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="492"/>
+      <c r="J15" s="496" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="499"/>
+      <c r="K15" s="497"/>
       <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="358"/>
       <c r="B16" s="358"/>
       <c r="C16" s="358"/>
-      <c r="D16" s="485" t="s">
+      <c r="D16" s="493" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
-      <c r="G16" s="486"/>
-      <c r="H16" s="486"/>
-      <c r="I16" s="487"/>
-      <c r="J16" s="500">
+      <c r="E16" s="494"/>
+      <c r="F16" s="494"/>
+      <c r="G16" s="494"/>
+      <c r="H16" s="494"/>
+      <c r="I16" s="495"/>
+      <c r="J16" s="498">
         <v>4782500</v>
       </c>
-      <c r="K16" s="501"/>
+      <c r="K16" s="499"/>
       <c r="L16" s="166"/>
     </row>
     <row r="17" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="358"/>
       <c r="B17" s="358"/>
       <c r="C17" s="358"/>
-      <c r="D17" s="485" t="s">
+      <c r="D17" s="493" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="486"/>
-      <c r="F17" s="486"/>
-      <c r="G17" s="486"/>
-      <c r="H17" s="486"/>
-      <c r="I17" s="487"/>
-      <c r="J17" s="500">
+      <c r="E17" s="494"/>
+      <c r="F17" s="494"/>
+      <c r="G17" s="494"/>
+      <c r="H17" s="494"/>
+      <c r="I17" s="495"/>
+      <c r="J17" s="498">
         <f>L13</f>
         <v>5445000</v>
       </c>
-      <c r="K17" s="501"/>
+      <c r="K17" s="499"/>
       <c r="L17" s="166"/>
     </row>
     <row r="18" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="358"/>
       <c r="B18" s="358"/>
       <c r="C18" s="358"/>
-      <c r="D18" s="482" t="s">
+      <c r="D18" s="490" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="483"/>
-      <c r="F18" s="483"/>
-      <c r="G18" s="483"/>
-      <c r="H18" s="483"/>
-      <c r="I18" s="484"/>
-      <c r="J18" s="500">
+      <c r="E18" s="491"/>
+      <c r="F18" s="491"/>
+      <c r="G18" s="491"/>
+      <c r="H18" s="491"/>
+      <c r="I18" s="492"/>
+      <c r="J18" s="498">
         <f>J17-J16</f>
         <v>662500</v>
       </c>
-      <c r="K18" s="501"/>
+      <c r="K18" s="499"/>
       <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="358"/>
       <c r="B19" s="358"/>
       <c r="C19" s="358"/>
-      <c r="D19" s="485" t="s">
+      <c r="D19" s="493" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="486"/>
-      <c r="F19" s="486"/>
-      <c r="G19" s="486"/>
-      <c r="H19" s="486"/>
-      <c r="I19" s="487"/>
-      <c r="J19" s="500">
+      <c r="E19" s="494"/>
+      <c r="F19" s="494"/>
+      <c r="G19" s="494"/>
+      <c r="H19" s="494"/>
+      <c r="I19" s="495"/>
+      <c r="J19" s="498">
         <v>3000000</v>
       </c>
-      <c r="K19" s="501"/>
+      <c r="K19" s="499"/>
       <c r="L19" s="166"/>
     </row>
     <row r="20" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="358"/>
       <c r="B20" s="358"/>
       <c r="C20" s="358"/>
-      <c r="D20" s="485" t="s">
+      <c r="D20" s="493" t="s">
         <v>303</v>
       </c>
-      <c r="E20" s="486"/>
-      <c r="F20" s="486"/>
-      <c r="G20" s="486"/>
-      <c r="H20" s="486"/>
-      <c r="I20" s="487"/>
-      <c r="J20" s="500">
+      <c r="E20" s="494"/>
+      <c r="F20" s="494"/>
+      <c r="G20" s="494"/>
+      <c r="H20" s="494"/>
+      <c r="I20" s="495"/>
+      <c r="J20" s="498">
         <f>12%*(5000000+5000000)</f>
         <v>1200000</v>
       </c>
-      <c r="K20" s="501"/>
+      <c r="K20" s="499"/>
       <c r="L20" s="166"/>
     </row>
     <row r="21" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="358"/>
       <c r="B21" s="358"/>
       <c r="C21" s="358"/>
-      <c r="D21" s="477" t="s">
+      <c r="D21" s="486" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="477"/>
-      <c r="F21" s="477"/>
-      <c r="G21" s="477"/>
-      <c r="H21" s="477"/>
-      <c r="I21" s="477"/>
-      <c r="J21" s="502">
+      <c r="E21" s="486"/>
+      <c r="F21" s="486"/>
+      <c r="G21" s="486"/>
+      <c r="H21" s="486"/>
+      <c r="I21" s="486"/>
+      <c r="J21" s="500">
         <f>J18+J19-J20</f>
         <v>2462500</v>
       </c>
-      <c r="K21" s="503"/>
+      <c r="K21" s="501"/>
     </row>
     <row r="22" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="358"/>
@@ -10427,17 +10421,18 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
@@ -10450,18 +10445,17 @@
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <pageMargins left="0.52" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10485,13 +10479,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10669,14 +10663,14 @@
       <c r="H15" s="506"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="477" t="s">
+      <c r="A16" s="486" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="477"/>
-      <c r="C16" s="477"/>
-      <c r="D16" s="477"/>
-      <c r="E16" s="477"/>
-      <c r="F16" s="477"/>
+      <c r="B16" s="486"/>
+      <c r="C16" s="486"/>
+      <c r="D16" s="486"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
       <c r="G16" s="504">
         <f>G7+G15</f>
         <v>11457538.461538462</v>
@@ -11260,16 +11254,16 @@
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="Z1" s="543" t="s">
+      <c r="Z1" s="530" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="544"/>
-      <c r="AB1" s="544"/>
-      <c r="AC1" s="544"/>
-      <c r="AD1" s="544"/>
-      <c r="AE1" s="544"/>
-      <c r="AF1" s="544"/>
-      <c r="AG1" s="545"/>
+      <c r="AA1" s="531"/>
+      <c r="AB1" s="531"/>
+      <c r="AC1" s="531"/>
+      <c r="AD1" s="531"/>
+      <c r="AE1" s="531"/>
+      <c r="AF1" s="531"/>
+      <c r="AG1" s="532"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -11279,18 +11273,18 @@
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="Z2" s="526" t="s">
+      <c r="Z2" s="525" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="527"/>
-      <c r="AB2" s="527"/>
-      <c r="AC2" s="527"/>
-      <c r="AD2" s="527"/>
-      <c r="AE2" s="528"/>
-      <c r="AF2" s="529" t="s">
+      <c r="AA2" s="526"/>
+      <c r="AB2" s="526"/>
+      <c r="AC2" s="526"/>
+      <c r="AD2" s="526"/>
+      <c r="AE2" s="527"/>
+      <c r="AF2" s="528" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="530"/>
+      <c r="AG2" s="529"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -11300,18 +11294,18 @@
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
-      <c r="Z3" s="526" t="s">
+      <c r="Z3" s="525" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="527"/>
-      <c r="AB3" s="527"/>
-      <c r="AC3" s="527"/>
-      <c r="AD3" s="527"/>
-      <c r="AE3" s="528"/>
-      <c r="AF3" s="529" t="s">
+      <c r="AA3" s="526"/>
+      <c r="AB3" s="526"/>
+      <c r="AC3" s="526"/>
+      <c r="AD3" s="526"/>
+      <c r="AE3" s="527"/>
+      <c r="AF3" s="528" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" s="530"/>
+      <c r="AG3" s="529"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
@@ -11324,18 +11318,18 @@
       <c r="T4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="526" t="s">
+      <c r="Z4" s="525" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="527"/>
-      <c r="AB4" s="527"/>
-      <c r="AC4" s="527"/>
-      <c r="AD4" s="527"/>
-      <c r="AE4" s="528"/>
-      <c r="AF4" s="529" t="s">
+      <c r="AA4" s="526"/>
+      <c r="AB4" s="526"/>
+      <c r="AC4" s="526"/>
+      <c r="AD4" s="526"/>
+      <c r="AE4" s="527"/>
+      <c r="AF4" s="528" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="530"/>
+      <c r="AG4" s="529"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
@@ -11345,18 +11339,18 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
-      <c r="Z5" s="526" t="s">
+      <c r="Z5" s="525" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="527"/>
-      <c r="AB5" s="527"/>
-      <c r="AC5" s="527"/>
-      <c r="AD5" s="527"/>
-      <c r="AE5" s="528"/>
-      <c r="AF5" s="529" t="s">
+      <c r="AA5" s="526"/>
+      <c r="AB5" s="526"/>
+      <c r="AC5" s="526"/>
+      <c r="AD5" s="526"/>
+      <c r="AE5" s="527"/>
+      <c r="AF5" s="528" t="s">
         <v>92</v>
       </c>
-      <c r="AG5" s="530"/>
+      <c r="AG5" s="529"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -11366,93 +11360,93 @@
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:40" s="83" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="531" t="s">
+      <c r="A7" s="534" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="531"/>
-      <c r="C7" s="531"/>
-      <c r="D7" s="531"/>
-      <c r="E7" s="531"/>
-      <c r="F7" s="531"/>
-      <c r="G7" s="531"/>
-      <c r="H7" s="531"/>
-      <c r="I7" s="531"/>
-      <c r="J7" s="531"/>
-      <c r="K7" s="531"/>
-      <c r="L7" s="531"/>
-      <c r="M7" s="531"/>
-      <c r="N7" s="531"/>
-      <c r="O7" s="531"/>
-      <c r="P7" s="531"/>
-      <c r="Q7" s="531"/>
-      <c r="R7" s="531"/>
-      <c r="S7" s="531"/>
-      <c r="T7" s="531"/>
-      <c r="U7" s="531"/>
-      <c r="V7" s="531"/>
-      <c r="W7" s="531"/>
-      <c r="X7" s="531"/>
-      <c r="Y7" s="531"/>
-      <c r="Z7" s="531"/>
-      <c r="AA7" s="531"/>
-      <c r="AB7" s="531"/>
-      <c r="AC7" s="531"/>
-      <c r="AD7" s="531"/>
-      <c r="AE7" s="531"/>
-      <c r="AF7" s="531"/>
-      <c r="AG7" s="531"/>
-      <c r="AH7" s="531"/>
-      <c r="AI7" s="531"/>
-      <c r="AJ7" s="531"/>
-      <c r="AK7" s="531"/>
-      <c r="AL7" s="531"/>
-      <c r="AM7" s="531"/>
+      <c r="B7" s="534"/>
+      <c r="C7" s="534"/>
+      <c r="D7" s="534"/>
+      <c r="E7" s="534"/>
+      <c r="F7" s="534"/>
+      <c r="G7" s="534"/>
+      <c r="H7" s="534"/>
+      <c r="I7" s="534"/>
+      <c r="J7" s="534"/>
+      <c r="K7" s="534"/>
+      <c r="L7" s="534"/>
+      <c r="M7" s="534"/>
+      <c r="N7" s="534"/>
+      <c r="O7" s="534"/>
+      <c r="P7" s="534"/>
+      <c r="Q7" s="534"/>
+      <c r="R7" s="534"/>
+      <c r="S7" s="534"/>
+      <c r="T7" s="534"/>
+      <c r="U7" s="534"/>
+      <c r="V7" s="534"/>
+      <c r="W7" s="534"/>
+      <c r="X7" s="534"/>
+      <c r="Y7" s="534"/>
+      <c r="Z7" s="534"/>
+      <c r="AA7" s="534"/>
+      <c r="AB7" s="534"/>
+      <c r="AC7" s="534"/>
+      <c r="AD7" s="534"/>
+      <c r="AE7" s="534"/>
+      <c r="AF7" s="534"/>
+      <c r="AG7" s="534"/>
+      <c r="AH7" s="534"/>
+      <c r="AI7" s="534"/>
+      <c r="AJ7" s="534"/>
+      <c r="AK7" s="534"/>
+      <c r="AL7" s="534"/>
+      <c r="AM7" s="534"/>
       <c r="AN7" s="82"/>
     </row>
     <row r="9" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="532" t="s">
+      <c r="A9" s="535" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="532" t="s">
+      <c r="B9" s="535" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="532" t="s">
+      <c r="C9" s="535" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="535" t="s">
+      <c r="D9" s="538" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="536"/>
-      <c r="F9" s="536"/>
-      <c r="G9" s="536"/>
-      <c r="H9" s="536"/>
-      <c r="I9" s="536"/>
-      <c r="J9" s="536"/>
-      <c r="K9" s="536"/>
-      <c r="L9" s="536"/>
-      <c r="M9" s="536"/>
-      <c r="N9" s="536"/>
-      <c r="O9" s="536"/>
-      <c r="P9" s="536"/>
-      <c r="Q9" s="536"/>
-      <c r="R9" s="536"/>
-      <c r="S9" s="536"/>
-      <c r="T9" s="536"/>
-      <c r="U9" s="536"/>
-      <c r="V9" s="536"/>
-      <c r="W9" s="536"/>
-      <c r="X9" s="536"/>
-      <c r="Y9" s="536"/>
-      <c r="Z9" s="536"/>
-      <c r="AA9" s="536"/>
-      <c r="AB9" s="536"/>
-      <c r="AC9" s="536"/>
-      <c r="AD9" s="536"/>
-      <c r="AE9" s="536"/>
-      <c r="AF9" s="536"/>
-      <c r="AG9" s="536"/>
-      <c r="AH9" s="537"/>
-      <c r="AI9" s="538" t="s">
+      <c r="E9" s="539"/>
+      <c r="F9" s="539"/>
+      <c r="G9" s="539"/>
+      <c r="H9" s="539"/>
+      <c r="I9" s="539"/>
+      <c r="J9" s="539"/>
+      <c r="K9" s="539"/>
+      <c r="L9" s="539"/>
+      <c r="M9" s="539"/>
+      <c r="N9" s="539"/>
+      <c r="O9" s="539"/>
+      <c r="P9" s="539"/>
+      <c r="Q9" s="539"/>
+      <c r="R9" s="539"/>
+      <c r="S9" s="539"/>
+      <c r="T9" s="539"/>
+      <c r="U9" s="539"/>
+      <c r="V9" s="539"/>
+      <c r="W9" s="539"/>
+      <c r="X9" s="539"/>
+      <c r="Y9" s="539"/>
+      <c r="Z9" s="539"/>
+      <c r="AA9" s="539"/>
+      <c r="AB9" s="539"/>
+      <c r="AC9" s="539"/>
+      <c r="AD9" s="539"/>
+      <c r="AE9" s="539"/>
+      <c r="AF9" s="539"/>
+      <c r="AG9" s="539"/>
+      <c r="AH9" s="540"/>
+      <c r="AI9" s="541" t="s">
         <v>97</v>
       </c>
       <c r="AJ9" s="84"/>
@@ -11462,9 +11456,9 @@
       <c r="AN9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="533"/>
-      <c r="B10" s="533"/>
-      <c r="C10" s="533"/>
+      <c r="A10" s="536"/>
+      <c r="B10" s="536"/>
+      <c r="C10" s="536"/>
       <c r="D10" s="89">
         <v>1</v>
       </c>
@@ -11558,7 +11552,7 @@
       <c r="AH10" s="89">
         <v>31</v>
       </c>
-      <c r="AI10" s="538"/>
+      <c r="AI10" s="541"/>
       <c r="AJ10" s="90"/>
       <c r="AK10" s="86"/>
       <c r="AL10" s="86"/>
@@ -11566,9 +11560,9 @@
       <c r="AN10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="534"/>
-      <c r="B11" s="534"/>
-      <c r="C11" s="534"/>
+      <c r="A11" s="537"/>
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
       <c r="D11" s="89" t="s">
         <v>103</v>
       </c>
@@ -11662,7 +11656,7 @@
       <c r="AH11" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="AI11" s="538"/>
+      <c r="AI11" s="541"/>
       <c r="AJ11" s="93"/>
       <c r="AN11" s="95"/>
     </row>
@@ -11983,10 +11977,10 @@
       <c r="AN14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="539" t="s">
+      <c r="A15" s="542" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="540"/>
+      <c r="B15" s="543"/>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="98"/>
@@ -12029,49 +12023,49 @@
       <c r="AN15" s="95"/>
     </row>
     <row r="17" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="541" t="s">
+      <c r="A17" s="544" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="541"/>
-      <c r="C17" s="541"/>
-      <c r="D17" s="541"/>
-      <c r="E17" s="541"/>
-      <c r="F17" s="541"/>
-      <c r="G17" s="541"/>
+      <c r="B17" s="544"/>
+      <c r="C17" s="544"/>
+      <c r="D17" s="544"/>
+      <c r="E17" s="544"/>
+      <c r="F17" s="544"/>
+      <c r="G17" s="544"/>
       <c r="H17" s="102"/>
-      <c r="I17" s="542"/>
-      <c r="J17" s="542"/>
-      <c r="K17" s="542"/>
-      <c r="L17" s="542"/>
-      <c r="M17" s="542"/>
+      <c r="I17" s="545"/>
+      <c r="J17" s="545"/>
+      <c r="K17" s="545"/>
+      <c r="L17" s="545"/>
+      <c r="M17" s="545"/>
       <c r="N17" s="103"/>
-      <c r="O17" s="542" t="s">
+      <c r="O17" s="545" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="542"/>
-      <c r="Q17" s="542"/>
-      <c r="R17" s="542"/>
-      <c r="S17" s="542"/>
-      <c r="T17" s="542"/>
-      <c r="U17" s="542"/>
-      <c r="V17" s="542"/>
-      <c r="W17" s="542"/>
-      <c r="X17" s="542"/>
-      <c r="Y17" s="542"/>
+      <c r="P17" s="545"/>
+      <c r="Q17" s="545"/>
+      <c r="R17" s="545"/>
+      <c r="S17" s="545"/>
+      <c r="T17" s="545"/>
+      <c r="U17" s="545"/>
+      <c r="V17" s="545"/>
+      <c r="W17" s="545"/>
+      <c r="X17" s="545"/>
+      <c r="Y17" s="545"/>
       <c r="Z17" s="104"/>
       <c r="AA17" s="104"/>
       <c r="AB17" s="105"/>
-      <c r="AC17" s="542"/>
-      <c r="AD17" s="542"/>
-      <c r="AE17" s="542"/>
-      <c r="AF17" s="542"/>
-      <c r="AG17" s="542"/>
-      <c r="AH17" s="542"/>
-      <c r="AI17" s="542"/>
-      <c r="AJ17" s="542"/>
-      <c r="AK17" s="542"/>
-      <c r="AL17" s="542"/>
-      <c r="AM17" s="542"/>
+      <c r="AC17" s="545"/>
+      <c r="AD17" s="545"/>
+      <c r="AE17" s="545"/>
+      <c r="AF17" s="545"/>
+      <c r="AG17" s="545"/>
+      <c r="AH17" s="545"/>
+      <c r="AI17" s="545"/>
+      <c r="AJ17" s="545"/>
+      <c r="AK17" s="545"/>
+      <c r="AL17" s="545"/>
+      <c r="AM17" s="545"/>
       <c r="AN17" s="106"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12105,131 +12099,131 @@
       <c r="AN32" s="111"/>
     </row>
     <row r="33" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="525"/>
-      <c r="H33" s="525"/>
-      <c r="I33" s="525"/>
-      <c r="J33" s="525"/>
-      <c r="K33" s="525"/>
-      <c r="L33" s="525"/>
-      <c r="M33" s="525"/>
-      <c r="N33" s="525"/>
-      <c r="O33" s="525"/>
-      <c r="P33" s="525"/>
-      <c r="Q33" s="525"/>
-      <c r="R33" s="525"/>
-      <c r="S33" s="525"/>
-      <c r="T33" s="525"/>
-      <c r="U33" s="525"/>
-      <c r="V33" s="525"/>
-      <c r="W33" s="525"/>
-      <c r="X33" s="525"/>
+      <c r="G33" s="533"/>
+      <c r="H33" s="533"/>
+      <c r="I33" s="533"/>
+      <c r="J33" s="533"/>
+      <c r="K33" s="533"/>
+      <c r="L33" s="533"/>
+      <c r="M33" s="533"/>
+      <c r="N33" s="533"/>
+      <c r="O33" s="533"/>
+      <c r="P33" s="533"/>
+      <c r="Q33" s="533"/>
+      <c r="R33" s="533"/>
+      <c r="S33" s="533"/>
+      <c r="T33" s="533"/>
+      <c r="U33" s="533"/>
+      <c r="V33" s="533"/>
+      <c r="W33" s="533"/>
+      <c r="X33" s="533"/>
       <c r="AN33" s="111"/>
     </row>
     <row r="34" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="525"/>
-      <c r="H34" s="525"/>
-      <c r="I34" s="525"/>
-      <c r="J34" s="525"/>
-      <c r="K34" s="525"/>
-      <c r="L34" s="525"/>
-      <c r="M34" s="525"/>
-      <c r="N34" s="525"/>
-      <c r="O34" s="525"/>
-      <c r="P34" s="525"/>
-      <c r="Q34" s="525"/>
-      <c r="R34" s="525"/>
-      <c r="S34" s="525"/>
-      <c r="T34" s="525"/>
-      <c r="U34" s="525"/>
-      <c r="V34" s="525"/>
-      <c r="W34" s="525"/>
-      <c r="X34" s="525"/>
+      <c r="G34" s="533"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="533"/>
+      <c r="J34" s="533"/>
+      <c r="K34" s="533"/>
+      <c r="L34" s="533"/>
+      <c r="M34" s="533"/>
+      <c r="N34" s="533"/>
+      <c r="O34" s="533"/>
+      <c r="P34" s="533"/>
+      <c r="Q34" s="533"/>
+      <c r="R34" s="533"/>
+      <c r="S34" s="533"/>
+      <c r="T34" s="533"/>
+      <c r="U34" s="533"/>
+      <c r="V34" s="533"/>
+      <c r="W34" s="533"/>
+      <c r="X34" s="533"/>
       <c r="AN34" s="111"/>
     </row>
     <row r="35" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="525"/>
-      <c r="H35" s="525"/>
-      <c r="I35" s="525"/>
-      <c r="J35" s="525"/>
-      <c r="K35" s="525"/>
-      <c r="L35" s="525"/>
-      <c r="M35" s="525"/>
-      <c r="N35" s="525"/>
-      <c r="O35" s="525"/>
-      <c r="P35" s="525"/>
-      <c r="Q35" s="525"/>
-      <c r="R35" s="525"/>
-      <c r="S35" s="525"/>
-      <c r="T35" s="525"/>
-      <c r="U35" s="525"/>
-      <c r="V35" s="525"/>
-      <c r="W35" s="525"/>
-      <c r="X35" s="525"/>
+      <c r="G35" s="533"/>
+      <c r="H35" s="533"/>
+      <c r="I35" s="533"/>
+      <c r="J35" s="533"/>
+      <c r="K35" s="533"/>
+      <c r="L35" s="533"/>
+      <c r="M35" s="533"/>
+      <c r="N35" s="533"/>
+      <c r="O35" s="533"/>
+      <c r="P35" s="533"/>
+      <c r="Q35" s="533"/>
+      <c r="R35" s="533"/>
+      <c r="S35" s="533"/>
+      <c r="T35" s="533"/>
+      <c r="U35" s="533"/>
+      <c r="V35" s="533"/>
+      <c r="W35" s="533"/>
+      <c r="X35" s="533"/>
       <c r="AN35" s="111"/>
     </row>
     <row r="36" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="525"/>
-      <c r="H36" s="525"/>
-      <c r="I36" s="525"/>
-      <c r="J36" s="525"/>
-      <c r="K36" s="525"/>
-      <c r="L36" s="525"/>
-      <c r="M36" s="525"/>
-      <c r="N36" s="525"/>
-      <c r="O36" s="525"/>
-      <c r="P36" s="525"/>
-      <c r="Q36" s="525"/>
-      <c r="R36" s="525"/>
-      <c r="S36" s="525"/>
-      <c r="T36" s="525"/>
-      <c r="U36" s="525"/>
-      <c r="V36" s="525"/>
-      <c r="W36" s="525"/>
-      <c r="X36" s="525"/>
+      <c r="G36" s="533"/>
+      <c r="H36" s="533"/>
+      <c r="I36" s="533"/>
+      <c r="J36" s="533"/>
+      <c r="K36" s="533"/>
+      <c r="L36" s="533"/>
+      <c r="M36" s="533"/>
+      <c r="N36" s="533"/>
+      <c r="O36" s="533"/>
+      <c r="P36" s="533"/>
+      <c r="Q36" s="533"/>
+      <c r="R36" s="533"/>
+      <c r="S36" s="533"/>
+      <c r="T36" s="533"/>
+      <c r="U36" s="533"/>
+      <c r="V36" s="533"/>
+      <c r="W36" s="533"/>
+      <c r="X36" s="533"/>
       <c r="AN36" s="111"/>
     </row>
     <row r="37" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="525"/>
-      <c r="H37" s="525"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="525"/>
-      <c r="K37" s="525"/>
-      <c r="L37" s="525"/>
-      <c r="M37" s="525"/>
-      <c r="N37" s="525"/>
-      <c r="O37" s="525"/>
-      <c r="P37" s="525"/>
-      <c r="Q37" s="525"/>
-      <c r="R37" s="525"/>
-      <c r="S37" s="525"/>
-      <c r="T37" s="525"/>
-      <c r="U37" s="525"/>
-      <c r="V37" s="525"/>
-      <c r="W37" s="525"/>
-      <c r="X37" s="525"/>
+      <c r="G37" s="533"/>
+      <c r="H37" s="533"/>
+      <c r="I37" s="533"/>
+      <c r="J37" s="533"/>
+      <c r="K37" s="533"/>
+      <c r="L37" s="533"/>
+      <c r="M37" s="533"/>
+      <c r="N37" s="533"/>
+      <c r="O37" s="533"/>
+      <c r="P37" s="533"/>
+      <c r="Q37" s="533"/>
+      <c r="R37" s="533"/>
+      <c r="S37" s="533"/>
+      <c r="T37" s="533"/>
+      <c r="U37" s="533"/>
+      <c r="V37" s="533"/>
+      <c r="W37" s="533"/>
+      <c r="X37" s="533"/>
       <c r="AN37" s="111"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="G38" s="525"/>
-      <c r="H38" s="525"/>
-      <c r="I38" s="525"/>
-      <c r="J38" s="525"/>
-      <c r="K38" s="525"/>
-      <c r="L38" s="525"/>
-      <c r="M38" s="525"/>
-      <c r="N38" s="525"/>
-      <c r="O38" s="525"/>
-      <c r="P38" s="525"/>
-      <c r="Q38" s="525"/>
-      <c r="R38" s="525"/>
-      <c r="S38" s="525"/>
-      <c r="T38" s="525"/>
-      <c r="U38" s="525"/>
-      <c r="V38" s="525"/>
-      <c r="W38" s="525"/>
-      <c r="X38" s="525"/>
+      <c r="G38" s="533"/>
+      <c r="H38" s="533"/>
+      <c r="I38" s="533"/>
+      <c r="J38" s="533"/>
+      <c r="K38" s="533"/>
+      <c r="L38" s="533"/>
+      <c r="M38" s="533"/>
+      <c r="N38" s="533"/>
+      <c r="O38" s="533"/>
+      <c r="P38" s="533"/>
+      <c r="Q38" s="533"/>
+      <c r="R38" s="533"/>
+      <c r="S38" s="533"/>
+      <c r="T38" s="533"/>
+      <c r="U38" s="533"/>
+      <c r="V38" s="533"/>
+      <c r="W38" s="533"/>
+      <c r="X38" s="533"/>
       <c r="AN38" s="76"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12239,13 +12233,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12260,6 +12247,13 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -13123,29 +13117,29 @@
       <c r="C1" s="372"/>
       <c r="D1" s="372"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="553" t="s">
+      <c r="F1" s="546" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="553"/>
-      <c r="H1" s="553"/>
-      <c r="I1" s="553"/>
-      <c r="J1" s="553"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="546"/>
+      <c r="I1" s="546"/>
+      <c r="J1" s="546"/>
     </row>
     <row r="2" spans="1:14" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="554" t="s">
+      <c r="A2" s="547" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="554"/>
-      <c r="C2" s="554"/>
-      <c r="D2" s="554"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
       <c r="E2" s="124"/>
-      <c r="F2" s="555" t="s">
+      <c r="F2" s="548" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="555"/>
-      <c r="H2" s="555"/>
-      <c r="I2" s="555"/>
-      <c r="J2" s="555"/>
+      <c r="G2" s="548"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="548"/>
+      <c r="J2" s="548"/>
     </row>
     <row r="3" spans="1:14" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="126"/>
@@ -13187,11 +13181,11 @@
       <c r="K5" s="549"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="546" t="s">
+      <c r="I6" s="550" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="546"/>
-      <c r="K6" s="546"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="550"/>
     </row>
     <row r="7" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="373" t="s">
@@ -13250,10 +13244,10 @@
       <c r="K8" s="382"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="547" t="s">
+      <c r="A9" s="551" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="548"/>
+      <c r="B9" s="552"/>
       <c r="C9" s="379"/>
       <c r="D9" s="379"/>
       <c r="E9" s="380"/>
@@ -13367,11 +13361,11 @@
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="550" t="s">
+      <c r="A13" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="551"/>
-      <c r="C13" s="552"/>
+      <c r="B13" s="554"/>
+      <c r="C13" s="555"/>
       <c r="D13" s="391">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13434,16 +13428,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.62" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 9_2020.xlsx
@@ -2705,16 +2705,115 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2735,107 +2834,38 @@
     <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2861,39 +2891,9 @@
     <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2903,93 +2903,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3053,33 +3053,24 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3116,6 +3107,36 @@
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3123,27 +3144,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3468,10 +3468,10 @@
     <col min="1" max="2" width="11.42578125" style="262" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="229" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" style="229" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="227" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="227" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="227" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="227" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="227" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="227" customWidth="1"/>
+    <col min="7" max="7" width="13" style="227" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="227" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="229"/>
   </cols>
   <sheetData>
@@ -5163,13 +5163,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="428" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
+      <c r="D1" s="428"/>
+      <c r="E1" s="428"/>
       <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5183,156 +5183,156 @@
       <c r="N2" s="143"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="431" t="s">
+      <c r="A3" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="431"/>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431"/>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="431"/>
-      <c r="I3" s="431"/>
-      <c r="J3" s="431"/>
-      <c r="K3" s="431"/>
-      <c r="L3" s="431"/>
-      <c r="M3" s="431"/>
-      <c r="N3" s="431"/>
-      <c r="O3" s="431"/>
-      <c r="P3" s="431"/>
+      <c r="B3" s="429"/>
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
+      <c r="G3" s="429"/>
+      <c r="H3" s="429"/>
+      <c r="I3" s="429"/>
+      <c r="J3" s="429"/>
+      <c r="K3" s="429"/>
+      <c r="L3" s="429"/>
+      <c r="M3" s="429"/>
+      <c r="N3" s="429"/>
+      <c r="O3" s="429"/>
+      <c r="P3" s="429"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="431" t="s">
+      <c r="A4" s="429" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="431"/>
-      <c r="C4" s="431"/>
-      <c r="D4" s="431"/>
-      <c r="E4" s="431"/>
-      <c r="F4" s="431"/>
-      <c r="G4" s="431"/>
-      <c r="H4" s="431"/>
-      <c r="I4" s="431"/>
-      <c r="J4" s="431"/>
-      <c r="K4" s="431"/>
-      <c r="L4" s="431"/>
-      <c r="M4" s="431"/>
-      <c r="N4" s="431"/>
-      <c r="O4" s="431"/>
-      <c r="P4" s="431"/>
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="429"/>
+      <c r="K4" s="429"/>
+      <c r="L4" s="429"/>
+      <c r="M4" s="429"/>
+      <c r="N4" s="429"/>
+      <c r="O4" s="429"/>
+      <c r="P4" s="429"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="431"/>
-      <c r="B5" s="431"/>
-      <c r="C5" s="431"/>
-      <c r="D5" s="431"/>
-      <c r="E5" s="431"/>
-      <c r="F5" s="431"/>
-      <c r="G5" s="431"/>
-      <c r="H5" s="431"/>
-      <c r="I5" s="431"/>
-      <c r="J5" s="431"/>
-      <c r="K5" s="432"/>
-      <c r="L5" s="432"/>
+      <c r="A5" s="429"/>
+      <c r="B5" s="429"/>
+      <c r="C5" s="429"/>
+      <c r="D5" s="429"/>
+      <c r="E5" s="429"/>
+      <c r="F5" s="429"/>
+      <c r="G5" s="429"/>
+      <c r="H5" s="429"/>
+      <c r="I5" s="429"/>
+      <c r="J5" s="429"/>
+      <c r="K5" s="430"/>
+      <c r="L5" s="430"/>
     </row>
     <row r="6" spans="1:17" s="144" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="433" t="s">
+      <c r="A6" s="423" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="431" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="433" t="s">
+      <c r="C6" s="423" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="439" t="s">
+      <c r="D6" s="433" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="439"/>
-      <c r="F6" s="440" t="s">
+      <c r="E6" s="433"/>
+      <c r="F6" s="434" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="440"/>
-      <c r="H6" s="440"/>
-      <c r="I6" s="440"/>
-      <c r="J6" s="440"/>
-      <c r="K6" s="440"/>
-      <c r="L6" s="440"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="441"/>
-      <c r="O6" s="441"/>
-      <c r="P6" s="442" t="s">
+      <c r="G6" s="434"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="434"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="434"/>
+      <c r="L6" s="434"/>
+      <c r="M6" s="435"/>
+      <c r="N6" s="435"/>
+      <c r="O6" s="435"/>
+      <c r="P6" s="436" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="144" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="434"/>
-      <c r="B7" s="436"/>
-      <c r="C7" s="434"/>
-      <c r="D7" s="433" t="s">
+      <c r="A7" s="424"/>
+      <c r="B7" s="432"/>
+      <c r="C7" s="424"/>
+      <c r="D7" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="433" t="s">
+      <c r="E7" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="433" t="s">
+      <c r="F7" s="423" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="433" t="s">
+      <c r="G7" s="423" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="437" t="s">
+      <c r="H7" s="421" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="437" t="s">
+      <c r="I7" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="444" t="s">
+      <c r="J7" s="425" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="444"/>
-      <c r="L7" s="437" t="s">
+      <c r="K7" s="425"/>
+      <c r="L7" s="421" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="437" t="s">
+      <c r="M7" s="421" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="437" t="s">
+      <c r="N7" s="421" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="437" t="s">
+      <c r="O7" s="421" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="443"/>
+      <c r="P7" s="437"/>
     </row>
     <row r="8" spans="1:17" s="144" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="434"/>
-      <c r="B8" s="436"/>
-      <c r="C8" s="434"/>
-      <c r="D8" s="434"/>
-      <c r="E8" s="434"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="434"/>
-      <c r="H8" s="438"/>
-      <c r="I8" s="438"/>
+      <c r="A8" s="424"/>
+      <c r="B8" s="432"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="424"/>
+      <c r="E8" s="424"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="424"/>
+      <c r="H8" s="422"/>
+      <c r="I8" s="422"/>
       <c r="J8" s="179" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="438"/>
-      <c r="M8" s="438"/>
-      <c r="N8" s="438"/>
-      <c r="O8" s="438"/>
-      <c r="P8" s="443"/>
+      <c r="L8" s="422"/>
+      <c r="M8" s="422"/>
+      <c r="N8" s="422"/>
+      <c r="O8" s="422"/>
+      <c r="P8" s="437"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="419">
+      <c r="A9" s="444">
         <v>785</v>
       </c>
-      <c r="B9" s="422">
+      <c r="B9" s="442">
         <v>44077</v>
       </c>
       <c r="C9" s="407"/>
@@ -5374,11 +5374,11 @@
       <c r="P9" s="217"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="423"/>
-      <c r="C10" s="409"/>
-      <c r="D10" s="409"/>
-      <c r="E10" s="409"/>
+      <c r="A10" s="445"/>
+      <c r="B10" s="443"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="417"/>
       <c r="F10" s="219" t="s">
         <v>127</v>
       </c>
@@ -5525,11 +5525,11 @@
       <c r="P13" s="218"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="409"/>
-      <c r="B14" s="412"/>
-      <c r="C14" s="409"/>
-      <c r="D14" s="409"/>
-      <c r="E14" s="409"/>
+      <c r="A14" s="417"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="417"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="417"/>
       <c r="F14" s="219" t="s">
         <v>124</v>
       </c>
@@ -5702,10 +5702,10 @@
       <c r="C18" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="445" t="s">
+      <c r="D18" s="413" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="445" t="s">
+      <c r="E18" s="413" t="s">
         <v>148</v>
       </c>
       <c r="F18" s="329" t="s">
@@ -5738,11 +5738,11 @@
       <c r="P18" s="336"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="409"/>
-      <c r="B19" s="412"/>
-      <c r="C19" s="409"/>
-      <c r="D19" s="447"/>
-      <c r="E19" s="447"/>
+      <c r="A19" s="417"/>
+      <c r="B19" s="418"/>
+      <c r="C19" s="417"/>
+      <c r="D19" s="416"/>
+      <c r="E19" s="416"/>
       <c r="F19" s="330" t="s">
         <v>125</v>
       </c>
@@ -5780,10 +5780,10 @@
         <v>44088</v>
       </c>
       <c r="C20" s="407"/>
-      <c r="D20" s="445" t="s">
+      <c r="D20" s="413" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="448"/>
+      <c r="E20" s="419"/>
       <c r="F20" s="314" t="s">
         <v>125</v>
       </c>
@@ -5814,11 +5814,11 @@
       <c r="P20" s="316"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="409"/>
-      <c r="B21" s="412"/>
-      <c r="C21" s="409"/>
-      <c r="D21" s="447"/>
-      <c r="E21" s="449"/>
+      <c r="A21" s="417"/>
+      <c r="B21" s="418"/>
+      <c r="C21" s="417"/>
+      <c r="D21" s="416"/>
+      <c r="E21" s="420"/>
       <c r="F21" s="315" t="s">
         <v>126</v>
       </c>
@@ -5903,10 +5903,10 @@
       <c r="C23" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="445" t="s">
+      <c r="D23" s="413" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="445"/>
+      <c r="E23" s="413"/>
       <c r="F23" s="329" t="s">
         <v>125</v>
       </c>
@@ -5940,8 +5940,8 @@
       <c r="A24" s="408"/>
       <c r="B24" s="411"/>
       <c r="C24" s="408"/>
-      <c r="D24" s="446"/>
-      <c r="E24" s="446"/>
+      <c r="D24" s="414"/>
+      <c r="E24" s="414"/>
       <c r="F24" s="333" t="s">
         <v>126</v>
       </c>
@@ -5975,8 +5975,8 @@
       <c r="A25" s="408"/>
       <c r="B25" s="411"/>
       <c r="C25" s="408"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="446"/>
+      <c r="D25" s="414"/>
+      <c r="E25" s="414"/>
       <c r="F25" s="333" t="s">
         <v>133</v>
       </c>
@@ -6008,11 +6008,11 @@
       <c r="R25" s="184"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="409"/>
-      <c r="B26" s="412"/>
-      <c r="C26" s="409"/>
-      <c r="D26" s="447"/>
-      <c r="E26" s="447"/>
+      <c r="A26" s="417"/>
+      <c r="B26" s="418"/>
+      <c r="C26" s="417"/>
+      <c r="D26" s="416"/>
+      <c r="E26" s="416"/>
       <c r="F26" s="330" t="s">
         <v>124</v>
       </c>
@@ -6091,10 +6091,10 @@
         <v>44090</v>
       </c>
       <c r="C28" s="407"/>
-      <c r="D28" s="445" t="s">
+      <c r="D28" s="413" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="445"/>
+      <c r="E28" s="413"/>
       <c r="F28" s="329" t="s">
         <v>125</v>
       </c>
@@ -6128,8 +6128,8 @@
       <c r="A29" s="408"/>
       <c r="B29" s="411"/>
       <c r="C29" s="408"/>
-      <c r="D29" s="446"/>
-      <c r="E29" s="446"/>
+      <c r="D29" s="414"/>
+      <c r="E29" s="414"/>
       <c r="F29" s="333" t="s">
         <v>126</v>
       </c>
@@ -6160,11 +6160,11 @@
       <c r="P29" s="333"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="409"/>
-      <c r="B30" s="412"/>
-      <c r="C30" s="409"/>
-      <c r="D30" s="447"/>
-      <c r="E30" s="447"/>
+      <c r="A30" s="417"/>
+      <c r="B30" s="418"/>
+      <c r="C30" s="417"/>
+      <c r="D30" s="416"/>
+      <c r="E30" s="416"/>
       <c r="F30" s="330" t="s">
         <v>124</v>
       </c>
@@ -6416,11 +6416,11 @@
       <c r="P35" s="329"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="409"/>
-      <c r="B36" s="412"/>
-      <c r="C36" s="409"/>
-      <c r="D36" s="409"/>
-      <c r="E36" s="409"/>
+      <c r="A36" s="417"/>
+      <c r="B36" s="418"/>
+      <c r="C36" s="417"/>
+      <c r="D36" s="417"/>
+      <c r="E36" s="417"/>
       <c r="F36" s="330" t="s">
         <v>126</v>
       </c>
@@ -6626,7 +6626,7 @@
       <c r="C41" s="407" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="445" t="s">
+      <c r="D41" s="413" t="s">
         <v>216</v>
       </c>
       <c r="E41" s="407"/>
@@ -6661,7 +6661,7 @@
       <c r="A42" s="408"/>
       <c r="B42" s="411"/>
       <c r="C42" s="408"/>
-      <c r="D42" s="446"/>
+      <c r="D42" s="414"/>
       <c r="E42" s="408"/>
       <c r="F42" s="333" t="s">
         <v>125</v>
@@ -6694,7 +6694,7 @@
       <c r="A43" s="408"/>
       <c r="B43" s="411"/>
       <c r="C43" s="408"/>
-      <c r="D43" s="446"/>
+      <c r="D43" s="414"/>
       <c r="E43" s="408"/>
       <c r="F43" s="333" t="s">
         <v>126</v>
@@ -6727,7 +6727,7 @@
       <c r="A44" s="408"/>
       <c r="B44" s="411"/>
       <c r="C44" s="408"/>
-      <c r="D44" s="446"/>
+      <c r="D44" s="414"/>
       <c r="E44" s="408"/>
       <c r="F44" s="333" t="s">
         <v>204</v>
@@ -6760,7 +6760,7 @@
       <c r="A45" s="408"/>
       <c r="B45" s="411"/>
       <c r="C45" s="408"/>
-      <c r="D45" s="446"/>
+      <c r="D45" s="414"/>
       <c r="E45" s="408"/>
       <c r="F45" s="333" t="s">
         <v>124</v>
@@ -6793,7 +6793,7 @@
       <c r="A46" s="408"/>
       <c r="B46" s="411"/>
       <c r="C46" s="408"/>
-      <c r="D46" s="446"/>
+      <c r="D46" s="414"/>
       <c r="E46" s="408"/>
       <c r="F46" s="333" t="s">
         <v>127</v>
@@ -6826,7 +6826,7 @@
       <c r="A47" s="408"/>
       <c r="B47" s="411"/>
       <c r="C47" s="408"/>
-      <c r="D47" s="446"/>
+      <c r="D47" s="414"/>
       <c r="E47" s="408"/>
       <c r="F47" s="333" t="s">
         <v>128</v>
@@ -6856,11 +6856,11 @@
       <c r="Q47" s="184"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="450"/>
-      <c r="B48" s="451"/>
-      <c r="C48" s="450"/>
-      <c r="D48" s="452"/>
-      <c r="E48" s="450"/>
+      <c r="A48" s="409"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="409"/>
+      <c r="D48" s="415"/>
+      <c r="E48" s="409"/>
       <c r="F48" s="335" t="s">
         <v>213</v>
       </c>
@@ -6983,11 +6983,11 @@
       <c r="B51" s="410">
         <v>44102</v>
       </c>
-      <c r="C51" s="413"/>
-      <c r="D51" s="416" t="s">
+      <c r="C51" s="446"/>
+      <c r="D51" s="449" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="419" t="s">
+      <c r="E51" s="444" t="s">
         <v>223</v>
       </c>
       <c r="F51" s="341" t="s">
@@ -7023,9 +7023,9 @@
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="408"/>
       <c r="B52" s="411"/>
-      <c r="C52" s="414"/>
-      <c r="D52" s="417"/>
-      <c r="E52" s="420"/>
+      <c r="C52" s="447"/>
+      <c r="D52" s="450"/>
+      <c r="E52" s="445"/>
       <c r="F52" s="343" t="s">
         <v>204</v>
       </c>
@@ -7059,9 +7059,9 @@
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="408"/>
       <c r="B53" s="411"/>
-      <c r="C53" s="414"/>
-      <c r="D53" s="417"/>
-      <c r="E53" s="420"/>
+      <c r="C53" s="447"/>
+      <c r="D53" s="450"/>
+      <c r="E53" s="445"/>
       <c r="F53" s="343" t="s">
         <v>124</v>
       </c>
@@ -7095,9 +7095,9 @@
     <row r="54" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="408"/>
       <c r="B54" s="411"/>
-      <c r="C54" s="414"/>
-      <c r="D54" s="417"/>
-      <c r="E54" s="420"/>
+      <c r="C54" s="447"/>
+      <c r="D54" s="450"/>
+      <c r="E54" s="445"/>
       <c r="F54" s="343" t="s">
         <v>127</v>
       </c>
@@ -7129,11 +7129,11 @@
       <c r="Q54" s="184"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="409"/>
-      <c r="B55" s="412"/>
-      <c r="C55" s="415"/>
-      <c r="D55" s="418"/>
-      <c r="E55" s="421"/>
+      <c r="A55" s="417"/>
+      <c r="B55" s="418"/>
+      <c r="C55" s="448"/>
+      <c r="D55" s="451"/>
+      <c r="E55" s="452"/>
       <c r="F55" s="342" t="s">
         <v>128</v>
       </c>
@@ -7211,14 +7211,14 @@
       <c r="Q56" s="184"/>
     </row>
     <row r="57" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A57" s="425" t="s">
+      <c r="A57" s="438" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="426"/>
-      <c r="C57" s="426"/>
-      <c r="D57" s="426"/>
-      <c r="E57" s="426"/>
-      <c r="F57" s="427"/>
+      <c r="B57" s="439"/>
+      <c r="C57" s="439"/>
+      <c r="D57" s="439"/>
+      <c r="E57" s="439"/>
+      <c r="F57" s="440"/>
       <c r="G57" s="158">
         <f>SUM(G13:G56)</f>
         <v>466</v>
@@ -7237,18 +7237,18 @@
       <c r="M57" s="164"/>
       <c r="N57" s="164"/>
       <c r="O57" s="164"/>
-      <c r="P57" s="428"/>
-      <c r="Q57" s="429"/>
+      <c r="P57" s="441"/>
+      <c r="Q57" s="426"/>
     </row>
     <row r="58" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A58" s="424" t="s">
+      <c r="A58" s="427" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="424"/>
-      <c r="C58" s="424"/>
-      <c r="D58" s="424"/>
-      <c r="E58" s="424"/>
-      <c r="F58" s="424"/>
+      <c r="B58" s="427"/>
+      <c r="C58" s="427"/>
+      <c r="D58" s="427"/>
+      <c r="E58" s="427"/>
+      <c r="F58" s="427"/>
       <c r="G58" s="146">
         <f>G57</f>
         <v>466</v>
@@ -7264,18 +7264,18 @@
       <c r="M58" s="149"/>
       <c r="N58" s="149"/>
       <c r="O58" s="149"/>
-      <c r="P58" s="428"/>
-      <c r="Q58" s="429"/>
+      <c r="P58" s="441"/>
+      <c r="Q58" s="426"/>
     </row>
     <row r="59" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A59" s="424" t="s">
+      <c r="A59" s="427" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="424"/>
-      <c r="C59" s="424"/>
-      <c r="D59" s="424"/>
-      <c r="E59" s="424"/>
-      <c r="F59" s="424"/>
+      <c r="B59" s="427"/>
+      <c r="C59" s="427"/>
+      <c r="D59" s="427"/>
+      <c r="E59" s="427"/>
+      <c r="F59" s="427"/>
       <c r="G59" s="153" t="s">
         <v>49</v>
       </c>
@@ -7292,14 +7292,14 @@
       <c r="O59" s="149"/>
     </row>
     <row r="60" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A60" s="424" t="s">
+      <c r="A60" s="427" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="424"/>
-      <c r="C60" s="424"/>
-      <c r="D60" s="424"/>
-      <c r="E60" s="424"/>
-      <c r="F60" s="424"/>
+      <c r="B60" s="427"/>
+      <c r="C60" s="427"/>
+      <c r="D60" s="427"/>
+      <c r="E60" s="427"/>
+      <c r="F60" s="427"/>
       <c r="G60" s="153"/>
       <c r="H60" s="156"/>
       <c r="I60" s="147"/>
@@ -7314,14 +7314,14 @@
       <c r="O60" s="149"/>
     </row>
     <row r="61" spans="1:17" s="152" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A61" s="424" t="s">
+      <c r="A61" s="427" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="424"/>
-      <c r="C61" s="424"/>
-      <c r="D61" s="424"/>
-      <c r="E61" s="424"/>
-      <c r="F61" s="424"/>
+      <c r="B61" s="427"/>
+      <c r="C61" s="427"/>
+      <c r="D61" s="427"/>
+      <c r="E61" s="427"/>
+      <c r="F61" s="427"/>
       <c r="G61" s="153"/>
       <c r="H61" s="156"/>
       <c r="I61" s="147"/>
@@ -7397,44 +7397,26 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="74">
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="E41:E48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A59:F59"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A1:E1"/>
@@ -7451,26 +7433,44 @@
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:P8"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="E41:E48"/>
+    <mergeCell ref="D41:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7503,93 +7503,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="453" t="s">
+      <c r="A1" s="463" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="453"/>
-      <c r="C1" s="453"/>
-      <c r="D1" s="453"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="464" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
+      <c r="B2" s="464"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="464"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="455" t="s">
+      <c r="A3" s="465" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
-      <c r="F3" s="455"/>
-      <c r="G3" s="455"/>
-      <c r="H3" s="455"/>
-      <c r="I3" s="455"/>
-      <c r="J3" s="455"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="455"/>
-      <c r="M3" s="455"/>
-      <c r="N3" s="455"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
+      <c r="J3" s="465"/>
+      <c r="K3" s="465"/>
+      <c r="L3" s="465"/>
+      <c r="M3" s="465"/>
+      <c r="N3" s="465"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="466" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="456"/>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456"/>
-      <c r="H4" s="456"/>
-      <c r="I4" s="457"/>
-      <c r="J4" s="456"/>
-      <c r="K4" s="456"/>
-      <c r="L4" s="456"/>
-      <c r="M4" s="456"/>
-      <c r="N4" s="456"/>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="466"/>
+      <c r="F4" s="466"/>
+      <c r="G4" s="466"/>
+      <c r="H4" s="466"/>
+      <c r="I4" s="467"/>
+      <c r="J4" s="466"/>
+      <c r="K4" s="466"/>
+      <c r="L4" s="466"/>
+      <c r="M4" s="466"/>
+      <c r="N4" s="466"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458" t="s">
+      <c r="A5" s="468" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="470" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="459" t="s">
+      <c r="C5" s="469" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="461" t="s">
+      <c r="E5" s="462" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463" t="s">
+      <c r="F5" s="462"/>
+      <c r="G5" s="462"/>
+      <c r="H5" s="462"/>
+      <c r="I5" s="471"/>
+      <c r="J5" s="461" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="461" t="s">
+      <c r="K5" s="462" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="459" t="s">
+      <c r="L5" s="462"/>
+      <c r="M5" s="462"/>
+      <c r="N5" s="469" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="458"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="459"/>
+      <c r="A6" s="468"/>
+      <c r="B6" s="470"/>
+      <c r="C6" s="469"/>
       <c r="D6" s="267" t="s">
         <v>41</v>
       </c>
@@ -7608,7 +7608,7 @@
       <c r="I6" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="463"/>
+      <c r="J6" s="461"/>
       <c r="K6" s="267" t="s">
         <v>45</v>
       </c>
@@ -7618,7 +7618,7 @@
       <c r="M6" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="459"/>
+      <c r="N6" s="469"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="174">
@@ -7668,8 +7668,8 @@
       <c r="B8" s="410">
         <v>44088</v>
       </c>
-      <c r="C8" s="413"/>
-      <c r="D8" s="416" t="s">
+      <c r="C8" s="446"/>
+      <c r="D8" s="449" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="341" t="s">
@@ -7702,10 +7702,10 @@
       <c r="Q8" s="184"/>
     </row>
     <row r="9" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="409"/>
-      <c r="B9" s="412"/>
-      <c r="C9" s="415"/>
-      <c r="D9" s="418"/>
+      <c r="A9" s="417"/>
+      <c r="B9" s="418"/>
+      <c r="C9" s="448"/>
+      <c r="D9" s="451"/>
       <c r="E9" s="342" t="s">
         <v>204</v>
       </c>
@@ -7816,14 +7816,14 @@
       <c r="Q11" s="184"/>
     </row>
     <row r="12" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="419">
+      <c r="A12" s="444">
         <v>803</v>
       </c>
-      <c r="B12" s="422">
+      <c r="B12" s="442">
         <v>44095</v>
       </c>
-      <c r="C12" s="466"/>
-      <c r="D12" s="469" t="s">
+      <c r="C12" s="455"/>
+      <c r="D12" s="458" t="s">
         <v>220</v>
       </c>
       <c r="E12" s="338" t="s">
@@ -7856,10 +7856,10 @@
       <c r="Q12" s="184"/>
     </row>
     <row r="13" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="420"/>
-      <c r="B13" s="423"/>
-      <c r="C13" s="467"/>
-      <c r="D13" s="470"/>
+      <c r="A13" s="445"/>
+      <c r="B13" s="443"/>
+      <c r="C13" s="456"/>
+      <c r="D13" s="459"/>
       <c r="E13" s="338" t="s">
         <v>204</v>
       </c>
@@ -7890,10 +7890,10 @@
       <c r="Q13" s="184"/>
     </row>
     <row r="14" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="420"/>
-      <c r="B14" s="423"/>
-      <c r="C14" s="467"/>
-      <c r="D14" s="470"/>
+      <c r="A14" s="445"/>
+      <c r="B14" s="443"/>
+      <c r="C14" s="456"/>
+      <c r="D14" s="459"/>
       <c r="E14" s="338" t="s">
         <v>124</v>
       </c>
@@ -7924,10 +7924,10 @@
       <c r="Q14" s="184"/>
     </row>
     <row r="15" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="420"/>
-      <c r="B15" s="423"/>
-      <c r="C15" s="467"/>
-      <c r="D15" s="470"/>
+      <c r="A15" s="445"/>
+      <c r="B15" s="443"/>
+      <c r="C15" s="456"/>
+      <c r="D15" s="459"/>
       <c r="E15" s="338" t="s">
         <v>127</v>
       </c>
@@ -7958,10 +7958,10 @@
       <c r="Q15" s="184"/>
     </row>
     <row r="16" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="421"/>
-      <c r="B16" s="465"/>
-      <c r="C16" s="468"/>
-      <c r="D16" s="471"/>
+      <c r="A16" s="452"/>
+      <c r="B16" s="454"/>
+      <c r="C16" s="457"/>
+      <c r="D16" s="460"/>
       <c r="E16" s="338" t="s">
         <v>128</v>
       </c>
@@ -7998,8 +7998,8 @@
       <c r="B17" s="410">
         <v>44096</v>
       </c>
-      <c r="C17" s="413"/>
-      <c r="D17" s="416" t="s">
+      <c r="C17" s="446"/>
+      <c r="D17" s="449" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="341" t="s">
@@ -8034,8 +8034,8 @@
     <row r="18" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="408"/>
       <c r="B18" s="411"/>
-      <c r="C18" s="414"/>
-      <c r="D18" s="417"/>
+      <c r="C18" s="447"/>
+      <c r="D18" s="450"/>
       <c r="E18" s="343" t="s">
         <v>125</v>
       </c>
@@ -8068,8 +8068,8 @@
     <row r="19" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="408"/>
       <c r="B19" s="411"/>
-      <c r="C19" s="414"/>
-      <c r="D19" s="417"/>
+      <c r="C19" s="447"/>
+      <c r="D19" s="450"/>
       <c r="E19" s="343" t="s">
         <v>126</v>
       </c>
@@ -8102,8 +8102,8 @@
     <row r="20" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="408"/>
       <c r="B20" s="411"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="417"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="450"/>
       <c r="E20" s="343" t="s">
         <v>204</v>
       </c>
@@ -8136,8 +8136,8 @@
     <row r="21" spans="1:17" s="136" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="408"/>
       <c r="B21" s="411"/>
-      <c r="C21" s="414"/>
-      <c r="D21" s="417"/>
+      <c r="C21" s="447"/>
+      <c r="D21" s="450"/>
       <c r="E21" s="343" t="s">
         <v>124</v>
       </c>
@@ -8170,8 +8170,8 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="408"/>
       <c r="B22" s="411"/>
-      <c r="C22" s="414"/>
-      <c r="D22" s="417"/>
+      <c r="C22" s="447"/>
+      <c r="D22" s="450"/>
       <c r="E22" s="343" t="s">
         <v>127</v>
       </c>
@@ -8203,8 +8203,8 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="408"/>
       <c r="B23" s="411"/>
-      <c r="C23" s="414"/>
-      <c r="D23" s="417"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="450"/>
       <c r="E23" s="343" t="s">
         <v>128</v>
       </c>
@@ -8234,10 +8234,10 @@
       <c r="N23" s="203"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="409"/>
-      <c r="B24" s="412"/>
-      <c r="C24" s="415"/>
-      <c r="D24" s="418"/>
+      <c r="A24" s="417"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="448"/>
+      <c r="D24" s="451"/>
       <c r="E24" s="342" t="s">
         <v>213</v>
       </c>
@@ -8445,10 +8445,10 @@
       <c r="N32" s="203"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="409"/>
-      <c r="B33" s="412"/>
-      <c r="C33" s="409"/>
-      <c r="D33" s="409"/>
+      <c r="A33" s="417"/>
+      <c r="B33" s="418"/>
+      <c r="C33" s="417"/>
+      <c r="D33" s="417"/>
       <c r="E33" s="176"/>
       <c r="F33" s="176"/>
       <c r="G33" s="279"/>
@@ -8509,10 +8509,10 @@
       <c r="N36" s="203"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="409"/>
-      <c r="B37" s="412"/>
-      <c r="C37" s="409"/>
-      <c r="D37" s="409"/>
+      <c r="A37" s="417"/>
+      <c r="B37" s="418"/>
+      <c r="C37" s="417"/>
+      <c r="D37" s="417"/>
       <c r="E37" s="176"/>
       <c r="F37" s="176"/>
       <c r="G37" s="279"/>
@@ -8605,10 +8605,10 @@
       <c r="N42" s="200"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="409"/>
-      <c r="B43" s="412"/>
-      <c r="C43" s="409"/>
-      <c r="D43" s="409"/>
+      <c r="A43" s="417"/>
+      <c r="B43" s="418"/>
+      <c r="C43" s="417"/>
+      <c r="D43" s="417"/>
       <c r="E43" s="176"/>
       <c r="F43" s="176"/>
       <c r="G43" s="279"/>
@@ -8653,12 +8653,12 @@
       <c r="N45" s="204"/>
     </row>
     <row r="46" spans="1:14" s="305" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="464" t="s">
+      <c r="A46" s="453" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="464"/>
-      <c r="C46" s="464"/>
-      <c r="D46" s="464"/>
+      <c r="B46" s="453"/>
+      <c r="C46" s="453"/>
+      <c r="D46" s="453"/>
       <c r="E46" s="301"/>
       <c r="F46" s="301">
         <f>SUM(F7:F45)</f>
@@ -8746,26 +8746,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B31:B33"/>
@@ -8782,6 +8762,26 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9327,13 +9327,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9353,101 +9353,101 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="488" t="s">
+      <c r="A3" s="479" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
-      <c r="K3" s="488"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="483" t="s">
+      <c r="B4" s="495" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="482" t="s">
+      <c r="C4" s="480" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="482" t="s">
+      <c r="D4" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="482"/>
-      <c r="F4" s="475" t="s">
+      <c r="E4" s="480"/>
+      <c r="F4" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="475"/>
-      <c r="L4" s="479" t="s">
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="488"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="492" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="480"/>
-      <c r="N4" s="481"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="494"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="482"/>
-      <c r="B5" s="483"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482" t="s">
+      <c r="A5" s="480"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="482" t="s">
+      <c r="E5" s="480" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="482" t="s">
+      <c r="F5" s="480" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="482" t="s">
+      <c r="G5" s="480" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="489" t="s">
+      <c r="H5" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="489" t="s">
+      <c r="I5" s="481" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="359"/>
-      <c r="K5" s="489" t="s">
+      <c r="K5" s="481" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="437" t="s">
+      <c r="L5" s="421" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="437" t="s">
+      <c r="M5" s="421" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="437" t="s">
+      <c r="N5" s="421" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="482"/>
-      <c r="B6" s="483"/>
-      <c r="C6" s="482"/>
-      <c r="D6" s="482"/>
-      <c r="E6" s="482"/>
-      <c r="F6" s="482"/>
-      <c r="G6" s="482"/>
-      <c r="H6" s="489"/>
-      <c r="I6" s="489"/>
+      <c r="A6" s="480"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="480"/>
+      <c r="E6" s="480"/>
+      <c r="F6" s="480"/>
+      <c r="G6" s="480"/>
+      <c r="H6" s="481"/>
+      <c r="I6" s="481"/>
       <c r="J6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="489"/>
-      <c r="L6" s="438"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="438"/>
+      <c r="K6" s="481"/>
+      <c r="L6" s="422"/>
+      <c r="M6" s="422"/>
+      <c r="N6" s="422"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="325">
@@ -9640,11 +9640,11 @@
       <c r="N11" s="180"/>
     </row>
     <row r="12" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="409"/>
-      <c r="B12" s="412"/>
-      <c r="C12" s="409"/>
-      <c r="D12" s="409"/>
-      <c r="E12" s="409"/>
+      <c r="A12" s="417"/>
+      <c r="B12" s="418"/>
+      <c r="C12" s="417"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="417"/>
       <c r="F12" s="355" t="s">
         <v>126</v>
       </c>
@@ -9670,16 +9670,16 @@
       <c r="N12" s="185"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="476" t="s">
+      <c r="A13" s="489" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="477"/>
-      <c r="C13" s="477"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="477"/>
-      <c r="F13" s="477"/>
-      <c r="G13" s="477"/>
-      <c r="H13" s="478"/>
+      <c r="B13" s="490"/>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="490"/>
+      <c r="G13" s="490"/>
+      <c r="H13" s="491"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>14675000</v>
@@ -9719,14 +9719,14 @@
       <c r="A15" s="165"/>
       <c r="B15" s="165"/>
       <c r="C15" s="165"/>
-      <c r="D15" s="490" t="s">
+      <c r="D15" s="482" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="491"/>
-      <c r="F15" s="491"/>
-      <c r="G15" s="491"/>
-      <c r="H15" s="491"/>
-      <c r="I15" s="492"/>
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="484"/>
       <c r="J15" s="361"/>
       <c r="K15" s="166"/>
     </row>
@@ -9734,14 +9734,14 @@
       <c r="A16" s="165"/>
       <c r="B16" s="165"/>
       <c r="C16" s="165"/>
-      <c r="D16" s="493" t="s">
+      <c r="D16" s="485" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="494"/>
-      <c r="F16" s="494"/>
-      <c r="G16" s="494"/>
-      <c r="H16" s="494"/>
-      <c r="I16" s="495"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
       <c r="J16" s="365">
         <v>2309530</v>
       </c>
@@ -9750,14 +9750,14 @@
       <c r="A17" s="165"/>
       <c r="B17" s="165"/>
       <c r="C17" s="165"/>
-      <c r="D17" s="493" t="s">
+      <c r="D17" s="485" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="494"/>
-      <c r="F17" s="494"/>
-      <c r="G17" s="494"/>
-      <c r="H17" s="494"/>
-      <c r="I17" s="495"/>
+      <c r="E17" s="486"/>
+      <c r="F17" s="486"/>
+      <c r="G17" s="486"/>
+      <c r="H17" s="486"/>
+      <c r="I17" s="487"/>
       <c r="J17" s="365">
         <f>N13</f>
         <v>4200100.0000000009</v>
@@ -9767,14 +9767,14 @@
       <c r="A18" s="165"/>
       <c r="B18" s="165"/>
       <c r="C18" s="165"/>
-      <c r="D18" s="486" t="s">
+      <c r="D18" s="477" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="486"/>
-      <c r="F18" s="486"/>
-      <c r="G18" s="486"/>
-      <c r="H18" s="486"/>
-      <c r="I18" s="486"/>
+      <c r="E18" s="477"/>
+      <c r="F18" s="477"/>
+      <c r="G18" s="477"/>
+      <c r="H18" s="477"/>
+      <c r="I18" s="477"/>
       <c r="J18" s="365">
         <f>SUM(J16:L17)</f>
         <v>6509630.0000000009</v>
@@ -9788,10 +9788,10 @@
       <c r="E19" s="168"/>
       <c r="F19" s="168"/>
       <c r="G19" s="168"/>
-      <c r="H19" s="484" t="s">
+      <c r="H19" s="475" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="484"/>
+      <c r="I19" s="475"/>
       <c r="J19" s="365">
         <v>2500000</v>
       </c>
@@ -9804,10 +9804,10 @@
       <c r="E20" s="168"/>
       <c r="F20" s="168"/>
       <c r="G20" s="168"/>
-      <c r="H20" s="485" t="s">
+      <c r="H20" s="476" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="485"/>
+      <c r="I20" s="476"/>
       <c r="J20" s="365">
         <f>J18+J19</f>
         <v>9009630</v>
@@ -9860,6 +9860,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D18:I18"/>
@@ -9876,20 +9890,6 @@
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.2" top="0.82" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9922,13 +9922,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -9948,92 +9948,92 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="488" t="s">
+      <c r="A3" s="479" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="488"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="479"/>
+      <c r="D3" s="479"/>
+      <c r="E3" s="479"/>
+      <c r="F3" s="479"/>
+      <c r="G3" s="479"/>
+      <c r="H3" s="479"/>
+      <c r="I3" s="479"/>
+      <c r="J3" s="479"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
     </row>
     <row r="4" spans="1:14" s="71" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="483" t="s">
+      <c r="B4" s="495" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="482" t="s">
+      <c r="C4" s="480" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="482" t="s">
+      <c r="D4" s="480" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="482"/>
-      <c r="F4" s="475" t="s">
+      <c r="E4" s="480"/>
+      <c r="F4" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="475"/>
-      <c r="H4" s="475"/>
-      <c r="I4" s="475"/>
-      <c r="J4" s="475"/>
-      <c r="K4" s="475"/>
-      <c r="L4" s="475"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="488"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="488"/>
     </row>
     <row r="5" spans="1:14" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="482"/>
-      <c r="B5" s="483"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482" t="s">
+      <c r="A5" s="480"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="482" t="s">
+      <c r="E5" s="480" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="482" t="s">
+      <c r="F5" s="480" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="482" t="s">
+      <c r="G5" s="480" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="489" t="s">
+      <c r="H5" s="481" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="489" t="s">
+      <c r="I5" s="481" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="502" t="s">
+      <c r="J5" s="496" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="503"/>
-      <c r="L5" s="489" t="s">
+      <c r="K5" s="497"/>
+      <c r="L5" s="481" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="482"/>
-      <c r="B6" s="483"/>
-      <c r="C6" s="482"/>
-      <c r="D6" s="482"/>
-      <c r="E6" s="482"/>
-      <c r="F6" s="482"/>
-      <c r="G6" s="482"/>
-      <c r="H6" s="489"/>
-      <c r="I6" s="489"/>
+      <c r="A6" s="480"/>
+      <c r="B6" s="495"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="480"/>
+      <c r="E6" s="480"/>
+      <c r="F6" s="480"/>
+      <c r="G6" s="480"/>
+      <c r="H6" s="481"/>
+      <c r="I6" s="481"/>
       <c r="J6" s="360" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="489"/>
+      <c r="L6" s="481"/>
     </row>
     <row r="7" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="407">
@@ -10045,10 +10045,10 @@
       <c r="C7" s="407" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="445" t="s">
+      <c r="D7" s="413" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="445"/>
+      <c r="E7" s="413"/>
       <c r="F7" s="353" t="s">
         <v>125</v>
       </c>
@@ -10073,8 +10073,8 @@
       <c r="A8" s="408"/>
       <c r="B8" s="411"/>
       <c r="C8" s="408"/>
-      <c r="D8" s="446"/>
-      <c r="E8" s="446"/>
+      <c r="D8" s="414"/>
+      <c r="E8" s="414"/>
       <c r="F8" s="354" t="s">
         <v>126</v>
       </c>
@@ -10099,8 +10099,8 @@
       <c r="A9" s="408"/>
       <c r="B9" s="411"/>
       <c r="C9" s="408"/>
-      <c r="D9" s="446"/>
-      <c r="E9" s="446"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
       <c r="F9" s="354" t="s">
         <v>133</v>
       </c>
@@ -10123,11 +10123,11 @@
       <c r="N9" s="184"/>
     </row>
     <row r="10" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="409"/>
-      <c r="B10" s="412"/>
-      <c r="C10" s="409"/>
-      <c r="D10" s="447"/>
-      <c r="E10" s="447"/>
+      <c r="A10" s="417"/>
+      <c r="B10" s="418"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="416"/>
+      <c r="E10" s="416"/>
       <c r="F10" s="355" t="s">
         <v>124</v>
       </c>
@@ -10221,16 +10221,16 @@
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="1:14" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="476" t="s">
+      <c r="A13" s="489" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="477"/>
-      <c r="C13" s="477"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="477"/>
-      <c r="F13" s="477"/>
-      <c r="G13" s="477"/>
-      <c r="H13" s="478"/>
+      <c r="B13" s="490"/>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="490"/>
+      <c r="G13" s="490"/>
+      <c r="H13" s="491"/>
       <c r="I13" s="366">
         <f>SUM(I7:I12)</f>
         <v>10890000</v>
@@ -10260,130 +10260,130 @@
       <c r="A15" s="358"/>
       <c r="B15" s="358"/>
       <c r="C15" s="358"/>
-      <c r="D15" s="490" t="s">
+      <c r="D15" s="482" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="491"/>
-      <c r="F15" s="491"/>
-      <c r="G15" s="491"/>
-      <c r="H15" s="491"/>
-      <c r="I15" s="492"/>
-      <c r="J15" s="496" t="s">
+      <c r="E15" s="483"/>
+      <c r="F15" s="483"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="483"/>
+      <c r="I15" s="484"/>
+      <c r="J15" s="498" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="497"/>
+      <c r="K15" s="499"/>
       <c r="L15" s="166"/>
     </row>
     <row r="16" spans="1:14" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="358"/>
       <c r="B16" s="358"/>
       <c r="C16" s="358"/>
-      <c r="D16" s="493" t="s">
+      <c r="D16" s="485" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="494"/>
-      <c r="F16" s="494"/>
-      <c r="G16" s="494"/>
-      <c r="H16" s="494"/>
-      <c r="I16" s="495"/>
-      <c r="J16" s="498">
+      <c r="E16" s="486"/>
+      <c r="F16" s="486"/>
+      <c r="G16" s="486"/>
+      <c r="H16" s="486"/>
+      <c r="I16" s="487"/>
+      <c r="J16" s="500">
         <v>4782500</v>
       </c>
-      <c r="K16" s="499"/>
+      <c r="K16" s="501"/>
       <c r="L16" s="166"/>
     </row>
     <row r="17" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="358"/>
       <c r="B17" s="358"/>
       <c r="C17" s="358"/>
-      <c r="D17" s="493" t="s">
+      <c r="D17" s="485" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="494"/>
-      <c r="F17" s="494"/>
-      <c r="G17" s="494"/>
-      <c r="H17" s="494"/>
-      <c r="I17" s="495"/>
-      <c r="J17" s="498">
+      <c r="E17" s="486"/>
+      <c r="F17" s="486"/>
+      <c r="G17" s="486"/>
+      <c r="H17" s="486"/>
+      <c r="I17" s="487"/>
+      <c r="J17" s="500">
         <f>L13</f>
         <v>5445000</v>
       </c>
-      <c r="K17" s="499"/>
+      <c r="K17" s="501"/>
       <c r="L17" s="166"/>
     </row>
     <row r="18" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="358"/>
       <c r="B18" s="358"/>
       <c r="C18" s="358"/>
-      <c r="D18" s="490" t="s">
+      <c r="D18" s="482" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="491"/>
-      <c r="F18" s="491"/>
-      <c r="G18" s="491"/>
-      <c r="H18" s="491"/>
-      <c r="I18" s="492"/>
-      <c r="J18" s="498">
+      <c r="E18" s="483"/>
+      <c r="F18" s="483"/>
+      <c r="G18" s="483"/>
+      <c r="H18" s="483"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="500">
         <f>J17-J16</f>
         <v>662500</v>
       </c>
-      <c r="K18" s="499"/>
+      <c r="K18" s="501"/>
       <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="358"/>
       <c r="B19" s="358"/>
       <c r="C19" s="358"/>
-      <c r="D19" s="493" t="s">
+      <c r="D19" s="485" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="494"/>
-      <c r="F19" s="494"/>
-      <c r="G19" s="494"/>
-      <c r="H19" s="494"/>
-      <c r="I19" s="495"/>
-      <c r="J19" s="498">
+      <c r="E19" s="486"/>
+      <c r="F19" s="486"/>
+      <c r="G19" s="486"/>
+      <c r="H19" s="486"/>
+      <c r="I19" s="487"/>
+      <c r="J19" s="500">
         <v>3000000</v>
       </c>
-      <c r="K19" s="499"/>
+      <c r="K19" s="501"/>
       <c r="L19" s="166"/>
     </row>
     <row r="20" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="358"/>
       <c r="B20" s="358"/>
       <c r="C20" s="358"/>
-      <c r="D20" s="493" t="s">
+      <c r="D20" s="485" t="s">
         <v>303</v>
       </c>
-      <c r="E20" s="494"/>
-      <c r="F20" s="494"/>
-      <c r="G20" s="494"/>
-      <c r="H20" s="494"/>
-      <c r="I20" s="495"/>
-      <c r="J20" s="498">
+      <c r="E20" s="486"/>
+      <c r="F20" s="486"/>
+      <c r="G20" s="486"/>
+      <c r="H20" s="486"/>
+      <c r="I20" s="487"/>
+      <c r="J20" s="500">
         <f>12%*(5000000+5000000)</f>
         <v>1200000</v>
       </c>
-      <c r="K20" s="499"/>
+      <c r="K20" s="501"/>
       <c r="L20" s="166"/>
     </row>
     <row r="21" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="358"/>
       <c r="B21" s="358"/>
       <c r="C21" s="358"/>
-      <c r="D21" s="486" t="s">
+      <c r="D21" s="477" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="486"/>
-      <c r="F21" s="486"/>
-      <c r="G21" s="486"/>
-      <c r="H21" s="486"/>
-      <c r="I21" s="486"/>
-      <c r="J21" s="500">
+      <c r="E21" s="477"/>
+      <c r="F21" s="477"/>
+      <c r="G21" s="477"/>
+      <c r="H21" s="477"/>
+      <c r="I21" s="477"/>
+      <c r="J21" s="502">
         <f>J18+J19-J20</f>
         <v>2462500</v>
       </c>
-      <c r="K21" s="501"/>
+      <c r="K21" s="503"/>
     </row>
     <row r="22" spans="1:12" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="358"/>
@@ -10421,6 +10421,29 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A1:E1"/>
@@ -10433,29 +10456,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <pageMargins left="0.52" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10479,13 +10479,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="478" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10663,14 +10663,14 @@
       <c r="H15" s="506"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="486" t="s">
+      <c r="A16" s="477" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="486"/>
-      <c r="C16" s="486"/>
-      <c r="D16" s="486"/>
-      <c r="E16" s="486"/>
-      <c r="F16" s="486"/>
+      <c r="B16" s="477"/>
+      <c r="C16" s="477"/>
+      <c r="D16" s="477"/>
+      <c r="E16" s="477"/>
+      <c r="F16" s="477"/>
       <c r="G16" s="504">
         <f>G7+G15</f>
         <v>11457538.461538462</v>
@@ -11254,16 +11254,16 @@
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
-      <c r="Z1" s="530" t="s">
+      <c r="Z1" s="543" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="531"/>
-      <c r="AB1" s="531"/>
-      <c r="AC1" s="531"/>
-      <c r="AD1" s="531"/>
-      <c r="AE1" s="531"/>
-      <c r="AF1" s="531"/>
-      <c r="AG1" s="532"/>
+      <c r="AA1" s="544"/>
+      <c r="AB1" s="544"/>
+      <c r="AC1" s="544"/>
+      <c r="AD1" s="544"/>
+      <c r="AE1" s="544"/>
+      <c r="AF1" s="544"/>
+      <c r="AG1" s="545"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
@@ -11273,18 +11273,18 @@
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
-      <c r="Z2" s="525" t="s">
+      <c r="Z2" s="526" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="526"/>
-      <c r="AB2" s="526"/>
-      <c r="AC2" s="526"/>
-      <c r="AD2" s="526"/>
-      <c r="AE2" s="527"/>
-      <c r="AF2" s="528" t="s">
+      <c r="AA2" s="527"/>
+      <c r="AB2" s="527"/>
+      <c r="AC2" s="527"/>
+      <c r="AD2" s="527"/>
+      <c r="AE2" s="528"/>
+      <c r="AF2" s="529" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="529"/>
+      <c r="AG2" s="530"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -11294,18 +11294,18 @@
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
-      <c r="Z3" s="525" t="s">
+      <c r="Z3" s="526" t="s">
         <v>85</v>
       </c>
-      <c r="AA3" s="526"/>
-      <c r="AB3" s="526"/>
-      <c r="AC3" s="526"/>
-      <c r="AD3" s="526"/>
-      <c r="AE3" s="527"/>
-      <c r="AF3" s="528" t="s">
+      <c r="AA3" s="527"/>
+      <c r="AB3" s="527"/>
+      <c r="AC3" s="527"/>
+      <c r="AD3" s="527"/>
+      <c r="AE3" s="528"/>
+      <c r="AF3" s="529" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" s="529"/>
+      <c r="AG3" s="530"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
@@ -11318,18 +11318,18 @@
       <c r="T4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="525" t="s">
+      <c r="Z4" s="526" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="526"/>
-      <c r="AB4" s="526"/>
-      <c r="AC4" s="526"/>
-      <c r="AD4" s="526"/>
-      <c r="AE4" s="527"/>
-      <c r="AF4" s="528" t="s">
+      <c r="AA4" s="527"/>
+      <c r="AB4" s="527"/>
+      <c r="AC4" s="527"/>
+      <c r="AD4" s="527"/>
+      <c r="AE4" s="528"/>
+      <c r="AF4" s="529" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="529"/>
+      <c r="AG4" s="530"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
@@ -11339,18 +11339,18 @@
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
-      <c r="Z5" s="525" t="s">
+      <c r="Z5" s="526" t="s">
         <v>91</v>
       </c>
-      <c r="AA5" s="526"/>
-      <c r="AB5" s="526"/>
-      <c r="AC5" s="526"/>
-      <c r="AD5" s="526"/>
-      <c r="AE5" s="527"/>
-      <c r="AF5" s="528" t="s">
+      <c r="AA5" s="527"/>
+      <c r="AB5" s="527"/>
+      <c r="AC5" s="527"/>
+      <c r="AD5" s="527"/>
+      <c r="AE5" s="528"/>
+      <c r="AF5" s="529" t="s">
         <v>92</v>
       </c>
-      <c r="AG5" s="529"/>
+      <c r="AG5" s="530"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
@@ -11360,93 +11360,93 @@
       <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:40" s="83" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="534" t="s">
+      <c r="A7" s="531" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="534"/>
-      <c r="C7" s="534"/>
-      <c r="D7" s="534"/>
-      <c r="E7" s="534"/>
-      <c r="F7" s="534"/>
-      <c r="G7" s="534"/>
-      <c r="H7" s="534"/>
-      <c r="I7" s="534"/>
-      <c r="J7" s="534"/>
-      <c r="K7" s="534"/>
-      <c r="L7" s="534"/>
-      <c r="M7" s="534"/>
-      <c r="N7" s="534"/>
-      <c r="O7" s="534"/>
-      <c r="P7" s="534"/>
-      <c r="Q7" s="534"/>
-      <c r="R7" s="534"/>
-      <c r="S7" s="534"/>
-      <c r="T7" s="534"/>
-      <c r="U7" s="534"/>
-      <c r="V7" s="534"/>
-      <c r="W7" s="534"/>
-      <c r="X7" s="534"/>
-      <c r="Y7" s="534"/>
-      <c r="Z7" s="534"/>
-      <c r="AA7" s="534"/>
-      <c r="AB7" s="534"/>
-      <c r="AC7" s="534"/>
-      <c r="AD7" s="534"/>
-      <c r="AE7" s="534"/>
-      <c r="AF7" s="534"/>
-      <c r="AG7" s="534"/>
-      <c r="AH7" s="534"/>
-      <c r="AI7" s="534"/>
-      <c r="AJ7" s="534"/>
-      <c r="AK7" s="534"/>
-      <c r="AL7" s="534"/>
-      <c r="AM7" s="534"/>
+      <c r="B7" s="531"/>
+      <c r="C7" s="531"/>
+      <c r="D7" s="531"/>
+      <c r="E7" s="531"/>
+      <c r="F7" s="531"/>
+      <c r="G7" s="531"/>
+      <c r="H7" s="531"/>
+      <c r="I7" s="531"/>
+      <c r="J7" s="531"/>
+      <c r="K7" s="531"/>
+      <c r="L7" s="531"/>
+      <c r="M7" s="531"/>
+      <c r="N7" s="531"/>
+      <c r="O7" s="531"/>
+      <c r="P7" s="531"/>
+      <c r="Q7" s="531"/>
+      <c r="R7" s="531"/>
+      <c r="S7" s="531"/>
+      <c r="T7" s="531"/>
+      <c r="U7" s="531"/>
+      <c r="V7" s="531"/>
+      <c r="W7" s="531"/>
+      <c r="X7" s="531"/>
+      <c r="Y7" s="531"/>
+      <c r="Z7" s="531"/>
+      <c r="AA7" s="531"/>
+      <c r="AB7" s="531"/>
+      <c r="AC7" s="531"/>
+      <c r="AD7" s="531"/>
+      <c r="AE7" s="531"/>
+      <c r="AF7" s="531"/>
+      <c r="AG7" s="531"/>
+      <c r="AH7" s="531"/>
+      <c r="AI7" s="531"/>
+      <c r="AJ7" s="531"/>
+      <c r="AK7" s="531"/>
+      <c r="AL7" s="531"/>
+      <c r="AM7" s="531"/>
       <c r="AN7" s="82"/>
     </row>
     <row r="9" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="535" t="s">
+      <c r="A9" s="532" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="535" t="s">
+      <c r="B9" s="532" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="535" t="s">
+      <c r="C9" s="532" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="538" t="s">
+      <c r="D9" s="535" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="539"/>
-      <c r="F9" s="539"/>
-      <c r="G9" s="539"/>
-      <c r="H9" s="539"/>
-      <c r="I9" s="539"/>
-      <c r="J9" s="539"/>
-      <c r="K9" s="539"/>
-      <c r="L9" s="539"/>
-      <c r="M9" s="539"/>
-      <c r="N9" s="539"/>
-      <c r="O9" s="539"/>
-      <c r="P9" s="539"/>
-      <c r="Q9" s="539"/>
-      <c r="R9" s="539"/>
-      <c r="S9" s="539"/>
-      <c r="T9" s="539"/>
-      <c r="U9" s="539"/>
-      <c r="V9" s="539"/>
-      <c r="W9" s="539"/>
-      <c r="X9" s="539"/>
-      <c r="Y9" s="539"/>
-      <c r="Z9" s="539"/>
-      <c r="AA9" s="539"/>
-      <c r="AB9" s="539"/>
-      <c r="AC9" s="539"/>
-      <c r="AD9" s="539"/>
-      <c r="AE9" s="539"/>
-      <c r="AF9" s="539"/>
-      <c r="AG9" s="539"/>
-      <c r="AH9" s="540"/>
-      <c r="AI9" s="541" t="s">
+      <c r="E9" s="536"/>
+      <c r="F9" s="536"/>
+      <c r="G9" s="536"/>
+      <c r="H9" s="536"/>
+      <c r="I9" s="536"/>
+      <c r="J9" s="536"/>
+      <c r="K9" s="536"/>
+      <c r="L9" s="536"/>
+      <c r="M9" s="536"/>
+      <c r="N9" s="536"/>
+      <c r="O9" s="536"/>
+      <c r="P9" s="536"/>
+      <c r="Q9" s="536"/>
+      <c r="R9" s="536"/>
+      <c r="S9" s="536"/>
+      <c r="T9" s="536"/>
+      <c r="U9" s="536"/>
+      <c r="V9" s="536"/>
+      <c r="W9" s="536"/>
+      <c r="X9" s="536"/>
+      <c r="Y9" s="536"/>
+      <c r="Z9" s="536"/>
+      <c r="AA9" s="536"/>
+      <c r="AB9" s="536"/>
+      <c r="AC9" s="536"/>
+      <c r="AD9" s="536"/>
+      <c r="AE9" s="536"/>
+      <c r="AF9" s="536"/>
+      <c r="AG9" s="536"/>
+      <c r="AH9" s="537"/>
+      <c r="AI9" s="538" t="s">
         <v>97</v>
       </c>
       <c r="AJ9" s="84"/>
@@ -11456,9 +11456,9 @@
       <c r="AN9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="536"/>
-      <c r="B10" s="536"/>
-      <c r="C10" s="536"/>
+      <c r="A10" s="533"/>
+      <c r="B10" s="533"/>
+      <c r="C10" s="533"/>
       <c r="D10" s="89">
         <v>1</v>
       </c>
@@ -11552,7 +11552,7 @@
       <c r="AH10" s="89">
         <v>31</v>
       </c>
-      <c r="AI10" s="541"/>
+      <c r="AI10" s="538"/>
       <c r="AJ10" s="90"/>
       <c r="AK10" s="86"/>
       <c r="AL10" s="86"/>
@@ -11560,9 +11560,9 @@
       <c r="AN10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="537"/>
-      <c r="B11" s="537"/>
-      <c r="C11" s="537"/>
+      <c r="A11" s="534"/>
+      <c r="B11" s="534"/>
+      <c r="C11" s="534"/>
       <c r="D11" s="89" t="s">
         <v>103</v>
       </c>
@@ -11656,7 +11656,7 @@
       <c r="AH11" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="AI11" s="541"/>
+      <c r="AI11" s="538"/>
       <c r="AJ11" s="93"/>
       <c r="AN11" s="95"/>
     </row>
@@ -11977,10 +11977,10 @@
       <c r="AN14" s="95"/>
     </row>
     <row r="15" spans="1:40" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="542" t="s">
+      <c r="A15" s="539" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="543"/>
+      <c r="B15" s="540"/>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="98"/>
@@ -12023,49 +12023,49 @@
       <c r="AN15" s="95"/>
     </row>
     <row r="17" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="544" t="s">
+      <c r="A17" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="544"/>
-      <c r="C17" s="544"/>
-      <c r="D17" s="544"/>
-      <c r="E17" s="544"/>
-      <c r="F17" s="544"/>
-      <c r="G17" s="544"/>
+      <c r="B17" s="541"/>
+      <c r="C17" s="541"/>
+      <c r="D17" s="541"/>
+      <c r="E17" s="541"/>
+      <c r="F17" s="541"/>
+      <c r="G17" s="541"/>
       <c r="H17" s="102"/>
-      <c r="I17" s="545"/>
-      <c r="J17" s="545"/>
-      <c r="K17" s="545"/>
-      <c r="L17" s="545"/>
-      <c r="M17" s="545"/>
+      <c r="I17" s="542"/>
+      <c r="J17" s="542"/>
+      <c r="K17" s="542"/>
+      <c r="L17" s="542"/>
+      <c r="M17" s="542"/>
       <c r="N17" s="103"/>
-      <c r="O17" s="545" t="s">
+      <c r="O17" s="542" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="545"/>
-      <c r="Q17" s="545"/>
-      <c r="R17" s="545"/>
-      <c r="S17" s="545"/>
-      <c r="T17" s="545"/>
-      <c r="U17" s="545"/>
-      <c r="V17" s="545"/>
-      <c r="W17" s="545"/>
-      <c r="X17" s="545"/>
-      <c r="Y17" s="545"/>
+      <c r="P17" s="542"/>
+      <c r="Q17" s="542"/>
+      <c r="R17" s="542"/>
+      <c r="S17" s="542"/>
+      <c r="T17" s="542"/>
+      <c r="U17" s="542"/>
+      <c r="V17" s="542"/>
+      <c r="W17" s="542"/>
+      <c r="X17" s="542"/>
+      <c r="Y17" s="542"/>
       <c r="Z17" s="104"/>
       <c r="AA17" s="104"/>
       <c r="AB17" s="105"/>
-      <c r="AC17" s="545"/>
-      <c r="AD17" s="545"/>
-      <c r="AE17" s="545"/>
-      <c r="AF17" s="545"/>
-      <c r="AG17" s="545"/>
-      <c r="AH17" s="545"/>
-      <c r="AI17" s="545"/>
-      <c r="AJ17" s="545"/>
-      <c r="AK17" s="545"/>
-      <c r="AL17" s="545"/>
-      <c r="AM17" s="545"/>
+      <c r="AC17" s="542"/>
+      <c r="AD17" s="542"/>
+      <c r="AE17" s="542"/>
+      <c r="AF17" s="542"/>
+      <c r="AG17" s="542"/>
+      <c r="AH17" s="542"/>
+      <c r="AI17" s="542"/>
+      <c r="AJ17" s="542"/>
+      <c r="AK17" s="542"/>
+      <c r="AL17" s="542"/>
+      <c r="AM17" s="542"/>
       <c r="AN17" s="106"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12099,131 +12099,131 @@
       <c r="AN32" s="111"/>
     </row>
     <row r="33" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="533"/>
-      <c r="H33" s="533"/>
-      <c r="I33" s="533"/>
-      <c r="J33" s="533"/>
-      <c r="K33" s="533"/>
-      <c r="L33" s="533"/>
-      <c r="M33" s="533"/>
-      <c r="N33" s="533"/>
-      <c r="O33" s="533"/>
-      <c r="P33" s="533"/>
-      <c r="Q33" s="533"/>
-      <c r="R33" s="533"/>
-      <c r="S33" s="533"/>
-      <c r="T33" s="533"/>
-      <c r="U33" s="533"/>
-      <c r="V33" s="533"/>
-      <c r="W33" s="533"/>
-      <c r="X33" s="533"/>
+      <c r="G33" s="525"/>
+      <c r="H33" s="525"/>
+      <c r="I33" s="525"/>
+      <c r="J33" s="525"/>
+      <c r="K33" s="525"/>
+      <c r="L33" s="525"/>
+      <c r="M33" s="525"/>
+      <c r="N33" s="525"/>
+      <c r="O33" s="525"/>
+      <c r="P33" s="525"/>
+      <c r="Q33" s="525"/>
+      <c r="R33" s="525"/>
+      <c r="S33" s="525"/>
+      <c r="T33" s="525"/>
+      <c r="U33" s="525"/>
+      <c r="V33" s="525"/>
+      <c r="W33" s="525"/>
+      <c r="X33" s="525"/>
       <c r="AN33" s="111"/>
     </row>
     <row r="34" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="533"/>
-      <c r="H34" s="533"/>
-      <c r="I34" s="533"/>
-      <c r="J34" s="533"/>
-      <c r="K34" s="533"/>
-      <c r="L34" s="533"/>
-      <c r="M34" s="533"/>
-      <c r="N34" s="533"/>
-      <c r="O34" s="533"/>
-      <c r="P34" s="533"/>
-      <c r="Q34" s="533"/>
-      <c r="R34" s="533"/>
-      <c r="S34" s="533"/>
-      <c r="T34" s="533"/>
-      <c r="U34" s="533"/>
-      <c r="V34" s="533"/>
-      <c r="W34" s="533"/>
-      <c r="X34" s="533"/>
+      <c r="G34" s="525"/>
+      <c r="H34" s="525"/>
+      <c r="I34" s="525"/>
+      <c r="J34" s="525"/>
+      <c r="K34" s="525"/>
+      <c r="L34" s="525"/>
+      <c r="M34" s="525"/>
+      <c r="N34" s="525"/>
+      <c r="O34" s="525"/>
+      <c r="P34" s="525"/>
+      <c r="Q34" s="525"/>
+      <c r="R34" s="525"/>
+      <c r="S34" s="525"/>
+      <c r="T34" s="525"/>
+      <c r="U34" s="525"/>
+      <c r="V34" s="525"/>
+      <c r="W34" s="525"/>
+      <c r="X34" s="525"/>
       <c r="AN34" s="111"/>
     </row>
     <row r="35" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="533"/>
-      <c r="H35" s="533"/>
-      <c r="I35" s="533"/>
-      <c r="J35" s="533"/>
-      <c r="K35" s="533"/>
-      <c r="L35" s="533"/>
-      <c r="M35" s="533"/>
-      <c r="N35" s="533"/>
-      <c r="O35" s="533"/>
-      <c r="P35" s="533"/>
-      <c r="Q35" s="533"/>
-      <c r="R35" s="533"/>
-      <c r="S35" s="533"/>
-      <c r="T35" s="533"/>
-      <c r="U35" s="533"/>
-      <c r="V35" s="533"/>
-      <c r="W35" s="533"/>
-      <c r="X35" s="533"/>
+      <c r="G35" s="525"/>
+      <c r="H35" s="525"/>
+      <c r="I35" s="525"/>
+      <c r="J35" s="525"/>
+      <c r="K35" s="525"/>
+      <c r="L35" s="525"/>
+      <c r="M35" s="525"/>
+      <c r="N35" s="525"/>
+      <c r="O35" s="525"/>
+      <c r="P35" s="525"/>
+      <c r="Q35" s="525"/>
+      <c r="R35" s="525"/>
+      <c r="S35" s="525"/>
+      <c r="T35" s="525"/>
+      <c r="U35" s="525"/>
+      <c r="V35" s="525"/>
+      <c r="W35" s="525"/>
+      <c r="X35" s="525"/>
       <c r="AN35" s="111"/>
     </row>
     <row r="36" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="533"/>
-      <c r="H36" s="533"/>
-      <c r="I36" s="533"/>
-      <c r="J36" s="533"/>
-      <c r="K36" s="533"/>
-      <c r="L36" s="533"/>
-      <c r="M36" s="533"/>
-      <c r="N36" s="533"/>
-      <c r="O36" s="533"/>
-      <c r="P36" s="533"/>
-      <c r="Q36" s="533"/>
-      <c r="R36" s="533"/>
-      <c r="S36" s="533"/>
-      <c r="T36" s="533"/>
-      <c r="U36" s="533"/>
-      <c r="V36" s="533"/>
-      <c r="W36" s="533"/>
-      <c r="X36" s="533"/>
+      <c r="G36" s="525"/>
+      <c r="H36" s="525"/>
+      <c r="I36" s="525"/>
+      <c r="J36" s="525"/>
+      <c r="K36" s="525"/>
+      <c r="L36" s="525"/>
+      <c r="M36" s="525"/>
+      <c r="N36" s="525"/>
+      <c r="O36" s="525"/>
+      <c r="P36" s="525"/>
+      <c r="Q36" s="525"/>
+      <c r="R36" s="525"/>
+      <c r="S36" s="525"/>
+      <c r="T36" s="525"/>
+      <c r="U36" s="525"/>
+      <c r="V36" s="525"/>
+      <c r="W36" s="525"/>
+      <c r="X36" s="525"/>
       <c r="AN36" s="111"/>
     </row>
     <row r="37" spans="3:40" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="533"/>
-      <c r="H37" s="533"/>
-      <c r="I37" s="533"/>
-      <c r="J37" s="533"/>
-      <c r="K37" s="533"/>
-      <c r="L37" s="533"/>
-      <c r="M37" s="533"/>
-      <c r="N37" s="533"/>
-      <c r="O37" s="533"/>
-      <c r="P37" s="533"/>
-      <c r="Q37" s="533"/>
-      <c r="R37" s="533"/>
-      <c r="S37" s="533"/>
-      <c r="T37" s="533"/>
-      <c r="U37" s="533"/>
-      <c r="V37" s="533"/>
-      <c r="W37" s="533"/>
-      <c r="X37" s="533"/>
+      <c r="G37" s="525"/>
+      <c r="H37" s="525"/>
+      <c r="I37" s="525"/>
+      <c r="J37" s="525"/>
+      <c r="K37" s="525"/>
+      <c r="L37" s="525"/>
+      <c r="M37" s="525"/>
+      <c r="N37" s="525"/>
+      <c r="O37" s="525"/>
+      <c r="P37" s="525"/>
+      <c r="Q37" s="525"/>
+      <c r="R37" s="525"/>
+      <c r="S37" s="525"/>
+      <c r="T37" s="525"/>
+      <c r="U37" s="525"/>
+      <c r="V37" s="525"/>
+      <c r="W37" s="525"/>
+      <c r="X37" s="525"/>
       <c r="AN37" s="111"/>
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
-      <c r="G38" s="533"/>
-      <c r="H38" s="533"/>
-      <c r="I38" s="533"/>
-      <c r="J38" s="533"/>
-      <c r="K38" s="533"/>
-      <c r="L38" s="533"/>
-      <c r="M38" s="533"/>
-      <c r="N38" s="533"/>
-      <c r="O38" s="533"/>
-      <c r="P38" s="533"/>
-      <c r="Q38" s="533"/>
-      <c r="R38" s="533"/>
-      <c r="S38" s="533"/>
-      <c r="T38" s="533"/>
-      <c r="U38" s="533"/>
-      <c r="V38" s="533"/>
-      <c r="W38" s="533"/>
-      <c r="X38" s="533"/>
+      <c r="G38" s="525"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="525"/>
+      <c r="J38" s="525"/>
+      <c r="K38" s="525"/>
+      <c r="L38" s="525"/>
+      <c r="M38" s="525"/>
+      <c r="N38" s="525"/>
+      <c r="O38" s="525"/>
+      <c r="P38" s="525"/>
+      <c r="Q38" s="525"/>
+      <c r="R38" s="525"/>
+      <c r="S38" s="525"/>
+      <c r="T38" s="525"/>
+      <c r="U38" s="525"/>
+      <c r="V38" s="525"/>
+      <c r="W38" s="525"/>
+      <c r="X38" s="525"/>
       <c r="AN38" s="76"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
@@ -12233,6 +12233,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G33:X38"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -12247,13 +12254,6 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="O17:Y17"/>
     <mergeCell ref="AC17:AM17"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" display="T@"/>
@@ -13117,29 +13117,29 @@
       <c r="C1" s="372"/>
       <c r="D1" s="372"/>
       <c r="E1" s="124"/>
-      <c r="F1" s="546" t="s">
+      <c r="F1" s="553" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="546"/>
-      <c r="H1" s="546"/>
-      <c r="I1" s="546"/>
-      <c r="J1" s="546"/>
+      <c r="G1" s="553"/>
+      <c r="H1" s="553"/>
+      <c r="I1" s="553"/>
+      <c r="J1" s="553"/>
     </row>
     <row r="2" spans="1:14" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="547" t="s">
+      <c r="A2" s="554" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="547"/>
-      <c r="C2" s="547"/>
-      <c r="D2" s="547"/>
+      <c r="B2" s="554"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="554"/>
       <c r="E2" s="124"/>
-      <c r="F2" s="548" t="s">
+      <c r="F2" s="555" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="548"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="548"/>
-      <c r="J2" s="548"/>
+      <c r="G2" s="555"/>
+      <c r="H2" s="555"/>
+      <c r="I2" s="555"/>
+      <c r="J2" s="555"/>
     </row>
     <row r="3" spans="1:14" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="126"/>
@@ -13181,11 +13181,11 @@
       <c r="K5" s="549"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="550" t="s">
+      <c r="I6" s="546" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="550"/>
-      <c r="K6" s="550"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="546"/>
     </row>
     <row r="7" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="373" t="s">
@@ -13244,10 +13244,10 @@
       <c r="K8" s="382"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="551" t="s">
+      <c r="A9" s="547" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="552"/>
+      <c r="B9" s="548"/>
       <c r="C9" s="379"/>
       <c r="D9" s="379"/>
       <c r="E9" s="380"/>
@@ -13361,11 +13361,11 @@
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="553" t="s">
+      <c r="A13" s="550" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="554"/>
-      <c r="C13" s="555"/>
+      <c r="B13" s="551"/>
+      <c r="C13" s="552"/>
       <c r="D13" s="391">
         <f>SUM(D10:D12)</f>
         <v>27000000</v>
@@ -13428,16 +13428,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.62" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
